--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>645458304</v>
+        <v>640704918</v>
       </c>
       <c r="E2" t="n">
-        <v>1252521683</v>
+        <v>1243306620</v>
       </c>
       <c r="F2" t="n">
-        <v>13079.24976385303</v>
+        <v>19239.42799223896</v>
       </c>
       <c r="G2" t="n">
-        <v>34601.95034922496</v>
+        <v>37807.99243922884</v>
       </c>
       <c r="H2" t="n">
         <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>32462277</v>
+        <v>37023859</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1475728</v>
+        <v>1495036</v>
       </c>
       <c r="E3" t="n">
-        <v>4770159</v>
+        <v>4832571</v>
       </c>
       <c r="F3" t="n">
-        <v>2368.205170953014</v>
+        <v>2394.520734395815</v>
       </c>
       <c r="G3" t="n">
-        <v>1687.851132887367</v>
+        <v>1791.906243735948</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
       <c r="I3" t="n">
-        <v>219692</v>
+        <v>223747</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254197149</v>
+        <v>253579119</v>
       </c>
       <c r="E4" t="n">
-        <v>1594034589</v>
+        <v>1590159011</v>
       </c>
       <c r="F4" t="n">
-        <v>139780.9835078876</v>
+        <v>141856.3303566781</v>
       </c>
       <c r="G4" t="n">
-        <v>140593.7648003962</v>
+        <v>150237.5169206765</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>19736143</v>
+        <v>22654527</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149064238</v>
+        <v>148253321</v>
       </c>
       <c r="E5" t="n">
-        <v>165186471</v>
+        <v>164287848</v>
       </c>
       <c r="F5" t="n">
-        <v>9501.486290875173</v>
+        <v>11209.91988040459</v>
       </c>
       <c r="G5" t="n">
-        <v>23152.66538902874</v>
+        <v>27115.86804643407</v>
       </c>
       <c r="H5" t="n">
         <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>45784601</v>
+        <v>49173491</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>674377</v>
+        <v>674590</v>
       </c>
       <c r="E6" t="n">
-        <v>13101266</v>
+        <v>13105407</v>
       </c>
       <c r="F6" t="n">
-        <v>299.0335458394944</v>
+        <v>259.9096067349625</v>
       </c>
       <c r="G6" t="n">
-        <v>311.0989588675124</v>
+        <v>391.9410144397143</v>
       </c>
       <c r="H6" t="n">
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>25523</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>516817955</v>
+        <v>518788427</v>
       </c>
       <c r="E7" t="n">
-        <v>516817957</v>
+        <v>518788428</v>
       </c>
       <c r="F7" t="n">
-        <v>26389.54313525436</v>
+        <v>49306.30947269176</v>
       </c>
       <c r="G7" t="n">
-        <v>41085.73323244366</v>
+        <v>58977.35700971183</v>
       </c>
       <c r="H7" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>80855465</v>
+        <v>72664251</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="E8" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="F8" t="n">
-        <v>993.4402870513787</v>
+        <v>941.391375783599</v>
       </c>
       <c r="G8" t="n">
-        <v>1284.033485190356</v>
+        <v>1184.941076930389</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="I8" t="n">
-        <v>2118250</v>
+        <v>2234423</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1731049</v>
+        <v>1737610</v>
       </c>
       <c r="F9" t="n">
-        <v>3640.302169691658</v>
+        <v>72.86181993268391</v>
       </c>
       <c r="G9" t="n">
-        <v>2718.907717214879</v>
+        <v>639.6489049514696</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>211056</v>
+        <v>160152</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2931510</v>
+        <v>2155190</v>
       </c>
       <c r="F10" t="n">
-        <v>274.6532112289194</v>
+        <v>159.2631730434569</v>
       </c>
       <c r="G10" t="n">
-        <v>82.23178508273567</v>
+        <v>219.3754151518731</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>0.88</v>
       </c>
       <c r="I10" t="n">
-        <v>1130373</v>
+        <v>1194848</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109352327</v>
+        <v>108763168</v>
       </c>
       <c r="E11" t="n">
-        <v>206006822</v>
+        <v>204896916</v>
       </c>
       <c r="F11" t="n">
-        <v>1486.638125476001</v>
+        <v>1381.214524629965</v>
       </c>
       <c r="G11" t="n">
-        <v>1497.624070066104</v>
+        <v>1540.147079751536</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4069075</v>
+        <v>4031257</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12343324</v>
+        <v>12074068</v>
       </c>
       <c r="E12" t="n">
-        <v>30720300</v>
+        <v>30050171</v>
       </c>
       <c r="F12" t="n">
-        <v>1104.822855049135</v>
+        <v>964.1771210712571</v>
       </c>
       <c r="G12" t="n">
-        <v>2728.619393432799</v>
+        <v>4105.395429033922</v>
       </c>
       <c r="H12" t="n">
-        <v>1.27</v>
+        <v>0.73</v>
       </c>
       <c r="I12" t="n">
-        <v>1421666</v>
+        <v>1410490</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114425445</v>
+        <v>114551704</v>
       </c>
       <c r="E13" t="n">
-        <v>444945107</v>
+        <v>445410433</v>
       </c>
       <c r="F13" t="n">
-        <v>7224.120492559076</v>
+        <v>22299.03182932366</v>
       </c>
       <c r="G13" t="n">
-        <v>6897.627021581838</v>
+        <v>22378.72492699661</v>
       </c>
       <c r="H13" t="n">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>18697485</v>
+        <v>12800080</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4960939</v>
+        <v>4892514</v>
       </c>
       <c r="E14" t="n">
-        <v>7302771</v>
+        <v>7202045</v>
       </c>
       <c r="F14" t="n">
-        <v>191.4782166117498</v>
+        <v>1.38198939507589</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3115694725459</v>
+        <v>198.8586659021069</v>
       </c>
       <c r="H14" t="n">
         <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>570237</v>
+        <v>550570</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>145057236</v>
+        <v>145697335</v>
       </c>
       <c r="E15" t="n">
-        <v>145057236</v>
+        <v>145697335</v>
       </c>
       <c r="F15" t="n">
-        <v>52770.05487243851</v>
+        <v>53371.68319576416</v>
       </c>
       <c r="G15" t="n">
-        <v>80295.56620254238</v>
+        <v>72914.81003835952</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>78300862</v>
+        <v>86801332</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68097228</v>
+        <v>67519461</v>
       </c>
       <c r="E16" t="n">
-        <v>349216553</v>
+        <v>346253646</v>
       </c>
       <c r="F16" t="n">
-        <v>14604.05073209568</v>
+        <v>10382.64090161939</v>
       </c>
       <c r="G16" t="n">
-        <v>23111.00322592483</v>
+        <v>15912.52578517043</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>25243492</v>
+        <v>26235894</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="E17" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="F17" t="n">
-        <v>51380.30440029791</v>
+        <v>42821.01019254486</v>
       </c>
       <c r="G17" t="n">
-        <v>47205.32184123091</v>
+        <v>54187.08629655531</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>21335002</v>
+        <v>20412994</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2571580</v>
+        <v>2573058</v>
       </c>
       <c r="E18" t="n">
-        <v>6574467</v>
+        <v>6578246</v>
       </c>
       <c r="F18" t="n">
-        <v>913.4692467995401</v>
+        <v>863.5829030779196</v>
       </c>
       <c r="G18" t="n">
-        <v>876.4660826584501</v>
+        <v>876.3930657908716</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>79692</v>
+        <v>78177</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84940195</v>
+        <v>84909674</v>
       </c>
       <c r="E19" t="n">
-        <v>237608107</v>
+        <v>237534055</v>
       </c>
       <c r="F19" t="n">
-        <v>24857.50989662884</v>
+        <v>21043.74160259889</v>
       </c>
       <c r="G19" t="n">
-        <v>16247.17767228848</v>
+        <v>21034.06892691783</v>
       </c>
       <c r="H19" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>49050335</v>
+        <v>54395864</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1629721</v>
+        <v>1598147</v>
       </c>
       <c r="E20" t="n">
-        <v>9357251</v>
+        <v>9175964</v>
       </c>
       <c r="F20" t="n">
-        <v>23.38587213860541</v>
+        <v>55.37296211409821</v>
       </c>
       <c r="G20" t="n">
-        <v>689.7994242736843</v>
+        <v>699.139787984528</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="I20" t="n">
-        <v>238898</v>
+        <v>236105</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>172798</v>
+        <v>170789</v>
       </c>
       <c r="E21" t="n">
-        <v>1166926</v>
+        <v>1153355</v>
       </c>
       <c r="F21" t="n">
-        <v>3.671131560616547</v>
+        <v>6.521103982819561</v>
       </c>
       <c r="G21" t="n">
-        <v>130.6628631989228</v>
+        <v>6.751564797385925</v>
       </c>
       <c r="H21" t="n">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="I21" t="n">
-        <v>2965234</v>
+        <v>2992073</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>255890</v>
+        <v>251877</v>
       </c>
       <c r="F22" t="n">
-        <v>48.24538562462066</v>
+        <v>158.6487535094606</v>
       </c>
       <c r="G22" t="n">
-        <v>140.0746850473632</v>
+        <v>409.7111623493005</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
       <c r="I22" t="n">
-        <v>3679.33</v>
+        <v>3884.6</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>89367460</v>
+        <v>90400736</v>
       </c>
       <c r="E23" t="n">
-        <v>186323976</v>
+        <v>188478273</v>
       </c>
       <c r="F23" t="n">
-        <v>24872.05462679096</v>
+        <v>21215.72396719603</v>
       </c>
       <c r="G23" t="n">
-        <v>44036.80285735596</v>
+        <v>45583.23647079175</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>56533693</v>
+        <v>65470568</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>207597231</v>
+        <v>207776642</v>
       </c>
       <c r="E24" t="n">
-        <v>721211542</v>
+        <v>721834832</v>
       </c>
       <c r="F24" t="n">
-        <v>60315.62954637289</v>
+        <v>60777.87191481211</v>
       </c>
       <c r="G24" t="n">
-        <v>61727.1721727232</v>
+        <v>63912.77938438647</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>38821072</v>
+        <v>36877680</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>117148002</v>
+        <v>116834697</v>
       </c>
       <c r="E25" t="n">
-        <v>497223256</v>
+        <v>495841779</v>
       </c>
       <c r="F25" t="n">
-        <v>17520.70770255199</v>
+        <v>17375.20437833654</v>
       </c>
       <c r="G25" t="n">
-        <v>14943.9064798732</v>
+        <v>17589.12523998575</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
-        <v>15067001</v>
+        <v>15804215</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5953880</v>
+        <v>5819371</v>
       </c>
       <c r="E26" t="n">
-        <v>8082505</v>
+        <v>7899793</v>
       </c>
       <c r="F26" t="n">
-        <v>653.7188408755545</v>
+        <v>795.1314250155127</v>
       </c>
       <c r="G26" t="n">
-        <v>864.1509698961166</v>
+        <v>1930.670211817821</v>
       </c>
       <c r="H26" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="I26" t="n">
-        <v>4819338</v>
+        <v>5309096</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>554788</v>
+        <v>546263</v>
       </c>
       <c r="E27" t="n">
-        <v>6729044</v>
+        <v>6625638</v>
       </c>
       <c r="F27" t="n">
-        <v>525.4803598058451</v>
+        <v>727.0419186152117</v>
       </c>
       <c r="G27" t="n">
-        <v>193.5563513975476</v>
+        <v>255.2574413408423</v>
       </c>
       <c r="H27" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2763226</v>
+        <v>2761750</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26493287</v>
+        <v>25848176</v>
       </c>
       <c r="E28" t="n">
-        <v>37439287</v>
+        <v>36527641</v>
       </c>
       <c r="F28" t="n">
-        <v>125.2995915534689</v>
+        <v>491.7316249492981</v>
       </c>
       <c r="G28" t="n">
-        <v>1.768626855375713</v>
+        <v>1158.964685534766</v>
       </c>
       <c r="H28" t="n">
-        <v>3.08</v>
+        <v>1.82</v>
       </c>
       <c r="I28" t="n">
-        <v>80690</v>
+        <v>91468</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1374077243</v>
+        <v>1367568162</v>
       </c>
       <c r="E29" t="n">
-        <v>6588981786</v>
+        <v>6557769406</v>
       </c>
       <c r="F29" t="n">
-        <v>156910.9901998732</v>
+        <v>119005.5533205705</v>
       </c>
       <c r="G29" t="n">
-        <v>227293.0981445337</v>
+        <v>209948.0434999615</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>274098928</v>
+        <v>385015997</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>271324949</v>
+        <v>270304248</v>
       </c>
       <c r="E30" t="n">
-        <v>1171189104</v>
+        <v>1166783190</v>
       </c>
       <c r="F30" t="n">
-        <v>204598.3834914205</v>
+        <v>210084.5339968489</v>
       </c>
       <c r="G30" t="n">
-        <v>207671.8169970659</v>
+        <v>184466.243326817</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>114632507</v>
+        <v>132553448</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5368695</v>
+        <v>5342357</v>
       </c>
       <c r="E31" t="n">
-        <v>5374771</v>
+        <v>5348404</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11742675895441</v>
+        <v>87.29442781265976</v>
       </c>
       <c r="G31" t="n">
-        <v>172.3710886958542</v>
+        <v>173.5228470884382</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>145725</v>
+        <v>145320</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19134988</v>
+        <v>17666335</v>
       </c>
       <c r="E32" t="n">
-        <v>47837469</v>
+        <v>44165837</v>
       </c>
       <c r="F32" t="n">
-        <v>1492.617163068058</v>
+        <v>2895.921764280175</v>
       </c>
       <c r="G32" t="n">
-        <v>4385.850555135275</v>
+        <v>3431.728267873858</v>
       </c>
       <c r="H32" t="n">
-        <v>0.77</v>
+        <v>0.61</v>
       </c>
       <c r="I32" t="n">
-        <v>2457727</v>
+        <v>3169969</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20006358</v>
+        <v>19902105</v>
       </c>
       <c r="F33" t="n">
-        <v>1950.922571664188</v>
+        <v>875.1848550364667</v>
       </c>
       <c r="G33" t="n">
-        <v>3034.77813282827</v>
+        <v>2787.321324362747</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>35104</v>
+        <v>55873</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4191506</v>
+        <v>4189890</v>
       </c>
       <c r="E34" t="n">
-        <v>12073715</v>
+        <v>12068240</v>
       </c>
       <c r="F34" t="n">
-        <v>1233.942887018118</v>
+        <v>2581.284278476827</v>
       </c>
       <c r="G34" t="n">
-        <v>1136.431988772319</v>
+        <v>1714.692099880044</v>
       </c>
       <c r="H34" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>593784</v>
+        <v>531992</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1571284</v>
+        <v>1586775</v>
       </c>
       <c r="F35" t="n">
-        <v>4.471061709219429</v>
+        <v>309.1843757321436</v>
       </c>
       <c r="G35" t="n">
-        <v>716.6114193307631</v>
+        <v>425.7998926284004</v>
       </c>
       <c r="H35" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>9594.469999999999</v>
+        <v>9265.67</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15960306</v>
+        <v>15370095</v>
       </c>
       <c r="E36" t="n">
-        <v>77298310</v>
+        <v>74439825</v>
       </c>
       <c r="F36" t="n">
-        <v>7550.555459209909</v>
+        <v>5509.251231871747</v>
       </c>
       <c r="G36" t="n">
-        <v>7405.431866630328</v>
+        <v>8853.75780462687</v>
       </c>
       <c r="H36" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I36" t="n">
-        <v>4729521</v>
+        <v>5053458</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1454642</v>
+        <v>1414482</v>
       </c>
       <c r="E37" t="n">
-        <v>9520595</v>
+        <v>9257745</v>
       </c>
       <c r="F37" t="n">
-        <v>53.91474057535856</v>
+        <v>8.921954947216779</v>
       </c>
       <c r="G37" t="n">
-        <v>24.14561831805028</v>
+        <v>1677.15834264304</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="I37" t="n">
-        <v>508852</v>
+        <v>513320</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1897396482</v>
+        <v>1891496798</v>
       </c>
       <c r="F38" t="n">
-        <v>75980.31939683558</v>
+        <v>76336.9636737432</v>
       </c>
       <c r="G38" t="n">
-        <v>51048.3654063411</v>
+        <v>78331.41243936933</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.95</v>
       </c>
       <c r="I38" t="n">
-        <v>28666839</v>
+        <v>29231659</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31707588</v>
+        <v>31592893</v>
       </c>
       <c r="E39" t="n">
-        <v>98727254</v>
+        <v>98370133</v>
       </c>
       <c r="F39" t="n">
-        <v>2111.184721774755</v>
+        <v>3348.049629096819</v>
       </c>
       <c r="G39" t="n">
-        <v>10642.46324953117</v>
+        <v>11184.22069862181</v>
       </c>
       <c r="H39" t="n">
-        <v>0.71</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>9922871</v>
+        <v>10027311</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>208158161</v>
+        <v>203752230</v>
       </c>
       <c r="E40" t="n">
-        <v>1178719409</v>
+        <v>1153770321</v>
       </c>
       <c r="F40" t="n">
-        <v>42550.40824473263</v>
+        <v>47296.88228926454</v>
       </c>
       <c r="G40" t="n">
-        <v>78300.60136899071</v>
+        <v>81936.29722675536</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>70375134</v>
+        <v>81347049</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>143097129</v>
+        <v>123554933</v>
       </c>
       <c r="E41" t="n">
-        <v>1059978731</v>
+        <v>915221724</v>
       </c>
       <c r="F41" t="n">
-        <v>105678.325100598</v>
+        <v>100122.4210850662</v>
       </c>
       <c r="G41" t="n">
-        <v>179719.8020655595</v>
+        <v>149737.3793982986</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>8517846</v>
+        <v>18815315</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31972480</v>
+        <v>31392753</v>
       </c>
       <c r="E42" t="n">
-        <v>151821797</v>
+        <v>149068954</v>
       </c>
       <c r="F42" t="n">
-        <v>4606.063044456422</v>
+        <v>3822.015072421789</v>
       </c>
       <c r="G42" t="n">
-        <v>7596.686231850529</v>
+        <v>8602.848894976069</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I42" t="n">
-        <v>787807</v>
+        <v>695780</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3484920</v>
+        <v>3460297</v>
       </c>
       <c r="E43" t="n">
-        <v>8137869</v>
+        <v>8080371</v>
       </c>
       <c r="F43" t="n">
-        <v>733.4969624471047</v>
+        <v>478.0107410463228</v>
       </c>
       <c r="G43" t="n">
-        <v>2372.085477373512</v>
+        <v>2587.638531047393</v>
       </c>
       <c r="H43" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="I43" t="n">
-        <v>608848</v>
+        <v>630250</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>339209664</v>
+        <v>336982450</v>
       </c>
       <c r="E44" t="n">
-        <v>3051740476</v>
+        <v>3031703076</v>
       </c>
       <c r="F44" t="n">
-        <v>55670.7050502714</v>
+        <v>49853.22310720722</v>
       </c>
       <c r="G44" t="n">
-        <v>51037.6582044855</v>
+        <v>51747.75204079137</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>49583301</v>
+        <v>56048225</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>653025</v>
+        <v>642982</v>
       </c>
       <c r="F45" t="n">
-        <v>326.0485849611022</v>
+        <v>108.6164237284913</v>
       </c>
       <c r="G45" t="n">
-        <v>512.0033530685681</v>
+        <v>820.2352191235511</v>
       </c>
       <c r="H45" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>11941.45</v>
+        <v>12431.67</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1572360</v>
+        <v>1537918</v>
       </c>
       <c r="E46" t="n">
-        <v>13103002</v>
+        <v>12815987</v>
       </c>
       <c r="F46" t="n">
-        <v>196.3013701624176</v>
+        <v>733.8216807926804</v>
       </c>
       <c r="G46" t="n">
-        <v>740.4160004978348</v>
+        <v>274.1509191652531</v>
       </c>
       <c r="H46" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="I46" t="n">
-        <v>17867.72</v>
+        <v>32204</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4946268</v>
+        <v>4885702</v>
       </c>
       <c r="E47" t="n">
-        <v>17477466</v>
+        <v>17261171</v>
       </c>
       <c r="F47" t="n">
-        <v>1179.035533653641</v>
+        <v>1126.439051940695</v>
       </c>
       <c r="G47" t="n">
-        <v>1138.102986299192</v>
+        <v>1181.61741090348</v>
       </c>
       <c r="H47" t="n">
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>109800</v>
+        <v>109581</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50558218</v>
+        <v>50871556</v>
       </c>
       <c r="E48" t="n">
-        <v>292711191</v>
+        <v>294525289</v>
       </c>
       <c r="F48" t="n">
-        <v>11210.53244673817</v>
+        <v>13026.67181867372</v>
       </c>
       <c r="G48" t="n">
-        <v>7819.047353037799</v>
+        <v>12084.8298118324</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="I48" t="n">
-        <v>43877837</v>
+        <v>46360993</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2300612</v>
+        <v>2294801</v>
       </c>
       <c r="E49" t="n">
-        <v>12639956</v>
+        <v>12608029</v>
       </c>
       <c r="F49" t="n">
-        <v>420.980888876167</v>
+        <v>361.6150530061372</v>
       </c>
       <c r="G49" t="n">
-        <v>721.3875446899382</v>
+        <v>1460.921352310843</v>
       </c>
       <c r="H49" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>105009</v>
+        <v>104956</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14049555</v>
+        <v>13989270</v>
       </c>
       <c r="E50" t="n">
-        <v>14097367</v>
+        <v>14036877</v>
       </c>
       <c r="F50" t="n">
-        <v>4276.891386934213</v>
+        <v>3739.818638572957</v>
       </c>
       <c r="G50" t="n">
-        <v>10849.76521265953</v>
+        <v>10418.9906661426</v>
       </c>
       <c r="H50" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I50" t="n">
-        <v>6575215</v>
+        <v>6752733</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22549053</v>
+        <v>21430666</v>
       </c>
       <c r="E51" t="n">
-        <v>67596806</v>
+        <v>64242034</v>
       </c>
       <c r="F51" t="n">
-        <v>2411.789706895119</v>
+        <v>24475.83953335463</v>
       </c>
       <c r="G51" t="n">
-        <v>4535.821557215184</v>
+        <v>9794.915881063598</v>
       </c>
       <c r="H51" t="n">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="I51" t="n">
-        <v>3746890</v>
+        <v>3213443</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15953395</v>
+        <v>15831959</v>
       </c>
       <c r="E52" t="n">
-        <v>97783602</v>
+        <v>97039285</v>
       </c>
       <c r="F52" t="n">
-        <v>4250.201800595723</v>
+        <v>5885.223779413419</v>
       </c>
       <c r="G52" t="n">
-        <v>9413.830995377341</v>
+        <v>7758.40723546661</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>10798982</v>
+        <v>11228850</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50591433</v>
+        <v>50366905</v>
       </c>
       <c r="E53" t="n">
-        <v>217942363</v>
+        <v>216975119</v>
       </c>
       <c r="F53" t="n">
-        <v>20236.07772594467</v>
+        <v>10067.45344519805</v>
       </c>
       <c r="G53" t="n">
-        <v>25849.16931695928</v>
+        <v>14723.50468692451</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>11066874</v>
+        <v>11707121</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1030099</v>
+        <v>1037585</v>
       </c>
       <c r="E54" t="n">
-        <v>3010800</v>
+        <v>3032680</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879737829725187</v>
+        <v>114.7563950842517</v>
       </c>
       <c r="G54" t="n">
-        <v>82.63380710035906</v>
+        <v>1061.203559265483</v>
       </c>
       <c r="H54" t="n">
-        <v>1.28</v>
+        <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>17747.41</v>
+        <v>19366.08</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37390858</v>
+        <v>36847196</v>
       </c>
       <c r="E55" t="n">
-        <v>94281792</v>
+        <v>92910937</v>
       </c>
       <c r="F55" t="n">
-        <v>17563.30594828167</v>
+        <v>1256.66178183434</v>
       </c>
       <c r="G55" t="n">
-        <v>15564.00545921675</v>
+        <v>5448.074253982972</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I55" t="n">
-        <v>3564190</v>
+        <v>3789136</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28969668</v>
+        <v>27437334</v>
       </c>
       <c r="E56" t="n">
-        <v>68824729</v>
+        <v>65156641</v>
       </c>
       <c r="F56" t="n">
-        <v>10923.1259288894</v>
+        <v>5774.554381356873</v>
       </c>
       <c r="G56" t="n">
-        <v>5349.415652016572</v>
+        <v>5628.201106777948</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>465664</v>
+        <v>527319</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12752379</v>
+        <v>12639292</v>
       </c>
       <c r="E57" t="n">
-        <v>19411996</v>
+        <v>19239853</v>
       </c>
       <c r="F57" t="n">
-        <v>4371.360218144468</v>
+        <v>1494.023068340174</v>
       </c>
       <c r="G57" t="n">
-        <v>7794.427386724456</v>
+        <v>1875.559981998171</v>
       </c>
       <c r="H57" t="n">
-        <v>0.23</v>
+        <v>0.78</v>
       </c>
       <c r="I57" t="n">
-        <v>631416</v>
+        <v>656132</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>304756775</v>
+        <v>305046034</v>
       </c>
       <c r="E58" t="n">
-        <v>304756775</v>
+        <v>305046034</v>
       </c>
       <c r="F58" t="n">
-        <v>46804.4952386473</v>
+        <v>52622.28382609659</v>
       </c>
       <c r="G58" t="n">
-        <v>63406.3108936369</v>
+        <v>82191.93225951387</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>77523656</v>
+        <v>84750991</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11728265</v>
+        <v>11591880</v>
       </c>
       <c r="F59" t="n">
-        <v>146.6352932874504</v>
+        <v>173.5107498856768</v>
       </c>
       <c r="G59" t="n">
-        <v>51.77681864698497</v>
+        <v>19.3147362931291</v>
       </c>
       <c r="H59" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>89711</v>
+        <v>82669</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89952640</v>
+        <v>89571984</v>
       </c>
       <c r="E60" t="n">
-        <v>518345909</v>
+        <v>516152404</v>
       </c>
       <c r="F60" t="n">
-        <v>91791.19349563139</v>
+        <v>96732.84879220024</v>
       </c>
       <c r="G60" t="n">
-        <v>85777.87845694281</v>
+        <v>104639.9134529607</v>
       </c>
       <c r="H60" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>18731814</v>
+        <v>19975998</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9436258</v>
+        <v>9353613</v>
       </c>
       <c r="E61" t="n">
-        <v>9436258</v>
+        <v>9353613</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="I61" t="n">
-        <v>2755355</v>
+        <v>2779485</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31729716</v>
+        <v>30678622</v>
       </c>
       <c r="E62" t="n">
-        <v>142066956</v>
+        <v>137360775</v>
       </c>
       <c r="F62" t="n">
-        <v>9945.019450057984</v>
+        <v>15138.38836483329</v>
       </c>
       <c r="G62" t="n">
-        <v>31616.32096864758</v>
+        <v>29937.66209224231</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>9815574</v>
+        <v>11592845</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12823914</v>
+        <v>12797051</v>
       </c>
       <c r="E63" t="n">
-        <v>25629850</v>
+        <v>25576162</v>
       </c>
       <c r="F63" t="n">
-        <v>1680.607195370983</v>
+        <v>2089.327063262538</v>
       </c>
       <c r="G63" t="n">
-        <v>2141.082450676753</v>
+        <v>2002.726436267521</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>6423.9</v>
+        <v>14520.99</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1380810</v>
+        <v>1254297</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>7.53</v>
+        <v>4.43</v>
       </c>
       <c r="I64" t="n">
-        <v>18178.13</v>
+        <v>74715</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51056318</v>
+        <v>51134332</v>
       </c>
       <c r="E65" t="n">
-        <v>331086632</v>
+        <v>331592532</v>
       </c>
       <c r="F65" t="n">
-        <v>18740.44333364077</v>
+        <v>22297.05269143417</v>
       </c>
       <c r="G65" t="n">
-        <v>18109.04922562956</v>
+        <v>24550.65587531674</v>
       </c>
       <c r="H65" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>17708997</v>
+        <v>19075936</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4758662</v>
+        <v>4789109</v>
       </c>
       <c r="F66" t="n">
-        <v>1383.0491781675</v>
+        <v>153.0082013199945</v>
       </c>
       <c r="G66" t="n">
-        <v>990.222143543859</v>
+        <v>30.21402686902044</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="I66" t="n">
-        <v>205628</v>
+        <v>236700</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125340738</v>
+        <v>123579792</v>
       </c>
       <c r="E67" t="n">
-        <v>2075745286</v>
+        <v>2046582563</v>
       </c>
       <c r="F67" t="n">
-        <v>174496.6212372158</v>
+        <v>24110.17908996032</v>
       </c>
       <c r="G67" t="n">
-        <v>174273.3124991202</v>
+        <v>22213.451298777</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>5317358</v>
+        <v>11873420</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24445399</v>
+        <v>24227644</v>
       </c>
       <c r="E68" t="n">
-        <v>146261734</v>
+        <v>144958867</v>
       </c>
       <c r="F68" t="n">
-        <v>42759.33909489629</v>
+        <v>7435.41926469028</v>
       </c>
       <c r="G68" t="n">
-        <v>9351.730051234108</v>
+        <v>45907.25376104593</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>14428383</v>
+        <v>15797244</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="E70" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="F70" t="n">
-        <v>5693.916566669796</v>
+        <v>1949.759185053845</v>
       </c>
       <c r="G70" t="n">
-        <v>3002.623097405483</v>
+        <v>16849.1876709383</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>2299513</v>
+        <v>2449301</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33857327</v>
+        <v>33924700</v>
       </c>
       <c r="E71" t="n">
-        <v>168963670</v>
+        <v>169299890</v>
       </c>
       <c r="F71" t="n">
-        <v>6780.106197442953</v>
+        <v>18264.27032246203</v>
       </c>
       <c r="G71" t="n">
-        <v>41473.1123639807</v>
+        <v>36348.52623952024</v>
       </c>
       <c r="H71" t="n">
-        <v>1.2</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>12390212</v>
+        <v>13325861</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178851</v>
+        <v>169173</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>21916</v>
+        <v>19926.38</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>328224496</v>
+        <v>323261079</v>
       </c>
       <c r="E73" t="n">
-        <v>607290168</v>
+        <v>598106714</v>
       </c>
       <c r="F73" t="n">
-        <v>73574.33064252441</v>
+        <v>11334.83233687682</v>
       </c>
       <c r="G73" t="n">
-        <v>78904.93772535787</v>
+        <v>17795.37358234141</v>
       </c>
       <c r="H73" t="n">
         <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>14037348</v>
+        <v>14800675</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10951836</v>
+        <v>9937371</v>
       </c>
       <c r="E74" t="n">
-        <v>32483601</v>
+        <v>29459719</v>
       </c>
       <c r="F74" t="n">
-        <v>897.6399124337355</v>
+        <v>435.6191906754349</v>
       </c>
       <c r="G74" t="n">
-        <v>1578.702045531674</v>
+        <v>1323.858935805701</v>
       </c>
       <c r="H74" t="n">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="I74" t="n">
-        <v>5990321</v>
+        <v>6141346</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8273414</v>
+        <v>8099347</v>
       </c>
       <c r="E75" t="n">
-        <v>11787719</v>
+        <v>11539714</v>
       </c>
       <c r="F75" t="n">
-        <v>3661.808744783971</v>
+        <v>2977.742295527472</v>
       </c>
       <c r="G75" t="n">
-        <v>557.8592873724264</v>
+        <v>233.4978479329649</v>
       </c>
       <c r="H75" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I75" t="n">
-        <v>373261</v>
+        <v>375199</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16332961</v>
+        <v>16440150</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2928839874566423</v>
+        <v>0.9367757887033404</v>
       </c>
       <c r="G76" t="n">
-        <v>252.1576450347964</v>
+        <v>592.690885848402</v>
       </c>
       <c r="H76" t="n">
         <v>0.52</v>
       </c>
       <c r="I76" t="n">
-        <v>1045157</v>
+        <v>1058557</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>76041060</v>
+        <v>75196333</v>
       </c>
       <c r="E77" t="n">
-        <v>105286587</v>
+        <v>104120308</v>
       </c>
       <c r="F77" t="n">
-        <v>8194.251998402195</v>
+        <v>10846.26412945124</v>
       </c>
       <c r="G77" t="n">
-        <v>12189.1574510308</v>
+        <v>12503.54823441086</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I77" t="n">
-        <v>7281815</v>
+        <v>6971095</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6571221</v>
+        <v>6572091</v>
       </c>
       <c r="E78" t="n">
-        <v>6571221</v>
+        <v>6572091</v>
       </c>
       <c r="F78" t="n">
-        <v>73.05572159047043</v>
+        <v>203.0364612382188</v>
       </c>
       <c r="G78" t="n">
-        <v>199.1369417745168</v>
+        <v>1692.877864971004</v>
       </c>
       <c r="H78" t="n">
-        <v>2.11</v>
+        <v>1.08</v>
       </c>
       <c r="I78" t="n">
-        <v>1333364</v>
+        <v>1203287</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>64044</v>
+        <v>59640</v>
       </c>
       <c r="E79" t="n">
-        <v>334155</v>
+        <v>311176</v>
       </c>
       <c r="F79" t="n">
-        <v>47.91975182910392</v>
+        <v>10.7539697550858</v>
       </c>
       <c r="G79" t="n">
-        <v>196.8277786601531</v>
+        <v>11.24150370271203</v>
       </c>
       <c r="H79" t="n">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="I79" t="n">
-        <v>225481</v>
+        <v>219468</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27086075</v>
+        <v>27004240</v>
       </c>
       <c r="F80" t="n">
-        <v>1653.997735857965</v>
+        <v>4697.854975617316</v>
       </c>
       <c r="G80" t="n">
-        <v>9249.787593097379</v>
+        <v>7330.833725092174</v>
       </c>
       <c r="H80" t="n">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="I80" t="n">
-        <v>51375</v>
+        <v>52312</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>614991370</v>
+        <v>606544836</v>
       </c>
       <c r="E81" t="n">
-        <v>2381770842</v>
+        <v>2349058660</v>
       </c>
       <c r="F81" t="n">
-        <v>115135.766027994</v>
+        <v>166071.2709259981</v>
       </c>
       <c r="G81" t="n">
-        <v>120562.3863799784</v>
+        <v>188629.4931103496</v>
       </c>
       <c r="H81" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I81" t="n">
-        <v>43518949</v>
+        <v>52454087</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7746112</v>
+        <v>7619033</v>
       </c>
       <c r="E82" t="n">
-        <v>11098071</v>
+        <v>10915939</v>
       </c>
       <c r="F82" t="n">
-        <v>1041.692213700073</v>
+        <v>981.627446918661</v>
       </c>
       <c r="G82" t="n">
-        <v>2581.579795363231</v>
+        <v>905.7999583673603</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I82" t="n">
-        <v>202556</v>
+        <v>189733</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116274047</v>
+        <v>114760483</v>
       </c>
       <c r="E83" t="n">
-        <v>1080335743</v>
+        <v>1066272788</v>
       </c>
       <c r="F83" t="n">
-        <v>46271.23884053931</v>
+        <v>28430.05452727866</v>
       </c>
       <c r="G83" t="n">
-        <v>42918.71299643914</v>
+        <v>20953.04076369255</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>10564880</v>
+        <v>8988340</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1123448</v>
+        <v>1079817</v>
       </c>
       <c r="E84" t="n">
-        <v>4350237</v>
+        <v>4181286</v>
       </c>
       <c r="F84" t="n">
-        <v>430.1337085140108</v>
+        <v>188.4438532658054</v>
       </c>
       <c r="G84" t="n">
-        <v>1593.040800826376</v>
+        <v>714.3732615261398</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="I84" t="n">
-        <v>359111</v>
+        <v>321822</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>125859327</v>
+        <v>126073482</v>
       </c>
       <c r="E85" t="n">
-        <v>482816636</v>
+        <v>483638170</v>
       </c>
       <c r="F85" t="n">
-        <v>81472.12117387151</v>
+        <v>77258.7131206787</v>
       </c>
       <c r="G85" t="n">
-        <v>73131.94728380904</v>
+        <v>84029.73994117451</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I85" t="n">
-        <v>38764632</v>
+        <v>40814677</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5274046</v>
+        <v>5248723</v>
       </c>
       <c r="E86" t="n">
-        <v>19598454</v>
+        <v>19504355</v>
       </c>
       <c r="F86" t="n">
-        <v>735.2216973098152</v>
+        <v>339.3652697361157</v>
       </c>
       <c r="G86" t="n">
-        <v>5324.235745608054</v>
+        <v>368.195416324225</v>
       </c>
       <c r="H86" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>80709</v>
+        <v>139729</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>36083741</v>
+        <v>35493785</v>
       </c>
       <c r="F87" t="n">
-        <v>6096.168802583545</v>
+        <v>5060.791170338868</v>
       </c>
       <c r="G87" t="n">
-        <v>2541.247881478851</v>
+        <v>2708.781346504347</v>
       </c>
       <c r="H87" t="n">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="I87" t="n">
-        <v>6407656</v>
+        <v>7207276</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25001528</v>
+        <v>24875348</v>
       </c>
       <c r="F88" t="n">
-        <v>1557.559366049311</v>
+        <v>1001.610883846751</v>
       </c>
       <c r="G88" t="n">
-        <v>837.965278612635</v>
+        <v>831.0070469153748</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="I88" t="n">
-        <v>15789.79</v>
+        <v>18454.66</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88899590</v>
+        <v>88642332</v>
       </c>
       <c r="E89" t="n">
-        <v>328615497</v>
+        <v>327662936</v>
       </c>
       <c r="F89" t="n">
-        <v>1870.910328192695</v>
+        <v>916.5568157518908</v>
       </c>
       <c r="G89" t="n">
-        <v>1450.093980242969</v>
+        <v>939.1104634456348</v>
       </c>
       <c r="H89" t="n">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="I89" t="n">
-        <v>174837</v>
+        <v>204734</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21999097</v>
+        <v>21663816</v>
       </c>
       <c r="E90" t="n">
-        <v>21999097</v>
+        <v>21663816</v>
       </c>
       <c r="F90" t="n">
-        <v>2276.909429608368</v>
+        <v>2777.016401284961</v>
       </c>
       <c r="G90" t="n">
-        <v>3409.534847269746</v>
+        <v>3856.867025619574</v>
       </c>
       <c r="H90" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I90" t="n">
-        <v>7233859</v>
+        <v>7319637</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3836861</v>
+        <v>3814438</v>
       </c>
       <c r="E91" t="n">
-        <v>8363819</v>
+        <v>8314939</v>
       </c>
       <c r="F91" t="n">
-        <v>2022.541736577559</v>
+        <v>1829.067120900256</v>
       </c>
       <c r="G91" t="n">
-        <v>2054.083818953733</v>
+        <v>1478.474275268858</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1787988</v>
+        <v>1818558</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>498142154</v>
+        <v>495161308</v>
       </c>
       <c r="E92" t="n">
-        <v>1733991379</v>
+        <v>1723615303</v>
       </c>
       <c r="F92" t="n">
-        <v>157183.4990366802</v>
+        <v>167640.9961620768</v>
       </c>
       <c r="G92" t="n">
-        <v>163192.422156752</v>
+        <v>171666.5707298803</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>39076066</v>
+        <v>42890504</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2631167</v>
+        <v>2577927</v>
       </c>
       <c r="E93" t="n">
-        <v>10524667</v>
+        <v>10311707</v>
       </c>
       <c r="F93" t="n">
-        <v>2978.839427336112</v>
+        <v>2521.621466527025</v>
       </c>
       <c r="G93" t="n">
-        <v>2542.961908885798</v>
+        <v>3086.09676891283</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="I93" t="n">
-        <v>7041015</v>
+        <v>7116928</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>226825438</v>
+        <v>221168081</v>
       </c>
       <c r="E94" t="n">
-        <v>697402861</v>
+        <v>680008620</v>
       </c>
       <c r="F94" t="n">
-        <v>98561.81497359798</v>
+        <v>96748.65824085886</v>
       </c>
       <c r="G94" t="n">
-        <v>94440.43099876557</v>
+        <v>99990.61610464402</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>22395335</v>
+        <v>19782181</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>145842535</v>
+        <v>142061012</v>
       </c>
       <c r="E95" t="n">
-        <v>381009576</v>
+        <v>371130453</v>
       </c>
       <c r="F95" t="n">
-        <v>27765.78967614737</v>
+        <v>18075.72594336019</v>
       </c>
       <c r="G95" t="n">
-        <v>31574.67550251352</v>
+        <v>32295.6617970227</v>
       </c>
       <c r="H95" t="n">
         <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>8459766</v>
+        <v>8672423</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>405441271</v>
+        <v>398468150</v>
       </c>
       <c r="E96" t="n">
-        <v>2316807263</v>
+        <v>2276960856</v>
       </c>
       <c r="F96" t="n">
-        <v>17147.9833073706</v>
+        <v>24223.02858988417</v>
       </c>
       <c r="G96" t="n">
-        <v>33652.42331089618</v>
+        <v>44357.13399071676</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>44738909</v>
+        <v>49475461</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>640704918</v>
+        <v>625922984</v>
       </c>
       <c r="E2" t="n">
-        <v>1243306620</v>
+        <v>1214623761</v>
       </c>
       <c r="F2" t="n">
-        <v>19239.42799223896</v>
+        <v>18710.92536777071</v>
       </c>
       <c r="G2" t="n">
-        <v>37807.99243922884</v>
+        <v>39257.88701597881</v>
       </c>
       <c r="H2" t="n">
         <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>37023859</v>
+        <v>36512090</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1495036</v>
+        <v>1481726</v>
       </c>
       <c r="E3" t="n">
-        <v>4832571</v>
+        <v>4789545</v>
       </c>
       <c r="F3" t="n">
-        <v>2394.520734395815</v>
+        <v>1684.234869795431</v>
       </c>
       <c r="G3" t="n">
-        <v>1791.906243735948</v>
+        <v>1242.004100788755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
       <c r="I3" t="n">
-        <v>223747</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253579119</v>
+        <v>256604405</v>
       </c>
       <c r="E4" t="n">
-        <v>1590159011</v>
+        <v>1609130154</v>
       </c>
       <c r="F4" t="n">
-        <v>141856.3303566781</v>
+        <v>91760.42680973448</v>
       </c>
       <c r="G4" t="n">
-        <v>150237.5169206765</v>
+        <v>96184.17170640086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>22654527</v>
+        <v>22258133</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148253321</v>
+        <v>146033158</v>
       </c>
       <c r="E5" t="n">
-        <v>164287848</v>
+        <v>161827561</v>
       </c>
       <c r="F5" t="n">
-        <v>11209.91988040459</v>
+        <v>7326.852523465561</v>
       </c>
       <c r="G5" t="n">
-        <v>27115.86804643407</v>
+        <v>9970.981533882767</v>
       </c>
       <c r="H5" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I5" t="n">
-        <v>49173491</v>
+        <v>49232917</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>674590</v>
+        <v>672055</v>
       </c>
       <c r="E6" t="n">
-        <v>13105407</v>
+        <v>13056168</v>
       </c>
       <c r="F6" t="n">
-        <v>259.9096067349625</v>
+        <v>342.7941423280262</v>
       </c>
       <c r="G6" t="n">
-        <v>391.9410144397143</v>
+        <v>212.684582550704</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21</v>
+        <v>0.61</v>
       </c>
       <c r="I6" t="n">
-        <v>22417</v>
+        <v>21707</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>518788427</v>
+        <v>510942774</v>
       </c>
       <c r="E7" t="n">
-        <v>518788428</v>
+        <v>510942778</v>
       </c>
       <c r="F7" t="n">
-        <v>49306.30947269176</v>
+        <v>212125.2907833896</v>
       </c>
       <c r="G7" t="n">
-        <v>58977.35700971183</v>
+        <v>47659.29680183325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>72664251</v>
+        <v>72536210</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4702811</v>
+        <v>4736538</v>
       </c>
       <c r="E8" t="n">
-        <v>4702811</v>
+        <v>4736538</v>
       </c>
       <c r="F8" t="n">
-        <v>941.391375783599</v>
+        <v>1093.651490430885</v>
       </c>
       <c r="G8" t="n">
-        <v>1184.941076930389</v>
+        <v>860.0147248064765</v>
       </c>
       <c r="H8" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2234423</v>
+        <v>2253455</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1737610</v>
+        <v>2052065</v>
       </c>
       <c r="F9" t="n">
-        <v>72.86181993268391</v>
+        <v>124.8895418213747</v>
       </c>
       <c r="G9" t="n">
-        <v>639.6489049514696</v>
+        <v>1431.838993618744</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>1.96</v>
       </c>
       <c r="I9" t="n">
-        <v>160152</v>
+        <v>323346</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2155190</v>
+        <v>1998848</v>
       </c>
       <c r="F10" t="n">
-        <v>159.2631730434569</v>
+        <v>442.7070025583632</v>
       </c>
       <c r="G10" t="n">
-        <v>219.3754151518731</v>
+        <v>205.5913013138273</v>
       </c>
       <c r="H10" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1194848</v>
+        <v>1204003</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108763168</v>
+        <v>108714183</v>
       </c>
       <c r="E11" t="n">
-        <v>204896916</v>
+        <v>204804634</v>
       </c>
       <c r="F11" t="n">
-        <v>1381.214524629965</v>
+        <v>1447.686582260927</v>
       </c>
       <c r="G11" t="n">
-        <v>1540.147079751536</v>
+        <v>1512.208379469309</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4031257</v>
+        <v>4007126</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12074068</v>
+        <v>12091893</v>
       </c>
       <c r="E12" t="n">
-        <v>30050171</v>
+        <v>30094535</v>
       </c>
       <c r="F12" t="n">
-        <v>964.1771210712571</v>
+        <v>1138.337717090129</v>
       </c>
       <c r="G12" t="n">
-        <v>4105.395429033922</v>
+        <v>4362.312082808457</v>
       </c>
       <c r="H12" t="n">
-        <v>0.73</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1410490</v>
+        <v>1442515</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114551704</v>
+        <v>112286277</v>
       </c>
       <c r="E13" t="n">
-        <v>445410433</v>
+        <v>436576551</v>
       </c>
       <c r="F13" t="n">
-        <v>22299.03182932366</v>
+        <v>20029.23230958546</v>
       </c>
       <c r="G13" t="n">
-        <v>22378.72492699661</v>
+        <v>12211.47305994793</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>12800080</v>
+        <v>20308829</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4892514</v>
+        <v>4951490</v>
       </c>
       <c r="E14" t="n">
-        <v>7202045</v>
+        <v>7288862</v>
       </c>
       <c r="F14" t="n">
-        <v>1.38198939507589</v>
+        <v>2265.08239179398</v>
       </c>
       <c r="G14" t="n">
-        <v>198.8586659021069</v>
+        <v>138.2707428569119</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="I14" t="n">
-        <v>550570</v>
+        <v>571468</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>145697335</v>
+        <v>143677499</v>
       </c>
       <c r="E15" t="n">
-        <v>145697335</v>
+        <v>143677499</v>
       </c>
       <c r="F15" t="n">
-        <v>53371.68319576416</v>
+        <v>49264.42736610663</v>
       </c>
       <c r="G15" t="n">
-        <v>72914.81003835952</v>
+        <v>80440.20619683103</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>86801332</v>
+        <v>87514825</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67519461</v>
+        <v>66477369</v>
       </c>
       <c r="E16" t="n">
-        <v>346253646</v>
+        <v>340909587</v>
       </c>
       <c r="F16" t="n">
-        <v>10382.64090161939</v>
+        <v>9099.265706844699</v>
       </c>
       <c r="G16" t="n">
-        <v>15912.52578517043</v>
+        <v>17282.98142172043</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>26235894</v>
+        <v>26571417</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>267266041</v>
+        <v>263617511</v>
       </c>
       <c r="E17" t="n">
-        <v>267266041</v>
+        <v>263617511</v>
       </c>
       <c r="F17" t="n">
-        <v>42821.01019254486</v>
+        <v>49392.56722987016</v>
       </c>
       <c r="G17" t="n">
-        <v>54187.08629655531</v>
+        <v>62491.56969709528</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>20412994</v>
+        <v>22247895</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2573058</v>
+        <v>2571122</v>
       </c>
       <c r="E18" t="n">
-        <v>6578246</v>
+        <v>6573297</v>
       </c>
       <c r="F18" t="n">
-        <v>863.5829030779196</v>
+        <v>904.6339759168486</v>
       </c>
       <c r="G18" t="n">
-        <v>876.3930657908716</v>
+        <v>902.9524348654752</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>78177</v>
+        <v>81068</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84909674</v>
+        <v>83836007</v>
       </c>
       <c r="E19" t="n">
-        <v>237534055</v>
+        <v>234520679</v>
       </c>
       <c r="F19" t="n">
-        <v>21043.74160259889</v>
+        <v>17220.34148089335</v>
       </c>
       <c r="G19" t="n">
-        <v>21034.06892691783</v>
+        <v>23713.57153163557</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>54395864</v>
+        <v>48917494</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1598147</v>
+        <v>1593562</v>
       </c>
       <c r="E20" t="n">
-        <v>9175964</v>
+        <v>9149636</v>
       </c>
       <c r="F20" t="n">
-        <v>55.37296211409821</v>
+        <v>49.23456706858521</v>
       </c>
       <c r="G20" t="n">
-        <v>699.139787984528</v>
+        <v>738.413419902228</v>
       </c>
       <c r="H20" t="n">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="I20" t="n">
-        <v>236105</v>
+        <v>239271</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>170789</v>
+        <v>171834</v>
       </c>
       <c r="E21" t="n">
-        <v>1153355</v>
+        <v>1160415</v>
       </c>
       <c r="F21" t="n">
-        <v>6.521103982819561</v>
+        <v>5.71886987705727</v>
       </c>
       <c r="G21" t="n">
-        <v>6.751564797385925</v>
+        <v>158.6474395272217</v>
       </c>
       <c r="H21" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="I21" t="n">
-        <v>2992073</v>
+        <v>3026121</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>251877</v>
+        <v>250156</v>
       </c>
       <c r="F22" t="n">
-        <v>158.6487535094606</v>
+        <v>10.00162002723168</v>
       </c>
       <c r="G22" t="n">
-        <v>409.7111623493005</v>
+        <v>438.3833441044169</v>
       </c>
       <c r="H22" t="n">
-        <v>3.57</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3884.6</v>
+        <v>4056.38</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>90400736</v>
+        <v>89760137</v>
       </c>
       <c r="E23" t="n">
-        <v>188478273</v>
+        <v>187142677</v>
       </c>
       <c r="F23" t="n">
-        <v>21215.72396719603</v>
+        <v>24890.65144578898</v>
       </c>
       <c r="G23" t="n">
-        <v>45583.23647079175</v>
+        <v>45522.14374149101</v>
       </c>
       <c r="H23" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>65470568</v>
+        <v>67154767</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>207776642</v>
+        <v>203953181</v>
       </c>
       <c r="E24" t="n">
-        <v>721834832</v>
+        <v>708551784</v>
       </c>
       <c r="F24" t="n">
-        <v>60777.87191481211</v>
+        <v>63645.04441516066</v>
       </c>
       <c r="G24" t="n">
-        <v>63912.77938438647</v>
+        <v>62753.51000116223</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>36877680</v>
+        <v>37666202</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116834697</v>
+        <v>115150422</v>
       </c>
       <c r="E25" t="n">
-        <v>495841779</v>
+        <v>488642602</v>
       </c>
       <c r="F25" t="n">
-        <v>17375.20437833654</v>
+        <v>14490.38186179899</v>
       </c>
       <c r="G25" t="n">
-        <v>17589.12523998575</v>
+        <v>15234.70314703758</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>15804215</v>
+        <v>15209546</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5819371</v>
+        <v>5807773</v>
       </c>
       <c r="E26" t="n">
-        <v>7899793</v>
+        <v>7883953</v>
       </c>
       <c r="F26" t="n">
-        <v>795.1314250155127</v>
+        <v>926.8720854021085</v>
       </c>
       <c r="G26" t="n">
-        <v>1930.670211817821</v>
+        <v>883.4561797375497</v>
       </c>
       <c r="H26" t="n">
         <v>0.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5309096</v>
+        <v>5313192</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>546263</v>
+        <v>555067</v>
       </c>
       <c r="E27" t="n">
-        <v>6625638</v>
+        <v>6732419</v>
       </c>
       <c r="F27" t="n">
-        <v>727.0419186152117</v>
+        <v>790.2102155533997</v>
       </c>
       <c r="G27" t="n">
-        <v>255.2574413408423</v>
+        <v>505.8481512704562</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>1.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2761750</v>
+        <v>2783583</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25848176</v>
+        <v>25860109</v>
       </c>
       <c r="E28" t="n">
-        <v>36527641</v>
+        <v>36544504</v>
       </c>
       <c r="F28" t="n">
-        <v>491.7316249492981</v>
+        <v>228.1472334647583</v>
       </c>
       <c r="G28" t="n">
-        <v>1158.964685534766</v>
+        <v>909.4283447206753</v>
       </c>
       <c r="H28" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="I28" t="n">
-        <v>91468</v>
+        <v>101574</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1367568162</v>
+        <v>1406597859</v>
       </c>
       <c r="E29" t="n">
-        <v>6557769406</v>
+        <v>6744924799</v>
       </c>
       <c r="F29" t="n">
-        <v>119005.5533205705</v>
+        <v>63521.0304098144</v>
       </c>
       <c r="G29" t="n">
-        <v>209948.0434999615</v>
+        <v>113807.5658353317</v>
       </c>
       <c r="H29" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>385015997</v>
+        <v>422246820</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>270304248</v>
+        <v>267068291</v>
       </c>
       <c r="E30" t="n">
-        <v>1166783190</v>
+        <v>1152815002</v>
       </c>
       <c r="F30" t="n">
-        <v>210084.5339968489</v>
+        <v>164207.0286673423</v>
       </c>
       <c r="G30" t="n">
-        <v>184466.243326817</v>
+        <v>225282.2098456483</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>132553448</v>
+        <v>134857919</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5342357</v>
+        <v>5332058</v>
       </c>
       <c r="E31" t="n">
-        <v>5348404</v>
+        <v>5338093</v>
       </c>
       <c r="F31" t="n">
-        <v>87.29442781265976</v>
+        <v>87.30277780481536</v>
       </c>
       <c r="G31" t="n">
-        <v>173.5228470884382</v>
+        <v>173.5394451056119</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>145320</v>
+        <v>146163</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17666335</v>
+        <v>16266805</v>
       </c>
       <c r="E32" t="n">
-        <v>44165837</v>
+        <v>40667013</v>
       </c>
       <c r="F32" t="n">
-        <v>2895.921764280175</v>
+        <v>3357.218168264381</v>
       </c>
       <c r="G32" t="n">
-        <v>3431.728267873858</v>
+        <v>3814.309654652992</v>
       </c>
       <c r="H32" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>3169969</v>
+        <v>3975309</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19902105</v>
+        <v>19805468</v>
       </c>
       <c r="F33" t="n">
-        <v>875.1848550364667</v>
+        <v>818.6237972944061</v>
       </c>
       <c r="G33" t="n">
-        <v>2787.321324362747</v>
+        <v>2772.073124278118</v>
       </c>
       <c r="H33" t="n">
         <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>55873</v>
+        <v>56602</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189890</v>
+        <v>4189361</v>
       </c>
       <c r="E34" t="n">
-        <v>12068240</v>
+        <v>12066715</v>
       </c>
       <c r="F34" t="n">
-        <v>2581.284278476827</v>
+        <v>2924.259122992229</v>
       </c>
       <c r="G34" t="n">
-        <v>1714.692099880044</v>
+        <v>1662.438856167934</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="I34" t="n">
-        <v>531992</v>
+        <v>529877</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1586775</v>
+        <v>1586342</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1843757321436</v>
+        <v>220.5848071002327</v>
       </c>
       <c r="G35" t="n">
-        <v>425.7998926284004</v>
+        <v>17.62564556286133</v>
       </c>
       <c r="H35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>9265.67</v>
+        <v>9032.219999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15370095</v>
+        <v>14719995</v>
       </c>
       <c r="E36" t="n">
-        <v>74439825</v>
+        <v>71291284</v>
       </c>
       <c r="F36" t="n">
-        <v>5509.251231871747</v>
+        <v>6918.391867569206</v>
       </c>
       <c r="G36" t="n">
-        <v>8853.75780462687</v>
+        <v>5417.88502062255</v>
       </c>
       <c r="H36" t="n">
-        <v>0.67</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>5053458</v>
+        <v>5087579</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1414482</v>
+        <v>1355691</v>
       </c>
       <c r="E37" t="n">
-        <v>9257745</v>
+        <v>8872964</v>
       </c>
       <c r="F37" t="n">
-        <v>8.921954947216779</v>
+        <v>91.33185993048139</v>
       </c>
       <c r="G37" t="n">
-        <v>1677.15834264304</v>
+        <v>395.5518475847102</v>
       </c>
       <c r="H37" t="n">
-        <v>2.13</v>
+        <v>1.08</v>
       </c>
       <c r="I37" t="n">
-        <v>513320</v>
+        <v>521038</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1891496798</v>
+        <v>1873025386</v>
       </c>
       <c r="F38" t="n">
-        <v>76336.9636737432</v>
+        <v>74074.691927526</v>
       </c>
       <c r="G38" t="n">
-        <v>78331.41243936933</v>
+        <v>65346.41635557303</v>
       </c>
       <c r="H38" t="n">
-        <v>0.95</v>
+        <v>0.27</v>
       </c>
       <c r="I38" t="n">
-        <v>29231659</v>
+        <v>29430648</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31592893</v>
+        <v>31258276</v>
       </c>
       <c r="E39" t="n">
-        <v>98370133</v>
+        <v>97328243</v>
       </c>
       <c r="F39" t="n">
-        <v>3348.049629096819</v>
+        <v>2347.40201594704</v>
       </c>
       <c r="G39" t="n">
-        <v>11184.22069862181</v>
+        <v>11363.67986247753</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="I39" t="n">
-        <v>10027311</v>
+        <v>9998479</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>203752230</v>
+        <v>200240195</v>
       </c>
       <c r="E40" t="n">
-        <v>1153770321</v>
+        <v>1133883022</v>
       </c>
       <c r="F40" t="n">
-        <v>47296.88228926454</v>
+        <v>13490.34515381625</v>
       </c>
       <c r="G40" t="n">
-        <v>81936.29722675536</v>
+        <v>24108.99433218866</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>81347049</v>
+        <v>81900663</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123554933</v>
+        <v>126206911</v>
       </c>
       <c r="E41" t="n">
-        <v>915221724</v>
+        <v>934866009</v>
       </c>
       <c r="F41" t="n">
-        <v>100122.4210850662</v>
+        <v>27615.01709187784</v>
       </c>
       <c r="G41" t="n">
-        <v>149737.3793982986</v>
+        <v>74780.97293981764</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>18815315</v>
+        <v>20711295</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31392753</v>
+        <v>31204265</v>
       </c>
       <c r="E42" t="n">
-        <v>149068954</v>
+        <v>148173917</v>
       </c>
       <c r="F42" t="n">
-        <v>3822.015072421789</v>
+        <v>3829.518409819951</v>
       </c>
       <c r="G42" t="n">
-        <v>8602.848894976069</v>
+        <v>7722.53458327178</v>
       </c>
       <c r="H42" t="n">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="I42" t="n">
-        <v>695780</v>
+        <v>776660</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3460297</v>
+        <v>3455981</v>
       </c>
       <c r="E43" t="n">
-        <v>8080371</v>
+        <v>8070293</v>
       </c>
       <c r="F43" t="n">
-        <v>478.0107410463228</v>
+        <v>800.3275224348495</v>
       </c>
       <c r="G43" t="n">
-        <v>2587.638531047393</v>
+        <v>2367.217325369655</v>
       </c>
       <c r="H43" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="I43" t="n">
-        <v>630250</v>
+        <v>636411</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>336982450</v>
+        <v>333511388</v>
       </c>
       <c r="E44" t="n">
-        <v>3031703076</v>
+        <v>3000475249</v>
       </c>
       <c r="F44" t="n">
-        <v>49853.22310720722</v>
+        <v>39488.04785874613</v>
       </c>
       <c r="G44" t="n">
-        <v>51747.75204079137</v>
+        <v>43570.22506296673</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>56048225</v>
+        <v>57193563</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>642982</v>
+        <v>628067</v>
       </c>
       <c r="F45" t="n">
-        <v>108.6164237284913</v>
+        <v>270.7738519144127</v>
       </c>
       <c r="G45" t="n">
-        <v>820.2352191235511</v>
+        <v>797.5195379644582</v>
       </c>
       <c r="H45" t="n">
         <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>12431.67</v>
+        <v>12476.2</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1537918</v>
+        <v>1554963</v>
       </c>
       <c r="E46" t="n">
-        <v>12815987</v>
+        <v>12958026</v>
       </c>
       <c r="F46" t="n">
-        <v>733.8216807926804</v>
+        <v>822.2335275949686</v>
       </c>
       <c r="G46" t="n">
-        <v>274.1509191652531</v>
+        <v>172.6845184874408</v>
       </c>
       <c r="H46" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
-        <v>32204</v>
+        <v>28058</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4885702</v>
+        <v>4823425</v>
       </c>
       <c r="E47" t="n">
-        <v>17261171</v>
+        <v>17041148</v>
       </c>
       <c r="F47" t="n">
-        <v>1126.439051940695</v>
+        <v>1229.561413395058</v>
       </c>
       <c r="G47" t="n">
-        <v>1181.61741090348</v>
+        <v>1079.309937962433</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I47" t="n">
-        <v>109581</v>
+        <v>125155</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50871556</v>
+        <v>47276540</v>
       </c>
       <c r="E48" t="n">
-        <v>294525289</v>
+        <v>273711634</v>
       </c>
       <c r="F48" t="n">
-        <v>13026.67181867372</v>
+        <v>12575.82243326819</v>
       </c>
       <c r="G48" t="n">
-        <v>12084.8298118324</v>
+        <v>6392.168896167097</v>
       </c>
       <c r="H48" t="n">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
-        <v>46360993</v>
+        <v>48354820</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2294801</v>
+        <v>2269253</v>
       </c>
       <c r="E49" t="n">
-        <v>12608029</v>
+        <v>12467663</v>
       </c>
       <c r="F49" t="n">
-        <v>361.6150530061372</v>
+        <v>373.4383616101313</v>
       </c>
       <c r="G49" t="n">
-        <v>1460.921352310843</v>
+        <v>971.7507133557644</v>
       </c>
       <c r="H49" t="n">
-        <v>2.36</v>
+        <v>0.79</v>
       </c>
       <c r="I49" t="n">
-        <v>104956</v>
+        <v>102665</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13989270</v>
+        <v>13902230</v>
       </c>
       <c r="E50" t="n">
-        <v>14036877</v>
+        <v>13949540</v>
       </c>
       <c r="F50" t="n">
-        <v>3739.818638572957</v>
+        <v>3113.851326031888</v>
       </c>
       <c r="G50" t="n">
-        <v>10418.9906661426</v>
+        <v>11135.35190468157</v>
       </c>
       <c r="H50" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I50" t="n">
-        <v>6752733</v>
+        <v>6797426</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21430666</v>
+        <v>19946678</v>
       </c>
       <c r="E51" t="n">
-        <v>64242034</v>
+        <v>59790103</v>
       </c>
       <c r="F51" t="n">
-        <v>24475.83953335463</v>
+        <v>23268.59687230285</v>
       </c>
       <c r="G51" t="n">
-        <v>9794.915881063598</v>
+        <v>9132.127632560438</v>
       </c>
       <c r="H51" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3213443</v>
+        <v>3364423</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15831959</v>
+        <v>15801379</v>
       </c>
       <c r="E52" t="n">
-        <v>97039285</v>
+        <v>96851849</v>
       </c>
       <c r="F52" t="n">
-        <v>5885.223779413419</v>
+        <v>8283.063468207016</v>
       </c>
       <c r="G52" t="n">
-        <v>7758.40723546661</v>
+        <v>9116.214814147845</v>
       </c>
       <c r="H52" t="n">
         <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>11228850</v>
+        <v>11356974</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50366905</v>
+        <v>49675355</v>
       </c>
       <c r="E53" t="n">
-        <v>216975119</v>
+        <v>213995998</v>
       </c>
       <c r="F53" t="n">
-        <v>10067.45344519805</v>
+        <v>17642.60844740984</v>
       </c>
       <c r="G53" t="n">
-        <v>14723.50468692451</v>
+        <v>22775.81031176238</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>11707121</v>
+        <v>11993610</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1037585</v>
+        <v>1030479</v>
       </c>
       <c r="E54" t="n">
-        <v>3032680</v>
+        <v>3011912</v>
       </c>
       <c r="F54" t="n">
-        <v>114.7563950842517</v>
+        <v>114.5867608861171</v>
       </c>
       <c r="G54" t="n">
-        <v>1061.203559265483</v>
+        <v>585.891474555135</v>
       </c>
       <c r="H54" t="n">
-        <v>0.66</v>
+        <v>1.3</v>
       </c>
       <c r="I54" t="n">
-        <v>19366.08</v>
+        <v>19450.12</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36847196</v>
+        <v>32029296</v>
       </c>
       <c r="E55" t="n">
-        <v>92910937</v>
+        <v>80762507</v>
       </c>
       <c r="F55" t="n">
-        <v>1256.66178183434</v>
+        <v>84.66894598398598</v>
       </c>
       <c r="G55" t="n">
-        <v>5448.074253982972</v>
+        <v>400.2518510614136</v>
       </c>
       <c r="H55" t="n">
-        <v>0.44</v>
+        <v>0.99</v>
       </c>
       <c r="I55" t="n">
-        <v>3789136</v>
+        <v>5217574</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27437334</v>
+        <v>27178812</v>
       </c>
       <c r="E56" t="n">
-        <v>65156641</v>
+        <v>64542717</v>
       </c>
       <c r="F56" t="n">
-        <v>5774.554381356873</v>
+        <v>5533.766336876424</v>
       </c>
       <c r="G56" t="n">
-        <v>5628.201106777948</v>
+        <v>1658.989151947834</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>527319</v>
+        <v>389279</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12639292</v>
+        <v>12637907</v>
       </c>
       <c r="E57" t="n">
-        <v>19239853</v>
+        <v>19237744</v>
       </c>
       <c r="F57" t="n">
-        <v>1494.023068340174</v>
+        <v>1678.107110144842</v>
       </c>
       <c r="G57" t="n">
-        <v>1875.559981998171</v>
+        <v>863.0600624745699</v>
       </c>
       <c r="H57" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>656132</v>
+        <v>660381</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>305046034</v>
+        <v>300354551</v>
       </c>
       <c r="E58" t="n">
-        <v>305046034</v>
+        <v>300354551</v>
       </c>
       <c r="F58" t="n">
-        <v>52622.28382609659</v>
+        <v>67839.34090997075</v>
       </c>
       <c r="G58" t="n">
-        <v>82191.93225951387</v>
+        <v>82972.18105317687</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>84750991</v>
+        <v>84457959</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11591880</v>
+        <v>11615767</v>
       </c>
       <c r="F59" t="n">
-        <v>173.5107498856768</v>
+        <v>34.31924522431105</v>
       </c>
       <c r="G59" t="n">
-        <v>19.3147362931291</v>
+        <v>7.368137831993239</v>
       </c>
       <c r="H59" t="n">
-        <v>1.21</v>
+        <v>3.84</v>
       </c>
       <c r="I59" t="n">
-        <v>82669</v>
+        <v>88142</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89571984</v>
+        <v>87727897</v>
       </c>
       <c r="E60" t="n">
-        <v>516152404</v>
+        <v>505525982</v>
       </c>
       <c r="F60" t="n">
-        <v>96732.84879220024</v>
+        <v>37476.53462772097</v>
       </c>
       <c r="G60" t="n">
-        <v>104639.9134529607</v>
+        <v>37175.38470741503</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>19975998</v>
+        <v>19934594</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9353613</v>
+        <v>9299100</v>
       </c>
       <c r="E61" t="n">
-        <v>9353613</v>
+        <v>9299100</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.17</v>
+        <v>4.31</v>
       </c>
       <c r="I61" t="n">
-        <v>2779485</v>
+        <v>2836221</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30678622</v>
+        <v>30277478</v>
       </c>
       <c r="E62" t="n">
-        <v>137360775</v>
+        <v>135564688</v>
       </c>
       <c r="F62" t="n">
-        <v>15138.38836483329</v>
+        <v>15816.7224112219</v>
       </c>
       <c r="G62" t="n">
-        <v>29937.66209224231</v>
+        <v>29142.18705641953</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>11592845</v>
+        <v>12169808</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12797051</v>
+        <v>12845284</v>
       </c>
       <c r="E63" t="n">
-        <v>25576162</v>
+        <v>25672559</v>
       </c>
       <c r="F63" t="n">
-        <v>2089.327063262538</v>
+        <v>2118.800685339697</v>
       </c>
       <c r="G63" t="n">
-        <v>2002.726436267521</v>
+        <v>1971.191049464363</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>14520.99</v>
+        <v>14709.44</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1254297</v>
+        <v>1279168</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.43</v>
+        <v>4.38</v>
       </c>
       <c r="I64" t="n">
-        <v>74715</v>
+        <v>92611</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51134332</v>
+        <v>50219955</v>
       </c>
       <c r="E65" t="n">
-        <v>331592532</v>
+        <v>325663045</v>
       </c>
       <c r="F65" t="n">
-        <v>22297.05269143417</v>
+        <v>21646.83068416281</v>
       </c>
       <c r="G65" t="n">
-        <v>24550.65587531674</v>
+        <v>22107.76167131785</v>
       </c>
       <c r="H65" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="I65" t="n">
-        <v>19075936</v>
+        <v>19260414</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4789109</v>
+        <v>4727566</v>
       </c>
       <c r="F66" t="n">
-        <v>153.0082013199945</v>
+        <v>169.7448033834897</v>
       </c>
       <c r="G66" t="n">
-        <v>30.21402686902044</v>
+        <v>61.38430918885172</v>
       </c>
       <c r="H66" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="I66" t="n">
-        <v>236700</v>
+        <v>215153</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123579792</v>
+        <v>123612660</v>
       </c>
       <c r="E67" t="n">
-        <v>2046582563</v>
+        <v>2047126895</v>
       </c>
       <c r="F67" t="n">
-        <v>24110.17908996032</v>
+        <v>21701.92889051964</v>
       </c>
       <c r="G67" t="n">
-        <v>22213.451298777</v>
+        <v>22815.05688402433</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>11873420</v>
+        <v>21101013</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24227644</v>
+        <v>24009723</v>
       </c>
       <c r="E68" t="n">
-        <v>144958867</v>
+        <v>143654997</v>
       </c>
       <c r="F68" t="n">
-        <v>7435.41926469028</v>
+        <v>7619.155378188168</v>
       </c>
       <c r="G68" t="n">
-        <v>45907.25376104593</v>
+        <v>46536.94626669539</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>15797244</v>
+        <v>16321876</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="E70" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="F70" t="n">
-        <v>1949.759185053845</v>
+        <v>3531.279784986225</v>
       </c>
       <c r="G70" t="n">
-        <v>16849.1876709383</v>
+        <v>3404.102928170041</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2449301</v>
+        <v>2407567</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33924700</v>
+        <v>33325207</v>
       </c>
       <c r="E71" t="n">
-        <v>169299890</v>
+        <v>166308146</v>
       </c>
       <c r="F71" t="n">
-        <v>18264.27032246203</v>
+        <v>16372.28800025743</v>
       </c>
       <c r="G71" t="n">
-        <v>36348.52623952024</v>
+        <v>18991.85583178407</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>13325861</v>
+        <v>13394873</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169173</v>
+        <v>177847</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>19926.38</v>
+        <v>21199</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>323261079</v>
+        <v>316569031</v>
       </c>
       <c r="E73" t="n">
-        <v>598106714</v>
+        <v>585724899</v>
       </c>
       <c r="F73" t="n">
-        <v>11334.83233687682</v>
+        <v>14765.67638760823</v>
       </c>
       <c r="G73" t="n">
-        <v>17795.37358234141</v>
+        <v>17287.17432006357</v>
       </c>
       <c r="H73" t="n">
         <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>14800675</v>
+        <v>14855271</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9937371</v>
+        <v>9612681</v>
       </c>
       <c r="E74" t="n">
-        <v>29459719</v>
+        <v>28497162</v>
       </c>
       <c r="F74" t="n">
-        <v>435.6191906754349</v>
+        <v>669.0435364551581</v>
       </c>
       <c r="G74" t="n">
-        <v>1323.858935805701</v>
+        <v>2168.612141642732</v>
       </c>
       <c r="H74" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>6141346</v>
+        <v>6147954</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8099347</v>
+        <v>8140273</v>
       </c>
       <c r="E75" t="n">
-        <v>11539714</v>
+        <v>11598024</v>
       </c>
       <c r="F75" t="n">
-        <v>2977.742295527472</v>
+        <v>4173.767295817528</v>
       </c>
       <c r="G75" t="n">
-        <v>233.4978479329649</v>
+        <v>361.1677195357354</v>
       </c>
       <c r="H75" t="n">
-        <v>0.26</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>375199</v>
+        <v>322184</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16440150</v>
+        <v>16446261</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9367757887033404</v>
+        <v>0.9368650868247119</v>
       </c>
       <c r="G76" t="n">
-        <v>592.690885848402</v>
+        <v>269.0269417210933</v>
       </c>
       <c r="H76" t="n">
         <v>0.52</v>
       </c>
       <c r="I76" t="n">
-        <v>1058557</v>
+        <v>1060814</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>75196333</v>
+        <v>74928789</v>
       </c>
       <c r="E77" t="n">
-        <v>104120308</v>
+        <v>103749963</v>
       </c>
       <c r="F77" t="n">
-        <v>10846.26412945124</v>
+        <v>10741.3057483231</v>
       </c>
       <c r="G77" t="n">
-        <v>12503.54823441086</v>
+        <v>13312.97288718156</v>
       </c>
       <c r="H77" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>6971095</v>
+        <v>6933272</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6572091</v>
+        <v>6350026</v>
       </c>
       <c r="E78" t="n">
-        <v>6572091</v>
+        <v>6350026</v>
       </c>
       <c r="F78" t="n">
-        <v>203.0364612382188</v>
+        <v>333.4563554898851</v>
       </c>
       <c r="G78" t="n">
-        <v>1692.877864971004</v>
+        <v>230.4092012438419</v>
       </c>
       <c r="H78" t="n">
-        <v>1.08</v>
+        <v>2.25</v>
       </c>
       <c r="I78" t="n">
-        <v>1203287</v>
+        <v>1382766</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59640</v>
+        <v>59161</v>
       </c>
       <c r="E79" t="n">
-        <v>311176</v>
+        <v>308676</v>
       </c>
       <c r="F79" t="n">
-        <v>10.7539697550858</v>
+        <v>111.5006169602924</v>
       </c>
       <c r="G79" t="n">
-        <v>11.24150370271203</v>
+        <v>25.56947921964186</v>
       </c>
       <c r="H79" t="n">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="I79" t="n">
-        <v>219468</v>
+        <v>215099</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27004240</v>
+        <v>26640149</v>
       </c>
       <c r="F80" t="n">
-        <v>4697.854975617316</v>
+        <v>4886.007850752221</v>
       </c>
       <c r="G80" t="n">
-        <v>7330.833725092174</v>
+        <v>6796.651260471968</v>
       </c>
       <c r="H80" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="I80" t="n">
-        <v>52312</v>
+        <v>50897</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>606544836</v>
+        <v>598486897</v>
       </c>
       <c r="E81" t="n">
-        <v>2349058660</v>
+        <v>2317851453</v>
       </c>
       <c r="F81" t="n">
-        <v>166071.2709259981</v>
+        <v>163522.2382170747</v>
       </c>
       <c r="G81" t="n">
-        <v>188629.4931103496</v>
+        <v>182494.2215473</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>52454087</v>
+        <v>52464791</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7619033</v>
+        <v>7535041</v>
       </c>
       <c r="E82" t="n">
-        <v>10915939</v>
+        <v>10795552</v>
       </c>
       <c r="F82" t="n">
-        <v>981.627446918661</v>
+        <v>1550.457191731611</v>
       </c>
       <c r="G82" t="n">
-        <v>905.7999583673603</v>
+        <v>1112.883866918426</v>
       </c>
       <c r="H82" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I82" t="n">
-        <v>189733</v>
+        <v>184424</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>114760483</v>
+        <v>111737981</v>
       </c>
       <c r="E83" t="n">
-        <v>1066272788</v>
+        <v>1038189844</v>
       </c>
       <c r="F83" t="n">
-        <v>28430.05452727866</v>
+        <v>11539.72832246226</v>
       </c>
       <c r="G83" t="n">
-        <v>20953.04076369255</v>
+        <v>18384.34275253772</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I83" t="n">
-        <v>8988340</v>
+        <v>9922647</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1079817</v>
+        <v>1067759</v>
       </c>
       <c r="E84" t="n">
-        <v>4181286</v>
+        <v>4134595</v>
       </c>
       <c r="F84" t="n">
-        <v>188.4438532658054</v>
+        <v>1117.981690542378</v>
       </c>
       <c r="G84" t="n">
-        <v>714.3732615261398</v>
+        <v>469.3862858497892</v>
       </c>
       <c r="H84" t="n">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>321822</v>
+        <v>222506</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>126073482</v>
+        <v>125474164</v>
       </c>
       <c r="E85" t="n">
-        <v>483638170</v>
+        <v>481339088</v>
       </c>
       <c r="F85" t="n">
-        <v>77258.7131206787</v>
+        <v>82034.39234242337</v>
       </c>
       <c r="G85" t="n">
-        <v>84029.73994117451</v>
+        <v>82139.6698141583</v>
       </c>
       <c r="H85" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I85" t="n">
-        <v>40814677</v>
+        <v>40554442</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5248723</v>
+        <v>5122377</v>
       </c>
       <c r="E86" t="n">
-        <v>19504355</v>
+        <v>19034848</v>
       </c>
       <c r="F86" t="n">
-        <v>339.3652697361157</v>
+        <v>415.2407764138865</v>
       </c>
       <c r="G86" t="n">
-        <v>368.195416324225</v>
+        <v>481.660172202626</v>
       </c>
       <c r="H86" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>139729</v>
+        <v>84984</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35493785</v>
+        <v>35387706</v>
       </c>
       <c r="F87" t="n">
-        <v>5060.791170338868</v>
+        <v>1829.965419030746</v>
       </c>
       <c r="G87" t="n">
-        <v>2708.781346504347</v>
+        <v>2873.707916342569</v>
       </c>
       <c r="H87" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I87" t="n">
-        <v>7207276</v>
+        <v>7362760</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24875348</v>
+        <v>24579432</v>
       </c>
       <c r="F88" t="n">
-        <v>1001.610883846751</v>
+        <v>940.7943472011108</v>
       </c>
       <c r="G88" t="n">
-        <v>831.0070469153748</v>
+        <v>906.5814893154167</v>
       </c>
       <c r="H88" t="n">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
       <c r="I88" t="n">
-        <v>18454.66</v>
+        <v>18302.74</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88642332</v>
+        <v>88315971</v>
       </c>
       <c r="E89" t="n">
-        <v>327662936</v>
+        <v>326456208</v>
       </c>
       <c r="F89" t="n">
-        <v>916.5568157518908</v>
+        <v>1248.863222132826</v>
       </c>
       <c r="G89" t="n">
-        <v>939.1104634456348</v>
+        <v>1079.460145442696</v>
       </c>
       <c r="H89" t="n">
-        <v>1.33</v>
+        <v>0.44</v>
       </c>
       <c r="I89" t="n">
-        <v>204734</v>
+        <v>214981</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21663816</v>
+        <v>21590819</v>
       </c>
       <c r="E90" t="n">
-        <v>21663816</v>
+        <v>21590819</v>
       </c>
       <c r="F90" t="n">
-        <v>2777.016401284961</v>
+        <v>2965.087831990936</v>
       </c>
       <c r="G90" t="n">
-        <v>3856.867025619574</v>
+        <v>4030.732017842412</v>
       </c>
       <c r="H90" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="I90" t="n">
-        <v>7319637</v>
+        <v>7390618</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3814438</v>
+        <v>3809241</v>
       </c>
       <c r="E91" t="n">
-        <v>8314939</v>
+        <v>8303612</v>
       </c>
       <c r="F91" t="n">
-        <v>1829.067120900256</v>
+        <v>1916.079517589677</v>
       </c>
       <c r="G91" t="n">
-        <v>1478.474275268858</v>
+        <v>1401.674266714613</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1818558</v>
+        <v>1878877</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>495161308</v>
+        <v>490399355</v>
       </c>
       <c r="E92" t="n">
-        <v>1723615303</v>
+        <v>1707039342</v>
       </c>
       <c r="F92" t="n">
-        <v>167640.9961620768</v>
+        <v>70418.68496418411</v>
       </c>
       <c r="G92" t="n">
-        <v>171666.5707298803</v>
+        <v>69286.96733869963</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>42890504</v>
+        <v>43117106</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2577927</v>
+        <v>2545145</v>
       </c>
       <c r="E93" t="n">
-        <v>10311707</v>
+        <v>10180581</v>
       </c>
       <c r="F93" t="n">
-        <v>2521.621466527025</v>
+        <v>3336.833165791684</v>
       </c>
       <c r="G93" t="n">
-        <v>3086.09676891283</v>
+        <v>2238.536788189177</v>
       </c>
       <c r="H93" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="I93" t="n">
-        <v>7116928</v>
+        <v>7122217</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>221168081</v>
+        <v>217588637</v>
       </c>
       <c r="E94" t="n">
-        <v>680008620</v>
+        <v>669003175</v>
       </c>
       <c r="F94" t="n">
-        <v>96748.65824085886</v>
+        <v>77566.85383756872</v>
       </c>
       <c r="G94" t="n">
-        <v>99990.61610464402</v>
+        <v>87622.4984882945</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>19782181</v>
+        <v>20185160</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>142061012</v>
+        <v>139460330</v>
       </c>
       <c r="E95" t="n">
-        <v>371130453</v>
+        <v>364336242</v>
       </c>
       <c r="F95" t="n">
-        <v>18075.72594336019</v>
+        <v>29921.0255026438</v>
       </c>
       <c r="G95" t="n">
-        <v>32295.6617970227</v>
+        <v>37851.81969229996</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="I95" t="n">
-        <v>8672423</v>
+        <v>8920284</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>398468150</v>
+        <v>392107386</v>
       </c>
       <c r="E96" t="n">
-        <v>2276960856</v>
+        <v>2240613636</v>
       </c>
       <c r="F96" t="n">
-        <v>24223.02858988417</v>
+        <v>23486.18294368017</v>
       </c>
       <c r="G96" t="n">
-        <v>44357.13399071676</v>
+        <v>40435.04325157084</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>49475461</v>
+        <v>53711192</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>625922984</v>
+        <v>625421596</v>
       </c>
       <c r="E2" t="n">
-        <v>1214623761</v>
+        <v>1213650802</v>
       </c>
       <c r="F2" t="n">
-        <v>18710.92536777071</v>
+        <v>22680.84847937294</v>
       </c>
       <c r="G2" t="n">
-        <v>39257.88701597881</v>
+        <v>28746.42860732557</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>36512090</v>
+        <v>38475915</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1481726</v>
+        <v>1481821</v>
       </c>
       <c r="E3" t="n">
-        <v>4789545</v>
+        <v>4789855</v>
       </c>
       <c r="F3" t="n">
-        <v>1684.234869795431</v>
+        <v>1103.967737500711</v>
       </c>
       <c r="G3" t="n">
-        <v>1242.004100788755</v>
+        <v>1609.477236208641</v>
       </c>
       <c r="H3" t="n">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="I3" t="n">
-        <v>226000</v>
+        <v>219319</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256604405</v>
+        <v>253496905</v>
       </c>
       <c r="E4" t="n">
-        <v>1609130154</v>
+        <v>1589643460</v>
       </c>
       <c r="F4" t="n">
-        <v>91760.42680973448</v>
+        <v>94756.30882909417</v>
       </c>
       <c r="G4" t="n">
-        <v>96184.17170640086</v>
+        <v>97603.94061421587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>22258133</v>
+        <v>24163947</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146033158</v>
+        <v>143616624</v>
       </c>
       <c r="E5" t="n">
-        <v>161827561</v>
+        <v>159149663</v>
       </c>
       <c r="F5" t="n">
-        <v>7326.852523465561</v>
+        <v>7035.275017436307</v>
       </c>
       <c r="G5" t="n">
-        <v>9970.981533882767</v>
+        <v>9640.022618328276</v>
       </c>
       <c r="H5" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>49232917</v>
+        <v>49154367</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>672055</v>
+        <v>672439</v>
       </c>
       <c r="E6" t="n">
-        <v>13056168</v>
+        <v>13063617</v>
       </c>
       <c r="F6" t="n">
-        <v>342.7941423280262</v>
+        <v>381.7328160848619</v>
       </c>
       <c r="G6" t="n">
-        <v>212.684582550704</v>
+        <v>318.1243239703345</v>
       </c>
       <c r="H6" t="n">
         <v>0.61</v>
       </c>
       <c r="I6" t="n">
-        <v>21707</v>
+        <v>22022</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>510942774</v>
+        <v>503593771</v>
       </c>
       <c r="E7" t="n">
-        <v>510942778</v>
+        <v>503593776</v>
       </c>
       <c r="F7" t="n">
-        <v>212125.2907833896</v>
+        <v>41363.41705448085</v>
       </c>
       <c r="G7" t="n">
-        <v>47659.29680183325</v>
+        <v>42809.69575328645</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>72536210</v>
+        <v>81908856</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4736538</v>
+        <v>4684109</v>
       </c>
       <c r="E8" t="n">
-        <v>4736538</v>
+        <v>4684109</v>
       </c>
       <c r="F8" t="n">
-        <v>1093.651490430885</v>
+        <v>791.7785028853144</v>
       </c>
       <c r="G8" t="n">
-        <v>860.0147248064765</v>
+        <v>974.4324867830321</v>
       </c>
       <c r="H8" t="n">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="I8" t="n">
-        <v>2253455</v>
+        <v>2232212</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2052065</v>
+        <v>2039619</v>
       </c>
       <c r="F9" t="n">
-        <v>124.8895418213747</v>
+        <v>158.0520374690035</v>
       </c>
       <c r="G9" t="n">
-        <v>1431.838993618744</v>
+        <v>10119.22467715081</v>
       </c>
       <c r="H9" t="n">
-        <v>1.96</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>323346</v>
+        <v>270817</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1998848</v>
+        <v>1955226</v>
       </c>
       <c r="F10" t="n">
-        <v>442.7070025583632</v>
+        <v>519.6242288822885</v>
       </c>
       <c r="G10" t="n">
-        <v>205.5913013138273</v>
+        <v>264.2947955731236</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I10" t="n">
-        <v>1204003</v>
+        <v>1204818</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108714183</v>
+        <v>108555034</v>
       </c>
       <c r="E11" t="n">
-        <v>204804634</v>
+        <v>204504816</v>
       </c>
       <c r="F11" t="n">
-        <v>1447.686582260927</v>
+        <v>1558.164660661904</v>
       </c>
       <c r="G11" t="n">
-        <v>1512.208379469309</v>
+        <v>1512.144969176304</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>4007126</v>
+        <v>4011394</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12091893</v>
+        <v>12098323</v>
       </c>
       <c r="E12" t="n">
-        <v>30094535</v>
+        <v>30110538</v>
       </c>
       <c r="F12" t="n">
-        <v>1138.337717090129</v>
+        <v>851.3422556320586</v>
       </c>
       <c r="G12" t="n">
-        <v>4362.312082808457</v>
+        <v>3534.339942471994</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I12" t="n">
-        <v>1442515</v>
+        <v>1470971</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112286277</v>
+        <v>110594516</v>
       </c>
       <c r="E13" t="n">
-        <v>436576551</v>
+        <v>429998873</v>
       </c>
       <c r="F13" t="n">
-        <v>20029.23230958546</v>
+        <v>19613.79402971489</v>
       </c>
       <c r="G13" t="n">
-        <v>12211.47305994793</v>
+        <v>11087.71155793276</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>20308829</v>
+        <v>20319851</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4951490</v>
+        <v>4942335</v>
       </c>
       <c r="E14" t="n">
-        <v>7288862</v>
+        <v>7275385</v>
       </c>
       <c r="F14" t="n">
-        <v>2265.08239179398</v>
+        <v>2025.674107190937</v>
       </c>
       <c r="G14" t="n">
-        <v>138.2707428569119</v>
+        <v>244.5645532375729</v>
       </c>
       <c r="H14" t="n">
         <v>1.37</v>
       </c>
       <c r="I14" t="n">
-        <v>571468</v>
+        <v>566304</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>143677499</v>
+        <v>141808388</v>
       </c>
       <c r="E15" t="n">
-        <v>143677499</v>
+        <v>141808388</v>
       </c>
       <c r="F15" t="n">
-        <v>49264.42736610663</v>
+        <v>55794.35485912525</v>
       </c>
       <c r="G15" t="n">
-        <v>80440.20619683103</v>
+        <v>77142.54587085165</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>87514825</v>
+        <v>84619637</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66477369</v>
+        <v>65142825</v>
       </c>
       <c r="E16" t="n">
-        <v>340909587</v>
+        <v>334065772</v>
       </c>
       <c r="F16" t="n">
-        <v>9099.265706844699</v>
+        <v>11146.9224493395</v>
       </c>
       <c r="G16" t="n">
-        <v>17282.98142172043</v>
+        <v>14068.00514137739</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>26571417</v>
+        <v>26843246</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>263617511</v>
+        <v>261070034</v>
       </c>
       <c r="E17" t="n">
-        <v>263617511</v>
+        <v>261070034</v>
       </c>
       <c r="F17" t="n">
-        <v>49392.56722987016</v>
+        <v>55060.53458369072</v>
       </c>
       <c r="G17" t="n">
-        <v>62491.56969709528</v>
+        <v>61463.70288305124</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>22247895</v>
+        <v>27366996</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2571122</v>
+        <v>2562681</v>
       </c>
       <c r="E18" t="n">
-        <v>6573297</v>
+        <v>6551717</v>
       </c>
       <c r="F18" t="n">
-        <v>904.6339759168486</v>
+        <v>871.9266348099561</v>
       </c>
       <c r="G18" t="n">
-        <v>902.9524348654752</v>
+        <v>922.1163698215165</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>81068</v>
+        <v>81106</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>83836007</v>
+        <v>82235439</v>
       </c>
       <c r="E19" t="n">
-        <v>234520679</v>
+        <v>230043294</v>
       </c>
       <c r="F19" t="n">
-        <v>17220.34148089335</v>
+        <v>19937.63074957133</v>
       </c>
       <c r="G19" t="n">
-        <v>23713.57153163557</v>
+        <v>19666.83343210072</v>
       </c>
       <c r="H19" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I19" t="n">
-        <v>48917494</v>
+        <v>49979170</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1593562</v>
+        <v>1596626</v>
       </c>
       <c r="E20" t="n">
-        <v>9149636</v>
+        <v>9167232</v>
       </c>
       <c r="F20" t="n">
-        <v>49.23456706858521</v>
+        <v>48.99710882732079</v>
       </c>
       <c r="G20" t="n">
-        <v>738.413419902228</v>
+        <v>738.4139242274031</v>
       </c>
       <c r="H20" t="n">
         <v>1.03</v>
       </c>
       <c r="I20" t="n">
-        <v>239271</v>
+        <v>240153</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>171834</v>
+        <v>170262</v>
       </c>
       <c r="E21" t="n">
-        <v>1160415</v>
+        <v>1149801</v>
       </c>
       <c r="F21" t="n">
-        <v>5.71886987705727</v>
+        <v>5.56648958719718</v>
       </c>
       <c r="G21" t="n">
-        <v>158.6474395272217</v>
+        <v>134.7477365058998</v>
       </c>
       <c r="H21" t="n">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="I21" t="n">
-        <v>3026121</v>
+        <v>3035270</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>250156</v>
+        <v>249347</v>
       </c>
       <c r="F22" t="n">
-        <v>10.00162002723168</v>
+        <v>105.732089028431</v>
       </c>
       <c r="G22" t="n">
-        <v>438.3833441044169</v>
+        <v>356.4162107896539</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>4056.38</v>
+        <v>4111.81</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>89760137</v>
+        <v>86856624</v>
       </c>
       <c r="E23" t="n">
-        <v>187142677</v>
+        <v>181089085</v>
       </c>
       <c r="F23" t="n">
-        <v>24890.65144578898</v>
+        <v>23298.43395591403</v>
       </c>
       <c r="G23" t="n">
-        <v>45522.14374149101</v>
+        <v>50169.67975433318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="I23" t="n">
-        <v>67154767</v>
+        <v>67338848</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>203953181</v>
+        <v>200971284</v>
       </c>
       <c r="E24" t="n">
-        <v>708551784</v>
+        <v>698192405</v>
       </c>
       <c r="F24" t="n">
-        <v>63645.04441516066</v>
+        <v>63818.10245718701</v>
       </c>
       <c r="G24" t="n">
-        <v>62753.51000116223</v>
+        <v>63714.32024327359</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>37666202</v>
+        <v>37981131</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115150422</v>
+        <v>113633286</v>
       </c>
       <c r="E25" t="n">
-        <v>488642602</v>
+        <v>482204613</v>
       </c>
       <c r="F25" t="n">
-        <v>14490.38186179899</v>
+        <v>16007.01358757614</v>
       </c>
       <c r="G25" t="n">
-        <v>15234.70314703758</v>
+        <v>17188.42765493975</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>15209546</v>
+        <v>15233046</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5807773</v>
+        <v>5801823</v>
       </c>
       <c r="E26" t="n">
-        <v>7883953</v>
+        <v>7874144</v>
       </c>
       <c r="F26" t="n">
-        <v>926.8720854021085</v>
+        <v>1332.025876280804</v>
       </c>
       <c r="G26" t="n">
-        <v>883.4561797375497</v>
+        <v>432.1407353042738</v>
       </c>
       <c r="H26" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5313192</v>
+        <v>5277668</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>555067</v>
+        <v>555299</v>
       </c>
       <c r="E27" t="n">
-        <v>6732419</v>
+        <v>6735240</v>
       </c>
       <c r="F27" t="n">
-        <v>790.2102155533997</v>
+        <v>770.181200234178</v>
       </c>
       <c r="G27" t="n">
-        <v>505.8481512704562</v>
+        <v>195.8762849548466</v>
       </c>
       <c r="H27" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="I27" t="n">
-        <v>2783583</v>
+        <v>2807875</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25860109</v>
+        <v>25673027</v>
       </c>
       <c r="E28" t="n">
-        <v>36544504</v>
+        <v>36280127</v>
       </c>
       <c r="F28" t="n">
-        <v>228.1472334647583</v>
+        <v>616.658533838392</v>
       </c>
       <c r="G28" t="n">
-        <v>909.4283447206753</v>
+        <v>15.41609298534688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="I28" t="n">
-        <v>101574</v>
+        <v>100834</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1406597859</v>
+        <v>1376836392</v>
       </c>
       <c r="E29" t="n">
-        <v>6744924799</v>
+        <v>6602212468</v>
       </c>
       <c r="F29" t="n">
-        <v>63521.0304098144</v>
+        <v>62305.12153394916</v>
       </c>
       <c r="G29" t="n">
-        <v>113807.5658353317</v>
+        <v>99412.49656002357</v>
       </c>
       <c r="H29" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>422246820</v>
+        <v>427306355</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>267068291</v>
+        <v>262442491</v>
       </c>
       <c r="E30" t="n">
-        <v>1152815002</v>
+        <v>1132847485</v>
       </c>
       <c r="F30" t="n">
-        <v>164207.0286673423</v>
+        <v>102855.141479515</v>
       </c>
       <c r="G30" t="n">
-        <v>225282.2098456483</v>
+        <v>141924.9539535198</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>134857919</v>
+        <v>135573778</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5332058</v>
+        <v>5351095</v>
       </c>
       <c r="E31" t="n">
-        <v>5338093</v>
+        <v>5357151</v>
       </c>
       <c r="F31" t="n">
-        <v>87.30277780481536</v>
+        <v>87.30280877758602</v>
       </c>
       <c r="G31" t="n">
-        <v>173.5394451056119</v>
+        <v>173.5395066729247</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>146163</v>
+        <v>146471</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16266805</v>
+        <v>16014735</v>
       </c>
       <c r="E32" t="n">
-        <v>40667013</v>
+        <v>40036838</v>
       </c>
       <c r="F32" t="n">
-        <v>3357.218168264381</v>
+        <v>2844.725497080946</v>
       </c>
       <c r="G32" t="n">
-        <v>3814.309654652992</v>
+        <v>2497.144668882883</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="I32" t="n">
-        <v>3975309</v>
+        <v>4072043</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19805468</v>
+        <v>19700079</v>
       </c>
       <c r="F33" t="n">
-        <v>818.6237972944061</v>
+        <v>1392.741455943612</v>
       </c>
       <c r="G33" t="n">
-        <v>2772.073124278118</v>
+        <v>1865.009254910768</v>
       </c>
       <c r="H33" t="n">
         <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>56602</v>
+        <v>57587</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189361</v>
+        <v>4189359</v>
       </c>
       <c r="E34" t="n">
-        <v>12066715</v>
+        <v>12066710</v>
       </c>
       <c r="F34" t="n">
-        <v>2924.259122992229</v>
+        <v>1675.874155212864</v>
       </c>
       <c r="G34" t="n">
-        <v>1662.438856167934</v>
+        <v>670.7878565997066</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>529877</v>
+        <v>530147</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1586342</v>
+        <v>1585083</v>
       </c>
       <c r="F35" t="n">
-        <v>220.5848071002327</v>
+        <v>220.5849577563129</v>
       </c>
       <c r="G35" t="n">
-        <v>17.62564556286133</v>
+        <v>17.62565760091013</v>
       </c>
       <c r="H35" t="n">
         <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>9032.219999999999</v>
+        <v>8840.110000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14719995</v>
+        <v>14201645</v>
       </c>
       <c r="E36" t="n">
-        <v>71291284</v>
+        <v>68780835</v>
       </c>
       <c r="F36" t="n">
-        <v>6918.391867569206</v>
+        <v>3421.048508240222</v>
       </c>
       <c r="G36" t="n">
-        <v>5417.88502062255</v>
+        <v>5402.452350235255</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="I36" t="n">
-        <v>5087579</v>
+        <v>5153255</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1355691</v>
+        <v>1328307</v>
       </c>
       <c r="E37" t="n">
-        <v>8872964</v>
+        <v>8693734</v>
       </c>
       <c r="F37" t="n">
-        <v>91.33185993048139</v>
+        <v>225.7098814971998</v>
       </c>
       <c r="G37" t="n">
-        <v>395.5518475847102</v>
+        <v>34.49741781958261</v>
       </c>
       <c r="H37" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I37" t="n">
-        <v>521038</v>
+        <v>524072</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1873025386</v>
+        <v>1860530458</v>
       </c>
       <c r="F38" t="n">
-        <v>74074.691927526</v>
+        <v>75862.53809140493</v>
       </c>
       <c r="G38" t="n">
-        <v>65346.41635557303</v>
+        <v>74031.40073275768</v>
       </c>
       <c r="H38" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I38" t="n">
-        <v>29430648</v>
+        <v>29658216</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31258276</v>
+        <v>30563955</v>
       </c>
       <c r="E39" t="n">
-        <v>97328243</v>
+        <v>95166349</v>
       </c>
       <c r="F39" t="n">
-        <v>2347.40201594704</v>
+        <v>3167.30745947949</v>
       </c>
       <c r="G39" t="n">
-        <v>11363.67986247753</v>
+        <v>9034.76491017942</v>
       </c>
       <c r="H39" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="I39" t="n">
-        <v>9998479</v>
+        <v>10189041</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200240195</v>
+        <v>196770073</v>
       </c>
       <c r="E40" t="n">
-        <v>1133883022</v>
+        <v>1114233055</v>
       </c>
       <c r="F40" t="n">
-        <v>13490.34515381625</v>
+        <v>16379.21542018793</v>
       </c>
       <c r="G40" t="n">
-        <v>24108.99433218866</v>
+        <v>24899.77507711065</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>81900663</v>
+        <v>82674147</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>126206911</v>
+        <v>126229997</v>
       </c>
       <c r="E41" t="n">
-        <v>934866009</v>
+        <v>935037017</v>
       </c>
       <c r="F41" t="n">
-        <v>27615.01709187784</v>
+        <v>27461.38845469041</v>
       </c>
       <c r="G41" t="n">
-        <v>74780.97293981764</v>
+        <v>95917.22800319007</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>20711295</v>
+        <v>21073787</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31204265</v>
+        <v>31099972</v>
       </c>
       <c r="E42" t="n">
-        <v>148173917</v>
+        <v>147607783</v>
       </c>
       <c r="F42" t="n">
-        <v>3829.518409819951</v>
+        <v>3836.888748118558</v>
       </c>
       <c r="G42" t="n">
-        <v>7722.53458327178</v>
+        <v>9519.408149661593</v>
       </c>
       <c r="H42" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>776660</v>
+        <v>830603</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3455981</v>
+        <v>3450413</v>
       </c>
       <c r="E43" t="n">
-        <v>8070293</v>
+        <v>8057290</v>
       </c>
       <c r="F43" t="n">
-        <v>800.3275224348495</v>
+        <v>908.3492126996831</v>
       </c>
       <c r="G43" t="n">
-        <v>2367.217325369655</v>
+        <v>1619.982885092666</v>
       </c>
       <c r="H43" t="n">
         <v>1.11</v>
       </c>
       <c r="I43" t="n">
-        <v>636411</v>
+        <v>630882</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>333511388</v>
+        <v>329671300</v>
       </c>
       <c r="E44" t="n">
-        <v>3000475249</v>
+        <v>2965927440</v>
       </c>
       <c r="F44" t="n">
-        <v>39488.04785874613</v>
+        <v>34213.15126174698</v>
       </c>
       <c r="G44" t="n">
-        <v>43570.22506296673</v>
+        <v>29418.44277862295</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I44" t="n">
-        <v>57193563</v>
+        <v>59575773</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628067</v>
+        <v>628146</v>
       </c>
       <c r="F45" t="n">
-        <v>270.7738519144127</v>
+        <v>270.7739479779817</v>
       </c>
       <c r="G45" t="n">
-        <v>797.5195379644582</v>
+        <v>797.5198209037916</v>
       </c>
       <c r="H45" t="n">
         <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>12476.2</v>
+        <v>12466.39</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1554963</v>
+        <v>1552187</v>
       </c>
       <c r="E46" t="n">
-        <v>12958026</v>
+        <v>12934895</v>
       </c>
       <c r="F46" t="n">
-        <v>822.2335275949686</v>
+        <v>1245.064098186325</v>
       </c>
       <c r="G46" t="n">
-        <v>172.6845184874408</v>
+        <v>303.0248187974938</v>
       </c>
       <c r="H46" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>28058</v>
+        <v>28142</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4823425</v>
+        <v>4803447</v>
       </c>
       <c r="E47" t="n">
-        <v>17041148</v>
+        <v>16970566</v>
       </c>
       <c r="F47" t="n">
-        <v>1229.561413395058</v>
+        <v>1536.757930741009</v>
       </c>
       <c r="G47" t="n">
-        <v>1079.309937962433</v>
+        <v>1062.145030801105</v>
       </c>
       <c r="H47" t="n">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="I47" t="n">
-        <v>125155</v>
+        <v>124424</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47276540</v>
+        <v>46285646</v>
       </c>
       <c r="E48" t="n">
-        <v>273711634</v>
+        <v>267974762</v>
       </c>
       <c r="F48" t="n">
-        <v>12575.82243326819</v>
+        <v>10402.29283285691</v>
       </c>
       <c r="G48" t="n">
-        <v>6392.168896167097</v>
+        <v>11022.04122137843</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8</v>
+        <v>0.41</v>
       </c>
       <c r="I48" t="n">
-        <v>48354820</v>
+        <v>49212317</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2269253</v>
+        <v>2240118</v>
       </c>
       <c r="E49" t="n">
-        <v>12467663</v>
+        <v>12307591</v>
       </c>
       <c r="F49" t="n">
-        <v>373.4383616101313</v>
+        <v>227.5294559451121</v>
       </c>
       <c r="G49" t="n">
-        <v>971.7507133557644</v>
+        <v>204.9362170438902</v>
       </c>
       <c r="H49" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
-        <v>102665</v>
+        <v>102659</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13902230</v>
+        <v>13724717</v>
       </c>
       <c r="E50" t="n">
-        <v>13949540</v>
+        <v>13771424</v>
       </c>
       <c r="F50" t="n">
-        <v>3113.851326031888</v>
+        <v>4770.509816789811</v>
       </c>
       <c r="G50" t="n">
-        <v>11135.35190468157</v>
+        <v>10279.66899233805</v>
       </c>
       <c r="H50" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>6797426</v>
+        <v>6797138</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19946678</v>
+        <v>19664451</v>
       </c>
       <c r="E51" t="n">
-        <v>59790103</v>
+        <v>58954259</v>
       </c>
       <c r="F51" t="n">
-        <v>23268.59687230285</v>
+        <v>23385.7428528771</v>
       </c>
       <c r="G51" t="n">
-        <v>9132.127632560438</v>
+        <v>8996.22816293474</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3364423</v>
+        <v>4068204</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15801379</v>
+        <v>15656341</v>
       </c>
       <c r="E52" t="n">
-        <v>96851849</v>
+        <v>95962864</v>
       </c>
       <c r="F52" t="n">
-        <v>8283.063468207016</v>
+        <v>7859.522641137752</v>
       </c>
       <c r="G52" t="n">
-        <v>9116.214814147845</v>
+        <v>9636.686859400659</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>11356974</v>
+        <v>9064898</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49675355</v>
+        <v>48956813</v>
       </c>
       <c r="E53" t="n">
-        <v>213995998</v>
+        <v>210900597</v>
       </c>
       <c r="F53" t="n">
-        <v>17642.60844740984</v>
+        <v>19845.21111140522</v>
       </c>
       <c r="G53" t="n">
-        <v>22775.81031176238</v>
+        <v>20689.84529530787</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53" t="n">
-        <v>11993610</v>
+        <v>10572107</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1030479</v>
+        <v>1027294</v>
       </c>
       <c r="E54" t="n">
-        <v>3011912</v>
+        <v>3002602</v>
       </c>
       <c r="F54" t="n">
-        <v>114.5867608861171</v>
+        <v>114.5865545559372</v>
       </c>
       <c r="G54" t="n">
-        <v>585.891474555135</v>
+        <v>605.9049594367568</v>
       </c>
       <c r="H54" t="n">
         <v>1.3</v>
       </c>
       <c r="I54" t="n">
-        <v>19450.12</v>
+        <v>19503.91</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32029296</v>
+        <v>32033370</v>
       </c>
       <c r="E55" t="n">
-        <v>80762507</v>
+        <v>80772780</v>
       </c>
       <c r="F55" t="n">
-        <v>84.66894598398598</v>
+        <v>2159.049966873208</v>
       </c>
       <c r="G55" t="n">
-        <v>400.2518510614136</v>
+        <v>90.90319746313341</v>
       </c>
       <c r="H55" t="n">
-        <v>0.99</v>
+        <v>1.92</v>
       </c>
       <c r="I55" t="n">
-        <v>5217574</v>
+        <v>5408390</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27178812</v>
+        <v>27256754</v>
       </c>
       <c r="E56" t="n">
-        <v>64542717</v>
+        <v>64658075</v>
       </c>
       <c r="F56" t="n">
-        <v>5533.766336876424</v>
+        <v>5972.582684065954</v>
       </c>
       <c r="G56" t="n">
-        <v>1658.989151947834</v>
+        <v>1651.932657966731</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>389279</v>
+        <v>577439</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12637907</v>
+        <v>12636933</v>
       </c>
       <c r="E57" t="n">
-        <v>19237744</v>
+        <v>19236262</v>
       </c>
       <c r="F57" t="n">
-        <v>1678.107110144842</v>
+        <v>2490.403027652507</v>
       </c>
       <c r="G57" t="n">
-        <v>863.0600624745699</v>
+        <v>2311.680506119506</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="I57" t="n">
-        <v>660381</v>
+        <v>663457</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>300354551</v>
+        <v>295882646</v>
       </c>
       <c r="E58" t="n">
-        <v>300354551</v>
+        <v>295882646</v>
       </c>
       <c r="F58" t="n">
-        <v>67839.34090997075</v>
+        <v>63893.54701918322</v>
       </c>
       <c r="G58" t="n">
-        <v>82972.18105317687</v>
+        <v>72192.60457925138</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
-        <v>84457959</v>
+        <v>86061946</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11615767</v>
+        <v>11617934</v>
       </c>
       <c r="F59" t="n">
-        <v>34.31924522431105</v>
+        <v>161.5254661275369</v>
       </c>
       <c r="G59" t="n">
-        <v>7.368137831993239</v>
+        <v>48.77312617049979</v>
       </c>
       <c r="H59" t="n">
-        <v>3.84</v>
+        <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>88142</v>
+        <v>89726</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>87727897</v>
+        <v>86233951</v>
       </c>
       <c r="E60" t="n">
-        <v>505525982</v>
+        <v>496917223</v>
       </c>
       <c r="F60" t="n">
-        <v>37476.53462772097</v>
+        <v>8822.370919273169</v>
       </c>
       <c r="G60" t="n">
-        <v>37175.38470741503</v>
+        <v>6751.453477569101</v>
       </c>
       <c r="H60" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I60" t="n">
-        <v>19934594</v>
+        <v>20107966</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9299100</v>
+        <v>9180003</v>
       </c>
       <c r="E61" t="n">
-        <v>9299100</v>
+        <v>9180003</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.31</v>
+        <v>5.34</v>
       </c>
       <c r="I61" t="n">
-        <v>2836221</v>
+        <v>2841966</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30277478</v>
+        <v>29514229</v>
       </c>
       <c r="E62" t="n">
-        <v>135564688</v>
+        <v>132147312</v>
       </c>
       <c r="F62" t="n">
-        <v>15816.7224112219</v>
+        <v>26906.5658913122</v>
       </c>
       <c r="G62" t="n">
-        <v>29142.18705641953</v>
+        <v>20144.98577824972</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="I62" t="n">
-        <v>12169808</v>
+        <v>12471129</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12845284</v>
+        <v>12830456</v>
       </c>
       <c r="E63" t="n">
-        <v>25672559</v>
+        <v>25642925</v>
       </c>
       <c r="F63" t="n">
-        <v>2118.800685339697</v>
+        <v>2138.030935810041</v>
       </c>
       <c r="G63" t="n">
-        <v>1971.191049464363</v>
+        <v>1960.156428343808</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>14709.44</v>
+        <v>14704.17</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1279168</v>
+        <v>1282128</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.38</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>92611</v>
+        <v>83488</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50219955</v>
+        <v>49500733</v>
       </c>
       <c r="E65" t="n">
-        <v>325663045</v>
+        <v>320999077</v>
       </c>
       <c r="F65" t="n">
-        <v>21646.83068416281</v>
+        <v>14412.84930931859</v>
       </c>
       <c r="G65" t="n">
-        <v>22107.76167131785</v>
+        <v>21490.293681227</v>
       </c>
       <c r="H65" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I65" t="n">
-        <v>19260414</v>
+        <v>19633797</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4727566</v>
+        <v>4724396</v>
       </c>
       <c r="F66" t="n">
-        <v>169.7448033834897</v>
+        <v>143.9827328049084</v>
       </c>
       <c r="G66" t="n">
-        <v>61.38430918885172</v>
+        <v>154.0769110563086</v>
       </c>
       <c r="H66" t="n">
-        <v>1.43</v>
+        <v>0.68</v>
       </c>
       <c r="I66" t="n">
-        <v>215153</v>
+        <v>240162</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123612660</v>
+        <v>123198170</v>
       </c>
       <c r="E67" t="n">
-        <v>2047126895</v>
+        <v>2040262602</v>
       </c>
       <c r="F67" t="n">
-        <v>21701.92889051964</v>
+        <v>21498.87382835466</v>
       </c>
       <c r="G67" t="n">
-        <v>22815.05688402433</v>
+        <v>21340.45134105814</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>21101013</v>
+        <v>22919985</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24009723</v>
+        <v>23688935</v>
       </c>
       <c r="E68" t="n">
-        <v>143654997</v>
+        <v>141735659</v>
       </c>
       <c r="F68" t="n">
-        <v>7619.155378188168</v>
+        <v>1545.112410023854</v>
       </c>
       <c r="G68" t="n">
-        <v>46536.94626669539</v>
+        <v>45915.48407496201</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>16321876</v>
+        <v>16525344</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23276905</v>
+        <v>23033849</v>
       </c>
       <c r="E70" t="n">
-        <v>23276905</v>
+        <v>23033849</v>
       </c>
       <c r="F70" t="n">
-        <v>3531.279784986225</v>
+        <v>3700.737474358183</v>
       </c>
       <c r="G70" t="n">
-        <v>3404.102928170041</v>
+        <v>2535.323675225272</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2407567</v>
+        <v>2391960</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33325207</v>
+        <v>33010113</v>
       </c>
       <c r="E71" t="n">
-        <v>166308146</v>
+        <v>164735683</v>
       </c>
       <c r="F71" t="n">
-        <v>16372.28800025743</v>
+        <v>16660.76689653683</v>
       </c>
       <c r="G71" t="n">
-        <v>18991.85583178407</v>
+        <v>18449.35280953512</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13394873</v>
+        <v>13378991</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>177847</v>
+        <v>178839</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>21199</v>
+        <v>23462</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>316569031</v>
+        <v>311770540</v>
       </c>
       <c r="E73" t="n">
-        <v>585724899</v>
+        <v>576846598</v>
       </c>
       <c r="F73" t="n">
-        <v>14765.67638760823</v>
+        <v>10306.19662124103</v>
       </c>
       <c r="G73" t="n">
-        <v>17287.17432006357</v>
+        <v>13719.15980686524</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="I73" t="n">
-        <v>14855271</v>
+        <v>16483101</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9612681</v>
+        <v>9519033</v>
       </c>
       <c r="E74" t="n">
-        <v>28497162</v>
+        <v>28219538</v>
       </c>
       <c r="F74" t="n">
-        <v>669.0435364551581</v>
+        <v>724.7209611728493</v>
       </c>
       <c r="G74" t="n">
-        <v>2168.612141642732</v>
+        <v>1551.411552931402</v>
       </c>
       <c r="H74" t="n">
         <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>6147954</v>
+        <v>6124442</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8140273</v>
+        <v>8132903</v>
       </c>
       <c r="E75" t="n">
-        <v>11598024</v>
+        <v>11587523</v>
       </c>
       <c r="F75" t="n">
-        <v>4173.767295817528</v>
+        <v>3712.543362707821</v>
       </c>
       <c r="G75" t="n">
-        <v>361.1677195357354</v>
+        <v>353.1771039682429</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I75" t="n">
-        <v>322184</v>
+        <v>316591</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16446261</v>
+        <v>16001959</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9368650868247119</v>
+        <v>0.9368637073509031</v>
       </c>
       <c r="G76" t="n">
-        <v>269.0269417210933</v>
+        <v>14.0120657063755</v>
       </c>
       <c r="H76" t="n">
         <v>0.52</v>
       </c>
       <c r="I76" t="n">
-        <v>1060814</v>
+        <v>1065750</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>74928789</v>
+        <v>74894875</v>
       </c>
       <c r="E77" t="n">
-        <v>103749963</v>
+        <v>103701522</v>
       </c>
       <c r="F77" t="n">
-        <v>10741.3057483231</v>
+        <v>10440.67208388261</v>
       </c>
       <c r="G77" t="n">
-        <v>13312.97288718156</v>
+        <v>14101.42477813397</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I77" t="n">
-        <v>6933272</v>
+        <v>6987685</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6350026</v>
+        <v>6325636</v>
       </c>
       <c r="E78" t="n">
-        <v>6350026</v>
+        <v>6325636</v>
       </c>
       <c r="F78" t="n">
-        <v>333.4563554898851</v>
+        <v>340.1404071047471</v>
       </c>
       <c r="G78" t="n">
-        <v>230.4092012438419</v>
+        <v>2084.078298573803</v>
       </c>
       <c r="H78" t="n">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="I78" t="n">
-        <v>1382766</v>
+        <v>1410767</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59161</v>
+        <v>59041</v>
       </c>
       <c r="E79" t="n">
-        <v>308676</v>
+        <v>308052</v>
       </c>
       <c r="F79" t="n">
-        <v>111.5006169602924</v>
+        <v>69.40202327916603</v>
       </c>
       <c r="G79" t="n">
-        <v>25.56947921964186</v>
+        <v>36.18919669474912</v>
       </c>
       <c r="H79" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="I79" t="n">
-        <v>215099</v>
+        <v>213792</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26640149</v>
+        <v>26680421</v>
       </c>
       <c r="F80" t="n">
-        <v>4886.007850752221</v>
+        <v>4942.839761071982</v>
       </c>
       <c r="G80" t="n">
-        <v>6796.651260471968</v>
+        <v>5446.889660436645</v>
       </c>
       <c r="H80" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="I80" t="n">
-        <v>50897</v>
+        <v>52336</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>598486897</v>
+        <v>590717947</v>
       </c>
       <c r="E81" t="n">
-        <v>2317851453</v>
+        <v>2287763456</v>
       </c>
       <c r="F81" t="n">
-        <v>163522.2382170747</v>
+        <v>158417.9219934705</v>
       </c>
       <c r="G81" t="n">
-        <v>182494.2215473</v>
+        <v>174227.2197833365</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>52464791</v>
+        <v>53466045</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7535041</v>
+        <v>7522892</v>
       </c>
       <c r="E82" t="n">
-        <v>10795552</v>
+        <v>10778147</v>
       </c>
       <c r="F82" t="n">
-        <v>1550.457191731611</v>
+        <v>1614.287788262611</v>
       </c>
       <c r="G82" t="n">
-        <v>1112.883866918426</v>
+        <v>907.1299143407562</v>
       </c>
       <c r="H82" t="n">
         <v>0.92</v>
       </c>
       <c r="I82" t="n">
-        <v>184424</v>
+        <v>183963</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>111737981</v>
+        <v>110350355</v>
       </c>
       <c r="E83" t="n">
-        <v>1038189844</v>
+        <v>1025297014</v>
       </c>
       <c r="F83" t="n">
-        <v>11539.72832246226</v>
+        <v>11390.89819521333</v>
       </c>
       <c r="G83" t="n">
-        <v>18384.34275253772</v>
+        <v>21616.10072361382</v>
       </c>
       <c r="H83" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9922647</v>
+        <v>13780752</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1067759</v>
+        <v>1069600</v>
       </c>
       <c r="E84" t="n">
-        <v>4134595</v>
+        <v>4141726</v>
       </c>
       <c r="F84" t="n">
-        <v>1117.981690542378</v>
+        <v>1148.37356389145</v>
       </c>
       <c r="G84" t="n">
-        <v>469.3862858497892</v>
+        <v>802.2733314064875</v>
       </c>
       <c r="H84" t="n">
         <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>222506</v>
+        <v>314947</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>125474164</v>
+        <v>123945413</v>
       </c>
       <c r="E85" t="n">
-        <v>481339088</v>
+        <v>475474553</v>
       </c>
       <c r="F85" t="n">
-        <v>82034.39234242337</v>
+        <v>81696.1068870497</v>
       </c>
       <c r="G85" t="n">
-        <v>82139.6698141583</v>
+        <v>81313.49554874125</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
-        <v>40554442</v>
+        <v>40318957</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5122377</v>
+        <v>5076588</v>
       </c>
       <c r="E86" t="n">
-        <v>19034848</v>
+        <v>18864695</v>
       </c>
       <c r="F86" t="n">
-        <v>415.2407764138865</v>
+        <v>413.7829866581416</v>
       </c>
       <c r="G86" t="n">
-        <v>481.660172202626</v>
+        <v>470.1117759898307</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>84984</v>
+        <v>88708</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35387706</v>
+        <v>35122568</v>
       </c>
       <c r="F87" t="n">
-        <v>1829.965419030746</v>
+        <v>5811.510035373406</v>
       </c>
       <c r="G87" t="n">
-        <v>2873.707916342569</v>
+        <v>3454.103039392884</v>
       </c>
       <c r="H87" t="n">
         <v>0.4</v>
       </c>
       <c r="I87" t="n">
-        <v>7362760</v>
+        <v>7379176</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24579432</v>
+        <v>24318684</v>
       </c>
       <c r="F88" t="n">
-        <v>940.7943472011108</v>
+        <v>1129.061229537519</v>
       </c>
       <c r="G88" t="n">
-        <v>906.5814893154167</v>
+        <v>852.470079805476</v>
       </c>
       <c r="H88" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>18302.74</v>
+        <v>18251.47</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88315971</v>
+        <v>88036814</v>
       </c>
       <c r="E89" t="n">
-        <v>326456208</v>
+        <v>325423569</v>
       </c>
       <c r="F89" t="n">
-        <v>1248.863222132826</v>
+        <v>1293.928404771515</v>
       </c>
       <c r="G89" t="n">
-        <v>1079.460145442696</v>
+        <v>1323.4548194092</v>
       </c>
       <c r="H89" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I89" t="n">
-        <v>214981</v>
+        <v>217893</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21590819</v>
+        <v>21311660</v>
       </c>
       <c r="E90" t="n">
-        <v>21590819</v>
+        <v>21311660</v>
       </c>
       <c r="F90" t="n">
-        <v>2965.087831990936</v>
+        <v>2573.670337384943</v>
       </c>
       <c r="G90" t="n">
-        <v>4030.732017842412</v>
+        <v>3598.403437196975</v>
       </c>
       <c r="H90" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="I90" t="n">
-        <v>7390618</v>
+        <v>7330964</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3809241</v>
+        <v>3812086</v>
       </c>
       <c r="E91" t="n">
-        <v>8303612</v>
+        <v>8309812</v>
       </c>
       <c r="F91" t="n">
-        <v>1916.079517589677</v>
+        <v>2030.960824435099</v>
       </c>
       <c r="G91" t="n">
-        <v>1401.674266714613</v>
+        <v>1422.436966056871</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1878877</v>
+        <v>1891456</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>490399355</v>
+        <v>484523135</v>
       </c>
       <c r="E92" t="n">
-        <v>1707039342</v>
+        <v>1686584708</v>
       </c>
       <c r="F92" t="n">
-        <v>70418.68496418411</v>
+        <v>69231.40174071354</v>
       </c>
       <c r="G92" t="n">
-        <v>69286.96733869963</v>
+        <v>68680.32040426591</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>43117106</v>
+        <v>44480527</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2545145</v>
+        <v>2531373</v>
       </c>
       <c r="E93" t="n">
-        <v>10180581</v>
+        <v>10125493</v>
       </c>
       <c r="F93" t="n">
-        <v>3336.833165791684</v>
+        <v>3548.100952284483</v>
       </c>
       <c r="G93" t="n">
-        <v>2238.536788189177</v>
+        <v>3072.431285164008</v>
       </c>
       <c r="H93" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="I93" t="n">
-        <v>7122217</v>
+        <v>7123881</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>217588637</v>
+        <v>216244401</v>
       </c>
       <c r="E94" t="n">
-        <v>669003175</v>
+        <v>664870155</v>
       </c>
       <c r="F94" t="n">
-        <v>77566.85383756872</v>
+        <v>68530.22045832587</v>
       </c>
       <c r="G94" t="n">
-        <v>87622.4984882945</v>
+        <v>76878.40648739446</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I94" t="n">
-        <v>20185160</v>
+        <v>20378361</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>139460330</v>
+        <v>138280382</v>
       </c>
       <c r="E95" t="n">
-        <v>364336242</v>
+        <v>361253661</v>
       </c>
       <c r="F95" t="n">
-        <v>29921.0255026438</v>
+        <v>29285.86457685843</v>
       </c>
       <c r="G95" t="n">
-        <v>37851.81969229996</v>
+        <v>33475.67438641492</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I95" t="n">
-        <v>8920284</v>
+        <v>8912110</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>392107386</v>
+        <v>385311940</v>
       </c>
       <c r="E96" t="n">
-        <v>2240613636</v>
+        <v>2201782516</v>
       </c>
       <c r="F96" t="n">
-        <v>23486.18294368017</v>
+        <v>21417.9318632901</v>
       </c>
       <c r="G96" t="n">
-        <v>40435.04325157084</v>
+        <v>42701.22539293427</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>53711192</v>
+        <v>54836444</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>625421596</v>
+        <v>608288346</v>
       </c>
       <c r="E2" t="n">
-        <v>1213650802</v>
+        <v>1180413077</v>
       </c>
       <c r="F2" t="n">
-        <v>22680.84847937294</v>
+        <v>22228.28095233773</v>
       </c>
       <c r="G2" t="n">
-        <v>28746.42860732557</v>
+        <v>27366.61083280903</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>38475915</v>
+        <v>40151478</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1481821</v>
+        <v>1462480</v>
       </c>
       <c r="E3" t="n">
-        <v>4789855</v>
+        <v>4727335</v>
       </c>
       <c r="F3" t="n">
-        <v>1103.967737500711</v>
+        <v>521.5319970072923</v>
       </c>
       <c r="G3" t="n">
-        <v>1609.477236208641</v>
+        <v>4379.445032570085</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.21</v>
       </c>
       <c r="I3" t="n">
-        <v>219319</v>
+        <v>215496</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253496905</v>
+        <v>249364390</v>
       </c>
       <c r="E4" t="n">
-        <v>1589643460</v>
+        <v>1563729037</v>
       </c>
       <c r="F4" t="n">
-        <v>94756.30882909417</v>
+        <v>113895.919431806</v>
       </c>
       <c r="G4" t="n">
-        <v>97603.94061421587</v>
+        <v>105920.1908485161</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>24163947</v>
+        <v>24045096</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143616624</v>
+        <v>143147457</v>
       </c>
       <c r="E5" t="n">
-        <v>159149663</v>
+        <v>158629754</v>
       </c>
       <c r="F5" t="n">
-        <v>7035.275017436307</v>
+        <v>6543.415518501626</v>
       </c>
       <c r="G5" t="n">
-        <v>9640.022618328276</v>
+        <v>10396.15760456582</v>
       </c>
       <c r="H5" t="n">
         <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>49154367</v>
+        <v>51067060</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>672439</v>
+        <v>678496</v>
       </c>
       <c r="E6" t="n">
-        <v>13063617</v>
+        <v>13181286</v>
       </c>
       <c r="F6" t="n">
-        <v>381.7328160848619</v>
+        <v>321.9890543449991</v>
       </c>
       <c r="G6" t="n">
-        <v>318.1243239703345</v>
+        <v>318.1147753095337</v>
       </c>
       <c r="H6" t="n">
-        <v>0.61</v>
+        <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>22022</v>
+        <v>22107</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>503593771</v>
+        <v>508695749</v>
       </c>
       <c r="E7" t="n">
-        <v>503593776</v>
+        <v>508695749</v>
       </c>
       <c r="F7" t="n">
-        <v>41363.41705448085</v>
+        <v>39531.48127025701</v>
       </c>
       <c r="G7" t="n">
-        <v>42809.69575328645</v>
+        <v>43167.94861597543</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>81908856</v>
+        <v>81185728</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="E8" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="F8" t="n">
-        <v>791.7785028853144</v>
+        <v>1194.890411618704</v>
       </c>
       <c r="G8" t="n">
-        <v>974.4324867830321</v>
+        <v>1135.094359251282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="I8" t="n">
-        <v>2232212</v>
+        <v>2156985</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2039619</v>
+        <v>2055865</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0520374690035</v>
+        <v>170.4888810162552</v>
       </c>
       <c r="G9" t="n">
-        <v>10119.22467715081</v>
+        <v>117.4494191258729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
-        <v>270817</v>
+        <v>352273</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1955226</v>
+        <v>1897859</v>
       </c>
       <c r="F10" t="n">
-        <v>519.6242288822885</v>
+        <v>515.01466398669</v>
       </c>
       <c r="G10" t="n">
-        <v>264.2947955731236</v>
+        <v>166.8971298191651</v>
       </c>
       <c r="H10" t="n">
-        <v>0.71</v>
+        <v>0.31</v>
       </c>
       <c r="I10" t="n">
-        <v>1204818</v>
+        <v>1214595</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108555034</v>
+        <v>108532952</v>
       </c>
       <c r="E11" t="n">
-        <v>204504816</v>
+        <v>204463215</v>
       </c>
       <c r="F11" t="n">
-        <v>1558.164660661904</v>
+        <v>1557.977156166887</v>
       </c>
       <c r="G11" t="n">
-        <v>1512.144969176304</v>
+        <v>1512.019097396376</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>4011394</v>
+        <v>4016930</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12098323</v>
+        <v>11956992</v>
       </c>
       <c r="E12" t="n">
-        <v>30110538</v>
+        <v>29758790</v>
       </c>
       <c r="F12" t="n">
-        <v>851.3422556320586</v>
+        <v>178.2536520700974</v>
       </c>
       <c r="G12" t="n">
-        <v>3534.339942471994</v>
+        <v>3945.063366029788</v>
       </c>
       <c r="H12" t="n">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1470971</v>
+        <v>1506232</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110594516</v>
+        <v>109857920</v>
       </c>
       <c r="E13" t="n">
-        <v>429998873</v>
+        <v>427110348</v>
       </c>
       <c r="F13" t="n">
-        <v>19613.79402971489</v>
+        <v>20937.80376919678</v>
       </c>
       <c r="G13" t="n">
-        <v>11087.71155793276</v>
+        <v>10419.29972003244</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>20319851</v>
+        <v>13177701</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4942335</v>
+        <v>4772065</v>
       </c>
       <c r="E14" t="n">
-        <v>7275385</v>
+        <v>7024738</v>
       </c>
       <c r="F14" t="n">
-        <v>2025.674107190937</v>
+        <v>194.3493834000788</v>
       </c>
       <c r="G14" t="n">
-        <v>244.5645532375729</v>
+        <v>234.2329598635959</v>
       </c>
       <c r="H14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>566304</v>
+        <v>558676</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="E15" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="F15" t="n">
-        <v>55794.35485912525</v>
+        <v>48469.75220340362</v>
       </c>
       <c r="G15" t="n">
-        <v>77142.54587085165</v>
+        <v>81608.91423857833</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>84619637</v>
+        <v>86886381</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65142825</v>
+        <v>65330391</v>
       </c>
       <c r="E16" t="n">
-        <v>334065772</v>
+        <v>335027647</v>
       </c>
       <c r="F16" t="n">
-        <v>11146.9224493395</v>
+        <v>15699.65167990682</v>
       </c>
       <c r="G16" t="n">
-        <v>14068.00514137739</v>
+        <v>16196.82524100309</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>26843246</v>
+        <v>27072676</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="E17" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="F17" t="n">
-        <v>55060.53458369072</v>
+        <v>46078.90930444613</v>
       </c>
       <c r="G17" t="n">
-        <v>61463.70288305124</v>
+        <v>54149.22486370612</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>27366996</v>
+        <v>24087322</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2562681</v>
+        <v>2571832</v>
       </c>
       <c r="E18" t="n">
-        <v>6551717</v>
+        <v>6575112</v>
       </c>
       <c r="F18" t="n">
-        <v>871.9266348099561</v>
+        <v>948.4029187253109</v>
       </c>
       <c r="G18" t="n">
-        <v>922.1163698215165</v>
+        <v>1071.69731907756</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>81106</v>
+        <v>81068</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82235439</v>
+        <v>84456825</v>
       </c>
       <c r="E19" t="n">
-        <v>230043294</v>
+        <v>236255948</v>
       </c>
       <c r="F19" t="n">
-        <v>19937.63074957133</v>
+        <v>21355.32424847735</v>
       </c>
       <c r="G19" t="n">
-        <v>19666.83343210072</v>
+        <v>16996.80884264926</v>
       </c>
       <c r="H19" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I19" t="n">
-        <v>49979170</v>
+        <v>58461920</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1596626</v>
+        <v>1593207</v>
       </c>
       <c r="E20" t="n">
-        <v>9167232</v>
+        <v>9147600</v>
       </c>
       <c r="F20" t="n">
-        <v>48.99710882732079</v>
+        <v>177.6308790168515</v>
       </c>
       <c r="G20" t="n">
-        <v>738.4139242274031</v>
+        <v>865.3367450234369</v>
       </c>
       <c r="H20" t="n">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="I20" t="n">
-        <v>240153</v>
+        <v>243235</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>170262</v>
+        <v>161484</v>
       </c>
       <c r="E21" t="n">
-        <v>1149801</v>
+        <v>1090522</v>
       </c>
       <c r="F21" t="n">
-        <v>5.56648958719718</v>
+        <v>11.69292975355894</v>
       </c>
       <c r="G21" t="n">
-        <v>134.7477365058998</v>
+        <v>5.09532088774912</v>
       </c>
       <c r="H21" t="n">
-        <v>1.29</v>
+        <v>0.66</v>
       </c>
       <c r="I21" t="n">
-        <v>3035270</v>
+        <v>3077576</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>249347</v>
+        <v>249189</v>
       </c>
       <c r="F22" t="n">
-        <v>105.732089028431</v>
+        <v>106.4141187386158</v>
       </c>
       <c r="G22" t="n">
-        <v>356.4162107896539</v>
+        <v>388.7344046480173</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>4111.81</v>
+        <v>3515.78</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86856624</v>
+        <v>86265425</v>
       </c>
       <c r="E23" t="n">
-        <v>181089085</v>
+        <v>179856483</v>
       </c>
       <c r="F23" t="n">
-        <v>23298.43395591403</v>
+        <v>19585.956318156</v>
       </c>
       <c r="G23" t="n">
-        <v>50169.67975433318</v>
+        <v>61657.26614624874</v>
       </c>
       <c r="H23" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>67338848</v>
+        <v>68568195</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200971284</v>
+        <v>200881953</v>
       </c>
       <c r="E24" t="n">
-        <v>698192405</v>
+        <v>697882060</v>
       </c>
       <c r="F24" t="n">
-        <v>63818.10245718701</v>
+        <v>63839.70175675154</v>
       </c>
       <c r="G24" t="n">
-        <v>63714.32024327359</v>
+        <v>62845.56736271254</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>37981131</v>
+        <v>38970011</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113633286</v>
+        <v>111317355</v>
       </c>
       <c r="E25" t="n">
-        <v>482204613</v>
+        <v>472315406</v>
       </c>
       <c r="F25" t="n">
-        <v>16007.01358757614</v>
+        <v>17323.61790168814</v>
       </c>
       <c r="G25" t="n">
-        <v>17188.42765493975</v>
+        <v>17257.6148352992</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>15233046</v>
+        <v>15272955</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5801823</v>
+        <v>5793968</v>
       </c>
       <c r="E26" t="n">
-        <v>7874144</v>
+        <v>7863477</v>
       </c>
       <c r="F26" t="n">
-        <v>1332.025876280804</v>
+        <v>800.7254598459755</v>
       </c>
       <c r="G26" t="n">
-        <v>432.1407353042738</v>
+        <v>169.0718816876829</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="I26" t="n">
-        <v>5277668</v>
+        <v>5135412</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>555299</v>
+        <v>560708</v>
       </c>
       <c r="E27" t="n">
-        <v>6735240</v>
+        <v>6800841</v>
       </c>
       <c r="F27" t="n">
-        <v>770.181200234178</v>
+        <v>613.8361729367858</v>
       </c>
       <c r="G27" t="n">
-        <v>195.8762849548466</v>
+        <v>136.3146860678695</v>
       </c>
       <c r="H27" t="n">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="I27" t="n">
-        <v>2807875</v>
+        <v>2813286</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25673027</v>
+        <v>25164598</v>
       </c>
       <c r="E28" t="n">
-        <v>36280127</v>
+        <v>35561634</v>
       </c>
       <c r="F28" t="n">
-        <v>616.658533838392</v>
+        <v>113.1319420547735</v>
       </c>
       <c r="G28" t="n">
-        <v>15.41609298534688</v>
+        <v>1669.929746311756</v>
       </c>
       <c r="H28" t="n">
-        <v>1.6</v>
+        <v>2.81</v>
       </c>
       <c r="I28" t="n">
-        <v>100834</v>
+        <v>113372</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1376836392</v>
+        <v>1417916499</v>
       </c>
       <c r="E29" t="n">
-        <v>6602212468</v>
+        <v>6799199995</v>
       </c>
       <c r="F29" t="n">
-        <v>62305.12153394916</v>
+        <v>83638.2451849463</v>
       </c>
       <c r="G29" t="n">
-        <v>99412.49656002357</v>
+        <v>138874.2634330909</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>427306355</v>
+        <v>452969342</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>262442491</v>
+        <v>262927043</v>
       </c>
       <c r="E30" t="n">
-        <v>1132847485</v>
+        <v>1134939079</v>
       </c>
       <c r="F30" t="n">
-        <v>102855.141479515</v>
+        <v>125741.5072734682</v>
       </c>
       <c r="G30" t="n">
-        <v>141924.9539535198</v>
+        <v>146645.6678583493</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>135573778</v>
+        <v>135775753</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5351095</v>
+        <v>5326674</v>
       </c>
       <c r="E31" t="n">
-        <v>5357151</v>
+        <v>5332702</v>
       </c>
       <c r="F31" t="n">
-        <v>87.30280877758602</v>
+        <v>87.28324990639959</v>
       </c>
       <c r="G31" t="n">
-        <v>173.5395066729247</v>
+        <v>172.4841724674403</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>146471</v>
+        <v>146189</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16014735</v>
+        <v>15832649</v>
       </c>
       <c r="E32" t="n">
-        <v>40036838</v>
+        <v>39581624</v>
       </c>
       <c r="F32" t="n">
-        <v>2844.725497080946</v>
+        <v>2730.631103526437</v>
       </c>
       <c r="G32" t="n">
-        <v>2497.144668882883</v>
+        <v>2774.929017611725</v>
       </c>
       <c r="H32" t="n">
-        <v>0.48</v>
+        <v>1.18</v>
       </c>
       <c r="I32" t="n">
-        <v>4072043</v>
+        <v>4455873</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19700079</v>
+        <v>19711311</v>
       </c>
       <c r="F33" t="n">
-        <v>1392.741455943612</v>
+        <v>1286.208910898403</v>
       </c>
       <c r="G33" t="n">
-        <v>1865.009254910768</v>
+        <v>4225.003310514056</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>57587</v>
+        <v>73627</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189359</v>
+        <v>4265783</v>
       </c>
       <c r="E34" t="n">
-        <v>12066710</v>
+        <v>12286861</v>
       </c>
       <c r="F34" t="n">
-        <v>1675.874155212864</v>
+        <v>361.6785645280198</v>
       </c>
       <c r="G34" t="n">
-        <v>670.7878565997066</v>
+        <v>740.8630468880143</v>
       </c>
       <c r="H34" t="n">
         <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>530147</v>
+        <v>515813</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1585083</v>
+        <v>1585877</v>
       </c>
       <c r="F35" t="n">
-        <v>220.5849577563129</v>
+        <v>312.5747528669468</v>
       </c>
       <c r="G35" t="n">
-        <v>17.62565760091013</v>
+        <v>7.780263156286842</v>
       </c>
       <c r="H35" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="I35" t="n">
-        <v>8840.110000000001</v>
+        <v>8539.73</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14201645</v>
+        <v>14153175</v>
       </c>
       <c r="E36" t="n">
-        <v>68780835</v>
+        <v>68546086</v>
       </c>
       <c r="F36" t="n">
-        <v>3421.048508240222</v>
+        <v>5148.971709819961</v>
       </c>
       <c r="G36" t="n">
-        <v>5402.452350235255</v>
+        <v>6416.728718963584</v>
       </c>
       <c r="H36" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I36" t="n">
-        <v>5153255</v>
+        <v>5335701</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1328307</v>
+        <v>1301257</v>
       </c>
       <c r="E37" t="n">
-        <v>8693734</v>
+        <v>8516692</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7098814971998</v>
+        <v>614.9138978538616</v>
       </c>
       <c r="G37" t="n">
-        <v>34.49741781958261</v>
+        <v>8.915027628790714</v>
       </c>
       <c r="H37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="I37" t="n">
-        <v>524072</v>
+        <v>492836</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1860530458</v>
+        <v>1861621257</v>
       </c>
       <c r="F38" t="n">
-        <v>75862.53809140493</v>
+        <v>76551.18179039305</v>
       </c>
       <c r="G38" t="n">
-        <v>74031.40073275768</v>
+        <v>74384.1289197959</v>
       </c>
       <c r="H38" t="n">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>29658216</v>
+        <v>30002192</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30563955</v>
+        <v>29980370</v>
       </c>
       <c r="E39" t="n">
-        <v>95166349</v>
+        <v>93349254</v>
       </c>
       <c r="F39" t="n">
-        <v>3167.30745947949</v>
+        <v>6149.378628359659</v>
       </c>
       <c r="G39" t="n">
-        <v>9034.76491017942</v>
+        <v>8081.278886903768</v>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>10189041</v>
+        <v>10319038</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>196770073</v>
+        <v>194658457</v>
       </c>
       <c r="E40" t="n">
-        <v>1114233055</v>
+        <v>1102275793</v>
       </c>
       <c r="F40" t="n">
-        <v>16379.21542018793</v>
+        <v>17270.39576795915</v>
       </c>
       <c r="G40" t="n">
-        <v>24899.77507711065</v>
+        <v>19230.78903341714</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>82674147</v>
+        <v>83367446</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>126229997</v>
+        <v>123290409</v>
       </c>
       <c r="E41" t="n">
-        <v>935037017</v>
+        <v>913262288</v>
       </c>
       <c r="F41" t="n">
-        <v>27461.38845469041</v>
+        <v>5648.029545126453</v>
       </c>
       <c r="G41" t="n">
-        <v>95917.22800319007</v>
+        <v>116704.3041007584</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I41" t="n">
-        <v>21073787</v>
+        <v>24698255</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31099972</v>
+        <v>30373914</v>
       </c>
       <c r="E42" t="n">
-        <v>147607783</v>
+        <v>144109270</v>
       </c>
       <c r="F42" t="n">
-        <v>3836.888748118558</v>
+        <v>1531.902006693785</v>
       </c>
       <c r="G42" t="n">
-        <v>9519.408149661593</v>
+        <v>7956.677710756537</v>
       </c>
       <c r="H42" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>830603</v>
+        <v>809536</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3450413</v>
+        <v>3424859</v>
       </c>
       <c r="E43" t="n">
-        <v>8057290</v>
+        <v>7997616</v>
       </c>
       <c r="F43" t="n">
-        <v>908.3492126996831</v>
+        <v>764.355528196329</v>
       </c>
       <c r="G43" t="n">
-        <v>1619.982885092666</v>
+        <v>1554.069472018729</v>
       </c>
       <c r="H43" t="n">
-        <v>1.11</v>
+        <v>0.27</v>
       </c>
       <c r="I43" t="n">
-        <v>630882</v>
+        <v>626189</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>329671300</v>
+        <v>325155934</v>
       </c>
       <c r="E44" t="n">
-        <v>2965927440</v>
+        <v>2925304404</v>
       </c>
       <c r="F44" t="n">
-        <v>34213.15126174698</v>
+        <v>40781.32881398854</v>
       </c>
       <c r="G44" t="n">
-        <v>29418.44277862295</v>
+        <v>39667.58165626629</v>
       </c>
       <c r="H44" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>59575773</v>
+        <v>62240667</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628146</v>
+        <v>628912</v>
       </c>
       <c r="F45" t="n">
-        <v>270.7739479779817</v>
+        <v>281.4555364629117</v>
       </c>
       <c r="G45" t="n">
-        <v>797.5198209037916</v>
+        <v>797.1835549637074</v>
       </c>
       <c r="H45" t="n">
         <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>12466.39</v>
+        <v>12468.6</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1552187</v>
+        <v>1549443</v>
       </c>
       <c r="E46" t="n">
-        <v>12934895</v>
+        <v>12912021</v>
       </c>
       <c r="F46" t="n">
-        <v>1245.064098186325</v>
+        <v>507.3242521043583</v>
       </c>
       <c r="G46" t="n">
-        <v>303.0248187974938</v>
+        <v>68.70165516337151</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>2.09</v>
       </c>
       <c r="I46" t="n">
-        <v>28142</v>
+        <v>29133</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4803447</v>
+        <v>4777321</v>
       </c>
       <c r="E47" t="n">
-        <v>16970566</v>
+        <v>16878261</v>
       </c>
       <c r="F47" t="n">
-        <v>1536.757930741009</v>
+        <v>1409.369059358013</v>
       </c>
       <c r="G47" t="n">
-        <v>1062.145030801105</v>
+        <v>1068.269062107187</v>
       </c>
       <c r="H47" t="n">
         <v>0.41</v>
       </c>
       <c r="I47" t="n">
-        <v>124424</v>
+        <v>132755</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46285646</v>
+        <v>47329740</v>
       </c>
       <c r="E48" t="n">
-        <v>267974762</v>
+        <v>274019639</v>
       </c>
       <c r="F48" t="n">
-        <v>10402.29283285691</v>
+        <v>12280.36513381794</v>
       </c>
       <c r="G48" t="n">
-        <v>11022.04122137843</v>
+        <v>10890.29946874377</v>
       </c>
       <c r="H48" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>49212317</v>
+        <v>51368266</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2240118</v>
+        <v>2229294</v>
       </c>
       <c r="E49" t="n">
-        <v>12307591</v>
+        <v>12248125</v>
       </c>
       <c r="F49" t="n">
-        <v>227.5294559451121</v>
+        <v>623.1677164125261</v>
       </c>
       <c r="G49" t="n">
-        <v>204.9362170438902</v>
+        <v>1609.370804416606</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>1.61</v>
       </c>
       <c r="I49" t="n">
-        <v>102659</v>
+        <v>60981</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13724717</v>
+        <v>13672429</v>
       </c>
       <c r="E50" t="n">
-        <v>13771424</v>
+        <v>13718958</v>
       </c>
       <c r="F50" t="n">
-        <v>4770.509816789811</v>
+        <v>4500.052389525681</v>
       </c>
       <c r="G50" t="n">
-        <v>10279.66899233805</v>
+        <v>9523.921141210716</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>6797138</v>
+        <v>6071057</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19664451</v>
+        <v>19827537</v>
       </c>
       <c r="E51" t="n">
-        <v>58954259</v>
+        <v>59443415</v>
       </c>
       <c r="F51" t="n">
-        <v>23385.7428528771</v>
+        <v>21290.8220307134</v>
       </c>
       <c r="G51" t="n">
-        <v>8996.22816293474</v>
+        <v>10437.22464956064</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="I51" t="n">
-        <v>4068204</v>
+        <v>4341841</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15656341</v>
+        <v>15655340</v>
       </c>
       <c r="E52" t="n">
-        <v>95962864</v>
+        <v>95956726</v>
       </c>
       <c r="F52" t="n">
-        <v>7859.522641137752</v>
+        <v>5519.882681810465</v>
       </c>
       <c r="G52" t="n">
-        <v>9636.686859400659</v>
+        <v>6196.834640236711</v>
       </c>
       <c r="H52" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>9064898</v>
+        <v>11979040</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48956813</v>
+        <v>47420313</v>
       </c>
       <c r="E53" t="n">
-        <v>210900597</v>
+        <v>204281523</v>
       </c>
       <c r="F53" t="n">
-        <v>19845.21111140522</v>
+        <v>17442.97643595411</v>
       </c>
       <c r="G53" t="n">
-        <v>20689.84529530787</v>
+        <v>19076.48625463544</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>10572107</v>
+        <v>11633058</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1027294</v>
+        <v>1025672</v>
       </c>
       <c r="E54" t="n">
-        <v>3002602</v>
+        <v>2997861</v>
       </c>
       <c r="F54" t="n">
-        <v>114.5865545559372</v>
+        <v>126.5876033444202</v>
       </c>
       <c r="G54" t="n">
-        <v>605.9049594367568</v>
+        <v>364.3378614612582</v>
       </c>
       <c r="H54" t="n">
         <v>1.3</v>
       </c>
       <c r="I54" t="n">
-        <v>19503.91</v>
+        <v>8665.99</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32033370</v>
+        <v>31979502</v>
       </c>
       <c r="E55" t="n">
-        <v>80772780</v>
+        <v>80636952</v>
       </c>
       <c r="F55" t="n">
-        <v>2159.049966873208</v>
+        <v>3037.780310722639</v>
       </c>
       <c r="G55" t="n">
-        <v>90.90319746313341</v>
+        <v>193.3928536491263</v>
       </c>
       <c r="H55" t="n">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
       <c r="I55" t="n">
-        <v>5408390</v>
+        <v>5900773</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27256754</v>
+        <v>27652179</v>
       </c>
       <c r="E56" t="n">
-        <v>64658075</v>
+        <v>65596096</v>
       </c>
       <c r="F56" t="n">
-        <v>5972.582684065954</v>
+        <v>2442.4554961151</v>
       </c>
       <c r="G56" t="n">
-        <v>1651.932657966731</v>
+        <v>4348.475965101678</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>577439</v>
+        <v>624981</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12636933</v>
+        <v>12570624</v>
       </c>
       <c r="E57" t="n">
-        <v>19236262</v>
+        <v>19135325</v>
       </c>
       <c r="F57" t="n">
-        <v>2490.403027652507</v>
+        <v>4150.671580201308</v>
       </c>
       <c r="G57" t="n">
-        <v>2311.680506119506</v>
+        <v>2463.934931250622</v>
       </c>
       <c r="H57" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>663457</v>
+        <v>651585</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="E58" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="F58" t="n">
-        <v>63893.54701918322</v>
+        <v>56428.51171254208</v>
       </c>
       <c r="G58" t="n">
-        <v>72192.60457925138</v>
+        <v>85051.3911454203</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>86061946</v>
+        <v>88226455</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11617934</v>
+        <v>11615069</v>
       </c>
       <c r="F59" t="n">
-        <v>161.5254661275369</v>
+        <v>171.2623336080873</v>
       </c>
       <c r="G59" t="n">
-        <v>48.77312617049979</v>
+        <v>75.29856778122716</v>
       </c>
       <c r="H59" t="n">
-        <v>1.21</v>
+        <v>1.99</v>
       </c>
       <c r="I59" t="n">
-        <v>89726</v>
+        <v>92859</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>86233951</v>
+        <v>86098018</v>
       </c>
       <c r="E60" t="n">
-        <v>496917223</v>
+        <v>496133915</v>
       </c>
       <c r="F60" t="n">
-        <v>8822.370919273169</v>
+        <v>35374.90995819066</v>
       </c>
       <c r="G60" t="n">
-        <v>6751.453477569101</v>
+        <v>40636.36519322275</v>
       </c>
       <c r="H60" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I60" t="n">
-        <v>20107966</v>
+        <v>20764952</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9180003</v>
+        <v>9192561</v>
       </c>
       <c r="E61" t="n">
-        <v>9180003</v>
+        <v>9192561</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.34</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>2841966</v>
+        <v>2903837</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29514229</v>
+        <v>29347489</v>
       </c>
       <c r="E62" t="n">
-        <v>132147312</v>
+        <v>131400748</v>
       </c>
       <c r="F62" t="n">
-        <v>26906.5658913122</v>
+        <v>27186.19490797881</v>
       </c>
       <c r="G62" t="n">
-        <v>20144.98577824972</v>
+        <v>28856.33122981565</v>
       </c>
       <c r="H62" t="n">
         <v>0.76</v>
       </c>
       <c r="I62" t="n">
-        <v>12471129</v>
+        <v>13221916</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12830456</v>
+        <v>12789906</v>
       </c>
       <c r="E63" t="n">
-        <v>25642925</v>
+        <v>25561881</v>
       </c>
       <c r="F63" t="n">
-        <v>2138.030935810041</v>
+        <v>2136.086632479591</v>
       </c>
       <c r="G63" t="n">
-        <v>1960.156428343808</v>
+        <v>1987.685381309478</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>14704.17</v>
+        <v>14648.09</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1282128</v>
+        <v>1275997</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="I64" t="n">
-        <v>83488</v>
+        <v>62586</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49500733</v>
+        <v>49246928</v>
       </c>
       <c r="E65" t="n">
-        <v>320999077</v>
+        <v>319353218</v>
       </c>
       <c r="F65" t="n">
-        <v>14412.84930931859</v>
+        <v>20715.2488894365</v>
       </c>
       <c r="G65" t="n">
-        <v>21490.293681227</v>
+        <v>22565.89598272784</v>
       </c>
       <c r="H65" t="n">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="I65" t="n">
-        <v>19633797</v>
+        <v>20236178</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4724396</v>
+        <v>4535936</v>
       </c>
       <c r="F66" t="n">
-        <v>143.9827328049084</v>
+        <v>163.1715992009047</v>
       </c>
       <c r="G66" t="n">
-        <v>154.0769110563086</v>
+        <v>1390.51119716885</v>
       </c>
       <c r="H66" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="I66" t="n">
-        <v>240162</v>
+        <v>234151</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123198170</v>
+        <v>124080695</v>
       </c>
       <c r="E67" t="n">
-        <v>2040262602</v>
+        <v>2054877940</v>
       </c>
       <c r="F67" t="n">
-        <v>21498.87382835466</v>
+        <v>23415.02983554565</v>
       </c>
       <c r="G67" t="n">
-        <v>21340.45134105814</v>
+        <v>24570.31625874574</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>22919985</v>
+        <v>31393536</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23688935</v>
+        <v>23589878</v>
       </c>
       <c r="E68" t="n">
-        <v>141735659</v>
+        <v>141142980</v>
       </c>
       <c r="F68" t="n">
-        <v>1545.112410023854</v>
+        <v>4982.741789308573</v>
       </c>
       <c r="G68" t="n">
-        <v>45915.48407496201</v>
+        <v>46279.24889110271</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>16525344</v>
+        <v>16719482</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23033849</v>
+        <v>23125747</v>
       </c>
       <c r="E70" t="n">
-        <v>23033849</v>
+        <v>23125903</v>
       </c>
       <c r="F70" t="n">
-        <v>3700.737474358183</v>
+        <v>5391.039679533736</v>
       </c>
       <c r="G70" t="n">
-        <v>2535.323675225272</v>
+        <v>2447.115360709698</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2391960</v>
+        <v>2392121</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33010113</v>
+        <v>32954211</v>
       </c>
       <c r="E71" t="n">
-        <v>164735683</v>
+        <v>164456705</v>
       </c>
       <c r="F71" t="n">
-        <v>16660.76689653683</v>
+        <v>17722.08675871055</v>
       </c>
       <c r="G71" t="n">
-        <v>18449.35280953512</v>
+        <v>20641.39800789769</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13378991</v>
+        <v>13540518</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178839</v>
+        <v>169964</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.56</v>
+        <v>11.11</v>
       </c>
       <c r="I72" t="n">
-        <v>23462</v>
+        <v>22853</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>311770540</v>
+        <v>299723122</v>
       </c>
       <c r="E73" t="n">
-        <v>576846598</v>
+        <v>554556128</v>
       </c>
       <c r="F73" t="n">
-        <v>10306.19662124103</v>
+        <v>10268.23501070638</v>
       </c>
       <c r="G73" t="n">
-        <v>13719.15980686524</v>
+        <v>13103.56724531735</v>
       </c>
       <c r="H73" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I73" t="n">
-        <v>16483101</v>
+        <v>16132094</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9519033</v>
+        <v>9157599</v>
       </c>
       <c r="E74" t="n">
-        <v>28219538</v>
+        <v>27148054</v>
       </c>
       <c r="F74" t="n">
-        <v>724.7209611728493</v>
+        <v>597.9112962070352</v>
       </c>
       <c r="G74" t="n">
-        <v>1551.411552931402</v>
+        <v>1318.950914855628</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
       <c r="I74" t="n">
-        <v>6124442</v>
+        <v>6216787</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8132903</v>
+        <v>8042026</v>
       </c>
       <c r="E75" t="n">
-        <v>11587523</v>
+        <v>11458044</v>
       </c>
       <c r="F75" t="n">
-        <v>3712.543362707821</v>
+        <v>3292.754981756301</v>
       </c>
       <c r="G75" t="n">
-        <v>353.1771039682429</v>
+        <v>658.5886643905185</v>
       </c>
       <c r="H75" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I75" t="n">
-        <v>316591</v>
+        <v>311066</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16001959</v>
+        <v>16174727</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9368637073509031</v>
+        <v>0.9171306152340792</v>
       </c>
       <c r="G76" t="n">
-        <v>14.0120657063755</v>
+        <v>13.28697691035805</v>
       </c>
       <c r="H76" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="I76" t="n">
-        <v>1065750</v>
+        <v>1079751</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>74894875</v>
+        <v>74613312</v>
       </c>
       <c r="E77" t="n">
-        <v>103701522</v>
+        <v>103311987</v>
       </c>
       <c r="F77" t="n">
-        <v>10440.67208388261</v>
+        <v>8661.494336258382</v>
       </c>
       <c r="G77" t="n">
-        <v>14101.42477813397</v>
+        <v>20479.35277817625</v>
       </c>
       <c r="H77" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>6987685</v>
+        <v>7073985</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6325636</v>
+        <v>6197086</v>
       </c>
       <c r="E78" t="n">
-        <v>6325636</v>
+        <v>6197086</v>
       </c>
       <c r="F78" t="n">
-        <v>340.1404071047471</v>
+        <v>5.959970082293166</v>
       </c>
       <c r="G78" t="n">
-        <v>2084.078298573803</v>
+        <v>1335.121833087134</v>
       </c>
       <c r="H78" t="n">
-        <v>1.15</v>
+        <v>3.37</v>
       </c>
       <c r="I78" t="n">
-        <v>1410767</v>
+        <v>1406685</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59041</v>
+        <v>58288</v>
       </c>
       <c r="E79" t="n">
-        <v>308052</v>
+        <v>304121</v>
       </c>
       <c r="F79" t="n">
-        <v>69.40202327916603</v>
+        <v>424.1970820860017</v>
       </c>
       <c r="G79" t="n">
-        <v>36.18919669474912</v>
+        <v>32.59156382218182</v>
       </c>
       <c r="H79" t="n">
-        <v>0.78</v>
+        <v>1.23</v>
       </c>
       <c r="I79" t="n">
-        <v>213792</v>
+        <v>209515</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26680421</v>
+        <v>26409916</v>
       </c>
       <c r="F80" t="n">
-        <v>4942.839761071982</v>
+        <v>4289.983765975626</v>
       </c>
       <c r="G80" t="n">
-        <v>5446.889660436645</v>
+        <v>305.3963247963327</v>
       </c>
       <c r="H80" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="I80" t="n">
-        <v>52336</v>
+        <v>52908</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>590717947</v>
+        <v>587293258</v>
       </c>
       <c r="E81" t="n">
-        <v>2287763456</v>
+        <v>2274500141</v>
       </c>
       <c r="F81" t="n">
-        <v>158417.9219934705</v>
+        <v>149673.584679935</v>
       </c>
       <c r="G81" t="n">
-        <v>174227.2197833365</v>
+        <v>291297.0167409863</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>53466045</v>
+        <v>55012523</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7522892</v>
+        <v>7478394</v>
       </c>
       <c r="E82" t="n">
-        <v>10778147</v>
+        <v>10714345</v>
       </c>
       <c r="F82" t="n">
-        <v>1614.287788262611</v>
+        <v>1396.372469581414</v>
       </c>
       <c r="G82" t="n">
-        <v>907.1299143407562</v>
+        <v>896.807836300037</v>
       </c>
       <c r="H82" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>183963</v>
+        <v>180051</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>110350355</v>
+        <v>110946114</v>
       </c>
       <c r="E83" t="n">
-        <v>1025297014</v>
+        <v>1030832387</v>
       </c>
       <c r="F83" t="n">
-        <v>11390.89819521333</v>
+        <v>21808.85493113126</v>
       </c>
       <c r="G83" t="n">
-        <v>21616.10072361382</v>
+        <v>14905.08139435491</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>13780752</v>
+        <v>14504949</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1069600</v>
+        <v>1076493</v>
       </c>
       <c r="E84" t="n">
-        <v>4141726</v>
+        <v>4168416</v>
       </c>
       <c r="F84" t="n">
-        <v>1148.37356389145</v>
+        <v>1122.633165103579</v>
       </c>
       <c r="G84" t="n">
-        <v>802.2733314064875</v>
+        <v>666.5478787200907</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="I84" t="n">
-        <v>314947</v>
+        <v>304241</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123945413</v>
+        <v>122644295</v>
       </c>
       <c r="E85" t="n">
-        <v>475474553</v>
+        <v>470483257</v>
       </c>
       <c r="F85" t="n">
-        <v>81696.1068870497</v>
+        <v>74391.64665745028</v>
       </c>
       <c r="G85" t="n">
-        <v>81313.49554874125</v>
+        <v>80178.9751334285</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I85" t="n">
-        <v>40318957</v>
+        <v>40322931</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5076588</v>
+        <v>5108389</v>
       </c>
       <c r="E86" t="n">
-        <v>18864695</v>
+        <v>18982868</v>
       </c>
       <c r="F86" t="n">
-        <v>413.7829866581416</v>
+        <v>527.2350947048982</v>
       </c>
       <c r="G86" t="n">
-        <v>470.1117759898307</v>
+        <v>417.8524202349293</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I86" t="n">
-        <v>88708</v>
+        <v>86699</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35122568</v>
+        <v>36432065</v>
       </c>
       <c r="F87" t="n">
-        <v>5811.510035373406</v>
+        <v>5439.226182590323</v>
       </c>
       <c r="G87" t="n">
-        <v>3454.103039392884</v>
+        <v>860.4046348695252</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I87" t="n">
-        <v>7379176</v>
+        <v>7613337</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24318684</v>
+        <v>24222837</v>
       </c>
       <c r="F88" t="n">
-        <v>1129.061229537519</v>
+        <v>1028.041806398178</v>
       </c>
       <c r="G88" t="n">
-        <v>852.470079805476</v>
+        <v>831.2377032366134</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="I88" t="n">
-        <v>18251.47</v>
+        <v>18456.29</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88036814</v>
+        <v>87740649</v>
       </c>
       <c r="E89" t="n">
-        <v>325423569</v>
+        <v>324327648</v>
       </c>
       <c r="F89" t="n">
-        <v>1293.928404771515</v>
+        <v>1103.084918606158</v>
       </c>
       <c r="G89" t="n">
-        <v>1323.4548194092</v>
+        <v>1450.867529299437</v>
       </c>
       <c r="H89" t="n">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="I89" t="n">
-        <v>217893</v>
+        <v>229480</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21311660</v>
+        <v>19946439</v>
       </c>
       <c r="E90" t="n">
-        <v>21311660</v>
+        <v>19946439</v>
       </c>
       <c r="F90" t="n">
-        <v>2573.670337384943</v>
+        <v>2464.07932685662</v>
       </c>
       <c r="G90" t="n">
-        <v>3598.403437196975</v>
+        <v>6119.230437107585</v>
       </c>
       <c r="H90" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="I90" t="n">
-        <v>7330964</v>
+        <v>7246381</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3812086</v>
+        <v>3814577</v>
       </c>
       <c r="E91" t="n">
-        <v>8309812</v>
+        <v>8315242</v>
       </c>
       <c r="F91" t="n">
-        <v>2030.960824435099</v>
+        <v>1881.296277060258</v>
       </c>
       <c r="G91" t="n">
-        <v>1422.436966056871</v>
+        <v>1887.880113467775</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="I91" t="n">
-        <v>1891456</v>
+        <v>1968711</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>484523135</v>
+        <v>481921251</v>
       </c>
       <c r="E92" t="n">
-        <v>1686584708</v>
+        <v>1677527767</v>
       </c>
       <c r="F92" t="n">
-        <v>69231.40174071354</v>
+        <v>68128.10363508807</v>
       </c>
       <c r="G92" t="n">
-        <v>68680.32040426591</v>
+        <v>69098.01925978872</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>44480527</v>
+        <v>44391686</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2531373</v>
+        <v>2438734</v>
       </c>
       <c r="E93" t="n">
-        <v>10125493</v>
+        <v>9754938</v>
       </c>
       <c r="F93" t="n">
-        <v>3548.100952284483</v>
+        <v>2400.29944538444</v>
       </c>
       <c r="G93" t="n">
-        <v>3072.431285164008</v>
+        <v>1655.289105748036</v>
       </c>
       <c r="H93" t="n">
-        <v>0.59</v>
+        <v>0.95</v>
       </c>
       <c r="I93" t="n">
-        <v>7123881</v>
+        <v>7241659</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216244401</v>
+        <v>214109161</v>
       </c>
       <c r="E94" t="n">
-        <v>664870155</v>
+        <v>658305097</v>
       </c>
       <c r="F94" t="n">
-        <v>68530.22045832587</v>
+        <v>75604.19236177934</v>
       </c>
       <c r="G94" t="n">
-        <v>76878.40648739446</v>
+        <v>85815.3398283757</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>20378361</v>
+        <v>21537059</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138280382</v>
+        <v>138634535</v>
       </c>
       <c r="E95" t="n">
-        <v>361253661</v>
+        <v>362178878</v>
       </c>
       <c r="F95" t="n">
-        <v>29285.86457685843</v>
+        <v>16741.44801868006</v>
       </c>
       <c r="G95" t="n">
-        <v>33475.67438641492</v>
+        <v>25943.85809768022</v>
       </c>
       <c r="H95" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I95" t="n">
-        <v>8912110</v>
+        <v>9220689</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>385311940</v>
+        <v>385375984</v>
       </c>
       <c r="E96" t="n">
-        <v>2201782516</v>
+        <v>2202148480</v>
       </c>
       <c r="F96" t="n">
-        <v>21417.9318632901</v>
+        <v>21236.86657003943</v>
       </c>
       <c r="G96" t="n">
-        <v>42701.22539293427</v>
+        <v>41516.29427202713</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>54836444</v>
+        <v>56175555</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>608288346</v>
+        <v>600741831</v>
       </c>
       <c r="E2" t="n">
-        <v>1180413077</v>
+        <v>1165768853</v>
       </c>
       <c r="F2" t="n">
-        <v>22228.28095233773</v>
+        <v>21092.45444624347</v>
       </c>
       <c r="G2" t="n">
-        <v>27366.61083280903</v>
+        <v>19625.70024728791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>40151478</v>
+        <v>41470012</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1462480</v>
+        <v>1455062</v>
       </c>
       <c r="E3" t="n">
-        <v>4727335</v>
+        <v>4703358</v>
       </c>
       <c r="F3" t="n">
-        <v>521.5319970072923</v>
+        <v>460.8283977678971</v>
       </c>
       <c r="G3" t="n">
-        <v>4379.445032570085</v>
+        <v>985.9681863394572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.21</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>215496</v>
+        <v>218853</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249364390</v>
+        <v>243832134</v>
       </c>
       <c r="E4" t="n">
-        <v>1563729037</v>
+        <v>1529037042</v>
       </c>
       <c r="F4" t="n">
-        <v>113895.919431806</v>
+        <v>115147.7161644969</v>
       </c>
       <c r="G4" t="n">
-        <v>105920.1908485161</v>
+        <v>105744.1035482001</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>24045096</v>
+        <v>26273162</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143147457</v>
+        <v>141184537</v>
       </c>
       <c r="E5" t="n">
-        <v>158629754</v>
+        <v>156454531</v>
       </c>
       <c r="F5" t="n">
-        <v>6543.415518501626</v>
+        <v>6557.534958668052</v>
       </c>
       <c r="G5" t="n">
-        <v>10396.15760456582</v>
+        <v>6109.347074363929</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>51067060</v>
+        <v>51074342</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>678496</v>
+        <v>670983</v>
       </c>
       <c r="E6" t="n">
-        <v>13181286</v>
+        <v>13035339</v>
       </c>
       <c r="F6" t="n">
-        <v>321.9890543449991</v>
+        <v>422.2158621869712</v>
       </c>
       <c r="G6" t="n">
-        <v>318.1147753095337</v>
+        <v>190.3876730502949</v>
       </c>
       <c r="H6" t="n">
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>22107</v>
+        <v>21933</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="E7" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="F7" t="n">
-        <v>39531.48127025701</v>
+        <v>39774.2330413299</v>
       </c>
       <c r="G7" t="n">
-        <v>43167.94861597543</v>
+        <v>36402.49433292867</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>81185728</v>
+        <v>70777069</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="E8" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="F8" t="n">
-        <v>1194.890411618704</v>
+        <v>1476.865296370137</v>
       </c>
       <c r="G8" t="n">
-        <v>1135.094359251282</v>
+        <v>895.4172870492648</v>
       </c>
       <c r="H8" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="I8" t="n">
-        <v>2156985</v>
+        <v>2070050</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2055865</v>
+        <v>1991764</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4888810162552</v>
+        <v>18.37174379397663</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4494191258729</v>
+        <v>157.0868011090112</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>352273</v>
+        <v>362562</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1897859</v>
+        <v>1876152</v>
       </c>
       <c r="F10" t="n">
-        <v>515.01466398669</v>
+        <v>226.9819100075114</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8971298191651</v>
+        <v>196.4615932150145</v>
       </c>
       <c r="H10" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="n">
-        <v>1214595</v>
+        <v>1220376</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108532952</v>
+        <v>108267618</v>
       </c>
       <c r="E11" t="n">
-        <v>204463215</v>
+        <v>203963358</v>
       </c>
       <c r="F11" t="n">
-        <v>1557.977156166887</v>
+        <v>1466.837969386808</v>
       </c>
       <c r="G11" t="n">
-        <v>1512.019097396376</v>
+        <v>1528.723275689114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>4016930</v>
+        <v>4064469</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11956992</v>
+        <v>11886209</v>
       </c>
       <c r="E12" t="n">
-        <v>29758790</v>
+        <v>29582623</v>
       </c>
       <c r="F12" t="n">
-        <v>178.2536520700974</v>
+        <v>170.8456448418366</v>
       </c>
       <c r="G12" t="n">
-        <v>3945.063366029788</v>
+        <v>1794.15201145887</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>0.23</v>
       </c>
       <c r="I12" t="n">
-        <v>1506232</v>
+        <v>1523630</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109857920</v>
+        <v>108841221</v>
       </c>
       <c r="E13" t="n">
-        <v>427110348</v>
+        <v>423142035</v>
       </c>
       <c r="F13" t="n">
-        <v>20937.80376919678</v>
+        <v>20314.78785392605</v>
       </c>
       <c r="G13" t="n">
-        <v>10419.29972003244</v>
+        <v>12618.39287505536</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I13" t="n">
-        <v>13177701</v>
+        <v>12047388</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4772065</v>
+        <v>4756099</v>
       </c>
       <c r="E14" t="n">
-        <v>7024738</v>
+        <v>7001235</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3493834000788</v>
+        <v>49.09594715443623</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2329598635959</v>
+        <v>1562.955196013433</v>
       </c>
       <c r="H14" t="n">
         <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>558676</v>
+        <v>556228</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="E15" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="F15" t="n">
-        <v>48469.75220340362</v>
+        <v>47809.50876225034</v>
       </c>
       <c r="G15" t="n">
-        <v>81608.91423857833</v>
+        <v>75439.66225659655</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>86886381</v>
+        <v>88059736</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65330391</v>
+        <v>64137406</v>
       </c>
       <c r="E16" t="n">
-        <v>335027647</v>
+        <v>328909776</v>
       </c>
       <c r="F16" t="n">
-        <v>15699.65167990682</v>
+        <v>16322.40969086408</v>
       </c>
       <c r="G16" t="n">
-        <v>16196.82524100309</v>
+        <v>14653.85708614284</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>27072676</v>
+        <v>25881496</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="E17" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="F17" t="n">
-        <v>46078.90930444613</v>
+        <v>58646.02458234855</v>
       </c>
       <c r="G17" t="n">
-        <v>54149.22486370612</v>
+        <v>56654.02198386087</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>24087322</v>
+        <v>29461556</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2571832</v>
+        <v>2568785</v>
       </c>
       <c r="E18" t="n">
-        <v>6575112</v>
+        <v>6567322</v>
       </c>
       <c r="F18" t="n">
-        <v>948.4029187253109</v>
+        <v>964.1497885878042</v>
       </c>
       <c r="G18" t="n">
-        <v>1071.69731907756</v>
+        <v>1100.930878023173</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>81068</v>
+        <v>81688</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84456825</v>
+        <v>82974868</v>
       </c>
       <c r="E19" t="n">
-        <v>236255948</v>
+        <v>232121454</v>
       </c>
       <c r="F19" t="n">
-        <v>21355.32424847735</v>
+        <v>19159.51736842857</v>
       </c>
       <c r="G19" t="n">
-        <v>16996.80884264926</v>
+        <v>20916.65897430048</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>58461920</v>
+        <v>58600365</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1593207</v>
+        <v>1591726</v>
       </c>
       <c r="E20" t="n">
-        <v>9147600</v>
+        <v>9139094</v>
       </c>
       <c r="F20" t="n">
-        <v>177.6308790168515</v>
+        <v>184.3330692374808</v>
       </c>
       <c r="G20" t="n">
-        <v>865.3367450234369</v>
+        <v>862.9185081804324</v>
       </c>
       <c r="H20" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="I20" t="n">
-        <v>243235</v>
+        <v>243453</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161484</v>
+        <v>162356</v>
       </c>
       <c r="E21" t="n">
-        <v>1090522</v>
+        <v>1096409</v>
       </c>
       <c r="F21" t="n">
-        <v>11.69292975355894</v>
+        <v>5.754731089905209</v>
       </c>
       <c r="G21" t="n">
-        <v>5.09532088774912</v>
+        <v>150.2906988394052</v>
       </c>
       <c r="H21" t="n">
-        <v>0.66</v>
+        <v>1.11</v>
       </c>
       <c r="I21" t="n">
-        <v>3077576</v>
+        <v>3092401</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>249189</v>
+        <v>245970</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4141187386158</v>
+        <v>147.7515817799818</v>
       </c>
       <c r="G22" t="n">
-        <v>388.7344046480173</v>
+        <v>250.7817863541951</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3515.78</v>
+        <v>3505.38</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86265425</v>
+        <v>83475223</v>
       </c>
       <c r="E23" t="n">
-        <v>179856483</v>
+        <v>174039136</v>
       </c>
       <c r="F23" t="n">
-        <v>19585.956318156</v>
+        <v>23368.07121734564</v>
       </c>
       <c r="G23" t="n">
-        <v>61657.26614624874</v>
+        <v>48310.10366606075</v>
       </c>
       <c r="H23" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="I23" t="n">
-        <v>68568195</v>
+        <v>69045093</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200881953</v>
+        <v>197870879</v>
       </c>
       <c r="E24" t="n">
-        <v>697882060</v>
+        <v>687421316</v>
       </c>
       <c r="F24" t="n">
-        <v>63839.70175675154</v>
+        <v>61809.86551077293</v>
       </c>
       <c r="G24" t="n">
-        <v>62845.56736271254</v>
+        <v>62149.54197459134</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>38970011</v>
+        <v>44140741</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111317355</v>
+        <v>109839762</v>
       </c>
       <c r="E25" t="n">
-        <v>472315406</v>
+        <v>466013625</v>
       </c>
       <c r="F25" t="n">
-        <v>17323.61790168814</v>
+        <v>20310.62012673852</v>
       </c>
       <c r="G25" t="n">
-        <v>17257.6148352992</v>
+        <v>17010.57207998174</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>15272955</v>
+        <v>14949689</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5793968</v>
+        <v>5673580</v>
       </c>
       <c r="E26" t="n">
-        <v>7863477</v>
+        <v>7700087</v>
       </c>
       <c r="F26" t="n">
-        <v>800.7254598459755</v>
+        <v>2691.364416380436</v>
       </c>
       <c r="G26" t="n">
-        <v>169.0718816876829</v>
+        <v>1146.383745139163</v>
       </c>
       <c r="H26" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="I26" t="n">
-        <v>5135412</v>
+        <v>5092294</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>560708</v>
+        <v>553690</v>
       </c>
       <c r="E27" t="n">
-        <v>6800841</v>
+        <v>6715724</v>
       </c>
       <c r="F27" t="n">
-        <v>613.8361729367858</v>
+        <v>590.802617564204</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3146860678695</v>
+        <v>212.0156197426286</v>
       </c>
       <c r="H27" t="n">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="I27" t="n">
-        <v>2813286</v>
+        <v>2832186</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25164598</v>
+        <v>24725399</v>
       </c>
       <c r="E28" t="n">
-        <v>35561634</v>
+        <v>34940976</v>
       </c>
       <c r="F28" t="n">
-        <v>113.1319420547735</v>
+        <v>404.223700166372</v>
       </c>
       <c r="G28" t="n">
-        <v>1669.929746311756</v>
+        <v>9554.824956586976</v>
       </c>
       <c r="H28" t="n">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>113372</v>
+        <v>116271</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1417916499</v>
+        <v>1377469078</v>
       </c>
       <c r="E29" t="n">
-        <v>6799199995</v>
+        <v>6605246329</v>
       </c>
       <c r="F29" t="n">
-        <v>83638.2451849463</v>
+        <v>60520.73832092161</v>
       </c>
       <c r="G29" t="n">
-        <v>138874.2634330909</v>
+        <v>146504.5634775093</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>452969342</v>
+        <v>458818178</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>262927043</v>
+        <v>259129831</v>
       </c>
       <c r="E30" t="n">
-        <v>1134939079</v>
+        <v>1118548204</v>
       </c>
       <c r="F30" t="n">
-        <v>125741.5072734682</v>
+        <v>125888.5850988174</v>
       </c>
       <c r="G30" t="n">
-        <v>146645.6678583493</v>
+        <v>125108.0861544372</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I30" t="n">
-        <v>135775753</v>
+        <v>137438099</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5326674</v>
+        <v>5357292</v>
       </c>
       <c r="E31" t="n">
-        <v>5332702</v>
+        <v>5363355</v>
       </c>
       <c r="F31" t="n">
-        <v>87.28324990639959</v>
+        <v>112.2684599766721</v>
       </c>
       <c r="G31" t="n">
-        <v>172.4841724674403</v>
+        <v>155.358848781968</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>146189</v>
+        <v>146186</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15832649</v>
+        <v>15508286</v>
       </c>
       <c r="E32" t="n">
-        <v>39581624</v>
+        <v>38770716</v>
       </c>
       <c r="F32" t="n">
-        <v>2730.631103526437</v>
+        <v>3390.947505934661</v>
       </c>
       <c r="G32" t="n">
-        <v>2774.929017611725</v>
+        <v>3367.278951416009</v>
       </c>
       <c r="H32" t="n">
-        <v>1.18</v>
+        <v>0.64</v>
       </c>
       <c r="I32" t="n">
-        <v>4455873</v>
+        <v>4601812</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19711311</v>
+        <v>19598208</v>
       </c>
       <c r="F33" t="n">
-        <v>1286.208910898403</v>
+        <v>984.0048813570565</v>
       </c>
       <c r="G33" t="n">
-        <v>4225.003310514056</v>
+        <v>1843.995165606551</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>73627</v>
+        <v>73741</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4265783</v>
+        <v>4189837</v>
       </c>
       <c r="E34" t="n">
-        <v>12286861</v>
+        <v>12068110</v>
       </c>
       <c r="F34" t="n">
-        <v>361.6785645280198</v>
+        <v>1057.067932882937</v>
       </c>
       <c r="G34" t="n">
-        <v>740.8630468880143</v>
+        <v>364.983126977089</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>1.16</v>
       </c>
       <c r="I34" t="n">
-        <v>515813</v>
+        <v>501071</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1585877</v>
+        <v>1559992</v>
       </c>
       <c r="F35" t="n">
-        <v>312.5747528669468</v>
+        <v>1.398844742301239</v>
       </c>
       <c r="G35" t="n">
-        <v>7.780263156286842</v>
+        <v>54.32090382043825</v>
       </c>
       <c r="H35" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I35" t="n">
-        <v>8539.73</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14153175</v>
+        <v>13920821</v>
       </c>
       <c r="E36" t="n">
-        <v>68546086</v>
+        <v>67420756</v>
       </c>
       <c r="F36" t="n">
-        <v>5148.971709819961</v>
+        <v>5734.24913975931</v>
       </c>
       <c r="G36" t="n">
-        <v>6416.728718963584</v>
+        <v>4857.554924658056</v>
       </c>
       <c r="H36" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="I36" t="n">
-        <v>5335701</v>
+        <v>5257105</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1301257</v>
+        <v>1261716</v>
       </c>
       <c r="E37" t="n">
-        <v>8516692</v>
+        <v>8257896</v>
       </c>
       <c r="F37" t="n">
-        <v>614.9138978538616</v>
+        <v>10.17998676853301</v>
       </c>
       <c r="G37" t="n">
-        <v>8.915027628790714</v>
+        <v>21.69151532007715</v>
       </c>
       <c r="H37" t="n">
-        <v>1.12</v>
+        <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>492836</v>
+        <v>466071</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1861621257</v>
+        <v>1850051461</v>
       </c>
       <c r="F38" t="n">
-        <v>76551.18179039305</v>
+        <v>76980.21944338386</v>
       </c>
       <c r="G38" t="n">
-        <v>74384.1289197959</v>
+        <v>75498.19995611149</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="I38" t="n">
-        <v>30002192</v>
+        <v>30164390</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29980370</v>
+        <v>28985772</v>
       </c>
       <c r="E39" t="n">
-        <v>93349254</v>
+        <v>90252393</v>
       </c>
       <c r="F39" t="n">
-        <v>6149.378628359659</v>
+        <v>2805.102027399478</v>
       </c>
       <c r="G39" t="n">
-        <v>8081.278886903768</v>
+        <v>11437.82393140054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I39" t="n">
-        <v>10319038</v>
+        <v>10278820</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194658457</v>
+        <v>191785265</v>
       </c>
       <c r="E40" t="n">
-        <v>1102275793</v>
+        <v>1086006011</v>
       </c>
       <c r="F40" t="n">
-        <v>17270.39576795915</v>
+        <v>17776.82452550203</v>
       </c>
       <c r="G40" t="n">
-        <v>19230.78903341714</v>
+        <v>48120.31698781262</v>
       </c>
       <c r="H40" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>83367446</v>
+        <v>83980293</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123290409</v>
+        <v>120973154</v>
       </c>
       <c r="E41" t="n">
-        <v>913262288</v>
+        <v>896097439</v>
       </c>
       <c r="F41" t="n">
-        <v>5648.029545126453</v>
+        <v>34926.15014052141</v>
       </c>
       <c r="G41" t="n">
-        <v>116704.3041007584</v>
+        <v>176833.1781904423</v>
       </c>
       <c r="H41" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="n">
-        <v>24698255</v>
+        <v>25048320</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30373914</v>
+        <v>30273511</v>
       </c>
       <c r="E42" t="n">
-        <v>144109270</v>
+        <v>143632906</v>
       </c>
       <c r="F42" t="n">
-        <v>1531.902006693785</v>
+        <v>2638.238808977025</v>
       </c>
       <c r="G42" t="n">
-        <v>7956.677710756537</v>
+        <v>7630.391840258874</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>809536</v>
+        <v>772470</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3424859</v>
+        <v>3422630</v>
       </c>
       <c r="E43" t="n">
-        <v>7997616</v>
+        <v>7992412</v>
       </c>
       <c r="F43" t="n">
-        <v>764.355528196329</v>
+        <v>1455.025974303148</v>
       </c>
       <c r="G43" t="n">
-        <v>1554.069472018729</v>
+        <v>1232.414093264802</v>
       </c>
       <c r="H43" t="n">
-        <v>0.27</v>
+        <v>0.75</v>
       </c>
       <c r="I43" t="n">
-        <v>626189</v>
+        <v>667858</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>325155934</v>
+        <v>321161329</v>
       </c>
       <c r="E44" t="n">
-        <v>2925304404</v>
+        <v>2889366465</v>
       </c>
       <c r="F44" t="n">
-        <v>40781.32881398854</v>
+        <v>42571.20875262866</v>
       </c>
       <c r="G44" t="n">
-        <v>39667.58165626629</v>
+        <v>44505.44532465732</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I44" t="n">
-        <v>62240667</v>
+        <v>62567561</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628912</v>
+        <v>627243</v>
       </c>
       <c r="F45" t="n">
-        <v>281.4555364629117</v>
+        <v>270.8379438533985</v>
       </c>
       <c r="G45" t="n">
-        <v>797.1835549637074</v>
+        <v>796.9395698603674</v>
       </c>
       <c r="H45" t="n">
         <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>12468.6</v>
+        <v>12445.61</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1549443</v>
+        <v>1523100</v>
       </c>
       <c r="E46" t="n">
-        <v>12912021</v>
+        <v>12692501</v>
       </c>
       <c r="F46" t="n">
-        <v>507.3242521043583</v>
+        <v>1013.324034161497</v>
       </c>
       <c r="G46" t="n">
-        <v>68.70165516337151</v>
+        <v>247.4214435300347</v>
       </c>
       <c r="H46" t="n">
-        <v>2.09</v>
+        <v>0.63</v>
       </c>
       <c r="I46" t="n">
-        <v>29133</v>
+        <v>29984</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4777321</v>
+        <v>4800159</v>
       </c>
       <c r="E47" t="n">
-        <v>16878261</v>
+        <v>16958948</v>
       </c>
       <c r="F47" t="n">
-        <v>1409.369059358013</v>
+        <v>1330.583893380571</v>
       </c>
       <c r="G47" t="n">
-        <v>1068.269062107187</v>
+        <v>844.48264341429</v>
       </c>
       <c r="H47" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>132755</v>
+        <v>134942</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47329740</v>
+        <v>46818321</v>
       </c>
       <c r="E48" t="n">
-        <v>274019639</v>
+        <v>271058735</v>
       </c>
       <c r="F48" t="n">
-        <v>12280.36513381794</v>
+        <v>17722.56007258235</v>
       </c>
       <c r="G48" t="n">
-        <v>10890.29946874377</v>
+        <v>11901.81934130136</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="I48" t="n">
-        <v>51368266</v>
+        <v>51705565</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2229294</v>
+        <v>2220752</v>
       </c>
       <c r="E49" t="n">
-        <v>12248125</v>
+        <v>12201194</v>
       </c>
       <c r="F49" t="n">
-        <v>623.1677164125261</v>
+        <v>346.2982807306931</v>
       </c>
       <c r="G49" t="n">
-        <v>1609.370804416606</v>
+        <v>1647.758060778206</v>
       </c>
       <c r="H49" t="n">
         <v>1.61</v>
       </c>
       <c r="I49" t="n">
-        <v>60981</v>
+        <v>55911</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13672429</v>
+        <v>13583435</v>
       </c>
       <c r="E50" t="n">
-        <v>13718958</v>
+        <v>13629661</v>
       </c>
       <c r="F50" t="n">
-        <v>4500.052389525681</v>
+        <v>4823.768680698494</v>
       </c>
       <c r="G50" t="n">
-        <v>9523.921141210716</v>
+        <v>4603.62561998047</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>6071057</v>
+        <v>6704360</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19827537</v>
+        <v>19400083</v>
       </c>
       <c r="E51" t="n">
-        <v>59443415</v>
+        <v>58164952</v>
       </c>
       <c r="F51" t="n">
-        <v>21290.8220307134</v>
+        <v>21374.5570989481</v>
       </c>
       <c r="G51" t="n">
-        <v>10437.22464956064</v>
+        <v>12180.34416840052</v>
       </c>
       <c r="H51" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I51" t="n">
-        <v>4341841</v>
+        <v>4364704</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15655340</v>
+        <v>15210033</v>
       </c>
       <c r="E52" t="n">
-        <v>95956726</v>
+        <v>93227296</v>
       </c>
       <c r="F52" t="n">
-        <v>5519.882681810465</v>
+        <v>3288.4884284771</v>
       </c>
       <c r="G52" t="n">
-        <v>6196.834640236711</v>
+        <v>6871.315509201952</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>11979040</v>
+        <v>12152773</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47420313</v>
+        <v>47442246</v>
       </c>
       <c r="E53" t="n">
-        <v>204281523</v>
+        <v>204376006</v>
       </c>
       <c r="F53" t="n">
-        <v>17442.97643595411</v>
+        <v>20495.83212335893</v>
       </c>
       <c r="G53" t="n">
-        <v>19076.48625463544</v>
+        <v>20629.35792093123</v>
       </c>
       <c r="H53" t="n">
         <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>11633058</v>
+        <v>12079935</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1025672</v>
+        <v>1021241</v>
       </c>
       <c r="E54" t="n">
-        <v>2997861</v>
+        <v>2984910</v>
       </c>
       <c r="F54" t="n">
-        <v>126.5876033444202</v>
+        <v>109.0088078246628</v>
       </c>
       <c r="G54" t="n">
-        <v>364.3378614612582</v>
+        <v>293.4019802249418</v>
       </c>
       <c r="H54" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="I54" t="n">
-        <v>8665.99</v>
+        <v>12201.39</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31979502</v>
+        <v>31217138</v>
       </c>
       <c r="E55" t="n">
-        <v>80636952</v>
+        <v>78714635</v>
       </c>
       <c r="F55" t="n">
-        <v>3037.780310722639</v>
+        <v>1610.89845994427</v>
       </c>
       <c r="G55" t="n">
-        <v>193.3928536491263</v>
+        <v>10952.30398228112</v>
       </c>
       <c r="H55" t="n">
-        <v>1.44</v>
+        <v>0.31</v>
       </c>
       <c r="I55" t="n">
-        <v>5900773</v>
+        <v>5922450</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27652179</v>
+        <v>27176404</v>
       </c>
       <c r="E56" t="n">
-        <v>65596096</v>
+        <v>64467469</v>
       </c>
       <c r="F56" t="n">
-        <v>2442.4554961151</v>
+        <v>4124.886870839769</v>
       </c>
       <c r="G56" t="n">
-        <v>4348.475965101678</v>
+        <v>4641.544096246491</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>624981</v>
+        <v>646496</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12570624</v>
+        <v>12429548</v>
       </c>
       <c r="E57" t="n">
-        <v>19135325</v>
+        <v>18920575</v>
       </c>
       <c r="F57" t="n">
-        <v>4150.671580201308</v>
+        <v>4095.599250323232</v>
       </c>
       <c r="G57" t="n">
-        <v>2463.934931250622</v>
+        <v>2939.240402103046</v>
       </c>
       <c r="H57" t="n">
         <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>651585</v>
+        <v>656265</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="E58" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="F58" t="n">
-        <v>56428.51171254208</v>
+        <v>51769.95800782125</v>
       </c>
       <c r="G58" t="n">
-        <v>85051.3911454203</v>
+        <v>79321.60030505683</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>88226455</v>
+        <v>88273850</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11615069</v>
+        <v>11657080</v>
       </c>
       <c r="F59" t="n">
-        <v>171.2623336080873</v>
+        <v>209.6498819805122</v>
       </c>
       <c r="G59" t="n">
-        <v>75.29856778122716</v>
+        <v>1.832707122964597</v>
       </c>
       <c r="H59" t="n">
-        <v>1.99</v>
+        <v>1.3</v>
       </c>
       <c r="I59" t="n">
-        <v>92859</v>
+        <v>92585</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>86098018</v>
+        <v>85172482</v>
       </c>
       <c r="E60" t="n">
-        <v>496133915</v>
+        <v>490800579</v>
       </c>
       <c r="F60" t="n">
-        <v>35374.90995819066</v>
+        <v>91336.45186263055</v>
       </c>
       <c r="G60" t="n">
-        <v>40636.36519322275</v>
+        <v>102486.6787234009</v>
       </c>
       <c r="H60" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>20764952</v>
+        <v>21027405</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9192561</v>
+        <v>9228909</v>
       </c>
       <c r="E61" t="n">
-        <v>9192561</v>
+        <v>9228909</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>8.880000000000001</v>
+        <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2903837</v>
+        <v>2923870</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29347489</v>
+        <v>29144485</v>
       </c>
       <c r="E62" t="n">
-        <v>131400748</v>
+        <v>130491814</v>
       </c>
       <c r="F62" t="n">
-        <v>27186.19490797881</v>
+        <v>27828.31229079179</v>
       </c>
       <c r="G62" t="n">
-        <v>28856.33122981565</v>
+        <v>19014.23456872956</v>
       </c>
       <c r="H62" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I62" t="n">
-        <v>13221916</v>
+        <v>13482966</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12789906</v>
+        <v>12812889</v>
       </c>
       <c r="E63" t="n">
-        <v>25561881</v>
+        <v>25607815</v>
       </c>
       <c r="F63" t="n">
-        <v>2136.086632479591</v>
+        <v>2139.110224153339</v>
       </c>
       <c r="G63" t="n">
-        <v>1987.685381309478</v>
+        <v>1990.19642422893</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>14648.09</v>
+        <v>14800.67</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1275997</v>
+        <v>1266601</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.97</v>
+        <v>4.35</v>
       </c>
       <c r="I64" t="n">
-        <v>62586</v>
+        <v>89642</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49246928</v>
+        <v>48668382</v>
       </c>
       <c r="E65" t="n">
-        <v>319353218</v>
+        <v>315601503</v>
       </c>
       <c r="F65" t="n">
-        <v>20715.2488894365</v>
+        <v>21258.10935582324</v>
       </c>
       <c r="G65" t="n">
-        <v>22565.89598272784</v>
+        <v>14641.15484651948</v>
       </c>
       <c r="H65" t="n">
-        <v>0.65</v>
+        <v>0.17</v>
       </c>
       <c r="I65" t="n">
-        <v>20236178</v>
+        <v>20460577</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4535936</v>
+        <v>4468724</v>
       </c>
       <c r="F66" t="n">
-        <v>163.1715992009047</v>
+        <v>117.276338152063</v>
       </c>
       <c r="G66" t="n">
-        <v>1390.51119716885</v>
+        <v>61.84615084890591</v>
       </c>
       <c r="H66" t="n">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="I66" t="n">
-        <v>234151</v>
+        <v>237857</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124080695</v>
+        <v>123146356</v>
       </c>
       <c r="E67" t="n">
-        <v>2054877940</v>
+        <v>2039404517</v>
       </c>
       <c r="F67" t="n">
-        <v>23415.02983554565</v>
+        <v>20125.27630513475</v>
       </c>
       <c r="G67" t="n">
-        <v>24570.31625874574</v>
+        <v>19599.18139515931</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>31393536</v>
+        <v>33460743</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23589878</v>
+        <v>23244250</v>
       </c>
       <c r="E68" t="n">
-        <v>141142980</v>
+        <v>139075022</v>
       </c>
       <c r="F68" t="n">
-        <v>4982.741789308573</v>
+        <v>41628.99899179024</v>
       </c>
       <c r="G68" t="n">
-        <v>46279.24889110271</v>
+        <v>45469.3327590937</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>16719482</v>
+        <v>16895540</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23125747</v>
+        <v>22632641</v>
       </c>
       <c r="E70" t="n">
-        <v>23125903</v>
+        <v>22632641</v>
       </c>
       <c r="F70" t="n">
-        <v>5391.039679533736</v>
+        <v>3175.911819444027</v>
       </c>
       <c r="G70" t="n">
-        <v>2447.115360709698</v>
+        <v>19939.73312938911</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2392121</v>
+        <v>2350929</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32954211</v>
+        <v>32622183</v>
       </c>
       <c r="E71" t="n">
-        <v>164456705</v>
+        <v>162799732</v>
       </c>
       <c r="F71" t="n">
-        <v>17722.08675871055</v>
+        <v>22528.20490869331</v>
       </c>
       <c r="G71" t="n">
-        <v>20641.39800789769</v>
+        <v>49890.88252010211</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13540518</v>
+        <v>13678930</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169964</v>
+        <v>160799</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>11.11</v>
+        <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>22853</v>
+        <v>22601</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>299723122</v>
+        <v>294496387</v>
       </c>
       <c r="E73" t="n">
-        <v>554556128</v>
+        <v>544885475</v>
       </c>
       <c r="F73" t="n">
-        <v>10268.23501070638</v>
+        <v>8090.492915821357</v>
       </c>
       <c r="G73" t="n">
-        <v>13103.56724531735</v>
+        <v>12284.44954604221</v>
       </c>
       <c r="H73" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>16132094</v>
+        <v>16471646</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9157599</v>
+        <v>8767198</v>
       </c>
       <c r="E74" t="n">
-        <v>27148054</v>
+        <v>25990695</v>
       </c>
       <c r="F74" t="n">
-        <v>597.9112962070352</v>
+        <v>374.004850915311</v>
       </c>
       <c r="G74" t="n">
-        <v>1318.950914855628</v>
+        <v>1609.909455401291</v>
       </c>
       <c r="H74" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="I74" t="n">
-        <v>6216787</v>
+        <v>6219339</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8042026</v>
+        <v>8184633</v>
       </c>
       <c r="E75" t="n">
-        <v>11458044</v>
+        <v>11661227</v>
       </c>
       <c r="F75" t="n">
-        <v>3292.754981756301</v>
+        <v>166.8054157013926</v>
       </c>
       <c r="G75" t="n">
-        <v>658.5886643905185</v>
+        <v>2267.312951623205</v>
       </c>
       <c r="H75" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="I75" t="n">
-        <v>311066</v>
+        <v>321481</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16174727</v>
+        <v>15849247</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9171306152340792</v>
+        <v>0.6786186391452254</v>
       </c>
       <c r="G76" t="n">
-        <v>13.28697691035805</v>
+        <v>0.4563146621482723</v>
       </c>
       <c r="H76" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="I76" t="n">
-        <v>1079751</v>
+        <v>1081507</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>74613312</v>
+        <v>74418771</v>
       </c>
       <c r="E77" t="n">
-        <v>103311987</v>
+        <v>103042822</v>
       </c>
       <c r="F77" t="n">
-        <v>8661.494336258382</v>
+        <v>8695.643546401578</v>
       </c>
       <c r="G77" t="n">
-        <v>20479.35277817625</v>
+        <v>14615.14626933028</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>7073985</v>
+        <v>7285511</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6197086</v>
+        <v>6234461</v>
       </c>
       <c r="E78" t="n">
-        <v>6197086</v>
+        <v>6234461</v>
       </c>
       <c r="F78" t="n">
-        <v>5.959970082293166</v>
+        <v>36.8865208860647</v>
       </c>
       <c r="G78" t="n">
-        <v>1335.121833087134</v>
+        <v>1349.879802282129</v>
       </c>
       <c r="H78" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="I78" t="n">
-        <v>1406685</v>
+        <v>278848</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58288</v>
+        <v>58121</v>
       </c>
       <c r="E79" t="n">
-        <v>304121</v>
+        <v>303252</v>
       </c>
       <c r="F79" t="n">
-        <v>424.1970820860017</v>
+        <v>363.5475532058726</v>
       </c>
       <c r="G79" t="n">
-        <v>32.59156382218182</v>
+        <v>61.51562666202309</v>
       </c>
       <c r="H79" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="I79" t="n">
-        <v>209515</v>
+        <v>203330</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26409916</v>
+        <v>26086265</v>
       </c>
       <c r="F80" t="n">
-        <v>4289.983765975626</v>
+        <v>839.256715249809</v>
       </c>
       <c r="G80" t="n">
-        <v>305.3963247963327</v>
+        <v>2015.607077163893</v>
       </c>
       <c r="H80" t="n">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="I80" t="n">
-        <v>52908</v>
+        <v>51586</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>587293258</v>
+        <v>578120375</v>
       </c>
       <c r="E81" t="n">
-        <v>2274500141</v>
+        <v>2238974916</v>
       </c>
       <c r="F81" t="n">
-        <v>149673.584679935</v>
+        <v>140524.0911226084</v>
       </c>
       <c r="G81" t="n">
-        <v>291297.0167409863</v>
+        <v>181042.0044717202</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>55012523</v>
+        <v>57084635</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7478394</v>
+        <v>7412571</v>
       </c>
       <c r="E82" t="n">
-        <v>10714345</v>
+        <v>10619960</v>
       </c>
       <c r="F82" t="n">
-        <v>1396.372469581414</v>
+        <v>1463.228585949505</v>
       </c>
       <c r="G82" t="n">
-        <v>896.807836300037</v>
+        <v>2099.181064036122</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>180051</v>
+        <v>176993</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>110946114</v>
+        <v>109348500</v>
       </c>
       <c r="E83" t="n">
-        <v>1030832387</v>
+        <v>1015988494</v>
       </c>
       <c r="F83" t="n">
-        <v>21808.85493113126</v>
+        <v>24261.49496268244</v>
       </c>
       <c r="G83" t="n">
-        <v>14905.08139435491</v>
+        <v>12658.77970472523</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>14504949</v>
+        <v>14889380</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1076493</v>
+        <v>1089378</v>
       </c>
       <c r="E84" t="n">
-        <v>4168416</v>
+        <v>4218308</v>
       </c>
       <c r="F84" t="n">
-        <v>1122.633165103579</v>
+        <v>1011.741792229527</v>
       </c>
       <c r="G84" t="n">
-        <v>666.5478787200907</v>
+        <v>1857.534465275419</v>
       </c>
       <c r="H84" t="n">
-        <v>0.96</v>
+        <v>0.47</v>
       </c>
       <c r="I84" t="n">
-        <v>304241</v>
+        <v>314759</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122644295</v>
+        <v>121374137</v>
       </c>
       <c r="E85" t="n">
-        <v>470483257</v>
+        <v>465610725</v>
       </c>
       <c r="F85" t="n">
-        <v>74391.64665745028</v>
+        <v>76200.19241315505</v>
       </c>
       <c r="G85" t="n">
-        <v>80178.9751334285</v>
+        <v>83963.87928122195</v>
       </c>
       <c r="H85" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I85" t="n">
-        <v>40322931</v>
+        <v>39753350</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5108389</v>
+        <v>5083845</v>
       </c>
       <c r="E86" t="n">
-        <v>18982868</v>
+        <v>18891664</v>
       </c>
       <c r="F86" t="n">
-        <v>527.2350947048982</v>
+        <v>628.8653264539744</v>
       </c>
       <c r="G86" t="n">
-        <v>417.8524202349293</v>
+        <v>76.01400922581452</v>
       </c>
       <c r="H86" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>86699</v>
+        <v>87664</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>36432065</v>
+        <v>35185142</v>
       </c>
       <c r="F87" t="n">
-        <v>5439.226182590323</v>
+        <v>5731.073858964844</v>
       </c>
       <c r="G87" t="n">
-        <v>860.4046348695252</v>
+        <v>2383.482836467106</v>
       </c>
       <c r="H87" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I87" t="n">
-        <v>7613337</v>
+        <v>7573620</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24222837</v>
+        <v>24126452</v>
       </c>
       <c r="F88" t="n">
-        <v>1028.041806398178</v>
+        <v>960.3214244941125</v>
       </c>
       <c r="G88" t="n">
-        <v>831.2377032366134</v>
+        <v>847.3313537710989</v>
       </c>
       <c r="H88" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>18456.29</v>
+        <v>18331.62</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87740649</v>
+        <v>87537016</v>
       </c>
       <c r="E89" t="n">
-        <v>324327648</v>
+        <v>323574835</v>
       </c>
       <c r="F89" t="n">
-        <v>1103.084918606158</v>
+        <v>992.1060687739013</v>
       </c>
       <c r="G89" t="n">
-        <v>1450.867529299437</v>
+        <v>798.5869912673015</v>
       </c>
       <c r="H89" t="n">
-        <v>0.67</v>
+        <v>2.02</v>
       </c>
       <c r="I89" t="n">
-        <v>229480</v>
+        <v>236682</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19946439</v>
+        <v>19448634</v>
       </c>
       <c r="E90" t="n">
-        <v>19946439</v>
+        <v>19448634</v>
       </c>
       <c r="F90" t="n">
-        <v>2464.07932685662</v>
+        <v>1670.542284155683</v>
       </c>
       <c r="G90" t="n">
-        <v>6119.230437107585</v>
+        <v>3916.420849354568</v>
       </c>
       <c r="H90" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="I90" t="n">
-        <v>7246381</v>
+        <v>7199935</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3814577</v>
+        <v>3806074</v>
       </c>
       <c r="E91" t="n">
-        <v>8315242</v>
+        <v>8296708</v>
       </c>
       <c r="F91" t="n">
-        <v>1881.296277060258</v>
+        <v>2017.464687258584</v>
       </c>
       <c r="G91" t="n">
-        <v>1887.880113467775</v>
+        <v>1135.232719316499</v>
       </c>
       <c r="H91" t="n">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1968711</v>
+        <v>2006880</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>481921251</v>
+        <v>474537280</v>
       </c>
       <c r="E92" t="n">
-        <v>1677527767</v>
+        <v>1651824777</v>
       </c>
       <c r="F92" t="n">
-        <v>68128.10363508807</v>
+        <v>69768.75099257838</v>
       </c>
       <c r="G92" t="n">
-        <v>69098.01925978872</v>
+        <v>65807.98641982496</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>44391686</v>
+        <v>46215929</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2438734</v>
+        <v>2390501</v>
       </c>
       <c r="E93" t="n">
-        <v>9754938</v>
+        <v>9562005</v>
       </c>
       <c r="F93" t="n">
-        <v>2400.29944538444</v>
+        <v>1084.306980990337</v>
       </c>
       <c r="G93" t="n">
-        <v>1655.289105748036</v>
+        <v>2611.831627054395</v>
       </c>
       <c r="H93" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>7241659</v>
+        <v>7461467</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>214109161</v>
+        <v>212201081</v>
       </c>
       <c r="E94" t="n">
-        <v>658305097</v>
+        <v>652438467</v>
       </c>
       <c r="F94" t="n">
-        <v>75604.19236177934</v>
+        <v>89219.67586654449</v>
       </c>
       <c r="G94" t="n">
-        <v>85815.3398283757</v>
+        <v>98960.91231088806</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>21537059</v>
+        <v>21721728</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138634535</v>
+        <v>137247842</v>
       </c>
       <c r="E95" t="n">
-        <v>362178878</v>
+        <v>358556179</v>
       </c>
       <c r="F95" t="n">
-        <v>16741.44801868006</v>
+        <v>30714.31238940135</v>
       </c>
       <c r="G95" t="n">
-        <v>25943.85809768022</v>
+        <v>31751.594097398</v>
       </c>
       <c r="H95" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>9220689</v>
+        <v>9438680</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>385375984</v>
+        <v>382399844</v>
       </c>
       <c r="E96" t="n">
-        <v>2202148480</v>
+        <v>2185141967</v>
       </c>
       <c r="F96" t="n">
-        <v>21236.86657003943</v>
+        <v>25795.80821211169</v>
       </c>
       <c r="G96" t="n">
-        <v>41516.29427202713</v>
+        <v>36861.98868893004</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>56175555</v>
+        <v>57342998</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600741831</v>
+        <v>593409668</v>
       </c>
       <c r="E2" t="n">
-        <v>1165768853</v>
+        <v>1151540835</v>
       </c>
       <c r="F2" t="n">
-        <v>21092.45444624347</v>
+        <v>25267.31712605188</v>
       </c>
       <c r="G2" t="n">
-        <v>19625.70024728791</v>
+        <v>22494.20046487613</v>
       </c>
       <c r="H2" t="n">
         <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>41470012</v>
+        <v>42351169</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1455062</v>
+        <v>1486767</v>
       </c>
       <c r="E3" t="n">
-        <v>4703358</v>
+        <v>4805841</v>
       </c>
       <c r="F3" t="n">
-        <v>460.8283977678971</v>
+        <v>1848.802246105409</v>
       </c>
       <c r="G3" t="n">
-        <v>985.9681863394572</v>
+        <v>495.0032491153471</v>
       </c>
       <c r="H3" t="n">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="I3" t="n">
-        <v>218853</v>
+        <v>222073</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243832134</v>
+        <v>241974007</v>
       </c>
       <c r="E4" t="n">
-        <v>1529037042</v>
+        <v>1517384985</v>
       </c>
       <c r="F4" t="n">
-        <v>115147.7161644969</v>
+        <v>105394.5379597392</v>
       </c>
       <c r="G4" t="n">
-        <v>105744.1035482001</v>
+        <v>104585.1941559675</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>26273162</v>
+        <v>26273691</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141184537</v>
+        <v>140336257</v>
       </c>
       <c r="E5" t="n">
-        <v>156454531</v>
+        <v>155514504</v>
       </c>
       <c r="F5" t="n">
-        <v>6557.534958668052</v>
+        <v>6122.296378407217</v>
       </c>
       <c r="G5" t="n">
-        <v>6109.347074363929</v>
+        <v>7137.543133800258</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>51074342</v>
+        <v>51268551</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>670983</v>
+        <v>672053</v>
       </c>
       <c r="E6" t="n">
-        <v>13035339</v>
+        <v>13056116</v>
       </c>
       <c r="F6" t="n">
-        <v>422.2158621869712</v>
+        <v>366.0263432104217</v>
       </c>
       <c r="G6" t="n">
-        <v>190.3876730502949</v>
+        <v>190.374470115906</v>
       </c>
       <c r="H6" t="n">
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>21933</v>
+        <v>22173</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>495098846</v>
+        <v>488257610</v>
       </c>
       <c r="E7" t="n">
-        <v>495098846</v>
+        <v>488257615</v>
       </c>
       <c r="F7" t="n">
-        <v>39774.2330413299</v>
+        <v>33790.31156857044</v>
       </c>
       <c r="G7" t="n">
-        <v>36402.49433292867</v>
+        <v>38355.86952433424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
-        <v>70777069</v>
+        <v>75131780</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="E8" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="F8" t="n">
-        <v>1476.865296370137</v>
+        <v>1503.68277889038</v>
       </c>
       <c r="G8" t="n">
-        <v>895.4172870492648</v>
+        <v>883.8255414765679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="I8" t="n">
-        <v>2070050</v>
+        <v>2171739</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1991764</v>
+        <v>2003140</v>
       </c>
       <c r="F9" t="n">
-        <v>18.37174379397663</v>
+        <v>371.2526969997262</v>
       </c>
       <c r="G9" t="n">
-        <v>157.0868011090112</v>
+        <v>1487.294806042268</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="I9" t="n">
-        <v>362562</v>
+        <v>359551</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1876152</v>
+        <v>1775208</v>
       </c>
       <c r="F10" t="n">
-        <v>226.9819100075114</v>
+        <v>224.6380067562318</v>
       </c>
       <c r="G10" t="n">
-        <v>196.4615932150145</v>
+        <v>239.8084273938054</v>
       </c>
       <c r="H10" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I10" t="n">
-        <v>1220376</v>
+        <v>1140953</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108267618</v>
+        <v>107889308</v>
       </c>
       <c r="E11" t="n">
-        <v>203963358</v>
+        <v>203250668</v>
       </c>
       <c r="F11" t="n">
-        <v>1466.837969386808</v>
+        <v>1579.638226745793</v>
       </c>
       <c r="G11" t="n">
-        <v>1528.723275689114</v>
+        <v>1481.361623683635</v>
       </c>
       <c r="H11" t="n">
         <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>4064469</v>
+        <v>4050138</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11886209</v>
+        <v>11830458</v>
       </c>
       <c r="E12" t="n">
-        <v>29582623</v>
+        <v>29443871</v>
       </c>
       <c r="F12" t="n">
-        <v>170.8456448418366</v>
+        <v>134.4473664789048</v>
       </c>
       <c r="G12" t="n">
-        <v>1794.15201145887</v>
+        <v>4311.858759748859</v>
       </c>
       <c r="H12" t="n">
-        <v>0.23</v>
+        <v>1.14</v>
       </c>
       <c r="I12" t="n">
-        <v>1523630</v>
+        <v>1523532</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108841221</v>
+        <v>107859319</v>
       </c>
       <c r="E13" t="n">
-        <v>423142035</v>
+        <v>419315932</v>
       </c>
       <c r="F13" t="n">
-        <v>20314.78785392605</v>
+        <v>19684.47481815122</v>
       </c>
       <c r="G13" t="n">
-        <v>12618.39287505536</v>
+        <v>12986.41538262308</v>
       </c>
       <c r="H13" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="I13" t="n">
-        <v>12047388</v>
+        <v>18846303</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4756099</v>
+        <v>4768213</v>
       </c>
       <c r="E14" t="n">
-        <v>7001235</v>
+        <v>7019067</v>
       </c>
       <c r="F14" t="n">
-        <v>49.09594715443623</v>
+        <v>341.5966660555892</v>
       </c>
       <c r="G14" t="n">
-        <v>1562.955196013433</v>
+        <v>21.15316290274285</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>556228</v>
+        <v>556592</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="E15" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="F15" t="n">
-        <v>47809.50876225034</v>
+        <v>43767.57522975287</v>
       </c>
       <c r="G15" t="n">
-        <v>75439.66225659655</v>
+        <v>62932.37339655711</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>88059736</v>
+        <v>92158221</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64137406</v>
+        <v>63995135</v>
       </c>
       <c r="E16" t="n">
-        <v>328909776</v>
+        <v>328180181</v>
       </c>
       <c r="F16" t="n">
-        <v>16322.40969086408</v>
+        <v>16128.90926338603</v>
       </c>
       <c r="G16" t="n">
-        <v>14653.85708614284</v>
+        <v>13094.11255111037</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>25881496</v>
+        <v>27492877</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="E17" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="F17" t="n">
-        <v>58646.02458234855</v>
+        <v>56665.89589465382</v>
       </c>
       <c r="G17" t="n">
-        <v>56654.02198386087</v>
+        <v>58715.2626968707</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>29461556</v>
+        <v>29707503</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2568785</v>
+        <v>2558127</v>
       </c>
       <c r="E18" t="n">
-        <v>6567322</v>
+        <v>6540073</v>
       </c>
       <c r="F18" t="n">
-        <v>964.1497885878042</v>
+        <v>980.946401685634</v>
       </c>
       <c r="G18" t="n">
-        <v>1100.930878023173</v>
+        <v>953.5849655390873</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>81688</v>
+        <v>81758</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82974868</v>
+        <v>81654224</v>
       </c>
       <c r="E19" t="n">
-        <v>232121454</v>
+        <v>228441594</v>
       </c>
       <c r="F19" t="n">
-        <v>19159.51736842857</v>
+        <v>21687.67711763819</v>
       </c>
       <c r="G19" t="n">
-        <v>20916.65897430048</v>
+        <v>13856.8794089219</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>58600365</v>
+        <v>58809485</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1591726</v>
+        <v>1595435</v>
       </c>
       <c r="E20" t="n">
-        <v>9139094</v>
+        <v>9160391</v>
       </c>
       <c r="F20" t="n">
-        <v>184.3330692374808</v>
+        <v>45.26647389505066</v>
       </c>
       <c r="G20" t="n">
-        <v>862.9185081804324</v>
+        <v>727.3208789245042</v>
       </c>
       <c r="H20" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="I20" t="n">
-        <v>243453</v>
+        <v>244191</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162356</v>
+        <v>160678</v>
       </c>
       <c r="E21" t="n">
-        <v>1096409</v>
+        <v>1085080</v>
       </c>
       <c r="F21" t="n">
-        <v>5.754731089905209</v>
+        <v>5.754332012928277</v>
       </c>
       <c r="G21" t="n">
-        <v>150.2906988394052</v>
+        <v>6.111854568525406</v>
       </c>
       <c r="H21" t="n">
         <v>1.11</v>
       </c>
       <c r="I21" t="n">
-        <v>3092401</v>
+        <v>3112028</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>245970</v>
+        <v>246012</v>
       </c>
       <c r="F22" t="n">
-        <v>147.7515817799818</v>
+        <v>158.5086865066839</v>
       </c>
       <c r="G22" t="n">
-        <v>250.7817863541951</v>
+        <v>218.3724841354677</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3505.38</v>
+        <v>3502.35</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83475223</v>
+        <v>83483591</v>
       </c>
       <c r="E23" t="n">
-        <v>174039136</v>
+        <v>174056583</v>
       </c>
       <c r="F23" t="n">
-        <v>23368.07121734564</v>
+        <v>26080.023730058</v>
       </c>
       <c r="G23" t="n">
-        <v>48310.10366606075</v>
+        <v>39394.59986470344</v>
       </c>
       <c r="H23" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>69045093</v>
+        <v>69224503</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197870879</v>
+        <v>196452022</v>
       </c>
       <c r="E24" t="n">
-        <v>687421316</v>
+        <v>682492079</v>
       </c>
       <c r="F24" t="n">
-        <v>61809.86551077293</v>
+        <v>61361.25185356009</v>
       </c>
       <c r="G24" t="n">
-        <v>62149.54197459134</v>
+        <v>62007.13566658393</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>44140741</v>
+        <v>44557664</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109839762</v>
+        <v>109492732</v>
       </c>
       <c r="E25" t="n">
-        <v>466013625</v>
+        <v>464525152</v>
       </c>
       <c r="F25" t="n">
-        <v>20310.62012673852</v>
+        <v>16598.28146749881</v>
       </c>
       <c r="G25" t="n">
-        <v>17010.57207998174</v>
+        <v>15449.40145135482</v>
       </c>
       <c r="H25" t="n">
         <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>14949689</v>
+        <v>14920699</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5673580</v>
+        <v>5648799</v>
       </c>
       <c r="E26" t="n">
-        <v>7700087</v>
+        <v>7666420</v>
       </c>
       <c r="F26" t="n">
-        <v>2691.364416380436</v>
+        <v>972.0784388066177</v>
       </c>
       <c r="G26" t="n">
-        <v>1146.383745139163</v>
+        <v>799.7949867664694</v>
       </c>
       <c r="H26" t="n">
         <v>0.22</v>
       </c>
       <c r="I26" t="n">
-        <v>5092294</v>
+        <v>5134750</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>553690</v>
+        <v>547755</v>
       </c>
       <c r="E27" t="n">
-        <v>6715724</v>
+        <v>6643737</v>
       </c>
       <c r="F27" t="n">
-        <v>590.802617564204</v>
+        <v>714.5712591410348</v>
       </c>
       <c r="G27" t="n">
-        <v>212.0156197426286</v>
+        <v>195.5051782500755</v>
       </c>
       <c r="H27" t="n">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>2832186</v>
+        <v>2832271</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24725399</v>
+        <v>24628976</v>
       </c>
       <c r="E28" t="n">
-        <v>34940976</v>
+        <v>34804714</v>
       </c>
       <c r="F28" t="n">
-        <v>404.223700166372</v>
+        <v>404.1956682097529</v>
       </c>
       <c r="G28" t="n">
-        <v>9554.824956586976</v>
+        <v>8797.91855134519</v>
       </c>
       <c r="H28" t="n">
         <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>116271</v>
+        <v>121164</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1377469078</v>
+        <v>1356644231</v>
       </c>
       <c r="E29" t="n">
-        <v>6605246329</v>
+        <v>6505386922</v>
       </c>
       <c r="F29" t="n">
-        <v>60520.73832092161</v>
+        <v>87478.04711713886</v>
       </c>
       <c r="G29" t="n">
-        <v>146504.5634775093</v>
+        <v>140344.6931116446</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>458818178</v>
+        <v>463734914</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>259129831</v>
+        <v>258233724</v>
       </c>
       <c r="E30" t="n">
-        <v>1118548204</v>
+        <v>1114680107</v>
       </c>
       <c r="F30" t="n">
-        <v>125888.5850988174</v>
+        <v>86243.86398448546</v>
       </c>
       <c r="G30" t="n">
-        <v>125108.0861544372</v>
+        <v>118880.1626754308</v>
       </c>
       <c r="H30" t="n">
         <v>0.18</v>
       </c>
       <c r="I30" t="n">
-        <v>137438099</v>
+        <v>138768489</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5357292</v>
+        <v>5313907</v>
       </c>
       <c r="E31" t="n">
-        <v>5363355</v>
+        <v>5319921</v>
       </c>
       <c r="F31" t="n">
-        <v>112.2684599766721</v>
+        <v>159.3256759258266</v>
       </c>
       <c r="G31" t="n">
-        <v>155.358848781968</v>
+        <v>155.9396421214476</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>146186</v>
+        <v>145590</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15508286</v>
+        <v>15736754</v>
       </c>
       <c r="E32" t="n">
-        <v>38770716</v>
+        <v>39341885</v>
       </c>
       <c r="F32" t="n">
-        <v>3390.947505934661</v>
+        <v>2370.446963245091</v>
       </c>
       <c r="G32" t="n">
-        <v>3367.278951416009</v>
+        <v>4944.347481804876</v>
       </c>
       <c r="H32" t="n">
         <v>0.64</v>
       </c>
       <c r="I32" t="n">
-        <v>4601812</v>
+        <v>4671258</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19598208</v>
+        <v>19496859</v>
       </c>
       <c r="F33" t="n">
-        <v>984.0048813570565</v>
+        <v>2091.205138108497</v>
       </c>
       <c r="G33" t="n">
-        <v>1843.995165606551</v>
+        <v>2414.002736321921</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>73741</v>
+        <v>70590</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189837</v>
+        <v>4179716</v>
       </c>
       <c r="E34" t="n">
-        <v>12068110</v>
+        <v>12038959</v>
       </c>
       <c r="F34" t="n">
-        <v>1057.067932882937</v>
+        <v>1424.511295255953</v>
       </c>
       <c r="G34" t="n">
-        <v>364.983126977089</v>
+        <v>963.7141881808116</v>
       </c>
       <c r="H34" t="n">
-        <v>1.16</v>
+        <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>501071</v>
+        <v>500773</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1559992</v>
+        <v>1560253</v>
       </c>
       <c r="F35" t="n">
-        <v>1.398844742301239</v>
+        <v>114.1499428088123</v>
       </c>
       <c r="G35" t="n">
-        <v>54.32090382043825</v>
+        <v>54.31714848957669</v>
       </c>
       <c r="H35" t="n">
         <v>0.65</v>
       </c>
       <c r="I35" t="n">
-        <v>8249</v>
+        <v>8242.42</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13920821</v>
+        <v>13759997</v>
       </c>
       <c r="E36" t="n">
-        <v>67420756</v>
+        <v>66641860</v>
       </c>
       <c r="F36" t="n">
-        <v>5734.24913975931</v>
+        <v>6563.948977097621</v>
       </c>
       <c r="G36" t="n">
-        <v>4857.554924658056</v>
+        <v>5022.690277919864</v>
       </c>
       <c r="H36" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I36" t="n">
-        <v>5257105</v>
+        <v>5286228</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1261716</v>
+        <v>1265706</v>
       </c>
       <c r="E37" t="n">
-        <v>8257896</v>
+        <v>8284009</v>
       </c>
       <c r="F37" t="n">
-        <v>10.17998676853301</v>
+        <v>439.0459973208447</v>
       </c>
       <c r="G37" t="n">
-        <v>21.69151532007715</v>
+        <v>318.9807862723523</v>
       </c>
       <c r="H37" t="n">
         <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>466071</v>
+        <v>466658</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1850051461</v>
+        <v>1834959821</v>
       </c>
       <c r="F38" t="n">
-        <v>76980.21944338386</v>
+        <v>77004.71157457741</v>
       </c>
       <c r="G38" t="n">
-        <v>75498.19995611149</v>
+        <v>67119.22175318628</v>
       </c>
       <c r="H38" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="I38" t="n">
-        <v>30164390</v>
+        <v>30285948</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28985772</v>
+        <v>29364650</v>
       </c>
       <c r="E39" t="n">
-        <v>90252393</v>
+        <v>91432099</v>
       </c>
       <c r="F39" t="n">
-        <v>2805.102027399478</v>
+        <v>3039.25371842032</v>
       </c>
       <c r="G39" t="n">
-        <v>11437.82393140054</v>
+        <v>10279.45340241792</v>
       </c>
       <c r="H39" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>10278820</v>
+        <v>10320081</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>191785265</v>
+        <v>190422773</v>
       </c>
       <c r="E40" t="n">
-        <v>1086006011</v>
+        <v>1078290743</v>
       </c>
       <c r="F40" t="n">
-        <v>17776.82452550203</v>
+        <v>17146.98656403556</v>
       </c>
       <c r="G40" t="n">
-        <v>48120.31698781262</v>
+        <v>51464.82131972218</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>83980293</v>
+        <v>84210591</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>120973154</v>
+        <v>122487304</v>
       </c>
       <c r="E41" t="n">
-        <v>896097439</v>
+        <v>907313360</v>
       </c>
       <c r="F41" t="n">
-        <v>34926.15014052141</v>
+        <v>62360.43090338503</v>
       </c>
       <c r="G41" t="n">
-        <v>176833.1781904423</v>
+        <v>194857.0716928875</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>25048320</v>
+        <v>25301989</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30273511</v>
+        <v>30271408</v>
       </c>
       <c r="E42" t="n">
-        <v>143632906</v>
+        <v>143622928</v>
       </c>
       <c r="F42" t="n">
-        <v>2638.238808977025</v>
+        <v>3242.846577444264</v>
       </c>
       <c r="G42" t="n">
-        <v>7630.391840258874</v>
+        <v>8370.605526456087</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="I42" t="n">
-        <v>772470</v>
+        <v>725442</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3422630</v>
+        <v>3326946</v>
       </c>
       <c r="E43" t="n">
-        <v>7992412</v>
+        <v>7768972</v>
       </c>
       <c r="F43" t="n">
-        <v>1455.025974303148</v>
+        <v>1854.935715120246</v>
       </c>
       <c r="G43" t="n">
-        <v>1232.414093264802</v>
+        <v>1817.641129242558</v>
       </c>
       <c r="H43" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="I43" t="n">
-        <v>667858</v>
+        <v>645888</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>321161329</v>
+        <v>317455794</v>
       </c>
       <c r="E44" t="n">
-        <v>2889366465</v>
+        <v>2856029172</v>
       </c>
       <c r="F44" t="n">
-        <v>42571.20875262866</v>
+        <v>44873.38064336733</v>
       </c>
       <c r="G44" t="n">
-        <v>44505.44532465732</v>
+        <v>36365.97536443958</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>62567561</v>
+        <v>65306673</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>627243</v>
+        <v>628010</v>
       </c>
       <c r="F45" t="n">
-        <v>270.8379438533985</v>
+        <v>457.0905315518719</v>
       </c>
       <c r="G45" t="n">
-        <v>796.9395698603674</v>
+        <v>804.9493934814334</v>
       </c>
       <c r="H45" t="n">
         <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>12445.61</v>
+        <v>14772.99</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1523100</v>
+        <v>1534048</v>
       </c>
       <c r="E46" t="n">
-        <v>12692501</v>
+        <v>12783733</v>
       </c>
       <c r="F46" t="n">
-        <v>1013.324034161497</v>
+        <v>1990.884511311671</v>
       </c>
       <c r="G46" t="n">
-        <v>247.4214435300347</v>
+        <v>220.2741961062125</v>
       </c>
       <c r="H46" t="n">
-        <v>0.63</v>
+        <v>0.86</v>
       </c>
       <c r="I46" t="n">
-        <v>29984</v>
+        <v>29518</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4800159</v>
+        <v>4771200</v>
       </c>
       <c r="E47" t="n">
-        <v>16958948</v>
+        <v>16856634</v>
       </c>
       <c r="F47" t="n">
-        <v>1330.583893380571</v>
+        <v>1295.634702431106</v>
       </c>
       <c r="G47" t="n">
-        <v>844.48264341429</v>
+        <v>1026.003926048788</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>134942</v>
+        <v>138732</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46818321</v>
+        <v>46552584</v>
       </c>
       <c r="E48" t="n">
-        <v>271058735</v>
+        <v>269520224</v>
       </c>
       <c r="F48" t="n">
-        <v>17722.56007258235</v>
+        <v>16066.73589020487</v>
       </c>
       <c r="G48" t="n">
-        <v>11901.81934130136</v>
+        <v>10519.87359959838</v>
       </c>
       <c r="H48" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>51705565</v>
+        <v>51598472</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2220752</v>
+        <v>2219049</v>
       </c>
       <c r="E49" t="n">
-        <v>12201194</v>
+        <v>12191836</v>
       </c>
       <c r="F49" t="n">
-        <v>346.2982807306931</v>
+        <v>346.2742657647751</v>
       </c>
       <c r="G49" t="n">
-        <v>1647.758060778206</v>
+        <v>1642.355516428427</v>
       </c>
       <c r="H49" t="n">
         <v>1.61</v>
       </c>
       <c r="I49" t="n">
-        <v>55911</v>
+        <v>96166</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13583435</v>
+        <v>13578115</v>
       </c>
       <c r="E50" t="n">
-        <v>13629661</v>
+        <v>13624323</v>
       </c>
       <c r="F50" t="n">
-        <v>4823.768680698494</v>
+        <v>4570.167892928317</v>
       </c>
       <c r="G50" t="n">
-        <v>4603.62561998047</v>
+        <v>9121.82543739687</v>
       </c>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>6704360</v>
+        <v>6848656</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19400083</v>
+        <v>18871553</v>
       </c>
       <c r="E51" t="n">
-        <v>58164952</v>
+        <v>56580755</v>
       </c>
       <c r="F51" t="n">
-        <v>21374.5570989481</v>
+        <v>8304.388059871466</v>
       </c>
       <c r="G51" t="n">
-        <v>12180.34416840052</v>
+        <v>23468.21802027981</v>
       </c>
       <c r="H51" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="I51" t="n">
-        <v>4364704</v>
+        <v>4384957</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15210033</v>
+        <v>15079335</v>
       </c>
       <c r="E52" t="n">
-        <v>93227296</v>
+        <v>92426205</v>
       </c>
       <c r="F52" t="n">
-        <v>3288.4884284771</v>
+        <v>2244.66866825485</v>
       </c>
       <c r="G52" t="n">
-        <v>6871.315509201952</v>
+        <v>6495.251584284472</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>12152773</v>
+        <v>12132352</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47442246</v>
+        <v>47587797</v>
       </c>
       <c r="E53" t="n">
-        <v>204376006</v>
+        <v>205003028</v>
       </c>
       <c r="F53" t="n">
-        <v>20495.83212335893</v>
+        <v>20374.00661949211</v>
       </c>
       <c r="G53" t="n">
-        <v>20629.35792093123</v>
+        <v>19944.05507309515</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>12079935</v>
+        <v>12156556</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1021241</v>
+        <v>1020173</v>
       </c>
       <c r="E54" t="n">
-        <v>2984910</v>
+        <v>2981788</v>
       </c>
       <c r="F54" t="n">
-        <v>109.0088078246628</v>
+        <v>9.064591786353363</v>
       </c>
       <c r="G54" t="n">
-        <v>293.4019802249418</v>
+        <v>933.3320149241704</v>
       </c>
       <c r="H54" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="I54" t="n">
-        <v>12201.39</v>
+        <v>12483.06</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31217138</v>
+        <v>30879533</v>
       </c>
       <c r="E55" t="n">
-        <v>78714635</v>
+        <v>77863356</v>
       </c>
       <c r="F55" t="n">
-        <v>1610.89845994427</v>
+        <v>396.6720437674287</v>
       </c>
       <c r="G55" t="n">
-        <v>10952.30398228112</v>
+        <v>11911.66505003987</v>
       </c>
       <c r="H55" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="I55" t="n">
-        <v>5922450</v>
+        <v>5942549</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27176404</v>
+        <v>27069459</v>
       </c>
       <c r="E56" t="n">
-        <v>64467469</v>
+        <v>64213776</v>
       </c>
       <c r="F56" t="n">
-        <v>4124.886870839769</v>
+        <v>6398.496953167124</v>
       </c>
       <c r="G56" t="n">
-        <v>4641.544096246491</v>
+        <v>989.7904977745319</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>646496</v>
+        <v>652738</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12429548</v>
+        <v>12387063</v>
       </c>
       <c r="E57" t="n">
-        <v>18920575</v>
+        <v>18855904</v>
       </c>
       <c r="F57" t="n">
-        <v>4095.599250323232</v>
+        <v>4096.762712884576</v>
       </c>
       <c r="G57" t="n">
-        <v>2939.240402103046</v>
+        <v>3274.234649655046</v>
       </c>
       <c r="H57" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I57" t="n">
-        <v>656265</v>
+        <v>657005</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>291687283</v>
+        <v>284200278</v>
       </c>
       <c r="E58" t="n">
-        <v>291687283</v>
+        <v>284200278</v>
       </c>
       <c r="F58" t="n">
-        <v>51769.95800782125</v>
+        <v>44850.3807824442</v>
       </c>
       <c r="G58" t="n">
-        <v>79321.60030505683</v>
+        <v>72628.11447848266</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>88273850</v>
+        <v>88747016</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11657080</v>
+        <v>11661240</v>
       </c>
       <c r="F59" t="n">
-        <v>209.6498819805122</v>
+        <v>599.4878946248502</v>
       </c>
       <c r="G59" t="n">
-        <v>1.832707122964597</v>
+        <v>0.3883015344276565</v>
       </c>
       <c r="H59" t="n">
-        <v>1.3</v>
+        <v>0.26</v>
       </c>
       <c r="I59" t="n">
-        <v>92585</v>
+        <v>92667</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>85172482</v>
+        <v>84605856</v>
       </c>
       <c r="E60" t="n">
-        <v>490800579</v>
+        <v>487535435</v>
       </c>
       <c r="F60" t="n">
-        <v>91336.45186263055</v>
+        <v>90101.58163755493</v>
       </c>
       <c r="G60" t="n">
-        <v>102486.6787234009</v>
+        <v>101031.4469859338</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I60" t="n">
-        <v>21027405</v>
+        <v>21130836</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9228909</v>
+        <v>9197709</v>
       </c>
       <c r="E61" t="n">
-        <v>9228909</v>
+        <v>9197709</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.97</v>
+        <v>9.75</v>
       </c>
       <c r="I61" t="n">
-        <v>2923870</v>
+        <v>2911462</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29144485</v>
+        <v>28900450</v>
       </c>
       <c r="E62" t="n">
-        <v>130491814</v>
+        <v>129399171</v>
       </c>
       <c r="F62" t="n">
-        <v>27828.31229079179</v>
+        <v>28015.34116151892</v>
       </c>
       <c r="G62" t="n">
-        <v>19014.23456872956</v>
+        <v>20131.77199142371</v>
       </c>
       <c r="H62" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I62" t="n">
-        <v>13482966</v>
+        <v>13618403</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12812889</v>
+        <v>12782515</v>
       </c>
       <c r="E63" t="n">
-        <v>25607815</v>
+        <v>25547110</v>
       </c>
       <c r="F63" t="n">
-        <v>2139.110224153339</v>
+        <v>2277.493714740944</v>
       </c>
       <c r="G63" t="n">
-        <v>1990.19642422893</v>
+        <v>1813.048735530005</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>14800.67</v>
+        <v>15987.13</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1266601</v>
+        <v>1282540</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.35</v>
+        <v>5.49</v>
       </c>
       <c r="I64" t="n">
-        <v>89642</v>
+        <v>60103</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48668382</v>
+        <v>47690116</v>
       </c>
       <c r="E65" t="n">
-        <v>315601503</v>
+        <v>309257707</v>
       </c>
       <c r="F65" t="n">
-        <v>21258.10935582324</v>
+        <v>18229.78280728407</v>
       </c>
       <c r="G65" t="n">
-        <v>14641.15484651948</v>
+        <v>16103.00951905603</v>
       </c>
       <c r="H65" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I65" t="n">
-        <v>20460577</v>
+        <v>20548378</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4468724</v>
+        <v>4464291</v>
       </c>
       <c r="F66" t="n">
-        <v>117.276338152063</v>
+        <v>233.5443147232996</v>
       </c>
       <c r="G66" t="n">
-        <v>61.84615084890591</v>
+        <v>1326.53401077704</v>
       </c>
       <c r="H66" t="n">
-        <v>1.24</v>
+        <v>0.36</v>
       </c>
       <c r="I66" t="n">
-        <v>237857</v>
+        <v>218452</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123146356</v>
+        <v>123022144</v>
       </c>
       <c r="E67" t="n">
-        <v>2039404517</v>
+        <v>2037347465</v>
       </c>
       <c r="F67" t="n">
-        <v>20125.27630513475</v>
+        <v>15873.51331101134</v>
       </c>
       <c r="G67" t="n">
-        <v>19599.18139515931</v>
+        <v>24016.81705219466</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>33460743</v>
+        <v>33724681</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23244250</v>
+        <v>22855035</v>
       </c>
       <c r="E68" t="n">
-        <v>139075022</v>
+        <v>136746267</v>
       </c>
       <c r="F68" t="n">
-        <v>41628.99899179024</v>
+        <v>40732.55169126148</v>
       </c>
       <c r="G68" t="n">
-        <v>45469.3327590937</v>
+        <v>10189.90132038696</v>
       </c>
       <c r="H68" t="n">
         <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>16895540</v>
+        <v>16875442</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22632641</v>
+        <v>22426295</v>
       </c>
       <c r="E70" t="n">
-        <v>22632641</v>
+        <v>22426449</v>
       </c>
       <c r="F70" t="n">
-        <v>3175.911819444027</v>
+        <v>3204.389222891416</v>
       </c>
       <c r="G70" t="n">
-        <v>19939.73312938911</v>
+        <v>15691.43569842824</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I70" t="n">
-        <v>2350929</v>
+        <v>2365738</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32622183</v>
+        <v>32416621</v>
       </c>
       <c r="E71" t="n">
-        <v>162799732</v>
+        <v>161773882</v>
       </c>
       <c r="F71" t="n">
-        <v>22528.20490869331</v>
+        <v>17108.75592544743</v>
       </c>
       <c r="G71" t="n">
-        <v>49890.88252010211</v>
+        <v>52111.52497824424</v>
       </c>
       <c r="H71" t="n">
-        <v>0.61</v>
+        <v>1.24</v>
       </c>
       <c r="I71" t="n">
-        <v>13678930</v>
+        <v>13627194</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>160799</v>
+        <v>160086</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>22601</v>
+        <v>22533</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>294496387</v>
+        <v>289642099</v>
       </c>
       <c r="E73" t="n">
-        <v>544885475</v>
+        <v>535903935</v>
       </c>
       <c r="F73" t="n">
-        <v>8090.492915821357</v>
+        <v>8805.725053921858</v>
       </c>
       <c r="G73" t="n">
-        <v>12284.44954604221</v>
+        <v>14076.03063386991</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>16471646</v>
+        <v>17700762</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8767198</v>
+        <v>8597669</v>
       </c>
       <c r="E74" t="n">
-        <v>25990695</v>
+        <v>25488121</v>
       </c>
       <c r="F74" t="n">
-        <v>374.004850915311</v>
+        <v>487.9641772824837</v>
       </c>
       <c r="G74" t="n">
-        <v>1609.909455401291</v>
+        <v>964.2444540569775</v>
       </c>
       <c r="H74" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="I74" t="n">
-        <v>6219339</v>
+        <v>6255564</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8184633</v>
+        <v>8224015</v>
       </c>
       <c r="E75" t="n">
-        <v>11661227</v>
+        <v>11717337</v>
       </c>
       <c r="F75" t="n">
-        <v>166.8054157013926</v>
+        <v>208.2562908436119</v>
       </c>
       <c r="G75" t="n">
-        <v>2267.312951623205</v>
+        <v>2065.522846747887</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="I75" t="n">
-        <v>321481</v>
+        <v>328147</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15849247</v>
+        <v>15786655</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6786186391452254</v>
+        <v>0.6785715785492098</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4563146621482723</v>
+        <v>0.4562830178067636</v>
       </c>
       <c r="H76" t="n">
         <v>1.53</v>
       </c>
       <c r="I76" t="n">
-        <v>1081507</v>
+        <v>1087744</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>74418771</v>
+        <v>73968013</v>
       </c>
       <c r="E77" t="n">
-        <v>103042822</v>
+        <v>102418518</v>
       </c>
       <c r="F77" t="n">
-        <v>8695.643546401578</v>
+        <v>8597.532248190597</v>
       </c>
       <c r="G77" t="n">
-        <v>14615.14626933028</v>
+        <v>19434.39450073008</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>7285511</v>
+        <v>7278920</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6234461</v>
+        <v>6210773</v>
       </c>
       <c r="E78" t="n">
-        <v>6234461</v>
+        <v>6210773</v>
       </c>
       <c r="F78" t="n">
-        <v>36.8865208860647</v>
+        <v>22.8047558954358</v>
       </c>
       <c r="G78" t="n">
-        <v>1349.879802282129</v>
+        <v>171.9439412350773</v>
       </c>
       <c r="H78" t="n">
-        <v>3.41</v>
+        <v>2.27</v>
       </c>
       <c r="I78" t="n">
-        <v>278848</v>
+        <v>1408620</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58121</v>
+        <v>58797</v>
       </c>
       <c r="E79" t="n">
-        <v>303252</v>
+        <v>306777</v>
       </c>
       <c r="F79" t="n">
-        <v>363.5475532058726</v>
+        <v>367.3834509682697</v>
       </c>
       <c r="G79" t="n">
-        <v>61.51562666202309</v>
+        <v>30.29508778572722</v>
       </c>
       <c r="H79" t="n">
         <v>1.31</v>
       </c>
       <c r="I79" t="n">
-        <v>203330</v>
+        <v>202105</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26086265</v>
+        <v>26095529</v>
       </c>
       <c r="F80" t="n">
-        <v>839.256715249809</v>
+        <v>815.4464065559482</v>
       </c>
       <c r="G80" t="n">
-        <v>2015.607077163893</v>
+        <v>1863.486620728964</v>
       </c>
       <c r="H80" t="n">
         <v>0.34</v>
       </c>
       <c r="I80" t="n">
-        <v>51586</v>
+        <v>50923</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>578120375</v>
+        <v>572880365</v>
       </c>
       <c r="E81" t="n">
-        <v>2238974916</v>
+        <v>2218681129</v>
       </c>
       <c r="F81" t="n">
-        <v>140524.0911226084</v>
+        <v>86365.88557981036</v>
       </c>
       <c r="G81" t="n">
-        <v>181042.0044717202</v>
+        <v>229926.1134046783</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>57084635</v>
+        <v>58065590</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7412571</v>
+        <v>7394233</v>
       </c>
       <c r="E82" t="n">
-        <v>10619960</v>
+        <v>10593663</v>
       </c>
       <c r="F82" t="n">
-        <v>1463.228585949505</v>
+        <v>1497.022462151787</v>
       </c>
       <c r="G82" t="n">
-        <v>2099.181064036122</v>
+        <v>1908.496604986916</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>176993</v>
+        <v>177026</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109348500</v>
+        <v>106115473</v>
       </c>
       <c r="E83" t="n">
-        <v>1015988494</v>
+        <v>1004617801</v>
       </c>
       <c r="F83" t="n">
-        <v>24261.49496268244</v>
+        <v>21809.66119904089</v>
       </c>
       <c r="G83" t="n">
-        <v>12658.77970472523</v>
+        <v>11642.02096615557</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>14889380</v>
+        <v>15389344</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1089378</v>
+        <v>1088915</v>
       </c>
       <c r="E84" t="n">
-        <v>4218308</v>
+        <v>4216515</v>
       </c>
       <c r="F84" t="n">
-        <v>1011.741792229527</v>
+        <v>1100.093011307549</v>
       </c>
       <c r="G84" t="n">
-        <v>1857.534465275419</v>
+        <v>1837.691298552615</v>
       </c>
       <c r="H84" t="n">
         <v>0.47</v>
       </c>
       <c r="I84" t="n">
-        <v>314759</v>
+        <v>315060</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>121374137</v>
+        <v>120492108</v>
       </c>
       <c r="E85" t="n">
-        <v>465610725</v>
+        <v>462227122</v>
       </c>
       <c r="F85" t="n">
-        <v>76200.19241315505</v>
+        <v>81167.99827422037</v>
       </c>
       <c r="G85" t="n">
-        <v>83963.87928122195</v>
+        <v>83142.62890194036</v>
       </c>
       <c r="H85" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I85" t="n">
-        <v>39753350</v>
+        <v>39593427</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5083845</v>
+        <v>5095605</v>
       </c>
       <c r="E86" t="n">
-        <v>18891664</v>
+        <v>18935362</v>
       </c>
       <c r="F86" t="n">
-        <v>628.8653264539744</v>
+        <v>628.8217161324045</v>
       </c>
       <c r="G86" t="n">
-        <v>76.01400922581452</v>
+        <v>53.05795483584836</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>87664</v>
+        <v>88058</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35185142</v>
+        <v>35334118</v>
       </c>
       <c r="F87" t="n">
-        <v>5731.073858964844</v>
+        <v>5165.829417709469</v>
       </c>
       <c r="G87" t="n">
-        <v>2383.482836467106</v>
+        <v>2371.63671365837</v>
       </c>
       <c r="H87" t="n">
         <v>0.2</v>
       </c>
       <c r="I87" t="n">
-        <v>7573620</v>
+        <v>7596438</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24126452</v>
+        <v>23923213</v>
       </c>
       <c r="F88" t="n">
-        <v>960.3214244941125</v>
+        <v>944.8836306164428</v>
       </c>
       <c r="G88" t="n">
-        <v>847.3313537710989</v>
+        <v>829.0677149741512</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I88" t="n">
-        <v>18331.62</v>
+        <v>17577.53</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87537016</v>
+        <v>87552617</v>
       </c>
       <c r="E89" t="n">
-        <v>323574835</v>
+        <v>323631757</v>
       </c>
       <c r="F89" t="n">
-        <v>992.1060687739013</v>
+        <v>1158.222012007544</v>
       </c>
       <c r="G89" t="n">
-        <v>798.5869912673015</v>
+        <v>1109.07411527158</v>
       </c>
       <c r="H89" t="n">
-        <v>2.02</v>
+        <v>0.89</v>
       </c>
       <c r="I89" t="n">
-        <v>236682</v>
+        <v>240788</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19448634</v>
+        <v>19016602</v>
       </c>
       <c r="E90" t="n">
-        <v>19448634</v>
+        <v>19016602</v>
       </c>
       <c r="F90" t="n">
-        <v>1670.542284155683</v>
+        <v>2444.358094218862</v>
       </c>
       <c r="G90" t="n">
-        <v>3916.420849354568</v>
+        <v>3625.312267637938</v>
       </c>
       <c r="H90" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="n">
-        <v>7199935</v>
+        <v>7156813</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3806074</v>
+        <v>3811035</v>
       </c>
       <c r="E91" t="n">
-        <v>8296708</v>
+        <v>8307521</v>
       </c>
       <c r="F91" t="n">
-        <v>2017.464687258584</v>
+        <v>1883.469175083119</v>
       </c>
       <c r="G91" t="n">
-        <v>1135.232719316499</v>
+        <v>1078.564832984938</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>2006880</v>
+        <v>2011373</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>474537280</v>
+        <v>465530434</v>
       </c>
       <c r="E92" t="n">
-        <v>1651824777</v>
+        <v>1620472698</v>
       </c>
       <c r="F92" t="n">
-        <v>69768.75099257838</v>
+        <v>68492.53458759659</v>
       </c>
       <c r="G92" t="n">
-        <v>65807.98641982496</v>
+        <v>64541.74015854731</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>46215929</v>
+        <v>46531506</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2390501</v>
+        <v>2381853</v>
       </c>
       <c r="E93" t="n">
-        <v>9562005</v>
+        <v>9527410</v>
       </c>
       <c r="F93" t="n">
-        <v>1084.306980990337</v>
+        <v>573.2703936450171</v>
       </c>
       <c r="G93" t="n">
-        <v>2611.831627054395</v>
+        <v>2986.357624422136</v>
       </c>
       <c r="H93" t="n">
         <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>7461467</v>
+        <v>7493492</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212201081</v>
+        <v>211601755</v>
       </c>
       <c r="E94" t="n">
-        <v>652438467</v>
+        <v>650595768</v>
       </c>
       <c r="F94" t="n">
-        <v>89219.67586654449</v>
+        <v>62327.35428478225</v>
       </c>
       <c r="G94" t="n">
-        <v>98960.91231088806</v>
+        <v>72235.46625514912</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I94" t="n">
-        <v>21721728</v>
+        <v>26607561</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>137247842</v>
+        <v>135333226</v>
       </c>
       <c r="E95" t="n">
-        <v>358556179</v>
+        <v>353554299</v>
       </c>
       <c r="F95" t="n">
-        <v>30714.31238940135</v>
+        <v>27923.8154413595</v>
       </c>
       <c r="G95" t="n">
-        <v>31751.594097398</v>
+        <v>29718.6571976946</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I95" t="n">
-        <v>9438680</v>
+        <v>9485120</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>382399844</v>
+        <v>380854485</v>
       </c>
       <c r="E96" t="n">
-        <v>2185141967</v>
+        <v>2176311343</v>
       </c>
       <c r="F96" t="n">
-        <v>25795.80821211169</v>
+        <v>22999.38652671795</v>
       </c>
       <c r="G96" t="n">
-        <v>36861.98868893004</v>
+        <v>37321.10624092586</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>57342998</v>
+        <v>58557778</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>593409668</v>
+        <v>585974303</v>
       </c>
       <c r="E2" t="n">
-        <v>1151540835</v>
+        <v>1137114621</v>
       </c>
       <c r="F2" t="n">
-        <v>25267.31712605188</v>
+        <v>21322.55080907794</v>
       </c>
       <c r="G2" t="n">
-        <v>22494.20046487613</v>
+        <v>27310.96284878545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>42351169</v>
+        <v>45711505</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1486767</v>
+        <v>1477506</v>
       </c>
       <c r="E3" t="n">
-        <v>4805841</v>
+        <v>4775907</v>
       </c>
       <c r="F3" t="n">
-        <v>1848.802246105409</v>
+        <v>1210.299776650303</v>
       </c>
       <c r="G3" t="n">
-        <v>495.0032491153471</v>
+        <v>446.7929060407271</v>
       </c>
       <c r="H3" t="n">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="I3" t="n">
-        <v>222073</v>
+        <v>222566</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>241974007</v>
+        <v>242443299</v>
       </c>
       <c r="E4" t="n">
-        <v>1517384985</v>
+        <v>1520327852</v>
       </c>
       <c r="F4" t="n">
-        <v>105394.5379597392</v>
+        <v>106653.371660908</v>
       </c>
       <c r="G4" t="n">
-        <v>104585.1941559675</v>
+        <v>107800.9107941387</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>26273691</v>
+        <v>24959240</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140336257</v>
+        <v>139469578</v>
       </c>
       <c r="E5" t="n">
-        <v>155514504</v>
+        <v>154554089</v>
       </c>
       <c r="F5" t="n">
-        <v>6122.296378407217</v>
+        <v>5337.549456819043</v>
       </c>
       <c r="G5" t="n">
-        <v>7137.543133800258</v>
+        <v>10081.99837409415</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>51268551</v>
+        <v>52581865</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>672053</v>
+        <v>681706</v>
       </c>
       <c r="E6" t="n">
-        <v>13056116</v>
+        <v>13243651</v>
       </c>
       <c r="F6" t="n">
-        <v>366.0263432104217</v>
+        <v>622.8214218780555</v>
       </c>
       <c r="G6" t="n">
-        <v>190.374470115906</v>
+        <v>248.6429559461779</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>22173</v>
+        <v>23125</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>488257610</v>
+        <v>495237660</v>
       </c>
       <c r="E7" t="n">
-        <v>488257615</v>
+        <v>495237660</v>
       </c>
       <c r="F7" t="n">
-        <v>33790.31156857044</v>
+        <v>51064.07799043217</v>
       </c>
       <c r="G7" t="n">
-        <v>38355.86952433424</v>
+        <v>46812.72569759371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>75131780</v>
+        <v>76611947</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="E8" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="F8" t="n">
-        <v>1503.68277889038</v>
+        <v>1032.808174205059</v>
       </c>
       <c r="G8" t="n">
-        <v>883.8255414765679</v>
+        <v>1121.149947120824</v>
       </c>
       <c r="H8" t="n">
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>2171739</v>
+        <v>2247801</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2003140</v>
+        <v>2011492</v>
       </c>
       <c r="F9" t="n">
-        <v>371.2526969997262</v>
+        <v>100.7785453318713</v>
       </c>
       <c r="G9" t="n">
-        <v>1487.294806042268</v>
+        <v>3481.043220385264</v>
       </c>
       <c r="H9" t="n">
-        <v>2.57</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
-        <v>359551</v>
+        <v>304166</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1775208</v>
+        <v>1666286</v>
       </c>
       <c r="F10" t="n">
-        <v>224.6380067562318</v>
+        <v>198.1678120420072</v>
       </c>
       <c r="G10" t="n">
-        <v>239.8084273938054</v>
+        <v>230.9584535987674</v>
       </c>
       <c r="H10" t="n">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="I10" t="n">
-        <v>1140953</v>
+        <v>1227938</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107889308</v>
+        <v>108208252</v>
       </c>
       <c r="E11" t="n">
-        <v>203250668</v>
+        <v>203851519</v>
       </c>
       <c r="F11" t="n">
-        <v>1579.638226745793</v>
+        <v>1533.341366971257</v>
       </c>
       <c r="G11" t="n">
-        <v>1481.361623683635</v>
+        <v>1485.917698094511</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>4050138</v>
+        <v>4080332</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11830458</v>
+        <v>11870536</v>
       </c>
       <c r="E12" t="n">
-        <v>29443871</v>
+        <v>29543616</v>
       </c>
       <c r="F12" t="n">
-        <v>134.4473664789048</v>
+        <v>98.82839528569728</v>
       </c>
       <c r="G12" t="n">
-        <v>4311.858759748859</v>
+        <v>4607.113030931793</v>
       </c>
       <c r="H12" t="n">
-        <v>1.14</v>
+        <v>0.31</v>
       </c>
       <c r="I12" t="n">
-        <v>1523532</v>
+        <v>1529765</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107859319</v>
+        <v>107526484</v>
       </c>
       <c r="E13" t="n">
-        <v>419315932</v>
+        <v>417997839</v>
       </c>
       <c r="F13" t="n">
-        <v>19684.47481815122</v>
+        <v>10026.46762436438</v>
       </c>
       <c r="G13" t="n">
-        <v>12986.41538262308</v>
+        <v>27817.42469822403</v>
       </c>
       <c r="H13" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>18846303</v>
+        <v>11837930</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4768213</v>
+        <v>4797946</v>
       </c>
       <c r="E14" t="n">
-        <v>7019067</v>
+        <v>7062836</v>
       </c>
       <c r="F14" t="n">
-        <v>341.5966660555892</v>
+        <v>5.503449234031304</v>
       </c>
       <c r="G14" t="n">
-        <v>21.15316290274285</v>
+        <v>44.7455611651275</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="I14" t="n">
-        <v>556592</v>
+        <v>561800</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="E15" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="F15" t="n">
-        <v>43767.57522975287</v>
+        <v>42380.24927448805</v>
       </c>
       <c r="G15" t="n">
-        <v>62932.37339655711</v>
+        <v>79411.97121701422</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>92158221</v>
+        <v>94771875</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63995135</v>
+        <v>63363251</v>
       </c>
       <c r="E16" t="n">
-        <v>328180181</v>
+        <v>324939751</v>
       </c>
       <c r="F16" t="n">
-        <v>16128.90926338603</v>
+        <v>17080.05691397486</v>
       </c>
       <c r="G16" t="n">
-        <v>13094.11255111037</v>
+        <v>17459.00012402691</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>27492877</v>
+        <v>27472952</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="E17" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="F17" t="n">
-        <v>56665.89589465382</v>
+        <v>59320.21436269419</v>
       </c>
       <c r="G17" t="n">
-        <v>58715.2626968707</v>
+        <v>47977.06905600301</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>29707503</v>
+        <v>25725047</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2558127</v>
+        <v>2570915</v>
       </c>
       <c r="E18" t="n">
-        <v>6540073</v>
+        <v>6572768</v>
       </c>
       <c r="F18" t="n">
-        <v>980.946401685634</v>
+        <v>933.130676787452</v>
       </c>
       <c r="G18" t="n">
-        <v>953.5849655390873</v>
+        <v>1062.370941376239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>81758</v>
+        <v>82117</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81654224</v>
+        <v>81515555</v>
       </c>
       <c r="E19" t="n">
-        <v>228441594</v>
+        <v>228039726</v>
       </c>
       <c r="F19" t="n">
-        <v>21687.67711763819</v>
+        <v>20381.58687722441</v>
       </c>
       <c r="G19" t="n">
-        <v>13856.8794089219</v>
+        <v>21028.36548882689</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>58809485</v>
+        <v>53857158</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1595435</v>
+        <v>1598253</v>
       </c>
       <c r="E20" t="n">
-        <v>9160391</v>
+        <v>9176570</v>
       </c>
       <c r="F20" t="n">
-        <v>45.26647389505066</v>
+        <v>54.10466168601748</v>
       </c>
       <c r="G20" t="n">
-        <v>727.3208789245042</v>
+        <v>794.6025314125069</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="I20" t="n">
-        <v>244191</v>
+        <v>244705</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>160678</v>
+        <v>162969</v>
       </c>
       <c r="E21" t="n">
-        <v>1085080</v>
+        <v>1100549</v>
       </c>
       <c r="F21" t="n">
-        <v>5.754332012928277</v>
+        <v>5.442712577165252</v>
       </c>
       <c r="G21" t="n">
-        <v>6.111854568525406</v>
+        <v>42.82727625270821</v>
       </c>
       <c r="H21" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="I21" t="n">
-        <v>3112028</v>
+        <v>3158314</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>246012</v>
+        <v>246036</v>
       </c>
       <c r="F22" t="n">
-        <v>158.5086865066839</v>
+        <v>158.4405987591547</v>
       </c>
       <c r="G22" t="n">
-        <v>218.3724841354677</v>
+        <v>250.6567328149863</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3502.35</v>
+        <v>3481.06</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83483591</v>
+        <v>83433043</v>
       </c>
       <c r="E23" t="n">
-        <v>174056583</v>
+        <v>173951194</v>
       </c>
       <c r="F23" t="n">
-        <v>26080.023730058</v>
+        <v>23693.33038519551</v>
       </c>
       <c r="G23" t="n">
-        <v>39394.59986470344</v>
+        <v>48608.72900328047</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>69224503</v>
+        <v>70157536</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>196452022</v>
+        <v>194781492</v>
       </c>
       <c r="E24" t="n">
-        <v>682492079</v>
+        <v>676688507</v>
       </c>
       <c r="F24" t="n">
-        <v>61361.25185356009</v>
+        <v>62709.13311939251</v>
       </c>
       <c r="G24" t="n">
-        <v>62007.13566658393</v>
+        <v>65309.0212875522</v>
       </c>
       <c r="H24" t="n">
         <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>44557664</v>
+        <v>40694719</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109492732</v>
+        <v>109683422</v>
       </c>
       <c r="E25" t="n">
-        <v>464525152</v>
+        <v>465285343</v>
       </c>
       <c r="F25" t="n">
-        <v>16598.28146749881</v>
+        <v>16126.20313901896</v>
       </c>
       <c r="G25" t="n">
-        <v>15449.40145135482</v>
+        <v>17343.42697585488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>14920699</v>
+        <v>15289405</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5648799</v>
+        <v>5487565</v>
       </c>
       <c r="E26" t="n">
-        <v>7666420</v>
+        <v>7447342</v>
       </c>
       <c r="F26" t="n">
-        <v>972.0784388066177</v>
+        <v>255.9600463202185</v>
       </c>
       <c r="G26" t="n">
-        <v>799.7949867664694</v>
+        <v>2817.638000199878</v>
       </c>
       <c r="H26" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I26" t="n">
-        <v>5134750</v>
+        <v>5340924</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>547755</v>
+        <v>534985</v>
       </c>
       <c r="E27" t="n">
-        <v>6643737</v>
+        <v>6488851</v>
       </c>
       <c r="F27" t="n">
-        <v>714.5712591410348</v>
+        <v>71.04395761125217</v>
       </c>
       <c r="G27" t="n">
-        <v>195.5051782500755</v>
+        <v>634.5043692577806</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2832271</v>
+        <v>2851872</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24628976</v>
+        <v>24928580</v>
       </c>
       <c r="E28" t="n">
-        <v>34804714</v>
+        <v>35228103</v>
       </c>
       <c r="F28" t="n">
-        <v>404.1956682097529</v>
+        <v>473.1329730718591</v>
       </c>
       <c r="G28" t="n">
-        <v>8797.91855134519</v>
+        <v>162.4219797970578</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="I28" t="n">
-        <v>121164</v>
+        <v>140899</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1356644231</v>
+        <v>1376156004</v>
       </c>
       <c r="E29" t="n">
-        <v>6505386922</v>
+        <v>6598949869</v>
       </c>
       <c r="F29" t="n">
-        <v>87478.04711713886</v>
+        <v>111173.8584291823</v>
       </c>
       <c r="G29" t="n">
-        <v>140344.6931116446</v>
+        <v>143599.1941532884</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>463734914</v>
+        <v>477944136</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>258233724</v>
+        <v>258223292</v>
       </c>
       <c r="E30" t="n">
-        <v>1114680107</v>
+        <v>1114635077</v>
       </c>
       <c r="F30" t="n">
-        <v>86243.86398448546</v>
+        <v>129695.1382305424</v>
       </c>
       <c r="G30" t="n">
-        <v>118880.1626754308</v>
+        <v>132033.178112766</v>
       </c>
       <c r="H30" t="n">
         <v>0.18</v>
       </c>
       <c r="I30" t="n">
-        <v>138768489</v>
+        <v>142757805</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5313907</v>
+        <v>5322116</v>
       </c>
       <c r="E31" t="n">
-        <v>5319921</v>
+        <v>5328139</v>
       </c>
       <c r="F31" t="n">
-        <v>159.3256759258266</v>
+        <v>113.4187253147033</v>
       </c>
       <c r="G31" t="n">
-        <v>155.9396421214476</v>
+        <v>156.4697680938886</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>145590</v>
+        <v>146279</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15736754</v>
+        <v>15638488</v>
       </c>
       <c r="E32" t="n">
-        <v>39341885</v>
+        <v>39096220</v>
       </c>
       <c r="F32" t="n">
-        <v>2370.446963245091</v>
+        <v>2379.300073207064</v>
       </c>
       <c r="G32" t="n">
-        <v>4944.347481804876</v>
+        <v>4488.924188354983</v>
       </c>
       <c r="H32" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I32" t="n">
-        <v>4671258</v>
+        <v>4813039</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19496859</v>
+        <v>19509708</v>
       </c>
       <c r="F33" t="n">
-        <v>2091.205138108497</v>
+        <v>811.1851928398436</v>
       </c>
       <c r="G33" t="n">
-        <v>2414.002736321921</v>
+        <v>2137.590374134103</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>70590</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4179716</v>
+        <v>4155014</v>
       </c>
       <c r="E34" t="n">
-        <v>12038959</v>
+        <v>11967808</v>
       </c>
       <c r="F34" t="n">
-        <v>1424.511295255953</v>
+        <v>591.2082573144057</v>
       </c>
       <c r="G34" t="n">
-        <v>963.7141881808116</v>
+        <v>598.2005392747557</v>
       </c>
       <c r="H34" t="n">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="I34" t="n">
-        <v>500773</v>
+        <v>494017</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1560253</v>
+        <v>1523583</v>
       </c>
       <c r="F35" t="n">
-        <v>114.1499428088123</v>
+        <v>241.7944665094579</v>
       </c>
       <c r="G35" t="n">
-        <v>54.31714848957669</v>
+        <v>311.2385546430842</v>
       </c>
       <c r="H35" t="n">
-        <v>0.65</v>
+        <v>1.32</v>
       </c>
       <c r="I35" t="n">
-        <v>8242.42</v>
+        <v>7609.1</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13759997</v>
+        <v>14146133</v>
       </c>
       <c r="E36" t="n">
-        <v>66641860</v>
+        <v>68511978</v>
       </c>
       <c r="F36" t="n">
-        <v>6563.948977097621</v>
+        <v>4335.845976865195</v>
       </c>
       <c r="G36" t="n">
-        <v>5022.690277919864</v>
+        <v>5966.956394972261</v>
       </c>
       <c r="H36" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="I36" t="n">
-        <v>5286228</v>
+        <v>5438590</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1265706</v>
+        <v>1247456</v>
       </c>
       <c r="E37" t="n">
-        <v>8284009</v>
+        <v>8164567</v>
       </c>
       <c r="F37" t="n">
-        <v>439.0459973208447</v>
+        <v>6.882034698718784</v>
       </c>
       <c r="G37" t="n">
-        <v>318.9807862723523</v>
+        <v>737.526489012505</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="I37" t="n">
-        <v>466658</v>
+        <v>390245</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1834959821</v>
+        <v>1843558634</v>
       </c>
       <c r="F38" t="n">
-        <v>77004.71157457741</v>
+        <v>70470.06845374545</v>
       </c>
       <c r="G38" t="n">
-        <v>67119.22175318628</v>
+        <v>73703.13685294731</v>
       </c>
       <c r="H38" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I38" t="n">
-        <v>30285948</v>
+        <v>30566777</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29364650</v>
+        <v>29417710</v>
       </c>
       <c r="E39" t="n">
-        <v>91432099</v>
+        <v>91597310</v>
       </c>
       <c r="F39" t="n">
-        <v>3039.25371842032</v>
+        <v>2639.329978382831</v>
       </c>
       <c r="G39" t="n">
-        <v>10279.45340241792</v>
+        <v>13962.74571496314</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="I39" t="n">
-        <v>10320081</v>
+        <v>10295982</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>190422773</v>
+        <v>190925384</v>
       </c>
       <c r="E40" t="n">
-        <v>1078290743</v>
+        <v>1081136838</v>
       </c>
       <c r="F40" t="n">
-        <v>17146.98656403556</v>
+        <v>37505.96436247747</v>
       </c>
       <c r="G40" t="n">
-        <v>51464.82131972218</v>
+        <v>69528.12530235751</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I40" t="n">
-        <v>84210591</v>
+        <v>85814788</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>122487304</v>
+        <v>123526834</v>
       </c>
       <c r="E41" t="n">
-        <v>907313360</v>
+        <v>915013584</v>
       </c>
       <c r="F41" t="n">
-        <v>62360.43090338503</v>
+        <v>88178.39747312435</v>
       </c>
       <c r="G41" t="n">
-        <v>194857.0716928875</v>
+        <v>198939.4255763144</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="I41" t="n">
-        <v>25301989</v>
+        <v>26321780</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30271408</v>
+        <v>30260025</v>
       </c>
       <c r="E42" t="n">
-        <v>143622928</v>
+        <v>143568921</v>
       </c>
       <c r="F42" t="n">
-        <v>3242.846577444264</v>
+        <v>4491.028224137637</v>
       </c>
       <c r="G42" t="n">
-        <v>8370.605526456087</v>
+        <v>8741.637024629823</v>
       </c>
       <c r="H42" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>725442</v>
+        <v>722845</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3326946</v>
+        <v>3267202</v>
       </c>
       <c r="E43" t="n">
-        <v>7768972</v>
+        <v>7629461</v>
       </c>
       <c r="F43" t="n">
-        <v>1854.935715120246</v>
+        <v>1118.228053084036</v>
       </c>
       <c r="G43" t="n">
-        <v>1817.641129242558</v>
+        <v>2088.446431280597</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08</v>
+        <v>1.25</v>
       </c>
       <c r="I43" t="n">
-        <v>645888</v>
+        <v>631966</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>317455794</v>
+        <v>321245967</v>
       </c>
       <c r="E44" t="n">
-        <v>2856029172</v>
+        <v>2890127914</v>
       </c>
       <c r="F44" t="n">
-        <v>44873.38064336733</v>
+        <v>38321.81232070788</v>
       </c>
       <c r="G44" t="n">
-        <v>36365.97536443958</v>
+        <v>41734.84984446889</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I44" t="n">
-        <v>65306673</v>
+        <v>66134389</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628010</v>
+        <v>628776</v>
       </c>
       <c r="F45" t="n">
-        <v>457.0905315518719</v>
+        <v>855.1784046535525</v>
       </c>
       <c r="G45" t="n">
-        <v>804.9493934814334</v>
+        <v>224.4033571811069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>14772.99</v>
+        <v>15253.21</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1534048</v>
+        <v>1532570</v>
       </c>
       <c r="E46" t="n">
-        <v>12783733</v>
+        <v>12771420</v>
       </c>
       <c r="F46" t="n">
-        <v>1990.884511311671</v>
+        <v>2159.847873554557</v>
       </c>
       <c r="G46" t="n">
-        <v>220.2741961062125</v>
+        <v>175.0356720819509</v>
       </c>
       <c r="H46" t="n">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>29518</v>
+        <v>30221</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4771200</v>
+        <v>4758283</v>
       </c>
       <c r="E47" t="n">
-        <v>16856634</v>
+        <v>16810999</v>
       </c>
       <c r="F47" t="n">
-        <v>1295.634702431106</v>
+        <v>1518.102668343401</v>
       </c>
       <c r="G47" t="n">
-        <v>1026.003926048788</v>
+        <v>1048.329229856639</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>138732</v>
+        <v>145823</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46552584</v>
+        <v>46650773</v>
       </c>
       <c r="E48" t="n">
-        <v>269520224</v>
+        <v>270088697</v>
       </c>
       <c r="F48" t="n">
-        <v>16066.73589020487</v>
+        <v>15649.24402378742</v>
       </c>
       <c r="G48" t="n">
-        <v>10519.87359959838</v>
+        <v>10091.61078310143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>51598472</v>
+        <v>52195170</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2219049</v>
+        <v>2205229</v>
       </c>
       <c r="E49" t="n">
-        <v>12191836</v>
+        <v>12115906</v>
       </c>
       <c r="F49" t="n">
-        <v>346.2742657647751</v>
+        <v>267.1571572440269</v>
       </c>
       <c r="G49" t="n">
-        <v>1642.355516428427</v>
+        <v>854.4859174538234</v>
       </c>
       <c r="H49" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="I49" t="n">
-        <v>96166</v>
+        <v>65031</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13578115</v>
+        <v>13426390</v>
       </c>
       <c r="E50" t="n">
-        <v>13624323</v>
+        <v>13472081</v>
       </c>
       <c r="F50" t="n">
-        <v>4570.167892928317</v>
+        <v>3991.263413954104</v>
       </c>
       <c r="G50" t="n">
-        <v>9121.82543739687</v>
+        <v>9113.26225929509</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>6848656</v>
+        <v>6264595</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18871553</v>
+        <v>19608723</v>
       </c>
       <c r="E51" t="n">
-        <v>56580755</v>
+        <v>58790651</v>
       </c>
       <c r="F51" t="n">
-        <v>8304.388059871466</v>
+        <v>23838.74019347481</v>
       </c>
       <c r="G51" t="n">
-        <v>23468.21802027981</v>
+        <v>10763.15928886601</v>
       </c>
       <c r="H51" t="n">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
       <c r="I51" t="n">
-        <v>4384957</v>
+        <v>4371593</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15079335</v>
+        <v>15014626</v>
       </c>
       <c r="E52" t="n">
-        <v>92426205</v>
+        <v>92029581</v>
       </c>
       <c r="F52" t="n">
-        <v>2244.66866825485</v>
+        <v>2183.221169898992</v>
       </c>
       <c r="G52" t="n">
-        <v>6495.251584284472</v>
+        <v>8037.885148744158</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I52" t="n">
-        <v>12132352</v>
+        <v>12218928</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47587797</v>
+        <v>50695186</v>
       </c>
       <c r="E53" t="n">
-        <v>205003028</v>
+        <v>218389316</v>
       </c>
       <c r="F53" t="n">
-        <v>20374.00661949211</v>
+        <v>19413.73690629955</v>
       </c>
       <c r="G53" t="n">
-        <v>19944.05507309515</v>
+        <v>23341.01565192772</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>12156556</v>
+        <v>12754739</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1020173</v>
+        <v>1021236</v>
       </c>
       <c r="E54" t="n">
-        <v>2981788</v>
+        <v>2984894</v>
       </c>
       <c r="F54" t="n">
-        <v>9.064591786353363</v>
+        <v>78.49945384957384</v>
       </c>
       <c r="G54" t="n">
-        <v>933.3320149241704</v>
+        <v>522.6024341860233</v>
       </c>
       <c r="H54" t="n">
-        <v>1.31</v>
+        <v>0.98</v>
       </c>
       <c r="I54" t="n">
-        <v>12483.06</v>
+        <v>12924.07</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30879533</v>
+        <v>31035132</v>
       </c>
       <c r="E55" t="n">
-        <v>77863356</v>
+        <v>78255703</v>
       </c>
       <c r="F55" t="n">
-        <v>396.6720437674287</v>
+        <v>8587.366215310163</v>
       </c>
       <c r="G55" t="n">
-        <v>11911.66505003987</v>
+        <v>5050.496355295243</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="I55" t="n">
-        <v>5942549</v>
+        <v>6010016</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27069459</v>
+        <v>27217456</v>
       </c>
       <c r="E56" t="n">
-        <v>64213776</v>
+        <v>64564852</v>
       </c>
       <c r="F56" t="n">
-        <v>6398.496953167124</v>
+        <v>5537.193324815733</v>
       </c>
       <c r="G56" t="n">
-        <v>989.7904977745319</v>
+        <v>5097.693451861129</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>652738</v>
+        <v>661937</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12387063</v>
+        <v>12466318</v>
       </c>
       <c r="E57" t="n">
-        <v>18855904</v>
+        <v>18976548</v>
       </c>
       <c r="F57" t="n">
-        <v>4096.762712884576</v>
+        <v>4602.07314816823</v>
       </c>
       <c r="G57" t="n">
-        <v>3274.234649655046</v>
+        <v>6718.992140191861</v>
       </c>
       <c r="H57" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>657005</v>
+        <v>661158</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="E58" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="F58" t="n">
-        <v>44850.3807824442</v>
+        <v>45751.45282644044</v>
       </c>
       <c r="G58" t="n">
-        <v>72628.11447848266</v>
+        <v>74556.02283336873</v>
       </c>
       <c r="H58" t="n">
         <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>88747016</v>
+        <v>92611495</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11661240</v>
+        <v>11629469</v>
       </c>
       <c r="F59" t="n">
-        <v>599.4878946248502</v>
+        <v>38.8567211983147</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3883015344276565</v>
+        <v>71.58466007141466</v>
       </c>
       <c r="H59" t="n">
-        <v>0.26</v>
+        <v>1.29</v>
       </c>
       <c r="I59" t="n">
-        <v>92667</v>
+        <v>90381</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84605856</v>
+        <v>84534431</v>
       </c>
       <c r="E60" t="n">
-        <v>487535435</v>
+        <v>487123851</v>
       </c>
       <c r="F60" t="n">
-        <v>90101.58163755493</v>
+        <v>96735.2730997583</v>
       </c>
       <c r="G60" t="n">
-        <v>101031.4469859338</v>
+        <v>104402.6304492334</v>
       </c>
       <c r="H60" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>21130836</v>
+        <v>21086646</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9197709</v>
+        <v>9168833</v>
       </c>
       <c r="E61" t="n">
-        <v>9197709</v>
+        <v>9168833</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9.75</v>
+        <v>8.82</v>
       </c>
       <c r="I61" t="n">
-        <v>2911462</v>
+        <v>2946822</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28900450</v>
+        <v>28837252</v>
       </c>
       <c r="E62" t="n">
-        <v>129399171</v>
+        <v>129116205</v>
       </c>
       <c r="F62" t="n">
-        <v>28015.34116151892</v>
+        <v>27218.7114456384</v>
       </c>
       <c r="G62" t="n">
-        <v>20131.77199142371</v>
+        <v>18370.40265836487</v>
       </c>
       <c r="H62" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I62" t="n">
-        <v>13618403</v>
+        <v>14214043</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12782515</v>
+        <v>12895652</v>
       </c>
       <c r="E63" t="n">
-        <v>25547110</v>
+        <v>25773225</v>
       </c>
       <c r="F63" t="n">
-        <v>2277.493714740944</v>
+        <v>2217.254856460543</v>
       </c>
       <c r="G63" t="n">
-        <v>1813.048735530005</v>
+        <v>1808.244777713039</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>15987.13</v>
+        <v>16111.3</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1282540</v>
+        <v>1298458</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>130.7923767048002</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>118.6337989250126</v>
       </c>
       <c r="H64" t="n">
-        <v>5.49</v>
+        <v>2.44</v>
       </c>
       <c r="I64" t="n">
-        <v>60103</v>
+        <v>95754</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47690116</v>
+        <v>47936438</v>
       </c>
       <c r="E65" t="n">
-        <v>309257707</v>
+        <v>310855045</v>
       </c>
       <c r="F65" t="n">
-        <v>18229.78280728407</v>
+        <v>18296.60586580927</v>
       </c>
       <c r="G65" t="n">
-        <v>16103.00951905603</v>
+        <v>22435.59429809321</v>
       </c>
       <c r="H65" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>20548378</v>
+        <v>20998841</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4464291</v>
+        <v>4477607</v>
       </c>
       <c r="F66" t="n">
-        <v>233.5443147232996</v>
+        <v>167.5945883066776</v>
       </c>
       <c r="G66" t="n">
-        <v>1326.53401077704</v>
+        <v>1415.326688764124</v>
       </c>
       <c r="H66" t="n">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
       <c r="I66" t="n">
-        <v>218452</v>
+        <v>221153</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123022144</v>
+        <v>123816634</v>
       </c>
       <c r="E67" t="n">
-        <v>2037347465</v>
+        <v>2050504866</v>
       </c>
       <c r="F67" t="n">
-        <v>15873.51331101134</v>
+        <v>50571.00593582563</v>
       </c>
       <c r="G67" t="n">
-        <v>24016.81705219466</v>
+        <v>83669.85882793118</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>33724681</v>
+        <v>35140782</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22855035</v>
+        <v>22895800</v>
       </c>
       <c r="E68" t="n">
-        <v>136746267</v>
+        <v>136990175</v>
       </c>
       <c r="F68" t="n">
-        <v>40732.55169126148</v>
+        <v>42165.94244089597</v>
       </c>
       <c r="G68" t="n">
-        <v>10189.90132038696</v>
+        <v>44113.68672380846</v>
       </c>
       <c r="H68" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>16875442</v>
+        <v>17956077</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22426295</v>
+        <v>22700379</v>
       </c>
       <c r="E70" t="n">
-        <v>22426449</v>
+        <v>22700379</v>
       </c>
       <c r="F70" t="n">
-        <v>3204.389222891416</v>
+        <v>3984.071334162195</v>
       </c>
       <c r="G70" t="n">
-        <v>15691.43569842824</v>
+        <v>19569.46665773113</v>
       </c>
       <c r="H70" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2365738</v>
+        <v>2410483</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32416621</v>
+        <v>32312563</v>
       </c>
       <c r="E71" t="n">
-        <v>161773882</v>
+        <v>161254583</v>
       </c>
       <c r="F71" t="n">
-        <v>17108.75592544743</v>
+        <v>17833.69481943735</v>
       </c>
       <c r="G71" t="n">
-        <v>52111.52497824424</v>
+        <v>40105.935514584</v>
       </c>
       <c r="H71" t="n">
-        <v>1.24</v>
+        <v>0.62</v>
       </c>
       <c r="I71" t="n">
-        <v>13627194</v>
+        <v>13958239</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>160086</v>
+        <v>163063</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>22533</v>
+        <v>23577</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>289642099</v>
+        <v>290134678</v>
       </c>
       <c r="E73" t="n">
-        <v>535903935</v>
+        <v>536815318</v>
       </c>
       <c r="F73" t="n">
-        <v>8805.725053921858</v>
+        <v>16466.63778586927</v>
       </c>
       <c r="G73" t="n">
-        <v>14076.03063386991</v>
+        <v>36080.44495434757</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>17700762</v>
+        <v>17203376</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8597669</v>
+        <v>8988627</v>
       </c>
       <c r="E74" t="n">
-        <v>25488121</v>
+        <v>26647129</v>
       </c>
       <c r="F74" t="n">
-        <v>487.9641772824837</v>
+        <v>514.8218925022516</v>
       </c>
       <c r="G74" t="n">
-        <v>964.2444540569775</v>
+        <v>1341.74473716396</v>
       </c>
       <c r="H74" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="I74" t="n">
-        <v>6255564</v>
+        <v>6513175</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8224015</v>
+        <v>8219074</v>
       </c>
       <c r="E75" t="n">
-        <v>11717337</v>
+        <v>11710297</v>
       </c>
       <c r="F75" t="n">
-        <v>208.2562908436119</v>
+        <v>468.7700932352375</v>
       </c>
       <c r="G75" t="n">
-        <v>2065.522846747887</v>
+        <v>2932.598651059209</v>
       </c>
       <c r="H75" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I75" t="n">
-        <v>328147</v>
+        <v>307943</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15786655</v>
+        <v>16014575</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6785715785492098</v>
+        <v>162.3365668050129</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4562830178067636</v>
+        <v>0.2926408207050641</v>
       </c>
       <c r="H76" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="I76" t="n">
-        <v>1087744</v>
+        <v>1109796</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73968013</v>
+        <v>73363673</v>
       </c>
       <c r="E77" t="n">
-        <v>102418518</v>
+        <v>101582940</v>
       </c>
       <c r="F77" t="n">
-        <v>8597.532248190597</v>
+        <v>7443.57820310739</v>
       </c>
       <c r="G77" t="n">
-        <v>19434.39450073008</v>
+        <v>21922.20663276076</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>7278920</v>
+        <v>7270827</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6210773</v>
+        <v>6389724</v>
       </c>
       <c r="E78" t="n">
-        <v>6210773</v>
+        <v>6389724</v>
       </c>
       <c r="F78" t="n">
-        <v>22.8047558954358</v>
+        <v>77.29396276004395</v>
       </c>
       <c r="G78" t="n">
-        <v>171.9439412350773</v>
+        <v>127.6516055338258</v>
       </c>
       <c r="H78" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>1408620</v>
+        <v>1414972</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58797</v>
+        <v>57140</v>
       </c>
       <c r="E79" t="n">
-        <v>306777</v>
+        <v>298132</v>
       </c>
       <c r="F79" t="n">
-        <v>367.3834509682697</v>
+        <v>232.2125641164259</v>
       </c>
       <c r="G79" t="n">
-        <v>30.29508778572722</v>
+        <v>286.4773032866156</v>
       </c>
       <c r="H79" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="I79" t="n">
-        <v>202105</v>
+        <v>205011</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26095529</v>
+        <v>25342093</v>
       </c>
       <c r="F80" t="n">
-        <v>815.4464065559482</v>
+        <v>1776.880317332228</v>
       </c>
       <c r="G80" t="n">
-        <v>1863.486620728964</v>
+        <v>3382.890816545598</v>
       </c>
       <c r="H80" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I80" t="n">
-        <v>50923</v>
+        <v>50334</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>572880365</v>
+        <v>576484279</v>
       </c>
       <c r="E81" t="n">
-        <v>2218681129</v>
+        <v>2232638558</v>
       </c>
       <c r="F81" t="n">
-        <v>86365.88557981036</v>
+        <v>149987.0483140821</v>
       </c>
       <c r="G81" t="n">
-        <v>229926.1134046783</v>
+        <v>75185.34656908484</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>58065590</v>
+        <v>60336197</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7394233</v>
+        <v>7351490</v>
       </c>
       <c r="E82" t="n">
-        <v>10593663</v>
+        <v>10532414</v>
       </c>
       <c r="F82" t="n">
-        <v>1497.022462151787</v>
+        <v>1368.143910467348</v>
       </c>
       <c r="G82" t="n">
-        <v>1908.496604986916</v>
+        <v>3414.205257126503</v>
       </c>
       <c r="H82" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>177026</v>
+        <v>177503</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106115473</v>
+        <v>107909075</v>
       </c>
       <c r="E83" t="n">
-        <v>1004617801</v>
+        <v>1021598205</v>
       </c>
       <c r="F83" t="n">
-        <v>21809.66119904089</v>
+        <v>22079.49558632213</v>
       </c>
       <c r="G83" t="n">
-        <v>11642.02096615557</v>
+        <v>11884.76079253739</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>15389344</v>
+        <v>16068816</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1088915</v>
+        <v>1085600</v>
       </c>
       <c r="E84" t="n">
-        <v>4216515</v>
+        <v>4203680</v>
       </c>
       <c r="F84" t="n">
-        <v>1100.093011307549</v>
+        <v>1213.419765038028</v>
       </c>
       <c r="G84" t="n">
-        <v>1837.691298552615</v>
+        <v>1788.357325375558</v>
       </c>
       <c r="H84" t="n">
         <v>0.47</v>
       </c>
       <c r="I84" t="n">
-        <v>315060</v>
+        <v>316361</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120492108</v>
+        <v>119777990</v>
       </c>
       <c r="E85" t="n">
-        <v>462227122</v>
+        <v>459487650</v>
       </c>
       <c r="F85" t="n">
-        <v>81167.99827422037</v>
+        <v>81318.33975349655</v>
       </c>
       <c r="G85" t="n">
-        <v>83142.62890194036</v>
+        <v>76145.11225948378</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I85" t="n">
-        <v>39593427</v>
+        <v>39623860</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5095605</v>
+        <v>5120149</v>
       </c>
       <c r="E86" t="n">
-        <v>18935362</v>
+        <v>19026570</v>
       </c>
       <c r="F86" t="n">
-        <v>628.8217161324045</v>
+        <v>553.4422767198489</v>
       </c>
       <c r="G86" t="n">
-        <v>53.05795483584836</v>
+        <v>52.82830390652603</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>88058</v>
+        <v>91152</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35334118</v>
+        <v>35875685</v>
       </c>
       <c r="F87" t="n">
-        <v>5165.829417709469</v>
+        <v>5763.11531728322</v>
       </c>
       <c r="G87" t="n">
-        <v>2371.63671365837</v>
+        <v>2501.905818966492</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="I87" t="n">
-        <v>7596438</v>
+        <v>7926173</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23923213</v>
+        <v>23847643</v>
       </c>
       <c r="F88" t="n">
-        <v>944.8836306164428</v>
+        <v>1158.570559075326</v>
       </c>
       <c r="G88" t="n">
-        <v>829.0677149741512</v>
+        <v>722.4816498433048</v>
       </c>
       <c r="H88" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="I88" t="n">
-        <v>17577.53</v>
+        <v>13843.94</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87552617</v>
+        <v>88941865</v>
       </c>
       <c r="E89" t="n">
-        <v>323631757</v>
+        <v>328766581</v>
       </c>
       <c r="F89" t="n">
-        <v>1158.222012007544</v>
+        <v>992.1337730158601</v>
       </c>
       <c r="G89" t="n">
-        <v>1109.07411527158</v>
+        <v>1706.601406088683</v>
       </c>
       <c r="H89" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>240788</v>
+        <v>250771</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19016602</v>
+        <v>19335474</v>
       </c>
       <c r="E90" t="n">
-        <v>19016602</v>
+        <v>19335474</v>
       </c>
       <c r="F90" t="n">
-        <v>2444.358094218862</v>
+        <v>3185.80947117155</v>
       </c>
       <c r="G90" t="n">
-        <v>3625.312267637938</v>
+        <v>4262.06570285516</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I90" t="n">
-        <v>7156813</v>
+        <v>7196811</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3811035</v>
+        <v>3813944</v>
       </c>
       <c r="E91" t="n">
-        <v>8307521</v>
+        <v>8313863</v>
       </c>
       <c r="F91" t="n">
-        <v>1883.469175083119</v>
+        <v>1922.098813092169</v>
       </c>
       <c r="G91" t="n">
-        <v>1078.564832984938</v>
+        <v>1051.592991627442</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>2011373</v>
+        <v>2031342</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>465530434</v>
+        <v>469003399</v>
       </c>
       <c r="E92" t="n">
-        <v>1620472698</v>
+        <v>1632561801</v>
       </c>
       <c r="F92" t="n">
-        <v>68492.53458759659</v>
+        <v>117779.1838434859</v>
       </c>
       <c r="G92" t="n">
-        <v>64541.74015854731</v>
+        <v>160814.1231986955</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>46531506</v>
+        <v>46986117</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2381853</v>
+        <v>2355947</v>
       </c>
       <c r="E93" t="n">
-        <v>9527410</v>
+        <v>9423787</v>
       </c>
       <c r="F93" t="n">
-        <v>573.2703936450171</v>
+        <v>1008.71304083571</v>
       </c>
       <c r="G93" t="n">
-        <v>2986.357624422136</v>
+        <v>7586.712922909553</v>
       </c>
       <c r="H93" t="n">
-        <v>0.74</v>
+        <v>0.42</v>
       </c>
       <c r="I93" t="n">
-        <v>7493492</v>
+        <v>7460557</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>211601755</v>
+        <v>209509853</v>
       </c>
       <c r="E94" t="n">
-        <v>650595768</v>
+        <v>644163954</v>
       </c>
       <c r="F94" t="n">
-        <v>62327.35428478225</v>
+        <v>94396.40820078804</v>
       </c>
       <c r="G94" t="n">
-        <v>72235.46625514912</v>
+        <v>94956.21550303577</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>26607561</v>
+        <v>22415671</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>135333226</v>
+        <v>134899252</v>
       </c>
       <c r="E95" t="n">
-        <v>353554299</v>
+        <v>352420553</v>
       </c>
       <c r="F95" t="n">
-        <v>27923.8154413595</v>
+        <v>30066.71192685043</v>
       </c>
       <c r="G95" t="n">
-        <v>29718.6571976946</v>
+        <v>22430.6936837306</v>
       </c>
       <c r="H95" t="n">
         <v>0.06</v>
       </c>
       <c r="I95" t="n">
-        <v>9485120</v>
+        <v>9416461</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>380854485</v>
+        <v>380177802</v>
       </c>
       <c r="E96" t="n">
-        <v>2176311343</v>
+        <v>2172444583</v>
       </c>
       <c r="F96" t="n">
-        <v>22999.38652671795</v>
+        <v>23038.82032865251</v>
       </c>
       <c r="G96" t="n">
-        <v>37321.10624092586</v>
+        <v>43512.94629380981</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I96" t="n">
-        <v>58557778</v>
+        <v>60476037</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>585974303</v>
+        <v>581018232</v>
       </c>
       <c r="E2" t="n">
-        <v>1137114621</v>
+        <v>1127497495</v>
       </c>
       <c r="F2" t="n">
-        <v>21322.55080907794</v>
+        <v>17741.41356374564</v>
       </c>
       <c r="G2" t="n">
-        <v>27310.96284878545</v>
+        <v>37013.1989642474</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>45711505</v>
+        <v>46548806</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1477506</v>
+        <v>1446102</v>
       </c>
       <c r="E3" t="n">
-        <v>4775907</v>
+        <v>4674395</v>
       </c>
       <c r="F3" t="n">
-        <v>1210.299776650303</v>
+        <v>362.1377544562093</v>
       </c>
       <c r="G3" t="n">
-        <v>446.7929060407271</v>
+        <v>609.6673466748042</v>
       </c>
       <c r="H3" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>222566</v>
+        <v>222958</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242443299</v>
+        <v>244258272</v>
       </c>
       <c r="E4" t="n">
-        <v>1520327852</v>
+        <v>1531709292</v>
       </c>
       <c r="F4" t="n">
-        <v>106653.371660908</v>
+        <v>165109.9915829661</v>
       </c>
       <c r="G4" t="n">
-        <v>107800.9107941387</v>
+        <v>157769.9850022864</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>24959240</v>
+        <v>26209494</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139469578</v>
+        <v>138801697</v>
       </c>
       <c r="E5" t="n">
-        <v>154554089</v>
+        <v>153813972</v>
       </c>
       <c r="F5" t="n">
-        <v>5337.549456819043</v>
+        <v>6766.298126578392</v>
       </c>
       <c r="G5" t="n">
-        <v>10081.99837409415</v>
+        <v>9583.980574709765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>52581865</v>
+        <v>52429917</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>681706</v>
+        <v>681282</v>
       </c>
       <c r="E6" t="n">
-        <v>13243651</v>
+        <v>13235408</v>
       </c>
       <c r="F6" t="n">
-        <v>622.8214218780555</v>
+        <v>548.1965155117572</v>
       </c>
       <c r="G6" t="n">
-        <v>248.6429559461779</v>
+        <v>232.2665152051704</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>0.6</v>
       </c>
       <c r="I6" t="n">
-        <v>23125</v>
+        <v>21072</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>495237660</v>
+        <v>494510928</v>
       </c>
       <c r="E7" t="n">
-        <v>495237660</v>
+        <v>494510932</v>
       </c>
       <c r="F7" t="n">
-        <v>51064.07799043217</v>
+        <v>52262.76437443772</v>
       </c>
       <c r="G7" t="n">
-        <v>46812.72569759371</v>
+        <v>51288.84371952062</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>76611947</v>
+        <v>75790890</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4588896</v>
+        <v>4578449</v>
       </c>
       <c r="E8" t="n">
-        <v>4588896</v>
+        <v>4578449</v>
       </c>
       <c r="F8" t="n">
-        <v>1032.808174205059</v>
+        <v>1271.766280682391</v>
       </c>
       <c r="G8" t="n">
-        <v>1121.149947120824</v>
+        <v>1108.876911489765</v>
       </c>
       <c r="H8" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="I8" t="n">
-        <v>2247801</v>
+        <v>2266075</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2011492</v>
+        <v>1970615</v>
       </c>
       <c r="F9" t="n">
-        <v>100.7785453318713</v>
+        <v>533.0243701663837</v>
       </c>
       <c r="G9" t="n">
-        <v>3481.043220385264</v>
+        <v>2563.490723724768</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="I9" t="n">
-        <v>304166</v>
+        <v>307867</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1666286</v>
+        <v>2004266</v>
       </c>
       <c r="F10" t="n">
-        <v>198.1678120420072</v>
+        <v>248.5416998372665</v>
       </c>
       <c r="G10" t="n">
-        <v>230.9584535987674</v>
+        <v>321.173786247069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1227938</v>
+        <v>1307733</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108208252</v>
+        <v>108100267</v>
       </c>
       <c r="E11" t="n">
-        <v>203851519</v>
+        <v>203648088</v>
       </c>
       <c r="F11" t="n">
-        <v>1533.341366971257</v>
+        <v>1455.875928258623</v>
       </c>
       <c r="G11" t="n">
-        <v>1485.917698094511</v>
+        <v>1451.417553666065</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I11" t="n">
-        <v>4080332</v>
+        <v>4076738</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11870536</v>
+        <v>11905584</v>
       </c>
       <c r="E12" t="n">
-        <v>29543616</v>
+        <v>29630845</v>
       </c>
       <c r="F12" t="n">
-        <v>98.82839528569728</v>
+        <v>121.4870593172935</v>
       </c>
       <c r="G12" t="n">
-        <v>4607.113030931793</v>
+        <v>3420.409013897964</v>
       </c>
       <c r="H12" t="n">
-        <v>0.31</v>
+        <v>1.37</v>
       </c>
       <c r="I12" t="n">
-        <v>1529765</v>
+        <v>1525854</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107526484</v>
+        <v>108023865</v>
       </c>
       <c r="E13" t="n">
-        <v>417997839</v>
+        <v>419915893</v>
       </c>
       <c r="F13" t="n">
-        <v>10026.46762436438</v>
+        <v>9958.870031853603</v>
       </c>
       <c r="G13" t="n">
-        <v>27817.42469822403</v>
+        <v>28201.33452787569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>11837930</v>
+        <v>12446636</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4797946</v>
+        <v>4631684</v>
       </c>
       <c r="E14" t="n">
-        <v>7062836</v>
+        <v>6818090</v>
       </c>
       <c r="F14" t="n">
-        <v>5.503449234031304</v>
+        <v>0.1348044516312851</v>
       </c>
       <c r="G14" t="n">
-        <v>44.7455611651275</v>
+        <v>54.81517655703653</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>561800</v>
+        <v>556518</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137091387</v>
+        <v>135936708</v>
       </c>
       <c r="E15" t="n">
-        <v>137091387</v>
+        <v>135936708</v>
       </c>
       <c r="F15" t="n">
-        <v>42380.24927448805</v>
+        <v>52835.83965184478</v>
       </c>
       <c r="G15" t="n">
-        <v>79411.97121701422</v>
+        <v>71999.74227938005</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>94771875</v>
+        <v>89590140</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63363251</v>
+        <v>62947814</v>
       </c>
       <c r="E16" t="n">
-        <v>324939751</v>
+        <v>322809301</v>
       </c>
       <c r="F16" t="n">
-        <v>17080.05691397486</v>
+        <v>15018.19433051967</v>
       </c>
       <c r="G16" t="n">
-        <v>17459.00012402691</v>
+        <v>19756.16970078193</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>27472952</v>
+        <v>27277316</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249090612</v>
+        <v>248446912</v>
       </c>
       <c r="E17" t="n">
-        <v>249090612</v>
+        <v>248446912</v>
       </c>
       <c r="F17" t="n">
-        <v>59320.21436269419</v>
+        <v>68404.16487355293</v>
       </c>
       <c r="G17" t="n">
-        <v>47977.06905600301</v>
+        <v>47365.76926799007</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>25725047</v>
+        <v>25861049</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2570915</v>
+        <v>2572797</v>
       </c>
       <c r="E18" t="n">
-        <v>6572768</v>
+        <v>6577580</v>
       </c>
       <c r="F18" t="n">
-        <v>933.130676787452</v>
+        <v>953.9129521235099</v>
       </c>
       <c r="G18" t="n">
-        <v>1062.370941376239</v>
+        <v>1111.655598132442</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>82117</v>
+        <v>80711</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81515555</v>
+        <v>80685874</v>
       </c>
       <c r="E19" t="n">
-        <v>228039726</v>
+        <v>225730974</v>
       </c>
       <c r="F19" t="n">
-        <v>20381.58687722441</v>
+        <v>23035.59790553996</v>
       </c>
       <c r="G19" t="n">
-        <v>21028.36548882689</v>
+        <v>18524.3385047934</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>53857158</v>
+        <v>54160639</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1598253</v>
+        <v>1607656</v>
       </c>
       <c r="E20" t="n">
-        <v>9176570</v>
+        <v>9230563</v>
       </c>
       <c r="F20" t="n">
-        <v>54.10466168601748</v>
+        <v>140.181502857259</v>
       </c>
       <c r="G20" t="n">
-        <v>794.6025314125069</v>
+        <v>1072.526122464688</v>
       </c>
       <c r="H20" t="n">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="I20" t="n">
-        <v>244705</v>
+        <v>245349</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162969</v>
+        <v>160591</v>
       </c>
       <c r="E21" t="n">
-        <v>1100549</v>
+        <v>1084490</v>
       </c>
       <c r="F21" t="n">
-        <v>5.442712577165252</v>
+        <v>25.84065633924229</v>
       </c>
       <c r="G21" t="n">
-        <v>42.82727625270821</v>
+        <v>6.602481662362996</v>
       </c>
       <c r="H21" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="I21" t="n">
-        <v>3158314</v>
+        <v>3187875</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>246036</v>
+        <v>247481</v>
       </c>
       <c r="F22" t="n">
-        <v>158.4405987591547</v>
+        <v>158.5346522698991</v>
       </c>
       <c r="G22" t="n">
-        <v>250.6567328149863</v>
+        <v>67.78702090496051</v>
       </c>
       <c r="H22" t="n">
-        <v>1.82</v>
+        <v>3.64</v>
       </c>
       <c r="I22" t="n">
-        <v>3481.06</v>
+        <v>3784.06</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83433043</v>
+        <v>82313344</v>
       </c>
       <c r="E23" t="n">
-        <v>173951194</v>
+        <v>171616712</v>
       </c>
       <c r="F23" t="n">
-        <v>23693.33038519551</v>
+        <v>17345.90391521778</v>
       </c>
       <c r="G23" t="n">
-        <v>48608.72900328047</v>
+        <v>52788.71419309184</v>
       </c>
       <c r="H23" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>70157536</v>
+        <v>70794391</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194781492</v>
+        <v>193493590</v>
       </c>
       <c r="E24" t="n">
-        <v>676688507</v>
+        <v>672214219</v>
       </c>
       <c r="F24" t="n">
-        <v>62709.13311939251</v>
+        <v>63157.38339018176</v>
       </c>
       <c r="G24" t="n">
-        <v>65309.0212875522</v>
+        <v>60552.60771422634</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>40694719</v>
+        <v>40970278</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109683422</v>
+        <v>108140429</v>
       </c>
       <c r="E25" t="n">
-        <v>465285343</v>
+        <v>458707953</v>
       </c>
       <c r="F25" t="n">
-        <v>16126.20313901896</v>
+        <v>20378.87909917945</v>
       </c>
       <c r="G25" t="n">
-        <v>17343.42697585488</v>
+        <v>16476.53282824639</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I25" t="n">
-        <v>15289405</v>
+        <v>15143733</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5487565</v>
+        <v>5630694</v>
       </c>
       <c r="E26" t="n">
-        <v>7447342</v>
+        <v>7641494</v>
       </c>
       <c r="F26" t="n">
-        <v>255.9600463202185</v>
+        <v>702.6306429579724</v>
       </c>
       <c r="G26" t="n">
-        <v>2817.638000199878</v>
+        <v>730.1809285864491</v>
       </c>
       <c r="H26" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5340924</v>
+        <v>5501421</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>534985</v>
+        <v>536051</v>
       </c>
       <c r="E27" t="n">
-        <v>6488851</v>
+        <v>6501772</v>
       </c>
       <c r="F27" t="n">
-        <v>71.04395761125217</v>
+        <v>625.7520243507316</v>
       </c>
       <c r="G27" t="n">
-        <v>634.5043692577806</v>
+        <v>482.041769761732</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2851872</v>
+        <v>2868504</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24928580</v>
+        <v>24762291</v>
       </c>
       <c r="E28" t="n">
-        <v>35228103</v>
+        <v>34993109</v>
       </c>
       <c r="F28" t="n">
-        <v>473.1329730718591</v>
+        <v>232.1316607871016</v>
       </c>
       <c r="G28" t="n">
-        <v>162.4219797970578</v>
+        <v>91.39126733755961</v>
       </c>
       <c r="H28" t="n">
-        <v>3.27</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>140899</v>
+        <v>125486</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1376156004</v>
+        <v>1376498244</v>
       </c>
       <c r="E29" t="n">
-        <v>6598949869</v>
+        <v>6600590979</v>
       </c>
       <c r="F29" t="n">
-        <v>111173.8584291823</v>
+        <v>121656.5776185757</v>
       </c>
       <c r="G29" t="n">
-        <v>143599.1941532884</v>
+        <v>143200.3893043381</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>477944136</v>
+        <v>486436395</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>258223292</v>
+        <v>256721173</v>
       </c>
       <c r="E30" t="n">
-        <v>1114635077</v>
+        <v>1108151099</v>
       </c>
       <c r="F30" t="n">
-        <v>129695.1382305424</v>
+        <v>95106.52086574129</v>
       </c>
       <c r="G30" t="n">
-        <v>132033.178112766</v>
+        <v>117435.9393291574</v>
       </c>
       <c r="H30" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142757805</v>
+        <v>141909381</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5322116</v>
+        <v>5315073</v>
       </c>
       <c r="E31" t="n">
-        <v>5328139</v>
+        <v>5321088</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4187253147033</v>
+        <v>113.4194273964345</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4697680938886</v>
+        <v>156.4707366690983</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>146279</v>
+        <v>145612</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15638488</v>
+        <v>15613312</v>
       </c>
       <c r="E32" t="n">
-        <v>39096220</v>
+        <v>39033281</v>
       </c>
       <c r="F32" t="n">
-        <v>2379.300073207064</v>
+        <v>3422.665799233596</v>
       </c>
       <c r="G32" t="n">
-        <v>4488.924188354983</v>
+        <v>5277.612020649305</v>
       </c>
       <c r="H32" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>4813039</v>
+        <v>4884508</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19509708</v>
+        <v>19435133</v>
       </c>
       <c r="F33" t="n">
-        <v>811.1851928398436</v>
+        <v>504.5361332612999</v>
       </c>
       <c r="G33" t="n">
-        <v>2137.590374134103</v>
+        <v>1440.263023991732</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.03</v>
       </c>
       <c r="I33" t="n">
-        <v>61100</v>
+        <v>67224</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4155014</v>
+        <v>4143739</v>
       </c>
       <c r="E34" t="n">
-        <v>11967808</v>
+        <v>11934474</v>
       </c>
       <c r="F34" t="n">
-        <v>591.2082573144057</v>
+        <v>1113.234307710659</v>
       </c>
       <c r="G34" t="n">
-        <v>598.2005392747557</v>
+        <v>1810.459544388793</v>
       </c>
       <c r="H34" t="n">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>494017</v>
+        <v>490916</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1523583</v>
+        <v>1492316</v>
       </c>
       <c r="F35" t="n">
-        <v>241.7944665094579</v>
+        <v>142.304966485932</v>
       </c>
       <c r="G35" t="n">
-        <v>311.2385546430842</v>
+        <v>65.17117508371453</v>
       </c>
       <c r="H35" t="n">
-        <v>1.32</v>
+        <v>1.97</v>
       </c>
       <c r="I35" t="n">
-        <v>7609.1</v>
+        <v>7931.38</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14146133</v>
+        <v>13701332</v>
       </c>
       <c r="E36" t="n">
-        <v>68511978</v>
+        <v>66357736</v>
       </c>
       <c r="F36" t="n">
-        <v>4335.845976865195</v>
+        <v>2711.471039666634</v>
       </c>
       <c r="G36" t="n">
-        <v>5966.956394972261</v>
+        <v>8433.331796629511</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5438590</v>
+        <v>5540010</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1247456</v>
+        <v>1234594</v>
       </c>
       <c r="E37" t="n">
-        <v>8164567</v>
+        <v>8080386</v>
       </c>
       <c r="F37" t="n">
-        <v>6.882034698718784</v>
+        <v>19.2058533971353</v>
       </c>
       <c r="G37" t="n">
-        <v>737.526489012505</v>
+        <v>228.4460094450835</v>
       </c>
       <c r="H37" t="n">
-        <v>2.35</v>
+        <v>1.18</v>
       </c>
       <c r="I37" t="n">
-        <v>390245</v>
+        <v>342824</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1843558634</v>
+        <v>1837177035</v>
       </c>
       <c r="F38" t="n">
-        <v>70470.06845374545</v>
+        <v>77131.69256873033</v>
       </c>
       <c r="G38" t="n">
-        <v>73703.13685294731</v>
+        <v>75298.31755468894</v>
       </c>
       <c r="H38" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>30566777</v>
+        <v>30824268</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29417710</v>
+        <v>29709805</v>
       </c>
       <c r="E39" t="n">
-        <v>91597310</v>
+        <v>92506799</v>
       </c>
       <c r="F39" t="n">
-        <v>2639.329978382831</v>
+        <v>1880.572886107488</v>
       </c>
       <c r="G39" t="n">
-        <v>13962.74571496314</v>
+        <v>12586.68990901231</v>
       </c>
       <c r="H39" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I39" t="n">
-        <v>10295982</v>
+        <v>10564789</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>190925384</v>
+        <v>191110414</v>
       </c>
       <c r="E40" t="n">
-        <v>1081136838</v>
+        <v>1082184593</v>
       </c>
       <c r="F40" t="n">
-        <v>37505.96436247747</v>
+        <v>40883.07193929595</v>
       </c>
       <c r="G40" t="n">
-        <v>69528.12530235751</v>
+        <v>81155.26799191536</v>
       </c>
       <c r="H40" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>85814788</v>
+        <v>85869171</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123526834</v>
+        <v>122854097</v>
       </c>
       <c r="E41" t="n">
-        <v>915013584</v>
+        <v>910030351</v>
       </c>
       <c r="F41" t="n">
-        <v>88178.39747312435</v>
+        <v>87342.26068289406</v>
       </c>
       <c r="G41" t="n">
-        <v>198939.4255763144</v>
+        <v>182584.3947969966</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>26321780</v>
+        <v>26638017</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30260025</v>
+        <v>29921282</v>
       </c>
       <c r="E42" t="n">
-        <v>143568921</v>
+        <v>141936663</v>
       </c>
       <c r="F42" t="n">
-        <v>4491.028224137637</v>
+        <v>3957.312728624317</v>
       </c>
       <c r="G42" t="n">
-        <v>8741.637024629823</v>
+        <v>7912.435795048284</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="I42" t="n">
-        <v>722845</v>
+        <v>714912</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3267202</v>
+        <v>3259201</v>
       </c>
       <c r="E43" t="n">
-        <v>7629461</v>
+        <v>7610778</v>
       </c>
       <c r="F43" t="n">
-        <v>1118.228053084036</v>
+        <v>571.7786363629484</v>
       </c>
       <c r="G43" t="n">
-        <v>2088.446431280597</v>
+        <v>1344.5192402465</v>
       </c>
       <c r="H43" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="I43" t="n">
-        <v>631966</v>
+        <v>610787</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>321245967</v>
+        <v>320480016</v>
       </c>
       <c r="E44" t="n">
-        <v>2890127914</v>
+        <v>2883236947</v>
       </c>
       <c r="F44" t="n">
-        <v>38321.81232070788</v>
+        <v>18933.38863116035</v>
       </c>
       <c r="G44" t="n">
-        <v>41734.84984446889</v>
+        <v>25740.38476382206</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I44" t="n">
-        <v>66134389</v>
+        <v>67158608</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628776</v>
+        <v>623486</v>
       </c>
       <c r="F45" t="n">
-        <v>855.1784046535525</v>
+        <v>774.2194821526206</v>
       </c>
       <c r="G45" t="n">
-        <v>224.4033571811069</v>
+        <v>224.5041819729873</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>15253.21</v>
+        <v>16118.53</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1532570</v>
+        <v>1534336</v>
       </c>
       <c r="E46" t="n">
-        <v>12771420</v>
+        <v>12786136</v>
       </c>
       <c r="F46" t="n">
-        <v>2159.847873554557</v>
+        <v>1581.815308093007</v>
       </c>
       <c r="G46" t="n">
-        <v>175.0356720819509</v>
+        <v>444.3015649185122</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>30221</v>
+        <v>30467</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4758283</v>
+        <v>4717242</v>
       </c>
       <c r="E47" t="n">
-        <v>16810999</v>
+        <v>16666001</v>
       </c>
       <c r="F47" t="n">
-        <v>1518.102668343401</v>
+        <v>1170.678878099596</v>
       </c>
       <c r="G47" t="n">
-        <v>1048.329229856639</v>
+        <v>1197.151762220412</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>145823</v>
+        <v>152358</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46650773</v>
+        <v>46655497</v>
       </c>
       <c r="E48" t="n">
-        <v>270088697</v>
+        <v>270116052</v>
       </c>
       <c r="F48" t="n">
-        <v>15649.24402378742</v>
+        <v>15837.93721389588</v>
       </c>
       <c r="G48" t="n">
-        <v>10091.61078310143</v>
+        <v>9567.88557674599</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>52195170</v>
+        <v>51760532</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2205229</v>
+        <v>2198755</v>
       </c>
       <c r="E49" t="n">
-        <v>12115906</v>
+        <v>12080337</v>
       </c>
       <c r="F49" t="n">
-        <v>267.1571572440269</v>
+        <v>337.4716187665425</v>
       </c>
       <c r="G49" t="n">
-        <v>854.4859174538234</v>
+        <v>1544.810280430083</v>
       </c>
       <c r="H49" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I49" t="n">
-        <v>65031</v>
+        <v>63662</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13426390</v>
+        <v>13303870</v>
       </c>
       <c r="E50" t="n">
-        <v>13472081</v>
+        <v>13349144</v>
       </c>
       <c r="F50" t="n">
-        <v>3991.263413954104</v>
+        <v>3816.931673806434</v>
       </c>
       <c r="G50" t="n">
-        <v>9113.26225929509</v>
+        <v>3973.895579896232</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>6264595</v>
+        <v>6879357</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19608723</v>
+        <v>19396989</v>
       </c>
       <c r="E51" t="n">
-        <v>58790651</v>
+        <v>58157459</v>
       </c>
       <c r="F51" t="n">
-        <v>23838.74019347481</v>
+        <v>21966.15865761664</v>
       </c>
       <c r="G51" t="n">
-        <v>10763.15928886601</v>
+        <v>8787.717418962433</v>
       </c>
       <c r="H51" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="I51" t="n">
-        <v>4371593</v>
+        <v>4335043</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15014626</v>
+        <v>15065410</v>
       </c>
       <c r="E52" t="n">
-        <v>92029581</v>
+        <v>92340851</v>
       </c>
       <c r="F52" t="n">
-        <v>2183.221169898992</v>
+        <v>3991.894903721238</v>
       </c>
       <c r="G52" t="n">
-        <v>8037.885148744158</v>
+        <v>8185.487460801707</v>
       </c>
       <c r="H52" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>12218928</v>
+        <v>12257266</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50695186</v>
+        <v>50138929</v>
       </c>
       <c r="E53" t="n">
-        <v>218389316</v>
+        <v>215993025</v>
       </c>
       <c r="F53" t="n">
-        <v>19413.73690629955</v>
+        <v>19698.63372079297</v>
       </c>
       <c r="G53" t="n">
-        <v>23341.01565192772</v>
+        <v>23184.61692422352</v>
       </c>
       <c r="H53" t="n">
         <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>12754739</v>
+        <v>13086441</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1021236</v>
+        <v>1017221</v>
       </c>
       <c r="E54" t="n">
-        <v>2984894</v>
+        <v>2973160</v>
       </c>
       <c r="F54" t="n">
-        <v>78.49945384957384</v>
+        <v>75.80049477476685</v>
       </c>
       <c r="G54" t="n">
-        <v>522.6024341860233</v>
+        <v>815.2267844491842</v>
       </c>
       <c r="H54" t="n">
-        <v>0.98</v>
+        <v>1.64</v>
       </c>
       <c r="I54" t="n">
-        <v>12924.07</v>
+        <v>13139.27</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31035132</v>
+        <v>30843297</v>
       </c>
       <c r="E55" t="n">
-        <v>78255703</v>
+        <v>77771988</v>
       </c>
       <c r="F55" t="n">
-        <v>8587.366215310163</v>
+        <v>8377.008383303555</v>
       </c>
       <c r="G55" t="n">
-        <v>5050.496355295243</v>
+        <v>530.3053848662181</v>
       </c>
       <c r="H55" t="n">
-        <v>0.91</v>
+        <v>0.06</v>
       </c>
       <c r="I55" t="n">
-        <v>6010016</v>
+        <v>6057909</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27217456</v>
+        <v>27599688</v>
       </c>
       <c r="E56" t="n">
-        <v>64564852</v>
+        <v>65471578</v>
       </c>
       <c r="F56" t="n">
-        <v>5537.193324815733</v>
+        <v>1154.915628300043</v>
       </c>
       <c r="G56" t="n">
-        <v>5097.693451861129</v>
+        <v>5526.811804550439</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>661937</v>
+        <v>643634</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12466318</v>
+        <v>12455705</v>
       </c>
       <c r="E57" t="n">
-        <v>18976548</v>
+        <v>18960392</v>
       </c>
       <c r="F57" t="n">
-        <v>4602.07314816823</v>
+        <v>3866.330753889253</v>
       </c>
       <c r="G57" t="n">
-        <v>6718.992140191861</v>
+        <v>3048.142412807461</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="I57" t="n">
-        <v>661158</v>
+        <v>652562</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>288217214</v>
+        <v>285783967</v>
       </c>
       <c r="E58" t="n">
-        <v>288217214</v>
+        <v>285783967</v>
       </c>
       <c r="F58" t="n">
-        <v>45751.45282644044</v>
+        <v>27850.99464734144</v>
       </c>
       <c r="G58" t="n">
-        <v>74556.02283336873</v>
+        <v>68064.58729246468</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>92611495</v>
+        <v>90192433</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11629469</v>
+        <v>11642578</v>
       </c>
       <c r="F59" t="n">
-        <v>38.8567211983147</v>
+        <v>244.7729276276699</v>
       </c>
       <c r="G59" t="n">
-        <v>71.58466007141466</v>
+        <v>71.87948543309867</v>
       </c>
       <c r="H59" t="n">
         <v>1.29</v>
       </c>
       <c r="I59" t="n">
-        <v>90381</v>
+        <v>89217</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84534431</v>
+        <v>83677659</v>
       </c>
       <c r="E60" t="n">
-        <v>487123851</v>
+        <v>482186762</v>
       </c>
       <c r="F60" t="n">
-        <v>96735.2730997583</v>
+        <v>96682.2097029947</v>
       </c>
       <c r="G60" t="n">
-        <v>104402.6304492334</v>
+        <v>104045.7493514745</v>
       </c>
       <c r="H60" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>21086646</v>
+        <v>21246970</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9168833</v>
+        <v>9129448</v>
       </c>
       <c r="E61" t="n">
-        <v>9168833</v>
+        <v>9129448</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>8.82</v>
       </c>
       <c r="I61" t="n">
-        <v>2946822</v>
+        <v>2956369</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28837252</v>
+        <v>28912351</v>
       </c>
       <c r="E62" t="n">
-        <v>129116205</v>
+        <v>129452457</v>
       </c>
       <c r="F62" t="n">
-        <v>27218.7114456384</v>
+        <v>27396.76832629772</v>
       </c>
       <c r="G62" t="n">
-        <v>18370.40265836487</v>
+        <v>19498.69569448939</v>
       </c>
       <c r="H62" t="n">
         <v>0.77</v>
       </c>
       <c r="I62" t="n">
-        <v>14214043</v>
+        <v>14520001</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12895652</v>
+        <v>12927756</v>
       </c>
       <c r="E63" t="n">
-        <v>25773225</v>
+        <v>25837387</v>
       </c>
       <c r="F63" t="n">
-        <v>2217.254856460543</v>
+        <v>2228.990873216669</v>
       </c>
       <c r="G63" t="n">
-        <v>1808.244777713039</v>
+        <v>1705.688358364308</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>16111.3</v>
+        <v>16115.79</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1298458</v>
+        <v>1313226</v>
       </c>
       <c r="F64" t="n">
-        <v>130.7923767048002</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>118.6337989250126</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.44</v>
+        <v>6.71</v>
       </c>
       <c r="I64" t="n">
-        <v>95754</v>
+        <v>68799</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47936438</v>
+        <v>47448556</v>
       </c>
       <c r="E65" t="n">
-        <v>310855045</v>
+        <v>307691256</v>
       </c>
       <c r="F65" t="n">
-        <v>18296.60586580927</v>
+        <v>15773.69607821587</v>
       </c>
       <c r="G65" t="n">
-        <v>22435.59429809321</v>
+        <v>20491.35073406995</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="I65" t="n">
-        <v>20998841</v>
+        <v>21341687</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4477607</v>
+        <v>4494691</v>
       </c>
       <c r="F66" t="n">
-        <v>167.5945883066776</v>
+        <v>261.576245811603</v>
       </c>
       <c r="G66" t="n">
-        <v>1415.326688764124</v>
+        <v>29.4803440051362</v>
       </c>
       <c r="H66" t="n">
-        <v>0.88</v>
+        <v>1.23</v>
       </c>
       <c r="I66" t="n">
-        <v>221153</v>
+        <v>247576</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123816634</v>
+        <v>123631643</v>
       </c>
       <c r="E67" t="n">
-        <v>2050504866</v>
+        <v>2047441266</v>
       </c>
       <c r="F67" t="n">
-        <v>50571.00593582563</v>
+        <v>5619.341309332062</v>
       </c>
       <c r="G67" t="n">
-        <v>83669.85882793118</v>
+        <v>7284.450622706679</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="I67" t="n">
-        <v>35140782</v>
+        <v>35966465</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22895800</v>
+        <v>22653552</v>
       </c>
       <c r="E68" t="n">
-        <v>136990175</v>
+        <v>135540756</v>
       </c>
       <c r="F68" t="n">
-        <v>42165.94244089597</v>
+        <v>41478.2781013519</v>
       </c>
       <c r="G68" t="n">
-        <v>44113.68672380846</v>
+        <v>44990.57274434584</v>
       </c>
       <c r="H68" t="n">
         <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>17956077</v>
+        <v>18001711</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22700379</v>
+        <v>22688050</v>
       </c>
       <c r="E70" t="n">
-        <v>22700379</v>
+        <v>22688050</v>
       </c>
       <c r="F70" t="n">
-        <v>3984.071334162195</v>
+        <v>3516.057188685887</v>
       </c>
       <c r="G70" t="n">
-        <v>19569.46665773113</v>
+        <v>2783.649198320446</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2410483</v>
+        <v>2181801</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32312563</v>
+        <v>32054684</v>
       </c>
       <c r="E71" t="n">
-        <v>161254583</v>
+        <v>159967649</v>
       </c>
       <c r="F71" t="n">
-        <v>17833.69481943735</v>
+        <v>19498.71929563647</v>
       </c>
       <c r="G71" t="n">
-        <v>40105.935514584</v>
+        <v>51727.65222813396</v>
       </c>
       <c r="H71" t="n">
         <v>0.62</v>
       </c>
       <c r="I71" t="n">
-        <v>13958239</v>
+        <v>14024726</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>163063</v>
+        <v>151664</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>23577</v>
+        <v>30047</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>290134678</v>
+        <v>286836510</v>
       </c>
       <c r="E73" t="n">
-        <v>536815318</v>
+        <v>530712955</v>
       </c>
       <c r="F73" t="n">
-        <v>16466.63778586927</v>
+        <v>26314.04014956942</v>
       </c>
       <c r="G73" t="n">
-        <v>36080.44495434757</v>
+        <v>36832.47164608002</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I73" t="n">
-        <v>17203376</v>
+        <v>17507508</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8988627</v>
+        <v>8795279</v>
       </c>
       <c r="E74" t="n">
-        <v>26647129</v>
+        <v>26073944</v>
       </c>
       <c r="F74" t="n">
-        <v>514.8218925022516</v>
+        <v>461.9439962188047</v>
       </c>
       <c r="G74" t="n">
-        <v>1341.74473716396</v>
+        <v>1928.102023245016</v>
       </c>
       <c r="H74" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="I74" t="n">
-        <v>6513175</v>
+        <v>6439105</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8219074</v>
+        <v>8224425</v>
       </c>
       <c r="E75" t="n">
-        <v>11710297</v>
+        <v>11717922</v>
       </c>
       <c r="F75" t="n">
-        <v>468.7700932352375</v>
+        <v>182.6703812787374</v>
       </c>
       <c r="G75" t="n">
-        <v>2932.598651059209</v>
+        <v>2092.096033712306</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="I75" t="n">
-        <v>307943</v>
+        <v>313720</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16014575</v>
+        <v>15770265</v>
       </c>
       <c r="F76" t="n">
-        <v>162.3365668050129</v>
+        <v>672.7827486369792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2926408207050641</v>
+        <v>0.4390964581971358</v>
       </c>
       <c r="H76" t="n">
-        <v>1.26</v>
+        <v>0.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1109796</v>
+        <v>1110450</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73363673</v>
+        <v>73105119</v>
       </c>
       <c r="E77" t="n">
-        <v>101582940</v>
+        <v>101223396</v>
       </c>
       <c r="F77" t="n">
-        <v>7443.57820310739</v>
+        <v>8033.01311576647</v>
       </c>
       <c r="G77" t="n">
-        <v>21922.20663276076</v>
+        <v>18982.00065378594</v>
       </c>
       <c r="H77" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I77" t="n">
-        <v>7270827</v>
+        <v>7328421</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6389724</v>
+        <v>6319712</v>
       </c>
       <c r="E78" t="n">
-        <v>6389724</v>
+        <v>6319712</v>
       </c>
       <c r="F78" t="n">
-        <v>77.29396276004395</v>
+        <v>272.5871028011117</v>
       </c>
       <c r="G78" t="n">
-        <v>127.6516055338258</v>
+        <v>262.2873411676995</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I78" t="n">
-        <v>1414972</v>
+        <v>1441872</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>57140</v>
+        <v>57295</v>
       </c>
       <c r="E79" t="n">
-        <v>298132</v>
+        <v>298943</v>
       </c>
       <c r="F79" t="n">
-        <v>232.2125641164259</v>
+        <v>265.576123087552</v>
       </c>
       <c r="G79" t="n">
-        <v>286.4773032866156</v>
+        <v>66.16019908700983</v>
       </c>
       <c r="H79" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="I79" t="n">
-        <v>205011</v>
+        <v>206945</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25342093</v>
+        <v>25312524</v>
       </c>
       <c r="F80" t="n">
-        <v>1776.880317332228</v>
+        <v>1049.043700028909</v>
       </c>
       <c r="G80" t="n">
-        <v>3382.890816545598</v>
+        <v>2901.859544149503</v>
       </c>
       <c r="H80" t="n">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="I80" t="n">
-        <v>50334</v>
+        <v>51427</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>576484279</v>
+        <v>572957303</v>
       </c>
       <c r="E81" t="n">
-        <v>2232638558</v>
+        <v>2218979099</v>
       </c>
       <c r="F81" t="n">
-        <v>149987.0483140821</v>
+        <v>141999.5768592042</v>
       </c>
       <c r="G81" t="n">
-        <v>75185.34656908484</v>
+        <v>172488.3406131603</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I81" t="n">
-        <v>60336197</v>
+        <v>61019065</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7351490</v>
+        <v>7270633</v>
       </c>
       <c r="E82" t="n">
-        <v>10532414</v>
+        <v>10416552</v>
       </c>
       <c r="F82" t="n">
-        <v>1368.143910467348</v>
+        <v>1241.550929058065</v>
       </c>
       <c r="G82" t="n">
-        <v>3414.205257126503</v>
+        <v>3249.019468715332</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I82" t="n">
-        <v>177503</v>
+        <v>179221</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>107909075</v>
+        <v>106668954</v>
       </c>
       <c r="E83" t="n">
-        <v>1021598205</v>
+        <v>1009857716</v>
       </c>
       <c r="F83" t="n">
-        <v>22079.49558632213</v>
+        <v>23399.10689196444</v>
       </c>
       <c r="G83" t="n">
-        <v>11884.76079253739</v>
+        <v>24883.94327495866</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>16068816</v>
+        <v>16232893</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1085600</v>
+        <v>1080644</v>
       </c>
       <c r="E84" t="n">
-        <v>4203680</v>
+        <v>4184490</v>
       </c>
       <c r="F84" t="n">
-        <v>1213.419765038028</v>
+        <v>1146.50060268639</v>
       </c>
       <c r="G84" t="n">
-        <v>1788.357325375558</v>
+        <v>927.9716299516705</v>
       </c>
       <c r="H84" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>316361</v>
+        <v>315698</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>119777990</v>
+        <v>120865969</v>
       </c>
       <c r="E85" t="n">
-        <v>459487650</v>
+        <v>463661313</v>
       </c>
       <c r="F85" t="n">
-        <v>81318.33975349655</v>
+        <v>59110.24029675911</v>
       </c>
       <c r="G85" t="n">
-        <v>76145.11225948378</v>
+        <v>83866.01494079495</v>
       </c>
       <c r="H85" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>39623860</v>
+        <v>39635482</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5120149</v>
+        <v>5126188</v>
       </c>
       <c r="E86" t="n">
-        <v>19026570</v>
+        <v>19049010</v>
       </c>
       <c r="F86" t="n">
-        <v>553.4422767198489</v>
+        <v>562.4853906511598</v>
       </c>
       <c r="G86" t="n">
-        <v>52.82830390652603</v>
+        <v>52.82863092295967</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>91152</v>
+        <v>138603</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35875685</v>
+        <v>35969480</v>
       </c>
       <c r="F87" t="n">
-        <v>5763.11531728322</v>
+        <v>2761.63110291083</v>
       </c>
       <c r="G87" t="n">
-        <v>2501.905818966492</v>
+        <v>781.0612868673014</v>
       </c>
       <c r="H87" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="I87" t="n">
-        <v>7926173</v>
+        <v>8056846</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23847643</v>
+        <v>23731970</v>
       </c>
       <c r="F88" t="n">
-        <v>1158.570559075326</v>
+        <v>989.8210875707132</v>
       </c>
       <c r="G88" t="n">
-        <v>722.4816498433048</v>
+        <v>1036.361673183902</v>
       </c>
       <c r="H88" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>13843.94</v>
+        <v>10218.37</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88941865</v>
+        <v>89375347</v>
       </c>
       <c r="E89" t="n">
-        <v>328766581</v>
+        <v>330367977</v>
       </c>
       <c r="F89" t="n">
-        <v>992.1337730158601</v>
+        <v>1014.833052992988</v>
       </c>
       <c r="G89" t="n">
-        <v>1706.601406088683</v>
+        <v>1339.451910979784</v>
       </c>
       <c r="H89" t="n">
         <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>250771</v>
+        <v>271335</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19335474</v>
+        <v>18341999</v>
       </c>
       <c r="E90" t="n">
-        <v>19335474</v>
+        <v>18341999</v>
       </c>
       <c r="F90" t="n">
-        <v>3185.80947117155</v>
+        <v>2690.970292283279</v>
       </c>
       <c r="G90" t="n">
-        <v>4262.06570285516</v>
+        <v>3498.245804124625</v>
       </c>
       <c r="H90" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="I90" t="n">
-        <v>7196811</v>
+        <v>7269475</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3813944</v>
+        <v>3800413</v>
       </c>
       <c r="E91" t="n">
-        <v>8313863</v>
+        <v>8284366</v>
       </c>
       <c r="F91" t="n">
-        <v>1922.098813092169</v>
+        <v>1940.974648181976</v>
       </c>
       <c r="G91" t="n">
-        <v>1051.592991627442</v>
+        <v>1080.489501450113</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>2031342</v>
+        <v>2036624</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>469003399</v>
+        <v>463832283</v>
       </c>
       <c r="E92" t="n">
-        <v>1632561801</v>
+        <v>1614561575</v>
       </c>
       <c r="F92" t="n">
-        <v>117779.1838434859</v>
+        <v>167478.2500734285</v>
       </c>
       <c r="G92" t="n">
-        <v>160814.1231986955</v>
+        <v>165045.1129436833</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>46986117</v>
+        <v>47205964</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2355947</v>
+        <v>2360569</v>
       </c>
       <c r="E93" t="n">
-        <v>9423787</v>
+        <v>9442274</v>
       </c>
       <c r="F93" t="n">
-        <v>1008.71304083571</v>
+        <v>1273.470655496066</v>
       </c>
       <c r="G93" t="n">
-        <v>7586.712922909553</v>
+        <v>7560.463998674551</v>
       </c>
       <c r="H93" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I93" t="n">
-        <v>7460557</v>
+        <v>7507045</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>209509853</v>
+        <v>207944683</v>
       </c>
       <c r="E94" t="n">
-        <v>644163954</v>
+        <v>639351646</v>
       </c>
       <c r="F94" t="n">
-        <v>94396.40820078804</v>
+        <v>90793.84464838852</v>
       </c>
       <c r="G94" t="n">
-        <v>94956.21550303577</v>
+        <v>94962.93551637327</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>22415671</v>
+        <v>22566567</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>134899252</v>
+        <v>134085123</v>
       </c>
       <c r="E95" t="n">
-        <v>352420553</v>
+        <v>350293663</v>
       </c>
       <c r="F95" t="n">
-        <v>30066.71192685043</v>
+        <v>31805.65758123718</v>
       </c>
       <c r="G95" t="n">
-        <v>22430.6936837306</v>
+        <v>31744.0079204143</v>
       </c>
       <c r="H95" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I95" t="n">
-        <v>9416461</v>
+        <v>8868834</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>380177802</v>
+        <v>379864178</v>
       </c>
       <c r="E96" t="n">
-        <v>2172444583</v>
+        <v>2170652444</v>
       </c>
       <c r="F96" t="n">
-        <v>23038.82032865251</v>
+        <v>28836.75407653467</v>
       </c>
       <c r="G96" t="n">
-        <v>43512.94629380981</v>
+        <v>44278.416251017</v>
       </c>
       <c r="H96" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>60476037</v>
+        <v>61394980</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>581018232</v>
+        <v>580901996</v>
       </c>
       <c r="E2" t="n">
-        <v>1127497495</v>
+        <v>1127271937</v>
       </c>
       <c r="F2" t="n">
-        <v>17741.41356374564</v>
+        <v>18232.81319709853</v>
       </c>
       <c r="G2" t="n">
-        <v>37013.1989642474</v>
+        <v>30748.89166079623</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I2" t="n">
-        <v>46548806</v>
+        <v>45827769</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1446102</v>
+        <v>1437455</v>
       </c>
       <c r="E3" t="n">
-        <v>4674395</v>
+        <v>4646443</v>
       </c>
       <c r="F3" t="n">
-        <v>362.1377544562093</v>
+        <v>583.480095974612</v>
       </c>
       <c r="G3" t="n">
-        <v>609.6673466748042</v>
+        <v>557.1363008870329</v>
       </c>
       <c r="H3" t="n">
         <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>222958</v>
+        <v>222613</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244258272</v>
+        <v>244235783</v>
       </c>
       <c r="E4" t="n">
-        <v>1531709292</v>
+        <v>1531568268</v>
       </c>
       <c r="F4" t="n">
-        <v>165109.9915829661</v>
+        <v>155570.8757302196</v>
       </c>
       <c r="G4" t="n">
-        <v>157769.9850022864</v>
+        <v>164629.3418958318</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>26209494</v>
+        <v>25593342</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138801697</v>
+        <v>138266723</v>
       </c>
       <c r="E5" t="n">
-        <v>153813972</v>
+        <v>153221138</v>
       </c>
       <c r="F5" t="n">
-        <v>6766.298126578392</v>
+        <v>7005.343687784209</v>
       </c>
       <c r="G5" t="n">
-        <v>9583.980574709765</v>
+        <v>9316.451858407883</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>52429917</v>
+        <v>52727455</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>681282</v>
+        <v>681341</v>
       </c>
       <c r="E6" t="n">
-        <v>13235408</v>
+        <v>13236555</v>
       </c>
       <c r="F6" t="n">
-        <v>548.1965155117572</v>
+        <v>530.228902496343</v>
       </c>
       <c r="G6" t="n">
-        <v>232.2665152051704</v>
+        <v>818.6040284924196</v>
       </c>
       <c r="H6" t="n">
         <v>0.6</v>
       </c>
       <c r="I6" t="n">
-        <v>21072</v>
+        <v>19985.29</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>494510928</v>
+        <v>492173055</v>
       </c>
       <c r="E7" t="n">
-        <v>494510932</v>
+        <v>492173055</v>
       </c>
       <c r="F7" t="n">
-        <v>52262.76437443772</v>
+        <v>119731.8290013862</v>
       </c>
       <c r="G7" t="n">
-        <v>51288.84371952062</v>
+        <v>48756.58297379456</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>75790890</v>
+        <v>75646077</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4578449</v>
+        <v>4561850</v>
       </c>
       <c r="E8" t="n">
-        <v>4578449</v>
+        <v>4561850</v>
       </c>
       <c r="F8" t="n">
-        <v>1271.766280682391</v>
+        <v>1169.053067342805</v>
       </c>
       <c r="G8" t="n">
-        <v>1108.876911489765</v>
+        <v>1075.424501452793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>2266075</v>
+        <v>2260712</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1970615</v>
+        <v>1960939</v>
       </c>
       <c r="F9" t="n">
-        <v>533.0243701663837</v>
+        <v>56.2616189736131</v>
       </c>
       <c r="G9" t="n">
-        <v>2563.490723724768</v>
+        <v>32.67264403946378</v>
       </c>
       <c r="H9" t="n">
-        <v>1.37</v>
+        <v>3.11</v>
       </c>
       <c r="I9" t="n">
-        <v>307867</v>
+        <v>304066</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2004266</v>
+        <v>1810284</v>
       </c>
       <c r="F10" t="n">
-        <v>248.5416998372665</v>
+        <v>107.2656579777911</v>
       </c>
       <c r="G10" t="n">
-        <v>321.173786247069</v>
+        <v>159.4290498019344</v>
       </c>
       <c r="H10" t="n">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="I10" t="n">
-        <v>1307733</v>
+        <v>1288509</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108100267</v>
+        <v>108185821</v>
       </c>
       <c r="E11" t="n">
-        <v>203648088</v>
+        <v>203809262</v>
       </c>
       <c r="F11" t="n">
-        <v>1455.875928258623</v>
+        <v>1455.722642045174</v>
       </c>
       <c r="G11" t="n">
-        <v>1451.417553666065</v>
+        <v>1452.861800709249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>4076738</v>
+        <v>4076207</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11905584</v>
+        <v>11807544</v>
       </c>
       <c r="E12" t="n">
-        <v>29630845</v>
+        <v>29386841</v>
       </c>
       <c r="F12" t="n">
-        <v>121.4870593172935</v>
+        <v>295.4547159467755</v>
       </c>
       <c r="G12" t="n">
-        <v>3420.409013897964</v>
+        <v>4654.429502923702</v>
       </c>
       <c r="H12" t="n">
-        <v>1.37</v>
+        <v>0.51</v>
       </c>
       <c r="I12" t="n">
-        <v>1525854</v>
+        <v>1519952</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108023865</v>
+        <v>106277955</v>
       </c>
       <c r="E13" t="n">
-        <v>419915893</v>
+        <v>413120497</v>
       </c>
       <c r="F13" t="n">
-        <v>9958.870031853603</v>
+        <v>9204.057259916164</v>
       </c>
       <c r="G13" t="n">
-        <v>28201.33452787569</v>
+        <v>27219.4367562127</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>12446636</v>
+        <v>12300146</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4631684</v>
+        <v>4673921</v>
       </c>
       <c r="E14" t="n">
-        <v>6818090</v>
+        <v>6880265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1348044516312851</v>
+        <v>0.1347633415867225</v>
       </c>
       <c r="G14" t="n">
-        <v>54.81517655703653</v>
+        <v>73.72803065273449</v>
       </c>
       <c r="H14" t="n">
         <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>556518</v>
+        <v>149894</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135936708</v>
+        <v>135249207</v>
       </c>
       <c r="E15" t="n">
-        <v>135936708</v>
+        <v>135249207</v>
       </c>
       <c r="F15" t="n">
-        <v>52835.83965184478</v>
+        <v>50655.47950510776</v>
       </c>
       <c r="G15" t="n">
-        <v>71999.74227938005</v>
+        <v>75378.58585207208</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>89590140</v>
+        <v>90921771</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62947814</v>
+        <v>62667939</v>
       </c>
       <c r="E16" t="n">
-        <v>322809301</v>
+        <v>321374046</v>
       </c>
       <c r="F16" t="n">
-        <v>15018.19433051967</v>
+        <v>19486.97580635709</v>
       </c>
       <c r="G16" t="n">
-        <v>19756.16970078193</v>
+        <v>15194.34244805061</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>27277316</v>
+        <v>27191517</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>248446912</v>
+        <v>246330012</v>
       </c>
       <c r="E17" t="n">
-        <v>248446912</v>
+        <v>246330012</v>
       </c>
       <c r="F17" t="n">
-        <v>68404.16487355293</v>
+        <v>69561.95054059477</v>
       </c>
       <c r="G17" t="n">
-        <v>47365.76926799007</v>
+        <v>50405.94047090601</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>25861049</v>
+        <v>25868208</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2572797</v>
+        <v>2572744</v>
       </c>
       <c r="E18" t="n">
-        <v>6577580</v>
+        <v>6577443</v>
       </c>
       <c r="F18" t="n">
-        <v>953.9129521235099</v>
+        <v>965.0355627200074</v>
       </c>
       <c r="G18" t="n">
-        <v>1111.655598132442</v>
+        <v>1111.316586989825</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>80711</v>
+        <v>80033</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80685874</v>
+        <v>80071959</v>
       </c>
       <c r="E19" t="n">
-        <v>225730974</v>
+        <v>224039334</v>
       </c>
       <c r="F19" t="n">
-        <v>23035.59790553996</v>
+        <v>17348.1433424239</v>
       </c>
       <c r="G19" t="n">
-        <v>18524.3385047934</v>
+        <v>24421.01367801939</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I19" t="n">
-        <v>54160639</v>
+        <v>54485451</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1607656</v>
+        <v>1598030</v>
       </c>
       <c r="E20" t="n">
-        <v>9230563</v>
+        <v>9175289</v>
       </c>
       <c r="F20" t="n">
-        <v>140.181502857259</v>
+        <v>357.1204765286865</v>
       </c>
       <c r="G20" t="n">
-        <v>1072.526122464688</v>
+        <v>227.9740024862526</v>
       </c>
       <c r="H20" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="I20" t="n">
-        <v>245349</v>
+        <v>245230</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>160591</v>
+        <v>164850</v>
       </c>
       <c r="E21" t="n">
-        <v>1084490</v>
+        <v>1113250</v>
       </c>
       <c r="F21" t="n">
-        <v>25.84065633924229</v>
+        <v>28.95289382555557</v>
       </c>
       <c r="G21" t="n">
-        <v>6.602481662362996</v>
+        <v>6.601337707060109</v>
       </c>
       <c r="H21" t="n">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3187875</v>
+        <v>3193865</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247481</v>
+        <v>248664</v>
       </c>
       <c r="F22" t="n">
-        <v>158.5346522698991</v>
+        <v>158.581672027243</v>
       </c>
       <c r="G22" t="n">
-        <v>67.78702090496051</v>
+        <v>79.46143034975471</v>
       </c>
       <c r="H22" t="n">
         <v>3.64</v>
       </c>
       <c r="I22" t="n">
-        <v>3784.06</v>
+        <v>3885.5</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82313344</v>
+        <v>81362697</v>
       </c>
       <c r="E23" t="n">
-        <v>171616712</v>
+        <v>169634688</v>
       </c>
       <c r="F23" t="n">
-        <v>17345.90391521778</v>
+        <v>18080.52167098832</v>
       </c>
       <c r="G23" t="n">
-        <v>52788.71419309184</v>
+        <v>52228.50457877178</v>
       </c>
       <c r="H23" t="n">
         <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>70794391</v>
+        <v>70681672</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>193493590</v>
+        <v>193745876</v>
       </c>
       <c r="E24" t="n">
-        <v>672214219</v>
+        <v>673090684</v>
       </c>
       <c r="F24" t="n">
-        <v>63157.38339018176</v>
+        <v>63230.08714810715</v>
       </c>
       <c r="G24" t="n">
-        <v>60552.60771422634</v>
+        <v>61971.92794849694</v>
       </c>
       <c r="H24" t="n">
         <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>40970278</v>
+        <v>41019671</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>108140429</v>
+        <v>107645009</v>
       </c>
       <c r="E25" t="n">
-        <v>458707953</v>
+        <v>456590572</v>
       </c>
       <c r="F25" t="n">
-        <v>20378.87909917945</v>
+        <v>17465.19804482477</v>
       </c>
       <c r="G25" t="n">
-        <v>16476.53282824639</v>
+        <v>16076.13028615715</v>
       </c>
       <c r="H25" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I25" t="n">
-        <v>15143733</v>
+        <v>15063575</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5630694</v>
+        <v>5618843</v>
       </c>
       <c r="E26" t="n">
-        <v>7641494</v>
+        <v>7625530</v>
       </c>
       <c r="F26" t="n">
-        <v>702.6306429579724</v>
+        <v>946.689800094971</v>
       </c>
       <c r="G26" t="n">
-        <v>730.1809285864491</v>
+        <v>692.5348125790347</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5501421</v>
+        <v>5447124</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>536051</v>
+        <v>532754</v>
       </c>
       <c r="E27" t="n">
-        <v>6501772</v>
+        <v>6461790</v>
       </c>
       <c r="F27" t="n">
-        <v>625.7520243507316</v>
+        <v>554.8077269645105</v>
       </c>
       <c r="G27" t="n">
-        <v>482.041769761732</v>
+        <v>276.8018606150616</v>
       </c>
       <c r="H27" t="n">
-        <v>1.05</v>
+        <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2868504</v>
+        <v>2869803</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24762291</v>
+        <v>24676202</v>
       </c>
       <c r="E28" t="n">
-        <v>34993109</v>
+        <v>34871453</v>
       </c>
       <c r="F28" t="n">
-        <v>232.1316607871016</v>
+        <v>338.5356133508667</v>
       </c>
       <c r="G28" t="n">
-        <v>91.39126733755961</v>
+        <v>532.1539876312792</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="I28" t="n">
-        <v>125486</v>
+        <v>141266</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1376498244</v>
+        <v>1379880682</v>
       </c>
       <c r="E29" t="n">
-        <v>6600590979</v>
+        <v>6616810463</v>
       </c>
       <c r="F29" t="n">
-        <v>121656.5776185757</v>
+        <v>133950.4710018864</v>
       </c>
       <c r="G29" t="n">
-        <v>143200.3893043381</v>
+        <v>161270.5305171628</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>486436395</v>
+        <v>487735746</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>256721173</v>
+        <v>254791288</v>
       </c>
       <c r="E30" t="n">
-        <v>1108151099</v>
+        <v>1099820642</v>
       </c>
       <c r="F30" t="n">
-        <v>95106.52086574129</v>
+        <v>124888.36918785</v>
       </c>
       <c r="G30" t="n">
-        <v>117435.9393291574</v>
+        <v>139479.4583503781</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I30" t="n">
-        <v>141909381</v>
+        <v>141726037</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5315073</v>
+        <v>5343198</v>
       </c>
       <c r="E31" t="n">
-        <v>5321088</v>
+        <v>5349245</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4194273964345</v>
+        <v>113.3997761861691</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4707366690983</v>
+        <v>156.4436263281519</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>145612</v>
+        <v>145021</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15613312</v>
+        <v>15684368</v>
       </c>
       <c r="E32" t="n">
-        <v>39033281</v>
+        <v>39210920</v>
       </c>
       <c r="F32" t="n">
-        <v>3422.665799233596</v>
+        <v>3155.919725318312</v>
       </c>
       <c r="G32" t="n">
-        <v>5277.612020649305</v>
+        <v>4520.440471636789</v>
       </c>
       <c r="H32" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="I32" t="n">
-        <v>4884508</v>
+        <v>4923160</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19435133</v>
+        <v>19358450</v>
       </c>
       <c r="F33" t="n">
-        <v>504.5361332612999</v>
+        <v>982.3190498789531</v>
       </c>
       <c r="G33" t="n">
-        <v>1440.263023991732</v>
+        <v>1973.849154408492</v>
       </c>
       <c r="H33" t="n">
         <v>1.03</v>
       </c>
       <c r="I33" t="n">
-        <v>67224</v>
+        <v>67065</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4143739</v>
+        <v>4086162</v>
       </c>
       <c r="E34" t="n">
-        <v>11934474</v>
+        <v>11768644</v>
       </c>
       <c r="F34" t="n">
-        <v>1113.234307710659</v>
+        <v>1039.163471120856</v>
       </c>
       <c r="G34" t="n">
-        <v>1810.459544388793</v>
+        <v>1837.232490443498</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="I34" t="n">
-        <v>490916</v>
+        <v>488611</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1492316</v>
+        <v>1491687</v>
       </c>
       <c r="F35" t="n">
-        <v>142.304966485932</v>
+        <v>125.9208723267428</v>
       </c>
       <c r="G35" t="n">
-        <v>65.17117508371453</v>
+        <v>65.15142765201642</v>
       </c>
       <c r="H35" t="n">
         <v>1.97</v>
       </c>
       <c r="I35" t="n">
-        <v>7931.38</v>
+        <v>7931.58</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13701332</v>
+        <v>13716642</v>
       </c>
       <c r="E36" t="n">
-        <v>66357736</v>
+        <v>66431889</v>
       </c>
       <c r="F36" t="n">
-        <v>2711.471039666634</v>
+        <v>5074.119305907251</v>
       </c>
       <c r="G36" t="n">
-        <v>8433.331796629511</v>
+        <v>7887.860859514434</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>5540010</v>
+        <v>5574778</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1234594</v>
+        <v>1242591</v>
       </c>
       <c r="E37" t="n">
-        <v>8080386</v>
+        <v>8132728</v>
       </c>
       <c r="F37" t="n">
-        <v>19.2058533971353</v>
+        <v>21.86630349304343</v>
       </c>
       <c r="G37" t="n">
-        <v>228.4460094450835</v>
+        <v>3190.585451185861</v>
       </c>
       <c r="H37" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="I37" t="n">
-        <v>342824</v>
+        <v>344429</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1837177035</v>
+        <v>1836615341</v>
       </c>
       <c r="F38" t="n">
-        <v>77131.69256873033</v>
+        <v>72061.3490092656</v>
       </c>
       <c r="G38" t="n">
-        <v>75298.31755468894</v>
+        <v>75941.39458297296</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I38" t="n">
-        <v>30824268</v>
+        <v>30757441</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29709805</v>
+        <v>29645714</v>
       </c>
       <c r="E39" t="n">
-        <v>92506799</v>
+        <v>92307243</v>
       </c>
       <c r="F39" t="n">
-        <v>1880.572886107488</v>
+        <v>2080.001010039981</v>
       </c>
       <c r="G39" t="n">
-        <v>12586.68990901231</v>
+        <v>9913.0997330346</v>
       </c>
       <c r="H39" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="I39" t="n">
-        <v>10564789</v>
+        <v>10555593</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>191110414</v>
+        <v>191474990</v>
       </c>
       <c r="E40" t="n">
-        <v>1082184593</v>
+        <v>1084249045</v>
       </c>
       <c r="F40" t="n">
-        <v>40883.07193929595</v>
+        <v>44727.20314028722</v>
       </c>
       <c r="G40" t="n">
-        <v>81155.26799191536</v>
+        <v>61503.05576293373</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>85869171</v>
+        <v>86000893</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>122854097</v>
+        <v>123808156</v>
       </c>
       <c r="E41" t="n">
-        <v>910030351</v>
+        <v>917097449</v>
       </c>
       <c r="F41" t="n">
-        <v>87342.26068289406</v>
+        <v>78668.57541742166</v>
       </c>
       <c r="G41" t="n">
-        <v>182584.3947969966</v>
+        <v>182448.1428255525</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>26638017</v>
+        <v>27660631</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29921282</v>
+        <v>29400475</v>
       </c>
       <c r="E42" t="n">
-        <v>141936663</v>
+        <v>139466128</v>
       </c>
       <c r="F42" t="n">
-        <v>3957.312728624317</v>
+        <v>18371.53471584282</v>
       </c>
       <c r="G42" t="n">
-        <v>7912.435795048284</v>
+        <v>7984.38226876821</v>
       </c>
       <c r="H42" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I42" t="n">
-        <v>714912</v>
+        <v>789438</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3259201</v>
+        <v>3267074</v>
       </c>
       <c r="E43" t="n">
-        <v>7610778</v>
+        <v>7629163</v>
       </c>
       <c r="F43" t="n">
-        <v>571.7786363629484</v>
+        <v>1174.336393151075</v>
       </c>
       <c r="G43" t="n">
-        <v>1344.5192402465</v>
+        <v>1868.601704614088</v>
       </c>
       <c r="H43" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="I43" t="n">
-        <v>610787</v>
+        <v>611832</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>320480016</v>
+        <v>318743891</v>
       </c>
       <c r="E44" t="n">
-        <v>2883236947</v>
+        <v>2867617693</v>
       </c>
       <c r="F44" t="n">
-        <v>18933.38863116035</v>
+        <v>45190.63619566384</v>
       </c>
       <c r="G44" t="n">
-        <v>25740.38476382206</v>
+        <v>35871.22198389168</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>67158608</v>
+        <v>68665917</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>623486</v>
+        <v>622417</v>
       </c>
       <c r="F45" t="n">
-        <v>774.2194821526206</v>
+        <v>774.0853397910815</v>
       </c>
       <c r="G45" t="n">
-        <v>224.5041819729873</v>
+        <v>224.4652840611683</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16118.53</v>
+        <v>16096.83</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1534336</v>
+        <v>1524726</v>
       </c>
       <c r="E46" t="n">
-        <v>12786136</v>
+        <v>12706047</v>
       </c>
       <c r="F46" t="n">
-        <v>1581.815308093007</v>
+        <v>1655.380743993965</v>
       </c>
       <c r="G46" t="n">
-        <v>444.3015649185122</v>
+        <v>403.1525929856751</v>
       </c>
       <c r="H46" t="n">
         <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>30467</v>
+        <v>30506</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4717242</v>
+        <v>4700683</v>
       </c>
       <c r="E47" t="n">
-        <v>16666001</v>
+        <v>16607499</v>
       </c>
       <c r="F47" t="n">
-        <v>1170.678878099596</v>
+        <v>1304.508948752723</v>
       </c>
       <c r="G47" t="n">
-        <v>1197.151762220412</v>
+        <v>1126.008033032619</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>152358</v>
+        <v>152135</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46655497</v>
+        <v>46683863</v>
       </c>
       <c r="E48" t="n">
-        <v>270116052</v>
+        <v>270280279</v>
       </c>
       <c r="F48" t="n">
-        <v>15837.93721389588</v>
+        <v>14965.86910939589</v>
       </c>
       <c r="G48" t="n">
-        <v>9567.88557674599</v>
+        <v>9335.833065206773</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="I48" t="n">
-        <v>51760532</v>
+        <v>51480391</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2198755</v>
+        <v>2223440</v>
       </c>
       <c r="E49" t="n">
-        <v>12080337</v>
+        <v>12215963</v>
       </c>
       <c r="F49" t="n">
-        <v>337.4716187665425</v>
+        <v>322.9461265065228</v>
       </c>
       <c r="G49" t="n">
-        <v>1544.810280430083</v>
+        <v>1257.180742523782</v>
       </c>
       <c r="H49" t="n">
         <v>1.65</v>
       </c>
       <c r="I49" t="n">
-        <v>63662</v>
+        <v>94612</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13303870</v>
+        <v>13243661</v>
       </c>
       <c r="E50" t="n">
-        <v>13349144</v>
+        <v>13288730</v>
       </c>
       <c r="F50" t="n">
-        <v>3816.931673806434</v>
+        <v>4494.067850836141</v>
       </c>
       <c r="G50" t="n">
-        <v>3973.895579896232</v>
+        <v>9435.959154008879</v>
       </c>
       <c r="H50" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I50" t="n">
-        <v>6879357</v>
+        <v>7012248</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19396989</v>
+        <v>19335063</v>
       </c>
       <c r="E51" t="n">
-        <v>58157459</v>
+        <v>57969545</v>
       </c>
       <c r="F51" t="n">
-        <v>21966.15865761664</v>
+        <v>21833.29863147765</v>
       </c>
       <c r="G51" t="n">
-        <v>8787.717418962433</v>
+        <v>9242.696483934395</v>
       </c>
       <c r="H51" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="I51" t="n">
-        <v>4335043</v>
+        <v>3634242</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15065410</v>
+        <v>15057588</v>
       </c>
       <c r="E52" t="n">
-        <v>92340851</v>
+        <v>92292908</v>
       </c>
       <c r="F52" t="n">
-        <v>3991.894903721238</v>
+        <v>4097.186854750271</v>
       </c>
       <c r="G52" t="n">
-        <v>8185.487460801707</v>
+        <v>8942.467684504798</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I52" t="n">
-        <v>12257266</v>
+        <v>12182948</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50138929</v>
+        <v>49535098</v>
       </c>
       <c r="E53" t="n">
-        <v>215993025</v>
+        <v>213391784</v>
       </c>
       <c r="F53" t="n">
-        <v>19698.63372079297</v>
+        <v>19585.28085624164</v>
       </c>
       <c r="G53" t="n">
-        <v>23184.61692422352</v>
+        <v>23315.78745998185</v>
       </c>
       <c r="H53" t="n">
         <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>13086441</v>
+        <v>13243584</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1017221</v>
+        <v>1014807</v>
       </c>
       <c r="E54" t="n">
-        <v>2973160</v>
+        <v>2966105</v>
       </c>
       <c r="F54" t="n">
-        <v>75.80049477476685</v>
+        <v>108.2926093041794</v>
       </c>
       <c r="G54" t="n">
-        <v>815.2267844491842</v>
+        <v>1226.751966188591</v>
       </c>
       <c r="H54" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="I54" t="n">
-        <v>13139.27</v>
+        <v>13336.96</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30843297</v>
+        <v>30443545</v>
       </c>
       <c r="E55" t="n">
-        <v>77771988</v>
+        <v>76764005</v>
       </c>
       <c r="F55" t="n">
-        <v>8377.008383303555</v>
+        <v>6768.02692620794</v>
       </c>
       <c r="G55" t="n">
-        <v>530.3053848662181</v>
+        <v>14732.23782280771</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="I55" t="n">
-        <v>6057909</v>
+        <v>6097353</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27599688</v>
+        <v>27623866</v>
       </c>
       <c r="E56" t="n">
-        <v>65471578</v>
+        <v>65528931</v>
       </c>
       <c r="F56" t="n">
-        <v>1154.915628300043</v>
+        <v>4852.904774464425</v>
       </c>
       <c r="G56" t="n">
-        <v>5526.811804550439</v>
+        <v>5291.487340778341</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>643634</v>
+        <v>672860</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12455705</v>
+        <v>12234777</v>
       </c>
       <c r="E57" t="n">
-        <v>18960392</v>
+        <v>18624090</v>
       </c>
       <c r="F57" t="n">
-        <v>3866.330753889253</v>
+        <v>5422.32811076598</v>
       </c>
       <c r="G57" t="n">
-        <v>3048.142412807461</v>
+        <v>7285.169540191191</v>
       </c>
       <c r="H57" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="I57" t="n">
-        <v>652562</v>
+        <v>648600</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="E58" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="F58" t="n">
-        <v>27850.99464734144</v>
+        <v>42589.4171635777</v>
       </c>
       <c r="G58" t="n">
-        <v>68064.58729246468</v>
+        <v>78142.89857774133</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>90192433</v>
+        <v>92920604</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11642578</v>
+        <v>11623126</v>
       </c>
       <c r="F59" t="n">
-        <v>244.7729276276699</v>
+        <v>737.8017471006887</v>
       </c>
       <c r="G59" t="n">
-        <v>71.87948543309867</v>
+        <v>38.19955355874664</v>
       </c>
       <c r="H59" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="I59" t="n">
-        <v>89217</v>
+        <v>89331</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83677659</v>
+        <v>83246170</v>
       </c>
       <c r="E60" t="n">
-        <v>482186762</v>
+        <v>479700336</v>
       </c>
       <c r="F60" t="n">
-        <v>96682.2097029947</v>
+        <v>96788.37114921796</v>
       </c>
       <c r="G60" t="n">
-        <v>104045.7493514745</v>
+        <v>98072.2589120474</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I60" t="n">
-        <v>21246970</v>
+        <v>21167174</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9129448</v>
+        <v>9108980</v>
       </c>
       <c r="E61" t="n">
-        <v>9129448</v>
+        <v>9108980</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>8.82</v>
       </c>
       <c r="I61" t="n">
-        <v>2956369</v>
+        <v>2943087</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28912351</v>
+        <v>28691983</v>
       </c>
       <c r="E62" t="n">
-        <v>129452457</v>
+        <v>128465777</v>
       </c>
       <c r="F62" t="n">
-        <v>27396.76832629772</v>
+        <v>26886.80071736431</v>
       </c>
       <c r="G62" t="n">
-        <v>19498.69569448939</v>
+        <v>12964.10656461507</v>
       </c>
       <c r="H62" t="n">
         <v>0.77</v>
       </c>
       <c r="I62" t="n">
-        <v>14520001</v>
+        <v>14573146</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12927756</v>
+        <v>12925256</v>
       </c>
       <c r="E63" t="n">
-        <v>25837387</v>
+        <v>25832391</v>
       </c>
       <c r="F63" t="n">
-        <v>2228.990873216669</v>
+        <v>2241.249034024072</v>
       </c>
       <c r="G63" t="n">
-        <v>1705.688358364308</v>
+        <v>1706.415741219702</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>16115.79</v>
+        <v>15883.12</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1313226</v>
+        <v>1311392</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>6.71</v>
       </c>
       <c r="I64" t="n">
-        <v>68799</v>
+        <v>94908</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47448556</v>
+        <v>47178720</v>
       </c>
       <c r="E65" t="n">
-        <v>307691256</v>
+        <v>305941443</v>
       </c>
       <c r="F65" t="n">
-        <v>15773.69607821587</v>
+        <v>20128.795878397</v>
       </c>
       <c r="G65" t="n">
-        <v>20491.35073406995</v>
+        <v>20696.37907640271</v>
       </c>
       <c r="H65" t="n">
         <v>0.42</v>
       </c>
       <c r="I65" t="n">
-        <v>21341687</v>
+        <v>21227139</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4494691</v>
+        <v>4514847</v>
       </c>
       <c r="F66" t="n">
-        <v>261.576245811603</v>
+        <v>506.8202338325951</v>
       </c>
       <c r="G66" t="n">
-        <v>29.4803440051362</v>
+        <v>112.4188552592487</v>
       </c>
       <c r="H66" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="I66" t="n">
-        <v>247576</v>
+        <v>254336</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123631643</v>
+        <v>123638310</v>
       </c>
       <c r="E67" t="n">
-        <v>2047441266</v>
+        <v>2047551683</v>
       </c>
       <c r="F67" t="n">
-        <v>5619.341309332062</v>
+        <v>20094.12351224838</v>
       </c>
       <c r="G67" t="n">
-        <v>7284.450622706679</v>
+        <v>23363.17530894223</v>
       </c>
       <c r="H67" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>35966465</v>
+        <v>36030971</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22653552</v>
+        <v>22516923</v>
       </c>
       <c r="E68" t="n">
-        <v>135540756</v>
+        <v>134723277</v>
       </c>
       <c r="F68" t="n">
-        <v>41478.2781013519</v>
+        <v>41292.62284954252</v>
       </c>
       <c r="G68" t="n">
-        <v>44990.57274434584</v>
+        <v>44080.2977335293</v>
       </c>
       <c r="H68" t="n">
         <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>18001711</v>
+        <v>18056778</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22688050</v>
+        <v>22345069</v>
       </c>
       <c r="E70" t="n">
-        <v>22688050</v>
+        <v>22345069</v>
       </c>
       <c r="F70" t="n">
-        <v>3516.057188685887</v>
+        <v>2475.207121300314</v>
       </c>
       <c r="G70" t="n">
-        <v>2783.649198320446</v>
+        <v>4902.241285659462</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I70" t="n">
-        <v>2181801</v>
+        <v>2370440</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32054684</v>
+        <v>31924285</v>
       </c>
       <c r="E71" t="n">
-        <v>159967649</v>
+        <v>159316899</v>
       </c>
       <c r="F71" t="n">
-        <v>19498.71929563647</v>
+        <v>13394.59123325225</v>
       </c>
       <c r="G71" t="n">
-        <v>51727.65222813396</v>
+        <v>50421.96895407147</v>
       </c>
       <c r="H71" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I71" t="n">
-        <v>14024726</v>
+        <v>13965436</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>151664</v>
+        <v>152894</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>30047</v>
+        <v>30233</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>286836510</v>
+        <v>286782706</v>
       </c>
       <c r="E73" t="n">
-        <v>530712955</v>
+        <v>530613406</v>
       </c>
       <c r="F73" t="n">
-        <v>26314.04014956942</v>
+        <v>29262.59197000575</v>
       </c>
       <c r="G73" t="n">
-        <v>36832.47164608002</v>
+        <v>33714.5050373851</v>
       </c>
       <c r="H73" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>17507508</v>
+        <v>17622164</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8795279</v>
+        <v>8807537</v>
       </c>
       <c r="E74" t="n">
-        <v>26073944</v>
+        <v>26110282</v>
       </c>
       <c r="F74" t="n">
-        <v>461.9439962188047</v>
+        <v>441.6832356709622</v>
       </c>
       <c r="G74" t="n">
-        <v>1928.102023245016</v>
+        <v>1238.74397211669</v>
       </c>
       <c r="H74" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="I74" t="n">
-        <v>6439105</v>
+        <v>6443020</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8224425</v>
+        <v>8253895</v>
       </c>
       <c r="E75" t="n">
-        <v>11717922</v>
+        <v>11759909</v>
       </c>
       <c r="F75" t="n">
-        <v>182.6703812787374</v>
+        <v>191.544538988494</v>
       </c>
       <c r="G75" t="n">
-        <v>2092.096033712306</v>
+        <v>2438.229875979937</v>
       </c>
       <c r="H75" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="I75" t="n">
-        <v>313720</v>
+        <v>314742</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15770265</v>
+        <v>15655395</v>
       </c>
       <c r="F76" t="n">
-        <v>672.7827486369792</v>
+        <v>660.0605477886826</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4390964581971358</v>
+        <v>0.541342683979103</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5</v>
+        <v>1.26</v>
       </c>
       <c r="I76" t="n">
-        <v>1110450</v>
+        <v>1110675</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73105119</v>
+        <v>73084486</v>
       </c>
       <c r="E77" t="n">
-        <v>101223396</v>
+        <v>101194811</v>
       </c>
       <c r="F77" t="n">
-        <v>8033.01311576647</v>
+        <v>8145.395965263129</v>
       </c>
       <c r="G77" t="n">
-        <v>18982.00065378594</v>
+        <v>18001.51815919668</v>
       </c>
       <c r="H77" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>7328421</v>
+        <v>7338155</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6319712</v>
+        <v>6285368</v>
       </c>
       <c r="E78" t="n">
-        <v>6319712</v>
+        <v>6285368</v>
       </c>
       <c r="F78" t="n">
-        <v>272.5871028011117</v>
+        <v>335.8186885265091</v>
       </c>
       <c r="G78" t="n">
-        <v>262.2873411676995</v>
+        <v>285.3995959703116</v>
       </c>
       <c r="H78" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="I78" t="n">
-        <v>1441872</v>
+        <v>1450670</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>57295</v>
+        <v>55925</v>
       </c>
       <c r="E79" t="n">
-        <v>298943</v>
+        <v>291794</v>
       </c>
       <c r="F79" t="n">
-        <v>265.576123087552</v>
+        <v>537.204853270487</v>
       </c>
       <c r="G79" t="n">
-        <v>66.16019908700983</v>
+        <v>23.67943613472109</v>
       </c>
       <c r="H79" t="n">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="n">
-        <v>206945</v>
+        <v>206939</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25312524</v>
+        <v>25107909</v>
       </c>
       <c r="F80" t="n">
-        <v>1049.043700028909</v>
+        <v>3160.443420176126</v>
       </c>
       <c r="G80" t="n">
-        <v>2901.859544149503</v>
+        <v>2873.562121668856</v>
       </c>
       <c r="H80" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>51427</v>
+        <v>51026</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>572957303</v>
+        <v>571219353</v>
       </c>
       <c r="E81" t="n">
-        <v>2218979099</v>
+        <v>2212248278</v>
       </c>
       <c r="F81" t="n">
-        <v>141999.5768592042</v>
+        <v>142404.5837769717</v>
       </c>
       <c r="G81" t="n">
-        <v>172488.3406131603</v>
+        <v>283736.8869299561</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>61019065</v>
+        <v>60746584</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7270633</v>
+        <v>7257993</v>
       </c>
       <c r="E82" t="n">
-        <v>10416552</v>
+        <v>10398444</v>
       </c>
       <c r="F82" t="n">
-        <v>1241.550929058065</v>
+        <v>1126.542817968908</v>
       </c>
       <c r="G82" t="n">
-        <v>3249.019468715332</v>
+        <v>1753.136670587956</v>
       </c>
       <c r="H82" t="n">
         <v>0.95</v>
       </c>
       <c r="I82" t="n">
-        <v>179221</v>
+        <v>179873</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106668954</v>
+        <v>106708127</v>
       </c>
       <c r="E83" t="n">
-        <v>1009857716</v>
+        <v>1010228578</v>
       </c>
       <c r="F83" t="n">
-        <v>23399.10689196444</v>
+        <v>35541.65445023602</v>
       </c>
       <c r="G83" t="n">
-        <v>24883.94327495866</v>
+        <v>24012.03745648669</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>16232893</v>
+        <v>16315555</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1080644</v>
+        <v>1078381</v>
       </c>
       <c r="E84" t="n">
-        <v>4184490</v>
+        <v>4175725</v>
       </c>
       <c r="F84" t="n">
-        <v>1146.50060268639</v>
+        <v>1381.09642983636</v>
       </c>
       <c r="G84" t="n">
-        <v>927.9716299516705</v>
+        <v>788.1054443934588</v>
       </c>
       <c r="H84" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>315698</v>
+        <v>315236</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120865969</v>
+        <v>120315873</v>
       </c>
       <c r="E85" t="n">
-        <v>463661313</v>
+        <v>461551053</v>
       </c>
       <c r="F85" t="n">
-        <v>59110.24029675911</v>
+        <v>77087.25149431573</v>
       </c>
       <c r="G85" t="n">
-        <v>83866.01494079495</v>
+        <v>83082.58089145599</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>39635482</v>
+        <v>39456475</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5126188</v>
+        <v>5120849</v>
       </c>
       <c r="E86" t="n">
-        <v>19049010</v>
+        <v>19029172</v>
       </c>
       <c r="F86" t="n">
-        <v>562.4853906511598</v>
+        <v>625.6657697121508</v>
       </c>
       <c r="G86" t="n">
-        <v>52.82863092295967</v>
+        <v>358.8730239650994</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I86" t="n">
-        <v>138603</v>
+        <v>144376</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35969480</v>
+        <v>35966193</v>
       </c>
       <c r="F87" t="n">
-        <v>2761.63110291083</v>
+        <v>5125.785697679044</v>
       </c>
       <c r="G87" t="n">
-        <v>781.0612868673014</v>
+        <v>4649.277301389351</v>
       </c>
       <c r="H87" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="I87" t="n">
-        <v>8056846</v>
+        <v>8032901</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23731970</v>
+        <v>23692187</v>
       </c>
       <c r="F88" t="n">
-        <v>989.8210875707132</v>
+        <v>1114.550902192787</v>
       </c>
       <c r="G88" t="n">
-        <v>1036.361673183902</v>
+        <v>953.8055190250856</v>
       </c>
       <c r="H88" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I88" t="n">
-        <v>10218.37</v>
+        <v>10152.58</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89375347</v>
+        <v>89327141</v>
       </c>
       <c r="E89" t="n">
-        <v>330367977</v>
+        <v>330188757</v>
       </c>
       <c r="F89" t="n">
-        <v>1014.833052992988</v>
+        <v>1271.312783269876</v>
       </c>
       <c r="G89" t="n">
-        <v>1339.451910979784</v>
+        <v>1342.815145263258</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="I89" t="n">
-        <v>271335</v>
+        <v>271945</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18341999</v>
+        <v>18198490</v>
       </c>
       <c r="E90" t="n">
-        <v>18341999</v>
+        <v>18198490</v>
       </c>
       <c r="F90" t="n">
-        <v>2690.970292283279</v>
+        <v>3081.862363046143</v>
       </c>
       <c r="G90" t="n">
-        <v>3498.245804124625</v>
+        <v>3438.636109629386</v>
       </c>
       <c r="H90" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="I90" t="n">
-        <v>7269475</v>
+        <v>7245025</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3800413</v>
+        <v>3797258</v>
       </c>
       <c r="E91" t="n">
-        <v>8284366</v>
+        <v>8277489</v>
       </c>
       <c r="F91" t="n">
-        <v>1940.974648181976</v>
+        <v>2101.054491506493</v>
       </c>
       <c r="G91" t="n">
-        <v>1080.489501450113</v>
+        <v>1114.931478385016</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>2036624</v>
+        <v>2050190</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>463832283</v>
+        <v>460817069</v>
       </c>
       <c r="E92" t="n">
-        <v>1614561575</v>
+        <v>1604065867</v>
       </c>
       <c r="F92" t="n">
-        <v>167478.2500734285</v>
+        <v>167801.2746055508</v>
       </c>
       <c r="G92" t="n">
-        <v>165045.1129436833</v>
+        <v>160521.5975822642</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>47205964</v>
+        <v>47311936</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2360569</v>
+        <v>2350364</v>
       </c>
       <c r="E93" t="n">
-        <v>9442274</v>
+        <v>9401455</v>
       </c>
       <c r="F93" t="n">
-        <v>1273.470655496066</v>
+        <v>1498.167993584864</v>
       </c>
       <c r="G93" t="n">
-        <v>7560.463998674551</v>
+        <v>7308.438416270052</v>
       </c>
       <c r="H93" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="I93" t="n">
-        <v>7507045</v>
+        <v>7615648</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>207944683</v>
+        <v>208240635</v>
       </c>
       <c r="E94" t="n">
-        <v>639351646</v>
+        <v>640261586</v>
       </c>
       <c r="F94" t="n">
-        <v>90793.84464838852</v>
+        <v>88899.32894892078</v>
       </c>
       <c r="G94" t="n">
-        <v>94962.93551637327</v>
+        <v>93196.14447928421</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>22566567</v>
+        <v>22656609</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>134085123</v>
+        <v>133450457</v>
       </c>
       <c r="E95" t="n">
-        <v>350293663</v>
+        <v>348635616</v>
       </c>
       <c r="F95" t="n">
-        <v>31805.65758123718</v>
+        <v>25832.33203930562</v>
       </c>
       <c r="G95" t="n">
-        <v>31744.0079204143</v>
+        <v>30097.17933683133</v>
       </c>
       <c r="H95" t="n">
         <v>0.17</v>
       </c>
       <c r="I95" t="n">
-        <v>8868834</v>
+        <v>8781958</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>379864178</v>
+        <v>378237807</v>
       </c>
       <c r="E96" t="n">
-        <v>2170652444</v>
+        <v>2161358899</v>
       </c>
       <c r="F96" t="n">
-        <v>28836.75407653467</v>
+        <v>28928.25845914246</v>
       </c>
       <c r="G96" t="n">
-        <v>44278.416251017</v>
+        <v>40786.63286466139</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>61394980</v>
+        <v>61580092</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>580901996</v>
+        <v>589841685</v>
       </c>
       <c r="E2" t="n">
-        <v>1127271937</v>
+        <v>1144709528</v>
       </c>
       <c r="F2" t="n">
-        <v>18232.81319709853</v>
+        <v>19931.81445472262</v>
       </c>
       <c r="G2" t="n">
-        <v>30748.89166079623</v>
+        <v>28388.39856424558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>45827769</v>
+        <v>47242075</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1437455</v>
+        <v>1406882</v>
       </c>
       <c r="E3" t="n">
-        <v>4646443</v>
+        <v>4547620</v>
       </c>
       <c r="F3" t="n">
-        <v>583.480095974612</v>
+        <v>197.1439056931835</v>
       </c>
       <c r="G3" t="n">
-        <v>557.1363008870329</v>
+        <v>569.8710169683512</v>
       </c>
       <c r="H3" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>222613</v>
+        <v>188462</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244235783</v>
+        <v>249469185</v>
       </c>
       <c r="E4" t="n">
-        <v>1531568268</v>
+        <v>1564386194</v>
       </c>
       <c r="F4" t="n">
-        <v>155570.8757302196</v>
+        <v>97854.01274974541</v>
       </c>
       <c r="G4" t="n">
-        <v>164629.3418958318</v>
+        <v>101440.4078353791</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>25593342</v>
+        <v>26708881</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138266723</v>
+        <v>140348431</v>
       </c>
       <c r="E5" t="n">
-        <v>153221138</v>
+        <v>155527995</v>
       </c>
       <c r="F5" t="n">
-        <v>7005.343687784209</v>
+        <v>4118.619908619507</v>
       </c>
       <c r="G5" t="n">
-        <v>9316.451858407883</v>
+        <v>9034.990360631709</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>52727455</v>
+        <v>53539335</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>681341</v>
+        <v>682193</v>
       </c>
       <c r="E6" t="n">
-        <v>13236555</v>
+        <v>13253124</v>
       </c>
       <c r="F6" t="n">
-        <v>530.228902496343</v>
+        <v>658.5352473333243</v>
       </c>
       <c r="G6" t="n">
-        <v>818.6040284924196</v>
+        <v>310.7385435625402</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>19985.29</v>
+        <v>19851.33</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>492173055</v>
+        <v>493780557</v>
       </c>
       <c r="E7" t="n">
-        <v>492173055</v>
+        <v>493780557</v>
       </c>
       <c r="F7" t="n">
-        <v>119731.8290013862</v>
+        <v>50902.15691902876</v>
       </c>
       <c r="G7" t="n">
-        <v>48756.58297379456</v>
+        <v>33688.51890710458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
-        <v>75646077</v>
+        <v>76315488</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4561850</v>
+        <v>4560490</v>
       </c>
       <c r="E8" t="n">
-        <v>4561850</v>
+        <v>4560490</v>
       </c>
       <c r="F8" t="n">
-        <v>1169.053067342805</v>
+        <v>967.894178214035</v>
       </c>
       <c r="G8" t="n">
-        <v>1075.424501452793</v>
+        <v>1176.028214038304</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I8" t="n">
-        <v>2260712</v>
+        <v>2253427</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1960939</v>
+        <v>1969996</v>
       </c>
       <c r="F9" t="n">
-        <v>56.2616189736131</v>
+        <v>310.4729318973066</v>
       </c>
       <c r="G9" t="n">
-        <v>32.67264403946378</v>
+        <v>32.34144244280294</v>
       </c>
       <c r="H9" t="n">
-        <v>3.11</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>304066</v>
+        <v>307517</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1810284</v>
+        <v>1765642</v>
       </c>
       <c r="F10" t="n">
-        <v>107.2656579777911</v>
+        <v>280.2699105724016</v>
       </c>
       <c r="G10" t="n">
-        <v>159.4290498019344</v>
+        <v>306.9317664551515</v>
       </c>
       <c r="H10" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1288509</v>
+        <v>1292318</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108185821</v>
+        <v>109036970</v>
       </c>
       <c r="E11" t="n">
-        <v>203809262</v>
+        <v>205412726</v>
       </c>
       <c r="F11" t="n">
-        <v>1455.722642045174</v>
+        <v>2485.763332003952</v>
       </c>
       <c r="G11" t="n">
-        <v>1452.861800709249</v>
+        <v>1398.388123774987</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>4076207</v>
+        <v>4105659</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11807544</v>
+        <v>11832578</v>
       </c>
       <c r="E12" t="n">
-        <v>29386841</v>
+        <v>29449146</v>
       </c>
       <c r="F12" t="n">
-        <v>295.4547159467755</v>
+        <v>151.1300379886906</v>
       </c>
       <c r="G12" t="n">
-        <v>4654.429502923702</v>
+        <v>3339.94921699524</v>
       </c>
       <c r="H12" t="n">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
       <c r="I12" t="n">
-        <v>1519952</v>
+        <v>1517290</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106277955</v>
+        <v>108757669</v>
       </c>
       <c r="E13" t="n">
-        <v>413120497</v>
+        <v>422735187</v>
       </c>
       <c r="F13" t="n">
-        <v>9204.057259916164</v>
+        <v>3019.426648008874</v>
       </c>
       <c r="G13" t="n">
-        <v>27219.4367562127</v>
+        <v>3882.47060432754</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>12300146</v>
+        <v>12563044</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4673921</v>
+        <v>4684634</v>
       </c>
       <c r="E14" t="n">
-        <v>6880265</v>
+        <v>6896035</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1347633415867225</v>
+        <v>177.3698649279805</v>
       </c>
       <c r="G14" t="n">
-        <v>73.72803065273449</v>
+        <v>1971.400670516426</v>
       </c>
       <c r="H14" t="n">
-        <v>1.45</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>149894</v>
+        <v>565501</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135249207</v>
+        <v>137493799</v>
       </c>
       <c r="E15" t="n">
-        <v>135249207</v>
+        <v>137493799</v>
       </c>
       <c r="F15" t="n">
-        <v>50655.47950510776</v>
+        <v>52182.54942444115</v>
       </c>
       <c r="G15" t="n">
-        <v>75378.58585207208</v>
+        <v>61239.21171925378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>90921771</v>
+        <v>95061304</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62667939</v>
+        <v>63386582</v>
       </c>
       <c r="E16" t="n">
-        <v>321374046</v>
+        <v>325059394</v>
       </c>
       <c r="F16" t="n">
-        <v>19486.97580635709</v>
+        <v>16041.50994855999</v>
       </c>
       <c r="G16" t="n">
-        <v>15194.34244805061</v>
+        <v>11911.69066558818</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>27191517</v>
+        <v>27331178</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>246330012</v>
+        <v>249327965</v>
       </c>
       <c r="E17" t="n">
-        <v>246330012</v>
+        <v>249327965</v>
       </c>
       <c r="F17" t="n">
-        <v>69561.95054059477</v>
+        <v>50382.94367363849</v>
       </c>
       <c r="G17" t="n">
-        <v>50405.94047090601</v>
+        <v>39231.28053069687</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>25868208</v>
+        <v>26095804</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2572744</v>
+        <v>2569031</v>
       </c>
       <c r="E18" t="n">
-        <v>6577443</v>
+        <v>6567950</v>
       </c>
       <c r="F18" t="n">
-        <v>965.0355627200074</v>
+        <v>1053.652532926641</v>
       </c>
       <c r="G18" t="n">
-        <v>1111.316586989825</v>
+        <v>1950.646707981107</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>80033</v>
+        <v>81155</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80071959</v>
+        <v>80383541</v>
       </c>
       <c r="E19" t="n">
-        <v>224039334</v>
+        <v>224894283</v>
       </c>
       <c r="F19" t="n">
-        <v>17348.1433424239</v>
+        <v>20705.602893555</v>
       </c>
       <c r="G19" t="n">
-        <v>24421.01367801939</v>
+        <v>15314.2086902038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I19" t="n">
-        <v>54485451</v>
+        <v>60338850</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1598030</v>
+        <v>1600492</v>
       </c>
       <c r="E20" t="n">
-        <v>9175289</v>
+        <v>9189430</v>
       </c>
       <c r="F20" t="n">
-        <v>357.1204765286865</v>
+        <v>309.0000785147096</v>
       </c>
       <c r="G20" t="n">
-        <v>227.9740024862526</v>
+        <v>783.5731543222166</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="I20" t="n">
-        <v>245230</v>
+        <v>247297</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>164850</v>
+        <v>162757</v>
       </c>
       <c r="E21" t="n">
-        <v>1113250</v>
+        <v>1099114</v>
       </c>
       <c r="F21" t="n">
-        <v>28.95289382555557</v>
+        <v>5.349115516787275</v>
       </c>
       <c r="G21" t="n">
-        <v>6.601337707060109</v>
+        <v>5.806241085034597</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9</v>
+        <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3193865</v>
+        <v>3210697</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>248664</v>
+        <v>248636</v>
       </c>
       <c r="F22" t="n">
-        <v>158.581672027243</v>
+        <v>28.84475345464242</v>
       </c>
       <c r="G22" t="n">
-        <v>79.46143034975471</v>
+        <v>109.4693642573991</v>
       </c>
       <c r="H22" t="n">
-        <v>3.64</v>
+        <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>3885.5</v>
+        <v>3874.17</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81362697</v>
+        <v>85574927</v>
       </c>
       <c r="E23" t="n">
-        <v>169634688</v>
+        <v>178416849</v>
       </c>
       <c r="F23" t="n">
-        <v>18080.52167098832</v>
+        <v>19647.3075468928</v>
       </c>
       <c r="G23" t="n">
-        <v>52228.50457877178</v>
+        <v>35564.09788053905</v>
       </c>
       <c r="H23" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="I23" t="n">
-        <v>70681672</v>
+        <v>72069548</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>193745876</v>
+        <v>195548969</v>
       </c>
       <c r="E24" t="n">
-        <v>673090684</v>
+        <v>679354792</v>
       </c>
       <c r="F24" t="n">
-        <v>63230.08714810715</v>
+        <v>63987.05123356258</v>
       </c>
       <c r="G24" t="n">
-        <v>61971.92794849694</v>
+        <v>61628.84505355715</v>
       </c>
       <c r="H24" t="n">
         <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>41019671</v>
+        <v>41358531</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>107645009</v>
+        <v>108901702</v>
       </c>
       <c r="E25" t="n">
-        <v>456590572</v>
+        <v>461872888</v>
       </c>
       <c r="F25" t="n">
-        <v>17465.19804482477</v>
+        <v>18530.06091906384</v>
       </c>
       <c r="G25" t="n">
-        <v>16076.13028615715</v>
+        <v>13240.74573080097</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I25" t="n">
-        <v>15063575</v>
+        <v>15002092</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5618843</v>
+        <v>5624297</v>
       </c>
       <c r="E26" t="n">
-        <v>7625530</v>
+        <v>7632769</v>
       </c>
       <c r="F26" t="n">
-        <v>946.689800094971</v>
+        <v>781.8057441212784</v>
       </c>
       <c r="G26" t="n">
-        <v>692.5348125790347</v>
+        <v>773.2682700831321</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="I26" t="n">
-        <v>5447124</v>
+        <v>5464949</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>532754</v>
+        <v>544914</v>
       </c>
       <c r="E27" t="n">
-        <v>6461790</v>
+        <v>6609274</v>
       </c>
       <c r="F27" t="n">
-        <v>554.8077269645105</v>
+        <v>603.004462116956</v>
       </c>
       <c r="G27" t="n">
-        <v>276.8018606150616</v>
+        <v>405.8854162624732</v>
       </c>
       <c r="H27" t="n">
-        <v>0.54</v>
+        <v>1.18</v>
       </c>
       <c r="I27" t="n">
-        <v>2869803</v>
+        <v>2906983</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24676202</v>
+        <v>24272274</v>
       </c>
       <c r="E28" t="n">
-        <v>34871453</v>
+        <v>34300637</v>
       </c>
       <c r="F28" t="n">
-        <v>338.5356133508667</v>
+        <v>682.1381252958716</v>
       </c>
       <c r="G28" t="n">
-        <v>532.1539876312792</v>
+        <v>4781.460578406915</v>
       </c>
       <c r="H28" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="I28" t="n">
-        <v>141266</v>
+        <v>157207</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1379880682</v>
+        <v>1415741026</v>
       </c>
       <c r="E29" t="n">
-        <v>6616810463</v>
+        <v>6788768154</v>
       </c>
       <c r="F29" t="n">
-        <v>133950.4710018864</v>
+        <v>86456.9643817427</v>
       </c>
       <c r="G29" t="n">
-        <v>161270.5305171628</v>
+        <v>156760.6227654328</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>487735746</v>
+        <v>501483650</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>254791288</v>
+        <v>257918306</v>
       </c>
       <c r="E30" t="n">
-        <v>1099820642</v>
+        <v>1113318588</v>
       </c>
       <c r="F30" t="n">
-        <v>124888.36918785</v>
+        <v>118467.1709741724</v>
       </c>
       <c r="G30" t="n">
-        <v>139479.4583503781</v>
+        <v>107064.3082538396</v>
       </c>
       <c r="H30" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>141726037</v>
+        <v>142681278</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5343198</v>
+        <v>5314754</v>
       </c>
       <c r="E31" t="n">
-        <v>5349245</v>
+        <v>5320769</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3997761861691</v>
+        <v>113.4232878269705</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4436263281519</v>
+        <v>156.4760624269839</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>145021</v>
+        <v>144075</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15684368</v>
+        <v>16184649</v>
       </c>
       <c r="E32" t="n">
-        <v>39210920</v>
+        <v>40461624</v>
       </c>
       <c r="F32" t="n">
-        <v>3155.919725318312</v>
+        <v>1958.900311463436</v>
       </c>
       <c r="G32" t="n">
-        <v>4520.440471636789</v>
+        <v>4550.72840040238</v>
       </c>
       <c r="H32" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>4923160</v>
+        <v>5060095</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19358450</v>
+        <v>19105395</v>
       </c>
       <c r="F33" t="n">
-        <v>982.3190498789531</v>
+        <v>1629.688769622667</v>
       </c>
       <c r="G33" t="n">
-        <v>1973.849154408492</v>
+        <v>1958.355902714472</v>
       </c>
       <c r="H33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>67065</v>
+        <v>55929</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4086162</v>
+        <v>4051956</v>
       </c>
       <c r="E34" t="n">
-        <v>11768644</v>
+        <v>11670127</v>
       </c>
       <c r="F34" t="n">
-        <v>1039.163471120856</v>
+        <v>1357.353269754701</v>
       </c>
       <c r="G34" t="n">
-        <v>1837.232490443498</v>
+        <v>1308.285133844433</v>
       </c>
       <c r="H34" t="n">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="n">
-        <v>488611</v>
+        <v>460560</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1491687</v>
+        <v>1437480</v>
       </c>
       <c r="F35" t="n">
-        <v>125.9208723267428</v>
+        <v>1.714568982383734</v>
       </c>
       <c r="G35" t="n">
-        <v>65.15142765201642</v>
+        <v>36.76343762330089</v>
       </c>
       <c r="H35" t="n">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="I35" t="n">
-        <v>7931.58</v>
+        <v>8058.83</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13716642</v>
+        <v>13974841</v>
       </c>
       <c r="E36" t="n">
-        <v>66431889</v>
+        <v>67682386</v>
       </c>
       <c r="F36" t="n">
-        <v>5074.119305907251</v>
+        <v>747.8625509999918</v>
       </c>
       <c r="G36" t="n">
-        <v>7887.860859514434</v>
+        <v>3914.287923736271</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
       <c r="I36" t="n">
-        <v>5574778</v>
+        <v>5554638</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1242591</v>
+        <v>1233768</v>
       </c>
       <c r="E37" t="n">
-        <v>8132728</v>
+        <v>8074979</v>
       </c>
       <c r="F37" t="n">
-        <v>21.86630349304343</v>
+        <v>0.2704758902953924</v>
       </c>
       <c r="G37" t="n">
-        <v>3190.585451185861</v>
+        <v>2551.595276308094</v>
       </c>
       <c r="H37" t="n">
-        <v>1.2</v>
+        <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>344429</v>
+        <v>349151</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1836615341</v>
+        <v>1838765723</v>
       </c>
       <c r="F38" t="n">
-        <v>72061.3490092656</v>
+        <v>78465.22376024986</v>
       </c>
       <c r="G38" t="n">
-        <v>75941.39458297296</v>
+        <v>74171.20883272294</v>
       </c>
       <c r="H38" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="I38" t="n">
-        <v>30757441</v>
+        <v>30809944</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29645714</v>
+        <v>29896493</v>
       </c>
       <c r="E39" t="n">
-        <v>92307243</v>
+        <v>93088087</v>
       </c>
       <c r="F39" t="n">
-        <v>2080.001010039981</v>
+        <v>3179.90344811365</v>
       </c>
       <c r="G39" t="n">
-        <v>9913.0997330346</v>
+        <v>11895.52104442777</v>
       </c>
       <c r="H39" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>10555593</v>
+        <v>10593493</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>191474990</v>
+        <v>192722507</v>
       </c>
       <c r="E40" t="n">
-        <v>1084249045</v>
+        <v>1091313253</v>
       </c>
       <c r="F40" t="n">
-        <v>44727.20314028722</v>
+        <v>48292.83004059748</v>
       </c>
       <c r="G40" t="n">
-        <v>61503.05576293373</v>
+        <v>76563.44160024234</v>
       </c>
       <c r="H40" t="n">
         <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>86000893</v>
+        <v>86466478</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123808156</v>
+        <v>123707878</v>
       </c>
       <c r="E41" t="n">
-        <v>917097449</v>
+        <v>916354651</v>
       </c>
       <c r="F41" t="n">
-        <v>78668.57541742166</v>
+        <v>62282.19812275797</v>
       </c>
       <c r="G41" t="n">
-        <v>182448.1428255525</v>
+        <v>206062.4091814576</v>
       </c>
       <c r="H41" t="n">
         <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>27660631</v>
+        <v>35726387</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29400475</v>
+        <v>29591230</v>
       </c>
       <c r="E42" t="n">
-        <v>139466128</v>
+        <v>140371003</v>
       </c>
       <c r="F42" t="n">
-        <v>18371.53471584282</v>
+        <v>5410.08027389438</v>
       </c>
       <c r="G42" t="n">
-        <v>7984.38226876821</v>
+        <v>8472.433855649826</v>
       </c>
       <c r="H42" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>789438</v>
+        <v>793089</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3267074</v>
+        <v>3300391</v>
       </c>
       <c r="E43" t="n">
-        <v>7629163</v>
+        <v>7706963</v>
       </c>
       <c r="F43" t="n">
-        <v>1174.336393151075</v>
+        <v>1173.048317786243</v>
       </c>
       <c r="G43" t="n">
-        <v>1868.601704614088</v>
+        <v>1845.501831957583</v>
       </c>
       <c r="H43" t="n">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="I43" t="n">
-        <v>611832</v>
+        <v>609606</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>318743891</v>
+        <v>319306726</v>
       </c>
       <c r="E44" t="n">
-        <v>2867617693</v>
+        <v>2872681299</v>
       </c>
       <c r="F44" t="n">
-        <v>45190.63619566384</v>
+        <v>40238.12639809505</v>
       </c>
       <c r="G44" t="n">
-        <v>35871.22198389168</v>
+        <v>34771.76391869201</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I44" t="n">
-        <v>68665917</v>
+        <v>69320024</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>622417</v>
+        <v>625306</v>
       </c>
       <c r="F45" t="n">
-        <v>774.0853397910815</v>
+        <v>761.5753133509157</v>
       </c>
       <c r="G45" t="n">
-        <v>224.4652840611683</v>
+        <v>224.3710845105158</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16096.83</v>
+        <v>16181.66</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1524726</v>
+        <v>1522399</v>
       </c>
       <c r="E46" t="n">
-        <v>12706047</v>
+        <v>12686662</v>
       </c>
       <c r="F46" t="n">
-        <v>1655.380743993965</v>
+        <v>1599.005267094736</v>
       </c>
       <c r="G46" t="n">
-        <v>403.1525929856751</v>
+        <v>263.6819424325064</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="I46" t="n">
-        <v>30506</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4700683</v>
+        <v>4715601</v>
       </c>
       <c r="E47" t="n">
-        <v>16607499</v>
+        <v>16660205</v>
       </c>
       <c r="F47" t="n">
-        <v>1304.508948752723</v>
+        <v>1156.902990409975</v>
       </c>
       <c r="G47" t="n">
-        <v>1126.008033032619</v>
+        <v>1259.520019957312</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>152135</v>
+        <v>155193</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46683863</v>
+        <v>46969678</v>
       </c>
       <c r="E48" t="n">
-        <v>270280279</v>
+        <v>271935027</v>
       </c>
       <c r="F48" t="n">
-        <v>14965.86910939589</v>
+        <v>14342.11757396992</v>
       </c>
       <c r="G48" t="n">
-        <v>9335.833065206773</v>
+        <v>16195.15298015</v>
       </c>
       <c r="H48" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>51480391</v>
+        <v>50201909</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2223440</v>
+        <v>2254903</v>
       </c>
       <c r="E49" t="n">
-        <v>12215963</v>
+        <v>12388824</v>
       </c>
       <c r="F49" t="n">
-        <v>322.9461265065228</v>
+        <v>187.8935196611041</v>
       </c>
       <c r="G49" t="n">
-        <v>1257.180742523782</v>
+        <v>615.3842243056641</v>
       </c>
       <c r="H49" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="I49" t="n">
-        <v>94612</v>
+        <v>94320</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13243661</v>
+        <v>13350071</v>
       </c>
       <c r="E50" t="n">
-        <v>13288730</v>
+        <v>13395503</v>
       </c>
       <c r="F50" t="n">
-        <v>4494.067850836141</v>
+        <v>4419.991555030167</v>
       </c>
       <c r="G50" t="n">
-        <v>9435.959154008879</v>
+        <v>9724.09376817745</v>
       </c>
       <c r="H50" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7012248</v>
+        <v>7084991</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19335063</v>
+        <v>19500312</v>
       </c>
       <c r="E51" t="n">
-        <v>57969545</v>
+        <v>58464988</v>
       </c>
       <c r="F51" t="n">
-        <v>21833.29863147765</v>
+        <v>21489.34649996794</v>
       </c>
       <c r="G51" t="n">
-        <v>9242.696483934395</v>
+        <v>11784.41703705741</v>
       </c>
       <c r="H51" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="I51" t="n">
-        <v>3634242</v>
+        <v>4434805</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15057588</v>
+        <v>15187492</v>
       </c>
       <c r="E52" t="n">
-        <v>92292908</v>
+        <v>93089133</v>
       </c>
       <c r="F52" t="n">
-        <v>4097.186854750271</v>
+        <v>3088.878298409873</v>
       </c>
       <c r="G52" t="n">
-        <v>8942.467684504798</v>
+        <v>9376.255342349705</v>
       </c>
       <c r="H52" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I52" t="n">
-        <v>12182948</v>
+        <v>12231775</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49535098</v>
+        <v>49497602</v>
       </c>
       <c r="E53" t="n">
-        <v>213391784</v>
+        <v>213230256</v>
       </c>
       <c r="F53" t="n">
-        <v>19585.28085624164</v>
+        <v>19070.82525511948</v>
       </c>
       <c r="G53" t="n">
-        <v>23315.78745998185</v>
+        <v>19483.55450964123</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I53" t="n">
-        <v>13243584</v>
+        <v>12526068</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1014807</v>
+        <v>1014979</v>
       </c>
       <c r="E54" t="n">
-        <v>2966105</v>
+        <v>2966606</v>
       </c>
       <c r="F54" t="n">
-        <v>108.2926093041794</v>
+        <v>108.4746324924548</v>
       </c>
       <c r="G54" t="n">
-        <v>1226.751966188591</v>
+        <v>1231.296600371026</v>
       </c>
       <c r="H54" t="n">
         <v>1.97</v>
       </c>
       <c r="I54" t="n">
-        <v>13336.96</v>
+        <v>11562.69</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30443545</v>
+        <v>30729343</v>
       </c>
       <c r="E55" t="n">
-        <v>76764005</v>
+        <v>77484652</v>
       </c>
       <c r="F55" t="n">
-        <v>6768.02692620794</v>
+        <v>3596.48924778788</v>
       </c>
       <c r="G55" t="n">
-        <v>14732.23782280771</v>
+        <v>19142.6042091028</v>
       </c>
       <c r="H55" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I55" t="n">
-        <v>6097353</v>
+        <v>6163303</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27623866</v>
+        <v>27686507</v>
       </c>
       <c r="E56" t="n">
-        <v>65528931</v>
+        <v>65677529</v>
       </c>
       <c r="F56" t="n">
-        <v>4852.904774464425</v>
+        <v>5267.805500536685</v>
       </c>
       <c r="G56" t="n">
-        <v>5291.487340778341</v>
+        <v>4737.641825239351</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>672860</v>
+        <v>630667</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12234777</v>
+        <v>12172094</v>
       </c>
       <c r="E57" t="n">
-        <v>18624090</v>
+        <v>18528671</v>
       </c>
       <c r="F57" t="n">
-        <v>5422.32811076598</v>
+        <v>3429.154292671168</v>
       </c>
       <c r="G57" t="n">
-        <v>7285.169540191191</v>
+        <v>3225.076741644176</v>
       </c>
       <c r="H57" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="I57" t="n">
-        <v>648600</v>
+        <v>672063</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="E58" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="F58" t="n">
-        <v>42589.4171635777</v>
+        <v>43276.45468228084</v>
       </c>
       <c r="G58" t="n">
-        <v>78142.89857774133</v>
+        <v>65140.70433085036</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>92920604</v>
+        <v>93587535</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11623126</v>
+        <v>11625841</v>
       </c>
       <c r="F59" t="n">
-        <v>737.8017471006887</v>
+        <v>98.27974145828851</v>
       </c>
       <c r="G59" t="n">
-        <v>38.19955355874664</v>
+        <v>37.99442332026988</v>
       </c>
       <c r="H59" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="I59" t="n">
-        <v>89331</v>
+        <v>80557</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83246170</v>
+        <v>84024420</v>
       </c>
       <c r="E60" t="n">
-        <v>479700336</v>
+        <v>484184951</v>
       </c>
       <c r="F60" t="n">
-        <v>96788.37114921796</v>
+        <v>91358.57757678739</v>
       </c>
       <c r="G60" t="n">
-        <v>98072.2589120474</v>
+        <v>104371.9001613651</v>
       </c>
       <c r="H60" t="n">
         <v>0.17</v>
       </c>
       <c r="I60" t="n">
-        <v>21167174</v>
+        <v>21224105</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9108980</v>
+        <v>9108327</v>
       </c>
       <c r="E61" t="n">
-        <v>9108980</v>
+        <v>9108327</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>8.82</v>
+        <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2943087</v>
+        <v>2937035</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28691983</v>
+        <v>29180678</v>
       </c>
       <c r="E62" t="n">
-        <v>128465777</v>
+        <v>130653865</v>
       </c>
       <c r="F62" t="n">
-        <v>26886.80071736431</v>
+        <v>26749.97253777093</v>
       </c>
       <c r="G62" t="n">
-        <v>12964.10656461507</v>
+        <v>7828.369483703736</v>
       </c>
       <c r="H62" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I62" t="n">
-        <v>14573146</v>
+        <v>14884460</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12925256</v>
+        <v>12881831</v>
       </c>
       <c r="E63" t="n">
-        <v>25832391</v>
+        <v>25745602</v>
       </c>
       <c r="F63" t="n">
-        <v>2241.249034024072</v>
+        <v>2213.476355960107</v>
       </c>
       <c r="G63" t="n">
-        <v>1706.415741219702</v>
+        <v>1701.482625256219</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>15883.12</v>
+        <v>15871.72</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1311392</v>
+        <v>1297698</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>6.71</v>
+        <v>6.1</v>
       </c>
       <c r="I64" t="n">
-        <v>94908</v>
+        <v>90109</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47178720</v>
+        <v>47853183</v>
       </c>
       <c r="E65" t="n">
-        <v>305941443</v>
+        <v>310315155</v>
       </c>
       <c r="F65" t="n">
-        <v>20128.795878397</v>
+        <v>16750.41444540926</v>
       </c>
       <c r="G65" t="n">
-        <v>20696.37907640271</v>
+        <v>20198.49253938401</v>
       </c>
       <c r="H65" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>21227139</v>
+        <v>21820048</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4514847</v>
+        <v>4444263</v>
       </c>
       <c r="F66" t="n">
-        <v>506.8202338325951</v>
+        <v>120.2254852766457</v>
       </c>
       <c r="G66" t="n">
-        <v>112.4188552592487</v>
+        <v>327.9238470601532</v>
       </c>
       <c r="H66" t="n">
-        <v>1.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>254336</v>
+        <v>208118</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123638310</v>
+        <v>123904669</v>
       </c>
       <c r="E67" t="n">
-        <v>2047551683</v>
+        <v>2051962792</v>
       </c>
       <c r="F67" t="n">
-        <v>20094.12351224838</v>
+        <v>19763.29351555191</v>
       </c>
       <c r="G67" t="n">
-        <v>23363.17530894223</v>
+        <v>24374.97064487296</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>36030971</v>
+        <v>36394538</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22516923</v>
+        <v>22927716</v>
       </c>
       <c r="E68" t="n">
-        <v>134723277</v>
+        <v>137181133</v>
       </c>
       <c r="F68" t="n">
-        <v>41292.62284954252</v>
+        <v>6409.322840183735</v>
       </c>
       <c r="G68" t="n">
-        <v>44080.2977335293</v>
+        <v>45371.78334207019</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>18056778</v>
+        <v>18341876</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22345069</v>
+        <v>22634205</v>
       </c>
       <c r="E70" t="n">
-        <v>22345069</v>
+        <v>22634205</v>
       </c>
       <c r="F70" t="n">
-        <v>2475.207121300314</v>
+        <v>2521.479537609066</v>
       </c>
       <c r="G70" t="n">
-        <v>4902.241285659462</v>
+        <v>14260.61650887412</v>
       </c>
       <c r="H70" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2370440</v>
+        <v>2381171</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>31924285</v>
+        <v>32287575</v>
       </c>
       <c r="E71" t="n">
-        <v>159316899</v>
+        <v>161129885</v>
       </c>
       <c r="F71" t="n">
-        <v>13394.59123325225</v>
+        <v>17887.87070396586</v>
       </c>
       <c r="G71" t="n">
-        <v>50421.96895407147</v>
+        <v>56480.33446506766</v>
       </c>
       <c r="H71" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I71" t="n">
-        <v>13965436</v>
+        <v>14209853</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>152894</v>
+        <v>151389</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.67</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>30233</v>
+        <v>31113</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>286782706</v>
+        <v>287874264</v>
       </c>
       <c r="E73" t="n">
-        <v>530613406</v>
+        <v>532633037</v>
       </c>
       <c r="F73" t="n">
-        <v>29262.59197000575</v>
+        <v>20383.32728454972</v>
       </c>
       <c r="G73" t="n">
-        <v>33714.5050373851</v>
+        <v>31584.04164485822</v>
       </c>
       <c r="H73" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I73" t="n">
-        <v>17622164</v>
+        <v>18727669</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8807537</v>
+        <v>9206316</v>
       </c>
       <c r="E74" t="n">
-        <v>26110282</v>
+        <v>27292478</v>
       </c>
       <c r="F74" t="n">
-        <v>441.6832356709622</v>
+        <v>1182.53267810611</v>
       </c>
       <c r="G74" t="n">
-        <v>1238.74397211669</v>
+        <v>1963.259160451269</v>
       </c>
       <c r="H74" t="n">
-        <v>1.14</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>6443020</v>
+        <v>6554188</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8253895</v>
+        <v>8253720</v>
       </c>
       <c r="E75" t="n">
-        <v>11759909</v>
+        <v>11759660</v>
       </c>
       <c r="F75" t="n">
-        <v>191.544538988494</v>
+        <v>174.2755998072694</v>
       </c>
       <c r="G75" t="n">
-        <v>2438.229875979937</v>
+        <v>2288.177843917888</v>
       </c>
       <c r="H75" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I75" t="n">
-        <v>314742</v>
+        <v>306997</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15655395</v>
+        <v>15886783</v>
       </c>
       <c r="F76" t="n">
-        <v>660.0605477886826</v>
+        <v>688.6963402949899</v>
       </c>
       <c r="G76" t="n">
-        <v>0.541342683979103</v>
+        <v>0.5415286979342973</v>
       </c>
       <c r="H76" t="n">
         <v>1.26</v>
       </c>
       <c r="I76" t="n">
-        <v>1110675</v>
+        <v>1106936</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73084486</v>
+        <v>73225838</v>
       </c>
       <c r="E77" t="n">
-        <v>101194811</v>
+        <v>101390454</v>
       </c>
       <c r="F77" t="n">
-        <v>8145.395965263129</v>
+        <v>7604.226235667672</v>
       </c>
       <c r="G77" t="n">
-        <v>18001.51815919668</v>
+        <v>17177.74387854867</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>7338155</v>
+        <v>7380969</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6285368</v>
+        <v>6246355</v>
       </c>
       <c r="E78" t="n">
-        <v>6285368</v>
+        <v>6246355</v>
       </c>
       <c r="F78" t="n">
-        <v>335.8186885265091</v>
+        <v>3045.761185768479</v>
       </c>
       <c r="G78" t="n">
-        <v>285.3995959703116</v>
+        <v>288.3989654519976</v>
       </c>
       <c r="H78" t="n">
-        <v>2.25</v>
+        <v>1.14</v>
       </c>
       <c r="I78" t="n">
-        <v>1450670</v>
+        <v>1467903</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>55925</v>
+        <v>54871</v>
       </c>
       <c r="E79" t="n">
-        <v>291794</v>
+        <v>286292</v>
       </c>
       <c r="F79" t="n">
-        <v>537.204853270487</v>
+        <v>1244.028330656889</v>
       </c>
       <c r="G79" t="n">
-        <v>23.67943613472109</v>
+        <v>75.7303911014329</v>
       </c>
       <c r="H79" t="n">
-        <v>0.83</v>
+        <v>0.35</v>
       </c>
       <c r="I79" t="n">
-        <v>206939</v>
+        <v>205690</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25107909</v>
+        <v>25261506</v>
       </c>
       <c r="F80" t="n">
-        <v>3160.443420176126</v>
+        <v>2672.523321510203</v>
       </c>
       <c r="G80" t="n">
-        <v>2873.562121668856</v>
+        <v>2931.377143361401</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.79</v>
       </c>
       <c r="I80" t="n">
-        <v>51026</v>
+        <v>51700</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>571219353</v>
+        <v>577581156</v>
       </c>
       <c r="E81" t="n">
-        <v>2212248278</v>
+        <v>2236886601</v>
       </c>
       <c r="F81" t="n">
-        <v>142404.5837769717</v>
+        <v>146272.5726269787</v>
       </c>
       <c r="G81" t="n">
-        <v>283736.8869299561</v>
+        <v>284356.4512087367</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I81" t="n">
-        <v>60746584</v>
+        <v>61784276</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7257993</v>
+        <v>7379901</v>
       </c>
       <c r="E82" t="n">
-        <v>10398444</v>
+        <v>10573057</v>
       </c>
       <c r="F82" t="n">
-        <v>1126.542817968908</v>
+        <v>1064.453396411443</v>
       </c>
       <c r="G82" t="n">
-        <v>1753.136670587956</v>
+        <v>2325.826591841602</v>
       </c>
       <c r="H82" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>179873</v>
+        <v>181388</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106708127</v>
+        <v>108668687</v>
       </c>
       <c r="E83" t="n">
-        <v>1010228578</v>
+        <v>1028789614</v>
       </c>
       <c r="F83" t="n">
-        <v>35541.65445023602</v>
+        <v>17061.65267850469</v>
       </c>
       <c r="G83" t="n">
-        <v>24012.03745648669</v>
+        <v>10929.39939493488</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I83" t="n">
-        <v>16315555</v>
+        <v>17166561</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1078381</v>
+        <v>1064356</v>
       </c>
       <c r="E84" t="n">
-        <v>4175725</v>
+        <v>4121419</v>
       </c>
       <c r="F84" t="n">
-        <v>1381.09642983636</v>
+        <v>1100.168365888213</v>
       </c>
       <c r="G84" t="n">
-        <v>788.1054443934588</v>
+        <v>645.7385644761416</v>
       </c>
       <c r="H84" t="n">
         <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>315236</v>
+        <v>206368</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120315873</v>
+        <v>120738446</v>
       </c>
       <c r="E85" t="n">
-        <v>461551053</v>
+        <v>463172113</v>
       </c>
       <c r="F85" t="n">
-        <v>77087.25149431573</v>
+        <v>57604.29397143892</v>
       </c>
       <c r="G85" t="n">
-        <v>83082.58089145599</v>
+        <v>75274.30571046255</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I85" t="n">
-        <v>39456475</v>
+        <v>37081630</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5120849</v>
+        <v>5140620</v>
       </c>
       <c r="E86" t="n">
-        <v>19029172</v>
+        <v>19102642</v>
       </c>
       <c r="F86" t="n">
-        <v>625.6657697121508</v>
+        <v>601.0909906170833</v>
       </c>
       <c r="G86" t="n">
-        <v>358.8730239650994</v>
+        <v>431.4664014772332</v>
       </c>
       <c r="H86" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>144376</v>
+        <v>145112</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35966193</v>
+        <v>37175137</v>
       </c>
       <c r="F87" t="n">
-        <v>5125.785697679044</v>
+        <v>4397.243810915582</v>
       </c>
       <c r="G87" t="n">
-        <v>4649.277301389351</v>
+        <v>712.6148166591637</v>
       </c>
       <c r="H87" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I87" t="n">
-        <v>8032901</v>
+        <v>8147574</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23692187</v>
+        <v>23720970</v>
       </c>
       <c r="F88" t="n">
-        <v>1114.550902192787</v>
+        <v>949.1929228534558</v>
       </c>
       <c r="G88" t="n">
-        <v>953.8055190250856</v>
+        <v>1025.347692913307</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="I88" t="n">
-        <v>10152.58</v>
+        <v>10257.09</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89327141</v>
+        <v>89436357</v>
       </c>
       <c r="E89" t="n">
-        <v>330188757</v>
+        <v>330591394</v>
       </c>
       <c r="F89" t="n">
-        <v>1271.312783269876</v>
+        <v>1230.321901664981</v>
       </c>
       <c r="G89" t="n">
-        <v>1342.815145263258</v>
+        <v>1130.132726606334</v>
       </c>
       <c r="H89" t="n">
-        <v>0.44</v>
+        <v>1.09</v>
       </c>
       <c r="I89" t="n">
-        <v>271945</v>
+        <v>284273</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18198490</v>
+        <v>18828057</v>
       </c>
       <c r="E90" t="n">
-        <v>18198490</v>
+        <v>18828057</v>
       </c>
       <c r="F90" t="n">
-        <v>3081.862363046143</v>
+        <v>3594.009120874823</v>
       </c>
       <c r="G90" t="n">
-        <v>3438.636109629386</v>
+        <v>2991.735707670358</v>
       </c>
       <c r="H90" t="n">
-        <v>0.98</v>
+        <v>0.14</v>
       </c>
       <c r="I90" t="n">
-        <v>7245025</v>
+        <v>7343670</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3797258</v>
+        <v>3798296</v>
       </c>
       <c r="E91" t="n">
-        <v>8277489</v>
+        <v>8279753</v>
       </c>
       <c r="F91" t="n">
-        <v>2101.054491506493</v>
+        <v>1866.713312630081</v>
       </c>
       <c r="G91" t="n">
-        <v>1114.931478385016</v>
+        <v>1104.565507890911</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2050190</v>
+        <v>2070916</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>460817069</v>
+        <v>466922941</v>
       </c>
       <c r="E92" t="n">
-        <v>1604065867</v>
+        <v>1625319897</v>
       </c>
       <c r="F92" t="n">
-        <v>167801.2746055508</v>
+        <v>161177.6556868794</v>
       </c>
       <c r="G92" t="n">
-        <v>160521.5975822642</v>
+        <v>158367.1605537141</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I92" t="n">
-        <v>47311936</v>
+        <v>47812136</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2350364</v>
+        <v>2317915</v>
       </c>
       <c r="E93" t="n">
-        <v>9401455</v>
+        <v>9271662</v>
       </c>
       <c r="F93" t="n">
-        <v>1498.167993584864</v>
+        <v>937.4907970711645</v>
       </c>
       <c r="G93" t="n">
-        <v>7308.438416270052</v>
+        <v>1265.444993967202</v>
       </c>
       <c r="H93" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I93" t="n">
-        <v>7615648</v>
+        <v>7764625</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>208240635</v>
+        <v>210605962</v>
       </c>
       <c r="E94" t="n">
-        <v>640261586</v>
+        <v>647534079</v>
       </c>
       <c r="F94" t="n">
-        <v>88899.32894892078</v>
+        <v>93961.01097819021</v>
       </c>
       <c r="G94" t="n">
-        <v>93196.14447928421</v>
+        <v>99834.25555869503</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>22656609</v>
+        <v>22959278</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>133450457</v>
+        <v>135108154</v>
       </c>
       <c r="E95" t="n">
-        <v>348635616</v>
+        <v>352966304</v>
       </c>
       <c r="F95" t="n">
-        <v>25832.33203930562</v>
+        <v>30293.60051013451</v>
       </c>
       <c r="G95" t="n">
-        <v>30097.17933683133</v>
+        <v>30450.04218357357</v>
       </c>
       <c r="H95" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I95" t="n">
-        <v>8781958</v>
+        <v>8382020</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>378237807</v>
+        <v>380530367</v>
       </c>
       <c r="E96" t="n">
-        <v>2161358899</v>
+        <v>2174459238</v>
       </c>
       <c r="F96" t="n">
-        <v>28928.25845914246</v>
+        <v>27906.43185483856</v>
       </c>
       <c r="G96" t="n">
-        <v>40786.63286466139</v>
+        <v>35736.46679568074</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I96" t="n">
-        <v>61580092</v>
+        <v>62638787</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>589841685</v>
+        <v>587953168</v>
       </c>
       <c r="E2" t="n">
-        <v>1144709528</v>
+        <v>1141067602</v>
       </c>
       <c r="F2" t="n">
-        <v>19931.81445472262</v>
+        <v>16436.73277555663</v>
       </c>
       <c r="G2" t="n">
-        <v>28388.39856424558</v>
+        <v>36386.00471039999</v>
       </c>
       <c r="H2" t="n">
         <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>47242075</v>
+        <v>47649489</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1406882</v>
+        <v>1415502</v>
       </c>
       <c r="E3" t="n">
-        <v>4547620</v>
+        <v>4575483</v>
       </c>
       <c r="F3" t="n">
-        <v>197.1439056931835</v>
+        <v>290.2911897550061</v>
       </c>
       <c r="G3" t="n">
-        <v>569.8710169683512</v>
+        <v>253.2407880394653</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="I3" t="n">
-        <v>188462</v>
+        <v>228855</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249469185</v>
+        <v>251571223</v>
       </c>
       <c r="E4" t="n">
-        <v>1564386194</v>
+        <v>1577567776</v>
       </c>
       <c r="F4" t="n">
-        <v>97854.01274974541</v>
+        <v>100187.7291747994</v>
       </c>
       <c r="G4" t="n">
-        <v>101440.4078353791</v>
+        <v>110017.447913287</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>26708881</v>
+        <v>27942747</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140348431</v>
+        <v>140098388</v>
       </c>
       <c r="E5" t="n">
-        <v>155527995</v>
+        <v>155250908</v>
       </c>
       <c r="F5" t="n">
-        <v>4118.619908619507</v>
+        <v>5753.464480956841</v>
       </c>
       <c r="G5" t="n">
-        <v>9034.990360631709</v>
+        <v>8722.681313733863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>53539335</v>
+        <v>54004091</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>682193</v>
+        <v>682577</v>
       </c>
       <c r="E6" t="n">
-        <v>13253124</v>
+        <v>13248313</v>
       </c>
       <c r="F6" t="n">
-        <v>658.5352473333243</v>
+        <v>651.9706875320373</v>
       </c>
       <c r="G6" t="n">
-        <v>310.7385435625402</v>
+        <v>300.5082804463742</v>
       </c>
       <c r="H6" t="n">
         <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>19851.33</v>
+        <v>18366.03</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>493780557</v>
+        <v>492958291</v>
       </c>
       <c r="E7" t="n">
-        <v>493780557</v>
+        <v>492958295</v>
       </c>
       <c r="F7" t="n">
-        <v>50902.15691902876</v>
+        <v>51468.63048157548</v>
       </c>
       <c r="G7" t="n">
-        <v>33688.51890710458</v>
+        <v>52424.34861566609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>76315488</v>
+        <v>77446150</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4560490</v>
+        <v>4544860</v>
       </c>
       <c r="E8" t="n">
-        <v>4560490</v>
+        <v>4544860</v>
       </c>
       <c r="F8" t="n">
-        <v>967.894178214035</v>
+        <v>796.3207369452502</v>
       </c>
       <c r="G8" t="n">
-        <v>1176.028214038304</v>
+        <v>1692.851099914535</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>2253427</v>
+        <v>2235951</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1969996</v>
+        <v>1987382</v>
       </c>
       <c r="F9" t="n">
-        <v>310.4729318973066</v>
+        <v>239.5069629829915</v>
       </c>
       <c r="G9" t="n">
-        <v>32.34144244280294</v>
+        <v>5795.198753900278</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
-        <v>307517</v>
+        <v>309574</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1765642</v>
+        <v>1716793</v>
       </c>
       <c r="F10" t="n">
-        <v>280.2699105724016</v>
+        <v>230.8757294023933</v>
       </c>
       <c r="G10" t="n">
-        <v>306.9317664551515</v>
+        <v>1507.387476693646</v>
       </c>
       <c r="H10" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1292318</v>
+        <v>1309031</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109036970</v>
+        <v>109331094</v>
       </c>
       <c r="E11" t="n">
-        <v>205412726</v>
+        <v>205966821</v>
       </c>
       <c r="F11" t="n">
-        <v>2485.763332003952</v>
+        <v>1452.875366545976</v>
       </c>
       <c r="G11" t="n">
-        <v>1398.388123774987</v>
+        <v>2451.037806971167</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>4105659</v>
+        <v>4151182</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11832578</v>
+        <v>11933848</v>
       </c>
       <c r="E12" t="n">
-        <v>29449146</v>
+        <v>29701190</v>
       </c>
       <c r="F12" t="n">
-        <v>151.1300379886906</v>
+        <v>152.7260095652333</v>
       </c>
       <c r="G12" t="n">
-        <v>3339.94921699524</v>
+        <v>3252.047365141869</v>
       </c>
       <c r="H12" t="n">
-        <v>0.24</v>
+        <v>1.07</v>
       </c>
       <c r="I12" t="n">
-        <v>1517290</v>
+        <v>1508912</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108757669</v>
+        <v>108687724</v>
       </c>
       <c r="E13" t="n">
-        <v>422735187</v>
+        <v>422438936</v>
       </c>
       <c r="F13" t="n">
-        <v>3019.426648008874</v>
+        <v>2491.935615364931</v>
       </c>
       <c r="G13" t="n">
-        <v>3882.47060432754</v>
+        <v>4872.432255414275</v>
       </c>
       <c r="H13" t="n">
         <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>12563044</v>
+        <v>12412449</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4684634</v>
+        <v>4731183</v>
       </c>
       <c r="E14" t="n">
-        <v>6896035</v>
+        <v>6964558</v>
       </c>
       <c r="F14" t="n">
-        <v>177.3698649279805</v>
+        <v>13.66862972881211</v>
       </c>
       <c r="G14" t="n">
-        <v>1971.400670516426</v>
+        <v>373.473054771256</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="I14" t="n">
-        <v>565501</v>
+        <v>573585</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="E15" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="F15" t="n">
-        <v>52182.54942444115</v>
+        <v>40326.33178363105</v>
       </c>
       <c r="G15" t="n">
-        <v>61239.21171925378</v>
+        <v>86104.05192160436</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>95061304</v>
+        <v>91573245</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63386582</v>
+        <v>63251055</v>
       </c>
       <c r="E16" t="n">
-        <v>325059394</v>
+        <v>324364386</v>
       </c>
       <c r="F16" t="n">
-        <v>16041.50994855999</v>
+        <v>14337.75856329198</v>
       </c>
       <c r="G16" t="n">
-        <v>11911.69066558818</v>
+        <v>21094.14107722557</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>27331178</v>
+        <v>27186035</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="E17" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="F17" t="n">
-        <v>50382.94367363849</v>
+        <v>59131.9164706388</v>
       </c>
       <c r="G17" t="n">
-        <v>39231.28053069687</v>
+        <v>60070.54672555091</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>26095804</v>
+        <v>26301252</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2569031</v>
+        <v>2571315</v>
       </c>
       <c r="E18" t="n">
-        <v>6567950</v>
+        <v>6573789</v>
       </c>
       <c r="F18" t="n">
-        <v>1053.652532926641</v>
+        <v>818.7094194674947</v>
       </c>
       <c r="G18" t="n">
-        <v>1950.646707981107</v>
+        <v>1621.427922925462</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>81155</v>
+        <v>80763</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80383541</v>
+        <v>77806373</v>
       </c>
       <c r="E19" t="n">
-        <v>224894283</v>
+        <v>217730498</v>
       </c>
       <c r="F19" t="n">
-        <v>20705.602893555</v>
+        <v>24290.0753125896</v>
       </c>
       <c r="G19" t="n">
-        <v>15314.2086902038</v>
+        <v>20211.5930282501</v>
       </c>
       <c r="H19" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>60338850</v>
+        <v>54914409</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1600492</v>
+        <v>1601069</v>
       </c>
       <c r="E20" t="n">
-        <v>9189430</v>
+        <v>9192742</v>
       </c>
       <c r="F20" t="n">
-        <v>309.0000785147096</v>
+        <v>210.9980892215918</v>
       </c>
       <c r="G20" t="n">
-        <v>783.5731543222166</v>
+        <v>741.614252500727</v>
       </c>
       <c r="H20" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>247297</v>
+        <v>128811</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162757</v>
+        <v>163215</v>
       </c>
       <c r="E21" t="n">
-        <v>1099114</v>
+        <v>1102209</v>
       </c>
       <c r="F21" t="n">
-        <v>5.349115516787275</v>
+        <v>5.349288896975631</v>
       </c>
       <c r="G21" t="n">
-        <v>5.806241085034597</v>
+        <v>5.806429281974784</v>
       </c>
       <c r="H21" t="n">
         <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3210697</v>
+        <v>3220161</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>248636</v>
+        <v>245753</v>
       </c>
       <c r="F22" t="n">
-        <v>28.84475345464242</v>
+        <v>1.331970033968846</v>
       </c>
       <c r="G22" t="n">
-        <v>109.4693642573991</v>
+        <v>55.21879939208076</v>
       </c>
       <c r="H22" t="n">
         <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>3874.17</v>
+        <v>3879.69</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85574927</v>
+        <v>87958598</v>
       </c>
       <c r="E23" t="n">
-        <v>178416849</v>
+        <v>183386613</v>
       </c>
       <c r="F23" t="n">
-        <v>19647.3075468928</v>
+        <v>22261.41512803298</v>
       </c>
       <c r="G23" t="n">
-        <v>35564.09788053905</v>
+        <v>44518.75572641815</v>
       </c>
       <c r="H23" t="n">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>72069548</v>
+        <v>76795581</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195548969</v>
+        <v>194892617</v>
       </c>
       <c r="E24" t="n">
-        <v>679354792</v>
+        <v>677074566</v>
       </c>
       <c r="F24" t="n">
-        <v>63987.05123356258</v>
+        <v>59718.86657230122</v>
       </c>
       <c r="G24" t="n">
-        <v>61628.84505355715</v>
+        <v>65589.57422257996</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41358531</v>
+        <v>41318406</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>108901702</v>
+        <v>108874001</v>
       </c>
       <c r="E25" t="n">
-        <v>461872888</v>
+        <v>461707203</v>
       </c>
       <c r="F25" t="n">
-        <v>18530.06091906384</v>
+        <v>17847.36868016617</v>
       </c>
       <c r="G25" t="n">
-        <v>13240.74573080097</v>
+        <v>16393.73404006139</v>
       </c>
       <c r="H25" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>15002092</v>
+        <v>15082657</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5624297</v>
+        <v>5667626</v>
       </c>
       <c r="E26" t="n">
-        <v>7632769</v>
+        <v>7691455</v>
       </c>
       <c r="F26" t="n">
-        <v>781.8057441212784</v>
+        <v>892.1172743351975</v>
       </c>
       <c r="G26" t="n">
-        <v>773.2682700831321</v>
+        <v>622.7269008234509</v>
       </c>
       <c r="H26" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5464949</v>
+        <v>5551291</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>544914</v>
+        <v>562737</v>
       </c>
       <c r="E27" t="n">
-        <v>6609274</v>
+        <v>6825446</v>
       </c>
       <c r="F27" t="n">
-        <v>603.004462116956</v>
+        <v>784.0710249285719</v>
       </c>
       <c r="G27" t="n">
-        <v>405.8854162624732</v>
+        <v>98.77755864658079</v>
       </c>
       <c r="H27" t="n">
-        <v>1.18</v>
+        <v>0.65</v>
       </c>
       <c r="I27" t="n">
-        <v>2906983</v>
+        <v>2964298</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24272274</v>
+        <v>24333501</v>
       </c>
       <c r="E28" t="n">
-        <v>34300637</v>
+        <v>34387161</v>
       </c>
       <c r="F28" t="n">
-        <v>682.1381252958716</v>
+        <v>2152.394478599603</v>
       </c>
       <c r="G28" t="n">
-        <v>4781.460578406915</v>
+        <v>417.2232355261328</v>
       </c>
       <c r="H28" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="I28" t="n">
-        <v>157207</v>
+        <v>174748</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1415741026</v>
+        <v>1456643172</v>
       </c>
       <c r="E29" t="n">
-        <v>6788768154</v>
+        <v>6984902325</v>
       </c>
       <c r="F29" t="n">
-        <v>86456.9643817427</v>
+        <v>103987.5079029358</v>
       </c>
       <c r="G29" t="n">
-        <v>156760.6227654328</v>
+        <v>174134.4047843224</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>501483650</v>
+        <v>521811711</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>257918306</v>
+        <v>258845526</v>
       </c>
       <c r="E30" t="n">
-        <v>1113318588</v>
+        <v>1117320987</v>
       </c>
       <c r="F30" t="n">
-        <v>118467.1709741724</v>
+        <v>123376.7526841227</v>
       </c>
       <c r="G30" t="n">
-        <v>107064.3082538396</v>
+        <v>129503.4531938423</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142681278</v>
+        <v>142307978</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5314754</v>
+        <v>5351602</v>
       </c>
       <c r="E31" t="n">
-        <v>5320769</v>
+        <v>5357659</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4232878269705</v>
+        <v>113.4271477269912</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4760624269839</v>
+        <v>156.4813874529832</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>144075</v>
+        <v>143130</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16184649</v>
+        <v>15954805</v>
       </c>
       <c r="E32" t="n">
-        <v>40461624</v>
+        <v>39887013</v>
       </c>
       <c r="F32" t="n">
-        <v>1958.900311463436</v>
+        <v>1437.872948050967</v>
       </c>
       <c r="G32" t="n">
-        <v>4550.72840040238</v>
+        <v>6593.127723757588</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="I32" t="n">
-        <v>5060095</v>
+        <v>5076346</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19105395</v>
+        <v>19121855</v>
       </c>
       <c r="F33" t="n">
-        <v>1629.688769622667</v>
+        <v>2792.523792788285</v>
       </c>
       <c r="G33" t="n">
-        <v>1958.355902714472</v>
+        <v>3512.860352418041</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>55929</v>
+        <v>74031</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4051956</v>
+        <v>4047717</v>
       </c>
       <c r="E34" t="n">
-        <v>11670127</v>
+        <v>11657885</v>
       </c>
       <c r="F34" t="n">
-        <v>1357.353269754701</v>
+        <v>1286.486156658786</v>
       </c>
       <c r="G34" t="n">
-        <v>1308.285133844433</v>
+        <v>2021.503688191745</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="I34" t="n">
-        <v>460560</v>
+        <v>485710</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1437480</v>
+        <v>1453015</v>
       </c>
       <c r="F35" t="n">
-        <v>1.714568982383734</v>
+        <v>44.12999150426831</v>
       </c>
       <c r="G35" t="n">
-        <v>36.76343762330089</v>
+        <v>3.873006285627542</v>
       </c>
       <c r="H35" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="I35" t="n">
-        <v>8058.83</v>
+        <v>7949.99</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13974841</v>
+        <v>14045645</v>
       </c>
       <c r="E36" t="n">
-        <v>67682386</v>
+        <v>68025298</v>
       </c>
       <c r="F36" t="n">
-        <v>747.8625509999918</v>
+        <v>3636.945885491157</v>
       </c>
       <c r="G36" t="n">
-        <v>3914.287923736271</v>
+        <v>5380.643822373182</v>
       </c>
       <c r="H36" t="n">
-        <v>0.58</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>5554638</v>
+        <v>5654012</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1233768</v>
+        <v>1233616</v>
       </c>
       <c r="E37" t="n">
-        <v>8074979</v>
+        <v>8073985</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2704758902953924</v>
+        <v>0.2704847375509884</v>
       </c>
       <c r="G37" t="n">
-        <v>2551.595276308094</v>
+        <v>2275.752843576744</v>
       </c>
       <c r="H37" t="n">
         <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>349151</v>
+        <v>336939</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1838765723</v>
+        <v>1844644801</v>
       </c>
       <c r="F38" t="n">
-        <v>78465.22376024986</v>
+        <v>71211.71132722114</v>
       </c>
       <c r="G38" t="n">
-        <v>74171.20883272294</v>
+        <v>75873.54323789894</v>
       </c>
       <c r="H38" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I38" t="n">
-        <v>30809944</v>
+        <v>31348796</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29896493</v>
+        <v>29885184</v>
       </c>
       <c r="E39" t="n">
-        <v>93088087</v>
+        <v>93052874</v>
       </c>
       <c r="F39" t="n">
-        <v>3179.90344811365</v>
+        <v>2091.870174358231</v>
       </c>
       <c r="G39" t="n">
-        <v>11895.52104442777</v>
+        <v>13449.72214864713</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>10593493</v>
+        <v>10647120</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>192722507</v>
+        <v>193170320</v>
       </c>
       <c r="E40" t="n">
-        <v>1091313253</v>
+        <v>1093849043</v>
       </c>
       <c r="F40" t="n">
-        <v>48292.83004059748</v>
+        <v>11363.42748401502</v>
       </c>
       <c r="G40" t="n">
-        <v>76563.44160024234</v>
+        <v>53087.8968691866</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>86466478</v>
+        <v>86528385</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123707878</v>
+        <v>122875167</v>
       </c>
       <c r="E41" t="n">
-        <v>916354651</v>
+        <v>910186422</v>
       </c>
       <c r="F41" t="n">
-        <v>62282.19812275797</v>
+        <v>60177.06892683999</v>
       </c>
       <c r="G41" t="n">
-        <v>206062.4091814576</v>
+        <v>182588.6484898212</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I41" t="n">
-        <v>35726387</v>
+        <v>35763938</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29591230</v>
+        <v>29812855</v>
       </c>
       <c r="E42" t="n">
-        <v>140371003</v>
+        <v>141422320</v>
       </c>
       <c r="F42" t="n">
-        <v>5410.08027389438</v>
+        <v>6751.346113653747</v>
       </c>
       <c r="G42" t="n">
-        <v>8472.433855649826</v>
+        <v>7437.126682207932</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I42" t="n">
-        <v>793089</v>
+        <v>755615</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3300391</v>
+        <v>3307141</v>
       </c>
       <c r="E43" t="n">
-        <v>7706963</v>
+        <v>7722727</v>
       </c>
       <c r="F43" t="n">
-        <v>1173.048317786243</v>
+        <v>1737.120169000446</v>
       </c>
       <c r="G43" t="n">
-        <v>1845.501831957583</v>
+        <v>1099.744479926991</v>
       </c>
       <c r="H43" t="n">
-        <v>1.85</v>
+        <v>0.6</v>
       </c>
       <c r="I43" t="n">
-        <v>609606</v>
+        <v>603257</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>319306726</v>
+        <v>320542421</v>
       </c>
       <c r="E44" t="n">
-        <v>2872681299</v>
+        <v>2883798383</v>
       </c>
       <c r="F44" t="n">
-        <v>40238.12639809505</v>
+        <v>34145.71659343563</v>
       </c>
       <c r="G44" t="n">
-        <v>34771.76391869201</v>
+        <v>34431.95956244269</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>69320024</v>
+        <v>70465198</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>625306</v>
+        <v>626032</v>
       </c>
       <c r="F45" t="n">
-        <v>761.5753133509157</v>
+        <v>761.6012304674454</v>
       </c>
       <c r="G45" t="n">
-        <v>224.3710845105158</v>
+        <v>213.7486143106876</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16181.66</v>
+        <v>16202.81</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1522399</v>
+        <v>1524559</v>
       </c>
       <c r="E46" t="n">
-        <v>12686662</v>
+        <v>12704659</v>
       </c>
       <c r="F46" t="n">
-        <v>1599.005267094736</v>
+        <v>1511.062844414255</v>
       </c>
       <c r="G46" t="n">
-        <v>263.6819424325064</v>
+        <v>206.3791731628056</v>
       </c>
       <c r="H46" t="n">
-        <v>0.63</v>
+        <v>0.86</v>
       </c>
       <c r="I46" t="n">
-        <v>30874</v>
+        <v>30887</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4715601</v>
+        <v>4721212</v>
       </c>
       <c r="E47" t="n">
-        <v>16660205</v>
+        <v>16680030</v>
       </c>
       <c r="F47" t="n">
-        <v>1156.902990409975</v>
+        <v>1059.558637221591</v>
       </c>
       <c r="G47" t="n">
-        <v>1259.520019957312</v>
+        <v>1081.572081090013</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I47" t="n">
-        <v>155193</v>
+        <v>159278</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46969678</v>
+        <v>46974603</v>
       </c>
       <c r="E48" t="n">
-        <v>271935027</v>
+        <v>271963542</v>
       </c>
       <c r="F48" t="n">
-        <v>14342.11757396992</v>
+        <v>15429.94326723997</v>
       </c>
       <c r="G48" t="n">
-        <v>16195.15298015</v>
+        <v>10565.31177034953</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>50201909</v>
+        <v>49249831</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2254903</v>
+        <v>2234482</v>
       </c>
       <c r="E49" t="n">
-        <v>12388824</v>
+        <v>12276627</v>
       </c>
       <c r="F49" t="n">
-        <v>187.8935196611041</v>
+        <v>329.0407827210104</v>
       </c>
       <c r="G49" t="n">
-        <v>615.3842243056641</v>
+        <v>666.1528306934644</v>
       </c>
       <c r="H49" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>94320</v>
+        <v>69307</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13350071</v>
+        <v>13381313</v>
       </c>
       <c r="E50" t="n">
-        <v>13395503</v>
+        <v>13426851</v>
       </c>
       <c r="F50" t="n">
-        <v>4419.991555030167</v>
+        <v>3737.146294844705</v>
       </c>
       <c r="G50" t="n">
-        <v>9724.09376817745</v>
+        <v>10742.72084568183</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7084991</v>
+        <v>7122930</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19500312</v>
+        <v>19554026</v>
       </c>
       <c r="E51" t="n">
-        <v>58464988</v>
+        <v>58626029</v>
       </c>
       <c r="F51" t="n">
-        <v>21489.34649996794</v>
+        <v>21349.76932085773</v>
       </c>
       <c r="G51" t="n">
-        <v>11784.41703705741</v>
+        <v>10201.78763385817</v>
       </c>
       <c r="H51" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="I51" t="n">
-        <v>4434805</v>
+        <v>4377600</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15187492</v>
+        <v>15333570</v>
       </c>
       <c r="E52" t="n">
-        <v>93089133</v>
+        <v>93984494</v>
       </c>
       <c r="F52" t="n">
-        <v>3088.878298409873</v>
+        <v>3905.178075651395</v>
       </c>
       <c r="G52" t="n">
-        <v>9376.255342349705</v>
+        <v>8492.2128246547</v>
       </c>
       <c r="H52" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>12231775</v>
+        <v>12232503</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49497602</v>
+        <v>49884383</v>
       </c>
       <c r="E53" t="n">
-        <v>213230256</v>
+        <v>214896469</v>
       </c>
       <c r="F53" t="n">
-        <v>19070.82525511948</v>
+        <v>18852.67322828457</v>
       </c>
       <c r="G53" t="n">
-        <v>19483.55450964123</v>
+        <v>22047.14799289315</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="I53" t="n">
-        <v>12526068</v>
+        <v>13195726</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1014979</v>
+        <v>1012500</v>
       </c>
       <c r="E54" t="n">
-        <v>2966606</v>
+        <v>2959361</v>
       </c>
       <c r="F54" t="n">
-        <v>108.4746324924548</v>
+        <v>313.9727011127101</v>
       </c>
       <c r="G54" t="n">
-        <v>1231.296600371026</v>
+        <v>1546.968905929417</v>
       </c>
       <c r="H54" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>11562.69</v>
+        <v>12634.68</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30729343</v>
+        <v>30926637</v>
       </c>
       <c r="E55" t="n">
-        <v>77484652</v>
+        <v>77982131</v>
       </c>
       <c r="F55" t="n">
-        <v>3596.48924778788</v>
+        <v>8480.597112784208</v>
       </c>
       <c r="G55" t="n">
-        <v>19142.6042091028</v>
+        <v>449.5345671961516</v>
       </c>
       <c r="H55" t="n">
-        <v>0.18</v>
+        <v>0.84</v>
       </c>
       <c r="I55" t="n">
-        <v>6163303</v>
+        <v>6202924</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27686507</v>
+        <v>28285169</v>
       </c>
       <c r="E56" t="n">
-        <v>65677529</v>
+        <v>67097666</v>
       </c>
       <c r="F56" t="n">
-        <v>5267.805500536685</v>
+        <v>1264.172540449702</v>
       </c>
       <c r="G56" t="n">
-        <v>4737.641825239351</v>
+        <v>1557.67402127643</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>630667</v>
+        <v>637685</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12172094</v>
+        <v>12124055</v>
       </c>
       <c r="E57" t="n">
-        <v>18528671</v>
+        <v>18455546</v>
       </c>
       <c r="F57" t="n">
-        <v>3429.154292671168</v>
+        <v>2195.535127815646</v>
       </c>
       <c r="G57" t="n">
-        <v>3225.076741644176</v>
+        <v>5498.714742195271</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I57" t="n">
-        <v>672063</v>
+        <v>672503</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>288745612</v>
+        <v>288598960</v>
       </c>
       <c r="E58" t="n">
-        <v>288745612</v>
+        <v>288598960</v>
       </c>
       <c r="F58" t="n">
-        <v>43276.45468228084</v>
+        <v>58977.90791428886</v>
       </c>
       <c r="G58" t="n">
-        <v>65140.70433085036</v>
+        <v>71876.60654347914</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>93587535</v>
+        <v>93142839</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11625841</v>
+        <v>11630690</v>
       </c>
       <c r="F59" t="n">
-        <v>98.27974145828851</v>
+        <v>141.3731652751998</v>
       </c>
       <c r="G59" t="n">
-        <v>37.99442332026988</v>
+        <v>27.81939743166294</v>
       </c>
       <c r="H59" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>80557</v>
+        <v>79440</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84024420</v>
+        <v>84069589</v>
       </c>
       <c r="E60" t="n">
-        <v>484184951</v>
+        <v>484445235</v>
       </c>
       <c r="F60" t="n">
-        <v>91358.57757678739</v>
+        <v>96800.53699120597</v>
       </c>
       <c r="G60" t="n">
-        <v>104371.9001613651</v>
+        <v>96766.98294414961</v>
       </c>
       <c r="H60" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>21224105</v>
+        <v>21292420</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9108327</v>
+        <v>9157575</v>
       </c>
       <c r="E61" t="n">
-        <v>9108327</v>
+        <v>9157575</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.97</v>
+        <v>11.68</v>
       </c>
       <c r="I61" t="n">
-        <v>2937035</v>
+        <v>2951118</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29180678</v>
+        <v>29432778</v>
       </c>
       <c r="E62" t="n">
-        <v>130653865</v>
+        <v>131782622</v>
       </c>
       <c r="F62" t="n">
-        <v>26749.97253777093</v>
+        <v>26779.22946988228</v>
       </c>
       <c r="G62" t="n">
-        <v>7828.369483703736</v>
+        <v>17680.93489479437</v>
       </c>
       <c r="H62" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="I62" t="n">
-        <v>14884460</v>
+        <v>15071503</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12881831</v>
+        <v>12923224</v>
       </c>
       <c r="E63" t="n">
-        <v>25745602</v>
+        <v>25828331</v>
       </c>
       <c r="F63" t="n">
-        <v>2213.476355960107</v>
+        <v>2215.776584176526</v>
       </c>
       <c r="G63" t="n">
-        <v>1701.482625256219</v>
+        <v>1687.711837356431</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>15871.72</v>
+        <v>14044.68</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1297698</v>
+        <v>1319581</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>136.1330512228434</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>58.12453651332872</v>
       </c>
       <c r="H64" t="n">
-        <v>6.1</v>
+        <v>2.99</v>
       </c>
       <c r="I64" t="n">
-        <v>90109</v>
+        <v>93359</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47853183</v>
+        <v>48041119</v>
       </c>
       <c r="E65" t="n">
-        <v>310315155</v>
+        <v>311533871</v>
       </c>
       <c r="F65" t="n">
-        <v>16750.41444540926</v>
+        <v>18744.56376492405</v>
       </c>
       <c r="G65" t="n">
-        <v>20198.49253938401</v>
+        <v>23002.02149502</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="I65" t="n">
-        <v>21820048</v>
+        <v>21960521</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4444263</v>
+        <v>4413253</v>
       </c>
       <c r="F66" t="n">
-        <v>120.2254852766457</v>
+        <v>106.0724755362383</v>
       </c>
       <c r="G66" t="n">
-        <v>327.9238470601532</v>
+        <v>1441.079757247615</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I66" t="n">
-        <v>208118</v>
+        <v>213516</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123904669</v>
+        <v>124091627</v>
       </c>
       <c r="E67" t="n">
-        <v>2051962792</v>
+        <v>2055058969</v>
       </c>
       <c r="F67" t="n">
-        <v>19763.29351555191</v>
+        <v>20879.90356529391</v>
       </c>
       <c r="G67" t="n">
-        <v>24374.97064487296</v>
+        <v>24116.00258151379</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>36394538</v>
+        <v>36608099</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22927716</v>
+        <v>22940181</v>
       </c>
       <c r="E68" t="n">
-        <v>137181133</v>
+        <v>137255712</v>
       </c>
       <c r="F68" t="n">
-        <v>6409.322840183735</v>
+        <v>41723.24427587238</v>
       </c>
       <c r="G68" t="n">
-        <v>45371.78334207019</v>
+        <v>44678.19159025716</v>
       </c>
       <c r="H68" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>18341876</v>
+        <v>18395368</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22634205</v>
+        <v>22307433</v>
       </c>
       <c r="E70" t="n">
-        <v>22634205</v>
+        <v>22307433</v>
       </c>
       <c r="F70" t="n">
-        <v>2521.479537609066</v>
+        <v>6520.038285284897</v>
       </c>
       <c r="G70" t="n">
-        <v>14260.61650887412</v>
+        <v>2881.123105199881</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I70" t="n">
-        <v>2381171</v>
+        <v>2377769</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32287575</v>
+        <v>32448946</v>
       </c>
       <c r="E71" t="n">
-        <v>161129885</v>
+        <v>161935199</v>
       </c>
       <c r="F71" t="n">
-        <v>17887.87070396586</v>
+        <v>18312.18656453822</v>
       </c>
       <c r="G71" t="n">
-        <v>56480.33446506766</v>
+        <v>53466.55903578203</v>
       </c>
       <c r="H71" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I71" t="n">
-        <v>14209853</v>
+        <v>14481201</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>151389</v>
+        <v>152965</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>31113</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>287874264</v>
+        <v>283786320</v>
       </c>
       <c r="E73" t="n">
-        <v>532633037</v>
+        <v>525069408</v>
       </c>
       <c r="F73" t="n">
-        <v>20383.32728454972</v>
+        <v>9040.97424316338</v>
       </c>
       <c r="G73" t="n">
-        <v>31584.04164485822</v>
+        <v>14224.48048392074</v>
       </c>
       <c r="H73" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="I73" t="n">
-        <v>18727669</v>
+        <v>21303475</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9206316</v>
+        <v>9043561</v>
       </c>
       <c r="E74" t="n">
-        <v>27292478</v>
+        <v>26809984</v>
       </c>
       <c r="F74" t="n">
-        <v>1182.53267810611</v>
+        <v>800.7270425887568</v>
       </c>
       <c r="G74" t="n">
-        <v>1963.259160451269</v>
+        <v>2104.49027578788</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="I74" t="n">
-        <v>6554188</v>
+        <v>6595787</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8253720</v>
+        <v>8279559</v>
       </c>
       <c r="E75" t="n">
-        <v>11759660</v>
+        <v>11796474</v>
       </c>
       <c r="F75" t="n">
-        <v>174.2755998072694</v>
+        <v>201.6042728375451</v>
       </c>
       <c r="G75" t="n">
-        <v>2288.177843917888</v>
+        <v>1734.239660304839</v>
       </c>
       <c r="H75" t="n">
         <v>0.85</v>
       </c>
       <c r="I75" t="n">
-        <v>306997</v>
+        <v>293510</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15886783</v>
+        <v>15863347</v>
       </c>
       <c r="F76" t="n">
-        <v>688.6963402949899</v>
+        <v>619.2310289026584</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5415286979342973</v>
+        <v>0.2905380336600194</v>
       </c>
       <c r="H76" t="n">
-        <v>1.26</v>
+        <v>2.01</v>
       </c>
       <c r="I76" t="n">
-        <v>1106936</v>
+        <v>1114669</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73225838</v>
+        <v>72636896</v>
       </c>
       <c r="E77" t="n">
-        <v>101390454</v>
+        <v>100575564</v>
       </c>
       <c r="F77" t="n">
-        <v>7604.226235667672</v>
+        <v>7909.829149524185</v>
       </c>
       <c r="G77" t="n">
-        <v>17177.74387854867</v>
+        <v>17762.99518448564</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I77" t="n">
-        <v>7380969</v>
+        <v>7416931</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6246355</v>
+        <v>6215850</v>
       </c>
       <c r="E78" t="n">
-        <v>6246355</v>
+        <v>6215850</v>
       </c>
       <c r="F78" t="n">
-        <v>3045.761185768479</v>
+        <v>542.3429760676534</v>
       </c>
       <c r="G78" t="n">
-        <v>288.3989654519976</v>
+        <v>177.0331441938684</v>
       </c>
       <c r="H78" t="n">
-        <v>1.14</v>
+        <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>1467903</v>
+        <v>1480841</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54871</v>
+        <v>54548</v>
       </c>
       <c r="E79" t="n">
-        <v>286292</v>
+        <v>284608</v>
       </c>
       <c r="F79" t="n">
-        <v>1244.028330656889</v>
+        <v>29.28690265711161</v>
       </c>
       <c r="G79" t="n">
-        <v>75.7303911014329</v>
+        <v>323.0945237000255</v>
       </c>
       <c r="H79" t="n">
-        <v>0.35</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="n">
-        <v>205690</v>
+        <v>201391</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25261506</v>
+        <v>25019789</v>
       </c>
       <c r="F80" t="n">
-        <v>2672.523321510203</v>
+        <v>2324.934643097763</v>
       </c>
       <c r="G80" t="n">
-        <v>2931.377143361401</v>
+        <v>4535.367819576181</v>
       </c>
       <c r="H80" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="I80" t="n">
-        <v>51700</v>
+        <v>50318</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>577581156</v>
+        <v>580535570</v>
       </c>
       <c r="E81" t="n">
-        <v>2236886601</v>
+        <v>2248328611</v>
       </c>
       <c r="F81" t="n">
-        <v>146272.5726269787</v>
+        <v>140452.5172563862</v>
       </c>
       <c r="G81" t="n">
-        <v>284356.4512087367</v>
+        <v>163060.0339993631</v>
       </c>
       <c r="H81" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>61784276</v>
+        <v>62388406</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7379901</v>
+        <v>7401263</v>
       </c>
       <c r="E82" t="n">
-        <v>10573057</v>
+        <v>10603662</v>
       </c>
       <c r="F82" t="n">
-        <v>1064.453396411443</v>
+        <v>1251.514694492441</v>
       </c>
       <c r="G82" t="n">
-        <v>2325.826591841602</v>
+        <v>757.6190121939086</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>181388</v>
+        <v>181599</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>108668687</v>
+        <v>109230563</v>
       </c>
       <c r="E83" t="n">
-        <v>1028789614</v>
+        <v>1034109019</v>
       </c>
       <c r="F83" t="n">
-        <v>17061.65267850469</v>
+        <v>21279.03988976421</v>
       </c>
       <c r="G83" t="n">
-        <v>10929.39939493488</v>
+        <v>11282.51219484381</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17166561</v>
+        <v>17579112</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1064356</v>
+        <v>1068230</v>
       </c>
       <c r="E84" t="n">
-        <v>4121419</v>
+        <v>4136418</v>
       </c>
       <c r="F84" t="n">
-        <v>1100.168365888213</v>
+        <v>929.4858446930771</v>
       </c>
       <c r="G84" t="n">
-        <v>645.7385644761416</v>
+        <v>536.8630537054645</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>206368</v>
+        <v>298007</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120738446</v>
+        <v>120120831</v>
       </c>
       <c r="E85" t="n">
-        <v>463172113</v>
+        <v>460802843</v>
       </c>
       <c r="F85" t="n">
-        <v>57604.29397143892</v>
+        <v>82254.37095900592</v>
       </c>
       <c r="G85" t="n">
-        <v>75274.30571046255</v>
+        <v>83597.1541822237</v>
       </c>
       <c r="H85" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>37081630</v>
+        <v>33456682</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5140620</v>
+        <v>5096972</v>
       </c>
       <c r="E86" t="n">
-        <v>19102642</v>
+        <v>18940445</v>
       </c>
       <c r="F86" t="n">
-        <v>601.0909906170833</v>
+        <v>583.4859607284267</v>
       </c>
       <c r="G86" t="n">
-        <v>431.4664014772332</v>
+        <v>417.0314103102374</v>
       </c>
       <c r="H86" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="I86" t="n">
-        <v>145112</v>
+        <v>97140</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>37175137</v>
+        <v>38145990</v>
       </c>
       <c r="F87" t="n">
-        <v>4397.243810915582</v>
+        <v>5605.986595814221</v>
       </c>
       <c r="G87" t="n">
-        <v>712.6148166591637</v>
+        <v>2405.901586824335</v>
       </c>
       <c r="H87" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>8147574</v>
+        <v>8418478</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23720970</v>
+        <v>23806953</v>
       </c>
       <c r="F88" t="n">
-        <v>949.1929228534558</v>
+        <v>1226.715968940116</v>
       </c>
       <c r="G88" t="n">
-        <v>1025.347692913307</v>
+        <v>698.5880497765068</v>
       </c>
       <c r="H88" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>10257.09</v>
+        <v>10131.01</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89436357</v>
+        <v>90918729</v>
       </c>
       <c r="E89" t="n">
-        <v>330591394</v>
+        <v>336070243</v>
       </c>
       <c r="F89" t="n">
-        <v>1230.321901664981</v>
+        <v>2970.436287727181</v>
       </c>
       <c r="G89" t="n">
-        <v>1130.132726606334</v>
+        <v>1105.091249852758</v>
       </c>
       <c r="H89" t="n">
-        <v>1.09</v>
+        <v>0.43</v>
       </c>
       <c r="I89" t="n">
-        <v>284273</v>
+        <v>310039</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18828057</v>
+        <v>19374388</v>
       </c>
       <c r="E90" t="n">
-        <v>18828057</v>
+        <v>19374388</v>
       </c>
       <c r="F90" t="n">
-        <v>3594.009120874823</v>
+        <v>3960.187043650735</v>
       </c>
       <c r="G90" t="n">
-        <v>2991.735707670358</v>
+        <v>2861.24553059893</v>
       </c>
       <c r="H90" t="n">
-        <v>0.14</v>
+        <v>0.74</v>
       </c>
       <c r="I90" t="n">
-        <v>7343670</v>
+        <v>6337396</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3798296</v>
+        <v>3808401</v>
       </c>
       <c r="E91" t="n">
-        <v>8279753</v>
+        <v>8301781</v>
       </c>
       <c r="F91" t="n">
-        <v>1866.713312630081</v>
+        <v>1961.632009428655</v>
       </c>
       <c r="G91" t="n">
-        <v>1104.565507890911</v>
+        <v>1110.623501435623</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2070916</v>
+        <v>2088693</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>466922941</v>
+        <v>467785611</v>
       </c>
       <c r="E92" t="n">
-        <v>1625319897</v>
+        <v>1628322780</v>
       </c>
       <c r="F92" t="n">
-        <v>161177.6556868794</v>
+        <v>63240.39140430618</v>
       </c>
       <c r="G92" t="n">
-        <v>158367.1605537141</v>
+        <v>73059.63134719055</v>
       </c>
       <c r="H92" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>47812136</v>
+        <v>47796945</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2317915</v>
+        <v>2321989</v>
       </c>
       <c r="E93" t="n">
-        <v>9271662</v>
+        <v>9287957</v>
       </c>
       <c r="F93" t="n">
-        <v>937.4907970711645</v>
+        <v>1468.813538361346</v>
       </c>
       <c r="G93" t="n">
-        <v>1265.444993967202</v>
+        <v>668.6567375798982</v>
       </c>
       <c r="H93" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="I93" t="n">
-        <v>7764625</v>
+        <v>7702470</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210605962</v>
+        <v>210515112</v>
       </c>
       <c r="E94" t="n">
-        <v>647534079</v>
+        <v>647254746</v>
       </c>
       <c r="F94" t="n">
-        <v>93961.01097819021</v>
+        <v>87646.69434497409</v>
       </c>
       <c r="G94" t="n">
-        <v>99834.25555869503</v>
+        <v>103813.8971904105</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>22959278</v>
+        <v>23003250</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>135108154</v>
+        <v>135951145</v>
       </c>
       <c r="E95" t="n">
-        <v>352966304</v>
+        <v>355168594</v>
       </c>
       <c r="F95" t="n">
-        <v>30293.60051013451</v>
+        <v>31133.7289893188</v>
       </c>
       <c r="G95" t="n">
-        <v>30450.04218357357</v>
+        <v>28952.27600079051</v>
       </c>
       <c r="H95" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>8382020</v>
+        <v>8319811</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>380530367</v>
+        <v>381056939</v>
       </c>
       <c r="E96" t="n">
-        <v>2174459238</v>
+        <v>2177468224</v>
       </c>
       <c r="F96" t="n">
-        <v>27906.43185483856</v>
+        <v>18763.62494594015</v>
       </c>
       <c r="G96" t="n">
-        <v>35736.46679568074</v>
+        <v>40597.22621011526</v>
       </c>
       <c r="H96" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>62638787</v>
+        <v>63622261</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>587953168</v>
+        <v>589715019</v>
       </c>
       <c r="E2" t="n">
-        <v>1141067602</v>
+        <v>1144486906</v>
       </c>
       <c r="F2" t="n">
-        <v>16436.73277555663</v>
+        <v>16172.90170317618</v>
       </c>
       <c r="G2" t="n">
-        <v>36386.00471039999</v>
+        <v>33638.2341370338</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>47649489</v>
+        <v>47564599</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1415502</v>
+        <v>1414561</v>
       </c>
       <c r="E3" t="n">
-        <v>4575483</v>
+        <v>4572441</v>
       </c>
       <c r="F3" t="n">
-        <v>290.2911897550061</v>
+        <v>227.6220382216422</v>
       </c>
       <c r="G3" t="n">
-        <v>253.2407880394653</v>
+        <v>344.621707595047</v>
       </c>
       <c r="H3" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>228855</v>
+        <v>229703</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251571223</v>
+        <v>251555377</v>
       </c>
       <c r="E4" t="n">
-        <v>1577567776</v>
+        <v>1577468413</v>
       </c>
       <c r="F4" t="n">
-        <v>100187.7291747994</v>
+        <v>111035.0164562319</v>
       </c>
       <c r="G4" t="n">
-        <v>110017.447913287</v>
+        <v>107718.370014831</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>27942747</v>
+        <v>28045436</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140098388</v>
+        <v>140156167</v>
       </c>
       <c r="E5" t="n">
-        <v>155250908</v>
+        <v>155314937</v>
       </c>
       <c r="F5" t="n">
-        <v>5753.464480956841</v>
+        <v>5926.283483557512</v>
       </c>
       <c r="G5" t="n">
-        <v>8722.681313733863</v>
+        <v>10739.87240999768</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>54004091</v>
+        <v>53529845</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>682577</v>
+        <v>682705</v>
       </c>
       <c r="E6" t="n">
-        <v>13248313</v>
+        <v>13250799</v>
       </c>
       <c r="F6" t="n">
-        <v>651.9706875320373</v>
+        <v>651.9706275322642</v>
       </c>
       <c r="G6" t="n">
-        <v>300.5082804463742</v>
+        <v>310.7485868930257</v>
       </c>
       <c r="H6" t="n">
         <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>18366.03</v>
+        <v>18209.8</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>492958291</v>
+        <v>492357583</v>
       </c>
       <c r="E7" t="n">
-        <v>492958295</v>
+        <v>492357583</v>
       </c>
       <c r="F7" t="n">
-        <v>51468.63048157548</v>
+        <v>51393.78690312687</v>
       </c>
       <c r="G7" t="n">
-        <v>52424.34861566609</v>
+        <v>50492.83039979169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>77446150</v>
+        <v>72283407</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4544860</v>
+        <v>4546876</v>
       </c>
       <c r="E8" t="n">
-        <v>4544860</v>
+        <v>4546876</v>
       </c>
       <c r="F8" t="n">
-        <v>796.3207369452502</v>
+        <v>870.4220261417638</v>
       </c>
       <c r="G8" t="n">
-        <v>1692.851099914535</v>
+        <v>1396.603401916561</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="I8" t="n">
-        <v>2235951</v>
+        <v>2236860</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1987382</v>
+        <v>1982953</v>
       </c>
       <c r="F9" t="n">
-        <v>239.5069629829915</v>
+        <v>504.7977772279972</v>
       </c>
       <c r="G9" t="n">
-        <v>5795.198753900278</v>
+        <v>38.2220947366446</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
-        <v>309574</v>
+        <v>306290</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1716793</v>
+        <v>1697447</v>
       </c>
       <c r="F10" t="n">
-        <v>230.8757294023933</v>
+        <v>247.456750890062</v>
       </c>
       <c r="G10" t="n">
-        <v>1507.387476693646</v>
+        <v>1312.850827422418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1309031</v>
+        <v>1242446</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109331094</v>
+        <v>109351721</v>
       </c>
       <c r="E11" t="n">
-        <v>205966821</v>
+        <v>206005679</v>
       </c>
       <c r="F11" t="n">
-        <v>1452.875366545976</v>
+        <v>1492.211463255305</v>
       </c>
       <c r="G11" t="n">
-        <v>2451.037806971167</v>
+        <v>2461.1378610038</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>4151182</v>
+        <v>4159711</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11933848</v>
+        <v>11911125</v>
       </c>
       <c r="E12" t="n">
-        <v>29701190</v>
+        <v>29644635</v>
       </c>
       <c r="F12" t="n">
-        <v>152.7260095652333</v>
+        <v>117.1585378856209</v>
       </c>
       <c r="G12" t="n">
-        <v>3252.047365141869</v>
+        <v>2419.078996320172</v>
       </c>
       <c r="H12" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="I12" t="n">
-        <v>1508912</v>
+        <v>1501719</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108687724</v>
+        <v>108821775</v>
       </c>
       <c r="E13" t="n">
-        <v>422438936</v>
+        <v>422959953</v>
       </c>
       <c r="F13" t="n">
-        <v>2491.935615364931</v>
+        <v>2527.248875031592</v>
       </c>
       <c r="G13" t="n">
-        <v>4872.432255414275</v>
+        <v>3823.050484716273</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>12412449</v>
+        <v>12528109</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4731183</v>
+        <v>4674977</v>
       </c>
       <c r="E14" t="n">
-        <v>6964558</v>
+        <v>6881819</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66862972881211</v>
+        <v>13.6686285047481</v>
       </c>
       <c r="G14" t="n">
-        <v>373.473054771256</v>
+        <v>291.7699019699721</v>
       </c>
       <c r="H14" t="n">
         <v>1.43</v>
       </c>
       <c r="I14" t="n">
-        <v>573585</v>
+        <v>567307</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="E15" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="F15" t="n">
-        <v>40326.33178363105</v>
+        <v>44340.67078525035</v>
       </c>
       <c r="G15" t="n">
-        <v>86104.05192160436</v>
+        <v>81033.89040218206</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>91573245</v>
+        <v>91452530</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63251055</v>
+        <v>63232179</v>
       </c>
       <c r="E16" t="n">
-        <v>324364386</v>
+        <v>324267586</v>
       </c>
       <c r="F16" t="n">
-        <v>14337.75856329198</v>
+        <v>17223.27391737545</v>
       </c>
       <c r="G16" t="n">
-        <v>21094.14107722557</v>
+        <v>18146.07257462116</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>27186035</v>
+        <v>26641280</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="E17" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="F17" t="n">
-        <v>59131.9164706388</v>
+        <v>61918.80089756368</v>
       </c>
       <c r="G17" t="n">
-        <v>60070.54672555091</v>
+        <v>53671.3526797211</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>26301252</v>
+        <v>26254013</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2571315</v>
+        <v>2569681</v>
       </c>
       <c r="E18" t="n">
-        <v>6573789</v>
+        <v>6569598</v>
       </c>
       <c r="F18" t="n">
-        <v>818.7094194674947</v>
+        <v>831.1135664560084</v>
       </c>
       <c r="G18" t="n">
-        <v>1621.427922925462</v>
+        <v>1711.081547543996</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>80763</v>
+        <v>80997</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77806373</v>
+        <v>77864447</v>
       </c>
       <c r="E19" t="n">
-        <v>217730498</v>
+        <v>217893010</v>
       </c>
       <c r="F19" t="n">
-        <v>24290.0753125896</v>
+        <v>19872.31430397645</v>
       </c>
       <c r="G19" t="n">
-        <v>20211.5930282501</v>
+        <v>20625.50462462881</v>
       </c>
       <c r="H19" t="n">
         <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>54914409</v>
+        <v>54868656</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1601069</v>
+        <v>1604307</v>
       </c>
       <c r="E20" t="n">
-        <v>9192742</v>
+        <v>9211333</v>
       </c>
       <c r="F20" t="n">
-        <v>210.9980892215918</v>
+        <v>267.8723516920792</v>
       </c>
       <c r="G20" t="n">
-        <v>741.614252500727</v>
+        <v>173.7859016009354</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="I20" t="n">
-        <v>128811</v>
+        <v>256758</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>163215</v>
+        <v>163233</v>
       </c>
       <c r="E21" t="n">
-        <v>1102209</v>
+        <v>1102331</v>
       </c>
       <c r="F21" t="n">
-        <v>5.349288896975631</v>
+        <v>5.349288404689511</v>
       </c>
       <c r="G21" t="n">
-        <v>5.806429281974784</v>
+        <v>5.806428747618797</v>
       </c>
       <c r="H21" t="n">
         <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3220161</v>
+        <v>3231422</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>245753</v>
+        <v>244276</v>
       </c>
       <c r="F22" t="n">
-        <v>1.331970033968846</v>
+        <v>61.75443290206395</v>
       </c>
       <c r="G22" t="n">
-        <v>55.21879939208076</v>
+        <v>1.307303781833265</v>
       </c>
       <c r="H22" t="n">
         <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>3879.69</v>
+        <v>5493.93</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87958598</v>
+        <v>87596151</v>
       </c>
       <c r="E23" t="n">
-        <v>183386613</v>
+        <v>182630939</v>
       </c>
       <c r="F23" t="n">
-        <v>22261.41512803298</v>
+        <v>20859.07750723773</v>
       </c>
       <c r="G23" t="n">
-        <v>44518.75572641815</v>
+        <v>48276.99205328843</v>
       </c>
       <c r="H23" t="n">
         <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>76795581</v>
+        <v>77189099</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194892617</v>
+        <v>195474535</v>
       </c>
       <c r="E24" t="n">
-        <v>677074566</v>
+        <v>679096201</v>
       </c>
       <c r="F24" t="n">
-        <v>59718.86657230122</v>
+        <v>61906.45268285326</v>
       </c>
       <c r="G24" t="n">
-        <v>65589.57422257996</v>
+        <v>64211.18433334159</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>41318406</v>
+        <v>41331786</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>108874001</v>
+        <v>109190183</v>
       </c>
       <c r="E25" t="n">
-        <v>461707203</v>
+        <v>463048050</v>
       </c>
       <c r="F25" t="n">
-        <v>17847.36868016617</v>
+        <v>13757.19346168022</v>
       </c>
       <c r="G25" t="n">
-        <v>16393.73404006139</v>
+        <v>19318.57961756954</v>
       </c>
       <c r="H25" t="n">
         <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>15082657</v>
+        <v>15072155</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5667626</v>
+        <v>5677472</v>
       </c>
       <c r="E26" t="n">
-        <v>7691455</v>
+        <v>7705096</v>
       </c>
       <c r="F26" t="n">
-        <v>892.1172743351975</v>
+        <v>1471.305458326849</v>
       </c>
       <c r="G26" t="n">
-        <v>622.7269008234509</v>
+        <v>491.6058448507172</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5551291</v>
+        <v>5523286</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>562737</v>
+        <v>562439</v>
       </c>
       <c r="E27" t="n">
-        <v>6825446</v>
+        <v>6821840</v>
       </c>
       <c r="F27" t="n">
-        <v>784.0710249285719</v>
+        <v>908.6018238617756</v>
       </c>
       <c r="G27" t="n">
-        <v>98.77755864658079</v>
+        <v>575.353310702047</v>
       </c>
       <c r="H27" t="n">
-        <v>0.65</v>
+        <v>1.23</v>
       </c>
       <c r="I27" t="n">
-        <v>2964298</v>
+        <v>2942085</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24333501</v>
+        <v>23969022</v>
       </c>
       <c r="E28" t="n">
-        <v>34387161</v>
+        <v>33872093</v>
       </c>
       <c r="F28" t="n">
-        <v>2152.394478599603</v>
+        <v>2370.799918132078</v>
       </c>
       <c r="G28" t="n">
-        <v>417.2232355261328</v>
+        <v>338.9038630298846</v>
       </c>
       <c r="H28" t="n">
-        <v>2.83</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>174748</v>
+        <v>177299</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1456643172</v>
+        <v>1457736844</v>
       </c>
       <c r="E29" t="n">
-        <v>6984902325</v>
+        <v>6990146704</v>
       </c>
       <c r="F29" t="n">
-        <v>103987.5079029358</v>
+        <v>98757.3734597306</v>
       </c>
       <c r="G29" t="n">
-        <v>174134.4047843224</v>
+        <v>172808.8772416993</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>521811711</v>
+        <v>524325583</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>258845526</v>
+        <v>258740722</v>
       </c>
       <c r="E30" t="n">
-        <v>1117320987</v>
+        <v>1116868593</v>
       </c>
       <c r="F30" t="n">
-        <v>123376.7526841227</v>
+        <v>125315.1960840942</v>
       </c>
       <c r="G30" t="n">
-        <v>129503.4531938423</v>
+        <v>117789.367800145</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142307978</v>
+        <v>141468342</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5351602</v>
+        <v>5343284</v>
       </c>
       <c r="E31" t="n">
-        <v>5357659</v>
+        <v>5349331</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4271477269912</v>
+        <v>108.1440938113299</v>
       </c>
       <c r="G31" t="n">
-        <v>156.4813874529832</v>
+        <v>161.8303284920654</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>143130</v>
+        <v>143275</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15954805</v>
+        <v>16018393</v>
       </c>
       <c r="E32" t="n">
-        <v>39887013</v>
+        <v>40045983</v>
       </c>
       <c r="F32" t="n">
-        <v>1437.872948050967</v>
+        <v>1797.164009317297</v>
       </c>
       <c r="G32" t="n">
-        <v>6593.127723757588</v>
+        <v>5521.075849723544</v>
       </c>
       <c r="H32" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>5076346</v>
+        <v>5077395</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19121855</v>
+        <v>19312435</v>
       </c>
       <c r="F33" t="n">
-        <v>2792.523792788285</v>
+        <v>686.2976187188857</v>
       </c>
       <c r="G33" t="n">
-        <v>3512.860352418041</v>
+        <v>2176.063977051926</v>
       </c>
       <c r="H33" t="n">
-        <v>0.52</v>
+        <v>1.03</v>
       </c>
       <c r="I33" t="n">
-        <v>74031</v>
+        <v>79365</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4047717</v>
+        <v>4053378</v>
       </c>
       <c r="E34" t="n">
-        <v>11657885</v>
+        <v>11674189</v>
       </c>
       <c r="F34" t="n">
-        <v>1286.486156658786</v>
+        <v>1755.92173656052</v>
       </c>
       <c r="G34" t="n">
-        <v>2021.503688191745</v>
+        <v>1437.536134674062</v>
       </c>
       <c r="H34" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>485710</v>
+        <v>484228</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1453015</v>
+        <v>1459568</v>
       </c>
       <c r="F35" t="n">
-        <v>44.12999150426831</v>
+        <v>1.110973306372145</v>
       </c>
       <c r="G35" t="n">
-        <v>3.873006285627542</v>
+        <v>3.135409156193838</v>
       </c>
       <c r="H35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="I35" t="n">
-        <v>7949.99</v>
+        <v>7818.99</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14045645</v>
+        <v>14186289</v>
       </c>
       <c r="E36" t="n">
-        <v>68025298</v>
+        <v>68706464</v>
       </c>
       <c r="F36" t="n">
-        <v>3636.945885491157</v>
+        <v>4098.448551362422</v>
       </c>
       <c r="G36" t="n">
-        <v>5380.643822373182</v>
+        <v>5677.512177419855</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>5654012</v>
+        <v>5658811</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1233616</v>
+        <v>1234706</v>
       </c>
       <c r="E37" t="n">
-        <v>8073985</v>
+        <v>8081115</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2704847375509884</v>
+        <v>102.1382832064295</v>
       </c>
       <c r="G37" t="n">
-        <v>2275.752843576744</v>
+        <v>1846.359622286828</v>
       </c>
       <c r="H37" t="n">
         <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>336939</v>
+        <v>336410</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1844644801</v>
+        <v>1848762763</v>
       </c>
       <c r="F38" t="n">
-        <v>71211.71132722114</v>
+        <v>60813.22247534186</v>
       </c>
       <c r="G38" t="n">
-        <v>75873.54323789894</v>
+        <v>76320.96843687849</v>
       </c>
       <c r="H38" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>31348796</v>
+        <v>31505353</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29885184</v>
+        <v>30012325</v>
       </c>
       <c r="E39" t="n">
-        <v>93052874</v>
+        <v>93448749</v>
       </c>
       <c r="F39" t="n">
-        <v>2091.870174358231</v>
+        <v>1916.819725892177</v>
       </c>
       <c r="G39" t="n">
-        <v>13449.72214864713</v>
+        <v>16837.53871914531</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>10647120</v>
+        <v>10679165</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>193170320</v>
+        <v>192899985</v>
       </c>
       <c r="E40" t="n">
-        <v>1093849043</v>
+        <v>1092318243</v>
       </c>
       <c r="F40" t="n">
-        <v>11363.42748401502</v>
+        <v>16038.39868952963</v>
       </c>
       <c r="G40" t="n">
-        <v>53087.8968691866</v>
+        <v>50308.45566765864</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>86528385</v>
+        <v>86040145</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>122875167</v>
+        <v>123351147</v>
       </c>
       <c r="E41" t="n">
-        <v>910186422</v>
+        <v>913712201</v>
       </c>
       <c r="F41" t="n">
-        <v>60177.06892683999</v>
+        <v>60865.2601538859</v>
       </c>
       <c r="G41" t="n">
-        <v>182588.6484898212</v>
+        <v>202640.5278759141</v>
       </c>
       <c r="H41" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>35763938</v>
+        <v>35783159</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29812855</v>
+        <v>29834762</v>
       </c>
       <c r="E42" t="n">
-        <v>141422320</v>
+        <v>141526240</v>
       </c>
       <c r="F42" t="n">
-        <v>6751.346113653747</v>
+        <v>7403.576870022405</v>
       </c>
       <c r="G42" t="n">
-        <v>7437.126682207932</v>
+        <v>6285.329741850212</v>
       </c>
       <c r="H42" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>755615</v>
+        <v>803731</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3307141</v>
+        <v>3319386</v>
       </c>
       <c r="E43" t="n">
-        <v>7722727</v>
+        <v>7751320</v>
       </c>
       <c r="F43" t="n">
-        <v>1737.120169000446</v>
+        <v>2387.675388425201</v>
       </c>
       <c r="G43" t="n">
-        <v>1099.744479926991</v>
+        <v>1050.966746280771</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="I43" t="n">
-        <v>603257</v>
+        <v>602434</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>320542421</v>
+        <v>320843661</v>
       </c>
       <c r="E44" t="n">
-        <v>2883798383</v>
+        <v>2886508521</v>
       </c>
       <c r="F44" t="n">
-        <v>34145.71659343563</v>
+        <v>37919.62896466515</v>
       </c>
       <c r="G44" t="n">
-        <v>34431.95956244269</v>
+        <v>35131.61065691542</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>70465198</v>
+        <v>70390835</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626032</v>
+        <v>626512</v>
       </c>
       <c r="F45" t="n">
-        <v>761.6012304674454</v>
+        <v>761.6011622639257</v>
       </c>
       <c r="G45" t="n">
-        <v>213.7486143106876</v>
+        <v>223.6928407139494</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16202.81</v>
+        <v>16213.41</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1524559</v>
+        <v>1524986</v>
       </c>
       <c r="E46" t="n">
-        <v>12704659</v>
+        <v>12708214</v>
       </c>
       <c r="F46" t="n">
-        <v>1511.062844414255</v>
+        <v>1267.331311179359</v>
       </c>
       <c r="G46" t="n">
-        <v>206.3791731628056</v>
+        <v>430.9095262902453</v>
       </c>
       <c r="H46" t="n">
-        <v>0.86</v>
+        <v>0.47</v>
       </c>
       <c r="I46" t="n">
-        <v>30887</v>
+        <v>30889</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4721212</v>
+        <v>4717737</v>
       </c>
       <c r="E47" t="n">
-        <v>16680030</v>
+        <v>16667751</v>
       </c>
       <c r="F47" t="n">
-        <v>1059.558637221591</v>
+        <v>1036.853664336182</v>
       </c>
       <c r="G47" t="n">
-        <v>1081.572081090013</v>
+        <v>1139.221801779806</v>
       </c>
       <c r="H47" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>159278</v>
+        <v>141894</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46974603</v>
+        <v>46934043</v>
       </c>
       <c r="E48" t="n">
-        <v>271963542</v>
+        <v>271728715</v>
       </c>
       <c r="F48" t="n">
-        <v>15429.94326723997</v>
+        <v>15502.36563722147</v>
       </c>
       <c r="G48" t="n">
-        <v>10565.31177034953</v>
+        <v>10231.89724544861</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>49249831</v>
+        <v>46307500</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2234482</v>
+        <v>2220410</v>
       </c>
       <c r="E49" t="n">
-        <v>12276627</v>
+        <v>12199311</v>
       </c>
       <c r="F49" t="n">
-        <v>329.0407827210104</v>
+        <v>335.4046574972497</v>
       </c>
       <c r="G49" t="n">
-        <v>666.1528306934644</v>
+        <v>307.0199503205164</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>69307</v>
+        <v>91585</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13381313</v>
+        <v>13434819</v>
       </c>
       <c r="E50" t="n">
-        <v>13426851</v>
+        <v>13480539</v>
       </c>
       <c r="F50" t="n">
-        <v>3737.146294844705</v>
+        <v>4767.223131502897</v>
       </c>
       <c r="G50" t="n">
-        <v>10742.72084568183</v>
+        <v>9421.88107151491</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7122930</v>
+        <v>7123954</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19554026</v>
+        <v>19596709</v>
       </c>
       <c r="E51" t="n">
-        <v>58626029</v>
+        <v>58753999</v>
       </c>
       <c r="F51" t="n">
-        <v>21349.76932085773</v>
+        <v>22990.12876407316</v>
       </c>
       <c r="G51" t="n">
-        <v>10201.78763385817</v>
+        <v>10282.06051692484</v>
       </c>
       <c r="H51" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>4377600</v>
+        <v>3672713</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15333570</v>
+        <v>15367269</v>
       </c>
       <c r="E52" t="n">
-        <v>93984494</v>
+        <v>94191045</v>
       </c>
       <c r="F52" t="n">
-        <v>3905.178075651395</v>
+        <v>4845.335857917262</v>
       </c>
       <c r="G52" t="n">
-        <v>8492.2128246547</v>
+        <v>8239.353893153639</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I52" t="n">
-        <v>12232503</v>
+        <v>12261620</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49884383</v>
+        <v>49930018</v>
       </c>
       <c r="E53" t="n">
-        <v>214896469</v>
+        <v>215093058</v>
       </c>
       <c r="F53" t="n">
-        <v>18852.67322828457</v>
+        <v>19122.65898560623</v>
       </c>
       <c r="G53" t="n">
-        <v>22047.14799289315</v>
+        <v>22169.93480921416</v>
       </c>
       <c r="H53" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>13195726</v>
+        <v>13264176</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1012500</v>
+        <v>1012149</v>
       </c>
       <c r="E54" t="n">
-        <v>2959361</v>
+        <v>2958337</v>
       </c>
       <c r="F54" t="n">
-        <v>313.9727011127101</v>
+        <v>313.6373936982402</v>
       </c>
       <c r="G54" t="n">
-        <v>1546.968905929417</v>
+        <v>1530.204868993591</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>12634.68</v>
+        <v>12654.75</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30926637</v>
+        <v>30970299</v>
       </c>
       <c r="E55" t="n">
-        <v>77982131</v>
+        <v>78092227</v>
       </c>
       <c r="F55" t="n">
-        <v>8480.597112784208</v>
+        <v>3925.743465773089</v>
       </c>
       <c r="G55" t="n">
-        <v>449.5345671961516</v>
+        <v>10749.77624485986</v>
       </c>
       <c r="H55" t="n">
-        <v>0.84</v>
+        <v>0.23</v>
       </c>
       <c r="I55" t="n">
-        <v>6202924</v>
+        <v>6195676</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28285169</v>
+        <v>27806961</v>
       </c>
       <c r="E56" t="n">
-        <v>67097666</v>
+        <v>65963267</v>
       </c>
       <c r="F56" t="n">
-        <v>1264.172540449702</v>
+        <v>4480.787504444163</v>
       </c>
       <c r="G56" t="n">
-        <v>1557.67402127643</v>
+        <v>2075.217365064694</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>637685</v>
+        <v>492662</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12124055</v>
+        <v>12147217</v>
       </c>
       <c r="E57" t="n">
-        <v>18455546</v>
+        <v>18490803</v>
       </c>
       <c r="F57" t="n">
-        <v>2195.535127815646</v>
+        <v>3658.65457609484</v>
       </c>
       <c r="G57" t="n">
-        <v>5498.714742195271</v>
+        <v>6120.418421050284</v>
       </c>
       <c r="H57" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I57" t="n">
-        <v>672503</v>
+        <v>673539</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>288598960</v>
+        <v>289766216</v>
       </c>
       <c r="E58" t="n">
-        <v>288598960</v>
+        <v>289766216</v>
       </c>
       <c r="F58" t="n">
-        <v>58977.90791428886</v>
+        <v>53384.24047402111</v>
       </c>
       <c r="G58" t="n">
-        <v>71876.60654347914</v>
+        <v>72264.502562965</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>93142839</v>
+        <v>93242944</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11630690</v>
+        <v>11666256</v>
       </c>
       <c r="F59" t="n">
-        <v>141.3731652751998</v>
+        <v>182.6029267704373</v>
       </c>
       <c r="G59" t="n">
-        <v>27.81939743166294</v>
+        <v>79.10506534021013</v>
       </c>
       <c r="H59" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="I59" t="n">
-        <v>79440</v>
+        <v>77130</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84069589</v>
+        <v>84298229</v>
       </c>
       <c r="E60" t="n">
-        <v>484445235</v>
+        <v>485762753</v>
       </c>
       <c r="F60" t="n">
-        <v>96800.53699120597</v>
+        <v>72323.06409851645</v>
       </c>
       <c r="G60" t="n">
-        <v>96766.98294414961</v>
+        <v>104042.0132962145</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>21292420</v>
+        <v>20907655</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9157575</v>
+        <v>9157353</v>
       </c>
       <c r="E61" t="n">
-        <v>9157575</v>
+        <v>9157353</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>11.68</v>
+        <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2951118</v>
+        <v>2952566</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29432778</v>
+        <v>29599391</v>
       </c>
       <c r="E62" t="n">
-        <v>131782622</v>
+        <v>132528616</v>
       </c>
       <c r="F62" t="n">
-        <v>26779.22946988228</v>
+        <v>27573.70141021584</v>
       </c>
       <c r="G62" t="n">
-        <v>17680.93489479437</v>
+        <v>17905.98597169648</v>
       </c>
       <c r="H62" t="n">
         <v>0.75</v>
       </c>
       <c r="I62" t="n">
-        <v>15071503</v>
+        <v>15239464</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12923224</v>
+        <v>12915030</v>
       </c>
       <c r="E63" t="n">
-        <v>25828331</v>
+        <v>25811953</v>
       </c>
       <c r="F63" t="n">
-        <v>2215.776584176526</v>
+        <v>2478.715652241644</v>
       </c>
       <c r="G63" t="n">
-        <v>1687.711837356431</v>
+        <v>1667.208754916778</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>14044.68</v>
+        <v>16044.42</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1319581</v>
+        <v>1320287</v>
       </c>
       <c r="F64" t="n">
-        <v>136.1330512228434</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>58.12453651332872</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.99</v>
+        <v>4.19</v>
       </c>
       <c r="I64" t="n">
-        <v>93359</v>
+        <v>93405</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48041119</v>
+        <v>48106564</v>
       </c>
       <c r="E65" t="n">
-        <v>311533871</v>
+        <v>311958263</v>
       </c>
       <c r="F65" t="n">
-        <v>18744.56376492405</v>
+        <v>15663.22576298914</v>
       </c>
       <c r="G65" t="n">
-        <v>23002.02149502</v>
+        <v>22215.9434081675</v>
       </c>
       <c r="H65" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I65" t="n">
-        <v>21960521</v>
+        <v>21987829</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4413253</v>
+        <v>4423987</v>
       </c>
       <c r="F66" t="n">
-        <v>106.0724755362383</v>
+        <v>117.3452437774349</v>
       </c>
       <c r="G66" t="n">
-        <v>1441.079757247615</v>
+        <v>1502.722686608823</v>
       </c>
       <c r="H66" t="n">
         <v>0.45</v>
       </c>
       <c r="I66" t="n">
-        <v>213516</v>
+        <v>214597</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124091627</v>
+        <v>124549695</v>
       </c>
       <c r="E67" t="n">
-        <v>2055058969</v>
+        <v>2062644956</v>
       </c>
       <c r="F67" t="n">
-        <v>20879.90356529391</v>
+        <v>20738.24690820936</v>
       </c>
       <c r="G67" t="n">
-        <v>24116.00258151379</v>
+        <v>23015.8222179572</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>36608099</v>
+        <v>36805523</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22940181</v>
+        <v>22988679</v>
       </c>
       <c r="E68" t="n">
-        <v>137255712</v>
+        <v>137545885</v>
       </c>
       <c r="F68" t="n">
-        <v>41723.24427587238</v>
+        <v>41977.9675871716</v>
       </c>
       <c r="G68" t="n">
-        <v>44678.19159025716</v>
+        <v>45023.40760971502</v>
       </c>
       <c r="H68" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>18395368</v>
+        <v>18215750</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22307433</v>
+        <v>22380574</v>
       </c>
       <c r="E70" t="n">
-        <v>22307433</v>
+        <v>22380574</v>
       </c>
       <c r="F70" t="n">
-        <v>6520.038285284897</v>
+        <v>6768.15189253384</v>
       </c>
       <c r="G70" t="n">
-        <v>2881.123105199881</v>
+        <v>2614.996368945119</v>
       </c>
       <c r="H70" t="n">
         <v>0.29</v>
       </c>
       <c r="I70" t="n">
-        <v>2377769</v>
+        <v>2381493</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32448946</v>
+        <v>32422476</v>
       </c>
       <c r="E71" t="n">
-        <v>161935199</v>
+        <v>161803101</v>
       </c>
       <c r="F71" t="n">
-        <v>18312.18656453822</v>
+        <v>12854.33001504506</v>
       </c>
       <c r="G71" t="n">
-        <v>53466.55903578203</v>
+        <v>46306.95281248465</v>
       </c>
       <c r="H71" t="n">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="I71" t="n">
-        <v>14481201</v>
+        <v>14422833</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>152965</v>
+        <v>153016</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>30364</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>283786320</v>
+        <v>284251449</v>
       </c>
       <c r="E73" t="n">
-        <v>525069408</v>
+        <v>525930003</v>
       </c>
       <c r="F73" t="n">
-        <v>9040.97424316338</v>
+        <v>6759.411922846009</v>
       </c>
       <c r="G73" t="n">
-        <v>14224.48048392074</v>
+        <v>14645.27819517178</v>
       </c>
       <c r="H73" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>21303475</v>
+        <v>21437487</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9043561</v>
+        <v>9125733</v>
       </c>
       <c r="E74" t="n">
-        <v>26809984</v>
+        <v>27053585</v>
       </c>
       <c r="F74" t="n">
-        <v>800.7270425887568</v>
+        <v>489.645953958297</v>
       </c>
       <c r="G74" t="n">
-        <v>2104.49027578788</v>
+        <v>1319.161547564763</v>
       </c>
       <c r="H74" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="I74" t="n">
-        <v>6595787</v>
+        <v>6617312</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8279559</v>
+        <v>8289370</v>
       </c>
       <c r="E75" t="n">
-        <v>11796474</v>
+        <v>11810453</v>
       </c>
       <c r="F75" t="n">
-        <v>201.6042728375451</v>
+        <v>163.0927535052277</v>
       </c>
       <c r="G75" t="n">
-        <v>1734.239660304839</v>
+        <v>1716.536481714937</v>
       </c>
       <c r="H75" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I75" t="n">
-        <v>293510</v>
+        <v>291951</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15863347</v>
+        <v>15883150</v>
       </c>
       <c r="F76" t="n">
-        <v>619.2310289026584</v>
+        <v>601.6544733128397</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2905380336600194</v>
+        <v>0.2905380024582402</v>
       </c>
       <c r="H76" t="n">
         <v>2.01</v>
       </c>
       <c r="I76" t="n">
-        <v>1114669</v>
+        <v>1114062</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>72636896</v>
+        <v>72605060</v>
       </c>
       <c r="E77" t="n">
-        <v>100575564</v>
+        <v>100531490</v>
       </c>
       <c r="F77" t="n">
-        <v>7909.829149524185</v>
+        <v>7907.29395273412</v>
       </c>
       <c r="G77" t="n">
-        <v>17762.99518448564</v>
+        <v>17700.89762082556</v>
       </c>
       <c r="H77" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I77" t="n">
-        <v>7416931</v>
+        <v>7383520</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6215850</v>
+        <v>6271608</v>
       </c>
       <c r="E78" t="n">
-        <v>6215850</v>
+        <v>6271608</v>
       </c>
       <c r="F78" t="n">
-        <v>542.3429760676534</v>
+        <v>626.8019901785747</v>
       </c>
       <c r="G78" t="n">
-        <v>177.0331441938684</v>
+        <v>225.9635859778328</v>
       </c>
       <c r="H78" t="n">
         <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>1480841</v>
+        <v>1482318</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54548</v>
+        <v>54664</v>
       </c>
       <c r="E79" t="n">
-        <v>284608</v>
+        <v>285216</v>
       </c>
       <c r="F79" t="n">
-        <v>29.28690265711161</v>
+        <v>39.45055873168383</v>
       </c>
       <c r="G79" t="n">
-        <v>323.0945237000255</v>
+        <v>319.959538702159</v>
       </c>
       <c r="H79" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>201391</v>
+        <v>200732</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25019789</v>
+        <v>25020316</v>
       </c>
       <c r="F80" t="n">
-        <v>2324.934643097763</v>
+        <v>2363.559878793588</v>
       </c>
       <c r="G80" t="n">
-        <v>4535.367819576181</v>
+        <v>4403.825885941944</v>
       </c>
       <c r="H80" t="n">
         <v>0.83</v>
       </c>
       <c r="I80" t="n">
-        <v>50318</v>
+        <v>40963</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>580535570</v>
+        <v>579548419</v>
       </c>
       <c r="E81" t="n">
-        <v>2248328611</v>
+        <v>2244505520</v>
       </c>
       <c r="F81" t="n">
-        <v>140452.5172563862</v>
+        <v>141641.0586689179</v>
       </c>
       <c r="G81" t="n">
-        <v>163060.0339993631</v>
+        <v>165135.1767480758</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I81" t="n">
-        <v>62388406</v>
+        <v>62084107</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7401263</v>
+        <v>7401422</v>
       </c>
       <c r="E82" t="n">
-        <v>10603662</v>
+        <v>10603890</v>
       </c>
       <c r="F82" t="n">
-        <v>1251.514694492441</v>
+        <v>1409.993073743762</v>
       </c>
       <c r="G82" t="n">
-        <v>757.6190121939086</v>
+        <v>615.0863986119349</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>181599</v>
+        <v>183227</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109230563</v>
+        <v>109151351</v>
       </c>
       <c r="E83" t="n">
-        <v>1034109019</v>
+        <v>1033359102</v>
       </c>
       <c r="F83" t="n">
-        <v>21279.03988976421</v>
+        <v>21426.68625796705</v>
       </c>
       <c r="G83" t="n">
-        <v>11282.51219484381</v>
+        <v>14611.55760526285</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17579112</v>
+        <v>17624089</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1068230</v>
+        <v>1070630</v>
       </c>
       <c r="E84" t="n">
-        <v>4136418</v>
+        <v>4145712</v>
       </c>
       <c r="F84" t="n">
-        <v>929.4858446930771</v>
+        <v>1199.290246511476</v>
       </c>
       <c r="G84" t="n">
-        <v>536.8630537054645</v>
+        <v>849.7023674128867</v>
       </c>
       <c r="H84" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>298007</v>
+        <v>298168</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120120831</v>
+        <v>120306802</v>
       </c>
       <c r="E85" t="n">
-        <v>460802843</v>
+        <v>461516257</v>
       </c>
       <c r="F85" t="n">
-        <v>82254.37095900592</v>
+        <v>81418.9193225546</v>
       </c>
       <c r="G85" t="n">
-        <v>83597.1541822237</v>
+        <v>84097.12155117668</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>33456682</v>
+        <v>32934586</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5096972</v>
+        <v>5095317</v>
       </c>
       <c r="E86" t="n">
-        <v>18940445</v>
+        <v>18934295</v>
       </c>
       <c r="F86" t="n">
-        <v>583.4859607284267</v>
+        <v>588.3579568083974</v>
       </c>
       <c r="G86" t="n">
-        <v>417.0314103102374</v>
+        <v>454.7126103888835</v>
       </c>
       <c r="H86" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>97140</v>
+        <v>96804</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>38145990</v>
+        <v>38216179</v>
       </c>
       <c r="F87" t="n">
-        <v>5605.986595814221</v>
+        <v>6290.352755461225</v>
       </c>
       <c r="G87" t="n">
-        <v>2405.901586824335</v>
+        <v>2579.052298349569</v>
       </c>
       <c r="H87" t="n">
         <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>8418478</v>
+        <v>8453688</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23806953</v>
+        <v>23830115</v>
       </c>
       <c r="F88" t="n">
-        <v>1226.715968940116</v>
+        <v>1063.15238582068</v>
       </c>
       <c r="G88" t="n">
-        <v>698.5880497765068</v>
+        <v>711.0138165715372</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I88" t="n">
-        <v>10131.01</v>
+        <v>10141.84</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>90918729</v>
+        <v>90686086</v>
       </c>
       <c r="E89" t="n">
-        <v>336070243</v>
+        <v>335210175</v>
       </c>
       <c r="F89" t="n">
-        <v>2970.436287727181</v>
+        <v>2720.338215879961</v>
       </c>
       <c r="G89" t="n">
-        <v>1105.091249852758</v>
+        <v>1233.826146500113</v>
       </c>
       <c r="H89" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I89" t="n">
-        <v>310039</v>
+        <v>310521</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19374388</v>
+        <v>19157472</v>
       </c>
       <c r="E90" t="n">
-        <v>19374388</v>
+        <v>19157472</v>
       </c>
       <c r="F90" t="n">
-        <v>3960.187043650735</v>
+        <v>4769.484559411618</v>
       </c>
       <c r="G90" t="n">
-        <v>2861.24553059893</v>
+        <v>2257.805537506703</v>
       </c>
       <c r="H90" t="n">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="I90" t="n">
-        <v>6337396</v>
+        <v>7384722</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3808401</v>
+        <v>3798383</v>
       </c>
       <c r="E91" t="n">
-        <v>8301781</v>
+        <v>8279943</v>
       </c>
       <c r="F91" t="n">
-        <v>1961.632009428655</v>
+        <v>1952.366934763621</v>
       </c>
       <c r="G91" t="n">
-        <v>1110.623501435623</v>
+        <v>1206.519572173802</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2088693</v>
+        <v>2085430</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>467785611</v>
+        <v>467004996</v>
       </c>
       <c r="E92" t="n">
-        <v>1628322780</v>
+        <v>1625605524</v>
       </c>
       <c r="F92" t="n">
-        <v>63240.39140430618</v>
+        <v>67104.84025734662</v>
       </c>
       <c r="G92" t="n">
-        <v>73059.63134719055</v>
+        <v>74009.62653523101</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>47796945</v>
+        <v>48136601</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2321989</v>
+        <v>2315687</v>
       </c>
       <c r="E93" t="n">
-        <v>9287957</v>
+        <v>9262748</v>
       </c>
       <c r="F93" t="n">
-        <v>1468.813538361346</v>
+        <v>1305.302592549511</v>
       </c>
       <c r="G93" t="n">
-        <v>668.6567375798982</v>
+        <v>921.2013125613032</v>
       </c>
       <c r="H93" t="n">
-        <v>0.11</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>7702470</v>
+        <v>7419626</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210515112</v>
+        <v>210347753</v>
       </c>
       <c r="E94" t="n">
-        <v>647254746</v>
+        <v>646740183</v>
       </c>
       <c r="F94" t="n">
-        <v>87646.69434497409</v>
+        <v>92091.73635743621</v>
       </c>
       <c r="G94" t="n">
-        <v>103813.8971904105</v>
+        <v>97282.83269491988</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>23003250</v>
+        <v>22984621</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>135951145</v>
+        <v>136174104</v>
       </c>
       <c r="E95" t="n">
-        <v>355168594</v>
+        <v>355751068</v>
       </c>
       <c r="F95" t="n">
-        <v>31133.7289893188</v>
+        <v>32910.28898189676</v>
       </c>
       <c r="G95" t="n">
-        <v>28952.27600079051</v>
+        <v>24656.7187491351</v>
       </c>
       <c r="H95" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>8319811</v>
+        <v>8335148</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>381056939</v>
+        <v>381392464</v>
       </c>
       <c r="E96" t="n">
-        <v>2177468224</v>
+        <v>2179385508</v>
       </c>
       <c r="F96" t="n">
-        <v>18763.62494594015</v>
+        <v>20122.01482975101</v>
       </c>
       <c r="G96" t="n">
-        <v>40597.22621011526</v>
+        <v>46861.11199237086</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>63622261</v>
+        <v>63696282</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>589715019</v>
+        <v>596804420</v>
       </c>
       <c r="E2" t="n">
-        <v>1144486906</v>
+        <v>1158255397</v>
       </c>
       <c r="F2" t="n">
-        <v>16172.90170317618</v>
+        <v>15585.77572933901</v>
       </c>
       <c r="G2" t="n">
-        <v>33638.2341370338</v>
+        <v>33333.90334808912</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>47564599</v>
+        <v>47365151</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1414561</v>
+        <v>1440902</v>
       </c>
       <c r="E3" t="n">
-        <v>4572441</v>
+        <v>4657585</v>
       </c>
       <c r="F3" t="n">
-        <v>227.6220382216422</v>
+        <v>155.7303543267137</v>
       </c>
       <c r="G3" t="n">
-        <v>344.621707595047</v>
+        <v>149.7713966436881</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>229703</v>
+        <v>228333</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251555377</v>
+        <v>252862088</v>
       </c>
       <c r="E4" t="n">
-        <v>1577468413</v>
+        <v>1585662611</v>
       </c>
       <c r="F4" t="n">
-        <v>111035.0164562319</v>
+        <v>107761.5784903616</v>
       </c>
       <c r="G4" t="n">
-        <v>107718.370014831</v>
+        <v>111606.4909487576</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>28045436</v>
+        <v>29176116</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140156167</v>
+        <v>141839204</v>
       </c>
       <c r="E5" t="n">
-        <v>155314937</v>
+        <v>157180005</v>
       </c>
       <c r="F5" t="n">
-        <v>5926.283483557512</v>
+        <v>7657.642353168982</v>
       </c>
       <c r="G5" t="n">
-        <v>10739.87240999768</v>
+        <v>13975.93981882987</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>53529845</v>
+        <v>53629957</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>682705</v>
+        <v>667909</v>
       </c>
       <c r="E6" t="n">
-        <v>13250799</v>
+        <v>12963605</v>
       </c>
       <c r="F6" t="n">
-        <v>651.9706275322642</v>
+        <v>330.0775445225145</v>
       </c>
       <c r="G6" t="n">
-        <v>310.7485868930257</v>
+        <v>416.2059593484907</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>18209.8</v>
+        <v>20669</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>492357583</v>
+        <v>485417056</v>
       </c>
       <c r="E7" t="n">
-        <v>492357583</v>
+        <v>485417056</v>
       </c>
       <c r="F7" t="n">
-        <v>51393.78690312687</v>
+        <v>52466.83889423258</v>
       </c>
       <c r="G7" t="n">
-        <v>50492.83039979169</v>
+        <v>53098.50877390705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>72283407</v>
+        <v>75304350</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4546876</v>
+        <v>4618758</v>
       </c>
       <c r="E8" t="n">
-        <v>4546876</v>
+        <v>4618758</v>
       </c>
       <c r="F8" t="n">
-        <v>870.4220261417638</v>
+        <v>888.9287619075245</v>
       </c>
       <c r="G8" t="n">
-        <v>1396.603401916561</v>
+        <v>953.9977404085137</v>
       </c>
       <c r="H8" t="n">
-        <v>0.43</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2236860</v>
+        <v>2259845</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1982953</v>
+        <v>2006079</v>
       </c>
       <c r="F9" t="n">
-        <v>504.7977772279972</v>
+        <v>358.180813795068</v>
       </c>
       <c r="G9" t="n">
-        <v>38.2220947366446</v>
+        <v>4760.754094567749</v>
       </c>
       <c r="H9" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
-        <v>306290</v>
+        <v>306733</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1697447</v>
+        <v>1717850</v>
       </c>
       <c r="F10" t="n">
-        <v>247.456750890062</v>
+        <v>254.4126727233354</v>
       </c>
       <c r="G10" t="n">
-        <v>1312.850827422418</v>
+        <v>373.7256056748971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3</v>
+        <v>0.76</v>
       </c>
       <c r="I10" t="n">
-        <v>1242446</v>
+        <v>1364508</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109351721</v>
+        <v>109117903</v>
       </c>
       <c r="E11" t="n">
-        <v>206005679</v>
+        <v>205565195</v>
       </c>
       <c r="F11" t="n">
-        <v>1492.211463255305</v>
+        <v>1466.276721302245</v>
       </c>
       <c r="G11" t="n">
-        <v>2461.1378610038</v>
+        <v>1461.720491668948</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>4159711</v>
+        <v>4151104</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11911125</v>
+        <v>11896213</v>
       </c>
       <c r="E12" t="n">
-        <v>29644635</v>
+        <v>29607524</v>
       </c>
       <c r="F12" t="n">
-        <v>117.1585378856209</v>
+        <v>102.2347242452669</v>
       </c>
       <c r="G12" t="n">
-        <v>2419.078996320172</v>
+        <v>3370.212724516299</v>
       </c>
       <c r="H12" t="n">
-        <v>0.91</v>
+        <v>1.37</v>
       </c>
       <c r="I12" t="n">
-        <v>1501719</v>
+        <v>1491178</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108821775</v>
+        <v>108927119</v>
       </c>
       <c r="E13" t="n">
-        <v>422959953</v>
+        <v>423296167</v>
       </c>
       <c r="F13" t="n">
-        <v>2527.248875031592</v>
+        <v>9786.044819822037</v>
       </c>
       <c r="G13" t="n">
-        <v>3823.050484716273</v>
+        <v>22526.32382392418</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I13" t="n">
-        <v>12528109</v>
+        <v>12582738</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4674977</v>
+        <v>4762499</v>
       </c>
       <c r="E14" t="n">
-        <v>6881819</v>
+        <v>7010656</v>
       </c>
       <c r="F14" t="n">
-        <v>13.6686285047481</v>
+        <v>126.6045873865175</v>
       </c>
       <c r="G14" t="n">
-        <v>291.7699019699721</v>
+        <v>1859.483012457566</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>567307</v>
+        <v>599348</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137094017</v>
+        <v>139959305</v>
       </c>
       <c r="E15" t="n">
-        <v>137094017</v>
+        <v>139959305</v>
       </c>
       <c r="F15" t="n">
-        <v>44340.67078525035</v>
+        <v>40881.89615131901</v>
       </c>
       <c r="G15" t="n">
-        <v>81033.89040218206</v>
+        <v>85375.1554368393</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>91452530</v>
+        <v>97016287</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63232179</v>
+        <v>63714498</v>
       </c>
       <c r="E16" t="n">
-        <v>324267586</v>
+        <v>326741014</v>
       </c>
       <c r="F16" t="n">
-        <v>17223.27391737545</v>
+        <v>10604.88818487765</v>
       </c>
       <c r="G16" t="n">
-        <v>18146.07257462116</v>
+        <v>16607.65425590884</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>26641280</v>
+        <v>25755510</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>248910997</v>
+        <v>252036398</v>
       </c>
       <c r="E17" t="n">
-        <v>248910997</v>
+        <v>252036398</v>
       </c>
       <c r="F17" t="n">
-        <v>61918.80089756368</v>
+        <v>55347.61335628379</v>
       </c>
       <c r="G17" t="n">
-        <v>53671.3526797211</v>
+        <v>61605.91222504864</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>26254013</v>
+        <v>26880407</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2569681</v>
+        <v>2590926</v>
       </c>
       <c r="E18" t="n">
-        <v>6569598</v>
+        <v>6623911</v>
       </c>
       <c r="F18" t="n">
-        <v>831.1135664560084</v>
+        <v>876.4014881954657</v>
       </c>
       <c r="G18" t="n">
-        <v>1711.081547543996</v>
+        <v>788.9867519125324</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="I18" t="n">
-        <v>80997</v>
+        <v>82186</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77864447</v>
+        <v>82602702</v>
       </c>
       <c r="E19" t="n">
-        <v>217893010</v>
+        <v>231139860</v>
       </c>
       <c r="F19" t="n">
-        <v>19872.31430397645</v>
+        <v>19153.34798662454</v>
       </c>
       <c r="G19" t="n">
-        <v>20625.50462462881</v>
+        <v>16966.81041902604</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I19" t="n">
-        <v>54868656</v>
+        <v>58035281</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1604307</v>
+        <v>1687365</v>
       </c>
       <c r="E20" t="n">
-        <v>9211333</v>
+        <v>9688218</v>
       </c>
       <c r="F20" t="n">
-        <v>267.8723516920792</v>
+        <v>141.4793214700859</v>
       </c>
       <c r="G20" t="n">
-        <v>173.7859016009354</v>
+        <v>160.2110173911445</v>
       </c>
       <c r="H20" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="I20" t="n">
-        <v>256758</v>
+        <v>300835</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>163233</v>
+        <v>162588</v>
       </c>
       <c r="E21" t="n">
-        <v>1102331</v>
+        <v>1097972</v>
       </c>
       <c r="F21" t="n">
-        <v>5.349288404689511</v>
+        <v>5.35199003137084</v>
       </c>
       <c r="G21" t="n">
-        <v>5.806428747618797</v>
+        <v>5.326844490403628</v>
       </c>
       <c r="H21" t="n">
         <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3231422</v>
+        <v>3315570</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244276</v>
+        <v>249861</v>
       </c>
       <c r="F22" t="n">
-        <v>61.75443290206395</v>
+        <v>148.4495880357101</v>
       </c>
       <c r="G22" t="n">
-        <v>1.307303781833265</v>
+        <v>66.28914480046421</v>
       </c>
       <c r="H22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5493.93</v>
+        <v>5085.77</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87596151</v>
+        <v>84667823</v>
       </c>
       <c r="E23" t="n">
-        <v>182630939</v>
+        <v>176525612</v>
       </c>
       <c r="F23" t="n">
-        <v>20859.07750723773</v>
+        <v>10984.19001857868</v>
       </c>
       <c r="G23" t="n">
-        <v>48276.99205328843</v>
+        <v>35569.9687862752</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>77189099</v>
+        <v>81279739</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195474535</v>
+        <v>195376369</v>
       </c>
       <c r="E24" t="n">
-        <v>679096201</v>
+        <v>678755162</v>
       </c>
       <c r="F24" t="n">
-        <v>61906.45268285326</v>
+        <v>59624.943870565</v>
       </c>
       <c r="G24" t="n">
-        <v>64211.18433334159</v>
+        <v>64485.8629747327</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>41331786</v>
+        <v>41206501</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109190183</v>
+        <v>109665025</v>
       </c>
       <c r="E25" t="n">
-        <v>463048050</v>
+        <v>464916148</v>
       </c>
       <c r="F25" t="n">
-        <v>13757.19346168022</v>
+        <v>15264.00839149488</v>
       </c>
       <c r="G25" t="n">
-        <v>19318.57961756954</v>
+        <v>19541.51342208916</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>15072155</v>
+        <v>14969742</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5677472</v>
+        <v>5634505</v>
       </c>
       <c r="E26" t="n">
-        <v>7705096</v>
+        <v>7646427</v>
       </c>
       <c r="F26" t="n">
-        <v>1471.305458326849</v>
+        <v>442.5419131508901</v>
       </c>
       <c r="G26" t="n">
-        <v>491.6058448507172</v>
+        <v>2145.056372490129</v>
       </c>
       <c r="H26" t="n">
         <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5523286</v>
+        <v>5613307</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>562439</v>
+        <v>609148</v>
       </c>
       <c r="E27" t="n">
-        <v>6821840</v>
+        <v>7388377</v>
       </c>
       <c r="F27" t="n">
-        <v>908.6018238617756</v>
+        <v>778.7653304546835</v>
       </c>
       <c r="G27" t="n">
-        <v>575.353310702047</v>
+        <v>424.5876816230934</v>
       </c>
       <c r="H27" t="n">
-        <v>1.23</v>
+        <v>0.78</v>
       </c>
       <c r="I27" t="n">
-        <v>2942085</v>
+        <v>2988872</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23969022</v>
+        <v>25583616</v>
       </c>
       <c r="E28" t="n">
-        <v>33872093</v>
+        <v>36153775</v>
       </c>
       <c r="F28" t="n">
-        <v>2370.799918132078</v>
+        <v>1.740046678055851</v>
       </c>
       <c r="G28" t="n">
-        <v>338.9038630298846</v>
+        <v>492.1500932293331</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>3.46</v>
       </c>
       <c r="I28" t="n">
-        <v>177299</v>
+        <v>187503</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1457736844</v>
+        <v>1430453736</v>
       </c>
       <c r="E29" t="n">
-        <v>6990146704</v>
+        <v>6859318614</v>
       </c>
       <c r="F29" t="n">
-        <v>98757.3734597306</v>
+        <v>102146.8561110629</v>
       </c>
       <c r="G29" t="n">
-        <v>172808.8772416993</v>
+        <v>170891.7337775609</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>524325583</v>
+        <v>571922522</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>258740722</v>
+        <v>261438364</v>
       </c>
       <c r="E30" t="n">
-        <v>1116868593</v>
+        <v>1128513116</v>
       </c>
       <c r="F30" t="n">
-        <v>125315.1960840942</v>
+        <v>114572.7790531921</v>
       </c>
       <c r="G30" t="n">
-        <v>117789.367800145</v>
+        <v>128480.4927195763</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>141468342</v>
+        <v>142587139</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5343284</v>
+        <v>5360692</v>
       </c>
       <c r="E31" t="n">
-        <v>5349331</v>
+        <v>5366759</v>
       </c>
       <c r="F31" t="n">
-        <v>108.1440938113299</v>
+        <v>109.4275422379649</v>
       </c>
       <c r="G31" t="n">
-        <v>161.8303284920654</v>
+        <v>163.1235511461757</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>143275</v>
+        <v>140186</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16018393</v>
+        <v>15728379</v>
       </c>
       <c r="E32" t="n">
-        <v>40045983</v>
+        <v>39320947</v>
       </c>
       <c r="F32" t="n">
-        <v>1797.164009317297</v>
+        <v>4700.126410650387</v>
       </c>
       <c r="G32" t="n">
-        <v>5521.075849723544</v>
+        <v>2036.199448489898</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I32" t="n">
-        <v>5077395</v>
+        <v>5202390</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19312435</v>
+        <v>19109560</v>
       </c>
       <c r="F33" t="n">
-        <v>686.2976187188857</v>
+        <v>427.8759119962336</v>
       </c>
       <c r="G33" t="n">
-        <v>2176.063977051926</v>
+        <v>2247.339133074341</v>
       </c>
       <c r="H33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>79365</v>
+        <v>76991</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4053378</v>
+        <v>4107881</v>
       </c>
       <c r="E34" t="n">
-        <v>11674189</v>
+        <v>11831165</v>
       </c>
       <c r="F34" t="n">
-        <v>1755.92173656052</v>
+        <v>2091.952350887565</v>
       </c>
       <c r="G34" t="n">
-        <v>1437.536134674062</v>
+        <v>1453.739729194184</v>
       </c>
       <c r="H34" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="I34" t="n">
-        <v>484228</v>
+        <v>460833</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1459568</v>
+        <v>1423273</v>
       </c>
       <c r="F35" t="n">
-        <v>1.110973306372145</v>
+        <v>4.127096306858703</v>
       </c>
       <c r="G35" t="n">
-        <v>3.135409156193838</v>
+        <v>141.7171447784245</v>
       </c>
       <c r="H35" t="n">
-        <v>1.37</v>
+        <v>2.08</v>
       </c>
       <c r="I35" t="n">
-        <v>7818.99</v>
+        <v>6431.55</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14186289</v>
+        <v>14166968</v>
       </c>
       <c r="E36" t="n">
-        <v>68706464</v>
+        <v>68612888</v>
       </c>
       <c r="F36" t="n">
-        <v>4098.448551362422</v>
+        <v>4585.784446427734</v>
       </c>
       <c r="G36" t="n">
-        <v>5677.512177419855</v>
+        <v>8988.919531373995</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="I36" t="n">
-        <v>5658811</v>
+        <v>5604075</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1234706</v>
+        <v>1252651</v>
       </c>
       <c r="E37" t="n">
-        <v>8081115</v>
+        <v>8198565</v>
       </c>
       <c r="F37" t="n">
-        <v>102.1382832064295</v>
+        <v>47.66663609527962</v>
       </c>
       <c r="G37" t="n">
-        <v>1846.359622286828</v>
+        <v>988.728046005167</v>
       </c>
       <c r="H37" t="n">
         <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>336410</v>
+        <v>344714</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1848762763</v>
+        <v>1856613346</v>
       </c>
       <c r="F38" t="n">
-        <v>60813.22247534186</v>
+        <v>76065.35910980277</v>
       </c>
       <c r="G38" t="n">
-        <v>76320.96843687849</v>
+        <v>76556.38055242854</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.86</v>
       </c>
       <c r="I38" t="n">
-        <v>31505353</v>
+        <v>32070608</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30012325</v>
+        <v>29283290</v>
       </c>
       <c r="E39" t="n">
-        <v>93448749</v>
+        <v>91178770</v>
       </c>
       <c r="F39" t="n">
-        <v>1916.819725892177</v>
+        <v>746.742256736537</v>
       </c>
       <c r="G39" t="n">
-        <v>16837.53871914531</v>
+        <v>12765.21236202278</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.44</v>
       </c>
       <c r="I39" t="n">
-        <v>10679165</v>
+        <v>11031448</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>192899985</v>
+        <v>194123715</v>
       </c>
       <c r="E40" t="n">
-        <v>1092318243</v>
+        <v>1099247752</v>
       </c>
       <c r="F40" t="n">
-        <v>16038.39868952963</v>
+        <v>13004.66740517488</v>
       </c>
       <c r="G40" t="n">
-        <v>50308.45566765864</v>
+        <v>53454.60085265559</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>86040145</v>
+        <v>85766889</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123351147</v>
+        <v>131733369</v>
       </c>
       <c r="E41" t="n">
-        <v>913712201</v>
+        <v>975802733</v>
       </c>
       <c r="F41" t="n">
-        <v>60865.2601538859</v>
+        <v>46349.62623378145</v>
       </c>
       <c r="G41" t="n">
-        <v>202640.5278759141</v>
+        <v>152165.0268518675</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>35783159</v>
+        <v>36499825</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29834762</v>
+        <v>29938016</v>
       </c>
       <c r="E42" t="n">
-        <v>141526240</v>
+        <v>141854911</v>
       </c>
       <c r="F42" t="n">
-        <v>7403.576870022405</v>
+        <v>7819.882526498105</v>
       </c>
       <c r="G42" t="n">
-        <v>6285.329741850212</v>
+        <v>8164.341421043331</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I42" t="n">
-        <v>803731</v>
+        <v>759575</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3319386</v>
+        <v>3202816</v>
       </c>
       <c r="E43" t="n">
-        <v>7751320</v>
+        <v>7479110</v>
       </c>
       <c r="F43" t="n">
-        <v>2387.675388425201</v>
+        <v>875.1336674146949</v>
       </c>
       <c r="G43" t="n">
-        <v>1050.966746280771</v>
+        <v>2943.399347407642</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="I43" t="n">
-        <v>602434</v>
+        <v>607460</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>320843661</v>
+        <v>323123300</v>
       </c>
       <c r="E44" t="n">
-        <v>2886508521</v>
+        <v>2907017572</v>
       </c>
       <c r="F44" t="n">
-        <v>37919.62896466515</v>
+        <v>34470.60330517768</v>
       </c>
       <c r="G44" t="n">
-        <v>35131.61065691542</v>
+        <v>35496.53076205216</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>70390835</v>
+        <v>71108778</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626512</v>
+        <v>627285</v>
       </c>
       <c r="F45" t="n">
-        <v>761.6011622639257</v>
+        <v>761.9819620461329</v>
       </c>
       <c r="G45" t="n">
-        <v>223.6928407139494</v>
+        <v>376.5094743229415</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16213.41</v>
+        <v>16355.51</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1524986</v>
+        <v>1536787</v>
       </c>
       <c r="E46" t="n">
-        <v>12708214</v>
+        <v>12806555</v>
       </c>
       <c r="F46" t="n">
-        <v>1267.331311179359</v>
+        <v>587.4896932320174</v>
       </c>
       <c r="G46" t="n">
-        <v>430.9095262902453</v>
+        <v>655.8409843598666</v>
       </c>
       <c r="H46" t="n">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>30889</v>
+        <v>30522</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4717737</v>
+        <v>4740611</v>
       </c>
       <c r="E47" t="n">
-        <v>16667751</v>
+        <v>16748567</v>
       </c>
       <c r="F47" t="n">
-        <v>1036.853664336182</v>
+        <v>1063.227637165813</v>
       </c>
       <c r="G47" t="n">
-        <v>1139.221801779806</v>
+        <v>1253.056241128647</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I47" t="n">
-        <v>141894</v>
+        <v>160535</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46934043</v>
+        <v>46613366</v>
       </c>
       <c r="E48" t="n">
-        <v>271728715</v>
+        <v>269872130</v>
       </c>
       <c r="F48" t="n">
-        <v>15502.36563722147</v>
+        <v>17132.26268275346</v>
       </c>
       <c r="G48" t="n">
-        <v>10231.89724544861</v>
+        <v>17731.86875128387</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>46307500</v>
+        <v>39048784</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2220410</v>
+        <v>2264991</v>
       </c>
       <c r="E49" t="n">
-        <v>12199311</v>
+        <v>12444247</v>
       </c>
       <c r="F49" t="n">
-        <v>335.4046574972497</v>
+        <v>185.6112810062099</v>
       </c>
       <c r="G49" t="n">
-        <v>307.0199503205164</v>
+        <v>404.3667002680978</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="I49" t="n">
-        <v>91585</v>
+        <v>87986</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13434819</v>
+        <v>13521629</v>
       </c>
       <c r="E50" t="n">
-        <v>13480539</v>
+        <v>13567644</v>
       </c>
       <c r="F50" t="n">
-        <v>4767.223131502897</v>
+        <v>4372.979809823139</v>
       </c>
       <c r="G50" t="n">
-        <v>9421.88107151491</v>
+        <v>9457.047478240876</v>
       </c>
       <c r="H50" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>7123954</v>
+        <v>7290839</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19596709</v>
+        <v>19491240</v>
       </c>
       <c r="E51" t="n">
-        <v>58753999</v>
+        <v>58438746</v>
       </c>
       <c r="F51" t="n">
-        <v>22990.12876407316</v>
+        <v>21801.28434154099</v>
       </c>
       <c r="G51" t="n">
-        <v>10282.06051692484</v>
+        <v>25456.53584092302</v>
       </c>
       <c r="H51" t="n">
-        <v>0.11</v>
+        <v>0.51</v>
       </c>
       <c r="I51" t="n">
-        <v>3672713</v>
+        <v>4296057</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15367269</v>
+        <v>15896111</v>
       </c>
       <c r="E52" t="n">
-        <v>94191045</v>
+        <v>97432492</v>
       </c>
       <c r="F52" t="n">
-        <v>4845.335857917262</v>
+        <v>6858.704416315943</v>
       </c>
       <c r="G52" t="n">
-        <v>8239.353893153639</v>
+        <v>6127.731685515458</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>12261620</v>
+        <v>12422600</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49930018</v>
+        <v>49753064</v>
       </c>
       <c r="E53" t="n">
-        <v>215093058</v>
+        <v>214330760</v>
       </c>
       <c r="F53" t="n">
-        <v>19122.65898560623</v>
+        <v>18590.94967819536</v>
       </c>
       <c r="G53" t="n">
-        <v>22169.93480921416</v>
+        <v>21280.05385392809</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I53" t="n">
-        <v>13264176</v>
+        <v>13647082</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1012149</v>
+        <v>1017048</v>
       </c>
       <c r="E54" t="n">
-        <v>2958337</v>
+        <v>2972654</v>
       </c>
       <c r="F54" t="n">
-        <v>313.6373936982402</v>
+        <v>320.9455715241481</v>
       </c>
       <c r="G54" t="n">
-        <v>1530.204868993591</v>
+        <v>1469.480510263837</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>12654.75</v>
+        <v>13278.76</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30970299</v>
+        <v>31156387</v>
       </c>
       <c r="E55" t="n">
-        <v>78092227</v>
+        <v>78561451</v>
       </c>
       <c r="F55" t="n">
-        <v>3925.743465773089</v>
+        <v>2342.281926200205</v>
       </c>
       <c r="G55" t="n">
-        <v>10749.77624485986</v>
+        <v>1005.561089560197</v>
       </c>
       <c r="H55" t="n">
-        <v>0.23</v>
+        <v>1.14</v>
       </c>
       <c r="I55" t="n">
-        <v>6195676</v>
+        <v>6469833</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27806961</v>
+        <v>28804975</v>
       </c>
       <c r="E56" t="n">
-        <v>65963267</v>
+        <v>68330741</v>
       </c>
       <c r="F56" t="n">
-        <v>4480.787504444163</v>
+        <v>6453.240916030947</v>
       </c>
       <c r="G56" t="n">
-        <v>2075.217365064694</v>
+        <v>4355.073918522587</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>492662</v>
+        <v>696775</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12147217</v>
+        <v>12105598</v>
       </c>
       <c r="E57" t="n">
-        <v>18490803</v>
+        <v>18405248</v>
       </c>
       <c r="F57" t="n">
-        <v>3658.65457609484</v>
+        <v>4100.021987685509</v>
       </c>
       <c r="G57" t="n">
-        <v>6120.418421050284</v>
+        <v>5976.309233648302</v>
       </c>
       <c r="H57" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I57" t="n">
-        <v>673539</v>
+        <v>649897</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>289766216</v>
+        <v>307179706</v>
       </c>
       <c r="E58" t="n">
-        <v>289766216</v>
+        <v>307179706</v>
       </c>
       <c r="F58" t="n">
-        <v>53384.24047402111</v>
+        <v>52409.44867680912</v>
       </c>
       <c r="G58" t="n">
-        <v>72264.502562965</v>
+        <v>79158.03559652752</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>93242944</v>
+        <v>110725714</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11666256</v>
+        <v>11705696</v>
       </c>
       <c r="F59" t="n">
-        <v>182.6029267704373</v>
+        <v>101.3269282133653</v>
       </c>
       <c r="G59" t="n">
-        <v>79.10506534021013</v>
+        <v>125.7254684355397</v>
       </c>
       <c r="H59" t="n">
-        <v>1.29</v>
+        <v>0.17</v>
       </c>
       <c r="I59" t="n">
-        <v>77130</v>
+        <v>77211</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84298229</v>
+        <v>84498070</v>
       </c>
       <c r="E60" t="n">
-        <v>485762753</v>
+        <v>486914327</v>
       </c>
       <c r="F60" t="n">
-        <v>72323.06409851645</v>
+        <v>99092.91717934608</v>
       </c>
       <c r="G60" t="n">
-        <v>104042.0132962145</v>
+        <v>97215.29188863357</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>20907655</v>
+        <v>21321620</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9157353</v>
+        <v>9205165</v>
       </c>
       <c r="E61" t="n">
-        <v>9157353</v>
+        <v>9205165</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2952566</v>
+        <v>2975462</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29599391</v>
+        <v>30235032</v>
       </c>
       <c r="E62" t="n">
-        <v>132528616</v>
+        <v>135374642</v>
       </c>
       <c r="F62" t="n">
-        <v>27573.70141021584</v>
+        <v>16074.31475038458</v>
       </c>
       <c r="G62" t="n">
-        <v>17905.98597169648</v>
+        <v>19691.32759745808</v>
       </c>
       <c r="H62" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>15239464</v>
+        <v>16342463</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12915030</v>
+        <v>12865974</v>
       </c>
       <c r="E63" t="n">
-        <v>25811953</v>
+        <v>25713910</v>
       </c>
       <c r="F63" t="n">
-        <v>2478.715652241644</v>
+        <v>851.3099043109188</v>
       </c>
       <c r="G63" t="n">
-        <v>1667.208754916778</v>
+        <v>5340.204975775079</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>16044.42</v>
+        <v>16247.35</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1320287</v>
+        <v>1327392</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>95.45610783379406</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>92.89059369936095</v>
       </c>
       <c r="H64" t="n">
-        <v>4.19</v>
+        <v>2.98</v>
       </c>
       <c r="I64" t="n">
-        <v>93405</v>
+        <v>72004</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48106564</v>
+        <v>48071190</v>
       </c>
       <c r="E65" t="n">
-        <v>311958263</v>
+        <v>311728872</v>
       </c>
       <c r="F65" t="n">
-        <v>15663.22576298914</v>
+        <v>19865.10001586878</v>
       </c>
       <c r="G65" t="n">
-        <v>22215.9434081675</v>
+        <v>20006.59646313521</v>
       </c>
       <c r="H65" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="I65" t="n">
-        <v>21987829</v>
+        <v>22051264</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4423987</v>
+        <v>4406071</v>
       </c>
       <c r="F66" t="n">
-        <v>117.3452437774349</v>
+        <v>187.9600336037541</v>
       </c>
       <c r="G66" t="n">
-        <v>1502.722686608823</v>
+        <v>1055.400323314427</v>
       </c>
       <c r="H66" t="n">
-        <v>0.45</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>214597</v>
+        <v>201957</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124549695</v>
+        <v>123719972</v>
       </c>
       <c r="E67" t="n">
-        <v>2062644956</v>
+        <v>2048904069</v>
       </c>
       <c r="F67" t="n">
-        <v>20738.24690820936</v>
+        <v>16513.76235604847</v>
       </c>
       <c r="G67" t="n">
-        <v>23015.8222179572</v>
+        <v>23318.26730850463</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>36805523</v>
+        <v>41392401</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22988679</v>
+        <v>23054915</v>
       </c>
       <c r="E68" t="n">
-        <v>137545885</v>
+        <v>137942192</v>
       </c>
       <c r="F68" t="n">
-        <v>41977.9675871716</v>
+        <v>40352.92562328596</v>
       </c>
       <c r="G68" t="n">
-        <v>45023.40760971502</v>
+        <v>45907.71594646966</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>18215750</v>
+        <v>18536351</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22380574</v>
+        <v>22725137</v>
       </c>
       <c r="E70" t="n">
-        <v>22380574</v>
+        <v>22725137</v>
       </c>
       <c r="F70" t="n">
-        <v>6768.15189253384</v>
+        <v>3942.787091583252</v>
       </c>
       <c r="G70" t="n">
-        <v>2614.996368945119</v>
+        <v>2616.300945032122</v>
       </c>
       <c r="H70" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2381493</v>
+        <v>2261787</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32422476</v>
+        <v>32496279</v>
       </c>
       <c r="E71" t="n">
-        <v>161803101</v>
+        <v>162171411</v>
       </c>
       <c r="F71" t="n">
-        <v>12854.33001504506</v>
+        <v>18150.89244344714</v>
       </c>
       <c r="G71" t="n">
-        <v>46306.95281248465</v>
+        <v>35584.95976577267</v>
       </c>
       <c r="H71" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>14422833</v>
+        <v>14087809</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>153016</v>
+        <v>151918</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>30380</v>
+        <v>30943</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>284251449</v>
+        <v>284395549</v>
       </c>
       <c r="E73" t="n">
-        <v>525930003</v>
+        <v>526196621</v>
       </c>
       <c r="F73" t="n">
-        <v>6759.411922846009</v>
+        <v>10186.15188532937</v>
       </c>
       <c r="G73" t="n">
-        <v>14645.27819517178</v>
+        <v>15179.47339246984</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>21437487</v>
+        <v>23210486</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9125733</v>
+        <v>9587015</v>
       </c>
       <c r="E74" t="n">
-        <v>27053585</v>
+        <v>28421074</v>
       </c>
       <c r="F74" t="n">
-        <v>489.645953958297</v>
+        <v>996.132769011969</v>
       </c>
       <c r="G74" t="n">
-        <v>1319.161547564763</v>
+        <v>2560.351713857454</v>
       </c>
       <c r="H74" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="I74" t="n">
-        <v>6617312</v>
+        <v>6886154</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8289370</v>
+        <v>8247231</v>
       </c>
       <c r="E75" t="n">
-        <v>11810453</v>
+        <v>11750415</v>
       </c>
       <c r="F75" t="n">
-        <v>163.0927535052277</v>
+        <v>603.4037670831269</v>
       </c>
       <c r="G75" t="n">
-        <v>1716.536481714937</v>
+        <v>3590.728951487291</v>
       </c>
       <c r="H75" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="I75" t="n">
-        <v>291951</v>
+        <v>261606</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15883150</v>
+        <v>15739780</v>
       </c>
       <c r="F76" t="n">
-        <v>601.6544733128397</v>
+        <v>606.8810424012734</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2905380024582402</v>
+        <v>0.2906832763405705</v>
       </c>
       <c r="H76" t="n">
         <v>2.01</v>
       </c>
       <c r="I76" t="n">
-        <v>1114062</v>
+        <v>1132346</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>72605060</v>
+        <v>73194231</v>
       </c>
       <c r="E77" t="n">
-        <v>100531490</v>
+        <v>101346359</v>
       </c>
       <c r="F77" t="n">
-        <v>7907.29395273412</v>
+        <v>7463.581274782521</v>
       </c>
       <c r="G77" t="n">
-        <v>17700.89762082556</v>
+        <v>18991.79642273832</v>
       </c>
       <c r="H77" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I77" t="n">
-        <v>7383520</v>
+        <v>7300011</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6271608</v>
+        <v>6196241</v>
       </c>
       <c r="E78" t="n">
-        <v>6271608</v>
+        <v>6196241</v>
       </c>
       <c r="F78" t="n">
-        <v>626.8019901785747</v>
+        <v>255.0913851620254</v>
       </c>
       <c r="G78" t="n">
-        <v>225.9635859778328</v>
+        <v>269.3208244449876</v>
       </c>
       <c r="H78" t="n">
         <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>1482318</v>
+        <v>1512160</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54664</v>
+        <v>54903</v>
       </c>
       <c r="E79" t="n">
-        <v>285216</v>
+        <v>286462</v>
       </c>
       <c r="F79" t="n">
-        <v>39.45055873168383</v>
+        <v>64.62643802151554</v>
       </c>
       <c r="G79" t="n">
-        <v>319.959538702159</v>
+        <v>59.69234334870085</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="I79" t="n">
-        <v>200732</v>
+        <v>198100</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25020316</v>
+        <v>25007777</v>
       </c>
       <c r="F80" t="n">
-        <v>2363.559878793588</v>
+        <v>1147.550424255438</v>
       </c>
       <c r="G80" t="n">
-        <v>4403.825885941944</v>
+        <v>1118.43561293151</v>
       </c>
       <c r="H80" t="n">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
       <c r="I80" t="n">
-        <v>40963</v>
+        <v>41907</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>579548419</v>
+        <v>583908283</v>
       </c>
       <c r="E81" t="n">
-        <v>2244505520</v>
+        <v>2261390631</v>
       </c>
       <c r="F81" t="n">
-        <v>141641.0586689179</v>
+        <v>143664.5171010158</v>
       </c>
       <c r="G81" t="n">
-        <v>165135.1767480758</v>
+        <v>169844.0083559924</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>62084107</v>
+        <v>62852020</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7401422</v>
+        <v>7220121</v>
       </c>
       <c r="E82" t="n">
-        <v>10603890</v>
+        <v>10344143</v>
       </c>
       <c r="F82" t="n">
-        <v>1409.993073743762</v>
+        <v>1387.845773329173</v>
       </c>
       <c r="G82" t="n">
-        <v>615.0863986119349</v>
+        <v>707.3365019296457</v>
       </c>
       <c r="H82" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="I82" t="n">
-        <v>183227</v>
+        <v>181572</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109151351</v>
+        <v>109062077</v>
       </c>
       <c r="E83" t="n">
-        <v>1033359102</v>
+        <v>1031919496</v>
       </c>
       <c r="F83" t="n">
-        <v>21426.68625796705</v>
+        <v>25979.93381519125</v>
       </c>
       <c r="G83" t="n">
-        <v>14611.55760526285</v>
+        <v>16508.43783011923</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17624089</v>
+        <v>18054181</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1070630</v>
+        <v>1074276</v>
       </c>
       <c r="E84" t="n">
-        <v>4145712</v>
+        <v>4159833</v>
       </c>
       <c r="F84" t="n">
-        <v>1199.290246511476</v>
+        <v>916.1318611339917</v>
       </c>
       <c r="G84" t="n">
-        <v>849.7023674128867</v>
+        <v>707.6551758123217</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>1.19</v>
       </c>
       <c r="I84" t="n">
-        <v>298168</v>
+        <v>283613</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120306802</v>
+        <v>123374684</v>
       </c>
       <c r="E85" t="n">
-        <v>461516257</v>
+        <v>473285147</v>
       </c>
       <c r="F85" t="n">
-        <v>81418.9193225546</v>
+        <v>69281.53478944064</v>
       </c>
       <c r="G85" t="n">
-        <v>84097.12155117668</v>
+        <v>78801.60498360463</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>32934586</v>
+        <v>32661127</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5095317</v>
+        <v>5106896</v>
       </c>
       <c r="E86" t="n">
-        <v>18934295</v>
+        <v>18977322</v>
       </c>
       <c r="F86" t="n">
-        <v>588.3579568083974</v>
+        <v>414.776477497458</v>
       </c>
       <c r="G86" t="n">
-        <v>454.7126103888835</v>
+        <v>905.8789302943152</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>96804</v>
+        <v>96135</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>38216179</v>
+        <v>41249325</v>
       </c>
       <c r="F87" t="n">
-        <v>6290.352755461225</v>
+        <v>3198.380751142518</v>
       </c>
       <c r="G87" t="n">
-        <v>2579.052298349569</v>
+        <v>1206.462125416747</v>
       </c>
       <c r="H87" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I87" t="n">
-        <v>8453688</v>
+        <v>9717053</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23830115</v>
+        <v>24050511</v>
       </c>
       <c r="F88" t="n">
-        <v>1063.15238582068</v>
+        <v>1155.933899535265</v>
       </c>
       <c r="G88" t="n">
-        <v>711.0138165715372</v>
+        <v>772.2121506945236</v>
       </c>
       <c r="H88" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I88" t="n">
-        <v>10141.84</v>
+        <v>9582.809999999999</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>90686086</v>
+        <v>91018173</v>
       </c>
       <c r="E89" t="n">
-        <v>335210175</v>
+        <v>336433776</v>
       </c>
       <c r="F89" t="n">
-        <v>2720.338215879961</v>
+        <v>1423.179297187681</v>
       </c>
       <c r="G89" t="n">
-        <v>1233.826146500113</v>
+        <v>1061.323988441922</v>
       </c>
       <c r="H89" t="n">
         <v>0.65</v>
       </c>
       <c r="I89" t="n">
-        <v>310521</v>
+        <v>329435</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19157472</v>
+        <v>19016159</v>
       </c>
       <c r="E90" t="n">
-        <v>19157472</v>
+        <v>19016159</v>
       </c>
       <c r="F90" t="n">
-        <v>4769.484559411618</v>
+        <v>4400.527629485008</v>
       </c>
       <c r="G90" t="n">
-        <v>2257.805537506703</v>
+        <v>3595.877520351007</v>
       </c>
       <c r="H90" t="n">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="I90" t="n">
-        <v>7384722</v>
+        <v>7461247</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3798383</v>
+        <v>3808006</v>
       </c>
       <c r="E91" t="n">
-        <v>8279943</v>
+        <v>8300920</v>
       </c>
       <c r="F91" t="n">
-        <v>1952.366934763621</v>
+        <v>1812.650976365848</v>
       </c>
       <c r="G91" t="n">
-        <v>1206.519572173802</v>
+        <v>1159.930248826655</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2085430</v>
+        <v>2162330</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>467004996</v>
+        <v>467958039</v>
       </c>
       <c r="E92" t="n">
-        <v>1625605524</v>
+        <v>1628097412</v>
       </c>
       <c r="F92" t="n">
-        <v>67104.84025734662</v>
+        <v>63715.20525486149</v>
       </c>
       <c r="G92" t="n">
-        <v>74009.62653523101</v>
+        <v>74330.57898816881</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>48136601</v>
+        <v>49269447</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2315687</v>
+        <v>2294525</v>
       </c>
       <c r="E93" t="n">
-        <v>9262748</v>
+        <v>9178098</v>
       </c>
       <c r="F93" t="n">
-        <v>1305.302592549511</v>
+        <v>1227.454820807318</v>
       </c>
       <c r="G93" t="n">
-        <v>921.2013125613032</v>
+        <v>822.21433311421</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="I93" t="n">
-        <v>7419626</v>
+        <v>7876515</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210347753</v>
+        <v>209940982</v>
       </c>
       <c r="E94" t="n">
-        <v>646740183</v>
+        <v>645489514</v>
       </c>
       <c r="F94" t="n">
-        <v>92091.73635743621</v>
+        <v>91749.79966909088</v>
       </c>
       <c r="G94" t="n">
-        <v>97282.83269491988</v>
+        <v>93773.31012932722</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I94" t="n">
-        <v>22984621</v>
+        <v>23240078</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>136174104</v>
+        <v>139858407</v>
       </c>
       <c r="E95" t="n">
-        <v>355751068</v>
+        <v>365376207</v>
       </c>
       <c r="F95" t="n">
-        <v>32910.28898189676</v>
+        <v>33038.53057785673</v>
       </c>
       <c r="G95" t="n">
-        <v>24656.7187491351</v>
+        <v>30755.05328079917</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>8335148</v>
+        <v>8839437</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>381392464</v>
+        <v>380483970</v>
       </c>
       <c r="E96" t="n">
-        <v>2179385508</v>
+        <v>2174194112</v>
       </c>
       <c r="F96" t="n">
-        <v>20122.01482975101</v>
+        <v>19949.68710852729</v>
       </c>
       <c r="G96" t="n">
-        <v>46861.11199237086</v>
+        <v>46232.1786422314</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>63696282</v>
+        <v>63533959</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>596804420</v>
+        <v>599369200</v>
       </c>
       <c r="E2" t="n">
-        <v>1158255397</v>
+        <v>1163231875</v>
       </c>
       <c r="F2" t="n">
-        <v>15585.77572933901</v>
+        <v>17068.62732991452</v>
       </c>
       <c r="G2" t="n">
-        <v>33333.90334808912</v>
+        <v>29422.59960097797</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>47365151</v>
+        <v>47448644</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1440902</v>
+        <v>1529116</v>
       </c>
       <c r="E3" t="n">
-        <v>4657585</v>
+        <v>4942730</v>
       </c>
       <c r="F3" t="n">
-        <v>155.7303543267137</v>
+        <v>5032.10101125193</v>
       </c>
       <c r="G3" t="n">
-        <v>149.7713966436881</v>
+        <v>3907.30961764965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
-        <v>228333</v>
+        <v>252481</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252862088</v>
+        <v>250268935</v>
       </c>
       <c r="E4" t="n">
-        <v>1585662611</v>
+        <v>1569401313</v>
       </c>
       <c r="F4" t="n">
-        <v>107761.5784903616</v>
+        <v>130788.7734126173</v>
       </c>
       <c r="G4" t="n">
-        <v>111606.4909487576</v>
+        <v>153813.7637152026</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>29176116</v>
+        <v>29617045</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141839204</v>
+        <v>139850430</v>
       </c>
       <c r="E5" t="n">
-        <v>157180005</v>
+        <v>154976132</v>
       </c>
       <c r="F5" t="n">
-        <v>7657.642353168982</v>
+        <v>5219.165958193503</v>
       </c>
       <c r="G5" t="n">
-        <v>13975.93981882987</v>
+        <v>10495.25954838213</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>53629957</v>
+        <v>53399967</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>667909</v>
+        <v>662769</v>
       </c>
       <c r="E6" t="n">
-        <v>12963605</v>
+        <v>12863843</v>
       </c>
       <c r="F6" t="n">
-        <v>330.0775445225145</v>
+        <v>92.6931897367554</v>
       </c>
       <c r="G6" t="n">
-        <v>416.2059593484907</v>
+        <v>459.8623581839636</v>
       </c>
       <c r="H6" t="n">
         <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>20669</v>
+        <v>20593</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>485417056</v>
+        <v>482600288</v>
       </c>
       <c r="E7" t="n">
-        <v>485417056</v>
+        <v>482600287</v>
       </c>
       <c r="F7" t="n">
-        <v>52466.83889423258</v>
+        <v>57724.57341425898</v>
       </c>
       <c r="G7" t="n">
-        <v>53098.50877390705</v>
+        <v>51704.91726831168</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>75304350</v>
+        <v>81898613</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4618758</v>
+        <v>4633639</v>
       </c>
       <c r="E8" t="n">
-        <v>4618758</v>
+        <v>4633639</v>
       </c>
       <c r="F8" t="n">
-        <v>888.9287619075245</v>
+        <v>1114.288074809614</v>
       </c>
       <c r="G8" t="n">
-        <v>953.9977404085137</v>
+        <v>794.7037898376859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="I8" t="n">
-        <v>2259845</v>
+        <v>2286685</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2006079</v>
+        <v>2004134</v>
       </c>
       <c r="F9" t="n">
-        <v>358.180813795068</v>
+        <v>721.0201230887195</v>
       </c>
       <c r="G9" t="n">
-        <v>4760.754094567749</v>
+        <v>5810.700856864469</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>0.53</v>
       </c>
       <c r="I9" t="n">
-        <v>306733</v>
+        <v>305687</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1717850</v>
+        <v>1667057</v>
       </c>
       <c r="F10" t="n">
-        <v>254.4126727233354</v>
+        <v>420.9233930349666</v>
       </c>
       <c r="G10" t="n">
-        <v>373.7256056748971</v>
+        <v>269.7837471410679</v>
       </c>
       <c r="H10" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1364508</v>
+        <v>1360604</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109117903</v>
+        <v>109847133</v>
       </c>
       <c r="E11" t="n">
-        <v>205565195</v>
+        <v>206938977</v>
       </c>
       <c r="F11" t="n">
-        <v>1466.276721302245</v>
+        <v>1608.472681729644</v>
       </c>
       <c r="G11" t="n">
-        <v>1461.720491668948</v>
+        <v>483.8439835558927</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
       <c r="I11" t="n">
-        <v>4151104</v>
+        <v>4179347</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11896213</v>
+        <v>11885469</v>
       </c>
       <c r="E12" t="n">
-        <v>29607524</v>
+        <v>29580784</v>
       </c>
       <c r="F12" t="n">
-        <v>102.2347242452669</v>
+        <v>96.5035576397287</v>
       </c>
       <c r="G12" t="n">
-        <v>3370.212724516299</v>
+        <v>3389.365712453399</v>
       </c>
       <c r="H12" t="n">
         <v>1.37</v>
       </c>
       <c r="I12" t="n">
-        <v>1491178</v>
+        <v>1449399</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108927119</v>
+        <v>111481563</v>
       </c>
       <c r="E13" t="n">
-        <v>423296167</v>
+        <v>433197819</v>
       </c>
       <c r="F13" t="n">
-        <v>9786.044819822037</v>
+        <v>10496.27867057226</v>
       </c>
       <c r="G13" t="n">
-        <v>22526.32382392418</v>
+        <v>21198.24182876095</v>
       </c>
       <c r="H13" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I13" t="n">
-        <v>12582738</v>
+        <v>13657470</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4762499</v>
+        <v>4754064</v>
       </c>
       <c r="E14" t="n">
-        <v>7010656</v>
+        <v>6998240</v>
       </c>
       <c r="F14" t="n">
-        <v>126.6045873865175</v>
+        <v>133.1110945080746</v>
       </c>
       <c r="G14" t="n">
-        <v>1859.483012457566</v>
+        <v>1877.019401026722</v>
       </c>
       <c r="H14" t="n">
         <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>599348</v>
+        <v>594960</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139959305</v>
+        <v>139171269</v>
       </c>
       <c r="E15" t="n">
-        <v>139959305</v>
+        <v>139171269</v>
       </c>
       <c r="F15" t="n">
-        <v>40881.89615131901</v>
+        <v>58804.78752770656</v>
       </c>
       <c r="G15" t="n">
-        <v>85375.1554368393</v>
+        <v>69517.19305067764</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>97016287</v>
+        <v>96842301</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63714498</v>
+        <v>63249121</v>
       </c>
       <c r="E16" t="n">
-        <v>326741014</v>
+        <v>324354467</v>
       </c>
       <c r="F16" t="n">
-        <v>10604.88818487765</v>
+        <v>15822.7182119999</v>
       </c>
       <c r="G16" t="n">
-        <v>16607.65425590884</v>
+        <v>17238.96675344503</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>25755510</v>
+        <v>25341021</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252036398</v>
+        <v>249493984</v>
       </c>
       <c r="E17" t="n">
-        <v>252036398</v>
+        <v>249493984</v>
       </c>
       <c r="F17" t="n">
-        <v>55347.61335628379</v>
+        <v>66926.06019192016</v>
       </c>
       <c r="G17" t="n">
-        <v>61605.91222504864</v>
+        <v>47923.27549412256</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>26880407</v>
+        <v>27066544</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2590926</v>
+        <v>2592769</v>
       </c>
       <c r="E18" t="n">
-        <v>6623911</v>
+        <v>6628624</v>
       </c>
       <c r="F18" t="n">
-        <v>876.4014881954657</v>
+        <v>945.8565904402814</v>
       </c>
       <c r="G18" t="n">
-        <v>788.9867519125324</v>
+        <v>785.2963475475008</v>
       </c>
       <c r="H18" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>82186</v>
+        <v>80532</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82602702</v>
+        <v>80951949</v>
       </c>
       <c r="E19" t="n">
-        <v>231139860</v>
+        <v>226536774</v>
       </c>
       <c r="F19" t="n">
-        <v>19153.34798662454</v>
+        <v>20431.66654415532</v>
       </c>
       <c r="G19" t="n">
-        <v>16966.81041902604</v>
+        <v>16117.9618693918</v>
       </c>
       <c r="H19" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>58035281</v>
+        <v>63706752</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1687365</v>
+        <v>1691407</v>
       </c>
       <c r="E20" t="n">
-        <v>9688218</v>
+        <v>9711430</v>
       </c>
       <c r="F20" t="n">
-        <v>141.4793214700859</v>
+        <v>207.2204926119256</v>
       </c>
       <c r="G20" t="n">
-        <v>160.2110173911445</v>
+        <v>1168.820544794947</v>
       </c>
       <c r="H20" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="I20" t="n">
-        <v>300835</v>
+        <v>268602</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162588</v>
+        <v>162530</v>
       </c>
       <c r="E21" t="n">
-        <v>1097972</v>
+        <v>1097580</v>
       </c>
       <c r="F21" t="n">
-        <v>5.35199003137084</v>
+        <v>5.352107007748971</v>
       </c>
       <c r="G21" t="n">
-        <v>5.326844490403628</v>
+        <v>5.326960917185385</v>
       </c>
       <c r="H21" t="n">
         <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3315570</v>
+        <v>3336155</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>249861</v>
+        <v>247125</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4495880357101</v>
+        <v>148.4528593485606</v>
       </c>
       <c r="G22" t="n">
-        <v>66.28914480046421</v>
+        <v>23.78933266637174</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5085.77</v>
+        <v>5095.12</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84667823</v>
+        <v>84772261</v>
       </c>
       <c r="E23" t="n">
-        <v>176525612</v>
+        <v>176743356</v>
       </c>
       <c r="F23" t="n">
-        <v>10984.19001857868</v>
+        <v>7637.747143682307</v>
       </c>
       <c r="G23" t="n">
-        <v>35569.9687862752</v>
+        <v>40345.99930055984</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>81279739</v>
+        <v>83195982</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195376369</v>
+        <v>194297355</v>
       </c>
       <c r="E24" t="n">
-        <v>678755162</v>
+        <v>675006571</v>
       </c>
       <c r="F24" t="n">
-        <v>59624.943870565</v>
+        <v>62978.41067986107</v>
       </c>
       <c r="G24" t="n">
-        <v>64485.8629747327</v>
+        <v>62629.41677197371</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>41206501</v>
+        <v>41249421</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109665025</v>
+        <v>108702841</v>
       </c>
       <c r="E25" t="n">
-        <v>464916148</v>
+        <v>460789062</v>
       </c>
       <c r="F25" t="n">
-        <v>15264.00839149488</v>
+        <v>16395.75206431514</v>
       </c>
       <c r="G25" t="n">
-        <v>19541.51342208916</v>
+        <v>17196.80070352938</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="I25" t="n">
-        <v>14969742</v>
+        <v>14770683</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5634505</v>
+        <v>5623073</v>
       </c>
       <c r="E26" t="n">
-        <v>7646427</v>
+        <v>7630805</v>
       </c>
       <c r="F26" t="n">
-        <v>442.5419131508901</v>
+        <v>514.2017023760327</v>
       </c>
       <c r="G26" t="n">
-        <v>2145.056372490129</v>
+        <v>815.2341297345913</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I26" t="n">
-        <v>5613307</v>
+        <v>5601099</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>609148</v>
+        <v>595574</v>
       </c>
       <c r="E27" t="n">
-        <v>7388377</v>
+        <v>7223727</v>
       </c>
       <c r="F27" t="n">
-        <v>778.7653304546835</v>
+        <v>542.7158621350674</v>
       </c>
       <c r="G27" t="n">
-        <v>424.5876816230934</v>
+        <v>489.953096704648</v>
       </c>
       <c r="H27" t="n">
-        <v>0.78</v>
+        <v>1.08</v>
       </c>
       <c r="I27" t="n">
-        <v>2988872</v>
+        <v>2978266</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25583616</v>
+        <v>24942812</v>
       </c>
       <c r="E28" t="n">
-        <v>36153775</v>
+        <v>35248216</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740046678055851</v>
+        <v>1.740093484226455</v>
       </c>
       <c r="G28" t="n">
-        <v>492.1500932293331</v>
+        <v>273.3504650700798</v>
       </c>
       <c r="H28" t="n">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>187503</v>
+        <v>189551</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1430453736</v>
+        <v>1425132107</v>
       </c>
       <c r="E29" t="n">
-        <v>6859318614</v>
+        <v>6833800313</v>
       </c>
       <c r="F29" t="n">
-        <v>102146.8561110629</v>
+        <v>139916.5397835142</v>
       </c>
       <c r="G29" t="n">
-        <v>170891.7337775609</v>
+        <v>173156.1680963877</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>571922522</v>
+        <v>576295610</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>261438364</v>
+        <v>259741801</v>
       </c>
       <c r="E30" t="n">
-        <v>1128513116</v>
+        <v>1121189808</v>
       </c>
       <c r="F30" t="n">
-        <v>114572.7790531921</v>
+        <v>138728.4243255211</v>
       </c>
       <c r="G30" t="n">
-        <v>128480.4927195763</v>
+        <v>119870.1988498274</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142587139</v>
+        <v>142291950</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5360692</v>
+        <v>5313509</v>
       </c>
       <c r="E31" t="n">
-        <v>5366759</v>
+        <v>5319523</v>
       </c>
       <c r="F31" t="n">
-        <v>109.4275422379649</v>
+        <v>109.4304857706157</v>
       </c>
       <c r="G31" t="n">
-        <v>163.1235511461757</v>
+        <v>163.127939067983</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>140186</v>
+        <v>140066</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15728379</v>
+        <v>15859181</v>
       </c>
       <c r="E32" t="n">
-        <v>39320947</v>
+        <v>39647953</v>
       </c>
       <c r="F32" t="n">
-        <v>4700.126410650387</v>
+        <v>5935.777783326873</v>
       </c>
       <c r="G32" t="n">
-        <v>2036.199448489898</v>
+        <v>3037.129247564574</v>
       </c>
       <c r="H32" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="I32" t="n">
-        <v>5202390</v>
+        <v>5202012</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19109560</v>
+        <v>19043559</v>
       </c>
       <c r="F33" t="n">
-        <v>427.8759119962336</v>
+        <v>1473.001131977131</v>
       </c>
       <c r="G33" t="n">
-        <v>2247.339133074341</v>
+        <v>4233.73361751119</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>76991</v>
+        <v>77428</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4107881</v>
+        <v>4072306</v>
       </c>
       <c r="E34" t="n">
-        <v>11831165</v>
+        <v>11728704</v>
       </c>
       <c r="F34" t="n">
-        <v>2091.952350887565</v>
+        <v>1084.885028768973</v>
       </c>
       <c r="G34" t="n">
-        <v>1453.739729194184</v>
+        <v>1088.435732326752</v>
       </c>
       <c r="H34" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I34" t="n">
-        <v>460833</v>
+        <v>447188</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1423273</v>
+        <v>1431771</v>
       </c>
       <c r="F35" t="n">
-        <v>4.127096306858703</v>
+        <v>44.83688370712736</v>
       </c>
       <c r="G35" t="n">
-        <v>141.7171447784245</v>
+        <v>17.35731918885354</v>
       </c>
       <c r="H35" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="I35" t="n">
-        <v>6431.55</v>
+        <v>6123.55</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14166968</v>
+        <v>14130611</v>
       </c>
       <c r="E36" t="n">
-        <v>68612888</v>
+        <v>68436804</v>
       </c>
       <c r="F36" t="n">
-        <v>4585.784446427734</v>
+        <v>4133.436136744696</v>
       </c>
       <c r="G36" t="n">
-        <v>8988.919531373995</v>
+        <v>7267.382000199326</v>
       </c>
       <c r="H36" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I36" t="n">
-        <v>5604075</v>
+        <v>5566895</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1252651</v>
+        <v>1251680</v>
       </c>
       <c r="E37" t="n">
-        <v>8198565</v>
+        <v>8192212</v>
       </c>
       <c r="F37" t="n">
-        <v>47.66663609527962</v>
+        <v>47.66820943781251</v>
       </c>
       <c r="G37" t="n">
-        <v>988.728046005167</v>
+        <v>988.1534290882518</v>
       </c>
       <c r="H37" t="n">
         <v>2.38</v>
       </c>
       <c r="I37" t="n">
-        <v>344714</v>
+        <v>343272</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1856613346</v>
+        <v>1850524682</v>
       </c>
       <c r="F38" t="n">
-        <v>76065.35910980277</v>
+        <v>74131.93109255646</v>
       </c>
       <c r="G38" t="n">
-        <v>76556.38055242854</v>
+        <v>75681.12443234735</v>
       </c>
       <c r="H38" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="I38" t="n">
-        <v>32070608</v>
+        <v>32023314</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29283290</v>
+        <v>29117328</v>
       </c>
       <c r="E39" t="n">
-        <v>91178770</v>
+        <v>90662018</v>
       </c>
       <c r="F39" t="n">
-        <v>746.742256736537</v>
+        <v>838.5033247311485</v>
       </c>
       <c r="G39" t="n">
-        <v>12765.21236202278</v>
+        <v>11990.57918418248</v>
       </c>
       <c r="H39" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="I39" t="n">
-        <v>11031448</v>
+        <v>11069772</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194123715</v>
+        <v>191859360</v>
       </c>
       <c r="E40" t="n">
-        <v>1099247752</v>
+        <v>1086425583</v>
       </c>
       <c r="F40" t="n">
-        <v>13004.66740517488</v>
+        <v>46902.25031668926</v>
       </c>
       <c r="G40" t="n">
-        <v>53454.60085265559</v>
+        <v>74103.14544746913</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>85766889</v>
+        <v>85350040</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>131733369</v>
+        <v>130864910</v>
       </c>
       <c r="E41" t="n">
-        <v>975802733</v>
+        <v>969369701</v>
       </c>
       <c r="F41" t="n">
-        <v>46349.62623378145</v>
+        <v>46197.4151128032</v>
       </c>
       <c r="G41" t="n">
-        <v>152165.0268518675</v>
+        <v>154483.9056289232</v>
       </c>
       <c r="H41" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>36499825</v>
+        <v>36888378</v>
       </c>
     </row>
     <row r="42">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Infrastructure, Gaming (GameFi), Ethereum Ecosystem, Gaming Governance Token</t>
+          <t>Infrastructure, Gaming (GameFi), Ethereum Ecosystem, Gaming Governance Token, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29938016</v>
+        <v>29867729</v>
       </c>
       <c r="E42" t="n">
-        <v>141854911</v>
+        <v>141521873</v>
       </c>
       <c r="F42" t="n">
-        <v>7819.882526498105</v>
+        <v>7632.154524798815</v>
       </c>
       <c r="G42" t="n">
-        <v>8164.341421043331</v>
+        <v>7920.466068919051</v>
       </c>
       <c r="H42" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>759575</v>
+        <v>756804</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3202816</v>
+        <v>3196473</v>
       </c>
       <c r="E43" t="n">
-        <v>7479110</v>
+        <v>7464297</v>
       </c>
       <c r="F43" t="n">
-        <v>875.1336674146949</v>
+        <v>1152.229633778707</v>
       </c>
       <c r="G43" t="n">
-        <v>2943.399347407642</v>
+        <v>2501.179695631716</v>
       </c>
       <c r="H43" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="I43" t="n">
-        <v>607460</v>
+        <v>605162</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>323123300</v>
+        <v>321796123</v>
       </c>
       <c r="E44" t="n">
-        <v>2907017572</v>
+        <v>2895077460</v>
       </c>
       <c r="F44" t="n">
-        <v>34470.60330517768</v>
+        <v>45335.13614785363</v>
       </c>
       <c r="G44" t="n">
-        <v>35496.53076205216</v>
+        <v>37956.1097762616</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>71108778</v>
+        <v>70429099</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>627285</v>
+        <v>626419</v>
       </c>
       <c r="F45" t="n">
-        <v>761.9819620461329</v>
+        <v>733.4446501001827</v>
       </c>
       <c r="G45" t="n">
-        <v>376.5094743229415</v>
+        <v>492.7564651583718</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16355.51</v>
+        <v>18957.8</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1536787</v>
+        <v>1534377</v>
       </c>
       <c r="E46" t="n">
-        <v>12806555</v>
+        <v>12786472</v>
       </c>
       <c r="F46" t="n">
-        <v>587.4896932320174</v>
+        <v>710.2558170565198</v>
       </c>
       <c r="G46" t="n">
-        <v>655.8409843598666</v>
+        <v>401.4081962329154</v>
       </c>
       <c r="H46" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>30522</v>
+        <v>29363</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4740611</v>
+        <v>4705678</v>
       </c>
       <c r="E47" t="n">
-        <v>16748567</v>
+        <v>16625149</v>
       </c>
       <c r="F47" t="n">
-        <v>1063.227637165813</v>
+        <v>1107.317332558923</v>
       </c>
       <c r="G47" t="n">
-        <v>1253.056241128647</v>
+        <v>1159.260130035818</v>
       </c>
       <c r="H47" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>160535</v>
+        <v>145675</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46613366</v>
+        <v>46344705</v>
       </c>
       <c r="E48" t="n">
-        <v>269872130</v>
+        <v>268316694</v>
       </c>
       <c r="F48" t="n">
-        <v>17132.26268275346</v>
+        <v>15518.06208155261</v>
       </c>
       <c r="G48" t="n">
-        <v>17731.86875128387</v>
+        <v>10388.6897733941</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="n">
-        <v>39048784</v>
+        <v>38130706</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2264991</v>
+        <v>2260641</v>
       </c>
       <c r="E49" t="n">
-        <v>12444247</v>
+        <v>12420350</v>
       </c>
       <c r="F49" t="n">
-        <v>185.6112810062099</v>
+        <v>207.4655233610955</v>
       </c>
       <c r="G49" t="n">
-        <v>404.3667002680978</v>
+        <v>537.7934216051018</v>
       </c>
       <c r="H49" t="n">
         <v>1.59</v>
       </c>
       <c r="I49" t="n">
-        <v>87986</v>
+        <v>83341</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13521629</v>
+        <v>13506821</v>
       </c>
       <c r="E50" t="n">
-        <v>13567644</v>
+        <v>13552786</v>
       </c>
       <c r="F50" t="n">
-        <v>4372.979809823139</v>
+        <v>4522.791739347205</v>
       </c>
       <c r="G50" t="n">
-        <v>9457.047478240876</v>
+        <v>8890.587858365885</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>7290839</v>
+        <v>7303150</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19491240</v>
+        <v>19480012</v>
       </c>
       <c r="E51" t="n">
-        <v>58438746</v>
+        <v>58405548</v>
       </c>
       <c r="F51" t="n">
-        <v>21801.28434154099</v>
+        <v>8921.036759049724</v>
       </c>
       <c r="G51" t="n">
-        <v>25456.53584092302</v>
+        <v>22886.57219935255</v>
       </c>
       <c r="H51" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I51" t="n">
-        <v>4296057</v>
+        <v>4293754</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15896111</v>
+        <v>15812550</v>
       </c>
       <c r="E52" t="n">
-        <v>97432492</v>
+        <v>96920318</v>
       </c>
       <c r="F52" t="n">
-        <v>6858.704416315943</v>
+        <v>5569.48634017627</v>
       </c>
       <c r="G52" t="n">
-        <v>6127.731685515458</v>
+        <v>8635.72719656275</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>12422600</v>
+        <v>9757737</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49753064</v>
+        <v>48789420</v>
       </c>
       <c r="E53" t="n">
-        <v>214330760</v>
+        <v>210179486</v>
       </c>
       <c r="F53" t="n">
-        <v>18590.94967819536</v>
+        <v>19314.08209123471</v>
       </c>
       <c r="G53" t="n">
-        <v>21280.05385392809</v>
+        <v>23525.4280575298</v>
       </c>
       <c r="H53" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I53" t="n">
-        <v>13647082</v>
+        <v>13703198</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1017048</v>
+        <v>1015457</v>
       </c>
       <c r="E54" t="n">
-        <v>2972654</v>
+        <v>2968005</v>
       </c>
       <c r="F54" t="n">
-        <v>320.9455715241481</v>
+        <v>337.3111915133327</v>
       </c>
       <c r="G54" t="n">
-        <v>1469.480510263837</v>
+        <v>1373.682437484265</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>13278.76</v>
+        <v>13263.42</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31156387</v>
+        <v>31626260</v>
       </c>
       <c r="E55" t="n">
-        <v>78561451</v>
+        <v>79746245</v>
       </c>
       <c r="F55" t="n">
-        <v>2342.281926200205</v>
+        <v>3497.247002708164</v>
       </c>
       <c r="G55" t="n">
-        <v>1005.561089560197</v>
+        <v>1282.432834776404</v>
       </c>
       <c r="H55" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="I55" t="n">
-        <v>6469833</v>
+        <v>6486636</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework</t>
+          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, NFT Marketplace, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28804975</v>
+        <v>28836412</v>
       </c>
       <c r="E56" t="n">
-        <v>68330741</v>
+        <v>68405315</v>
       </c>
       <c r="F56" t="n">
-        <v>6453.240916030947</v>
+        <v>2682.287976328322</v>
       </c>
       <c r="G56" t="n">
-        <v>4355.073918522587</v>
+        <v>4520.192545551135</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>696775</v>
+        <v>739455</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12105598</v>
+        <v>11998817</v>
       </c>
       <c r="E57" t="n">
-        <v>18405248</v>
+        <v>18242900</v>
       </c>
       <c r="F57" t="n">
-        <v>4100.021987685509</v>
+        <v>4205.664033581563</v>
       </c>
       <c r="G57" t="n">
-        <v>5976.309233648302</v>
+        <v>6033.389333569346</v>
       </c>
       <c r="H57" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="I57" t="n">
-        <v>649897</v>
+        <v>580687</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>307179706</v>
+        <v>301993483</v>
       </c>
       <c r="E58" t="n">
-        <v>307179706</v>
+        <v>301993483</v>
       </c>
       <c r="F58" t="n">
-        <v>52409.44867680912</v>
+        <v>76914.18894810228</v>
       </c>
       <c r="G58" t="n">
-        <v>79158.03559652752</v>
+        <v>69833.62803044353</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>110725714</v>
+        <v>112330631</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11705696</v>
+        <v>11690034</v>
       </c>
       <c r="F59" t="n">
-        <v>101.3269282133653</v>
+        <v>101.2802390223897</v>
       </c>
       <c r="G59" t="n">
-        <v>125.7254684355397</v>
+        <v>105.8381783017942</v>
       </c>
       <c r="H59" t="n">
         <v>0.17</v>
       </c>
       <c r="I59" t="n">
-        <v>77211</v>
+        <v>75493</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84498070</v>
+        <v>83591929</v>
       </c>
       <c r="E60" t="n">
-        <v>486914327</v>
+        <v>481692751</v>
       </c>
       <c r="F60" t="n">
-        <v>99092.91717934608</v>
+        <v>98296.43417496017</v>
       </c>
       <c r="G60" t="n">
-        <v>97215.29188863357</v>
+        <v>96425.01337735774</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>21321620</v>
+        <v>21391814</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9205165</v>
+        <v>9187122</v>
       </c>
       <c r="E61" t="n">
-        <v>9205165</v>
+        <v>9187122</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2975462</v>
+        <v>2969551</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30235032</v>
+        <v>30885220</v>
       </c>
       <c r="E62" t="n">
-        <v>135374642</v>
+        <v>138285798</v>
       </c>
       <c r="F62" t="n">
-        <v>16074.31475038458</v>
+        <v>16281.94540129578</v>
       </c>
       <c r="G62" t="n">
-        <v>19691.32759745808</v>
+        <v>19434.25304762769</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>16342463</v>
+        <v>16899681</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12865974</v>
+        <v>12846882</v>
       </c>
       <c r="E63" t="n">
-        <v>25713910</v>
+        <v>25675754</v>
       </c>
       <c r="F63" t="n">
-        <v>851.3099043109188</v>
+        <v>850.188383826805</v>
       </c>
       <c r="G63" t="n">
-        <v>5340.204975775079</v>
+        <v>5515.242349524151</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>16247.35</v>
+        <v>16144.88</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1327392</v>
+        <v>1329203</v>
       </c>
       <c r="F64" t="n">
-        <v>95.45610783379406</v>
+        <v>162.117240893125</v>
       </c>
       <c r="G64" t="n">
-        <v>92.89059369936095</v>
+        <v>129.9771169752899</v>
       </c>
       <c r="H64" t="n">
-        <v>2.98</v>
+        <v>2.4</v>
       </c>
       <c r="I64" t="n">
-        <v>72004</v>
+        <v>92224</v>
       </c>
     </row>
     <row r="65">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48071190</v>
+        <v>47746854</v>
       </c>
       <c r="E65" t="n">
-        <v>311728872</v>
+        <v>309625641</v>
       </c>
       <c r="F65" t="n">
-        <v>19865.10001586878</v>
+        <v>15942.89755248356</v>
       </c>
       <c r="G65" t="n">
-        <v>20006.59646313521</v>
+        <v>21093.45447646319</v>
       </c>
       <c r="H65" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>22051264</v>
+        <v>21947102</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4406071</v>
+        <v>4405212</v>
       </c>
       <c r="F66" t="n">
-        <v>187.9600336037541</v>
+        <v>184.6593032614002</v>
       </c>
       <c r="G66" t="n">
-        <v>1055.400323314427</v>
+        <v>1055.932362280459</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I66" t="n">
-        <v>201957</v>
+        <v>202614</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123719972</v>
+        <v>123454354</v>
       </c>
       <c r="E67" t="n">
-        <v>2048904069</v>
+        <v>2044505213</v>
       </c>
       <c r="F67" t="n">
-        <v>16513.76235604847</v>
+        <v>170529.2616908644</v>
       </c>
       <c r="G67" t="n">
-        <v>23318.26730850463</v>
+        <v>165916.2500029068</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>41392401</v>
+        <v>43223554</v>
       </c>
     </row>
     <row r="68">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23054915</v>
+        <v>22906780</v>
       </c>
       <c r="E68" t="n">
-        <v>137942192</v>
+        <v>137055867</v>
       </c>
       <c r="F68" t="n">
-        <v>40352.92562328596</v>
+        <v>40925.71565645673</v>
       </c>
       <c r="G68" t="n">
-        <v>45907.71594646966</v>
+        <v>44911.94787652264</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>18536351</v>
+        <v>18452457</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22725137</v>
+        <v>22483524</v>
       </c>
       <c r="E70" t="n">
-        <v>22725137</v>
+        <v>22483524</v>
       </c>
       <c r="F70" t="n">
-        <v>3942.787091583252</v>
+        <v>3619.289145270746</v>
       </c>
       <c r="G70" t="n">
-        <v>2616.300945032122</v>
+        <v>14672.53117017035</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="I70" t="n">
-        <v>2261787</v>
+        <v>2234124</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32496279</v>
+        <v>32306317</v>
       </c>
       <c r="E71" t="n">
-        <v>162171411</v>
+        <v>161223416</v>
       </c>
       <c r="F71" t="n">
-        <v>18150.89244344714</v>
+        <v>15808.27223680228</v>
       </c>
       <c r="G71" t="n">
-        <v>35584.95976577267</v>
+        <v>53176.22123442445</v>
       </c>
       <c r="H71" t="n">
-        <v>0.61</v>
+        <v>1.23</v>
       </c>
       <c r="I71" t="n">
-        <v>14087809</v>
+        <v>13987001</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>151918</v>
+        <v>156926</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>30943</v>
+        <v>32644</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>284395549</v>
+        <v>288853903</v>
       </c>
       <c r="E73" t="n">
-        <v>526196621</v>
+        <v>534445593</v>
       </c>
       <c r="F73" t="n">
-        <v>10186.15188532937</v>
+        <v>33629.00600428118</v>
       </c>
       <c r="G73" t="n">
-        <v>15179.47339246984</v>
+        <v>37922.69197370353</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>23210486</v>
+        <v>23926335</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9587015</v>
+        <v>9468984</v>
       </c>
       <c r="E74" t="n">
-        <v>28421074</v>
+        <v>28071167</v>
       </c>
       <c r="F74" t="n">
-        <v>996.132769011969</v>
+        <v>504.0100510920674</v>
       </c>
       <c r="G74" t="n">
-        <v>2560.351713857454</v>
+        <v>4958.497270352314</v>
       </c>
       <c r="H74" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I74" t="n">
-        <v>6886154</v>
+        <v>6823375</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8247231</v>
+        <v>8289976</v>
       </c>
       <c r="E75" t="n">
-        <v>11750415</v>
+        <v>11811317</v>
       </c>
       <c r="F75" t="n">
-        <v>603.4037670831269</v>
+        <v>422.6218254758066</v>
       </c>
       <c r="G75" t="n">
-        <v>3590.728951487291</v>
+        <v>4286.701217425937</v>
       </c>
       <c r="H75" t="n">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
       <c r="I75" t="n">
-        <v>261606</v>
+        <v>256245</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15739780</v>
+        <v>15917948</v>
       </c>
       <c r="F76" t="n">
-        <v>606.8810424012734</v>
+        <v>19.48532170917623</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2906832763405705</v>
+        <v>703.9175567529137</v>
       </c>
       <c r="H76" t="n">
-        <v>2.01</v>
+        <v>1.32</v>
       </c>
       <c r="I76" t="n">
-        <v>1132346</v>
+        <v>1148378</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73194231</v>
+        <v>73057239</v>
       </c>
       <c r="E77" t="n">
-        <v>101346359</v>
+        <v>101156568</v>
       </c>
       <c r="F77" t="n">
-        <v>7463.581274782521</v>
+        <v>7670.227076626908</v>
       </c>
       <c r="G77" t="n">
-        <v>18991.79642273832</v>
+        <v>17295.2044821579</v>
       </c>
       <c r="H77" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I77" t="n">
-        <v>7300011</v>
+        <v>7193978</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6196241</v>
+        <v>6188593</v>
       </c>
       <c r="E78" t="n">
-        <v>6196241</v>
+        <v>6188593</v>
       </c>
       <c r="F78" t="n">
-        <v>255.0913851620254</v>
+        <v>75.89830908524657</v>
       </c>
       <c r="G78" t="n">
-        <v>269.3208244449876</v>
+        <v>598.5334016899017</v>
       </c>
       <c r="H78" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I78" t="n">
-        <v>1512160</v>
+        <v>1538580</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54903</v>
+        <v>54980</v>
       </c>
       <c r="E79" t="n">
-        <v>286462</v>
+        <v>286863</v>
       </c>
       <c r="F79" t="n">
-        <v>64.62643802151554</v>
+        <v>9.834650293876528</v>
       </c>
       <c r="G79" t="n">
-        <v>59.69234334870085</v>
+        <v>43.11088611790377</v>
       </c>
       <c r="H79" t="n">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="I79" t="n">
-        <v>198100</v>
+        <v>193962</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25007777</v>
+        <v>25198036</v>
       </c>
       <c r="F80" t="n">
-        <v>1147.550424255438</v>
+        <v>577.3484329054437</v>
       </c>
       <c r="G80" t="n">
-        <v>1118.43561293151</v>
+        <v>1377.73819602964</v>
       </c>
       <c r="H80" t="n">
-        <v>0.36</v>
+        <v>1.53</v>
       </c>
       <c r="I80" t="n">
-        <v>41907</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>583908283</v>
+        <v>580553927</v>
       </c>
       <c r="E81" t="n">
-        <v>2261390631</v>
+        <v>2248399703</v>
       </c>
       <c r="F81" t="n">
-        <v>143664.5171010158</v>
+        <v>163388.5965498025</v>
       </c>
       <c r="G81" t="n">
-        <v>169844.0083559924</v>
+        <v>281915.0542356677</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>62852020</v>
+        <v>62448410</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7220121</v>
+        <v>7154752</v>
       </c>
       <c r="E82" t="n">
-        <v>10344143</v>
+        <v>10250490</v>
       </c>
       <c r="F82" t="n">
-        <v>1387.845773329173</v>
+        <v>1272.588817951865</v>
       </c>
       <c r="G82" t="n">
-        <v>707.3365019296457</v>
+        <v>730.0488719417633</v>
       </c>
       <c r="H82" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I82" t="n">
-        <v>181572</v>
+        <v>180963</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109062077</v>
+        <v>108428815</v>
       </c>
       <c r="E83" t="n">
-        <v>1031919496</v>
+        <v>1025927723</v>
       </c>
       <c r="F83" t="n">
-        <v>25979.93381519125</v>
+        <v>36027.42511154882</v>
       </c>
       <c r="G83" t="n">
-        <v>16508.43783011923</v>
+        <v>25930.95899413565</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>18054181</v>
+        <v>17986383</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1074276</v>
+        <v>1063031</v>
       </c>
       <c r="E84" t="n">
-        <v>4159833</v>
+        <v>4116290</v>
       </c>
       <c r="F84" t="n">
-        <v>916.1318611339917</v>
+        <v>517.7140052051147</v>
       </c>
       <c r="G84" t="n">
-        <v>707.6551758123217</v>
+        <v>496.5232216669121</v>
       </c>
       <c r="H84" t="n">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="I84" t="n">
-        <v>283613</v>
+        <v>278424</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123374684</v>
+        <v>121417464</v>
       </c>
       <c r="E85" t="n">
-        <v>473285147</v>
+        <v>465776933</v>
       </c>
       <c r="F85" t="n">
-        <v>69281.53478944064</v>
+        <v>63825.19192220169</v>
       </c>
       <c r="G85" t="n">
-        <v>78801.60498360463</v>
+        <v>86169.38299147648</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>32661127</v>
+        <v>32254887</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5106896</v>
+        <v>5087834</v>
       </c>
       <c r="E86" t="n">
-        <v>18977322</v>
+        <v>18906487</v>
       </c>
       <c r="F86" t="n">
-        <v>414.776477497458</v>
+        <v>693.666186433697</v>
       </c>
       <c r="G86" t="n">
-        <v>905.8789302943152</v>
+        <v>665.9772103037931</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>96135</v>
+        <v>96537</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>41249325</v>
+        <v>41037066</v>
       </c>
       <c r="F87" t="n">
-        <v>3198.380751142518</v>
+        <v>3223.942507254319</v>
       </c>
       <c r="G87" t="n">
-        <v>1206.462125416747</v>
+        <v>1000.742175278518</v>
       </c>
       <c r="H87" t="n">
         <v>0.34</v>
       </c>
       <c r="I87" t="n">
-        <v>9717053</v>
+        <v>9066330</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24050511</v>
+        <v>24051008</v>
       </c>
       <c r="F88" t="n">
-        <v>1155.933899535265</v>
+        <v>938.3661639951264</v>
       </c>
       <c r="G88" t="n">
-        <v>772.2121506945236</v>
+        <v>893.1358952434113</v>
       </c>
       <c r="H88" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I88" t="n">
-        <v>9582.809999999999</v>
+        <v>9535.440000000001</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>91018173</v>
+        <v>91232851</v>
       </c>
       <c r="E89" t="n">
-        <v>336433776</v>
+        <v>337227202</v>
       </c>
       <c r="F89" t="n">
-        <v>1423.179297187681</v>
+        <v>273.4535792677098</v>
       </c>
       <c r="G89" t="n">
-        <v>1061.323988441922</v>
+        <v>369.0166128941238</v>
       </c>
       <c r="H89" t="n">
-        <v>0.65</v>
+        <v>1.28</v>
       </c>
       <c r="I89" t="n">
-        <v>329435</v>
+        <v>326854</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19016159</v>
+        <v>18840891</v>
       </c>
       <c r="E90" t="n">
-        <v>19016159</v>
+        <v>18840891</v>
       </c>
       <c r="F90" t="n">
-        <v>4400.527629485008</v>
+        <v>3225.994346097381</v>
       </c>
       <c r="G90" t="n">
-        <v>3595.877520351007</v>
+        <v>3729.911893276625</v>
       </c>
       <c r="H90" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="I90" t="n">
-        <v>7461247</v>
+        <v>7414893</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3808006</v>
+        <v>3800822</v>
       </c>
       <c r="E91" t="n">
-        <v>8300920</v>
+        <v>8285260</v>
       </c>
       <c r="F91" t="n">
-        <v>1812.650976365848</v>
+        <v>1850.773590982741</v>
       </c>
       <c r="G91" t="n">
-        <v>1159.930248826655</v>
+        <v>1156.940105027927</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2162330</v>
+        <v>2183484</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>467958039</v>
+        <v>465913553</v>
       </c>
       <c r="E92" t="n">
-        <v>1628097412</v>
+        <v>1620984332</v>
       </c>
       <c r="F92" t="n">
-        <v>63715.20525486149</v>
+        <v>161689.7433965057</v>
       </c>
       <c r="G92" t="n">
-        <v>74330.57898816881</v>
+        <v>162872.1936525394</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>49269447</v>
+        <v>49730407</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2294525</v>
+        <v>2295805</v>
       </c>
       <c r="E93" t="n">
-        <v>9178098</v>
+        <v>9183221</v>
       </c>
       <c r="F93" t="n">
-        <v>1227.454820807318</v>
+        <v>1173.327123951687</v>
       </c>
       <c r="G93" t="n">
-        <v>822.21433311421</v>
+        <v>886.6131361664649</v>
       </c>
       <c r="H93" t="n">
         <v>0.65</v>
       </c>
       <c r="I93" t="n">
-        <v>7876515</v>
+        <v>7952631</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>209940982</v>
+        <v>209124829</v>
       </c>
       <c r="E94" t="n">
-        <v>645489514</v>
+        <v>642980151</v>
       </c>
       <c r="F94" t="n">
-        <v>91749.79966909088</v>
+        <v>93968.00564179278</v>
       </c>
       <c r="G94" t="n">
-        <v>93773.31012932722</v>
+        <v>96523.56682644822</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>23240078</v>
+        <v>23381668</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>139858407</v>
+        <v>138874753</v>
       </c>
       <c r="E95" t="n">
-        <v>365376207</v>
+        <v>362806440</v>
       </c>
       <c r="F95" t="n">
-        <v>33038.53057785673</v>
+        <v>31313.37186600847</v>
       </c>
       <c r="G95" t="n">
-        <v>30755.05328079917</v>
+        <v>30164.16995631178</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I95" t="n">
-        <v>8839437</v>
+        <v>8763868</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>380483970</v>
+        <v>379717722</v>
       </c>
       <c r="E96" t="n">
-        <v>2174194112</v>
+        <v>2169815553</v>
       </c>
       <c r="F96" t="n">
-        <v>19949.68710852729</v>
+        <v>28050.22447565144</v>
       </c>
       <c r="G96" t="n">
-        <v>46232.1786422314</v>
+        <v>42815.68609095168</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>63533959</v>
+        <v>63753608</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>599369200</v>
+        <v>598040011</v>
       </c>
       <c r="E2" t="n">
-        <v>1163231875</v>
+        <v>1160650067</v>
       </c>
       <c r="F2" t="n">
-        <v>17068.62732991452</v>
+        <v>16949.56740066442</v>
       </c>
       <c r="G2" t="n">
-        <v>29422.59960097797</v>
+        <v>32111.30289243947</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>47448644</v>
+        <v>48734788</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1529116</v>
+        <v>1526042</v>
       </c>
       <c r="E3" t="n">
-        <v>4942730</v>
+        <v>4932795</v>
       </c>
       <c r="F3" t="n">
-        <v>5032.10101125193</v>
+        <v>4058.865889766819</v>
       </c>
       <c r="G3" t="n">
-        <v>3907.30961764965</v>
+        <v>2530.448486117101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I3" t="n">
-        <v>252481</v>
+        <v>269803</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250268935</v>
+        <v>252332025</v>
       </c>
       <c r="E4" t="n">
-        <v>1569401313</v>
+        <v>1582338662</v>
       </c>
       <c r="F4" t="n">
-        <v>130788.7734126173</v>
+        <v>134998.0001874845</v>
       </c>
       <c r="G4" t="n">
-        <v>153813.7637152026</v>
+        <v>166525.9136874807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29617045</v>
+        <v>29898739</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139850430</v>
+        <v>140312581</v>
       </c>
       <c r="E5" t="n">
-        <v>154976132</v>
+        <v>155488268</v>
       </c>
       <c r="F5" t="n">
-        <v>5219.165958193503</v>
+        <v>4910.038718426298</v>
       </c>
       <c r="G5" t="n">
-        <v>10495.25954838213</v>
+        <v>10006.37288361372</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>53399967</v>
+        <v>53413369</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>662769</v>
+        <v>664039</v>
       </c>
       <c r="E6" t="n">
-        <v>12863843</v>
+        <v>12888506</v>
       </c>
       <c r="F6" t="n">
-        <v>92.6931897367554</v>
+        <v>162.190191049959</v>
       </c>
       <c r="G6" t="n">
-        <v>459.8623581839636</v>
+        <v>415.950769146901</v>
       </c>
       <c r="H6" t="n">
         <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>20593</v>
+        <v>20780</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>482600288</v>
+        <v>475785007</v>
       </c>
       <c r="E7" t="n">
-        <v>482600287</v>
+        <v>475785007</v>
       </c>
       <c r="F7" t="n">
-        <v>57724.57341425898</v>
+        <v>46146.65816405501</v>
       </c>
       <c r="G7" t="n">
-        <v>51704.91726831168</v>
+        <v>40731.45786017882</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>81898613</v>
+        <v>74840021</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4633639</v>
+        <v>4602308</v>
       </c>
       <c r="E8" t="n">
-        <v>4633639</v>
+        <v>4602308</v>
       </c>
       <c r="F8" t="n">
-        <v>1114.288074809614</v>
+        <v>774.0189431041829</v>
       </c>
       <c r="G8" t="n">
-        <v>794.7037898376859</v>
+        <v>980.6019647548945</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="I8" t="n">
-        <v>2286685</v>
+        <v>2221837</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2004134</v>
+        <v>2000729</v>
       </c>
       <c r="F9" t="n">
-        <v>721.0201230887195</v>
+        <v>564.6201266213998</v>
       </c>
       <c r="G9" t="n">
-        <v>5810.700856864469</v>
+        <v>1208.786804457805</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>305687</v>
+        <v>305989</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1667057</v>
+        <v>1733791</v>
       </c>
       <c r="F10" t="n">
-        <v>420.9233930349666</v>
+        <v>591.388889744753</v>
       </c>
       <c r="G10" t="n">
-        <v>269.7837471410679</v>
+        <v>303.547960492868</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1360604</v>
+        <v>1303487</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109847133</v>
+        <v>109511209</v>
       </c>
       <c r="E11" t="n">
-        <v>206938977</v>
+        <v>206306137</v>
       </c>
       <c r="F11" t="n">
-        <v>1608.472681729644</v>
+        <v>1900.50541994034</v>
       </c>
       <c r="G11" t="n">
-        <v>483.8439835558927</v>
+        <v>2402.400475804133</v>
       </c>
       <c r="H11" t="n">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4179347</v>
+        <v>4133710</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11885469</v>
+        <v>11856119</v>
       </c>
       <c r="E12" t="n">
-        <v>29580784</v>
+        <v>29507735</v>
       </c>
       <c r="F12" t="n">
-        <v>96.5035576397287</v>
+        <v>94.99742823476815</v>
       </c>
       <c r="G12" t="n">
-        <v>3389.365712453399</v>
+        <v>3253.82047938114</v>
       </c>
       <c r="H12" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>1449399</v>
+        <v>1459025</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111481563</v>
+        <v>113920827</v>
       </c>
       <c r="E13" t="n">
-        <v>433197819</v>
+        <v>442650916</v>
       </c>
       <c r="F13" t="n">
-        <v>10496.27867057226</v>
+        <v>21287.08499595718</v>
       </c>
       <c r="G13" t="n">
-        <v>21198.24182876095</v>
+        <v>22614.17991609528</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>13657470</v>
+        <v>13451355</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4754064</v>
+        <v>4980571</v>
       </c>
       <c r="E14" t="n">
-        <v>6998240</v>
+        <v>7331671</v>
       </c>
       <c r="F14" t="n">
-        <v>133.1110945080746</v>
+        <v>41.83149808014708</v>
       </c>
       <c r="G14" t="n">
-        <v>1877.019401026722</v>
+        <v>336.6367159347843</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>594960</v>
+        <v>668423</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139171269</v>
+        <v>138890271</v>
       </c>
       <c r="E15" t="n">
-        <v>139171269</v>
+        <v>138890271</v>
       </c>
       <c r="F15" t="n">
-        <v>58804.78752770656</v>
+        <v>49018.47178079275</v>
       </c>
       <c r="G15" t="n">
-        <v>69517.19305067764</v>
+        <v>79684.94048116922</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>96842301</v>
+        <v>92467289</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63249121</v>
+        <v>63513491</v>
       </c>
       <c r="E16" t="n">
-        <v>324354467</v>
+        <v>325710209</v>
       </c>
       <c r="F16" t="n">
-        <v>15822.7182119999</v>
+        <v>15357.19155800339</v>
       </c>
       <c r="G16" t="n">
-        <v>17238.96675344503</v>
+        <v>19409.41066533166</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>25341021</v>
+        <v>24500815</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249493984</v>
+        <v>250345064</v>
       </c>
       <c r="E17" t="n">
-        <v>249493984</v>
+        <v>250345064</v>
       </c>
       <c r="F17" t="n">
-        <v>66926.06019192016</v>
+        <v>60139.86605361105</v>
       </c>
       <c r="G17" t="n">
-        <v>47923.27549412256</v>
+        <v>53802.85483684044</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>27066544</v>
+        <v>27789804</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2592769</v>
+        <v>2610394</v>
       </c>
       <c r="E18" t="n">
-        <v>6628624</v>
+        <v>6673682</v>
       </c>
       <c r="F18" t="n">
-        <v>945.8565904402814</v>
+        <v>423.7279780200132</v>
       </c>
       <c r="G18" t="n">
-        <v>785.2963475475008</v>
+        <v>1341.485081435691</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>80532</v>
+        <v>80546</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80951949</v>
+        <v>79252881</v>
       </c>
       <c r="E19" t="n">
-        <v>226536774</v>
+        <v>221796117</v>
       </c>
       <c r="F19" t="n">
-        <v>20431.66654415532</v>
+        <v>18427.12220327894</v>
       </c>
       <c r="G19" t="n">
-        <v>16117.9618693918</v>
+        <v>16021.01326748417</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I19" t="n">
-        <v>63706752</v>
+        <v>57885034</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1691407</v>
+        <v>1679126</v>
       </c>
       <c r="E20" t="n">
-        <v>9711430</v>
+        <v>9640913</v>
       </c>
       <c r="F20" t="n">
-        <v>207.2204926119256</v>
+        <v>204.5706118157302</v>
       </c>
       <c r="G20" t="n">
-        <v>1168.820544794947</v>
+        <v>1177.138468940812</v>
       </c>
       <c r="H20" t="n">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="I20" t="n">
-        <v>268602</v>
+        <v>306108</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162530</v>
+        <v>161055</v>
       </c>
       <c r="E21" t="n">
-        <v>1097580</v>
+        <v>1087620</v>
       </c>
       <c r="F21" t="n">
-        <v>5.352107007748971</v>
+        <v>5.352057340481741</v>
       </c>
       <c r="G21" t="n">
-        <v>5.326960917185385</v>
+        <v>72.43052352330631</v>
       </c>
       <c r="H21" t="n">
         <v>1.34</v>
       </c>
       <c r="I21" t="n">
-        <v>3336155</v>
+        <v>3363472</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247125</v>
+        <v>244838</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4528593485606</v>
+        <v>148.4514817139525</v>
       </c>
       <c r="G22" t="n">
-        <v>23.78933266637174</v>
+        <v>23.6854948147225</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5095.12</v>
+        <v>5053.91</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84772261</v>
+        <v>84507818</v>
       </c>
       <c r="E23" t="n">
-        <v>176743356</v>
+        <v>176192014</v>
       </c>
       <c r="F23" t="n">
-        <v>7637.747143682307</v>
+        <v>8486.551705168167</v>
       </c>
       <c r="G23" t="n">
-        <v>40345.99930055984</v>
+        <v>47048.2596853912</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>83195982</v>
+        <v>84543224</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194297355</v>
+        <v>196082258</v>
       </c>
       <c r="E24" t="n">
-        <v>675006571</v>
+        <v>681207485</v>
       </c>
       <c r="F24" t="n">
-        <v>62978.41067986107</v>
+        <v>64394.69848122468</v>
       </c>
       <c r="G24" t="n">
-        <v>62629.41677197371</v>
+        <v>63046.13906425489</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>41249421</v>
+        <v>41650426</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>108702841</v>
+        <v>109517027</v>
       </c>
       <c r="E25" t="n">
-        <v>460789062</v>
+        <v>464191994</v>
       </c>
       <c r="F25" t="n">
-        <v>16395.75206431514</v>
+        <v>14945.17247729215</v>
       </c>
       <c r="G25" t="n">
-        <v>17196.80070352938</v>
+        <v>18289.73852357991</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>14770683</v>
+        <v>14939780</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5623073</v>
+        <v>5623842</v>
       </c>
       <c r="E26" t="n">
-        <v>7630805</v>
+        <v>7631815</v>
       </c>
       <c r="F26" t="n">
-        <v>514.2017023760327</v>
+        <v>432.643721288999</v>
       </c>
       <c r="G26" t="n">
-        <v>815.2341297345913</v>
+        <v>2184.04897242885</v>
       </c>
       <c r="H26" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I26" t="n">
-        <v>5601099</v>
+        <v>5676142</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>595574</v>
+        <v>580988</v>
       </c>
       <c r="E27" t="n">
-        <v>7223727</v>
+        <v>7046820</v>
       </c>
       <c r="F27" t="n">
-        <v>542.7158621350674</v>
+        <v>715.26451086884</v>
       </c>
       <c r="G27" t="n">
-        <v>489.953096704648</v>
+        <v>563.8405328940004</v>
       </c>
       <c r="H27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2978266</v>
+        <v>2980961</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24942812</v>
+        <v>25076654</v>
       </c>
       <c r="E28" t="n">
-        <v>35248216</v>
+        <v>35437355</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740093484226455</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>273.3504650700798</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.93</v>
       </c>
       <c r="I28" t="n">
-        <v>189551</v>
+        <v>182886</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1425132107</v>
+        <v>1442996087</v>
       </c>
       <c r="E29" t="n">
-        <v>6833800313</v>
+        <v>6919461755</v>
       </c>
       <c r="F29" t="n">
-        <v>139916.5397835142</v>
+        <v>157006.5380530491</v>
       </c>
       <c r="G29" t="n">
-        <v>173156.1680963877</v>
+        <v>190821.253300289</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>576295610</v>
+        <v>584475478</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>259741801</v>
+        <v>261298437</v>
       </c>
       <c r="E30" t="n">
-        <v>1121189808</v>
+        <v>1127909112</v>
       </c>
       <c r="F30" t="n">
-        <v>138728.4243255211</v>
+        <v>121470.360345495</v>
       </c>
       <c r="G30" t="n">
-        <v>119870.1988498274</v>
+        <v>129501.8424391211</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142291950</v>
+        <v>142247932</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5313509</v>
+        <v>5334113</v>
       </c>
       <c r="E31" t="n">
-        <v>5319523</v>
+        <v>5340150</v>
       </c>
       <c r="F31" t="n">
-        <v>109.4304857706157</v>
+        <v>109.4294702615513</v>
       </c>
       <c r="G31" t="n">
-        <v>163.127939067983</v>
+        <v>163.1264252494195</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>140066</v>
+        <v>141057</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15859181</v>
+        <v>15898717</v>
       </c>
       <c r="E32" t="n">
-        <v>39647953</v>
+        <v>39746791</v>
       </c>
       <c r="F32" t="n">
-        <v>5935.777783326873</v>
+        <v>5320.741384161656</v>
       </c>
       <c r="G32" t="n">
-        <v>3037.129247564574</v>
+        <v>3215.611773992226</v>
       </c>
       <c r="H32" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I32" t="n">
-        <v>5202012</v>
+        <v>5232185</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19043559</v>
+        <v>19126825</v>
       </c>
       <c r="F33" t="n">
-        <v>1473.001131977131</v>
+        <v>1587.365608960868</v>
       </c>
       <c r="G33" t="n">
-        <v>4233.73361751119</v>
+        <v>1853.370169954978</v>
       </c>
       <c r="H33" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>77428</v>
+        <v>79356</v>
       </c>
     </row>
     <row r="34">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Arbitrum Ecosystem, Ethereum Ecosystem, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem</t>
+          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4072306</v>
+        <v>4192419</v>
       </c>
       <c r="E34" t="n">
-        <v>11728704</v>
+        <v>12074643</v>
       </c>
       <c r="F34" t="n">
-        <v>1084.885028768973</v>
+        <v>579.543820537087</v>
       </c>
       <c r="G34" t="n">
-        <v>1088.435732326752</v>
+        <v>1570.611120011533</v>
       </c>
       <c r="H34" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="I34" t="n">
-        <v>447188</v>
+        <v>446677</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1431771</v>
+        <v>1393417</v>
       </c>
       <c r="F35" t="n">
-        <v>44.83688370712736</v>
+        <v>4.595368753135124</v>
       </c>
       <c r="G35" t="n">
-        <v>17.35731918885354</v>
+        <v>50.34083219380408</v>
       </c>
       <c r="H35" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="I35" t="n">
-        <v>6123.55</v>
+        <v>6536.31</v>
       </c>
     </row>
     <row r="36">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14130611</v>
+        <v>14072284</v>
       </c>
       <c r="E36" t="n">
-        <v>68436804</v>
+        <v>68154317</v>
       </c>
       <c r="F36" t="n">
-        <v>4133.436136744696</v>
+        <v>3777.392386079774</v>
       </c>
       <c r="G36" t="n">
-        <v>7267.382000199326</v>
+        <v>8648.109508459687</v>
       </c>
       <c r="H36" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>5566895</v>
+        <v>5567322</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1251680</v>
+        <v>1245958</v>
       </c>
       <c r="E37" t="n">
-        <v>8192212</v>
+        <v>8154764</v>
       </c>
       <c r="F37" t="n">
-        <v>47.66820943781251</v>
+        <v>215.8634035190754</v>
       </c>
       <c r="G37" t="n">
-        <v>988.1534290882518</v>
+        <v>988.3854676473015</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="I37" t="n">
-        <v>343272</v>
+        <v>344946</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1850524682</v>
+        <v>1855006039</v>
       </c>
       <c r="F38" t="n">
-        <v>74131.93109255646</v>
+        <v>73629.29421240994</v>
       </c>
       <c r="G38" t="n">
-        <v>75681.12443234735</v>
+        <v>71981.52393135958</v>
       </c>
       <c r="H38" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>32023314</v>
+        <v>31914324</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29117328</v>
+        <v>29509176</v>
       </c>
       <c r="E39" t="n">
-        <v>90662018</v>
+        <v>91882107</v>
       </c>
       <c r="F39" t="n">
-        <v>838.5033247311485</v>
+        <v>2512.181816844339</v>
       </c>
       <c r="G39" t="n">
-        <v>11990.57918418248</v>
+        <v>12983.51162789563</v>
       </c>
       <c r="H39" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="I39" t="n">
-        <v>11069772</v>
+        <v>11024875</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>191859360</v>
+        <v>194421034</v>
       </c>
       <c r="E40" t="n">
-        <v>1086425583</v>
+        <v>1100931354</v>
       </c>
       <c r="F40" t="n">
-        <v>46902.25031668926</v>
+        <v>40948.01584695658</v>
       </c>
       <c r="G40" t="n">
-        <v>74103.14544746913</v>
+        <v>81994.79355637354</v>
       </c>
       <c r="H40" t="n">
         <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>85350040</v>
+        <v>85313397</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>130864910</v>
+        <v>128836098</v>
       </c>
       <c r="E41" t="n">
-        <v>969369701</v>
+        <v>954341466</v>
       </c>
       <c r="F41" t="n">
-        <v>46197.4151128032</v>
+        <v>64640.05576996519</v>
       </c>
       <c r="G41" t="n">
-        <v>154483.9056289232</v>
+        <v>218785.7633559637</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I41" t="n">
-        <v>36888378</v>
+        <v>37390168</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29867729</v>
+        <v>29891323</v>
       </c>
       <c r="E42" t="n">
-        <v>141521873</v>
+        <v>141633669</v>
       </c>
       <c r="F42" t="n">
-        <v>7632.154524798815</v>
+        <v>7808.312754382052</v>
       </c>
       <c r="G42" t="n">
-        <v>7920.466068919051</v>
+        <v>10228.37699607877</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I42" t="n">
-        <v>756804</v>
+        <v>762571</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3196473</v>
+        <v>3175857</v>
       </c>
       <c r="E43" t="n">
-        <v>7464297</v>
+        <v>7416155</v>
       </c>
       <c r="F43" t="n">
-        <v>1152.229633778707</v>
+        <v>1154.773534556028</v>
       </c>
       <c r="G43" t="n">
-        <v>2501.179695631716</v>
+        <v>3954.607401942512</v>
       </c>
       <c r="H43" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I43" t="n">
-        <v>605162</v>
+        <v>591563</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>321796123</v>
+        <v>323777149</v>
       </c>
       <c r="E44" t="n">
-        <v>2895077460</v>
+        <v>2912899999</v>
       </c>
       <c r="F44" t="n">
-        <v>45335.13614785363</v>
+        <v>39530.85408549652</v>
       </c>
       <c r="G44" t="n">
-        <v>37956.1097762616</v>
+        <v>32157.98809107751</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>70429099</v>
+        <v>70082677</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626419</v>
+        <v>625954</v>
       </c>
       <c r="F45" t="n">
-        <v>733.4446501001827</v>
+        <v>733.4378437729924</v>
       </c>
       <c r="G45" t="n">
-        <v>492.7564651583718</v>
+        <v>492.8513863342307</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>18957.8</v>
+        <v>19850.52</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1534377</v>
+        <v>1550273</v>
       </c>
       <c r="E46" t="n">
-        <v>12786472</v>
+        <v>12918938</v>
       </c>
       <c r="F46" t="n">
-        <v>710.2558170565198</v>
+        <v>570.5892964306729</v>
       </c>
       <c r="G46" t="n">
-        <v>401.4081962329154</v>
+        <v>457.6616923703027</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I46" t="n">
-        <v>29363</v>
+        <v>32908</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4705678</v>
+        <v>4757415</v>
       </c>
       <c r="E47" t="n">
-        <v>16625149</v>
+        <v>16807932</v>
       </c>
       <c r="F47" t="n">
-        <v>1107.317332558923</v>
+        <v>1136.804819615761</v>
       </c>
       <c r="G47" t="n">
-        <v>1159.260130035818</v>
+        <v>1268.774491927265</v>
       </c>
       <c r="H47" t="n">
         <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>145675</v>
+        <v>165149</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46344705</v>
+        <v>46640322</v>
       </c>
       <c r="E48" t="n">
-        <v>268316694</v>
+        <v>270028192</v>
       </c>
       <c r="F48" t="n">
-        <v>15518.06208155261</v>
+        <v>20912.08873850616</v>
       </c>
       <c r="G48" t="n">
-        <v>10388.6897733941</v>
+        <v>12728.83459883275</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="I48" t="n">
-        <v>38130706</v>
+        <v>36848841</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2260641</v>
+        <v>2256203</v>
       </c>
       <c r="E49" t="n">
-        <v>12420350</v>
+        <v>12395964</v>
       </c>
       <c r="F49" t="n">
-        <v>207.4655233610955</v>
+        <v>360.6743014662442</v>
       </c>
       <c r="G49" t="n">
-        <v>537.7934216051018</v>
+        <v>1180.114537554475</v>
       </c>
       <c r="H49" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>83341</v>
+        <v>62457</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13506821</v>
+        <v>13361162</v>
       </c>
       <c r="E50" t="n">
-        <v>13552786</v>
+        <v>13406631</v>
       </c>
       <c r="F50" t="n">
-        <v>4522.791739347205</v>
+        <v>4814.679135895411</v>
       </c>
       <c r="G50" t="n">
-        <v>8890.587858365885</v>
+        <v>10522.05756243706</v>
       </c>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7303150</v>
+        <v>7256327</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19480012</v>
+        <v>19543098</v>
       </c>
       <c r="E51" t="n">
-        <v>58405548</v>
+        <v>58593893</v>
       </c>
       <c r="F51" t="n">
-        <v>8921.036759049724</v>
+        <v>9116.826263363355</v>
       </c>
       <c r="G51" t="n">
-        <v>22886.57219935255</v>
+        <v>25490.20484192787</v>
       </c>
       <c r="H51" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="I51" t="n">
-        <v>4293754</v>
+        <v>4337233</v>
       </c>
     </row>
     <row r="52">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15812550</v>
+        <v>15927367</v>
       </c>
       <c r="E52" t="n">
-        <v>96920318</v>
+        <v>97624072</v>
       </c>
       <c r="F52" t="n">
-        <v>5569.48634017627</v>
+        <v>7468.886048703203</v>
       </c>
       <c r="G52" t="n">
-        <v>8635.72719656275</v>
+        <v>10399.32188297241</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I52" t="n">
-        <v>9757737</v>
+        <v>12784305</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48789420</v>
+        <v>48763265</v>
       </c>
       <c r="E53" t="n">
-        <v>210179486</v>
+        <v>210066816</v>
       </c>
       <c r="F53" t="n">
-        <v>19314.08209123471</v>
+        <v>19559.71880699726</v>
       </c>
       <c r="G53" t="n">
-        <v>23525.4280575298</v>
+        <v>22610.64302353758</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>13703198</v>
+        <v>13676334</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1015457</v>
+        <v>1016601</v>
       </c>
       <c r="E54" t="n">
-        <v>2968005</v>
+        <v>2971349</v>
       </c>
       <c r="F54" t="n">
-        <v>337.3111915133327</v>
+        <v>337.031663263432</v>
       </c>
       <c r="G54" t="n">
-        <v>1373.682437484265</v>
+        <v>1362.547333931481</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>13263.42</v>
+        <v>13291.54</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31626260</v>
+        <v>31400267</v>
       </c>
       <c r="E55" t="n">
-        <v>79746245</v>
+        <v>79176399</v>
       </c>
       <c r="F55" t="n">
-        <v>3497.247002708164</v>
+        <v>907.483309692832</v>
       </c>
       <c r="G55" t="n">
-        <v>1282.432834776404</v>
+        <v>6325.707583455182</v>
       </c>
       <c r="H55" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="I55" t="n">
-        <v>6486636</v>
+        <v>6426047</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28836412</v>
+        <v>28841798</v>
       </c>
       <c r="E56" t="n">
-        <v>68405315</v>
+        <v>68418094</v>
       </c>
       <c r="F56" t="n">
-        <v>2682.287976328322</v>
+        <v>4849.38661169423</v>
       </c>
       <c r="G56" t="n">
-        <v>4520.192545551135</v>
+        <v>4652.544499147786</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>739455</v>
+        <v>747216</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11998817</v>
+        <v>11995761</v>
       </c>
       <c r="E57" t="n">
-        <v>18242900</v>
+        <v>18238253</v>
       </c>
       <c r="F57" t="n">
-        <v>4205.664033581563</v>
+        <v>2664.907160553967</v>
       </c>
       <c r="G57" t="n">
-        <v>6033.389333569346</v>
+        <v>10633.62884117222</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="I57" t="n">
-        <v>580687</v>
+        <v>639234</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>301993483</v>
+        <v>300174234</v>
       </c>
       <c r="E58" t="n">
-        <v>301993483</v>
+        <v>300174234</v>
       </c>
       <c r="F58" t="n">
-        <v>76914.18894810228</v>
+        <v>64080.66788189777</v>
       </c>
       <c r="G58" t="n">
-        <v>69833.62803044353</v>
+        <v>68936.36679776873</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>112330631</v>
+        <v>111886969</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11690034</v>
+        <v>11686919</v>
       </c>
       <c r="F59" t="n">
-        <v>101.2802390223897</v>
+        <v>142.636976747648</v>
       </c>
       <c r="G59" t="n">
-        <v>105.8381783017942</v>
+        <v>105.5889262624134</v>
       </c>
       <c r="H59" t="n">
-        <v>0.17</v>
+        <v>0.95</v>
       </c>
       <c r="I59" t="n">
-        <v>75493</v>
+        <v>73046</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83591929</v>
+        <v>84369305</v>
       </c>
       <c r="E60" t="n">
-        <v>481692751</v>
+        <v>486172325</v>
       </c>
       <c r="F60" t="n">
-        <v>98296.43417496017</v>
+        <v>96598.34575313164</v>
       </c>
       <c r="G60" t="n">
-        <v>96425.01337735774</v>
+        <v>90953.27007510603</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>21391814</v>
+        <v>21247801</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9187122</v>
+        <v>9188806</v>
       </c>
       <c r="E61" t="n">
-        <v>9187122</v>
+        <v>9188806</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.97</v>
+        <v>11.68</v>
       </c>
       <c r="I61" t="n">
-        <v>2969551</v>
+        <v>2972896</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30885220</v>
+        <v>30800375</v>
       </c>
       <c r="E62" t="n">
-        <v>138285798</v>
+        <v>137905916</v>
       </c>
       <c r="F62" t="n">
-        <v>16281.94540129578</v>
+        <v>16716.02902725918</v>
       </c>
       <c r="G62" t="n">
-        <v>19434.25304762769</v>
+        <v>18192.64405385832</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>16899681</v>
+        <v>17566407</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12846882</v>
+        <v>12843149</v>
       </c>
       <c r="E63" t="n">
-        <v>25675754</v>
+        <v>25668293</v>
       </c>
       <c r="F63" t="n">
-        <v>850.188383826805</v>
+        <v>850.9638447481526</v>
       </c>
       <c r="G63" t="n">
-        <v>5515.242349524151</v>
+        <v>5502.236179625983</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>16144.88</v>
+        <v>15008.29</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1329203</v>
+        <v>1334453</v>
       </c>
       <c r="F64" t="n">
-        <v>162.117240893125</v>
+        <v>281.7231290428139</v>
       </c>
       <c r="G64" t="n">
-        <v>129.9771169752899</v>
+        <v>60.92245007069653</v>
       </c>
       <c r="H64" t="n">
         <v>2.4</v>
       </c>
       <c r="I64" t="n">
-        <v>92224</v>
+        <v>71705</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47746854</v>
+        <v>48011183</v>
       </c>
       <c r="E65" t="n">
-        <v>309625641</v>
+        <v>311339745</v>
       </c>
       <c r="F65" t="n">
-        <v>15942.89755248356</v>
+        <v>15719.08568665201</v>
       </c>
       <c r="G65" t="n">
-        <v>21093.45447646319</v>
+        <v>21309.04110614145</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="I65" t="n">
-        <v>21947102</v>
+        <v>22110392</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4405212</v>
+        <v>4451438</v>
       </c>
       <c r="F66" t="n">
-        <v>184.6593032614002</v>
+        <v>122.6724569633746</v>
       </c>
       <c r="G66" t="n">
-        <v>1055.932362280459</v>
+        <v>117.2874281287654</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="I66" t="n">
-        <v>202614</v>
+        <v>215915</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123454354</v>
+        <v>123862675</v>
       </c>
       <c r="E67" t="n">
-        <v>2044505213</v>
+        <v>2051267340</v>
       </c>
       <c r="F67" t="n">
-        <v>170529.2616908644</v>
+        <v>170606.0397495228</v>
       </c>
       <c r="G67" t="n">
-        <v>165916.2500029068</v>
+        <v>163789.6355506454</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>43223554</v>
+        <v>45314159</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22906780</v>
+        <v>23103132</v>
       </c>
       <c r="E68" t="n">
-        <v>137055867</v>
+        <v>138230683</v>
       </c>
       <c r="F68" t="n">
-        <v>40925.71565645673</v>
+        <v>41204.15231404681</v>
       </c>
       <c r="G68" t="n">
-        <v>44911.94787652264</v>
+        <v>45703.94071303152</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>18452457</v>
+        <v>18120670</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22483524</v>
+        <v>22518038</v>
       </c>
       <c r="E70" t="n">
-        <v>22483524</v>
+        <v>22518038</v>
       </c>
       <c r="F70" t="n">
-        <v>3619.289145270746</v>
+        <v>3559.100652373711</v>
       </c>
       <c r="G70" t="n">
-        <v>14672.53117017035</v>
+        <v>14298.71184028878</v>
       </c>
       <c r="H70" t="n">
-        <v>0.57</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2234124</v>
+        <v>2222765</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32306317</v>
+        <v>32467847</v>
       </c>
       <c r="E71" t="n">
-        <v>161223416</v>
+        <v>162029526</v>
       </c>
       <c r="F71" t="n">
-        <v>15808.27223680228</v>
+        <v>19972.985412086</v>
       </c>
       <c r="G71" t="n">
-        <v>53176.22123442445</v>
+        <v>53520.21576598864</v>
       </c>
       <c r="H71" t="n">
         <v>1.23</v>
       </c>
       <c r="I71" t="n">
-        <v>13987001</v>
+        <v>13749344</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>156926</v>
+        <v>158468</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>32644</v>
+        <v>32891</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>288853903</v>
+        <v>293186287</v>
       </c>
       <c r="E73" t="n">
-        <v>534445593</v>
+        <v>542461490</v>
       </c>
       <c r="F73" t="n">
-        <v>33629.00600428118</v>
+        <v>35390.18135367496</v>
       </c>
       <c r="G73" t="n">
-        <v>37922.69197370353</v>
+        <v>36957.12657698964</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I73" t="n">
-        <v>23926335</v>
+        <v>24835242</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9468984</v>
+        <v>9446068</v>
       </c>
       <c r="E74" t="n">
-        <v>28071167</v>
+        <v>28003232</v>
       </c>
       <c r="F74" t="n">
-        <v>504.0100510920674</v>
+        <v>1231.092356361178</v>
       </c>
       <c r="G74" t="n">
-        <v>4958.497270352314</v>
+        <v>2534.967337611483</v>
       </c>
       <c r="H74" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="I74" t="n">
-        <v>6823375</v>
+        <v>6786890</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8289976</v>
+        <v>8296299</v>
       </c>
       <c r="E75" t="n">
-        <v>11811317</v>
+        <v>11820325</v>
       </c>
       <c r="F75" t="n">
-        <v>422.6218254758066</v>
+        <v>513.2375807752027</v>
       </c>
       <c r="G75" t="n">
-        <v>4286.701217425937</v>
+        <v>4085.885431386757</v>
       </c>
       <c r="H75" t="n">
-        <v>0.59</v>
+        <v>0.17</v>
       </c>
       <c r="I75" t="n">
-        <v>256245</v>
+        <v>251563</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15917948</v>
+        <v>15889090</v>
       </c>
       <c r="F76" t="n">
-        <v>19.48532170917623</v>
+        <v>0.6812797032515605</v>
       </c>
       <c r="G76" t="n">
-        <v>703.9175567529137</v>
+        <v>600.1462726237766</v>
       </c>
       <c r="H76" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="I76" t="n">
-        <v>1148378</v>
+        <v>1156284</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73057239</v>
+        <v>73105128</v>
       </c>
       <c r="E77" t="n">
-        <v>101156568</v>
+        <v>101221711</v>
       </c>
       <c r="F77" t="n">
-        <v>7670.227076626908</v>
+        <v>8136.658562188681</v>
       </c>
       <c r="G77" t="n">
-        <v>17295.2044821579</v>
+        <v>22063.02840142549</v>
       </c>
       <c r="H77" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>7193978</v>
+        <v>7200601</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6188593</v>
+        <v>6011376</v>
       </c>
       <c r="E78" t="n">
-        <v>6188593</v>
+        <v>6011376</v>
       </c>
       <c r="F78" t="n">
-        <v>75.89830908524657</v>
+        <v>276.0598959993516</v>
       </c>
       <c r="G78" t="n">
-        <v>598.5334016899017</v>
+        <v>418.4674074833809</v>
       </c>
       <c r="H78" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="I78" t="n">
-        <v>1538580</v>
+        <v>1567660</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54980</v>
+        <v>54132</v>
       </c>
       <c r="E79" t="n">
-        <v>286863</v>
+        <v>282437</v>
       </c>
       <c r="F79" t="n">
-        <v>9.834650293876528</v>
+        <v>26.17994425455503</v>
       </c>
       <c r="G79" t="n">
-        <v>43.11088611790377</v>
+        <v>36.49336019432531</v>
       </c>
       <c r="H79" t="n">
-        <v>0.63</v>
+        <v>1.19</v>
       </c>
       <c r="I79" t="n">
-        <v>193962</v>
+        <v>193002</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25198036</v>
+        <v>26574710</v>
       </c>
       <c r="F80" t="n">
-        <v>577.3484329054437</v>
+        <v>506.1688695211564</v>
       </c>
       <c r="G80" t="n">
-        <v>1377.73819602964</v>
+        <v>429.8099197082103</v>
       </c>
       <c r="H80" t="n">
-        <v>1.53</v>
+        <v>0.76</v>
       </c>
       <c r="I80" t="n">
-        <v>44453</v>
+        <v>49608</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>580553927</v>
+        <v>582299414</v>
       </c>
       <c r="E81" t="n">
-        <v>2248399703</v>
+        <v>2255159719</v>
       </c>
       <c r="F81" t="n">
-        <v>163388.5965498025</v>
+        <v>175035.0135912066</v>
       </c>
       <c r="G81" t="n">
-        <v>281915.0542356677</v>
+        <v>285342.375182417</v>
       </c>
       <c r="H81" t="n">
         <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>62448410</v>
+        <v>62531996</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7154752</v>
+        <v>7148485</v>
       </c>
       <c r="E82" t="n">
-        <v>10250490</v>
+        <v>10241470</v>
       </c>
       <c r="F82" t="n">
-        <v>1272.588817951865</v>
+        <v>1302.278619402932</v>
       </c>
       <c r="G82" t="n">
-        <v>730.0488719417633</v>
+        <v>427.7498640777877</v>
       </c>
       <c r="H82" t="n">
         <v>0.97</v>
       </c>
       <c r="I82" t="n">
-        <v>180963</v>
+        <v>156794</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>108428815</v>
+        <v>109314468</v>
       </c>
       <c r="E83" t="n">
-        <v>1025927723</v>
+        <v>1034307561</v>
       </c>
       <c r="F83" t="n">
-        <v>36027.42511154882</v>
+        <v>26071.75564989179</v>
       </c>
       <c r="G83" t="n">
-        <v>25930.95899413565</v>
+        <v>28436.03706728491</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I83" t="n">
-        <v>17986383</v>
+        <v>17989876</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1063031</v>
+        <v>1063690</v>
       </c>
       <c r="E84" t="n">
-        <v>4116290</v>
+        <v>4118839</v>
       </c>
       <c r="F84" t="n">
-        <v>517.7140052051147</v>
+        <v>672.1008773868705</v>
       </c>
       <c r="G84" t="n">
-        <v>496.5232216669121</v>
+        <v>360.0572083634369</v>
       </c>
       <c r="H84" t="n">
-        <v>0.97</v>
+        <v>1.44</v>
       </c>
       <c r="I84" t="n">
-        <v>278424</v>
+        <v>277476</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>121417464</v>
+        <v>122854498</v>
       </c>
       <c r="E85" t="n">
-        <v>465776933</v>
+        <v>471289630</v>
       </c>
       <c r="F85" t="n">
-        <v>63825.19192220169</v>
+        <v>61270.28275121909</v>
       </c>
       <c r="G85" t="n">
-        <v>86169.38299147648</v>
+        <v>82028.59502929841</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>32254887</v>
+        <v>32584280</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5087834</v>
+        <v>5188153</v>
       </c>
       <c r="E86" t="n">
-        <v>18906487</v>
+        <v>19279273</v>
       </c>
       <c r="F86" t="n">
-        <v>693.666186433697</v>
+        <v>400.5699359816967</v>
       </c>
       <c r="G86" t="n">
-        <v>665.9772103037931</v>
+        <v>929.0394745653933</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>96537</v>
+        <v>143837</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>41037066</v>
+        <v>42076022</v>
       </c>
       <c r="F87" t="n">
-        <v>3223.942507254319</v>
+        <v>5607.860930073597</v>
       </c>
       <c r="G87" t="n">
-        <v>1000.742175278518</v>
+        <v>1978.121137163305</v>
       </c>
       <c r="H87" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I87" t="n">
-        <v>9066330</v>
+        <v>10420655</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24051008</v>
+        <v>27933918</v>
       </c>
       <c r="F88" t="n">
-        <v>938.3661639951264</v>
+        <v>39.02611435132378</v>
       </c>
       <c r="G88" t="n">
-        <v>893.1358952434113</v>
+        <v>8.641804715590551</v>
       </c>
       <c r="H88" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="I88" t="n">
-        <v>9535.440000000001</v>
+        <v>66796</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>91232851</v>
+        <v>91729722</v>
       </c>
       <c r="E89" t="n">
-        <v>337227202</v>
+        <v>339061868</v>
       </c>
       <c r="F89" t="n">
-        <v>273.4535792677098</v>
+        <v>760.4365339972095</v>
       </c>
       <c r="G89" t="n">
-        <v>369.0166128941238</v>
+        <v>338.9135064963522</v>
       </c>
       <c r="H89" t="n">
-        <v>1.28</v>
+        <v>2.13</v>
       </c>
       <c r="I89" t="n">
-        <v>326854</v>
+        <v>320597</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18840891</v>
+        <v>19279159</v>
       </c>
       <c r="E90" t="n">
-        <v>18840891</v>
+        <v>19279159</v>
       </c>
       <c r="F90" t="n">
-        <v>3225.994346097381</v>
+        <v>3955.179089369844</v>
       </c>
       <c r="G90" t="n">
-        <v>3729.911893276625</v>
+        <v>3019.847799108563</v>
       </c>
       <c r="H90" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="I90" t="n">
-        <v>7414893</v>
+        <v>7499478</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3800822</v>
+        <v>3800113</v>
       </c>
       <c r="E91" t="n">
-        <v>8285260</v>
+        <v>8283713</v>
       </c>
       <c r="F91" t="n">
-        <v>1850.773590982741</v>
+        <v>1764.764560031284</v>
       </c>
       <c r="G91" t="n">
-        <v>1156.940105027927</v>
+        <v>1222.269016247889</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2183484</v>
+        <v>2204649</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>465913553</v>
+        <v>470092372</v>
       </c>
       <c r="E92" t="n">
-        <v>1620984332</v>
+        <v>1635523081</v>
       </c>
       <c r="F92" t="n">
-        <v>161689.7433965057</v>
+        <v>161914.6398960165</v>
       </c>
       <c r="G92" t="n">
-        <v>162872.1936525394</v>
+        <v>174730.394444474</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>49730407</v>
+        <v>50116369</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2295805</v>
+        <v>2299303</v>
       </c>
       <c r="E93" t="n">
-        <v>9183221</v>
+        <v>9197211</v>
       </c>
       <c r="F93" t="n">
-        <v>1173.327123951687</v>
+        <v>1077.259277782242</v>
       </c>
       <c r="G93" t="n">
-        <v>886.6131361664649</v>
+        <v>1060.124547845887</v>
       </c>
       <c r="H93" t="n">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="I93" t="n">
-        <v>7952631</v>
+        <v>8032680</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>209124829</v>
+        <v>210283093</v>
       </c>
       <c r="E94" t="n">
-        <v>642980151</v>
+        <v>646541378</v>
       </c>
       <c r="F94" t="n">
-        <v>93968.00564179278</v>
+        <v>94788.11539051039</v>
       </c>
       <c r="G94" t="n">
-        <v>96523.56682644822</v>
+        <v>98244.08570511302</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>23381668</v>
+        <v>23460609</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138874753</v>
+        <v>138812270</v>
       </c>
       <c r="E95" t="n">
-        <v>362806440</v>
+        <v>362643206</v>
       </c>
       <c r="F95" t="n">
-        <v>31313.37186600847</v>
+        <v>30751.71046978556</v>
       </c>
       <c r="G95" t="n">
-        <v>30164.16995631178</v>
+        <v>18701.90285546154</v>
       </c>
       <c r="H95" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>8763868</v>
+        <v>8763817</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>379717722</v>
+        <v>380193289</v>
       </c>
       <c r="E96" t="n">
-        <v>2169815553</v>
+        <v>2172533080</v>
       </c>
       <c r="F96" t="n">
-        <v>28050.22447565144</v>
+        <v>24494.15926832594</v>
       </c>
       <c r="G96" t="n">
-        <v>42815.68609095168</v>
+        <v>44977.94555007163</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>63753608</v>
+        <v>63837049</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>598040011</v>
+        <v>600240096</v>
       </c>
       <c r="E2" t="n">
-        <v>1160650067</v>
+        <v>1164919909</v>
       </c>
       <c r="F2" t="n">
-        <v>16949.56740066442</v>
+        <v>16714.27993939885</v>
       </c>
       <c r="G2" t="n">
-        <v>32111.30289243947</v>
+        <v>29863.9977333722</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>48734788</v>
+        <v>49399164</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1526042</v>
+        <v>1517931</v>
       </c>
       <c r="E3" t="n">
-        <v>4932795</v>
+        <v>4906577</v>
       </c>
       <c r="F3" t="n">
-        <v>4058.865889766819</v>
+        <v>3682.265498275941</v>
       </c>
       <c r="G3" t="n">
-        <v>2530.448486117101</v>
+        <v>2214.590742511953</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>269803</v>
+        <v>281959</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252332025</v>
+        <v>251839852</v>
       </c>
       <c r="E4" t="n">
-        <v>1582338662</v>
+        <v>1579252312</v>
       </c>
       <c r="F4" t="n">
-        <v>134998.0001874845</v>
+        <v>162023.369446877</v>
       </c>
       <c r="G4" t="n">
-        <v>166525.9136874807</v>
+        <v>170514.3868404495</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29898739</v>
+        <v>29919115</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140312581</v>
+        <v>140409653</v>
       </c>
       <c r="E5" t="n">
-        <v>155488268</v>
+        <v>155595839</v>
       </c>
       <c r="F5" t="n">
-        <v>4910.038718426298</v>
+        <v>5550.512847920861</v>
       </c>
       <c r="G5" t="n">
-        <v>10006.37288361372</v>
+        <v>7502.359508785703</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>53413369</v>
+        <v>52727090</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>664039</v>
+        <v>664251</v>
       </c>
       <c r="E6" t="n">
-        <v>12888506</v>
+        <v>12892614</v>
       </c>
       <c r="F6" t="n">
-        <v>162.190191049959</v>
+        <v>162.1937377317441</v>
       </c>
       <c r="G6" t="n">
-        <v>415.950769146901</v>
+        <v>415.959864919012</v>
       </c>
       <c r="H6" t="n">
         <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>20780</v>
+        <v>20207</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>475785007</v>
+        <v>471994956</v>
       </c>
       <c r="E7" t="n">
-        <v>475785007</v>
+        <v>471994956</v>
       </c>
       <c r="F7" t="n">
-        <v>46146.65816405501</v>
+        <v>45907.61037660499</v>
       </c>
       <c r="G7" t="n">
-        <v>40731.45786017882</v>
+        <v>48909.51841733354</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>74840021</v>
+        <v>73255918</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4602308</v>
+        <v>4629785</v>
       </c>
       <c r="E8" t="n">
-        <v>4602308</v>
+        <v>4629785</v>
       </c>
       <c r="F8" t="n">
-        <v>774.0189431041829</v>
+        <v>1103.611530027031</v>
       </c>
       <c r="G8" t="n">
-        <v>980.6019647548945</v>
+        <v>1719.706370860994</v>
       </c>
       <c r="H8" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2221837</v>
+        <v>2217424</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2000729</v>
+        <v>1985628</v>
       </c>
       <c r="F9" t="n">
-        <v>564.6201266213998</v>
+        <v>593.8250906658701</v>
       </c>
       <c r="G9" t="n">
-        <v>1208.786804457805</v>
+        <v>1245.530709216899</v>
       </c>
       <c r="H9" t="n">
         <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>305989</v>
+        <v>305854</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1733791</v>
+        <v>1721058</v>
       </c>
       <c r="F10" t="n">
-        <v>591.388889744753</v>
+        <v>249.1616748214392</v>
       </c>
       <c r="G10" t="n">
-        <v>303.547960492868</v>
+        <v>213.0406933572498</v>
       </c>
       <c r="H10" t="n">
-        <v>0.35</v>
+        <v>0.87</v>
       </c>
       <c r="I10" t="n">
-        <v>1303487</v>
+        <v>1136133</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109511209</v>
+        <v>108912135</v>
       </c>
       <c r="E11" t="n">
-        <v>206306137</v>
+        <v>205177553</v>
       </c>
       <c r="F11" t="n">
-        <v>1900.50541994034</v>
+        <v>2533.930762721259</v>
       </c>
       <c r="G11" t="n">
-        <v>2402.400475804133</v>
+        <v>1402.6837356149</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="I11" t="n">
-        <v>4133710</v>
+        <v>4124381</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11856119</v>
+        <v>11893956</v>
       </c>
       <c r="E12" t="n">
-        <v>29507735</v>
+        <v>29601905</v>
       </c>
       <c r="F12" t="n">
-        <v>94.99742823476815</v>
+        <v>58.77780704677821</v>
       </c>
       <c r="G12" t="n">
-        <v>3253.82047938114</v>
+        <v>3236.167510513214</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="I12" t="n">
-        <v>1459025</v>
+        <v>1517746</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113920827</v>
+        <v>115141523</v>
       </c>
       <c r="E13" t="n">
-        <v>442650916</v>
+        <v>447368222</v>
       </c>
       <c r="F13" t="n">
-        <v>21287.08499595718</v>
+        <v>21470.81113959567</v>
       </c>
       <c r="G13" t="n">
-        <v>22614.17991609528</v>
+        <v>23372.12103105176</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>13451355</v>
+        <v>13396541</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4980571</v>
+        <v>4890608</v>
       </c>
       <c r="E14" t="n">
-        <v>7331671</v>
+        <v>7199240</v>
       </c>
       <c r="F14" t="n">
-        <v>41.83149808014708</v>
+        <v>2004.2792365289</v>
       </c>
       <c r="G14" t="n">
-        <v>336.6367159347843</v>
+        <v>209.0080660139934</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="I14" t="n">
-        <v>668423</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138890271</v>
+        <v>139108432</v>
       </c>
       <c r="E15" t="n">
-        <v>138890271</v>
+        <v>139108432</v>
       </c>
       <c r="F15" t="n">
-        <v>49018.47178079275</v>
+        <v>42660.34285602146</v>
       </c>
       <c r="G15" t="n">
-        <v>79684.94048116922</v>
+        <v>77799.61440906458</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>92467289</v>
+        <v>95283083</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63513491</v>
+        <v>63559704</v>
       </c>
       <c r="E16" t="n">
-        <v>325710209</v>
+        <v>325947199</v>
       </c>
       <c r="F16" t="n">
-        <v>15357.19155800339</v>
+        <v>13744.66599341296</v>
       </c>
       <c r="G16" t="n">
-        <v>19409.41066533166</v>
+        <v>20927.52928466529</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>24500815</v>
+        <v>24798401</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>250345064</v>
+        <v>251472220</v>
       </c>
       <c r="E17" t="n">
-        <v>250345064</v>
+        <v>251472220</v>
       </c>
       <c r="F17" t="n">
-        <v>60139.86605361105</v>
+        <v>60463.93538840206</v>
       </c>
       <c r="G17" t="n">
-        <v>53802.85483684044</v>
+        <v>53919.79034881387</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>27789804</v>
+        <v>28213078</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2610394</v>
+        <v>2674332</v>
       </c>
       <c r="E18" t="n">
-        <v>6673682</v>
+        <v>6837146</v>
       </c>
       <c r="F18" t="n">
-        <v>423.7279780200132</v>
+        <v>1004.635598260132</v>
       </c>
       <c r="G18" t="n">
-        <v>1341.485081435691</v>
+        <v>325.644480618528</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="I18" t="n">
-        <v>80546</v>
+        <v>85735</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79252881</v>
+        <v>79076997</v>
       </c>
       <c r="E19" t="n">
-        <v>221796117</v>
+        <v>221274188</v>
       </c>
       <c r="F19" t="n">
-        <v>18427.12220327894</v>
+        <v>15625.50004512839</v>
       </c>
       <c r="G19" t="n">
-        <v>16021.01326748417</v>
+        <v>21397.85452214568</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>57885034</v>
+        <v>57571463</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1679126</v>
+        <v>1681484</v>
       </c>
       <c r="E20" t="n">
-        <v>9640913</v>
+        <v>9654451</v>
       </c>
       <c r="F20" t="n">
-        <v>204.5706118157302</v>
+        <v>220.0659257616372</v>
       </c>
       <c r="G20" t="n">
-        <v>1177.138468940812</v>
+        <v>974.1599204270378</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="I20" t="n">
-        <v>306108</v>
+        <v>308511</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161055</v>
+        <v>162160</v>
       </c>
       <c r="E21" t="n">
-        <v>1087620</v>
+        <v>1095084</v>
       </c>
       <c r="F21" t="n">
-        <v>5.352057340481741</v>
+        <v>6.746404494764609</v>
       </c>
       <c r="G21" t="n">
-        <v>72.43052352330631</v>
+        <v>45.18854942065293</v>
       </c>
       <c r="H21" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="I21" t="n">
-        <v>3363472</v>
+        <v>3381056</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244838</v>
+        <v>247338</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4514817139525</v>
+        <v>148.4548418282529</v>
       </c>
       <c r="G22" t="n">
-        <v>23.6854948147225</v>
+        <v>23.40314285007613</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5053.91</v>
+        <v>4943.58</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84507818</v>
+        <v>85781161</v>
       </c>
       <c r="E23" t="n">
-        <v>176192014</v>
+        <v>178846831</v>
       </c>
       <c r="F23" t="n">
-        <v>8486.551705168167</v>
+        <v>11774.93932164914</v>
       </c>
       <c r="G23" t="n">
-        <v>47048.2596853912</v>
+        <v>42452.37528444275</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>84543224</v>
+        <v>84829557</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>196082258</v>
+        <v>195180046</v>
       </c>
       <c r="E24" t="n">
-        <v>681207485</v>
+        <v>678073120</v>
       </c>
       <c r="F24" t="n">
-        <v>64394.69848122468</v>
+        <v>62247.38776019232</v>
       </c>
       <c r="G24" t="n">
-        <v>63046.13906425489</v>
+        <v>61543.54734841119</v>
       </c>
       <c r="H24" t="n">
         <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>41650426</v>
+        <v>41201003</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109517027</v>
+        <v>109314287</v>
       </c>
       <c r="E25" t="n">
-        <v>464191994</v>
+        <v>463284379</v>
       </c>
       <c r="F25" t="n">
-        <v>14945.17247729215</v>
+        <v>14729.09262067287</v>
       </c>
       <c r="G25" t="n">
-        <v>18289.73852357991</v>
+        <v>18433.39227995164</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>14939780</v>
+        <v>14677224</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5623842</v>
+        <v>5537125</v>
       </c>
       <c r="E26" t="n">
-        <v>7631815</v>
+        <v>7513712</v>
       </c>
       <c r="F26" t="n">
-        <v>432.643721288999</v>
+        <v>316.9170489996295</v>
       </c>
       <c r="G26" t="n">
-        <v>2184.04897242885</v>
+        <v>1883.449380880364</v>
       </c>
       <c r="H26" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="I26" t="n">
-        <v>5676142</v>
+        <v>5670860</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>580988</v>
+        <v>526232</v>
       </c>
       <c r="E27" t="n">
-        <v>7046820</v>
+        <v>6382678</v>
       </c>
       <c r="F27" t="n">
-        <v>715.26451086884</v>
+        <v>576.4046805233637</v>
       </c>
       <c r="G27" t="n">
-        <v>563.8405328940004</v>
+        <v>563.7507553531841</v>
       </c>
       <c r="H27" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="I27" t="n">
-        <v>2980961</v>
+        <v>2971780</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25076654</v>
+        <v>25024399</v>
       </c>
       <c r="E28" t="n">
-        <v>35437355</v>
+        <v>35363510</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>208.9783033004247</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>584.6869457681054</v>
       </c>
       <c r="H28" t="n">
-        <v>3.93</v>
+        <v>2.82</v>
       </c>
       <c r="I28" t="n">
-        <v>182886</v>
+        <v>180520</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1442996087</v>
+        <v>1436780511</v>
       </c>
       <c r="E29" t="n">
-        <v>6919461755</v>
+        <v>6889656794</v>
       </c>
       <c r="F29" t="n">
-        <v>157006.5380530491</v>
+        <v>156699.2659628636</v>
       </c>
       <c r="G29" t="n">
-        <v>190821.253300289</v>
+        <v>188102.0950559143</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>584475478</v>
+        <v>585250287</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>261298437</v>
+        <v>261608320</v>
       </c>
       <c r="E30" t="n">
-        <v>1127909112</v>
+        <v>1129246740</v>
       </c>
       <c r="F30" t="n">
-        <v>121470.360345495</v>
+        <v>129987.7565355186</v>
       </c>
       <c r="G30" t="n">
-        <v>129501.8424391211</v>
+        <v>123498.3709850874</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142247932</v>
+        <v>141309647</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5334113</v>
+        <v>5319658</v>
       </c>
       <c r="E31" t="n">
-        <v>5340150</v>
+        <v>5325678</v>
       </c>
       <c r="F31" t="n">
-        <v>109.4294702615513</v>
+        <v>109.4321739063523</v>
       </c>
       <c r="G31" t="n">
-        <v>163.1264252494195</v>
+        <v>162.9789156910315</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>141057</v>
+        <v>143818</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15898717</v>
+        <v>15673472</v>
       </c>
       <c r="E32" t="n">
-        <v>39746791</v>
+        <v>39183680</v>
       </c>
       <c r="F32" t="n">
-        <v>5320.741384161656</v>
+        <v>3853.819528181374</v>
       </c>
       <c r="G32" t="n">
-        <v>3215.611773992226</v>
+        <v>1705.484988156384</v>
       </c>
       <c r="H32" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>5232185</v>
+        <v>5187917</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19126825</v>
+        <v>19033141</v>
       </c>
       <c r="F33" t="n">
-        <v>1587.365608960868</v>
+        <v>1514.455415494559</v>
       </c>
       <c r="G33" t="n">
-        <v>1853.370169954978</v>
+        <v>4312.148443499656</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>79356</v>
+        <v>77221</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4192419</v>
+        <v>4235540</v>
       </c>
       <c r="E34" t="n">
-        <v>12074643</v>
+        <v>12198837</v>
       </c>
       <c r="F34" t="n">
-        <v>579.543820537087</v>
+        <v>1693.906090885143</v>
       </c>
       <c r="G34" t="n">
-        <v>1570.611120011533</v>
+        <v>1073.33242202976</v>
       </c>
       <c r="H34" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I34" t="n">
-        <v>446677</v>
+        <v>435074</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1393417</v>
+        <v>1424906</v>
       </c>
       <c r="F35" t="n">
-        <v>4.595368753135124</v>
+        <v>192.7458369323398</v>
       </c>
       <c r="G35" t="n">
-        <v>50.34083219380408</v>
+        <v>23.83334458648693</v>
       </c>
       <c r="H35" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I35" t="n">
-        <v>6536.31</v>
+        <v>6737.75</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14072284</v>
+        <v>14077854</v>
       </c>
       <c r="E36" t="n">
-        <v>68154317</v>
+        <v>68181292</v>
       </c>
       <c r="F36" t="n">
-        <v>3777.392386079774</v>
+        <v>3849.283322851543</v>
       </c>
       <c r="G36" t="n">
-        <v>8648.109508459687</v>
+        <v>7710.709535834771</v>
       </c>
       <c r="H36" t="n">
         <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>5567322</v>
+        <v>5532569</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1245958</v>
+        <v>1234166</v>
       </c>
       <c r="E37" t="n">
-        <v>8154764</v>
+        <v>8077583</v>
       </c>
       <c r="F37" t="n">
-        <v>215.8634035190754</v>
+        <v>958.1632103995497</v>
       </c>
       <c r="G37" t="n">
-        <v>988.3854676473015</v>
+        <v>195.264171335507</v>
       </c>
       <c r="H37" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="I37" t="n">
-        <v>344946</v>
+        <v>287852</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1855006039</v>
+        <v>1854633584</v>
       </c>
       <c r="F38" t="n">
-        <v>73629.29421240994</v>
+        <v>71716.21995215325</v>
       </c>
       <c r="G38" t="n">
-        <v>71981.52393135958</v>
+        <v>77118.74031353759</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="I38" t="n">
-        <v>31914324</v>
+        <v>31872801</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29509176</v>
+        <v>29520876</v>
       </c>
       <c r="E39" t="n">
-        <v>91882107</v>
+        <v>91918535</v>
       </c>
       <c r="F39" t="n">
-        <v>2512.181816844339</v>
+        <v>2376.87949209732</v>
       </c>
       <c r="G39" t="n">
-        <v>12983.51162789563</v>
+        <v>11344.25712883559</v>
       </c>
       <c r="H39" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="I39" t="n">
-        <v>11024875</v>
+        <v>11041299</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194421034</v>
+        <v>194593576</v>
       </c>
       <c r="E40" t="n">
-        <v>1100931354</v>
+        <v>1101908394</v>
       </c>
       <c r="F40" t="n">
-        <v>40948.01584695658</v>
+        <v>42747.19619574289</v>
       </c>
       <c r="G40" t="n">
-        <v>81994.79355637354</v>
+        <v>83255.0005436233</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>85313397</v>
+        <v>84199955</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>128836098</v>
+        <v>129645994</v>
       </c>
       <c r="E41" t="n">
-        <v>954341466</v>
+        <v>960340693</v>
       </c>
       <c r="F41" t="n">
-        <v>64640.05576996519</v>
+        <v>69579.80922615518</v>
       </c>
       <c r="G41" t="n">
-        <v>218785.7633559637</v>
+        <v>216317.8558119764</v>
       </c>
       <c r="H41" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>37390168</v>
+        <v>37237262</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29891323</v>
+        <v>30055699</v>
       </c>
       <c r="E42" t="n">
-        <v>141633669</v>
+        <v>142412528</v>
       </c>
       <c r="F42" t="n">
-        <v>7808.312754382052</v>
+        <v>7936.695597042813</v>
       </c>
       <c r="G42" t="n">
-        <v>10228.37699607877</v>
+        <v>7513.295776119587</v>
       </c>
       <c r="H42" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>762571</v>
+        <v>750750</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3175857</v>
+        <v>3165964</v>
       </c>
       <c r="E43" t="n">
-        <v>7416155</v>
+        <v>7393054</v>
       </c>
       <c r="F43" t="n">
-        <v>1154.773534556028</v>
+        <v>1110.099602588157</v>
       </c>
       <c r="G43" t="n">
-        <v>3954.607401942512</v>
+        <v>2769.234540630931</v>
       </c>
       <c r="H43" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="I43" t="n">
-        <v>591563</v>
+        <v>611640</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>323777149</v>
+        <v>325123095</v>
       </c>
       <c r="E44" t="n">
-        <v>2912899999</v>
+        <v>2925008962</v>
       </c>
       <c r="F44" t="n">
-        <v>39530.85408549652</v>
+        <v>36398.28328051907</v>
       </c>
       <c r="G44" t="n">
-        <v>32157.98809107751</v>
+        <v>40826.25328150931</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>70082677</v>
+        <v>69787561</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>625954</v>
+        <v>626002</v>
       </c>
       <c r="F45" t="n">
-        <v>733.4378437729924</v>
+        <v>697.7581529587782</v>
       </c>
       <c r="G45" t="n">
-        <v>492.8513863342307</v>
+        <v>527.7524538382529</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>19850.52</v>
+        <v>20394</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1550273</v>
+        <v>1553471</v>
       </c>
       <c r="E46" t="n">
-        <v>12918938</v>
+        <v>12945594</v>
       </c>
       <c r="F46" t="n">
-        <v>570.5892964306729</v>
+        <v>718.7163155728462</v>
       </c>
       <c r="G46" t="n">
-        <v>457.6616923703027</v>
+        <v>462.8115562682033</v>
       </c>
       <c r="H46" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="I46" t="n">
-        <v>32908</v>
+        <v>33131</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4757415</v>
+        <v>4750443</v>
       </c>
       <c r="E47" t="n">
-        <v>16807932</v>
+        <v>16783300</v>
       </c>
       <c r="F47" t="n">
-        <v>1136.804819615761</v>
+        <v>1173.581600482331</v>
       </c>
       <c r="G47" t="n">
-        <v>1268.774491927265</v>
+        <v>1267.292707638034</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I47" t="n">
-        <v>165149</v>
+        <v>165369</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46640322</v>
+        <v>47112732</v>
       </c>
       <c r="E48" t="n">
-        <v>270028192</v>
+        <v>272763250</v>
       </c>
       <c r="F48" t="n">
-        <v>20912.08873850616</v>
+        <v>20465.01829113782</v>
       </c>
       <c r="G48" t="n">
-        <v>12728.83459883275</v>
+        <v>18622.10704998144</v>
       </c>
       <c r="H48" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I48" t="n">
-        <v>36848841</v>
+        <v>34558959</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2256203</v>
+        <v>2254824</v>
       </c>
       <c r="E49" t="n">
-        <v>12395964</v>
+        <v>12388389</v>
       </c>
       <c r="F49" t="n">
-        <v>360.6743014662442</v>
+        <v>214.2749828298357</v>
       </c>
       <c r="G49" t="n">
-        <v>1180.114537554475</v>
+        <v>261.5695053228064</v>
       </c>
       <c r="H49" t="n">
-        <v>2.36</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
-        <v>62457</v>
+        <v>79248</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13361162</v>
+        <v>13416995</v>
       </c>
       <c r="E50" t="n">
-        <v>13406631</v>
+        <v>13462654</v>
       </c>
       <c r="F50" t="n">
-        <v>4814.679135895411</v>
+        <v>4768.550422990242</v>
       </c>
       <c r="G50" t="n">
-        <v>10522.05756243706</v>
+        <v>4831.56500718353</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7256327</v>
+        <v>7367142</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19543098</v>
+        <v>19415366</v>
       </c>
       <c r="E51" t="n">
-        <v>58593893</v>
+        <v>58213307</v>
       </c>
       <c r="F51" t="n">
-        <v>9116.826263363355</v>
+        <v>22216.4802877204</v>
       </c>
       <c r="G51" t="n">
-        <v>25490.20484192787</v>
+        <v>25446.98038296969</v>
       </c>
       <c r="H51" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I51" t="n">
-        <v>4337233</v>
+        <v>4167746</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15927367</v>
+        <v>15742478</v>
       </c>
       <c r="E52" t="n">
-        <v>97624072</v>
+        <v>96490823</v>
       </c>
       <c r="F52" t="n">
-        <v>7468.886048703203</v>
+        <v>5449.110592263494</v>
       </c>
       <c r="G52" t="n">
-        <v>10399.32188297241</v>
+        <v>8503.82185310314</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>12784305</v>
+        <v>12129520</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48763265</v>
+        <v>50457362</v>
       </c>
       <c r="E53" t="n">
-        <v>210066816</v>
+        <v>217364796</v>
       </c>
       <c r="F53" t="n">
-        <v>19559.71880699726</v>
+        <v>19589.64692374843</v>
       </c>
       <c r="G53" t="n">
-        <v>22610.64302353758</v>
+        <v>23514.71273502391</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>13676334</v>
+        <v>14125122</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1016601</v>
+        <v>1020304</v>
       </c>
       <c r="E54" t="n">
-        <v>2971349</v>
+        <v>2982172</v>
       </c>
       <c r="F54" t="n">
-        <v>337.031663263432</v>
+        <v>337.2129430607666</v>
       </c>
       <c r="G54" t="n">
-        <v>1362.547333931481</v>
+        <v>1362.857837475178</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>13291.54</v>
+        <v>13336.03</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31400267</v>
+        <v>31608493</v>
       </c>
       <c r="E55" t="n">
-        <v>79176399</v>
+        <v>79701443</v>
       </c>
       <c r="F55" t="n">
-        <v>907.483309692832</v>
+        <v>2191.142949543506</v>
       </c>
       <c r="G55" t="n">
-        <v>6325.707583455182</v>
+        <v>1372.94567513182</v>
       </c>
       <c r="H55" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="I55" t="n">
-        <v>6426047</v>
+        <v>6445602</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28841798</v>
+        <v>29017561</v>
       </c>
       <c r="E56" t="n">
-        <v>68418094</v>
+        <v>68835035</v>
       </c>
       <c r="F56" t="n">
-        <v>4849.38661169423</v>
+        <v>867.8280402973346</v>
       </c>
       <c r="G56" t="n">
-        <v>4652.544499147786</v>
+        <v>2382.460524033393</v>
       </c>
       <c r="H56" t="n">
         <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>747216</v>
+        <v>815712</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11995761</v>
+        <v>11958425</v>
       </c>
       <c r="E57" t="n">
-        <v>18238253</v>
+        <v>18181487</v>
       </c>
       <c r="F57" t="n">
-        <v>2664.907160553967</v>
+        <v>3959.315698144404</v>
       </c>
       <c r="G57" t="n">
-        <v>10633.62884117222</v>
+        <v>10646.63138780896</v>
       </c>
       <c r="H57" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="I57" t="n">
-        <v>639234</v>
+        <v>637696</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>300174234</v>
+        <v>300695292</v>
       </c>
       <c r="E58" t="n">
-        <v>300174234</v>
+        <v>300695292</v>
       </c>
       <c r="F58" t="n">
-        <v>64080.66788189777</v>
+        <v>59326.82219785447</v>
       </c>
       <c r="G58" t="n">
-        <v>68936.36679776873</v>
+        <v>69176.61514375804</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>111886969</v>
+        <v>112924395</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11686919</v>
+        <v>11686414</v>
       </c>
       <c r="F59" t="n">
-        <v>142.636976747648</v>
+        <v>119.919284891637</v>
       </c>
       <c r="G59" t="n">
-        <v>105.5889262624134</v>
+        <v>104.266626872271</v>
       </c>
       <c r="H59" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="I59" t="n">
-        <v>73046</v>
+        <v>72496</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84369305</v>
+        <v>84555859</v>
       </c>
       <c r="E60" t="n">
-        <v>486172325</v>
+        <v>487247330</v>
       </c>
       <c r="F60" t="n">
-        <v>96598.34575313164</v>
+        <v>96852.60701291588</v>
       </c>
       <c r="G60" t="n">
-        <v>90953.27007510603</v>
+        <v>97721.24509290139</v>
       </c>
       <c r="H60" t="n">
         <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>21247801</v>
+        <v>21119182</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9188806</v>
+        <v>9133015</v>
       </c>
       <c r="E61" t="n">
-        <v>9188806</v>
+        <v>9133015</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>11.68</v>
+        <v>4.97</v>
       </c>
       <c r="I61" t="n">
-        <v>2972896</v>
+        <v>2962394</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30800375</v>
+        <v>30996078</v>
       </c>
       <c r="E62" t="n">
-        <v>137905916</v>
+        <v>138782158</v>
       </c>
       <c r="F62" t="n">
-        <v>16716.02902725918</v>
+        <v>17521.41412968055</v>
       </c>
       <c r="G62" t="n">
-        <v>18192.64405385832</v>
+        <v>17590.47850592537</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>17566407</v>
+        <v>17793796</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12843149</v>
+        <v>12845832</v>
       </c>
       <c r="E63" t="n">
-        <v>25668293</v>
+        <v>25673655</v>
       </c>
       <c r="F63" t="n">
-        <v>850.9638447481526</v>
+        <v>851.2369358333341</v>
       </c>
       <c r="G63" t="n">
-        <v>5502.236179625983</v>
+        <v>5516.266252178951</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>15008.29</v>
+        <v>14876.74</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1334453</v>
+        <v>1334248</v>
       </c>
       <c r="F64" t="n">
-        <v>281.7231290428139</v>
+        <v>230.6205724479906</v>
       </c>
       <c r="G64" t="n">
-        <v>60.92245007069653</v>
+        <v>128.5631520156552</v>
       </c>
       <c r="H64" t="n">
         <v>2.4</v>
       </c>
       <c r="I64" t="n">
-        <v>71705</v>
+        <v>83545</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48011183</v>
+        <v>47997967</v>
       </c>
       <c r="E65" t="n">
-        <v>311339745</v>
+        <v>311254043</v>
       </c>
       <c r="F65" t="n">
-        <v>15719.08568665201</v>
+        <v>19415.01290666909</v>
       </c>
       <c r="G65" t="n">
-        <v>21309.04110614145</v>
+        <v>22538.71827238473</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="I65" t="n">
-        <v>22110392</v>
+        <v>21886670</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4451438</v>
+        <v>4434102</v>
       </c>
       <c r="F66" t="n">
-        <v>122.6724569633746</v>
+        <v>123.3826049713111</v>
       </c>
       <c r="G66" t="n">
-        <v>117.2874281287654</v>
+        <v>92.98302989511072</v>
       </c>
       <c r="H66" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="I66" t="n">
-        <v>215915</v>
+        <v>239020</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123862675</v>
+        <v>123861377</v>
       </c>
       <c r="E67" t="n">
-        <v>2051267340</v>
+        <v>2051245843</v>
       </c>
       <c r="F67" t="n">
-        <v>170606.0397495228</v>
+        <v>167063.2345306505</v>
       </c>
       <c r="G67" t="n">
-        <v>163789.6355506454</v>
+        <v>165945.4046519605</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>45314159</v>
+        <v>47098777</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23103132</v>
+        <v>23126907</v>
       </c>
       <c r="E68" t="n">
-        <v>138230683</v>
+        <v>138372934</v>
       </c>
       <c r="F68" t="n">
-        <v>41204.15231404681</v>
+        <v>41330.84454204605</v>
       </c>
       <c r="G68" t="n">
-        <v>45703.94071303152</v>
+        <v>45025.70795409166</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>18120670</v>
+        <v>17936793</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22518038</v>
+        <v>22603691</v>
       </c>
       <c r="E70" t="n">
-        <v>22518038</v>
+        <v>22603691</v>
       </c>
       <c r="F70" t="n">
-        <v>3559.100652373711</v>
+        <v>4177.515005965502</v>
       </c>
       <c r="G70" t="n">
-        <v>14298.71184028878</v>
+        <v>3879.228089396609</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2222765</v>
+        <v>2195435</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32467847</v>
+        <v>32637202</v>
       </c>
       <c r="E71" t="n">
-        <v>162029526</v>
+        <v>162874681</v>
       </c>
       <c r="F71" t="n">
-        <v>19972.985412086</v>
+        <v>19311.33255924661</v>
       </c>
       <c r="G71" t="n">
-        <v>53520.21576598864</v>
+        <v>52190.34159992267</v>
       </c>
       <c r="H71" t="n">
-        <v>1.23</v>
+        <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13749344</v>
+        <v>13881481</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>158468</v>
+        <v>156102</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>32891</v>
+        <v>38117</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>293186287</v>
+        <v>301694261</v>
       </c>
       <c r="E73" t="n">
-        <v>542461490</v>
+        <v>558203183</v>
       </c>
       <c r="F73" t="n">
-        <v>35390.18135367496</v>
+        <v>25266.86981831101</v>
       </c>
       <c r="G73" t="n">
-        <v>36957.12657698964</v>
+        <v>36843.31111734112</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>24835242</v>
+        <v>29282670</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9446068</v>
+        <v>9446764</v>
       </c>
       <c r="E74" t="n">
-        <v>28003232</v>
+        <v>28005296</v>
       </c>
       <c r="F74" t="n">
-        <v>1231.092356361178</v>
+        <v>1090.929257875971</v>
       </c>
       <c r="G74" t="n">
-        <v>2534.967337611483</v>
+        <v>3205.615941087183</v>
       </c>
       <c r="H74" t="n">
         <v>0.62</v>
       </c>
       <c r="I74" t="n">
-        <v>6786890</v>
+        <v>6737413</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8296299</v>
+        <v>8347390</v>
       </c>
       <c r="E75" t="n">
-        <v>11820325</v>
+        <v>11893119</v>
       </c>
       <c r="F75" t="n">
-        <v>513.2375807752027</v>
+        <v>458.8166663547454</v>
       </c>
       <c r="G75" t="n">
-        <v>4085.885431386757</v>
+        <v>4084.206934533645</v>
       </c>
       <c r="H75" t="n">
         <v>0.17</v>
       </c>
       <c r="I75" t="n">
-        <v>251563</v>
+        <v>245690</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15889090</v>
+        <v>16057956</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6812797032515605</v>
+        <v>0.6812965354478935</v>
       </c>
       <c r="G76" t="n">
-        <v>600.1462726237766</v>
+        <v>950.6198261054221</v>
       </c>
       <c r="H76" t="n">
         <v>1.83</v>
       </c>
       <c r="I76" t="n">
-        <v>1156284</v>
+        <v>1157705</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73105128</v>
+        <v>73150975</v>
       </c>
       <c r="E77" t="n">
-        <v>101221711</v>
+        <v>101285190</v>
       </c>
       <c r="F77" t="n">
-        <v>8136.658562188681</v>
+        <v>7682.983864758077</v>
       </c>
       <c r="G77" t="n">
-        <v>22063.02840142549</v>
+        <v>20323.30465757</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>7200601</v>
+        <v>7234946</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6011376</v>
+        <v>6006932</v>
       </c>
       <c r="E78" t="n">
-        <v>6011376</v>
+        <v>6006932</v>
       </c>
       <c r="F78" t="n">
-        <v>276.0598959993516</v>
+        <v>273.7443391918806</v>
       </c>
       <c r="G78" t="n">
-        <v>418.4674074833809</v>
+        <v>418.4765851350643</v>
       </c>
       <c r="H78" t="n">
         <v>2.38</v>
       </c>
       <c r="I78" t="n">
-        <v>1567660</v>
+        <v>1547681</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54132</v>
+        <v>53254</v>
       </c>
       <c r="E79" t="n">
-        <v>282437</v>
+        <v>277855</v>
       </c>
       <c r="F79" t="n">
-        <v>26.17994425455503</v>
+        <v>362.0059082507357</v>
       </c>
       <c r="G79" t="n">
-        <v>36.49336019432531</v>
+        <v>63.14290938355705</v>
       </c>
       <c r="H79" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I79" t="n">
-        <v>193002</v>
+        <v>189881</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26574710</v>
+        <v>25711435</v>
       </c>
       <c r="F80" t="n">
-        <v>506.1688695211564</v>
+        <v>668.318339357782</v>
       </c>
       <c r="G80" t="n">
-        <v>429.8099197082103</v>
+        <v>5980.343847546451</v>
       </c>
       <c r="H80" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I80" t="n">
-        <v>49608</v>
+        <v>50795</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>582299414</v>
+        <v>584094418</v>
       </c>
       <c r="E81" t="n">
-        <v>2255159719</v>
+        <v>2262111502</v>
       </c>
       <c r="F81" t="n">
-        <v>175035.0135912066</v>
+        <v>171744.8574492768</v>
       </c>
       <c r="G81" t="n">
-        <v>285342.375182417</v>
+        <v>287657.0169400932</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>62531996</v>
+        <v>62239903</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7148485</v>
+        <v>7142237</v>
       </c>
       <c r="E82" t="n">
-        <v>10241470</v>
+        <v>10232484</v>
       </c>
       <c r="F82" t="n">
-        <v>1302.278619402932</v>
+        <v>1608.519724724052</v>
       </c>
       <c r="G82" t="n">
-        <v>427.7498640777877</v>
+        <v>470.6136493910801</v>
       </c>
       <c r="H82" t="n">
         <v>0.97</v>
       </c>
       <c r="I82" t="n">
-        <v>156794</v>
+        <v>154895</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109314468</v>
+        <v>109558347</v>
       </c>
       <c r="E83" t="n">
-        <v>1034307561</v>
+        <v>1036615084</v>
       </c>
       <c r="F83" t="n">
-        <v>26071.75564989179</v>
+        <v>35057.291142161</v>
       </c>
       <c r="G83" t="n">
-        <v>28436.03706728491</v>
+        <v>27340.36120247699</v>
       </c>
       <c r="H83" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17989876</v>
+        <v>17915982</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1063690</v>
+        <v>1068140</v>
       </c>
       <c r="E84" t="n">
-        <v>4118839</v>
+        <v>4136071</v>
       </c>
       <c r="F84" t="n">
-        <v>672.1008773868705</v>
+        <v>1110.833080774961</v>
       </c>
       <c r="G84" t="n">
-        <v>360.0572083634369</v>
+        <v>797.6479458442179</v>
       </c>
       <c r="H84" t="n">
-        <v>1.44</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>277476</v>
+        <v>275253</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122854498</v>
+        <v>122972292</v>
       </c>
       <c r="E85" t="n">
-        <v>471289630</v>
+        <v>471741506</v>
       </c>
       <c r="F85" t="n">
-        <v>61270.28275121909</v>
+        <v>69082.74049305629</v>
       </c>
       <c r="G85" t="n">
-        <v>82028.59502929841</v>
+        <v>82455.58261774352</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
-        <v>32584280</v>
+        <v>32368005</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5188153</v>
+        <v>5092283</v>
       </c>
       <c r="E86" t="n">
-        <v>19279273</v>
+        <v>18923020</v>
       </c>
       <c r="F86" t="n">
-        <v>400.5699359816967</v>
+        <v>414.8024315650388</v>
       </c>
       <c r="G86" t="n">
-        <v>929.0394745653933</v>
+        <v>905.9147583952454</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>143837</v>
+        <v>96711</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>42076022</v>
+        <v>42566260</v>
       </c>
       <c r="F87" t="n">
-        <v>5607.860930073597</v>
+        <v>1773.45792194215</v>
       </c>
       <c r="G87" t="n">
-        <v>1978.121137163305</v>
+        <v>4069.338984859163</v>
       </c>
       <c r="H87" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I87" t="n">
-        <v>10420655</v>
+        <v>10386837</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>27933918</v>
+        <v>31924936</v>
       </c>
       <c r="F88" t="n">
-        <v>39.02611435132378</v>
+        <v>970.5980076649203</v>
       </c>
       <c r="G88" t="n">
-        <v>8.641804715590551</v>
+        <v>1141.379339452067</v>
       </c>
       <c r="H88" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="I88" t="n">
-        <v>66796</v>
+        <v>94623</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>91729722</v>
+        <v>91959375</v>
       </c>
       <c r="E89" t="n">
-        <v>339061868</v>
+        <v>339910115</v>
       </c>
       <c r="F89" t="n">
-        <v>760.4365339972095</v>
+        <v>359.018515049825</v>
       </c>
       <c r="G89" t="n">
-        <v>338.9135064963522</v>
+        <v>42.05900297111652</v>
       </c>
       <c r="H89" t="n">
-        <v>2.13</v>
+        <v>2.53</v>
       </c>
       <c r="I89" t="n">
-        <v>320597</v>
+        <v>322310</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19279159</v>
+        <v>19157778</v>
       </c>
       <c r="E90" t="n">
-        <v>19279159</v>
+        <v>19157778</v>
       </c>
       <c r="F90" t="n">
-        <v>3955.179089369844</v>
+        <v>3787.56591636548</v>
       </c>
       <c r="G90" t="n">
-        <v>3019.847799108563</v>
+        <v>3936.716725200931</v>
       </c>
       <c r="H90" t="n">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="I90" t="n">
-        <v>7499478</v>
+        <v>7488237</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3800113</v>
+        <v>3799150</v>
       </c>
       <c r="E91" t="n">
-        <v>8283713</v>
+        <v>8281614</v>
       </c>
       <c r="F91" t="n">
-        <v>1764.764560031284</v>
+        <v>1777.351402056248</v>
       </c>
       <c r="G91" t="n">
-        <v>1222.269016247889</v>
+        <v>1170.367405973975</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2204649</v>
+        <v>2223465</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>470092372</v>
+        <v>470852582</v>
       </c>
       <c r="E92" t="n">
-        <v>1635523081</v>
+        <v>1638167968</v>
       </c>
       <c r="F92" t="n">
-        <v>161914.6398960165</v>
+        <v>165979.181005236</v>
       </c>
       <c r="G92" t="n">
-        <v>174730.394444474</v>
+        <v>167830.6102870111</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>50116369</v>
+        <v>49107533</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2299303</v>
+        <v>2290164</v>
       </c>
       <c r="E93" t="n">
-        <v>9197211</v>
+        <v>9160656</v>
       </c>
       <c r="F93" t="n">
-        <v>1077.259277782242</v>
+        <v>1186.140278990285</v>
       </c>
       <c r="G93" t="n">
-        <v>1060.124547845887</v>
+        <v>815.1485524519604</v>
       </c>
       <c r="H93" t="n">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="I93" t="n">
-        <v>8032680</v>
+        <v>8063535</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210283093</v>
+        <v>210788867</v>
       </c>
       <c r="E94" t="n">
-        <v>646541378</v>
+        <v>648096441</v>
       </c>
       <c r="F94" t="n">
-        <v>94788.11539051039</v>
+        <v>88457.48423402876</v>
       </c>
       <c r="G94" t="n">
-        <v>98244.08570511302</v>
+        <v>100750.7718414004</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>23460609</v>
+        <v>23156160</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138812270</v>
+        <v>138799325</v>
       </c>
       <c r="E95" t="n">
-        <v>362643206</v>
+        <v>362609386</v>
       </c>
       <c r="F95" t="n">
-        <v>30751.71046978556</v>
+        <v>30297.02625825548</v>
       </c>
       <c r="G95" t="n">
-        <v>18701.90285546154</v>
+        <v>28628.48879169208</v>
       </c>
       <c r="H95" t="n">
         <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>8763817</v>
+        <v>8488398</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>380193289</v>
+        <v>379167022</v>
       </c>
       <c r="E96" t="n">
-        <v>2172533080</v>
+        <v>2166668698</v>
       </c>
       <c r="F96" t="n">
-        <v>24494.15926832594</v>
+        <v>22781.47951137692</v>
       </c>
       <c r="G96" t="n">
-        <v>44977.94555007163</v>
+        <v>42002.08839173942</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>63837049</v>
+        <v>64803695</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>600240096</v>
+        <v>611528240</v>
       </c>
       <c r="E2" t="n">
-        <v>1164919909</v>
+        <v>1186827482</v>
       </c>
       <c r="F2" t="n">
-        <v>16714.27993939885</v>
+        <v>16266.04167019876</v>
       </c>
       <c r="G2" t="n">
-        <v>29863.9977333722</v>
+        <v>31829.79594210989</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>49399164</v>
+        <v>50318847</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1517931</v>
+        <v>1544009</v>
       </c>
       <c r="E3" t="n">
-        <v>4906577</v>
+        <v>4990869</v>
       </c>
       <c r="F3" t="n">
-        <v>3682.265498275941</v>
+        <v>4355.979359910775</v>
       </c>
       <c r="G3" t="n">
-        <v>2214.590742511953</v>
+        <v>2333.582608737668</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>281959</v>
+        <v>288524</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251839852</v>
+        <v>251938715</v>
       </c>
       <c r="E4" t="n">
-        <v>1579252312</v>
+        <v>1579872272</v>
       </c>
       <c r="F4" t="n">
-        <v>162023.369446877</v>
+        <v>153972.5773377877</v>
       </c>
       <c r="G4" t="n">
-        <v>170514.3868404495</v>
+        <v>170769.3452382623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>29919115</v>
+        <v>29677900</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140409653</v>
+        <v>140652894</v>
       </c>
       <c r="E5" t="n">
-        <v>155595839</v>
+        <v>155865388</v>
       </c>
       <c r="F5" t="n">
-        <v>5550.512847920861</v>
+        <v>7693.660126740387</v>
       </c>
       <c r="G5" t="n">
-        <v>7502.359508785703</v>
+        <v>10348.43085486939</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>52727090</v>
+        <v>52242369</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>664251</v>
+        <v>667472</v>
       </c>
       <c r="E6" t="n">
-        <v>12892614</v>
+        <v>12955132</v>
       </c>
       <c r="F6" t="n">
-        <v>162.1937377317441</v>
+        <v>389.8084436382475</v>
       </c>
       <c r="G6" t="n">
-        <v>415.959864919012</v>
+        <v>352.9308127660174</v>
       </c>
       <c r="H6" t="n">
         <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>20207</v>
+        <v>22072</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>471994956</v>
+        <v>472799773</v>
       </c>
       <c r="E7" t="n">
-        <v>471994956</v>
+        <v>472799773</v>
       </c>
       <c r="F7" t="n">
-        <v>45907.61037660499</v>
+        <v>53370.42602221052</v>
       </c>
       <c r="G7" t="n">
-        <v>48909.51841733354</v>
+        <v>49001.95295093192</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>73255918</v>
+        <v>69378294</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4629785</v>
+        <v>4634884</v>
       </c>
       <c r="E8" t="n">
-        <v>4629785</v>
+        <v>4634884</v>
       </c>
       <c r="F8" t="n">
-        <v>1103.611530027031</v>
+        <v>1036.456968337617</v>
       </c>
       <c r="G8" t="n">
-        <v>1719.706370860994</v>
+        <v>1606.06012992309</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I8" t="n">
-        <v>2217424</v>
+        <v>2270801</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1985628</v>
+        <v>1997448</v>
       </c>
       <c r="F9" t="n">
-        <v>593.8250906658701</v>
+        <v>326.4793623060961</v>
       </c>
       <c r="G9" t="n">
-        <v>1245.530709216899</v>
+        <v>170.2211722905155</v>
       </c>
       <c r="H9" t="n">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="I9" t="n">
-        <v>305854</v>
+        <v>305690</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1721058</v>
+        <v>1919084</v>
       </c>
       <c r="F10" t="n">
-        <v>249.1616748214392</v>
+        <v>442.6045252352301</v>
       </c>
       <c r="G10" t="n">
-        <v>213.0406933572498</v>
+        <v>111.2151199912964</v>
       </c>
       <c r="H10" t="n">
-        <v>0.87</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1136133</v>
+        <v>1428958</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108912135</v>
+        <v>109039952</v>
       </c>
       <c r="E11" t="n">
-        <v>205177553</v>
+        <v>205418344</v>
       </c>
       <c r="F11" t="n">
-        <v>2533.930762721259</v>
+        <v>1571.800475277749</v>
       </c>
       <c r="G11" t="n">
-        <v>1402.6837356149</v>
+        <v>2402.394561057726</v>
       </c>
       <c r="H11" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>4124381</v>
+        <v>4109694</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11893956</v>
+        <v>11862738</v>
       </c>
       <c r="E12" t="n">
-        <v>29601905</v>
+        <v>29524209</v>
       </c>
       <c r="F12" t="n">
-        <v>58.77780704677821</v>
+        <v>134.837934927513</v>
       </c>
       <c r="G12" t="n">
-        <v>3236.167510513214</v>
+        <v>1795.661449493335</v>
       </c>
       <c r="H12" t="n">
-        <v>1.37</v>
+        <v>0.57</v>
       </c>
       <c r="I12" t="n">
-        <v>1517746</v>
+        <v>1566866</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115141523</v>
+        <v>115313424</v>
       </c>
       <c r="E13" t="n">
-        <v>447368222</v>
+        <v>448010310</v>
       </c>
       <c r="F13" t="n">
-        <v>21470.81113959567</v>
+        <v>22228.48418134256</v>
       </c>
       <c r="G13" t="n">
-        <v>23372.12103105176</v>
+        <v>24452.48147923057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I13" t="n">
-        <v>13396541</v>
+        <v>13050639</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4890608</v>
+        <v>4803917</v>
       </c>
       <c r="E14" t="n">
-        <v>7199240</v>
+        <v>7071625</v>
       </c>
       <c r="F14" t="n">
-        <v>2004.2792365289</v>
+        <v>47.61701291997736</v>
       </c>
       <c r="G14" t="n">
-        <v>209.0080660139934</v>
+        <v>114.3947146948166</v>
       </c>
       <c r="H14" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>165000</v>
+        <v>664957</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139108432</v>
+        <v>139556921</v>
       </c>
       <c r="E15" t="n">
-        <v>139108432</v>
+        <v>139556921</v>
       </c>
       <c r="F15" t="n">
-        <v>42660.34285602146</v>
+        <v>50088.95303428406</v>
       </c>
       <c r="G15" t="n">
-        <v>77799.61440906458</v>
+        <v>76518.60324280676</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>95283083</v>
+        <v>94493434</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63559704</v>
+        <v>63230051</v>
       </c>
       <c r="E16" t="n">
-        <v>325947199</v>
+        <v>324256671</v>
       </c>
       <c r="F16" t="n">
-        <v>13744.66599341296</v>
+        <v>13381.67011615719</v>
       </c>
       <c r="G16" t="n">
-        <v>20927.52928466529</v>
+        <v>20947.82241586402</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>24798401</v>
+        <v>24483847</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251472220</v>
+        <v>250532007</v>
       </c>
       <c r="E17" t="n">
-        <v>251472220</v>
+        <v>250532007</v>
       </c>
       <c r="F17" t="n">
-        <v>60463.93538840206</v>
+        <v>63557.77593678936</v>
       </c>
       <c r="G17" t="n">
-        <v>53919.79034881387</v>
+        <v>49368.61811913735</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>28213078</v>
+        <v>28582869</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2674332</v>
+        <v>2641713</v>
       </c>
       <c r="E18" t="n">
-        <v>6837146</v>
+        <v>6753752</v>
       </c>
       <c r="F18" t="n">
-        <v>1004.635598260132</v>
+        <v>511.9570374662539</v>
       </c>
       <c r="G18" t="n">
-        <v>325.644480618528</v>
+        <v>332.7897625587034</v>
       </c>
       <c r="H18" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>85735</v>
+        <v>87387</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79076997</v>
+        <v>78409631</v>
       </c>
       <c r="E19" t="n">
-        <v>221274188</v>
+        <v>219445091</v>
       </c>
       <c r="F19" t="n">
-        <v>15625.50004512839</v>
+        <v>17082.93193170975</v>
       </c>
       <c r="G19" t="n">
-        <v>21397.85452214568</v>
+        <v>25137.24025121861</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I19" t="n">
-        <v>57571463</v>
+        <v>55353571</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1681484</v>
+        <v>1662225</v>
       </c>
       <c r="E20" t="n">
-        <v>9654451</v>
+        <v>9543874</v>
       </c>
       <c r="F20" t="n">
-        <v>220.0659257616372</v>
+        <v>201.3593962912328</v>
       </c>
       <c r="G20" t="n">
-        <v>974.1599204270378</v>
+        <v>1288.1952450532</v>
       </c>
       <c r="H20" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="I20" t="n">
-        <v>308511</v>
+        <v>305137</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162160</v>
+        <v>163252</v>
       </c>
       <c r="E21" t="n">
-        <v>1095084</v>
+        <v>1102458</v>
       </c>
       <c r="F21" t="n">
-        <v>6.746404494764609</v>
+        <v>113.8715699693927</v>
       </c>
       <c r="G21" t="n">
-        <v>45.18854942065293</v>
+        <v>44.09220999785513</v>
       </c>
       <c r="H21" t="n">
-        <v>1.13</v>
+        <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>3381056</v>
+        <v>3393364</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247338</v>
+        <v>244898</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4548418282529</v>
+        <v>148.4403799628375</v>
       </c>
       <c r="G22" t="n">
-        <v>23.40314285007613</v>
+        <v>30.70723810564186</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>4943.58</v>
+        <v>4734.92</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85781161</v>
+        <v>84643667</v>
       </c>
       <c r="E23" t="n">
-        <v>178846831</v>
+        <v>176475247</v>
       </c>
       <c r="F23" t="n">
-        <v>11774.93932164914</v>
+        <v>11121.24925138094</v>
       </c>
       <c r="G23" t="n">
-        <v>42452.37528444275</v>
+        <v>40278.28801068359</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>84829557</v>
+        <v>85690581</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195180046</v>
+        <v>193337380</v>
       </c>
       <c r="E24" t="n">
-        <v>678073120</v>
+        <v>671671532</v>
       </c>
       <c r="F24" t="n">
-        <v>62247.38776019232</v>
+        <v>64607.38246323304</v>
       </c>
       <c r="G24" t="n">
-        <v>61543.54734841119</v>
+        <v>61787.98840045017</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>41201003</v>
+        <v>41859016</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>109314287</v>
+        <v>110841818</v>
       </c>
       <c r="E25" t="n">
-        <v>463284379</v>
+        <v>469709282</v>
       </c>
       <c r="F25" t="n">
-        <v>14729.09262067287</v>
+        <v>18548.69123748624</v>
       </c>
       <c r="G25" t="n">
-        <v>18433.39227995164</v>
+        <v>15223.74510042347</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>14677224</v>
+        <v>14963663</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5537125</v>
+        <v>5562252</v>
       </c>
       <c r="E26" t="n">
-        <v>7513712</v>
+        <v>7547985</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9170489996295</v>
+        <v>316.9180798134003</v>
       </c>
       <c r="G26" t="n">
-        <v>1883.449380880364</v>
+        <v>2120.823500907336</v>
       </c>
       <c r="H26" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="I26" t="n">
-        <v>5670860</v>
+        <v>5695353</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>526232</v>
+        <v>582766</v>
       </c>
       <c r="E27" t="n">
-        <v>6382678</v>
+        <v>7068378</v>
       </c>
       <c r="F27" t="n">
-        <v>576.4046805233637</v>
+        <v>87.44498936026137</v>
       </c>
       <c r="G27" t="n">
-        <v>563.7507553531841</v>
+        <v>819.5005937550795</v>
       </c>
       <c r="H27" t="n">
-        <v>1.14</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2971780</v>
+        <v>3043983</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25024399</v>
+        <v>25134868</v>
       </c>
       <c r="E28" t="n">
-        <v>35363510</v>
+        <v>35519622</v>
       </c>
       <c r="F28" t="n">
-        <v>208.9783033004247</v>
+        <v>232.0234843356441</v>
       </c>
       <c r="G28" t="n">
-        <v>584.6869457681054</v>
+        <v>559.3471418743796</v>
       </c>
       <c r="H28" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>180520</v>
+        <v>184891</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1436780511</v>
+        <v>1427582429</v>
       </c>
       <c r="E29" t="n">
-        <v>6889656794</v>
+        <v>6845550110</v>
       </c>
       <c r="F29" t="n">
-        <v>156699.2659628636</v>
+        <v>144842.7251876978</v>
       </c>
       <c r="G29" t="n">
-        <v>188102.0950559143</v>
+        <v>181409.2205182502</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>585250287</v>
+        <v>592559562</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>261608320</v>
+        <v>262523514</v>
       </c>
       <c r="E30" t="n">
-        <v>1129246740</v>
+        <v>1133197222</v>
       </c>
       <c r="F30" t="n">
-        <v>129987.7565355186</v>
+        <v>131756.0329984523</v>
       </c>
       <c r="G30" t="n">
-        <v>123498.3709850874</v>
+        <v>123882.8251639801</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>141309647</v>
+        <v>142105850</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5319658</v>
+        <v>5352392</v>
       </c>
       <c r="E31" t="n">
-        <v>5325678</v>
+        <v>5358450</v>
       </c>
       <c r="F31" t="n">
-        <v>109.4321739063523</v>
+        <v>110.0473793491743</v>
       </c>
       <c r="G31" t="n">
-        <v>162.9789156910315</v>
+        <v>163.4335721045067</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>143818</v>
+        <v>142887</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15673472</v>
+        <v>15732649</v>
       </c>
       <c r="E32" t="n">
-        <v>39183680</v>
+        <v>39331622</v>
       </c>
       <c r="F32" t="n">
-        <v>3853.819528181374</v>
+        <v>3489.851074473371</v>
       </c>
       <c r="G32" t="n">
-        <v>1705.484988156384</v>
+        <v>4278.643386190678</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="I32" t="n">
-        <v>5187917</v>
+        <v>5227863</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19033141</v>
+        <v>19087562</v>
       </c>
       <c r="F33" t="n">
-        <v>1514.455415494559</v>
+        <v>1863.692582886412</v>
       </c>
       <c r="G33" t="n">
-        <v>4312.148443499656</v>
+        <v>3465.990033561214</v>
       </c>
       <c r="H33" t="n">
         <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>77221</v>
+        <v>76794</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4235540</v>
+        <v>4198751</v>
       </c>
       <c r="E34" t="n">
-        <v>12198837</v>
+        <v>12092882</v>
       </c>
       <c r="F34" t="n">
-        <v>1693.906090885143</v>
+        <v>1527.214060500766</v>
       </c>
       <c r="G34" t="n">
-        <v>1073.33242202976</v>
+        <v>1546.343616361987</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>435074</v>
+        <v>419277</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1424906</v>
+        <v>1493739</v>
       </c>
       <c r="F35" t="n">
-        <v>192.7458369323398</v>
+        <v>29.00147040255806</v>
       </c>
       <c r="G35" t="n">
-        <v>23.83334458648693</v>
+        <v>1.126690821861038</v>
       </c>
       <c r="H35" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="I35" t="n">
-        <v>6737.75</v>
+        <v>7617.78</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14077854</v>
+        <v>14010053</v>
       </c>
       <c r="E36" t="n">
-        <v>68181292</v>
+        <v>67852923</v>
       </c>
       <c r="F36" t="n">
-        <v>3849.283322851543</v>
+        <v>3865.84375546295</v>
       </c>
       <c r="G36" t="n">
-        <v>7710.709535834771</v>
+        <v>7877.962139313616</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>5532569</v>
+        <v>5403187</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1234166</v>
+        <v>1216501</v>
       </c>
       <c r="E37" t="n">
-        <v>8077583</v>
+        <v>7961963</v>
       </c>
       <c r="F37" t="n">
-        <v>958.1632103995497</v>
+        <v>78.16504762640963</v>
       </c>
       <c r="G37" t="n">
-        <v>195.264171335507</v>
+        <v>0.1133007806054911</v>
       </c>
       <c r="H37" t="n">
-        <v>1.23</v>
+        <v>2.41</v>
       </c>
       <c r="I37" t="n">
-        <v>287852</v>
+        <v>229486</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1854633584</v>
+        <v>1849945169</v>
       </c>
       <c r="F38" t="n">
-        <v>71716.21995215325</v>
+        <v>75829.11149019955</v>
       </c>
       <c r="G38" t="n">
-        <v>77118.74031353759</v>
+        <v>79560.96271474782</v>
       </c>
       <c r="H38" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>31872801</v>
+        <v>32133381</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29520876</v>
+        <v>29258568</v>
       </c>
       <c r="E39" t="n">
-        <v>91918535</v>
+        <v>91101794</v>
       </c>
       <c r="F39" t="n">
-        <v>2376.87949209732</v>
+        <v>1352.055801892539</v>
       </c>
       <c r="G39" t="n">
-        <v>11344.25712883559</v>
+        <v>12126.22989123042</v>
       </c>
       <c r="H39" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I39" t="n">
-        <v>11041299</v>
+        <v>11061746</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194593576</v>
+        <v>195719965</v>
       </c>
       <c r="E40" t="n">
-        <v>1101908394</v>
+        <v>1108286699</v>
       </c>
       <c r="F40" t="n">
-        <v>42747.19619574289</v>
+        <v>46911.85394345547</v>
       </c>
       <c r="G40" t="n">
-        <v>83255.0005436233</v>
+        <v>82309.70705116511</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>84199955</v>
+        <v>83585891</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>129645994</v>
+        <v>129184611</v>
       </c>
       <c r="E41" t="n">
-        <v>960340693</v>
+        <v>956923042</v>
       </c>
       <c r="F41" t="n">
-        <v>69579.80922615518</v>
+        <v>60575.20526071177</v>
       </c>
       <c r="G41" t="n">
-        <v>216317.8558119764</v>
+        <v>211654.3377974865</v>
       </c>
       <c r="H41" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>37237262</v>
+        <v>40171863</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30055699</v>
+        <v>30422568</v>
       </c>
       <c r="E42" t="n">
-        <v>142412528</v>
+        <v>144150860</v>
       </c>
       <c r="F42" t="n">
-        <v>7936.695597042813</v>
+        <v>8016.166894861681</v>
       </c>
       <c r="G42" t="n">
-        <v>7513.295776119587</v>
+        <v>5649.441185494587</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="I42" t="n">
-        <v>750750</v>
+        <v>744842</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3165964</v>
+        <v>3181112</v>
       </c>
       <c r="E43" t="n">
-        <v>7393054</v>
+        <v>7428426</v>
       </c>
       <c r="F43" t="n">
-        <v>1110.099602588157</v>
+        <v>1291.645429244428</v>
       </c>
       <c r="G43" t="n">
-        <v>2769.234540630931</v>
+        <v>1176.501155082935</v>
       </c>
       <c r="H43" t="n">
-        <v>0.15</v>
+        <v>1.06</v>
       </c>
       <c r="I43" t="n">
-        <v>611640</v>
+        <v>630133</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>325123095</v>
+        <v>323374387</v>
       </c>
       <c r="E44" t="n">
-        <v>2925008962</v>
+        <v>2909276502</v>
       </c>
       <c r="F44" t="n">
-        <v>36398.28328051907</v>
+        <v>45249.90264145111</v>
       </c>
       <c r="G44" t="n">
-        <v>40826.25328150931</v>
+        <v>43976.51330552554</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>69787561</v>
+        <v>71338741</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626002</v>
+        <v>626298</v>
       </c>
       <c r="F45" t="n">
-        <v>697.7581529587782</v>
+        <v>697.6887344122983</v>
       </c>
       <c r="G45" t="n">
-        <v>527.7524538382529</v>
+        <v>534.1448735350385</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>20394</v>
+        <v>21719</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1553471</v>
+        <v>1550521</v>
       </c>
       <c r="E46" t="n">
-        <v>12945594</v>
+        <v>12921007</v>
       </c>
       <c r="F46" t="n">
-        <v>718.7163155728462</v>
+        <v>759.0956682024453</v>
       </c>
       <c r="G46" t="n">
-        <v>462.8115562682033</v>
+        <v>488.0928799552631</v>
       </c>
       <c r="H46" t="n">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="I46" t="n">
-        <v>33131</v>
+        <v>33425</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4750443</v>
+        <v>4753966</v>
       </c>
       <c r="E47" t="n">
-        <v>16783300</v>
+        <v>16795749</v>
       </c>
       <c r="F47" t="n">
-        <v>1173.581600482331</v>
+        <v>1123.682454623191</v>
       </c>
       <c r="G47" t="n">
-        <v>1267.292707638034</v>
+        <v>1109.959096415376</v>
       </c>
       <c r="H47" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>165369</v>
+        <v>163910</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47112732</v>
+        <v>47533346</v>
       </c>
       <c r="E48" t="n">
-        <v>272763250</v>
+        <v>275198435</v>
       </c>
       <c r="F48" t="n">
-        <v>20465.01829113782</v>
+        <v>20343.58374479675</v>
       </c>
       <c r="G48" t="n">
-        <v>18622.10704998144</v>
+        <v>11503.35248905908</v>
       </c>
       <c r="H48" t="n">
         <v>0.33</v>
       </c>
       <c r="I48" t="n">
-        <v>34558959</v>
+        <v>34728043</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2254824</v>
+        <v>2249818</v>
       </c>
       <c r="E49" t="n">
-        <v>12388389</v>
+        <v>12360884</v>
       </c>
       <c r="F49" t="n">
-        <v>214.2749828298357</v>
+        <v>306.5268047881113</v>
       </c>
       <c r="G49" t="n">
-        <v>261.5695053228064</v>
+        <v>776.1103681442379</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>79248</v>
+        <v>75453</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13416995</v>
+        <v>13434664</v>
       </c>
       <c r="E50" t="n">
-        <v>13462654</v>
+        <v>13480384</v>
       </c>
       <c r="F50" t="n">
-        <v>4768.550422990242</v>
+        <v>4678.082450371679</v>
       </c>
       <c r="G50" t="n">
-        <v>4831.56500718353</v>
+        <v>10744.69954166467</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>7367142</v>
+        <v>7383927</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19415366</v>
+        <v>19357654</v>
       </c>
       <c r="E51" t="n">
-        <v>58213307</v>
+        <v>58039941</v>
       </c>
       <c r="F51" t="n">
-        <v>22216.4802877204</v>
+        <v>21780.02582893523</v>
       </c>
       <c r="G51" t="n">
-        <v>25446.98038296969</v>
+        <v>10419.83255907896</v>
       </c>
       <c r="H51" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I51" t="n">
-        <v>4167746</v>
+        <v>4020277</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15742478</v>
+        <v>15587470</v>
       </c>
       <c r="E52" t="n">
-        <v>96490823</v>
+        <v>95540728</v>
       </c>
       <c r="F52" t="n">
-        <v>5449.110592263494</v>
+        <v>6114.18455318105</v>
       </c>
       <c r="G52" t="n">
-        <v>8503.82185310314</v>
+        <v>9382.585792117348</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>12129520</v>
+        <v>12995122</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50457362</v>
+        <v>51609602</v>
       </c>
       <c r="E53" t="n">
-        <v>217364796</v>
+        <v>222328523</v>
       </c>
       <c r="F53" t="n">
-        <v>19589.64692374843</v>
+        <v>19532.46836365293</v>
       </c>
       <c r="G53" t="n">
-        <v>23514.71273502391</v>
+        <v>22727.92254688076</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>14125122</v>
+        <v>14804401</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1020304</v>
+        <v>1016716</v>
       </c>
       <c r="E54" t="n">
-        <v>2982172</v>
+        <v>2971686</v>
       </c>
       <c r="F54" t="n">
-        <v>337.2129430607666</v>
+        <v>337.2868914324147</v>
       </c>
       <c r="G54" t="n">
-        <v>1362.857837475178</v>
+        <v>1325.093831207704</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>13336.03</v>
+        <v>12664.2</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31608493</v>
+        <v>31710868</v>
       </c>
       <c r="E55" t="n">
-        <v>79701443</v>
+        <v>79959586</v>
       </c>
       <c r="F55" t="n">
-        <v>2191.142949543506</v>
+        <v>1159.302003262028</v>
       </c>
       <c r="G55" t="n">
-        <v>1372.94567513182</v>
+        <v>7955.108183888372</v>
       </c>
       <c r="H55" t="n">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="I55" t="n">
-        <v>6445602</v>
+        <v>6491923</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29017561</v>
+        <v>28864560</v>
       </c>
       <c r="E56" t="n">
-        <v>68835035</v>
+        <v>68472088</v>
       </c>
       <c r="F56" t="n">
-        <v>867.8280402973346</v>
+        <v>5449.543830099063</v>
       </c>
       <c r="G56" t="n">
-        <v>2382.460524033393</v>
+        <v>2205.573723501053</v>
       </c>
       <c r="H56" t="n">
         <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>815712</v>
+        <v>813025</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11958425</v>
+        <v>11881452</v>
       </c>
       <c r="E57" t="n">
-        <v>18181487</v>
+        <v>18064459</v>
       </c>
       <c r="F57" t="n">
-        <v>3959.315698144404</v>
+        <v>4294.038692866899</v>
       </c>
       <c r="G57" t="n">
-        <v>10646.63138780896</v>
+        <v>4978.590807081653</v>
       </c>
       <c r="H57" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="I57" t="n">
-        <v>637696</v>
+        <v>664276</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>300695292</v>
+        <v>299995675</v>
       </c>
       <c r="E58" t="n">
-        <v>300695292</v>
+        <v>299995675</v>
       </c>
       <c r="F58" t="n">
-        <v>59326.82219785447</v>
+        <v>58374.8056695815</v>
       </c>
       <c r="G58" t="n">
-        <v>69176.61514375804</v>
+        <v>62936.92153032457</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>112924395</v>
+        <v>103780951</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11686414</v>
+        <v>11650317</v>
       </c>
       <c r="F59" t="n">
-        <v>119.919284891637</v>
+        <v>143.6885940763875</v>
       </c>
       <c r="G59" t="n">
-        <v>104.266626872271</v>
+        <v>85.21222640094038</v>
       </c>
       <c r="H59" t="n">
         <v>0.87</v>
       </c>
       <c r="I59" t="n">
-        <v>72496</v>
+        <v>68326</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84555859</v>
+        <v>84530191</v>
       </c>
       <c r="E60" t="n">
-        <v>487247330</v>
+        <v>487099422</v>
       </c>
       <c r="F60" t="n">
-        <v>96852.60701291588</v>
+        <v>97484.12643128824</v>
       </c>
       <c r="G60" t="n">
-        <v>97721.24509290139</v>
+        <v>96548.73234784968</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I60" t="n">
-        <v>21119182</v>
+        <v>21164532</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9133015</v>
+        <v>9102142</v>
       </c>
       <c r="E61" t="n">
-        <v>9133015</v>
+        <v>9102142</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>211.3010176233319</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1907.665147853852</v>
       </c>
       <c r="H61" t="n">
-        <v>4.97</v>
+        <v>2.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2962394</v>
+        <v>2928197</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30996078</v>
+        <v>30643588</v>
       </c>
       <c r="E62" t="n">
-        <v>138782158</v>
+        <v>137203916</v>
       </c>
       <c r="F62" t="n">
-        <v>17521.41412968055</v>
+        <v>16135.51648937244</v>
       </c>
       <c r="G62" t="n">
-        <v>17590.47850592537</v>
+        <v>18149.39944581301</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>17793796</v>
+        <v>19499290</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12845832</v>
+        <v>12840857</v>
       </c>
       <c r="E63" t="n">
-        <v>25673655</v>
+        <v>25663713</v>
       </c>
       <c r="F63" t="n">
-        <v>851.2369358333341</v>
+        <v>850.7884324969157</v>
       </c>
       <c r="G63" t="n">
-        <v>5516.266252178951</v>
+        <v>5524.728301018754</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>14876.74</v>
+        <v>15113.74</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1334248</v>
+        <v>1325620</v>
       </c>
       <c r="F64" t="n">
-        <v>230.6205724479906</v>
+        <v>195.8104026002235</v>
       </c>
       <c r="G64" t="n">
-        <v>128.5631520156552</v>
+        <v>118.9541315152804</v>
       </c>
       <c r="H64" t="n">
         <v>2.4</v>
       </c>
       <c r="I64" t="n">
-        <v>83545</v>
+        <v>62910</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47997967</v>
+        <v>47964213</v>
       </c>
       <c r="E65" t="n">
-        <v>311254043</v>
+        <v>311035155</v>
       </c>
       <c r="F65" t="n">
-        <v>19415.01290666909</v>
+        <v>18931.64097044605</v>
       </c>
       <c r="G65" t="n">
-        <v>22538.71827238473</v>
+        <v>21276.72146927608</v>
       </c>
       <c r="H65" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="I65" t="n">
-        <v>21886670</v>
+        <v>21839478</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4434102</v>
+        <v>4399884</v>
       </c>
       <c r="F66" t="n">
-        <v>123.3826049713111</v>
+        <v>131.1460819819619</v>
       </c>
       <c r="G66" t="n">
-        <v>92.98302989511072</v>
+        <v>1323.191750420854</v>
       </c>
       <c r="H66" t="n">
-        <v>1.25</v>
+        <v>0.82</v>
       </c>
       <c r="I66" t="n">
-        <v>239020</v>
+        <v>217145</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123861377</v>
+        <v>123617951</v>
       </c>
       <c r="E67" t="n">
-        <v>2051245843</v>
+        <v>2047214512</v>
       </c>
       <c r="F67" t="n">
-        <v>167063.2345306505</v>
+        <v>170536.8070946868</v>
       </c>
       <c r="G67" t="n">
-        <v>165945.4046519605</v>
+        <v>162926.0432177692</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>47098777</v>
+        <v>53322082</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23126907</v>
+        <v>23015495</v>
       </c>
       <c r="E68" t="n">
-        <v>138372934</v>
+        <v>137706335</v>
       </c>
       <c r="F68" t="n">
-        <v>41330.84454204605</v>
+        <v>41555.7179438022</v>
       </c>
       <c r="G68" t="n">
-        <v>45025.70795409166</v>
+        <v>45649.37160854894</v>
       </c>
       <c r="H68" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>17936793</v>
+        <v>17820943</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22603691</v>
+        <v>22499794</v>
       </c>
       <c r="E70" t="n">
-        <v>22603691</v>
+        <v>22500147</v>
       </c>
       <c r="F70" t="n">
-        <v>4177.515005965502</v>
+        <v>3860.239921990482</v>
       </c>
       <c r="G70" t="n">
-        <v>3879.228089396609</v>
+        <v>3050.022599433858</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2195435</v>
+        <v>2167805</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32637202</v>
+        <v>32590161</v>
       </c>
       <c r="E71" t="n">
-        <v>162874681</v>
+        <v>162639927</v>
       </c>
       <c r="F71" t="n">
-        <v>19311.33255924661</v>
+        <v>19414.53748559281</v>
       </c>
       <c r="G71" t="n">
-        <v>52190.34159992267</v>
+        <v>37248.69158260799</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13881481</v>
+        <v>13767584</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>156102</v>
+        <v>158464</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>38117</v>
+        <v>43136</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>301694261</v>
+        <v>296714433</v>
       </c>
       <c r="E73" t="n">
-        <v>558203183</v>
+        <v>548989367</v>
       </c>
       <c r="F73" t="n">
-        <v>25266.86981831101</v>
+        <v>33167.92460159286</v>
       </c>
       <c r="G73" t="n">
-        <v>36843.31111734112</v>
+        <v>21533.43177362828</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>29282670</v>
+        <v>26228922</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9446764</v>
+        <v>9700013</v>
       </c>
       <c r="E74" t="n">
-        <v>28005296</v>
+        <v>28756063</v>
       </c>
       <c r="F74" t="n">
-        <v>1090.929257875971</v>
+        <v>502.2603554242164</v>
       </c>
       <c r="G74" t="n">
-        <v>3205.615941087183</v>
+        <v>5294.375136880918</v>
       </c>
       <c r="H74" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="I74" t="n">
-        <v>6737413</v>
+        <v>6660436</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8347390</v>
+        <v>8351121</v>
       </c>
       <c r="E75" t="n">
-        <v>11893119</v>
+        <v>11898433</v>
       </c>
       <c r="F75" t="n">
-        <v>458.8166663547454</v>
+        <v>507.3597930682842</v>
       </c>
       <c r="G75" t="n">
-        <v>4084.206934533645</v>
+        <v>4310.844090643466</v>
       </c>
       <c r="H75" t="n">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="I75" t="n">
-        <v>245690</v>
+        <v>240865</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16057956</v>
+        <v>15902513</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6812965354478935</v>
+        <v>0.6812349084060635</v>
       </c>
       <c r="G76" t="n">
-        <v>950.6198261054221</v>
+        <v>438.0959332124407</v>
       </c>
       <c r="H76" t="n">
         <v>1.83</v>
       </c>
       <c r="I76" t="n">
-        <v>1157705</v>
+        <v>1167997</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73150975</v>
+        <v>73177468</v>
       </c>
       <c r="E77" t="n">
-        <v>101285190</v>
+        <v>101321115</v>
       </c>
       <c r="F77" t="n">
-        <v>7682.983864758077</v>
+        <v>7887.357764390766</v>
       </c>
       <c r="G77" t="n">
-        <v>20323.30465757</v>
+        <v>14570.08641955271</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>7234946</v>
+        <v>7005633</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6006932</v>
+        <v>6000643</v>
       </c>
       <c r="E78" t="n">
-        <v>6006932</v>
+        <v>6000643</v>
       </c>
       <c r="F78" t="n">
-        <v>273.7443391918806</v>
+        <v>62.20513706862852</v>
       </c>
       <c r="G78" t="n">
-        <v>418.4765851350643</v>
+        <v>99.69496849561084</v>
       </c>
       <c r="H78" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="I78" t="n">
-        <v>1547681</v>
+        <v>1510247</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53254</v>
+        <v>52708</v>
       </c>
       <c r="E79" t="n">
-        <v>277855</v>
+        <v>275010</v>
       </c>
       <c r="F79" t="n">
-        <v>362.0059082507357</v>
+        <v>349.5895720560723</v>
       </c>
       <c r="G79" t="n">
-        <v>63.14290938355705</v>
+        <v>51.0693507648863</v>
       </c>
       <c r="H79" t="n">
-        <v>1.18</v>
+        <v>0.22</v>
       </c>
       <c r="I79" t="n">
-        <v>189881</v>
+        <v>184226</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25711435</v>
+        <v>25828072</v>
       </c>
       <c r="F80" t="n">
-        <v>668.318339357782</v>
+        <v>483.7212465583323</v>
       </c>
       <c r="G80" t="n">
-        <v>5980.343847546451</v>
+        <v>6352.16971732344</v>
       </c>
       <c r="H80" t="n">
-        <v>0.73</v>
+        <v>1.49</v>
       </c>
       <c r="I80" t="n">
-        <v>50795</v>
+        <v>51961</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>584094418</v>
+        <v>582805595</v>
       </c>
       <c r="E81" t="n">
-        <v>2262111502</v>
+        <v>2257120084</v>
       </c>
       <c r="F81" t="n">
-        <v>171744.8574492768</v>
+        <v>173081.7290477826</v>
       </c>
       <c r="G81" t="n">
-        <v>287657.0169400932</v>
+        <v>291100.4198622027</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>62239903</v>
+        <v>62040327</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7142237</v>
+        <v>7012692</v>
       </c>
       <c r="E82" t="n">
-        <v>10232484</v>
+        <v>10046888</v>
       </c>
       <c r="F82" t="n">
-        <v>1608.519724724052</v>
+        <v>1074.597442034112</v>
       </c>
       <c r="G82" t="n">
-        <v>470.6136493910801</v>
+        <v>769.1125704695201</v>
       </c>
       <c r="H82" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="I82" t="n">
-        <v>154895</v>
+        <v>151969</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109558347</v>
+        <v>109192441</v>
       </c>
       <c r="E83" t="n">
-        <v>1036615084</v>
+        <v>1033152963</v>
       </c>
       <c r="F83" t="n">
-        <v>35057.291142161</v>
+        <v>33932.88249411708</v>
       </c>
       <c r="G83" t="n">
-        <v>27340.36120247699</v>
+        <v>26470.17855833903</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17915982</v>
+        <v>17809254</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1068140</v>
+        <v>1058243</v>
       </c>
       <c r="E84" t="n">
-        <v>4136071</v>
+        <v>4097749</v>
       </c>
       <c r="F84" t="n">
-        <v>1110.833080774961</v>
+        <v>761.7538487522561</v>
       </c>
       <c r="G84" t="n">
-        <v>797.6479458442179</v>
+        <v>373.3796264832504</v>
       </c>
       <c r="H84" t="n">
-        <v>0.24</v>
+        <v>0.97</v>
       </c>
       <c r="I84" t="n">
-        <v>275253</v>
+        <v>181178</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122972292</v>
+        <v>120930057</v>
       </c>
       <c r="E85" t="n">
-        <v>471741506</v>
+        <v>463907161</v>
       </c>
       <c r="F85" t="n">
-        <v>69082.74049305629</v>
+        <v>59382.29825074385</v>
       </c>
       <c r="G85" t="n">
-        <v>82455.58261774352</v>
+        <v>83190.63848495971</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>32368005</v>
+        <v>32384325</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5092283</v>
+        <v>5082174</v>
       </c>
       <c r="E86" t="n">
-        <v>18923020</v>
+        <v>18885455</v>
       </c>
       <c r="F86" t="n">
-        <v>414.8024315650388</v>
+        <v>411.9778647736134</v>
       </c>
       <c r="G86" t="n">
-        <v>905.9147583952454</v>
+        <v>1200.292973527778</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>96711</v>
+        <v>95853</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>42566260</v>
+        <v>41258893</v>
       </c>
       <c r="F87" t="n">
-        <v>1773.45792194215</v>
+        <v>5260.712535219573</v>
       </c>
       <c r="G87" t="n">
-        <v>4069.338984859163</v>
+        <v>954.9749577252692</v>
       </c>
       <c r="H87" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I87" t="n">
-        <v>10386837</v>
+        <v>10872683</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>31924936</v>
+        <v>31929990</v>
       </c>
       <c r="F88" t="n">
-        <v>970.5980076649203</v>
+        <v>852.8998956668365</v>
       </c>
       <c r="G88" t="n">
-        <v>1141.379339452067</v>
+        <v>1422.829697942296</v>
       </c>
       <c r="H88" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="I88" t="n">
-        <v>94623</v>
+        <v>94930</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>91959375</v>
+        <v>91903864</v>
       </c>
       <c r="E89" t="n">
-        <v>339910115</v>
+        <v>339703867</v>
       </c>
       <c r="F89" t="n">
-        <v>359.018515049825</v>
+        <v>291.5381260138725</v>
       </c>
       <c r="G89" t="n">
-        <v>42.05900297111652</v>
+        <v>372.0013620409929</v>
       </c>
       <c r="H89" t="n">
-        <v>2.53</v>
+        <v>0.85</v>
       </c>
       <c r="I89" t="n">
-        <v>322310</v>
+        <v>326749</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19157778</v>
+        <v>19273497</v>
       </c>
       <c r="E90" t="n">
-        <v>19157778</v>
+        <v>19273497</v>
       </c>
       <c r="F90" t="n">
-        <v>3787.56591636548</v>
+        <v>3587.939026036032</v>
       </c>
       <c r="G90" t="n">
-        <v>3936.716725200931</v>
+        <v>3905.455146082071</v>
       </c>
       <c r="H90" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="I90" t="n">
-        <v>7488237</v>
+        <v>7470192</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3799150</v>
+        <v>3797888</v>
       </c>
       <c r="E91" t="n">
-        <v>8281614</v>
+        <v>8278864</v>
       </c>
       <c r="F91" t="n">
-        <v>1777.351402056248</v>
+        <v>1776.382690497166</v>
       </c>
       <c r="G91" t="n">
-        <v>1170.367405973975</v>
+        <v>1090.548284964473</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2223465</v>
+        <v>2242311</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>470852582</v>
+        <v>465853248</v>
       </c>
       <c r="E92" t="n">
-        <v>1638167968</v>
+        <v>1620774522</v>
       </c>
       <c r="F92" t="n">
-        <v>165979.181005236</v>
+        <v>166394.7469836242</v>
       </c>
       <c r="G92" t="n">
-        <v>167830.6102870111</v>
+        <v>175421.4810318498</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>49107533</v>
+        <v>48810396</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2290164</v>
+        <v>2290006</v>
       </c>
       <c r="E93" t="n">
-        <v>9160656</v>
+        <v>9160023</v>
       </c>
       <c r="F93" t="n">
-        <v>1186.140278990285</v>
+        <v>1271.853715611209</v>
       </c>
       <c r="G93" t="n">
-        <v>815.1485524519604</v>
+        <v>745.8724997683853</v>
       </c>
       <c r="H93" t="n">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
       <c r="I93" t="n">
-        <v>8063535</v>
+        <v>8173645</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210788867</v>
+        <v>210732898</v>
       </c>
       <c r="E94" t="n">
-        <v>648096441</v>
+        <v>647924359</v>
       </c>
       <c r="F94" t="n">
-        <v>88457.48423402876</v>
+        <v>90438.91899363208</v>
       </c>
       <c r="G94" t="n">
-        <v>100750.7718414004</v>
+        <v>97497.59022990285</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>23156160</v>
+        <v>21243766</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138799325</v>
+        <v>138568035</v>
       </c>
       <c r="E95" t="n">
-        <v>362609386</v>
+        <v>362005148</v>
       </c>
       <c r="F95" t="n">
-        <v>30297.02625825548</v>
+        <v>31140.14665480046</v>
       </c>
       <c r="G95" t="n">
-        <v>28628.48879169208</v>
+        <v>30883.68270854889</v>
       </c>
       <c r="H95" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I95" t="n">
-        <v>8488398</v>
+        <v>8246213</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>379167022</v>
+        <v>378670645</v>
       </c>
       <c r="E96" t="n">
-        <v>2166668698</v>
+        <v>2163832255</v>
       </c>
       <c r="F96" t="n">
-        <v>22781.47951137692</v>
+        <v>25038.12642153383</v>
       </c>
       <c r="G96" t="n">
-        <v>42002.08839173942</v>
+        <v>45103.73945959823</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>64803695</v>
+        <v>64624684</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>611528240</v>
+        <v>614881166</v>
       </c>
       <c r="E2" t="n">
-        <v>1186827482</v>
+        <v>1193334993</v>
       </c>
       <c r="F2" t="n">
-        <v>16266.04167019876</v>
+        <v>15986.06476934775</v>
       </c>
       <c r="G2" t="n">
-        <v>31829.79594210989</v>
+        <v>34646.99073374431</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>50318847</v>
+        <v>50721910</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1544009</v>
+        <v>1584945</v>
       </c>
       <c r="E3" t="n">
-        <v>4990869</v>
+        <v>5123193</v>
       </c>
       <c r="F3" t="n">
-        <v>4355.979359910775</v>
+        <v>4257.928498342168</v>
       </c>
       <c r="G3" t="n">
-        <v>2333.582608737668</v>
+        <v>2343.02813821956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="I3" t="n">
-        <v>288524</v>
+        <v>300265</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251938715</v>
+        <v>253085681</v>
       </c>
       <c r="E4" t="n">
-        <v>1579872272</v>
+        <v>1587064734</v>
       </c>
       <c r="F4" t="n">
-        <v>153972.5773377877</v>
+        <v>154038.9923576052</v>
       </c>
       <c r="G4" t="n">
-        <v>170769.3452382623</v>
+        <v>165550.6958663324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29677900</v>
+        <v>29655848</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140652894</v>
+        <v>141431940</v>
       </c>
       <c r="E5" t="n">
-        <v>155865388</v>
+        <v>156728693</v>
       </c>
       <c r="F5" t="n">
-        <v>7693.660126740387</v>
+        <v>7099.06563390478</v>
       </c>
       <c r="G5" t="n">
-        <v>10348.43085486939</v>
+        <v>8784.209535626667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>52242369</v>
+        <v>51778221</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>667472</v>
+        <v>663397</v>
       </c>
       <c r="E6" t="n">
-        <v>12955132</v>
+        <v>12876027</v>
       </c>
       <c r="F6" t="n">
-        <v>389.8084436382475</v>
+        <v>431.2761190045709</v>
       </c>
       <c r="G6" t="n">
-        <v>352.9308127660174</v>
+        <v>203.5912297776549</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>1.22</v>
       </c>
       <c r="I6" t="n">
-        <v>22072</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>472799773</v>
+        <v>476280996</v>
       </c>
       <c r="E7" t="n">
-        <v>472799773</v>
+        <v>476280999</v>
       </c>
       <c r="F7" t="n">
-        <v>53370.42602221052</v>
+        <v>53888.51391284768</v>
       </c>
       <c r="G7" t="n">
-        <v>49001.95295093192</v>
+        <v>214482.9628566081</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>69378294</v>
+        <v>73810054</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4634884</v>
+        <v>4621822</v>
       </c>
       <c r="E8" t="n">
-        <v>4634884</v>
+        <v>4621822</v>
       </c>
       <c r="F8" t="n">
-        <v>1036.456968337617</v>
+        <v>896.5879782822922</v>
       </c>
       <c r="G8" t="n">
-        <v>1606.06012992309</v>
+        <v>1809.52604948394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2270801</v>
+        <v>2289238</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1997448</v>
+        <v>1992275</v>
       </c>
       <c r="F9" t="n">
-        <v>326.4793623060961</v>
+        <v>375.9203533449659</v>
       </c>
       <c r="G9" t="n">
-        <v>170.2211722905155</v>
+        <v>1850.421372784425</v>
       </c>
       <c r="H9" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="I9" t="n">
-        <v>305690</v>
+        <v>304467</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1919084</v>
+        <v>1740260</v>
       </c>
       <c r="F10" t="n">
-        <v>442.6045252352301</v>
+        <v>400.3798454440052</v>
       </c>
       <c r="G10" t="n">
-        <v>111.2151199912964</v>
+        <v>221.7506435252746</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1428958</v>
+        <v>1431028</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109039952</v>
+        <v>108893953</v>
       </c>
       <c r="E11" t="n">
-        <v>205418344</v>
+        <v>205143300</v>
       </c>
       <c r="F11" t="n">
-        <v>1571.800475277749</v>
+        <v>1572.202789643182</v>
       </c>
       <c r="G11" t="n">
-        <v>2402.394561057726</v>
+        <v>2430.858520840628</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>4109694</v>
+        <v>4124363</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11862738</v>
+        <v>11873744</v>
       </c>
       <c r="E12" t="n">
-        <v>29524209</v>
+        <v>29551601</v>
       </c>
       <c r="F12" t="n">
-        <v>134.837934927513</v>
+        <v>78.74410304595763</v>
       </c>
       <c r="G12" t="n">
-        <v>1795.661449493335</v>
+        <v>3580.378738169071</v>
       </c>
       <c r="H12" t="n">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1566866</v>
+        <v>1592148</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115313424</v>
+        <v>115316272</v>
       </c>
       <c r="E13" t="n">
-        <v>448010310</v>
+        <v>448004763</v>
       </c>
       <c r="F13" t="n">
-        <v>22228.48418134256</v>
+        <v>22781.67417079335</v>
       </c>
       <c r="G13" t="n">
-        <v>24452.48147923057</v>
+        <v>11961.0936151863</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>13050639</v>
+        <v>12643076</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4803917</v>
+        <v>4972226</v>
       </c>
       <c r="E14" t="n">
-        <v>7071625</v>
+        <v>7319386</v>
       </c>
       <c r="F14" t="n">
-        <v>47.61701291997736</v>
+        <v>48.42787767461927</v>
       </c>
       <c r="G14" t="n">
-        <v>114.3947146948166</v>
+        <v>433.6495720052211</v>
       </c>
       <c r="H14" t="n">
         <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>664957</v>
+        <v>681550</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139556921</v>
+        <v>140218857</v>
       </c>
       <c r="E15" t="n">
-        <v>139556921</v>
+        <v>140218857</v>
       </c>
       <c r="F15" t="n">
-        <v>50088.95303428406</v>
+        <v>44022.55153959351</v>
       </c>
       <c r="G15" t="n">
-        <v>76518.60324280676</v>
+        <v>86295.77752749516</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>94493434</v>
+        <v>93591220</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63230051</v>
+        <v>63264756</v>
       </c>
       <c r="E16" t="n">
-        <v>324256671</v>
+        <v>324434646</v>
       </c>
       <c r="F16" t="n">
-        <v>13381.67011615719</v>
+        <v>14024.87591366721</v>
       </c>
       <c r="G16" t="n">
-        <v>20947.82241586402</v>
+        <v>19125.19339005963</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>24483847</v>
+        <v>24076349</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>250532007</v>
+        <v>252150823</v>
       </c>
       <c r="E17" t="n">
-        <v>250532007</v>
+        <v>252150823</v>
       </c>
       <c r="F17" t="n">
-        <v>63557.77593678936</v>
+        <v>56617.40016793204</v>
       </c>
       <c r="G17" t="n">
-        <v>49368.61811913735</v>
+        <v>56332.30303496107</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>28582869</v>
+        <v>28721731</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2641713</v>
+        <v>2668580</v>
       </c>
       <c r="E18" t="n">
-        <v>6753752</v>
+        <v>6822439</v>
       </c>
       <c r="F18" t="n">
-        <v>511.9570374662539</v>
+        <v>749.449395801069</v>
       </c>
       <c r="G18" t="n">
-        <v>332.7897625587034</v>
+        <v>924.6365739531417</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>0.43</v>
       </c>
       <c r="I18" t="n">
-        <v>87387</v>
+        <v>88795</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78409631</v>
+        <v>78724288</v>
       </c>
       <c r="E19" t="n">
-        <v>219445091</v>
+        <v>220313954</v>
       </c>
       <c r="F19" t="n">
-        <v>17082.93193170975</v>
+        <v>17263.36637310316</v>
       </c>
       <c r="G19" t="n">
-        <v>25137.24025121861</v>
+        <v>19335.12463607671</v>
       </c>
       <c r="H19" t="n">
         <v>0.21</v>
       </c>
       <c r="I19" t="n">
-        <v>55353571</v>
+        <v>52708287</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1662225</v>
+        <v>1674982</v>
       </c>
       <c r="E20" t="n">
-        <v>9543874</v>
+        <v>9617124</v>
       </c>
       <c r="F20" t="n">
-        <v>201.3593962912328</v>
+        <v>404.3891590121877</v>
       </c>
       <c r="G20" t="n">
-        <v>1288.1952450532</v>
+        <v>1124.828649974042</v>
       </c>
       <c r="H20" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="I20" t="n">
-        <v>305137</v>
+        <v>310916</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>163252</v>
+        <v>161418</v>
       </c>
       <c r="E21" t="n">
-        <v>1102458</v>
+        <v>1090075</v>
       </c>
       <c r="F21" t="n">
-        <v>113.8715699693927</v>
+        <v>115.1443679205633</v>
       </c>
       <c r="G21" t="n">
-        <v>44.09220999785513</v>
+        <v>58.17443619606578</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3393364</v>
+        <v>3400419</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244898</v>
+        <v>247633</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4403799628375</v>
+        <v>148.4400463602397</v>
       </c>
       <c r="G22" t="n">
-        <v>30.70723810564186</v>
+        <v>40.63890369254897</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>4734.92</v>
+        <v>4751.57</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84643667</v>
+        <v>84377531</v>
       </c>
       <c r="E23" t="n">
-        <v>176475247</v>
+        <v>175920374</v>
       </c>
       <c r="F23" t="n">
-        <v>11121.24925138094</v>
+        <v>13564.11966249554</v>
       </c>
       <c r="G23" t="n">
-        <v>40278.28801068359</v>
+        <v>46970.69925837214</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>85690581</v>
+        <v>85346319</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>193337380</v>
+        <v>193793008</v>
       </c>
       <c r="E24" t="n">
-        <v>671671532</v>
+        <v>673254425</v>
       </c>
       <c r="F24" t="n">
-        <v>64607.38246323304</v>
+        <v>63824.50931798471</v>
       </c>
       <c r="G24" t="n">
-        <v>61787.98840045017</v>
+        <v>62464.20596193913</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>41859016</v>
+        <v>42082091</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>110841818</v>
+        <v>111831484</v>
       </c>
       <c r="E25" t="n">
-        <v>469709282</v>
+        <v>473870244</v>
       </c>
       <c r="F25" t="n">
-        <v>18548.69123748624</v>
+        <v>15594.64164960004</v>
       </c>
       <c r="G25" t="n">
-        <v>15223.74510042347</v>
+        <v>16630.2538260947</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I25" t="n">
-        <v>14963663</v>
+        <v>14890853</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5562252</v>
+        <v>5545683</v>
       </c>
       <c r="E26" t="n">
-        <v>7547985</v>
+        <v>7525119</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9180798134003</v>
+        <v>880.814848730154</v>
       </c>
       <c r="G26" t="n">
-        <v>2120.823500907336</v>
+        <v>515.4852125337829</v>
       </c>
       <c r="H26" t="n">
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5695353</v>
+        <v>5761579</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>582766</v>
+        <v>591949</v>
       </c>
       <c r="E27" t="n">
-        <v>7068378</v>
+        <v>7179764</v>
       </c>
       <c r="F27" t="n">
-        <v>87.44498936026137</v>
+        <v>523.4102262341279</v>
       </c>
       <c r="G27" t="n">
-        <v>819.5005937550795</v>
+        <v>38.94355012554673</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
       <c r="I27" t="n">
-        <v>3043983</v>
+        <v>3098264</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25134868</v>
+        <v>25067925</v>
       </c>
       <c r="E28" t="n">
-        <v>35519622</v>
+        <v>35425019</v>
       </c>
       <c r="F28" t="n">
-        <v>232.0234843356441</v>
+        <v>1.739943296499601</v>
       </c>
       <c r="G28" t="n">
-        <v>559.3471418743796</v>
+        <v>253.8940877305479</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>184891</v>
+        <v>179872</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1427582429</v>
+        <v>1431162143</v>
       </c>
       <c r="E29" t="n">
-        <v>6845550110</v>
+        <v>6862715573</v>
       </c>
       <c r="F29" t="n">
-        <v>144842.7251876978</v>
+        <v>139600.5143241295</v>
       </c>
       <c r="G29" t="n">
-        <v>181409.2205182502</v>
+        <v>180696.978141989</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>592559562</v>
+        <v>595082614</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>262523514</v>
+        <v>264280651</v>
       </c>
       <c r="E30" t="n">
-        <v>1133197222</v>
+        <v>1140782004</v>
       </c>
       <c r="F30" t="n">
-        <v>131756.0329984523</v>
+        <v>128436.6170454479</v>
       </c>
       <c r="G30" t="n">
-        <v>123882.8251639801</v>
+        <v>161495.9647896246</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>142105850</v>
+        <v>140971409</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5352392</v>
+        <v>5333082</v>
       </c>
       <c r="E31" t="n">
-        <v>5358450</v>
+        <v>5339118</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0473793491743</v>
+        <v>110.0471320304081</v>
       </c>
       <c r="G31" t="n">
-        <v>163.4335721045067</v>
+        <v>163.2964539741172</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>142887</v>
+        <v>143549</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15732649</v>
+        <v>15826259</v>
       </c>
       <c r="E32" t="n">
-        <v>39331622</v>
+        <v>39565648</v>
       </c>
       <c r="F32" t="n">
-        <v>3489.851074473371</v>
+        <v>4182.898076155283</v>
       </c>
       <c r="G32" t="n">
-        <v>4278.643386190678</v>
+        <v>4386.575579565736</v>
       </c>
       <c r="H32" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>5227863</v>
+        <v>5183269</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19087562</v>
+        <v>19078733</v>
       </c>
       <c r="F33" t="n">
-        <v>1863.692582886412</v>
+        <v>1183.177964925549</v>
       </c>
       <c r="G33" t="n">
-        <v>3465.990033561214</v>
+        <v>3336.986805281495</v>
       </c>
       <c r="H33" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>76794</v>
+        <v>76826</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4198751</v>
+        <v>4207935</v>
       </c>
       <c r="E34" t="n">
-        <v>12092882</v>
+        <v>12119332</v>
       </c>
       <c r="F34" t="n">
-        <v>1527.214060500766</v>
+        <v>1269.352279918912</v>
       </c>
       <c r="G34" t="n">
-        <v>1546.343616361987</v>
+        <v>1388.309498551575</v>
       </c>
       <c r="H34" t="n">
         <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>419277</v>
+        <v>414053</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1493739</v>
+        <v>1459902</v>
       </c>
       <c r="F35" t="n">
-        <v>29.00147040255806</v>
+        <v>82.54908709874242</v>
       </c>
       <c r="G35" t="n">
-        <v>1.126690821861038</v>
+        <v>464.8410221362721</v>
       </c>
       <c r="H35" t="n">
-        <v>1.33</v>
+        <v>0.65</v>
       </c>
       <c r="I35" t="n">
-        <v>7617.78</v>
+        <v>7676.36</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14010053</v>
+        <v>14117255</v>
       </c>
       <c r="E36" t="n">
-        <v>67852923</v>
+        <v>68372120</v>
       </c>
       <c r="F36" t="n">
-        <v>3865.84375546295</v>
+        <v>3776.393519235708</v>
       </c>
       <c r="G36" t="n">
-        <v>7877.962139313616</v>
+        <v>8569.194015837224</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I36" t="n">
-        <v>5403187</v>
+        <v>5409994</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1216501</v>
+        <v>1213596</v>
       </c>
       <c r="E37" t="n">
-        <v>7961963</v>
+        <v>7942955</v>
       </c>
       <c r="F37" t="n">
-        <v>78.16504762640963</v>
+        <v>534.2129448151888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1133007806054911</v>
+        <v>336.3179622456157</v>
       </c>
       <c r="H37" t="n">
-        <v>2.41</v>
+        <v>3.61</v>
       </c>
       <c r="I37" t="n">
-        <v>229486</v>
+        <v>200873</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1849945169</v>
+        <v>1842954641</v>
       </c>
       <c r="F38" t="n">
-        <v>75829.11149019955</v>
+        <v>72932.03030781778</v>
       </c>
       <c r="G38" t="n">
-        <v>79560.96271474782</v>
+        <v>75575.99108331813</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="I38" t="n">
-        <v>32133381</v>
+        <v>32067440</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29258568</v>
+        <v>29385037</v>
       </c>
       <c r="E39" t="n">
-        <v>91101794</v>
+        <v>91495576</v>
       </c>
       <c r="F39" t="n">
-        <v>1352.055801892539</v>
+        <v>1444.057066400539</v>
       </c>
       <c r="G39" t="n">
-        <v>12126.22989123042</v>
+        <v>12123.45411131075</v>
       </c>
       <c r="H39" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I39" t="n">
-        <v>11061746</v>
+        <v>11105370</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>195719965</v>
+        <v>196238748</v>
       </c>
       <c r="E40" t="n">
-        <v>1108286699</v>
+        <v>1111224369</v>
       </c>
       <c r="F40" t="n">
-        <v>46911.85394345547</v>
+        <v>47142.21842760519</v>
       </c>
       <c r="G40" t="n">
-        <v>82309.70705116511</v>
+        <v>73833.75579829206</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>83585891</v>
+        <v>82559534</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>129184611</v>
+        <v>130636136</v>
       </c>
       <c r="E41" t="n">
-        <v>956923042</v>
+        <v>967675085</v>
       </c>
       <c r="F41" t="n">
-        <v>60575.20526071177</v>
+        <v>66288.43726539615</v>
       </c>
       <c r="G41" t="n">
-        <v>211654.3377974865</v>
+        <v>211260.5179498917</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I41" t="n">
-        <v>40171863</v>
+        <v>40308776</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30422568</v>
+        <v>30219273</v>
       </c>
       <c r="E42" t="n">
-        <v>144150860</v>
+        <v>143147264</v>
       </c>
       <c r="F42" t="n">
-        <v>8016.166894861681</v>
+        <v>8013.008295535642</v>
       </c>
       <c r="G42" t="n">
-        <v>5649.441185494587</v>
+        <v>6733.122181193219</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>744842</v>
+        <v>711882</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3181112</v>
+        <v>3186769</v>
       </c>
       <c r="E43" t="n">
-        <v>7428426</v>
+        <v>7441636</v>
       </c>
       <c r="F43" t="n">
-        <v>1291.645429244428</v>
+        <v>1173.751523937882</v>
       </c>
       <c r="G43" t="n">
-        <v>1176.501155082935</v>
+        <v>1417.470812703002</v>
       </c>
       <c r="H43" t="n">
         <v>1.06</v>
       </c>
       <c r="I43" t="n">
-        <v>630133</v>
+        <v>625477</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>323374387</v>
+        <v>321758796</v>
       </c>
       <c r="E44" t="n">
-        <v>2909276502</v>
+        <v>2894741641</v>
       </c>
       <c r="F44" t="n">
-        <v>45249.90264145111</v>
+        <v>40325.24281499087</v>
       </c>
       <c r="G44" t="n">
-        <v>43976.51330552554</v>
+        <v>41196.81894462469</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>71338741</v>
+        <v>70719053</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626298</v>
+        <v>626516</v>
       </c>
       <c r="F45" t="n">
-        <v>697.6887344122983</v>
+        <v>697.6871664375039</v>
       </c>
       <c r="G45" t="n">
-        <v>534.1448735350385</v>
+        <v>452.5762400454947</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>21719</v>
+        <v>21478</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1550521</v>
+        <v>1549714</v>
       </c>
       <c r="E46" t="n">
-        <v>12921007</v>
+        <v>12914286</v>
       </c>
       <c r="F46" t="n">
-        <v>759.0956682024453</v>
+        <v>465.4540431811664</v>
       </c>
       <c r="G46" t="n">
-        <v>488.0928799552631</v>
+        <v>667.9503204944365</v>
       </c>
       <c r="H46" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="I46" t="n">
-        <v>33425</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4753966</v>
+        <v>4760492</v>
       </c>
       <c r="E47" t="n">
-        <v>16795749</v>
+        <v>16818806</v>
       </c>
       <c r="F47" t="n">
-        <v>1123.682454623191</v>
+        <v>972.5429896538581</v>
       </c>
       <c r="G47" t="n">
-        <v>1109.959096415376</v>
+        <v>1162.917177513845</v>
       </c>
       <c r="H47" t="n">
         <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>163910</v>
+        <v>161750</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47533346</v>
+        <v>47927793</v>
       </c>
       <c r="E48" t="n">
-        <v>275198435</v>
+        <v>277482120</v>
       </c>
       <c r="F48" t="n">
-        <v>20343.58374479675</v>
+        <v>21149.50824983675</v>
       </c>
       <c r="G48" t="n">
-        <v>11503.35248905908</v>
+        <v>11146.60756482654</v>
       </c>
       <c r="H48" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>34728043</v>
+        <v>32836135</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2249818</v>
+        <v>2250145</v>
       </c>
       <c r="E49" t="n">
-        <v>12360884</v>
+        <v>12362680</v>
       </c>
       <c r="F49" t="n">
-        <v>306.5268047881113</v>
+        <v>431.6899575268332</v>
       </c>
       <c r="G49" t="n">
-        <v>776.1103681442379</v>
+        <v>189.3352392639865</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>75453</v>
+        <v>74624</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13434664</v>
+        <v>13490053</v>
       </c>
       <c r="E50" t="n">
-        <v>13480384</v>
+        <v>13535961</v>
       </c>
       <c r="F50" t="n">
-        <v>4678.082450371679</v>
+        <v>4883.721730044149</v>
       </c>
       <c r="G50" t="n">
-        <v>10744.69954166467</v>
+        <v>3977.378416314517</v>
       </c>
       <c r="H50" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>7383927</v>
+        <v>7434619</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19357654</v>
+        <v>19519719</v>
       </c>
       <c r="E51" t="n">
-        <v>58039941</v>
+        <v>58525859</v>
       </c>
       <c r="F51" t="n">
-        <v>21780.02582893523</v>
+        <v>22337.56097891591</v>
       </c>
       <c r="G51" t="n">
-        <v>10419.83255907896</v>
+        <v>25105.30991531175</v>
       </c>
       <c r="H51" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="I51" t="n">
-        <v>4020277</v>
+        <v>4136928</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15587470</v>
+        <v>15592631</v>
       </c>
       <c r="E52" t="n">
-        <v>95540728</v>
+        <v>95572362</v>
       </c>
       <c r="F52" t="n">
-        <v>6114.18455318105</v>
+        <v>7313.956152296111</v>
       </c>
       <c r="G52" t="n">
-        <v>9382.585792117348</v>
+        <v>10689.21235962522</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>12995122</v>
+        <v>12430488</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>51609602</v>
+        <v>52038702</v>
       </c>
       <c r="E53" t="n">
-        <v>222328523</v>
+        <v>224177037</v>
       </c>
       <c r="F53" t="n">
-        <v>19532.46836365293</v>
+        <v>19799.39570414587</v>
       </c>
       <c r="G53" t="n">
-        <v>22727.92254688076</v>
+        <v>23621.72179525405</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>14804401</v>
+        <v>14454820</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1016716</v>
+        <v>1022135</v>
       </c>
       <c r="E54" t="n">
-        <v>2971686</v>
+        <v>2987524</v>
       </c>
       <c r="F54" t="n">
-        <v>337.2868914324147</v>
+        <v>337.245821979022</v>
       </c>
       <c r="G54" t="n">
-        <v>1325.093831207704</v>
+        <v>1324.614216569646</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>12664.2</v>
+        <v>12672.64</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31710868</v>
+        <v>31633605</v>
       </c>
       <c r="E55" t="n">
-        <v>79959586</v>
+        <v>79764764</v>
       </c>
       <c r="F55" t="n">
-        <v>1159.302003262028</v>
+        <v>2353.493467635039</v>
       </c>
       <c r="G55" t="n">
-        <v>7955.108183888372</v>
+        <v>5814.495148323558</v>
       </c>
       <c r="H55" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>6491923</v>
+        <v>6513505</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28864560</v>
+        <v>28910724</v>
       </c>
       <c r="E56" t="n">
-        <v>68472088</v>
+        <v>68581599</v>
       </c>
       <c r="F56" t="n">
-        <v>5449.543830099063</v>
+        <v>3515.420475082382</v>
       </c>
       <c r="G56" t="n">
-        <v>2205.573723501053</v>
+        <v>4972.132283411459</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="I56" t="n">
-        <v>813025</v>
+        <v>816237</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11881452</v>
+        <v>11841549</v>
       </c>
       <c r="E57" t="n">
-        <v>18064459</v>
+        <v>18003790</v>
       </c>
       <c r="F57" t="n">
-        <v>4294.038692866899</v>
+        <v>7118.049099008104</v>
       </c>
       <c r="G57" t="n">
-        <v>4978.590807081653</v>
+        <v>9537.384317512233</v>
       </c>
       <c r="H57" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="I57" t="n">
-        <v>664276</v>
+        <v>655498</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>299995675</v>
+        <v>301450664</v>
       </c>
       <c r="E58" t="n">
-        <v>299995675</v>
+        <v>301450664</v>
       </c>
       <c r="F58" t="n">
-        <v>58374.8056695815</v>
+        <v>68437.42219900605</v>
       </c>
       <c r="G58" t="n">
-        <v>62936.92153032457</v>
+        <v>71291.02700361903</v>
       </c>
       <c r="H58" t="n">
         <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>103780951</v>
+        <v>91798572</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11650317</v>
+        <v>11649354</v>
       </c>
       <c r="F59" t="n">
-        <v>143.6885940763875</v>
+        <v>142.891042143702</v>
       </c>
       <c r="G59" t="n">
-        <v>85.21222640094038</v>
+        <v>84.92402685697196</v>
       </c>
       <c r="H59" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="I59" t="n">
-        <v>68326</v>
+        <v>67185</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84530191</v>
+        <v>84956922</v>
       </c>
       <c r="E60" t="n">
-        <v>487099422</v>
+        <v>489558431</v>
       </c>
       <c r="F60" t="n">
-        <v>97484.12643128824</v>
+        <v>96821.81330360116</v>
       </c>
       <c r="G60" t="n">
-        <v>96548.73234784968</v>
+        <v>103867.8514038204</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>21164532</v>
+        <v>21449730</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9102142</v>
+        <v>9097806</v>
       </c>
       <c r="E61" t="n">
-        <v>9102142</v>
+        <v>9097806</v>
       </c>
       <c r="F61" t="n">
-        <v>211.3010176233319</v>
+        <v>707.3368263945814</v>
       </c>
       <c r="G61" t="n">
-        <v>1907.665147853852</v>
+        <v>1929.198083881533</v>
       </c>
       <c r="H61" t="n">
         <v>2.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2928197</v>
+        <v>2934178</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30643588</v>
+        <v>30662819</v>
       </c>
       <c r="E62" t="n">
-        <v>137203916</v>
+        <v>137290021</v>
       </c>
       <c r="F62" t="n">
-        <v>16135.51648937244</v>
+        <v>17694.54415614173</v>
       </c>
       <c r="G62" t="n">
-        <v>18149.39944581301</v>
+        <v>17794.01428720838</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>19499290</v>
+        <v>19745910</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12840857</v>
+        <v>12966215</v>
       </c>
       <c r="E63" t="n">
-        <v>25663713</v>
+        <v>25914252</v>
       </c>
       <c r="F63" t="n">
-        <v>850.7884324969157</v>
+        <v>2849.324573218865</v>
       </c>
       <c r="G63" t="n">
-        <v>5524.728301018754</v>
+        <v>1916.739257334344</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>15113.74</v>
+        <v>17015.87</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1325620</v>
+        <v>1337977</v>
       </c>
       <c r="F64" t="n">
-        <v>195.8104026002235</v>
+        <v>331.0406827234692</v>
       </c>
       <c r="G64" t="n">
-        <v>118.9541315152804</v>
+        <v>35.36575349710214</v>
       </c>
       <c r="H64" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="I64" t="n">
-        <v>62910</v>
+        <v>92934</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47964213</v>
+        <v>48146190</v>
       </c>
       <c r="E65" t="n">
-        <v>311035155</v>
+        <v>312215230</v>
       </c>
       <c r="F65" t="n">
-        <v>18931.64097044605</v>
+        <v>14384.25400793214</v>
       </c>
       <c r="G65" t="n">
-        <v>21276.72146927608</v>
+        <v>22417.84517037236</v>
       </c>
       <c r="H65" t="n">
-        <v>0.46</v>
+        <v>0.21</v>
       </c>
       <c r="I65" t="n">
-        <v>21839478</v>
+        <v>21568630</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4399884</v>
+        <v>4423146</v>
       </c>
       <c r="F66" t="n">
-        <v>131.1460819819619</v>
+        <v>182.3522778589037</v>
       </c>
       <c r="G66" t="n">
-        <v>1323.191750420854</v>
+        <v>1235.425820740118</v>
       </c>
       <c r="H66" t="n">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="I66" t="n">
-        <v>217145</v>
+        <v>217933</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123617951</v>
+        <v>122977393</v>
       </c>
       <c r="E67" t="n">
-        <v>2047214512</v>
+        <v>2036606357</v>
       </c>
       <c r="F67" t="n">
-        <v>170536.8070946868</v>
+        <v>158777.4263762904</v>
       </c>
       <c r="G67" t="n">
-        <v>162926.0432177692</v>
+        <v>167528.7720104848</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>53322082</v>
+        <v>60687267</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23015495</v>
+        <v>23097914</v>
       </c>
       <c r="E68" t="n">
-        <v>137706335</v>
+        <v>138199462</v>
       </c>
       <c r="F68" t="n">
-        <v>41555.7179438022</v>
+        <v>41887.64308246767</v>
       </c>
       <c r="G68" t="n">
-        <v>45649.37160854894</v>
+        <v>42302.23513586424</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>17820943</v>
+        <v>17801445</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22499794</v>
+        <v>22545602</v>
       </c>
       <c r="E70" t="n">
-        <v>22500147</v>
+        <v>22545602</v>
       </c>
       <c r="F70" t="n">
-        <v>3860.239921990482</v>
+        <v>4374.883970721167</v>
       </c>
       <c r="G70" t="n">
-        <v>3050.022599433858</v>
+        <v>3396.619679944351</v>
       </c>
       <c r="H70" t="n">
         <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2167805</v>
+        <v>2142323</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32590161</v>
+        <v>32822434</v>
       </c>
       <c r="E71" t="n">
-        <v>162639927</v>
+        <v>163799076</v>
       </c>
       <c r="F71" t="n">
-        <v>19414.53748559281</v>
+        <v>19721.24711153197</v>
       </c>
       <c r="G71" t="n">
-        <v>37248.69158260799</v>
+        <v>51860.27573478057</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13767584</v>
+        <v>13778607</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>158464</v>
+        <v>157967</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>43136</v>
+        <v>43508</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>296714433</v>
+        <v>300029983</v>
       </c>
       <c r="E73" t="n">
-        <v>548989367</v>
+        <v>555123889</v>
       </c>
       <c r="F73" t="n">
-        <v>33167.92460159286</v>
+        <v>34728.648364198</v>
       </c>
       <c r="G73" t="n">
-        <v>21533.43177362828</v>
+        <v>33270.51444674852</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>26228922</v>
+        <v>26140818</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9700013</v>
+        <v>9848253</v>
       </c>
       <c r="E74" t="n">
-        <v>28756063</v>
+        <v>29195523</v>
       </c>
       <c r="F74" t="n">
-        <v>502.2603554242164</v>
+        <v>690.9678802353085</v>
       </c>
       <c r="G74" t="n">
-        <v>5294.375136880918</v>
+        <v>6368.2418750421</v>
       </c>
       <c r="H74" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="I74" t="n">
-        <v>6660436</v>
+        <v>6746491</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8351121</v>
+        <v>8300931</v>
       </c>
       <c r="E75" t="n">
-        <v>11898433</v>
+        <v>11826925</v>
       </c>
       <c r="F75" t="n">
-        <v>507.3597930682842</v>
+        <v>441.9010290179059</v>
       </c>
       <c r="G75" t="n">
-        <v>4310.844090643466</v>
+        <v>4202.118979293551</v>
       </c>
       <c r="H75" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="I75" t="n">
-        <v>240865</v>
+        <v>243619</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15902513</v>
+        <v>16070834</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6812349084060635</v>
+        <v>0.6812272236515317</v>
       </c>
       <c r="G76" t="n">
-        <v>438.0959332124407</v>
+        <v>948.4519472778744</v>
       </c>
       <c r="H76" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="I76" t="n">
-        <v>1167997</v>
+        <v>1174812</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73177468</v>
+        <v>73161812</v>
       </c>
       <c r="E77" t="n">
-        <v>101321115</v>
+        <v>101299438</v>
       </c>
       <c r="F77" t="n">
-        <v>7887.357764390766</v>
+        <v>6886.163443909936</v>
       </c>
       <c r="G77" t="n">
-        <v>14570.08641955271</v>
+        <v>22839.08811146073</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>7005633</v>
+        <v>6998544</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6000643</v>
+        <v>6012996</v>
       </c>
       <c r="E78" t="n">
-        <v>6000643</v>
+        <v>6012996</v>
       </c>
       <c r="F78" t="n">
-        <v>62.20513706862852</v>
+        <v>264.00070381342</v>
       </c>
       <c r="G78" t="n">
-        <v>99.69496849561084</v>
+        <v>287.9428799625334</v>
       </c>
       <c r="H78" t="n">
         <v>2.41</v>
       </c>
       <c r="I78" t="n">
-        <v>1510247</v>
+        <v>1439647</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>52708</v>
+        <v>53017</v>
       </c>
       <c r="E79" t="n">
-        <v>275010</v>
+        <v>276619</v>
       </c>
       <c r="F79" t="n">
-        <v>349.5895720560723</v>
+        <v>357.2479695388082</v>
       </c>
       <c r="G79" t="n">
-        <v>51.0693507648863</v>
+        <v>8.55099673174449</v>
       </c>
       <c r="H79" t="n">
-        <v>0.22</v>
+        <v>1.18</v>
       </c>
       <c r="I79" t="n">
-        <v>184226</v>
+        <v>179869</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25828072</v>
+        <v>25718341</v>
       </c>
       <c r="F80" t="n">
-        <v>483.7212465583323</v>
+        <v>994.7049444979339</v>
       </c>
       <c r="G80" t="n">
-        <v>6352.16971732344</v>
+        <v>6067.469026855255</v>
       </c>
       <c r="H80" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="I80" t="n">
-        <v>51961</v>
+        <v>51262</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>582805595</v>
+        <v>584857539</v>
       </c>
       <c r="E81" t="n">
-        <v>2257120084</v>
+        <v>2265066959</v>
       </c>
       <c r="F81" t="n">
-        <v>173081.7290477826</v>
+        <v>172175.1693005626</v>
       </c>
       <c r="G81" t="n">
-        <v>291100.4198622027</v>
+        <v>175729.459653583</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I81" t="n">
-        <v>62040327</v>
+        <v>62062074</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7012692</v>
+        <v>7012052</v>
       </c>
       <c r="E82" t="n">
-        <v>10046888</v>
+        <v>10045972</v>
       </c>
       <c r="F82" t="n">
-        <v>1074.597442034112</v>
+        <v>1198.635066934022</v>
       </c>
       <c r="G82" t="n">
-        <v>769.1125704695201</v>
+        <v>386.0507070973325</v>
       </c>
       <c r="H82" t="n">
         <v>0.99</v>
       </c>
       <c r="I82" t="n">
-        <v>151969</v>
+        <v>152488</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109192441</v>
+        <v>108899776</v>
       </c>
       <c r="E83" t="n">
-        <v>1033152963</v>
+        <v>1030383839</v>
       </c>
       <c r="F83" t="n">
-        <v>33932.88249411708</v>
+        <v>36197.97808013557</v>
       </c>
       <c r="G83" t="n">
-        <v>26470.17855833903</v>
+        <v>24645.68254007312</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17809254</v>
+        <v>17954815</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1058243</v>
+        <v>1060365</v>
       </c>
       <c r="E84" t="n">
-        <v>4097749</v>
+        <v>4105967</v>
       </c>
       <c r="F84" t="n">
-        <v>761.7538487522561</v>
+        <v>769.8404849666421</v>
       </c>
       <c r="G84" t="n">
-        <v>373.3796264832504</v>
+        <v>265.7309086977999</v>
       </c>
       <c r="H84" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="I84" t="n">
-        <v>181178</v>
+        <v>261003</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120930057</v>
+        <v>122024172</v>
       </c>
       <c r="E85" t="n">
-        <v>463907161</v>
+        <v>468104365</v>
       </c>
       <c r="F85" t="n">
-        <v>59382.29825074385</v>
+        <v>64765.90607513465</v>
       </c>
       <c r="G85" t="n">
-        <v>83190.63848495971</v>
+        <v>84801.59552580485</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>32384325</v>
+        <v>32252707</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5082174</v>
+        <v>5201506</v>
       </c>
       <c r="E86" t="n">
-        <v>18885455</v>
+        <v>19328893</v>
       </c>
       <c r="F86" t="n">
-        <v>411.9778647736134</v>
+        <v>524.3415273824</v>
       </c>
       <c r="G86" t="n">
-        <v>1200.292973527778</v>
+        <v>1223.314877469412</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>95853</v>
+        <v>135770</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>41258893</v>
+        <v>42805276</v>
       </c>
       <c r="F87" t="n">
-        <v>5260.712535219573</v>
+        <v>3684.591840132648</v>
       </c>
       <c r="G87" t="n">
-        <v>954.9749577252692</v>
+        <v>960.4737745792326</v>
       </c>
       <c r="H87" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I87" t="n">
-        <v>10872683</v>
+        <v>11895482</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>31929990</v>
+        <v>31950611</v>
       </c>
       <c r="F88" t="n">
-        <v>852.8998956668365</v>
+        <v>1017.192546396182</v>
       </c>
       <c r="G88" t="n">
-        <v>1422.829697942296</v>
+        <v>1315.224483304663</v>
       </c>
       <c r="H88" t="n">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
       <c r="I88" t="n">
-        <v>94930</v>
+        <v>95286</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>91903864</v>
+        <v>92082892</v>
       </c>
       <c r="E89" t="n">
-        <v>339703867</v>
+        <v>340364812</v>
       </c>
       <c r="F89" t="n">
-        <v>291.5381260138725</v>
+        <v>262.2528977989626</v>
       </c>
       <c r="G89" t="n">
-        <v>372.0013620409929</v>
+        <v>424.2800437377466</v>
       </c>
       <c r="H89" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="I89" t="n">
-        <v>326749</v>
+        <v>339078</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19273497</v>
+        <v>19103661</v>
       </c>
       <c r="E90" t="n">
-        <v>19273497</v>
+        <v>19103661</v>
       </c>
       <c r="F90" t="n">
-        <v>3587.939026036032</v>
+        <v>2398.192648573945</v>
       </c>
       <c r="G90" t="n">
-        <v>3905.455146082071</v>
+        <v>4540.246012397</v>
       </c>
       <c r="H90" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="I90" t="n">
-        <v>7470192</v>
+        <v>7472958</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3797888</v>
+        <v>3807090</v>
       </c>
       <c r="E91" t="n">
-        <v>8278864</v>
+        <v>8298923</v>
       </c>
       <c r="F91" t="n">
-        <v>1776.382690497166</v>
+        <v>1911.787876673312</v>
       </c>
       <c r="G91" t="n">
-        <v>1090.548284964473</v>
+        <v>1115.729538614198</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2242311</v>
+        <v>2250814</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>465853248</v>
+        <v>468541628</v>
       </c>
       <c r="E92" t="n">
-        <v>1620774522</v>
+        <v>1630127804</v>
       </c>
       <c r="F92" t="n">
-        <v>166394.7469836242</v>
+        <v>165912.5046145112</v>
       </c>
       <c r="G92" t="n">
-        <v>175421.4810318498</v>
+        <v>169058.4672665917</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>48810396</v>
+        <v>49012724</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2290006</v>
+        <v>2280121</v>
       </c>
       <c r="E93" t="n">
-        <v>9160023</v>
+        <v>9120484</v>
       </c>
       <c r="F93" t="n">
-        <v>1271.853715611209</v>
+        <v>1092.55534184351</v>
       </c>
       <c r="G93" t="n">
-        <v>745.8724997683853</v>
+        <v>975.1372615492583</v>
       </c>
       <c r="H93" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I93" t="n">
-        <v>8173645</v>
+        <v>8224786</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210732898</v>
+        <v>212620169</v>
       </c>
       <c r="E94" t="n">
-        <v>647924359</v>
+        <v>653727007</v>
       </c>
       <c r="F94" t="n">
-        <v>90438.91899363208</v>
+        <v>90819.4842986572</v>
       </c>
       <c r="G94" t="n">
-        <v>97497.59022990285</v>
+        <v>99333.42997444872</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>21243766</v>
+        <v>20861951</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>138568035</v>
+        <v>139756054</v>
       </c>
       <c r="E95" t="n">
-        <v>362005148</v>
+        <v>365108815</v>
       </c>
       <c r="F95" t="n">
-        <v>31140.14665480046</v>
+        <v>30289.01619088509</v>
       </c>
       <c r="G95" t="n">
-        <v>30883.68270854889</v>
+        <v>31431.03603877753</v>
       </c>
       <c r="H95" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>8246213</v>
+        <v>7366053</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>378670645</v>
+        <v>382308516</v>
       </c>
       <c r="E96" t="n">
-        <v>2163832255</v>
+        <v>2184620090</v>
       </c>
       <c r="F96" t="n">
-        <v>25038.12642153383</v>
+        <v>20061.18112316879</v>
       </c>
       <c r="G96" t="n">
-        <v>45103.73945959823</v>
+        <v>45538.18576842735</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>64624684</v>
+        <v>64681581</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>614881166</v>
+        <v>617802983</v>
       </c>
       <c r="E2" t="n">
-        <v>1193334993</v>
+        <v>1199005487</v>
       </c>
       <c r="F2" t="n">
-        <v>15986.06476934775</v>
+        <v>16554.516382845</v>
       </c>
       <c r="G2" t="n">
-        <v>34646.99073374431</v>
+        <v>31294.61714548464</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>50721910</v>
+        <v>51227464</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1584945</v>
+        <v>1646461</v>
       </c>
       <c r="E3" t="n">
-        <v>5123193</v>
+        <v>5322036</v>
       </c>
       <c r="F3" t="n">
-        <v>4257.928498342168</v>
+        <v>4998.874599372722</v>
       </c>
       <c r="G3" t="n">
-        <v>2343.02813821956</v>
+        <v>2343.298802120846</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>300265</v>
+        <v>331597</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253085681</v>
+        <v>252949145</v>
       </c>
       <c r="E4" t="n">
-        <v>1587064734</v>
+        <v>1586208532</v>
       </c>
       <c r="F4" t="n">
-        <v>154038.9923576052</v>
+        <v>153737.3364951279</v>
       </c>
       <c r="G4" t="n">
-        <v>165550.6958663324</v>
+        <v>171430.7227814344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29655848</v>
+        <v>29594654</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141431940</v>
+        <v>141516768</v>
       </c>
       <c r="E5" t="n">
-        <v>156728693</v>
+        <v>156822696</v>
       </c>
       <c r="F5" t="n">
-        <v>7099.06563390478</v>
+        <v>5290.249053249273</v>
       </c>
       <c r="G5" t="n">
-        <v>8784.209535626667</v>
+        <v>10060.40988498949</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>51778221</v>
+        <v>51460582</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>663397</v>
+        <v>672550</v>
       </c>
       <c r="E6" t="n">
-        <v>12876027</v>
+        <v>13053685</v>
       </c>
       <c r="F6" t="n">
-        <v>431.2761190045709</v>
+        <v>420.8726574521883</v>
       </c>
       <c r="G6" t="n">
-        <v>203.5912297776549</v>
+        <v>203.592299695052</v>
       </c>
       <c r="H6" t="n">
         <v>1.22</v>
       </c>
       <c r="I6" t="n">
-        <v>22560</v>
+        <v>22542</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>476280996</v>
+        <v>474034781</v>
       </c>
       <c r="E7" t="n">
-        <v>476280999</v>
+        <v>474034781</v>
       </c>
       <c r="F7" t="n">
-        <v>53888.51391284768</v>
+        <v>49567.41669397192</v>
       </c>
       <c r="G7" t="n">
-        <v>214482.9628566081</v>
+        <v>176171.6627531459</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>73810054</v>
+        <v>70059603</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4621822</v>
+        <v>4645422</v>
       </c>
       <c r="E8" t="n">
-        <v>4621822</v>
+        <v>4645422</v>
       </c>
       <c r="F8" t="n">
-        <v>896.5879782822922</v>
+        <v>997.0977827222242</v>
       </c>
       <c r="G8" t="n">
-        <v>1809.52604948394</v>
+        <v>1855.012987577439</v>
       </c>
       <c r="H8" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="I8" t="n">
-        <v>2289238</v>
+        <v>2293997</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1992275</v>
+        <v>1990347</v>
       </c>
       <c r="F9" t="n">
-        <v>375.9203533449659</v>
+        <v>377.4446084788753</v>
       </c>
       <c r="G9" t="n">
-        <v>1850.421372784425</v>
+        <v>3814.156643771762</v>
       </c>
       <c r="H9" t="n">
-        <v>1.27</v>
+        <v>0.53</v>
       </c>
       <c r="I9" t="n">
-        <v>304467</v>
+        <v>304075</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1740260</v>
+        <v>1831254</v>
       </c>
       <c r="F10" t="n">
-        <v>400.3798454440052</v>
+        <v>328.5527367817608</v>
       </c>
       <c r="G10" t="n">
-        <v>221.7506435252746</v>
+        <v>214.5838185636048</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I10" t="n">
-        <v>1431028</v>
+        <v>1462362</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108893953</v>
+        <v>108982309</v>
       </c>
       <c r="E11" t="n">
-        <v>205143300</v>
+        <v>205309752</v>
       </c>
       <c r="F11" t="n">
-        <v>1572.202789643182</v>
+        <v>1617.703873277999</v>
       </c>
       <c r="G11" t="n">
-        <v>2430.858520840628</v>
+        <v>2430.871295545236</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>4124363</v>
+        <v>4131016</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11873744</v>
+        <v>11901146</v>
       </c>
       <c r="E12" t="n">
-        <v>29551601</v>
+        <v>29619800</v>
       </c>
       <c r="F12" t="n">
-        <v>78.74410304595763</v>
+        <v>80.25273775370313</v>
       </c>
       <c r="G12" t="n">
-        <v>3580.378738169071</v>
+        <v>2520.174255896704</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="I12" t="n">
-        <v>1592148</v>
+        <v>1590443</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115316272</v>
+        <v>114095621</v>
       </c>
       <c r="E13" t="n">
-        <v>448004763</v>
+        <v>443253400</v>
       </c>
       <c r="F13" t="n">
-        <v>22781.67417079335</v>
+        <v>21275.79794160006</v>
       </c>
       <c r="G13" t="n">
-        <v>11961.0936151863</v>
+        <v>23817.48823186271</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>12643076</v>
+        <v>12607846</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4972226</v>
+        <v>4965931</v>
       </c>
       <c r="E14" t="n">
-        <v>7319386</v>
+        <v>7310119</v>
       </c>
       <c r="F14" t="n">
-        <v>48.42787767461927</v>
+        <v>56.25933243207336</v>
       </c>
       <c r="G14" t="n">
-        <v>433.6495720052211</v>
+        <v>332.6803939488123</v>
       </c>
       <c r="H14" t="n">
         <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>681550</v>
+        <v>680177</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>140218857</v>
+        <v>140928001</v>
       </c>
       <c r="E15" t="n">
-        <v>140218857</v>
+        <v>140928001</v>
       </c>
       <c r="F15" t="n">
-        <v>44022.55153959351</v>
+        <v>49144.50872368649</v>
       </c>
       <c r="G15" t="n">
-        <v>86295.77752749516</v>
+        <v>84671.88848787136</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>93591220</v>
+        <v>93302066</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63264756</v>
+        <v>63046676</v>
       </c>
       <c r="E16" t="n">
-        <v>324434646</v>
+        <v>323316287</v>
       </c>
       <c r="F16" t="n">
-        <v>14024.87591366721</v>
+        <v>14264.39260007935</v>
       </c>
       <c r="G16" t="n">
-        <v>19125.19339005963</v>
+        <v>17625.82486431306</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>24076349</v>
+        <v>23849265</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252150823</v>
+        <v>251862132</v>
       </c>
       <c r="E17" t="n">
-        <v>252150823</v>
+        <v>251862132</v>
       </c>
       <c r="F17" t="n">
-        <v>56617.40016793204</v>
+        <v>66173.7750292994</v>
       </c>
       <c r="G17" t="n">
-        <v>56332.30303496107</v>
+        <v>49322.37877228203</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>28721731</v>
+        <v>28755586</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2668580</v>
+        <v>2668504</v>
       </c>
       <c r="E18" t="n">
-        <v>6822439</v>
+        <v>6822247</v>
       </c>
       <c r="F18" t="n">
-        <v>749.449395801069</v>
+        <v>749.4533343250796</v>
       </c>
       <c r="G18" t="n">
-        <v>924.6365739531417</v>
+        <v>906.3146750369341</v>
       </c>
       <c r="H18" t="n">
         <v>0.43</v>
       </c>
       <c r="I18" t="n">
-        <v>88795</v>
+        <v>88779</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78724288</v>
+        <v>78262654</v>
       </c>
       <c r="E19" t="n">
-        <v>220313954</v>
+        <v>219029453</v>
       </c>
       <c r="F19" t="n">
-        <v>17263.36637310316</v>
+        <v>20772.52296700688</v>
       </c>
       <c r="G19" t="n">
-        <v>19335.12463607671</v>
+        <v>19931.84076834569</v>
       </c>
       <c r="H19" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I19" t="n">
-        <v>52708287</v>
+        <v>52074418</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1674982</v>
+        <v>1677495</v>
       </c>
       <c r="E20" t="n">
-        <v>9617124</v>
+        <v>9631549</v>
       </c>
       <c r="F20" t="n">
-        <v>404.3891590121877</v>
+        <v>440.879456434334</v>
       </c>
       <c r="G20" t="n">
-        <v>1124.828649974042</v>
+        <v>993.7254688540773</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="I20" t="n">
-        <v>310916</v>
+        <v>310802</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161418</v>
+        <v>161025</v>
       </c>
       <c r="E21" t="n">
-        <v>1090075</v>
+        <v>1087419</v>
       </c>
       <c r="F21" t="n">
-        <v>115.1443679205633</v>
+        <v>59.14480873184923</v>
       </c>
       <c r="G21" t="n">
-        <v>58.17443619606578</v>
+        <v>6.667609789513272</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="I21" t="n">
-        <v>3400419</v>
+        <v>3413461</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247633</v>
+        <v>247827</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4400463602397</v>
+        <v>148.4408264458466</v>
       </c>
       <c r="G22" t="n">
-        <v>40.63890369254897</v>
+        <v>40.63911725906708</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>4751.57</v>
+        <v>3852.16</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84377531</v>
+        <v>84081057</v>
       </c>
       <c r="E23" t="n">
-        <v>175920374</v>
+        <v>175302250</v>
       </c>
       <c r="F23" t="n">
-        <v>13564.11966249554</v>
+        <v>10700.48015166181</v>
       </c>
       <c r="G23" t="n">
-        <v>46970.69925837214</v>
+        <v>45842.2837327079</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>85346319</v>
+        <v>85174533</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>193793008</v>
+        <v>193203442</v>
       </c>
       <c r="E24" t="n">
-        <v>673254425</v>
+        <v>671206218</v>
       </c>
       <c r="F24" t="n">
-        <v>63824.50931798471</v>
+        <v>63326.94343249568</v>
       </c>
       <c r="G24" t="n">
-        <v>62464.20596193913</v>
+        <v>61152.51679303902</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>42082091</v>
+        <v>42054847</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111831484</v>
+        <v>111836900</v>
       </c>
       <c r="E25" t="n">
-        <v>473870244</v>
+        <v>473876714</v>
       </c>
       <c r="F25" t="n">
-        <v>15594.64164960004</v>
+        <v>14034.26063520047</v>
       </c>
       <c r="G25" t="n">
-        <v>16630.2538260947</v>
+        <v>16838.49987077164</v>
       </c>
       <c r="H25" t="n">
         <v>0.27</v>
       </c>
       <c r="I25" t="n">
-        <v>14890853</v>
+        <v>14836269</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5545683</v>
+        <v>5533375</v>
       </c>
       <c r="E26" t="n">
-        <v>7525119</v>
+        <v>7508679</v>
       </c>
       <c r="F26" t="n">
-        <v>880.814848730154</v>
+        <v>675.054347680551</v>
       </c>
       <c r="G26" t="n">
-        <v>515.4852125337829</v>
+        <v>495.4045775201882</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="I26" t="n">
-        <v>5761579</v>
+        <v>5766673</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>591949</v>
+        <v>607351</v>
       </c>
       <c r="E27" t="n">
-        <v>7179764</v>
+        <v>7366574</v>
       </c>
       <c r="F27" t="n">
-        <v>523.4102262341279</v>
+        <v>276.2927187688715</v>
       </c>
       <c r="G27" t="n">
-        <v>38.94355012554673</v>
+        <v>760.7487009472925</v>
       </c>
       <c r="H27" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="I27" t="n">
-        <v>3098264</v>
+        <v>3158918</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25067925</v>
+        <v>25052314</v>
       </c>
       <c r="E28" t="n">
-        <v>35425019</v>
+        <v>35402959</v>
       </c>
       <c r="F28" t="n">
-        <v>1.739943296499601</v>
+        <v>1.739952440290347</v>
       </c>
       <c r="G28" t="n">
-        <v>253.8940877305479</v>
+        <v>253.8954220007018</v>
       </c>
       <c r="H28" t="n">
         <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>179872</v>
+        <v>177959</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1431162143</v>
+        <v>1410285006</v>
       </c>
       <c r="E29" t="n">
-        <v>6862715573</v>
+        <v>6762605426</v>
       </c>
       <c r="F29" t="n">
-        <v>139600.5143241295</v>
+        <v>124098.1297464355</v>
       </c>
       <c r="G29" t="n">
-        <v>180696.978141989</v>
+        <v>183841.7238356022</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>595082614</v>
+        <v>570748790</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>264280651</v>
+        <v>263122705</v>
       </c>
       <c r="E30" t="n">
-        <v>1140782004</v>
+        <v>1135783664</v>
       </c>
       <c r="F30" t="n">
-        <v>128436.6170454479</v>
+        <v>122567.8368624438</v>
       </c>
       <c r="G30" t="n">
-        <v>161495.9647896246</v>
+        <v>125937.9081244675</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>140971409</v>
+        <v>140873440</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5333082</v>
+        <v>5357990</v>
       </c>
       <c r="E31" t="n">
-        <v>5339118</v>
+        <v>5364054</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0471320304081</v>
+        <v>110.0477103526727</v>
       </c>
       <c r="G31" t="n">
-        <v>163.2964539741172</v>
+        <v>163.2973121334651</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>143549</v>
+        <v>142126</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15826259</v>
+        <v>15752865</v>
       </c>
       <c r="E32" t="n">
-        <v>39565648</v>
+        <v>39382161</v>
       </c>
       <c r="F32" t="n">
-        <v>4182.898076155283</v>
+        <v>3871.080975268811</v>
       </c>
       <c r="G32" t="n">
-        <v>4386.575579565736</v>
+        <v>4797.85237819035</v>
       </c>
       <c r="H32" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>5183269</v>
+        <v>5063127</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19078733</v>
+        <v>19095784</v>
       </c>
       <c r="F33" t="n">
-        <v>1183.177964925549</v>
+        <v>2638.769030504444</v>
       </c>
       <c r="G33" t="n">
-        <v>3336.986805281495</v>
+        <v>1460.425443881592</v>
       </c>
       <c r="H33" t="n">
         <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>76826</v>
+        <v>80170</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4207935</v>
+        <v>4193393</v>
       </c>
       <c r="E34" t="n">
-        <v>12119332</v>
+        <v>12077449</v>
       </c>
       <c r="F34" t="n">
-        <v>1269.352279918912</v>
+        <v>1162.982853504292</v>
       </c>
       <c r="G34" t="n">
-        <v>1388.309498551575</v>
+        <v>1290.330741357836</v>
       </c>
       <c r="H34" t="n">
         <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>414053</v>
+        <v>414112</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1459902</v>
+        <v>1517513</v>
       </c>
       <c r="F35" t="n">
-        <v>82.54908709874242</v>
+        <v>109.6281669767636</v>
       </c>
       <c r="G35" t="n">
-        <v>464.8410221362721</v>
+        <v>515.5943406310976</v>
       </c>
       <c r="H35" t="n">
-        <v>0.65</v>
+        <v>1.29</v>
       </c>
       <c r="I35" t="n">
-        <v>7676.36</v>
+        <v>7592.54</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14117255</v>
+        <v>14114336</v>
       </c>
       <c r="E36" t="n">
-        <v>68372120</v>
+        <v>68357984</v>
       </c>
       <c r="F36" t="n">
-        <v>3776.393519235708</v>
+        <v>3819.408441892462</v>
       </c>
       <c r="G36" t="n">
-        <v>8569.194015837224</v>
+        <v>8506.011075116596</v>
       </c>
       <c r="H36" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I36" t="n">
-        <v>5409994</v>
+        <v>5405042</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1213596</v>
+        <v>1208211</v>
       </c>
       <c r="E37" t="n">
-        <v>7942955</v>
+        <v>7907710</v>
       </c>
       <c r="F37" t="n">
-        <v>534.2129448151888</v>
+        <v>750.9004039814677</v>
       </c>
       <c r="G37" t="n">
-        <v>336.3179622456157</v>
+        <v>336.5717699003897</v>
       </c>
       <c r="H37" t="n">
-        <v>3.61</v>
+        <v>2.44</v>
       </c>
       <c r="I37" t="n">
-        <v>200873</v>
+        <v>184633</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1842954641</v>
+        <v>1843971293</v>
       </c>
       <c r="F38" t="n">
-        <v>72932.03030781778</v>
+        <v>71687.45873749703</v>
       </c>
       <c r="G38" t="n">
-        <v>75575.99108331813</v>
+        <v>76300.62684658881</v>
       </c>
       <c r="H38" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="I38" t="n">
-        <v>32067440</v>
+        <v>32163618</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29385037</v>
+        <v>29402939</v>
       </c>
       <c r="E39" t="n">
-        <v>91495576</v>
+        <v>91551318</v>
       </c>
       <c r="F39" t="n">
-        <v>1444.057066400539</v>
+        <v>2619.49358272569</v>
       </c>
       <c r="G39" t="n">
-        <v>12123.45411131075</v>
+        <v>12185.38241050272</v>
       </c>
       <c r="H39" t="n">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>11105370</v>
+        <v>11153896</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>196238748</v>
+        <v>195082730</v>
       </c>
       <c r="E40" t="n">
-        <v>1111224369</v>
+        <v>1104678284</v>
       </c>
       <c r="F40" t="n">
-        <v>47142.21842760519</v>
+        <v>46472.69342479231</v>
       </c>
       <c r="G40" t="n">
-        <v>73833.75579829206</v>
+        <v>77890.70526993273</v>
       </c>
       <c r="H40" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>82559534</v>
+        <v>81778176</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>130636136</v>
+        <v>130992162</v>
       </c>
       <c r="E41" t="n">
-        <v>967675085</v>
+        <v>970312309</v>
       </c>
       <c r="F41" t="n">
-        <v>66288.43726539615</v>
+        <v>79537.93584147895</v>
       </c>
       <c r="G41" t="n">
-        <v>211260.5179498917</v>
+        <v>208493.5748653102</v>
       </c>
       <c r="H41" t="n">
         <v>0.18</v>
       </c>
       <c r="I41" t="n">
-        <v>40308776</v>
+        <v>39929465</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30219273</v>
+        <v>30218217</v>
       </c>
       <c r="E42" t="n">
-        <v>143147264</v>
+        <v>143142264</v>
       </c>
       <c r="F42" t="n">
-        <v>8013.008295535642</v>
+        <v>8036.188424568689</v>
       </c>
       <c r="G42" t="n">
-        <v>6733.122181193219</v>
+        <v>6701.628991376781</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>711882</v>
+        <v>737449</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3186769</v>
+        <v>3161230</v>
       </c>
       <c r="E43" t="n">
-        <v>7441636</v>
+        <v>7381998</v>
       </c>
       <c r="F43" t="n">
-        <v>1173.751523937882</v>
+        <v>1262.728890853931</v>
       </c>
       <c r="G43" t="n">
-        <v>1417.470812703002</v>
+        <v>1774.046049412597</v>
       </c>
       <c r="H43" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="I43" t="n">
-        <v>625477</v>
+        <v>624977</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>321758796</v>
+        <v>317998965</v>
       </c>
       <c r="E44" t="n">
-        <v>2894741641</v>
+        <v>2860915874</v>
       </c>
       <c r="F44" t="n">
-        <v>40325.24281499087</v>
+        <v>34135.69958548949</v>
       </c>
       <c r="G44" t="n">
-        <v>41196.81894462469</v>
+        <v>32588.44132658729</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>70719053</v>
+        <v>72624364</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>626516</v>
+        <v>627821</v>
       </c>
       <c r="F45" t="n">
-        <v>697.6871664375039</v>
+        <v>663.1629410858067</v>
       </c>
       <c r="G45" t="n">
-        <v>452.5762400454947</v>
+        <v>452.5786184347468</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>21478</v>
+        <v>21559</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1549714</v>
+        <v>1538085</v>
       </c>
       <c r="E46" t="n">
-        <v>12914286</v>
+        <v>12817376</v>
       </c>
       <c r="F46" t="n">
-        <v>465.4540431811664</v>
+        <v>606.0750470244795</v>
       </c>
       <c r="G46" t="n">
-        <v>667.9503204944365</v>
+        <v>296.442905124884</v>
       </c>
       <c r="H46" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="I46" t="n">
-        <v>33474</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4760492</v>
+        <v>4758847</v>
       </c>
       <c r="E47" t="n">
-        <v>16818806</v>
+        <v>16812994</v>
       </c>
       <c r="F47" t="n">
-        <v>972.5429896538581</v>
+        <v>1085.374468893935</v>
       </c>
       <c r="G47" t="n">
-        <v>1162.917177513845</v>
+        <v>1160.653062138961</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I47" t="n">
-        <v>161750</v>
+        <v>155485</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47927793</v>
+        <v>47837923</v>
       </c>
       <c r="E48" t="n">
-        <v>277482120</v>
+        <v>276961807</v>
       </c>
       <c r="F48" t="n">
-        <v>21149.50824983675</v>
+        <v>21462.08126760355</v>
       </c>
       <c r="G48" t="n">
-        <v>11146.60756482654</v>
+        <v>10678.02857445894</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>32836135</v>
+        <v>32542285</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2250145</v>
+        <v>2254170</v>
       </c>
       <c r="E49" t="n">
-        <v>12362680</v>
+        <v>12384794</v>
       </c>
       <c r="F49" t="n">
-        <v>431.6899575268332</v>
+        <v>290.2160507053856</v>
       </c>
       <c r="G49" t="n">
-        <v>189.3352392639865</v>
+        <v>860.8347036513343</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>74624</v>
+        <v>74654</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13490053</v>
+        <v>13506937</v>
       </c>
       <c r="E50" t="n">
-        <v>13535961</v>
+        <v>13552902</v>
       </c>
       <c r="F50" t="n">
-        <v>4883.721730044149</v>
+        <v>4753.641451452993</v>
       </c>
       <c r="G50" t="n">
-        <v>3977.378416314517</v>
+        <v>10049.14580443042</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>7434619</v>
+        <v>7407777</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19519719</v>
+        <v>19796742</v>
       </c>
       <c r="E51" t="n">
-        <v>58525859</v>
+        <v>59356455</v>
       </c>
       <c r="F51" t="n">
-        <v>22337.56097891591</v>
+        <v>23662.66538248253</v>
       </c>
       <c r="G51" t="n">
-        <v>25105.30991531175</v>
+        <v>25563.8524413935</v>
       </c>
       <c r="H51" t="n">
-        <v>0.67</v>
+        <v>0.37</v>
       </c>
       <c r="I51" t="n">
-        <v>4136928</v>
+        <v>4179702</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15592631</v>
+        <v>15571235</v>
       </c>
       <c r="E52" t="n">
-        <v>95572362</v>
+        <v>95441217</v>
       </c>
       <c r="F52" t="n">
-        <v>7313.956152296111</v>
+        <v>5533.518559990177</v>
       </c>
       <c r="G52" t="n">
-        <v>10689.21235962522</v>
+        <v>9350.834409048033</v>
       </c>
       <c r="H52" t="n">
         <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>12430488</v>
+        <v>13086268</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>52038702</v>
+        <v>52222162</v>
       </c>
       <c r="E53" t="n">
-        <v>224177037</v>
+        <v>224967364</v>
       </c>
       <c r="F53" t="n">
-        <v>19799.39570414587</v>
+        <v>15446.57395711258</v>
       </c>
       <c r="G53" t="n">
-        <v>23621.72179525405</v>
+        <v>23478.98659149058</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>14454820</v>
+        <v>15073434</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1022135</v>
+        <v>1020273</v>
       </c>
       <c r="E54" t="n">
-        <v>2987524</v>
+        <v>2982082</v>
       </c>
       <c r="F54" t="n">
-        <v>337.245821979022</v>
+        <v>337.1548209205422</v>
       </c>
       <c r="G54" t="n">
-        <v>1324.614216569646</v>
+        <v>1348.544173274385</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>12672.64</v>
+        <v>12636.53</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31633605</v>
+        <v>31618303</v>
       </c>
       <c r="E55" t="n">
-        <v>79764764</v>
+        <v>79726180</v>
       </c>
       <c r="F55" t="n">
-        <v>2353.493467635039</v>
+        <v>1467.342170598139</v>
       </c>
       <c r="G55" t="n">
-        <v>5814.495148323558</v>
+        <v>6283.296230568888</v>
       </c>
       <c r="H55" t="n">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>6513505</v>
+        <v>6517985</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28910724</v>
+        <v>28815321</v>
       </c>
       <c r="E56" t="n">
-        <v>68581599</v>
+        <v>68355285</v>
       </c>
       <c r="F56" t="n">
-        <v>3515.420475082382</v>
+        <v>5304.888610167453</v>
       </c>
       <c r="G56" t="n">
-        <v>4972.132283411459</v>
+        <v>4806.916256835227</v>
       </c>
       <c r="H56" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>816237</v>
+        <v>777534</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11841549</v>
+        <v>11840261</v>
       </c>
       <c r="E57" t="n">
-        <v>18003790</v>
+        <v>18001832</v>
       </c>
       <c r="F57" t="n">
-        <v>7118.049099008104</v>
+        <v>3994.188266104903</v>
       </c>
       <c r="G57" t="n">
-        <v>9537.384317512233</v>
+        <v>9459.25953945366</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I57" t="n">
-        <v>655498</v>
+        <v>660086</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>301450664</v>
+        <v>301894271</v>
       </c>
       <c r="E58" t="n">
-        <v>301450664</v>
+        <v>301894271</v>
       </c>
       <c r="F58" t="n">
-        <v>68437.42219900605</v>
+        <v>55560.96060142748</v>
       </c>
       <c r="G58" t="n">
-        <v>71291.02700361903</v>
+        <v>68665.01350072029</v>
       </c>
       <c r="H58" t="n">
         <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>91798572</v>
+        <v>91552456</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11649354</v>
+        <v>11645579</v>
       </c>
       <c r="F59" t="n">
-        <v>142.891042143702</v>
+        <v>142.9185428470104</v>
       </c>
       <c r="G59" t="n">
-        <v>84.92402685697196</v>
+        <v>84.92447315170611</v>
       </c>
       <c r="H59" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="I59" t="n">
-        <v>67185</v>
+        <v>67034</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84956922</v>
+        <v>84653984</v>
       </c>
       <c r="E60" t="n">
-        <v>489558431</v>
+        <v>487812771</v>
       </c>
       <c r="F60" t="n">
-        <v>96821.81330360116</v>
+        <v>97182.19637669383</v>
       </c>
       <c r="G60" t="n">
-        <v>103867.8514038204</v>
+        <v>100283.9088749923</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I60" t="n">
-        <v>21449730</v>
+        <v>21411239</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9097806</v>
+        <v>9090719</v>
       </c>
       <c r="E61" t="n">
-        <v>9097806</v>
+        <v>9090719</v>
       </c>
       <c r="F61" t="n">
-        <v>707.3368263945814</v>
+        <v>717.5454932946375</v>
       </c>
       <c r="G61" t="n">
-        <v>1929.198083881533</v>
+        <v>1907.670885780928</v>
       </c>
       <c r="H61" t="n">
         <v>2.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2934178</v>
+        <v>2984414</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30662819</v>
+        <v>30545586</v>
       </c>
       <c r="E62" t="n">
-        <v>137290021</v>
+        <v>136765119</v>
       </c>
       <c r="F62" t="n">
-        <v>17694.54415614173</v>
+        <v>15020.92981858698</v>
       </c>
       <c r="G62" t="n">
-        <v>17794.01428720838</v>
+        <v>27970.15675619075</v>
       </c>
       <c r="H62" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>19745910</v>
+        <v>19754896</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12966215</v>
+        <v>12970736</v>
       </c>
       <c r="E63" t="n">
-        <v>25914252</v>
+        <v>25923288</v>
       </c>
       <c r="F63" t="n">
-        <v>2849.324573218865</v>
+        <v>2897.178235242644</v>
       </c>
       <c r="G63" t="n">
-        <v>1916.739257334344</v>
+        <v>1857.525151639859</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>17015.87</v>
+        <v>16942.72</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1337977</v>
+        <v>1345599</v>
       </c>
       <c r="F64" t="n">
-        <v>331.0406827234692</v>
+        <v>122.3570623920755</v>
       </c>
       <c r="G64" t="n">
-        <v>35.36575349710214</v>
+        <v>63.88023987383898</v>
       </c>
       <c r="H64" t="n">
-        <v>2.96</v>
+        <v>1.79</v>
       </c>
       <c r="I64" t="n">
-        <v>92934</v>
+        <v>93434</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48146190</v>
+        <v>48121951</v>
       </c>
       <c r="E65" t="n">
-        <v>312215230</v>
+        <v>312058044</v>
       </c>
       <c r="F65" t="n">
-        <v>14384.25400793214</v>
+        <v>18178.94514046274</v>
       </c>
       <c r="G65" t="n">
-        <v>22417.84517037236</v>
+        <v>21315.63263497501</v>
       </c>
       <c r="H65" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="I65" t="n">
-        <v>21568630</v>
+        <v>21771201</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4423146</v>
+        <v>4420036</v>
       </c>
       <c r="F66" t="n">
-        <v>182.3522778589037</v>
+        <v>161.3386692017328</v>
       </c>
       <c r="G66" t="n">
-        <v>1235.425820740118</v>
+        <v>1137.999037881683</v>
       </c>
       <c r="H66" t="n">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="I66" t="n">
-        <v>217933</v>
+        <v>218935</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122977393</v>
+        <v>122862228</v>
       </c>
       <c r="E67" t="n">
-        <v>2036606357</v>
+        <v>2034699131</v>
       </c>
       <c r="F67" t="n">
-        <v>158777.4263762904</v>
+        <v>156245.3961162176</v>
       </c>
       <c r="G67" t="n">
-        <v>167528.7720104848</v>
+        <v>152782.8201011896</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>60687267</v>
+        <v>62968523</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23097914</v>
+        <v>23046260</v>
       </c>
       <c r="E68" t="n">
-        <v>138199462</v>
+        <v>137890409</v>
       </c>
       <c r="F68" t="n">
-        <v>41887.64308246767</v>
+        <v>41564.83753795309</v>
       </c>
       <c r="G68" t="n">
-        <v>42302.23513586424</v>
+        <v>37867.39846566956</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>17801445</v>
+        <v>17706765</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22545602</v>
+        <v>22472712</v>
       </c>
       <c r="E70" t="n">
-        <v>22545602</v>
+        <v>22472149</v>
       </c>
       <c r="F70" t="n">
-        <v>4374.883970721167</v>
+        <v>3714.658057175074</v>
       </c>
       <c r="G70" t="n">
-        <v>3396.619679944351</v>
+        <v>3582.083307106011</v>
       </c>
       <c r="H70" t="n">
         <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2142323</v>
+        <v>2120253</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32822434</v>
+        <v>32730299</v>
       </c>
       <c r="E71" t="n">
-        <v>163799076</v>
+        <v>163339278</v>
       </c>
       <c r="F71" t="n">
-        <v>19721.24711153197</v>
+        <v>18401.88374735573</v>
       </c>
       <c r="G71" t="n">
-        <v>51860.27573478057</v>
+        <v>35738.23618362179</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13778607</v>
+        <v>13740367</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>157967</v>
+        <v>157923</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>43508</v>
+        <v>43641</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>300029983</v>
+        <v>302633232</v>
       </c>
       <c r="E73" t="n">
-        <v>555123889</v>
+        <v>559940494</v>
       </c>
       <c r="F73" t="n">
-        <v>34728.648364198</v>
+        <v>34652.51175595039</v>
       </c>
       <c r="G73" t="n">
-        <v>33270.51444674852</v>
+        <v>33678.45349366521</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>26140818</v>
+        <v>26485310</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9848253</v>
+        <v>9842163</v>
       </c>
       <c r="E74" t="n">
-        <v>29195523</v>
+        <v>29177471</v>
       </c>
       <c r="F74" t="n">
-        <v>690.9678802353085</v>
+        <v>1274.505276412679</v>
       </c>
       <c r="G74" t="n">
-        <v>6368.2418750421</v>
+        <v>2117.382470189682</v>
       </c>
       <c r="H74" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I74" t="n">
-        <v>6746491</v>
+        <v>6720719</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8300931</v>
+        <v>8305185</v>
       </c>
       <c r="E75" t="n">
-        <v>11826925</v>
+        <v>11832985</v>
       </c>
       <c r="F75" t="n">
-        <v>441.9010290179059</v>
+        <v>452.5611215797023</v>
       </c>
       <c r="G75" t="n">
-        <v>4202.118979293551</v>
+        <v>4466.167867663871</v>
       </c>
       <c r="H75" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I75" t="n">
-        <v>243619</v>
+        <v>246467</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16070834</v>
+        <v>15995851</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6812272236515317</v>
+        <v>0.6812308036527859</v>
       </c>
       <c r="G76" t="n">
-        <v>948.4519472778744</v>
+        <v>951.9582730027096</v>
       </c>
       <c r="H76" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="I76" t="n">
-        <v>1174812</v>
+        <v>1175972</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73161812</v>
+        <v>73191916</v>
       </c>
       <c r="E77" t="n">
-        <v>101299438</v>
+        <v>101341029</v>
       </c>
       <c r="F77" t="n">
-        <v>6886.163443909936</v>
+        <v>7584.222690318505</v>
       </c>
       <c r="G77" t="n">
-        <v>22839.08811146073</v>
+        <v>19027.87065344361</v>
       </c>
       <c r="H77" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I77" t="n">
-        <v>6998544</v>
+        <v>6959916</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6012996</v>
+        <v>5975171</v>
       </c>
       <c r="E78" t="n">
-        <v>6012996</v>
+        <v>5975171</v>
       </c>
       <c r="F78" t="n">
-        <v>264.00070381342</v>
+        <v>156.4411040240481</v>
       </c>
       <c r="G78" t="n">
-        <v>287.9428799625334</v>
+        <v>55.15229711920103</v>
       </c>
       <c r="H78" t="n">
         <v>2.41</v>
       </c>
       <c r="I78" t="n">
-        <v>1439647</v>
+        <v>1434446</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53017</v>
+        <v>53251</v>
       </c>
       <c r="E79" t="n">
-        <v>276619</v>
+        <v>277844</v>
       </c>
       <c r="F79" t="n">
-        <v>357.2479695388082</v>
+        <v>341.6379984634561</v>
       </c>
       <c r="G79" t="n">
-        <v>8.55099673174449</v>
+        <v>8.551041669142705</v>
       </c>
       <c r="H79" t="n">
         <v>1.18</v>
       </c>
       <c r="I79" t="n">
-        <v>179869</v>
+        <v>180492</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25718341</v>
+        <v>25714766</v>
       </c>
       <c r="F80" t="n">
-        <v>994.7049444979339</v>
+        <v>776.5679711999545</v>
       </c>
       <c r="G80" t="n">
-        <v>6067.469026855255</v>
+        <v>6155.523720964488</v>
       </c>
       <c r="H80" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="I80" t="n">
-        <v>51262</v>
+        <v>51692</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>584857539</v>
+        <v>582865251</v>
       </c>
       <c r="E81" t="n">
-        <v>2265066959</v>
+        <v>2257351121</v>
       </c>
       <c r="F81" t="n">
-        <v>172175.1693005626</v>
+        <v>171610.6996702763</v>
       </c>
       <c r="G81" t="n">
-        <v>175729.459653583</v>
+        <v>293517.6682587161</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>62062074</v>
+        <v>61986914</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7012052</v>
+        <v>7013548</v>
       </c>
       <c r="E82" t="n">
-        <v>10045972</v>
+        <v>10048115</v>
       </c>
       <c r="F82" t="n">
-        <v>1198.635066934022</v>
+        <v>787.4861578701265</v>
       </c>
       <c r="G82" t="n">
-        <v>386.0507070973325</v>
+        <v>1033.581239423098</v>
       </c>
       <c r="H82" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>152488</v>
+        <v>151992</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>108899776</v>
+        <v>108401571</v>
       </c>
       <c r="E83" t="n">
-        <v>1030383839</v>
+        <v>1025669944</v>
       </c>
       <c r="F83" t="n">
-        <v>36197.97808013557</v>
+        <v>40205.09420671104</v>
       </c>
       <c r="G83" t="n">
-        <v>24645.68254007312</v>
+        <v>24313.59570146846</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>17954815</v>
+        <v>17958537</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1060365</v>
+        <v>1062771</v>
       </c>
       <c r="E84" t="n">
-        <v>4105967</v>
+        <v>4115280</v>
       </c>
       <c r="F84" t="n">
-        <v>769.8404849666421</v>
+        <v>710.6590679536164</v>
       </c>
       <c r="G84" t="n">
-        <v>265.7309086977999</v>
+        <v>467.9644285002344</v>
       </c>
       <c r="H84" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>261003</v>
+        <v>268377</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122024172</v>
+        <v>121759356</v>
       </c>
       <c r="E85" t="n">
-        <v>468104365</v>
+        <v>467088488</v>
       </c>
       <c r="F85" t="n">
-        <v>64765.90607513465</v>
+        <v>68927.38106484027</v>
       </c>
       <c r="G85" t="n">
-        <v>84801.59552580485</v>
+        <v>85041.17781103181</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>32252707</v>
+        <v>32076877</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5201506</v>
+        <v>5193915</v>
       </c>
       <c r="E86" t="n">
-        <v>19328893</v>
+        <v>19300684</v>
       </c>
       <c r="F86" t="n">
-        <v>524.3415273824</v>
+        <v>524.3442829142704</v>
       </c>
       <c r="G86" t="n">
-        <v>1223.314877469412</v>
+        <v>1200.828055635481</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>135770</v>
+        <v>134836</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>42805276</v>
+        <v>42774475</v>
       </c>
       <c r="F87" t="n">
-        <v>3684.591840132648</v>
+        <v>5533.843006793365</v>
       </c>
       <c r="G87" t="n">
-        <v>960.4737745792326</v>
+        <v>1664.774985086017</v>
       </c>
       <c r="H87" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I87" t="n">
-        <v>11895482</v>
+        <v>11998736</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>31950611</v>
+        <v>31868590</v>
       </c>
       <c r="F88" t="n">
-        <v>1017.192546396182</v>
+        <v>1115.552942813751</v>
       </c>
       <c r="G88" t="n">
-        <v>1315.224483304663</v>
+        <v>983.3678282612761</v>
       </c>
       <c r="H88" t="n">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I88" t="n">
-        <v>95286</v>
+        <v>95303</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>92082892</v>
+        <v>92114016</v>
       </c>
       <c r="E89" t="n">
-        <v>340364812</v>
+        <v>340478978</v>
       </c>
       <c r="F89" t="n">
-        <v>262.2528977989626</v>
+        <v>264.8453312211929</v>
       </c>
       <c r="G89" t="n">
-        <v>424.2800437377466</v>
+        <v>509.8016886873432</v>
       </c>
       <c r="H89" t="n">
         <v>0.64</v>
       </c>
       <c r="I89" t="n">
-        <v>339078</v>
+        <v>338818</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19103661</v>
+        <v>19227427</v>
       </c>
       <c r="E90" t="n">
-        <v>19103661</v>
+        <v>19227427</v>
       </c>
       <c r="F90" t="n">
-        <v>2398.192648573945</v>
+        <v>3087.644460658764</v>
       </c>
       <c r="G90" t="n">
-        <v>4540.246012397</v>
+        <v>3513.993460425988</v>
       </c>
       <c r="H90" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="I90" t="n">
-        <v>7472958</v>
+        <v>7441392</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3807090</v>
+        <v>3810173</v>
       </c>
       <c r="E91" t="n">
-        <v>8298923</v>
+        <v>8305642</v>
       </c>
       <c r="F91" t="n">
-        <v>1911.787876673312</v>
+        <v>1833.896450183962</v>
       </c>
       <c r="G91" t="n">
-        <v>1115.729538614198</v>
+        <v>1087.254664204286</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2250814</v>
+        <v>2257139</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>468541628</v>
+        <v>465457538</v>
       </c>
       <c r="E92" t="n">
-        <v>1630127804</v>
+        <v>1619397787</v>
       </c>
       <c r="F92" t="n">
-        <v>165912.5046145112</v>
+        <v>167201.1631112238</v>
       </c>
       <c r="G92" t="n">
-        <v>169058.4672665917</v>
+        <v>165073.9072385614</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>49012724</v>
+        <v>48944159</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2280121</v>
+        <v>2275324</v>
       </c>
       <c r="E93" t="n">
-        <v>9120484</v>
+        <v>9101295</v>
       </c>
       <c r="F93" t="n">
-        <v>1092.55534184351</v>
+        <v>1165.539673145184</v>
       </c>
       <c r="G93" t="n">
-        <v>975.1372615492583</v>
+        <v>854.3399891994123</v>
       </c>
       <c r="H93" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="I93" t="n">
-        <v>8224786</v>
+        <v>8236993</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212620169</v>
+        <v>212178193</v>
       </c>
       <c r="E94" t="n">
-        <v>653727007</v>
+        <v>652368096</v>
       </c>
       <c r="F94" t="n">
-        <v>90819.4842986572</v>
+        <v>91444.68915507047</v>
       </c>
       <c r="G94" t="n">
-        <v>99333.42997444872</v>
+        <v>96044.8304736861</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>20861951</v>
+        <v>20891725</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>139756054</v>
+        <v>139674401</v>
       </c>
       <c r="E95" t="n">
-        <v>365108815</v>
+        <v>364895498</v>
       </c>
       <c r="F95" t="n">
-        <v>30289.01619088509</v>
+        <v>30323.61585821836</v>
       </c>
       <c r="G95" t="n">
-        <v>31431.03603877753</v>
+        <v>33306.14821690859</v>
       </c>
       <c r="H95" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I95" t="n">
-        <v>7366053</v>
+        <v>7956057</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>382308516</v>
+        <v>381218167</v>
       </c>
       <c r="E96" t="n">
-        <v>2184620090</v>
+        <v>2178389527</v>
       </c>
       <c r="F96" t="n">
-        <v>20061.18112316879</v>
+        <v>24048.80369889664</v>
       </c>
       <c r="G96" t="n">
-        <v>45538.18576842735</v>
+        <v>43049.86243807636</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>64681581</v>
+        <v>64608165</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>617802983</v>
+        <v>608916720</v>
       </c>
       <c r="E2" t="n">
-        <v>1199005487</v>
+        <v>1181761352</v>
       </c>
       <c r="F2" t="n">
-        <v>16554.516382845</v>
+        <v>16401.80333397526</v>
       </c>
       <c r="G2" t="n">
-        <v>31294.61714548464</v>
+        <v>34353.98480280262</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>51227464</v>
+        <v>51215939</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1646461</v>
+        <v>1744477</v>
       </c>
       <c r="E3" t="n">
-        <v>5322036</v>
+        <v>5638866</v>
       </c>
       <c r="F3" t="n">
-        <v>4998.874599372722</v>
+        <v>250.2268500376109</v>
       </c>
       <c r="G3" t="n">
-        <v>2343.298802120846</v>
+        <v>202.809882008549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="I3" t="n">
-        <v>331597</v>
+        <v>587458</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252949145</v>
+        <v>252209509</v>
       </c>
       <c r="E4" t="n">
-        <v>1586208532</v>
+        <v>1581570379</v>
       </c>
       <c r="F4" t="n">
-        <v>153737.3364951279</v>
+        <v>151712.7597249762</v>
       </c>
       <c r="G4" t="n">
-        <v>171430.7227814344</v>
+        <v>168594.781566187</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29594654</v>
+        <v>29716974</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141516768</v>
+        <v>142017043</v>
       </c>
       <c r="E5" t="n">
-        <v>156822696</v>
+        <v>157377079</v>
       </c>
       <c r="F5" t="n">
-        <v>5290.249053249273</v>
+        <v>7237.435447511194</v>
       </c>
       <c r="G5" t="n">
-        <v>10060.40988498949</v>
+        <v>8507.966060569675</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>51460582</v>
+        <v>52023040</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>672550</v>
+        <v>669039</v>
       </c>
       <c r="E6" t="n">
-        <v>13053685</v>
+        <v>12985536</v>
       </c>
       <c r="F6" t="n">
-        <v>420.8726574521883</v>
+        <v>1000.811488371557</v>
       </c>
       <c r="G6" t="n">
-        <v>203.592299695052</v>
+        <v>383.4788945335507</v>
       </c>
       <c r="H6" t="n">
-        <v>1.22</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>22542</v>
+        <v>22301</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>474034781</v>
+        <v>478075077</v>
       </c>
       <c r="E7" t="n">
-        <v>474034781</v>
+        <v>478075079</v>
       </c>
       <c r="F7" t="n">
-        <v>49567.41669397192</v>
+        <v>50434.53570542529</v>
       </c>
       <c r="G7" t="n">
-        <v>176171.6627531459</v>
+        <v>143810.8879531072</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>70059603</v>
+        <v>73526471</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4645422</v>
+        <v>4636694</v>
       </c>
       <c r="E8" t="n">
-        <v>4645422</v>
+        <v>4636694</v>
       </c>
       <c r="F8" t="n">
-        <v>997.0977827222242</v>
+        <v>1299.216603353443</v>
       </c>
       <c r="G8" t="n">
-        <v>1855.012987577439</v>
+        <v>969.0732086056357</v>
       </c>
       <c r="H8" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I8" t="n">
-        <v>2293997</v>
+        <v>2308436</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1990347</v>
+        <v>1961940</v>
       </c>
       <c r="F9" t="n">
-        <v>377.4446084788753</v>
+        <v>331.4255491364474</v>
       </c>
       <c r="G9" t="n">
-        <v>3814.156643771762</v>
+        <v>2620.268444215457</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>304075</v>
+        <v>346315</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1831254</v>
+        <v>2010480</v>
       </c>
       <c r="F10" t="n">
-        <v>328.5527367817608</v>
+        <v>156.9021203623043</v>
       </c>
       <c r="G10" t="n">
-        <v>214.5838185636048</v>
+        <v>363.5024638811751</v>
       </c>
       <c r="H10" t="n">
-        <v>0.43</v>
+        <v>1.87</v>
       </c>
       <c r="I10" t="n">
-        <v>1462362</v>
+        <v>1547718</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108982309</v>
+        <v>108955741</v>
       </c>
       <c r="E11" t="n">
-        <v>205309752</v>
+        <v>205259700</v>
       </c>
       <c r="F11" t="n">
-        <v>1617.703873277999</v>
+        <v>1617.641909189956</v>
       </c>
       <c r="G11" t="n">
-        <v>2430.871295545236</v>
+        <v>2402.343760345858</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>4131016</v>
+        <v>4131571</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11901146</v>
+        <v>11920580</v>
       </c>
       <c r="E12" t="n">
-        <v>29619800</v>
+        <v>29668168</v>
       </c>
       <c r="F12" t="n">
-        <v>80.25273775370313</v>
+        <v>83.09728566389467</v>
       </c>
       <c r="G12" t="n">
-        <v>2520.174255896704</v>
+        <v>2561.3618292067</v>
       </c>
       <c r="H12" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="I12" t="n">
-        <v>1590443</v>
+        <v>1616834</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114095621</v>
+        <v>113081031</v>
       </c>
       <c r="E13" t="n">
-        <v>443253400</v>
+        <v>439286465</v>
       </c>
       <c r="F13" t="n">
-        <v>21275.79794160006</v>
+        <v>11838.14599108086</v>
       </c>
       <c r="G13" t="n">
-        <v>23817.48823186271</v>
+        <v>23810.88493134187</v>
       </c>
       <c r="H13" t="n">
         <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>12607846</v>
+        <v>12566698</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4965931</v>
+        <v>4927319</v>
       </c>
       <c r="E14" t="n">
-        <v>7310119</v>
+        <v>7253280</v>
       </c>
       <c r="F14" t="n">
-        <v>56.25933243207336</v>
+        <v>113.7800227716917</v>
       </c>
       <c r="G14" t="n">
-        <v>332.6803939488123</v>
+        <v>266.1500937073598</v>
       </c>
       <c r="H14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>680177</v>
+        <v>637617</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>140928001</v>
+        <v>142464512</v>
       </c>
       <c r="E15" t="n">
-        <v>140928001</v>
+        <v>142464512</v>
       </c>
       <c r="F15" t="n">
-        <v>49144.50872368649</v>
+        <v>42741.9476012525</v>
       </c>
       <c r="G15" t="n">
-        <v>84671.88848787136</v>
+        <v>88424.83571710532</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>93302066</v>
+        <v>94625904</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63046676</v>
+        <v>63333586</v>
       </c>
       <c r="E16" t="n">
-        <v>323316287</v>
+        <v>324787620</v>
       </c>
       <c r="F16" t="n">
-        <v>14264.39260007935</v>
+        <v>13938.15756940328</v>
       </c>
       <c r="G16" t="n">
-        <v>17625.82486431306</v>
+        <v>17778.57739596906</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>23849265</v>
+        <v>22503587</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251862132</v>
+        <v>252919340</v>
       </c>
       <c r="E17" t="n">
-        <v>251862132</v>
+        <v>252919340</v>
       </c>
       <c r="F17" t="n">
-        <v>66173.7750292994</v>
+        <v>61604.10515899653</v>
       </c>
       <c r="G17" t="n">
-        <v>49322.37877228203</v>
+        <v>52491.10154714307</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>28755586</v>
+        <v>28938277</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2668504</v>
+        <v>2672662</v>
       </c>
       <c r="E18" t="n">
-        <v>6822247</v>
+        <v>6832877</v>
       </c>
       <c r="F18" t="n">
-        <v>749.4533343250796</v>
+        <v>807.9797523118863</v>
       </c>
       <c r="G18" t="n">
-        <v>906.3146750369341</v>
+        <v>452.4379250822885</v>
       </c>
       <c r="H18" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="I18" t="n">
-        <v>88779</v>
+        <v>88642</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78262654</v>
+        <v>78115975</v>
       </c>
       <c r="E19" t="n">
-        <v>219029453</v>
+        <v>218634754</v>
       </c>
       <c r="F19" t="n">
-        <v>20772.52296700688</v>
+        <v>16938.2762652083</v>
       </c>
       <c r="G19" t="n">
-        <v>19931.84076834569</v>
+        <v>19306.23382602666</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>52074418</v>
+        <v>49807214</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1677495</v>
+        <v>1679948</v>
       </c>
       <c r="E20" t="n">
-        <v>9631549</v>
+        <v>9645634</v>
       </c>
       <c r="F20" t="n">
-        <v>440.879456434334</v>
+        <v>369.4199226172856</v>
       </c>
       <c r="G20" t="n">
-        <v>993.7254688540773</v>
+        <v>1099.729886633971</v>
       </c>
       <c r="H20" t="n">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="I20" t="n">
-        <v>310802</v>
+        <v>305790</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161025</v>
+        <v>167323</v>
       </c>
       <c r="E21" t="n">
-        <v>1087419</v>
+        <v>1129950</v>
       </c>
       <c r="F21" t="n">
-        <v>59.14480873184923</v>
+        <v>112.7355436081806</v>
       </c>
       <c r="G21" t="n">
-        <v>6.667609789513272</v>
+        <v>55.69493294209236</v>
       </c>
       <c r="H21" t="n">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="I21" t="n">
-        <v>3413461</v>
+        <v>3435462</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247827</v>
+        <v>244677</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4408264458466</v>
+        <v>148.4351406089075</v>
       </c>
       <c r="G22" t="n">
-        <v>40.63911725906708</v>
+        <v>40.16466736778399</v>
       </c>
       <c r="H22" t="n">
         <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3852.16</v>
+        <v>3802.68</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84081057</v>
+        <v>84109199</v>
       </c>
       <c r="E23" t="n">
-        <v>175302250</v>
+        <v>175360926</v>
       </c>
       <c r="F23" t="n">
-        <v>10700.48015166181</v>
+        <v>7933.909887364817</v>
       </c>
       <c r="G23" t="n">
-        <v>45842.2837327079</v>
+        <v>42100.74610403132</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>85174533</v>
+        <v>85294255</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>193203442</v>
+        <v>192831633</v>
       </c>
       <c r="E24" t="n">
-        <v>671206218</v>
+        <v>669914521</v>
       </c>
       <c r="F24" t="n">
-        <v>63326.94343249568</v>
+        <v>63543.09612084958</v>
       </c>
       <c r="G24" t="n">
-        <v>61152.51679303902</v>
+        <v>62769.64498924334</v>
       </c>
       <c r="H24" t="n">
         <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>42054847</v>
+        <v>41073253</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111836900</v>
+        <v>112133484</v>
       </c>
       <c r="E25" t="n">
-        <v>473876714</v>
+        <v>475083392</v>
       </c>
       <c r="F25" t="n">
-        <v>14034.26063520047</v>
+        <v>14045.16271856574</v>
       </c>
       <c r="G25" t="n">
-        <v>16838.49987077164</v>
+        <v>17661.88418537943</v>
       </c>
       <c r="H25" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>14836269</v>
+        <v>14814189</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5533375</v>
+        <v>5359187</v>
       </c>
       <c r="E26" t="n">
-        <v>7508679</v>
+        <v>7271966</v>
       </c>
       <c r="F26" t="n">
-        <v>675.054347680551</v>
+        <v>1022.326828830656</v>
       </c>
       <c r="G26" t="n">
-        <v>495.4045775201882</v>
+        <v>3051.611415197313</v>
       </c>
       <c r="H26" t="n">
-        <v>0.52</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5766673</v>
+        <v>5757806</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>607351</v>
+        <v>638113</v>
       </c>
       <c r="E27" t="n">
-        <v>7366574</v>
+        <v>7739688</v>
       </c>
       <c r="F27" t="n">
-        <v>276.2927187688715</v>
+        <v>926.8571794393139</v>
       </c>
       <c r="G27" t="n">
-        <v>760.7487009472925</v>
+        <v>491.3572546713822</v>
       </c>
       <c r="H27" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3158918</v>
+        <v>3204318</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25052314</v>
+        <v>25142320</v>
       </c>
       <c r="E28" t="n">
-        <v>35402959</v>
+        <v>35530153</v>
       </c>
       <c r="F28" t="n">
-        <v>1.739952440290347</v>
+        <v>1.739885793626528</v>
       </c>
       <c r="G28" t="n">
-        <v>253.8954220007018</v>
+        <v>468.9053956715188</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.23</v>
       </c>
       <c r="I28" t="n">
-        <v>177959</v>
+        <v>177877</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1410285006</v>
+        <v>1398851804</v>
       </c>
       <c r="E29" t="n">
-        <v>6762605426</v>
+        <v>6707780876</v>
       </c>
       <c r="F29" t="n">
-        <v>124098.1297464355</v>
+        <v>126652.9704873703</v>
       </c>
       <c r="G29" t="n">
-        <v>183841.7238356022</v>
+        <v>169177.4515226624</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>570748790</v>
+        <v>596134661</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>263122705</v>
+        <v>262048519</v>
       </c>
       <c r="E30" t="n">
-        <v>1135783664</v>
+        <v>1131146882</v>
       </c>
       <c r="F30" t="n">
-        <v>122567.8368624438</v>
+        <v>129958.8858287083</v>
       </c>
       <c r="G30" t="n">
-        <v>125937.9081244675</v>
+        <v>156394.9572902918</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>140873440</v>
+        <v>139624339</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5357990</v>
+        <v>5328908</v>
       </c>
       <c r="E31" t="n">
-        <v>5364054</v>
+        <v>5334939</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0477103526727</v>
+        <v>110.0434951151834</v>
       </c>
       <c r="G31" t="n">
-        <v>163.2973121334651</v>
+        <v>163.0377345998691</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>142126</v>
+        <v>142220</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15752865</v>
+        <v>15697323</v>
       </c>
       <c r="E32" t="n">
-        <v>39382161</v>
+        <v>39243307</v>
       </c>
       <c r="F32" t="n">
-        <v>3871.080975268811</v>
+        <v>3280.926742814981</v>
       </c>
       <c r="G32" t="n">
-        <v>4797.85237819035</v>
+        <v>3909.866666857004</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.54</v>
       </c>
       <c r="I32" t="n">
-        <v>5063127</v>
+        <v>5205718</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19095784</v>
+        <v>18989384</v>
       </c>
       <c r="F33" t="n">
-        <v>2638.769030504444</v>
+        <v>2058.305882744085</v>
       </c>
       <c r="G33" t="n">
-        <v>1460.425443881592</v>
+        <v>3011.118590084048</v>
       </c>
       <c r="H33" t="n">
         <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>80170</v>
+        <v>75406</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4193393</v>
+        <v>4091450</v>
       </c>
       <c r="E34" t="n">
-        <v>12077449</v>
+        <v>11783841</v>
       </c>
       <c r="F34" t="n">
-        <v>1162.982853504292</v>
+        <v>268.9219391249441</v>
       </c>
       <c r="G34" t="n">
-        <v>1290.330741357836</v>
+        <v>1054.810751657644</v>
       </c>
       <c r="H34" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="I34" t="n">
-        <v>414112</v>
+        <v>408951</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1517513</v>
+        <v>1536036</v>
       </c>
       <c r="F35" t="n">
-        <v>109.6281669767636</v>
+        <v>188.5294677710029</v>
       </c>
       <c r="G35" t="n">
-        <v>515.5943406310976</v>
+        <v>443.8723838576329</v>
       </c>
       <c r="H35" t="n">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="I35" t="n">
-        <v>7592.54</v>
+        <v>7420.22</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14114336</v>
+        <v>14118905</v>
       </c>
       <c r="E36" t="n">
-        <v>68357984</v>
+        <v>68380113</v>
       </c>
       <c r="F36" t="n">
-        <v>3819.408441892462</v>
+        <v>4187.14338852817</v>
       </c>
       <c r="G36" t="n">
-        <v>8506.011075116596</v>
+        <v>6978.880205340223</v>
       </c>
       <c r="H36" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>5405042</v>
+        <v>5268621</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1208211</v>
+        <v>1206350</v>
       </c>
       <c r="E37" t="n">
-        <v>7907710</v>
+        <v>7895529</v>
       </c>
       <c r="F37" t="n">
-        <v>750.9004039814677</v>
+        <v>338.2290203333416</v>
       </c>
       <c r="G37" t="n">
-        <v>336.5717699003897</v>
+        <v>74.0580963705264</v>
       </c>
       <c r="H37" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="n">
-        <v>184633</v>
+        <v>176094</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1843971293</v>
+        <v>1844070531</v>
       </c>
       <c r="F38" t="n">
-        <v>71687.45873749703</v>
+        <v>69563.83886145447</v>
       </c>
       <c r="G38" t="n">
-        <v>76300.62684658881</v>
+        <v>79407.59615981746</v>
       </c>
       <c r="H38" t="n">
-        <v>0.38</v>
+        <v>0.92</v>
       </c>
       <c r="I38" t="n">
-        <v>32163618</v>
+        <v>32102025</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29402939</v>
+        <v>29064918</v>
       </c>
       <c r="E39" t="n">
-        <v>91551318</v>
+        <v>90498828</v>
       </c>
       <c r="F39" t="n">
-        <v>2619.49358272569</v>
+        <v>1894.569631537652</v>
       </c>
       <c r="G39" t="n">
-        <v>12185.38241050272</v>
+        <v>11153.89944421725</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>11153896</v>
+        <v>11234267</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>195082730</v>
+        <v>194830695</v>
       </c>
       <c r="E40" t="n">
-        <v>1104678284</v>
+        <v>1103251106</v>
       </c>
       <c r="F40" t="n">
-        <v>46472.69342479231</v>
+        <v>43846.25688950496</v>
       </c>
       <c r="G40" t="n">
-        <v>77890.70526993273</v>
+        <v>80082.5951845422</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>81778176</v>
+        <v>81098394</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>130992162</v>
+        <v>130410728</v>
       </c>
       <c r="E41" t="n">
-        <v>970312309</v>
+        <v>966005389</v>
       </c>
       <c r="F41" t="n">
-        <v>79537.93584147895</v>
+        <v>82644.59032229395</v>
       </c>
       <c r="G41" t="n">
-        <v>208493.5748653102</v>
+        <v>207174.9531690407</v>
       </c>
       <c r="H41" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I41" t="n">
-        <v>39929465</v>
+        <v>40362868</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30218217</v>
+        <v>29994769</v>
       </c>
       <c r="E42" t="n">
-        <v>143142264</v>
+        <v>142083797</v>
       </c>
       <c r="F42" t="n">
-        <v>8036.188424568689</v>
+        <v>7136.970364528026</v>
       </c>
       <c r="G42" t="n">
-        <v>6701.628991376781</v>
+        <v>6771.603726027319</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>737449</v>
+        <v>722966</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3161230</v>
+        <v>3143226</v>
       </c>
       <c r="E43" t="n">
-        <v>7381998</v>
+        <v>7339958</v>
       </c>
       <c r="F43" t="n">
-        <v>1262.728890853931</v>
+        <v>1630.503768370191</v>
       </c>
       <c r="G43" t="n">
-        <v>1774.046049412597</v>
+        <v>1888.27199783228</v>
       </c>
       <c r="H43" t="n">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="I43" t="n">
-        <v>624977</v>
+        <v>634339</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>317998965</v>
+        <v>316123887</v>
       </c>
       <c r="E44" t="n">
-        <v>2860915874</v>
+        <v>2844046513</v>
       </c>
       <c r="F44" t="n">
-        <v>34135.69958548949</v>
+        <v>39830.42476559556</v>
       </c>
       <c r="G44" t="n">
-        <v>32588.44132658729</v>
+        <v>38560.46451058186</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>72624364</v>
+        <v>70834557</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>627821</v>
+        <v>628026</v>
       </c>
       <c r="F45" t="n">
-        <v>663.1629410858067</v>
+        <v>693.1502537253107</v>
       </c>
       <c r="G45" t="n">
-        <v>452.5786184347468</v>
+        <v>427.9036783523358</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>21559</v>
+        <v>20013</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1538085</v>
+        <v>1531363</v>
       </c>
       <c r="E46" t="n">
-        <v>12817376</v>
+        <v>12761355</v>
       </c>
       <c r="F46" t="n">
-        <v>606.0750470244795</v>
+        <v>379.8609580416082</v>
       </c>
       <c r="G46" t="n">
-        <v>296.442905124884</v>
+        <v>861.801892333349</v>
       </c>
       <c r="H46" t="n">
         <v>0.47</v>
       </c>
       <c r="I46" t="n">
-        <v>32514</v>
+        <v>32677</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4758847</v>
+        <v>4767780</v>
       </c>
       <c r="E47" t="n">
-        <v>16812994</v>
+        <v>16844552</v>
       </c>
       <c r="F47" t="n">
-        <v>1085.374468893935</v>
+        <v>1328.981000544493</v>
       </c>
       <c r="G47" t="n">
-        <v>1160.653062138961</v>
+        <v>1058.968661256277</v>
       </c>
       <c r="H47" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>155485</v>
+        <v>155798</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47837923</v>
+        <v>48359218</v>
       </c>
       <c r="E48" t="n">
-        <v>276961807</v>
+        <v>279979888</v>
       </c>
       <c r="F48" t="n">
-        <v>21462.08126760355</v>
+        <v>21259.83192949062</v>
       </c>
       <c r="G48" t="n">
-        <v>10678.02857445894</v>
+        <v>20878.61181399133</v>
       </c>
       <c r="H48" t="n">
         <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>32542285</v>
+        <v>31447075</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2254170</v>
+        <v>2269114</v>
       </c>
       <c r="E49" t="n">
-        <v>12384794</v>
+        <v>12466900</v>
       </c>
       <c r="F49" t="n">
-        <v>290.2160507053856</v>
+        <v>273.1940203335547</v>
       </c>
       <c r="G49" t="n">
-        <v>860.8347036513343</v>
+        <v>978.6767711774939</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>74654</v>
+        <v>75767</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13506937</v>
+        <v>13527900</v>
       </c>
       <c r="E50" t="n">
-        <v>13552902</v>
+        <v>13573937</v>
       </c>
       <c r="F50" t="n">
-        <v>4753.641451452993</v>
+        <v>4425.581576885407</v>
       </c>
       <c r="G50" t="n">
-        <v>10049.14580443042</v>
+        <v>9629.669718025067</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>7407777</v>
+        <v>7424149</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19796742</v>
+        <v>19851987</v>
       </c>
       <c r="E51" t="n">
-        <v>59356455</v>
+        <v>59522096</v>
       </c>
       <c r="F51" t="n">
-        <v>23662.66538248253</v>
+        <v>576.4417308833417</v>
       </c>
       <c r="G51" t="n">
-        <v>25563.8524413935</v>
+        <v>12997.00611677302</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>1.5</v>
       </c>
       <c r="I51" t="n">
-        <v>4179702</v>
+        <v>4332446</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15571235</v>
+        <v>15666306</v>
       </c>
       <c r="E52" t="n">
-        <v>95441217</v>
+        <v>96023942</v>
       </c>
       <c r="F52" t="n">
-        <v>5533.518559990177</v>
+        <v>5330.296045698236</v>
       </c>
       <c r="G52" t="n">
-        <v>9350.834409048033</v>
+        <v>8274.494535382037</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>13086268</v>
+        <v>13037510</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>52222162</v>
+        <v>51044887</v>
       </c>
       <c r="E53" t="n">
-        <v>224967364</v>
+        <v>219895792</v>
       </c>
       <c r="F53" t="n">
-        <v>15446.57395711258</v>
+        <v>7877.709056382656</v>
       </c>
       <c r="G53" t="n">
-        <v>23478.98659149058</v>
+        <v>22723.44530448364</v>
       </c>
       <c r="H53" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="I53" t="n">
-        <v>15073434</v>
+        <v>14996339</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1020273</v>
+        <v>1021240</v>
       </c>
       <c r="E54" t="n">
-        <v>2982082</v>
+        <v>2984907</v>
       </c>
       <c r="F54" t="n">
-        <v>337.1548209205422</v>
+        <v>337.3474906604451</v>
       </c>
       <c r="G54" t="n">
-        <v>1348.544173274385</v>
+        <v>1348.185446000718</v>
       </c>
       <c r="H54" t="n">
         <v>1.33</v>
       </c>
       <c r="I54" t="n">
-        <v>12636.53</v>
+        <v>12596.18</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31618303</v>
+        <v>31528555</v>
       </c>
       <c r="E55" t="n">
-        <v>79726180</v>
+        <v>79499878</v>
       </c>
       <c r="F55" t="n">
-        <v>1467.342170598139</v>
+        <v>3779.951222755104</v>
       </c>
       <c r="G55" t="n">
-        <v>6283.296230568888</v>
+        <v>19772.62651897522</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I55" t="n">
-        <v>6517985</v>
+        <v>6475955</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28815321</v>
+        <v>28762710</v>
       </c>
       <c r="E56" t="n">
-        <v>68355285</v>
+        <v>68230481</v>
       </c>
       <c r="F56" t="n">
-        <v>5304.888610167453</v>
+        <v>1731.562334299217</v>
       </c>
       <c r="G56" t="n">
-        <v>4806.916256835227</v>
+        <v>5169.76745857483</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>777534</v>
+        <v>783348</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11840261</v>
+        <v>11911548</v>
       </c>
       <c r="E57" t="n">
-        <v>18001832</v>
+        <v>18110217</v>
       </c>
       <c r="F57" t="n">
-        <v>3994.188266104903</v>
+        <v>4084.568452228905</v>
       </c>
       <c r="G57" t="n">
-        <v>9459.25953945366</v>
+        <v>4167.833413863118</v>
       </c>
       <c r="H57" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I57" t="n">
-        <v>660086</v>
+        <v>689492</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>301894271</v>
+        <v>303261881</v>
       </c>
       <c r="E58" t="n">
-        <v>301894271</v>
+        <v>303261881</v>
       </c>
       <c r="F58" t="n">
-        <v>55560.96060142748</v>
+        <v>58466.63152185377</v>
       </c>
       <c r="G58" t="n">
-        <v>68665.01350072029</v>
+        <v>75606.35337110545</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>91552456</v>
+        <v>91522663</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11645579</v>
+        <v>11726931</v>
       </c>
       <c r="F59" t="n">
-        <v>142.9185428470104</v>
+        <v>142.7888418960148</v>
       </c>
       <c r="G59" t="n">
-        <v>84.92447315170611</v>
+        <v>84.12947249629492</v>
       </c>
       <c r="H59" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="I59" t="n">
-        <v>67034</v>
+        <v>64873</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84653984</v>
+        <v>84365157</v>
       </c>
       <c r="E60" t="n">
-        <v>487812771</v>
+        <v>486148425</v>
       </c>
       <c r="F60" t="n">
-        <v>97182.19637669383</v>
+        <v>88483.09020668964</v>
       </c>
       <c r="G60" t="n">
-        <v>100283.9088749923</v>
+        <v>88382.94987804393</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>21411239</v>
+        <v>21013903</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9090719</v>
+        <v>9118116</v>
       </c>
       <c r="E61" t="n">
-        <v>9090719</v>
+        <v>9118116</v>
       </c>
       <c r="F61" t="n">
-        <v>717.5454932946375</v>
+        <v>676.3349849682534</v>
       </c>
       <c r="G61" t="n">
-        <v>1907.670885780928</v>
+        <v>2016.862855073608</v>
       </c>
       <c r="H61" t="n">
         <v>2.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2984414</v>
+        <v>2994035</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30545586</v>
+        <v>30105325</v>
       </c>
       <c r="E62" t="n">
-        <v>136765119</v>
+        <v>134793890</v>
       </c>
       <c r="F62" t="n">
-        <v>15020.92981858698</v>
+        <v>16187.16073037307</v>
       </c>
       <c r="G62" t="n">
-        <v>27970.15675619075</v>
+        <v>28408.11630724461</v>
       </c>
       <c r="H62" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>19754896</v>
+        <v>20062330</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12970736</v>
+        <v>12974479</v>
       </c>
       <c r="E63" t="n">
-        <v>25923288</v>
+        <v>25930768</v>
       </c>
       <c r="F63" t="n">
-        <v>2897.178235242644</v>
+        <v>2910.958314364347</v>
       </c>
       <c r="G63" t="n">
-        <v>1857.525151639859</v>
+        <v>1844.715146700527</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>16942.72</v>
+        <v>16523.76</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1345599</v>
+        <v>1329250</v>
       </c>
       <c r="F64" t="n">
-        <v>122.3570623920755</v>
+        <v>113.6569577655853</v>
       </c>
       <c r="G64" t="n">
-        <v>63.88023987383898</v>
+        <v>133.7805508021783</v>
       </c>
       <c r="H64" t="n">
-        <v>1.79</v>
+        <v>2.37</v>
       </c>
       <c r="I64" t="n">
-        <v>93434</v>
+        <v>93214</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48121951</v>
+        <v>48303747</v>
       </c>
       <c r="E65" t="n">
-        <v>312058044</v>
+        <v>313236946</v>
       </c>
       <c r="F65" t="n">
-        <v>18178.94514046274</v>
+        <v>20163.3995387957</v>
       </c>
       <c r="G65" t="n">
-        <v>21315.63263497501</v>
+        <v>20092.79818076933</v>
       </c>
       <c r="H65" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>21771201</v>
+        <v>21811594</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4420036</v>
+        <v>4433305</v>
       </c>
       <c r="F66" t="n">
-        <v>161.3386692017328</v>
+        <v>141.4975959014166</v>
       </c>
       <c r="G66" t="n">
-        <v>1137.999037881683</v>
+        <v>1108.481264363983</v>
       </c>
       <c r="H66" t="n">
-        <v>0.27</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>218935</v>
+        <v>222784</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122862228</v>
+        <v>122917866</v>
       </c>
       <c r="E67" t="n">
-        <v>2034699131</v>
+        <v>2035620537</v>
       </c>
       <c r="F67" t="n">
-        <v>156245.3961162176</v>
+        <v>165891.422707581</v>
       </c>
       <c r="G67" t="n">
-        <v>152782.8201011896</v>
+        <v>165795.3999613197</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>62968523</v>
+        <v>77638821</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23046260</v>
+        <v>23078417</v>
       </c>
       <c r="E68" t="n">
-        <v>137890409</v>
+        <v>138082808</v>
       </c>
       <c r="F68" t="n">
-        <v>41564.83753795309</v>
+        <v>42229.82312145332</v>
       </c>
       <c r="G68" t="n">
-        <v>37867.39846566956</v>
+        <v>44441.15253888703</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>17706765</v>
+        <v>17742303</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22472712</v>
+        <v>22317572</v>
       </c>
       <c r="E70" t="n">
-        <v>22472149</v>
+        <v>22316957</v>
       </c>
       <c r="F70" t="n">
-        <v>3714.658057175074</v>
+        <v>3356.154569599564</v>
       </c>
       <c r="G70" t="n">
-        <v>3582.083307106011</v>
+        <v>13480.50464860666</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="I70" t="n">
-        <v>2120253</v>
+        <v>2102216</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32730299</v>
+        <v>32588519</v>
       </c>
       <c r="E71" t="n">
-        <v>163339278</v>
+        <v>162631734</v>
       </c>
       <c r="F71" t="n">
-        <v>18401.88374735573</v>
+        <v>19730.46883229172</v>
       </c>
       <c r="G71" t="n">
-        <v>35738.23618362179</v>
+        <v>49389.5513651239</v>
       </c>
       <c r="H71" t="n">
         <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>13740367</v>
+        <v>13508230</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>157923</v>
+        <v>155469</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>43641</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>302633232</v>
+        <v>304321548</v>
       </c>
       <c r="E73" t="n">
-        <v>559940494</v>
+        <v>563064264</v>
       </c>
       <c r="F73" t="n">
-        <v>34652.51175595039</v>
+        <v>36723.78819639803</v>
       </c>
       <c r="G73" t="n">
-        <v>33678.45349366521</v>
+        <v>38680.0130411002</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>26485310</v>
+        <v>27183678</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9842163</v>
+        <v>9716502</v>
       </c>
       <c r="E74" t="n">
-        <v>29177471</v>
+        <v>28804944</v>
       </c>
       <c r="F74" t="n">
-        <v>1274.505276412679</v>
+        <v>5455.958541594808</v>
       </c>
       <c r="G74" t="n">
-        <v>2117.382470189682</v>
+        <v>6792.465543810479</v>
       </c>
       <c r="H74" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="I74" t="n">
-        <v>6720719</v>
+        <v>6591524</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8305185</v>
+        <v>8282321</v>
       </c>
       <c r="E75" t="n">
-        <v>11832985</v>
+        <v>11800409</v>
       </c>
       <c r="F75" t="n">
-        <v>452.5611215797023</v>
+        <v>483.734573823803</v>
       </c>
       <c r="G75" t="n">
-        <v>4466.167867663871</v>
+        <v>4361.377763258266</v>
       </c>
       <c r="H75" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="I75" t="n">
-        <v>246467</v>
+        <v>196152</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15995851</v>
+        <v>15916947</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6812308036527859</v>
+        <v>0.2867605558979349</v>
       </c>
       <c r="G76" t="n">
-        <v>951.9582730027096</v>
+        <v>1130.333693837893</v>
       </c>
       <c r="H76" t="n">
-        <v>1.83</v>
+        <v>1.06</v>
       </c>
       <c r="I76" t="n">
-        <v>1175972</v>
+        <v>1180544</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73191916</v>
+        <v>73105985</v>
       </c>
       <c r="E77" t="n">
-        <v>101341029</v>
+        <v>101222320</v>
       </c>
       <c r="F77" t="n">
-        <v>7584.222690318505</v>
+        <v>7508.472898377903</v>
       </c>
       <c r="G77" t="n">
-        <v>19027.87065344361</v>
+        <v>19774.86723961698</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I77" t="n">
-        <v>6959916</v>
+        <v>6885309</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5975171</v>
+        <v>5865638</v>
       </c>
       <c r="E78" t="n">
-        <v>5975171</v>
+        <v>5865638</v>
       </c>
       <c r="F78" t="n">
-        <v>156.4411040240481</v>
+        <v>557.9385935056489</v>
       </c>
       <c r="G78" t="n">
-        <v>55.15229711920103</v>
+        <v>133.0164143520112</v>
       </c>
       <c r="H78" t="n">
         <v>2.41</v>
       </c>
       <c r="I78" t="n">
-        <v>1434446</v>
+        <v>1427160</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53251</v>
+        <v>53431</v>
       </c>
       <c r="E79" t="n">
-        <v>277844</v>
+        <v>278780</v>
       </c>
       <c r="F79" t="n">
-        <v>341.6379984634561</v>
+        <v>294.4362285562038</v>
       </c>
       <c r="G79" t="n">
-        <v>8.551041669142705</v>
+        <v>97.4494783300816</v>
       </c>
       <c r="H79" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="I79" t="n">
-        <v>180492</v>
+        <v>182578</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25714766</v>
+        <v>25720074</v>
       </c>
       <c r="F80" t="n">
-        <v>776.5679711999545</v>
+        <v>775.1080631281728</v>
       </c>
       <c r="G80" t="n">
-        <v>6155.523720964488</v>
+        <v>5387.285588871056</v>
       </c>
       <c r="H80" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="I80" t="n">
-        <v>51692</v>
+        <v>52087</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>582865251</v>
+        <v>582783872</v>
       </c>
       <c r="E81" t="n">
-        <v>2257351121</v>
+        <v>2257035953</v>
       </c>
       <c r="F81" t="n">
-        <v>171610.6996702763</v>
+        <v>171659.8012793033</v>
       </c>
       <c r="G81" t="n">
-        <v>293517.6682587161</v>
+        <v>290871.1287967298</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>61986914</v>
+        <v>61958497</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7013548</v>
+        <v>6951432</v>
       </c>
       <c r="E82" t="n">
-        <v>10048115</v>
+        <v>9959014</v>
       </c>
       <c r="F82" t="n">
-        <v>787.4861578701265</v>
+        <v>923.7749880932006</v>
       </c>
       <c r="G82" t="n">
-        <v>1033.581239423098</v>
+        <v>815.0191578547042</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>151992</v>
+        <v>154592</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>108401571</v>
+        <v>107762078</v>
       </c>
       <c r="E83" t="n">
-        <v>1025669944</v>
+        <v>1019619216</v>
       </c>
       <c r="F83" t="n">
-        <v>40205.09420671104</v>
+        <v>28742.65465143552</v>
       </c>
       <c r="G83" t="n">
-        <v>24313.59570146846</v>
+        <v>21606.73743537614</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I83" t="n">
-        <v>17958537</v>
+        <v>17991148</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1062771</v>
+        <v>1062210</v>
       </c>
       <c r="E84" t="n">
-        <v>4115280</v>
+        <v>4113107</v>
       </c>
       <c r="F84" t="n">
-        <v>710.6590679536164</v>
+        <v>760.5587949641639</v>
       </c>
       <c r="G84" t="n">
-        <v>467.9644285002344</v>
+        <v>354.3371554759549</v>
       </c>
       <c r="H84" t="n">
-        <v>0.24</v>
+        <v>0.97</v>
       </c>
       <c r="I84" t="n">
-        <v>268377</v>
+        <v>270924</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>121759356</v>
+        <v>123143156</v>
       </c>
       <c r="E85" t="n">
-        <v>467088488</v>
+        <v>472396969</v>
       </c>
       <c r="F85" t="n">
-        <v>68927.38106484027</v>
+        <v>78799.04539629754</v>
       </c>
       <c r="G85" t="n">
-        <v>85041.17781103181</v>
+        <v>86496.29364857577</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>32076877</v>
+        <v>30862725</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5193915</v>
+        <v>5193328</v>
       </c>
       <c r="E86" t="n">
-        <v>19300684</v>
+        <v>19298503</v>
       </c>
       <c r="F86" t="n">
-        <v>524.3442829142704</v>
+        <v>538.4776229671695</v>
       </c>
       <c r="G86" t="n">
-        <v>1200.828055635481</v>
+        <v>1177.747376741895</v>
       </c>
       <c r="H86" t="n">
         <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>134836</v>
+        <v>132651</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>42774475</v>
+        <v>42266064</v>
       </c>
       <c r="F87" t="n">
-        <v>5533.843006793365</v>
+        <v>4343.598705422428</v>
       </c>
       <c r="G87" t="n">
-        <v>1664.774985086017</v>
+        <v>2189.872335445884</v>
       </c>
       <c r="H87" t="n">
         <v>0.33</v>
       </c>
       <c r="I87" t="n">
-        <v>11998736</v>
+        <v>12018781</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>31868590</v>
+        <v>31730136</v>
       </c>
       <c r="F88" t="n">
-        <v>1115.552942813751</v>
+        <v>1004.361535177244</v>
       </c>
       <c r="G88" t="n">
-        <v>983.3678282612761</v>
+        <v>988.4360902921718</v>
       </c>
       <c r="H88" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>95303</v>
+        <v>94953</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>92114016</v>
+        <v>92050397</v>
       </c>
       <c r="E89" t="n">
-        <v>340478978</v>
+        <v>340243039</v>
       </c>
       <c r="F89" t="n">
-        <v>264.8453312211929</v>
+        <v>1126.684089685947</v>
       </c>
       <c r="G89" t="n">
-        <v>509.8016886873432</v>
+        <v>1384.450340536059</v>
       </c>
       <c r="H89" t="n">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="I89" t="n">
-        <v>338818</v>
+        <v>333844</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19227427</v>
+        <v>19454285</v>
       </c>
       <c r="E90" t="n">
-        <v>19227427</v>
+        <v>19454285</v>
       </c>
       <c r="F90" t="n">
-        <v>3087.644460658764</v>
+        <v>3423.976599007607</v>
       </c>
       <c r="G90" t="n">
-        <v>3513.993460425988</v>
+        <v>2453.095887196033</v>
       </c>
       <c r="H90" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="I90" t="n">
-        <v>7441392</v>
+        <v>7441278</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3810173</v>
+        <v>3802005</v>
       </c>
       <c r="E91" t="n">
-        <v>8305642</v>
+        <v>8287838</v>
       </c>
       <c r="F91" t="n">
-        <v>1833.896450183962</v>
+        <v>1931.152441034042</v>
       </c>
       <c r="G91" t="n">
-        <v>1087.254664204286</v>
+        <v>1131.810643579094</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>2257139</v>
+        <v>2262788</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>465457538</v>
+        <v>467838418</v>
       </c>
       <c r="E92" t="n">
-        <v>1619397787</v>
+        <v>1627681230</v>
       </c>
       <c r="F92" t="n">
-        <v>167201.1631112238</v>
+        <v>164274.7028940763</v>
       </c>
       <c r="G92" t="n">
-        <v>165073.9072385614</v>
+        <v>166483.995440304</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>48944159</v>
+        <v>49233636</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2275324</v>
+        <v>2267246</v>
       </c>
       <c r="E93" t="n">
-        <v>9101295</v>
+        <v>9068984</v>
       </c>
       <c r="F93" t="n">
-        <v>1165.539673145184</v>
+        <v>1157.723989498106</v>
       </c>
       <c r="G93" t="n">
-        <v>854.3399891994123</v>
+        <v>844.1747466662457</v>
       </c>
       <c r="H93" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="I93" t="n">
-        <v>8236993</v>
+        <v>8275330</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212178193</v>
+        <v>211563778</v>
       </c>
       <c r="E94" t="n">
-        <v>652368096</v>
+        <v>650479001</v>
       </c>
       <c r="F94" t="n">
-        <v>91444.68915507047</v>
+        <v>94808.89162755906</v>
       </c>
       <c r="G94" t="n">
-        <v>96044.8304736861</v>
+        <v>95780.94115757479</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>20891725</v>
+        <v>19995371</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>139674401</v>
+        <v>139354684</v>
       </c>
       <c r="E95" t="n">
-        <v>364895498</v>
+        <v>364060246</v>
       </c>
       <c r="F95" t="n">
-        <v>30323.61585821836</v>
+        <v>31303.93718218932</v>
       </c>
       <c r="G95" t="n">
-        <v>33306.14821690859</v>
+        <v>32669.94968054275</v>
       </c>
       <c r="H95" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I95" t="n">
-        <v>7956057</v>
+        <v>7162265</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>381218167</v>
+        <v>381616952</v>
       </c>
       <c r="E96" t="n">
-        <v>2178389527</v>
+        <v>2180668295</v>
       </c>
       <c r="F96" t="n">
-        <v>24048.80369889664</v>
+        <v>20511.73726520463</v>
       </c>
       <c r="G96" t="n">
-        <v>43049.86243807636</v>
+        <v>38877.2624858097</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>64608165</v>
+        <v>64021911</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>608916720</v>
+        <v>632702572</v>
       </c>
       <c r="E2" t="n">
-        <v>1181761352</v>
+        <v>1227969346</v>
       </c>
       <c r="F2" t="n">
-        <v>16401.80333397526</v>
+        <v>14862.56402591824</v>
       </c>
       <c r="G2" t="n">
-        <v>34353.98480280262</v>
+        <v>36893.70162510276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>51215939</v>
+        <v>34757851</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1744477</v>
+        <v>1427322</v>
       </c>
       <c r="E3" t="n">
-        <v>5638866</v>
+        <v>4613691</v>
       </c>
       <c r="F3" t="n">
-        <v>250.2268500376109</v>
+        <v>485.1384889327261</v>
       </c>
       <c r="G3" t="n">
-        <v>202.809882008549</v>
+        <v>3873.861305574213</v>
       </c>
       <c r="H3" t="n">
-        <v>1.57</v>
+        <v>0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>587458</v>
+        <v>575284</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252209509</v>
+        <v>265935519</v>
       </c>
       <c r="E4" t="n">
-        <v>1581570379</v>
+        <v>1667644259</v>
       </c>
       <c r="F4" t="n">
-        <v>151712.7597249762</v>
+        <v>155548.0934114645</v>
       </c>
       <c r="G4" t="n">
-        <v>168594.781566187</v>
+        <v>160057.7783624107</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29716974</v>
+        <v>28076632</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142017043</v>
+        <v>148758722</v>
       </c>
       <c r="E5" t="n">
-        <v>157377079</v>
+        <v>164847912</v>
       </c>
       <c r="F5" t="n">
-        <v>7237.435447511194</v>
+        <v>7387.66293197546</v>
       </c>
       <c r="G5" t="n">
-        <v>8507.966060569675</v>
+        <v>8781.591132027012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>52023040</v>
+        <v>39724056</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Avalanche Ecosystem, Play To Earn, Ethereum Ecosystem</t>
+          <t>Gaming (GameFi), Avalanche Ecosystem, Play To Earn, Ethereum Ecosystem, Arcade Games</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>669039</v>
+        <v>706821</v>
       </c>
       <c r="E6" t="n">
-        <v>12985536</v>
+        <v>13718860</v>
       </c>
       <c r="F6" t="n">
-        <v>1000.811488371557</v>
+        <v>706.883952651636</v>
       </c>
       <c r="G6" t="n">
-        <v>383.4788945335507</v>
+        <v>171.2193265850622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="I6" t="n">
-        <v>22301</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>478075077</v>
+        <v>516257464</v>
       </c>
       <c r="E7" t="n">
-        <v>478075079</v>
+        <v>516257468</v>
       </c>
       <c r="F7" t="n">
-        <v>50434.53570542529</v>
+        <v>41713.90216915659</v>
       </c>
       <c r="G7" t="n">
-        <v>143810.8879531072</v>
+        <v>55650.52482555038</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>73526471</v>
+        <v>52222291</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4636694</v>
+        <v>4690374</v>
       </c>
       <c r="E8" t="n">
-        <v>4636694</v>
+        <v>4690374</v>
       </c>
       <c r="F8" t="n">
-        <v>1299.216603353443</v>
+        <v>956.1074831954429</v>
       </c>
       <c r="G8" t="n">
-        <v>969.0732086056357</v>
+        <v>1869.057799007995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="I8" t="n">
-        <v>2308436</v>
+        <v>2046825</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1961940</v>
+        <v>1961425</v>
       </c>
       <c r="F9" t="n">
-        <v>331.4255491364474</v>
+        <v>951.006312623955</v>
       </c>
       <c r="G9" t="n">
-        <v>2620.268444215457</v>
+        <v>8109.449457835502</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>0.54</v>
       </c>
       <c r="I9" t="n">
-        <v>346315</v>
+        <v>342911</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2010480</v>
+        <v>1768589</v>
       </c>
       <c r="F10" t="n">
-        <v>156.9021203623043</v>
+        <v>58.71455126494853</v>
       </c>
       <c r="G10" t="n">
-        <v>363.5024638811751</v>
+        <v>83.23645914690097</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87</v>
+        <v>0.78</v>
       </c>
       <c r="I10" t="n">
-        <v>1547718</v>
+        <v>1077639</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108955741</v>
+        <v>108053064</v>
       </c>
       <c r="E11" t="n">
-        <v>205259700</v>
+        <v>203559163</v>
       </c>
       <c r="F11" t="n">
-        <v>1617.641909189956</v>
+        <v>1516.173102504815</v>
       </c>
       <c r="G11" t="n">
-        <v>2402.343760345858</v>
+        <v>1525.078157669124</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4131571</v>
+        <v>4127679</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11920580</v>
+        <v>12015294</v>
       </c>
       <c r="E12" t="n">
-        <v>29668168</v>
+        <v>29903895</v>
       </c>
       <c r="F12" t="n">
-        <v>83.09728566389467</v>
+        <v>560.7077045456015</v>
       </c>
       <c r="G12" t="n">
-        <v>2561.3618292067</v>
+        <v>90.57479081298418</v>
       </c>
       <c r="H12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>1616834</v>
+        <v>1527236</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113081031</v>
+        <v>118015963</v>
       </c>
       <c r="E13" t="n">
-        <v>439286465</v>
+        <v>458245860</v>
       </c>
       <c r="F13" t="n">
-        <v>11838.14599108086</v>
+        <v>12293.19621441001</v>
       </c>
       <c r="G13" t="n">
-        <v>23810.88493134187</v>
+        <v>26249.37619734241</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I13" t="n">
-        <v>12566698</v>
+        <v>9761695</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4927319</v>
+        <v>4813336</v>
       </c>
       <c r="E14" t="n">
-        <v>7253280</v>
+        <v>7085491</v>
       </c>
       <c r="F14" t="n">
-        <v>113.7800227716917</v>
+        <v>112.1764104822431</v>
       </c>
       <c r="G14" t="n">
-        <v>266.1500937073598</v>
+        <v>247.8403913267195</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>637617</v>
+        <v>715248</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>142464512</v>
+        <v>154051203</v>
       </c>
       <c r="E15" t="n">
-        <v>142464512</v>
+        <v>154051203</v>
       </c>
       <c r="F15" t="n">
-        <v>42741.9476012525</v>
+        <v>43486.51303403116</v>
       </c>
       <c r="G15" t="n">
-        <v>88424.83571710532</v>
+        <v>84498.50091749417</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
-        <v>94625904</v>
+        <v>101655640</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63333586</v>
+        <v>69003001</v>
       </c>
       <c r="E16" t="n">
-        <v>324787620</v>
+        <v>353861546</v>
       </c>
       <c r="F16" t="n">
-        <v>13938.15756940328</v>
+        <v>12338.3734186322</v>
       </c>
       <c r="G16" t="n">
-        <v>17778.57739596906</v>
+        <v>20345.22422797347</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>22503587</v>
+        <v>17741539</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252919340</v>
+        <v>265361137</v>
       </c>
       <c r="E17" t="n">
-        <v>252919340</v>
+        <v>265361137</v>
       </c>
       <c r="F17" t="n">
-        <v>61604.10515899653</v>
+        <v>58989.44208384475</v>
       </c>
       <c r="G17" t="n">
-        <v>52491.10154714307</v>
+        <v>47838.95367629098</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>28938277</v>
+        <v>22723464</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2672662</v>
+        <v>2695600</v>
       </c>
       <c r="E18" t="n">
-        <v>6832877</v>
+        <v>6891520</v>
       </c>
       <c r="F18" t="n">
-        <v>807.9797523118863</v>
+        <v>446.9043625484745</v>
       </c>
       <c r="G18" t="n">
-        <v>452.4379250822885</v>
+        <v>1087.514838502174</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>88642</v>
+        <v>86817</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78115975</v>
+        <v>86311582</v>
       </c>
       <c r="E19" t="n">
-        <v>218634754</v>
+        <v>241497106</v>
       </c>
       <c r="F19" t="n">
-        <v>16938.2762652083</v>
+        <v>14675.76761579677</v>
       </c>
       <c r="G19" t="n">
-        <v>19306.23382602666</v>
+        <v>23605.28521295348</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I19" t="n">
-        <v>49807214</v>
+        <v>44869386</v>
       </c>
     </row>
     <row r="20">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, Animoca Brands Portfolio, Card Games, Gaming Utility Token</t>
+          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Card Games, Gaming Utility Token, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1679948</v>
+        <v>1651695</v>
       </c>
       <c r="E20" t="n">
-        <v>9645634</v>
+        <v>9483416</v>
       </c>
       <c r="F20" t="n">
-        <v>369.4199226172856</v>
+        <v>492.4788432981238</v>
       </c>
       <c r="G20" t="n">
-        <v>1099.729886633971</v>
+        <v>742.2831720798076</v>
       </c>
       <c r="H20" t="n">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="I20" t="n">
-        <v>305790</v>
+        <v>289178</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>167323</v>
+        <v>182483</v>
       </c>
       <c r="E21" t="n">
-        <v>1129950</v>
+        <v>1232330</v>
       </c>
       <c r="F21" t="n">
-        <v>112.7355436081806</v>
+        <v>2200.376641739986</v>
       </c>
       <c r="G21" t="n">
-        <v>55.69493294209236</v>
+        <v>7.449226769242667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>3435462</v>
+        <v>3496350</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244677</v>
+        <v>235978</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4351406089075</v>
+        <v>33.09767827190273</v>
       </c>
       <c r="G22" t="n">
-        <v>40.16466736778399</v>
+        <v>64.51790265242077</v>
       </c>
       <c r="H22" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="I22" t="n">
-        <v>3802.68</v>
+        <v>5610.44</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84109199</v>
+        <v>92849220</v>
       </c>
       <c r="E23" t="n">
-        <v>175360926</v>
+        <v>193583167</v>
       </c>
       <c r="F23" t="n">
-        <v>7933.909887364817</v>
+        <v>10181.33269230142</v>
       </c>
       <c r="G23" t="n">
-        <v>42100.74610403132</v>
+        <v>44459.16596288218</v>
       </c>
       <c r="H23" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I23" t="n">
-        <v>85294255</v>
+        <v>50365836</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>192831633</v>
+        <v>197590394</v>
       </c>
       <c r="E24" t="n">
-        <v>669914521</v>
+        <v>686446887</v>
       </c>
       <c r="F24" t="n">
-        <v>63543.09612084958</v>
+        <v>63638.42734016638</v>
       </c>
       <c r="G24" t="n">
-        <v>62769.64498924334</v>
+        <v>62637.21118285623</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>41073253</v>
+        <v>31744659</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>112133484</v>
+        <v>120353468</v>
       </c>
       <c r="E25" t="n">
-        <v>475083392</v>
+        <v>509481892</v>
       </c>
       <c r="F25" t="n">
-        <v>14045.16271856574</v>
+        <v>17653.01398927943</v>
       </c>
       <c r="G25" t="n">
-        <v>17661.88418537943</v>
+        <v>17731.85833056849</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="I25" t="n">
-        <v>14814189</v>
+        <v>12966882</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5359187</v>
+        <v>5559414</v>
       </c>
       <c r="E26" t="n">
-        <v>7271966</v>
+        <v>7542722</v>
       </c>
       <c r="F26" t="n">
-        <v>1022.326828830656</v>
+        <v>784.2808890287661</v>
       </c>
       <c r="G26" t="n">
-        <v>3051.611415197313</v>
+        <v>805.2446296325677</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I26" t="n">
-        <v>5757806</v>
+        <v>5617620</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>638113</v>
+        <v>567415</v>
       </c>
       <c r="E27" t="n">
-        <v>7739688</v>
+        <v>6882196</v>
       </c>
       <c r="F27" t="n">
-        <v>926.8571794393139</v>
+        <v>906.9243023045241</v>
       </c>
       <c r="G27" t="n">
-        <v>491.3572546713822</v>
+        <v>616.7320638295919</v>
       </c>
       <c r="H27" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="I27" t="n">
-        <v>3204318</v>
+        <v>3230414</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25142320</v>
+        <v>25332876</v>
       </c>
       <c r="E28" t="n">
-        <v>35530153</v>
+        <v>35791906</v>
       </c>
       <c r="F28" t="n">
-        <v>1.739885793626528</v>
+        <v>521.1480448967126</v>
       </c>
       <c r="G28" t="n">
-        <v>468.9053956715188</v>
+        <v>570.3560682786348</v>
       </c>
       <c r="H28" t="n">
-        <v>3.23</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>177877</v>
+        <v>177106</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1398851804</v>
+        <v>1439906155</v>
       </c>
       <c r="E29" t="n">
-        <v>6707780876</v>
+        <v>6904644897</v>
       </c>
       <c r="F29" t="n">
-        <v>126652.9704873703</v>
+        <v>110907.416163927</v>
       </c>
       <c r="G29" t="n">
-        <v>169177.4515226624</v>
+        <v>176653.7240472994</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>596134661</v>
+        <v>400634545</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>262048519</v>
+        <v>273872879</v>
       </c>
       <c r="E30" t="n">
-        <v>1131146882</v>
+        <v>1182187382</v>
       </c>
       <c r="F30" t="n">
-        <v>129958.8858287083</v>
+        <v>134888.1385779337</v>
       </c>
       <c r="G30" t="n">
-        <v>156394.9572902918</v>
+        <v>164775.6143755415</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>139624339</v>
+        <v>91561938</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5328908</v>
+        <v>5343428</v>
       </c>
       <c r="E31" t="n">
-        <v>5334939</v>
+        <v>5349476</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0434951151834</v>
+        <v>127.0162922881607</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0377345998691</v>
+        <v>168.3437796888701</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>142220</v>
+        <v>141248</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15697323</v>
+        <v>16160464</v>
       </c>
       <c r="E32" t="n">
-        <v>39243307</v>
+        <v>40401159</v>
       </c>
       <c r="F32" t="n">
-        <v>3280.926742814981</v>
+        <v>2059.262241440944</v>
       </c>
       <c r="G32" t="n">
-        <v>3909.866666857004</v>
+        <v>4720.516003000437</v>
       </c>
       <c r="H32" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I32" t="n">
-        <v>5205718</v>
+        <v>4610913</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18989384</v>
+        <v>18781807</v>
       </c>
       <c r="F33" t="n">
-        <v>2058.305882744085</v>
+        <v>1277.865838132134</v>
       </c>
       <c r="G33" t="n">
-        <v>3011.118590084048</v>
+        <v>3400.513646375799</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I33" t="n">
-        <v>75406</v>
+        <v>66083</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4091450</v>
+        <v>4081982</v>
       </c>
       <c r="E34" t="n">
-        <v>11783841</v>
+        <v>11755163</v>
       </c>
       <c r="F34" t="n">
-        <v>268.9219391249441</v>
+        <v>1387.775583187607</v>
       </c>
       <c r="G34" t="n">
-        <v>1054.810751657644</v>
+        <v>1256.615105283284</v>
       </c>
       <c r="H34" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="I34" t="n">
-        <v>408951</v>
+        <v>375300</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1536036</v>
+        <v>1632471</v>
       </c>
       <c r="F35" t="n">
-        <v>188.5294677710029</v>
+        <v>58.26978826739143</v>
       </c>
       <c r="G35" t="n">
-        <v>443.8723838576329</v>
+        <v>235.2637274868611</v>
       </c>
       <c r="H35" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>7420.22</v>
+        <v>6598.22</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14118905</v>
+        <v>15337856</v>
       </c>
       <c r="E36" t="n">
-        <v>68380113</v>
+        <v>74283686</v>
       </c>
       <c r="F36" t="n">
-        <v>4187.14338852817</v>
+        <v>1943.71906795781</v>
       </c>
       <c r="G36" t="n">
-        <v>6978.880205340223</v>
+        <v>9134.132445823416</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="I36" t="n">
-        <v>5268621</v>
+        <v>4203413</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1206350</v>
+        <v>1229671</v>
       </c>
       <c r="E37" t="n">
-        <v>7895529</v>
+        <v>8048164</v>
       </c>
       <c r="F37" t="n">
-        <v>338.2290203333416</v>
+        <v>52.03553537739634</v>
       </c>
       <c r="G37" t="n">
-        <v>74.0580963705264</v>
+        <v>348.2204895413755</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="I37" t="n">
-        <v>176094</v>
+        <v>209370</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1844070531</v>
+        <v>1842514531</v>
       </c>
       <c r="F38" t="n">
-        <v>69563.83886145447</v>
+        <v>74093.42489625663</v>
       </c>
       <c r="G38" t="n">
-        <v>79407.59615981746</v>
+        <v>73453.291755816</v>
       </c>
       <c r="H38" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>32102025</v>
+        <v>30503791</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29064918</v>
+        <v>28815561</v>
       </c>
       <c r="E39" t="n">
-        <v>90498828</v>
+        <v>89722411</v>
       </c>
       <c r="F39" t="n">
-        <v>1894.569631537652</v>
+        <v>7172.752273302296</v>
       </c>
       <c r="G39" t="n">
-        <v>11153.89944421725</v>
+        <v>4683.675480318957</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>11234267</v>
+        <v>11434279</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194830695</v>
+        <v>200824695</v>
       </c>
       <c r="E40" t="n">
-        <v>1103251106</v>
+        <v>1137192818</v>
       </c>
       <c r="F40" t="n">
-        <v>43846.25688950496</v>
+        <v>43052.95674522054</v>
       </c>
       <c r="G40" t="n">
-        <v>80082.5951845422</v>
+        <v>81205.3196340663</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I40" t="n">
-        <v>81098394</v>
+        <v>55259721</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>130410728</v>
+        <v>134083280</v>
       </c>
       <c r="E41" t="n">
-        <v>966005389</v>
+        <v>993209481</v>
       </c>
       <c r="F41" t="n">
-        <v>82644.59032229395</v>
+        <v>106463.0761215059</v>
       </c>
       <c r="G41" t="n">
-        <v>207174.9531690407</v>
+        <v>181163.7613874084</v>
       </c>
       <c r="H41" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>40362868</v>
+        <v>29419216</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29994769</v>
+        <v>30465339</v>
       </c>
       <c r="E42" t="n">
-        <v>142083797</v>
+        <v>144310434</v>
       </c>
       <c r="F42" t="n">
-        <v>7136.970364528026</v>
+        <v>8022.938940260541</v>
       </c>
       <c r="G42" t="n">
-        <v>6771.603726027319</v>
+        <v>4788.981175356247</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>722966</v>
+        <v>445111</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3143226</v>
+        <v>3290882</v>
       </c>
       <c r="E43" t="n">
-        <v>7339958</v>
+        <v>7684757</v>
       </c>
       <c r="F43" t="n">
-        <v>1630.503768370191</v>
+        <v>1600.258800554465</v>
       </c>
       <c r="G43" t="n">
-        <v>1888.27199783228</v>
+        <v>1461.34443411954</v>
       </c>
       <c r="H43" t="n">
-        <v>1.35</v>
+        <v>0.54</v>
       </c>
       <c r="I43" t="n">
-        <v>634339</v>
+        <v>450624</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>316123887</v>
+        <v>329577245</v>
       </c>
       <c r="E44" t="n">
-        <v>2844046513</v>
+        <v>2965081263</v>
       </c>
       <c r="F44" t="n">
-        <v>39830.42476559556</v>
+        <v>44395.74769417076</v>
       </c>
       <c r="G44" t="n">
-        <v>38560.46451058186</v>
+        <v>57218.8281812221</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>70834557</v>
+        <v>56986695</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628026</v>
+        <v>621243</v>
       </c>
       <c r="F45" t="n">
-        <v>693.1502537253107</v>
+        <v>749.2504936355614</v>
       </c>
       <c r="G45" t="n">
-        <v>427.9036783523358</v>
+        <v>621.3697887181219</v>
       </c>
       <c r="H45" t="n">
         <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>20013</v>
+        <v>12266.37</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1531363</v>
+        <v>1541288</v>
       </c>
       <c r="E46" t="n">
-        <v>12761355</v>
+        <v>12844063</v>
       </c>
       <c r="F46" t="n">
-        <v>379.8609580416082</v>
+        <v>214.6300731582191</v>
       </c>
       <c r="G46" t="n">
-        <v>861.801892333349</v>
+        <v>1116.756677239944</v>
       </c>
       <c r="H46" t="n">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>32677</v>
+        <v>50779</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4767780</v>
+        <v>4857111</v>
       </c>
       <c r="E47" t="n">
-        <v>16844552</v>
+        <v>17159355</v>
       </c>
       <c r="F47" t="n">
-        <v>1328.981000544493</v>
+        <v>1279.052504902593</v>
       </c>
       <c r="G47" t="n">
-        <v>1058.968661256277</v>
+        <v>691.1569435769202</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I47" t="n">
-        <v>155798</v>
+        <v>167853</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48359218</v>
+        <v>50771477</v>
       </c>
       <c r="E48" t="n">
-        <v>279979888</v>
+        <v>293945875</v>
       </c>
       <c r="F48" t="n">
-        <v>21259.83192949062</v>
+        <v>15074.85818317244</v>
       </c>
       <c r="G48" t="n">
-        <v>20878.61181399133</v>
+        <v>12846.61238479872</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="I48" t="n">
-        <v>31447075</v>
+        <v>17425192</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2269114</v>
+        <v>2215917</v>
       </c>
       <c r="E49" t="n">
-        <v>12466900</v>
+        <v>12174626</v>
       </c>
       <c r="F49" t="n">
-        <v>273.1940203335547</v>
+        <v>70.82823677082341</v>
       </c>
       <c r="G49" t="n">
-        <v>978.6767711774939</v>
+        <v>1005.183747773258</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>75767</v>
+        <v>57843</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13527900</v>
+        <v>14006187</v>
       </c>
       <c r="E50" t="n">
-        <v>13573937</v>
+        <v>14053851</v>
       </c>
       <c r="F50" t="n">
-        <v>4425.581576885407</v>
+        <v>2881.153700339743</v>
       </c>
       <c r="G50" t="n">
-        <v>9629.669718025067</v>
+        <v>9010.108639274535</v>
       </c>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="I50" t="n">
-        <v>7424149</v>
+        <v>6734894</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19851987</v>
+        <v>20390850</v>
       </c>
       <c r="E51" t="n">
-        <v>59522096</v>
+        <v>61137307</v>
       </c>
       <c r="F51" t="n">
-        <v>576.4417308833417</v>
+        <v>22223.65362994372</v>
       </c>
       <c r="G51" t="n">
-        <v>12997.00611677302</v>
+        <v>11052.86162603749</v>
       </c>
       <c r="H51" t="n">
-        <v>1.5</v>
+        <v>0.23</v>
       </c>
       <c r="I51" t="n">
-        <v>4332446</v>
+        <v>3854906</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15666306</v>
+        <v>15756375</v>
       </c>
       <c r="E52" t="n">
-        <v>96023942</v>
+        <v>96576002</v>
       </c>
       <c r="F52" t="n">
-        <v>5330.296045698236</v>
+        <v>7010.17523362053</v>
       </c>
       <c r="G52" t="n">
-        <v>8274.494535382037</v>
+        <v>7658.383313798173</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I52" t="n">
-        <v>13037510</v>
+        <v>12382986</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>51044887</v>
+        <v>54770443</v>
       </c>
       <c r="E53" t="n">
-        <v>219895792</v>
+        <v>235945082</v>
       </c>
       <c r="F53" t="n">
-        <v>7877.709056382656</v>
+        <v>20200.86961972321</v>
       </c>
       <c r="G53" t="n">
-        <v>22723.44530448364</v>
+        <v>23185.65012900193</v>
       </c>
       <c r="H53" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I53" t="n">
-        <v>14996339</v>
+        <v>14318735</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1021240</v>
+        <v>1020961</v>
       </c>
       <c r="E54" t="n">
-        <v>2984907</v>
+        <v>2984091</v>
       </c>
       <c r="F54" t="n">
-        <v>337.3474906604451</v>
+        <v>234.2009239351419</v>
       </c>
       <c r="G54" t="n">
-        <v>1348.185446000718</v>
+        <v>740.906097493789</v>
       </c>
       <c r="H54" t="n">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="I54" t="n">
-        <v>12596.18</v>
+        <v>9092.629999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31528555</v>
+        <v>33196041</v>
       </c>
       <c r="E55" t="n">
-        <v>79499878</v>
+        <v>83704479</v>
       </c>
       <c r="F55" t="n">
-        <v>3779.951222755104</v>
+        <v>7840.364318662902</v>
       </c>
       <c r="G55" t="n">
-        <v>19772.62651897522</v>
+        <v>10429.54745313109</v>
       </c>
       <c r="H55" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>6475955</v>
+        <v>6201479</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28762710</v>
+        <v>29186697</v>
       </c>
       <c r="E56" t="n">
-        <v>68230481</v>
+        <v>69236256</v>
       </c>
       <c r="F56" t="n">
-        <v>1731.562334299217</v>
+        <v>10199.89516508193</v>
       </c>
       <c r="G56" t="n">
-        <v>5169.76745857483</v>
+        <v>9899.873868673549</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>783348</v>
+        <v>627697</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11911548</v>
+        <v>11745498</v>
       </c>
       <c r="E57" t="n">
-        <v>18110217</v>
+        <v>17857756</v>
       </c>
       <c r="F57" t="n">
-        <v>4084.568452228905</v>
+        <v>7075.459342770519</v>
       </c>
       <c r="G57" t="n">
-        <v>4167.833413863118</v>
+        <v>9297.277295589707</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I57" t="n">
-        <v>689492</v>
+        <v>764427</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>303261881</v>
+        <v>314868019</v>
       </c>
       <c r="E58" t="n">
-        <v>303261881</v>
+        <v>314868019</v>
       </c>
       <c r="F58" t="n">
-        <v>58466.63152185377</v>
+        <v>63766.43248651747</v>
       </c>
       <c r="G58" t="n">
-        <v>75606.35337110545</v>
+        <v>81169.51078506069</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>91522663</v>
+        <v>81716995</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11726931</v>
+        <v>11877233</v>
       </c>
       <c r="F59" t="n">
-        <v>142.7888418960148</v>
+        <v>65.05332614727159</v>
       </c>
       <c r="G59" t="n">
-        <v>84.12947249629492</v>
+        <v>445.5323905285727</v>
       </c>
       <c r="H59" t="n">
-        <v>0.95</v>
+        <v>1.28</v>
       </c>
       <c r="I59" t="n">
-        <v>64873</v>
+        <v>53801</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84365157</v>
+        <v>89627812</v>
       </c>
       <c r="E60" t="n">
-        <v>486148425</v>
+        <v>516474112</v>
       </c>
       <c r="F60" t="n">
-        <v>88483.09020668964</v>
+        <v>91990.39444641299</v>
       </c>
       <c r="G60" t="n">
-        <v>88382.94987804393</v>
+        <v>93143.85741646522</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I60" t="n">
-        <v>21013903</v>
+        <v>30300416</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9118116</v>
+        <v>9238501</v>
       </c>
       <c r="E61" t="n">
-        <v>9118116</v>
+        <v>9238501</v>
       </c>
       <c r="F61" t="n">
-        <v>676.3349849682534</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2016.862855073608</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>2994035</v>
+        <v>2289590</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30105325</v>
+        <v>31923996</v>
       </c>
       <c r="E62" t="n">
-        <v>134793890</v>
+        <v>142936824</v>
       </c>
       <c r="F62" t="n">
-        <v>16187.16073037307</v>
+        <v>27188.838817296</v>
       </c>
       <c r="G62" t="n">
-        <v>28408.11630724461</v>
+        <v>11078.8587039799</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>20062330</v>
+        <v>17609979</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12974479</v>
+        <v>12317252</v>
       </c>
       <c r="E63" t="n">
-        <v>25930768</v>
+        <v>24617236</v>
       </c>
       <c r="F63" t="n">
-        <v>2910.958314364347</v>
+        <v>2369.995830507087</v>
       </c>
       <c r="G63" t="n">
-        <v>1844.715146700527</v>
+        <v>156.5796768985115</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="I63" t="n">
-        <v>16523.76</v>
+        <v>28927</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1329250</v>
+        <v>1283068</v>
       </c>
       <c r="F64" t="n">
-        <v>113.6569577655853</v>
+        <v>72.43242133136486</v>
       </c>
       <c r="G64" t="n">
-        <v>133.7805508021783</v>
+        <v>0.4445838040849944</v>
       </c>
       <c r="H64" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="I64" t="n">
-        <v>93214</v>
+        <v>20248</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48303747</v>
+        <v>50679664</v>
       </c>
       <c r="E65" t="n">
-        <v>313236946</v>
+        <v>328644131</v>
       </c>
       <c r="F65" t="n">
-        <v>20163.3995387957</v>
+        <v>14517.57907556016</v>
       </c>
       <c r="G65" t="n">
-        <v>20092.79818076933</v>
+        <v>20690.33944169314</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I65" t="n">
-        <v>21811594</v>
+        <v>18944196</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4433305</v>
+        <v>4737201</v>
       </c>
       <c r="F66" t="n">
-        <v>141.4975959014166</v>
+        <v>10.28338538258457</v>
       </c>
       <c r="G66" t="n">
-        <v>1108.481264363983</v>
+        <v>72.61055484207044</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.29</v>
       </c>
       <c r="I66" t="n">
-        <v>222784</v>
+        <v>286490</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122917866</v>
+        <v>124004577</v>
       </c>
       <c r="E67" t="n">
-        <v>2035620537</v>
+        <v>2053617358</v>
       </c>
       <c r="F67" t="n">
-        <v>165891.422707581</v>
+        <v>164851.5413495685</v>
       </c>
       <c r="G67" t="n">
-        <v>165795.3999613197</v>
+        <v>163032.5095457802</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>77638821</v>
+        <v>117259664</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23078417</v>
+        <v>24260647</v>
       </c>
       <c r="E68" t="n">
-        <v>138082808</v>
+        <v>145156326</v>
       </c>
       <c r="F68" t="n">
-        <v>42229.82312145332</v>
+        <v>43858.4993137994</v>
       </c>
       <c r="G68" t="n">
-        <v>44441.15253888703</v>
+        <v>47493.65053947224</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>17742303</v>
+        <v>15879933</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22317572</v>
+        <v>23872956</v>
       </c>
       <c r="E70" t="n">
-        <v>22316957</v>
+        <v>23872956</v>
       </c>
       <c r="F70" t="n">
-        <v>3356.154569599564</v>
+        <v>4348.1496895766</v>
       </c>
       <c r="G70" t="n">
-        <v>13480.50464860666</v>
+        <v>14574.1352432017</v>
       </c>
       <c r="H70" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="I70" t="n">
-        <v>2102216</v>
+        <v>1782221</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32588519</v>
+        <v>35190678</v>
       </c>
       <c r="E71" t="n">
-        <v>162631734</v>
+        <v>175617704</v>
       </c>
       <c r="F71" t="n">
-        <v>19730.46883229172</v>
+        <v>19170.05559164533</v>
       </c>
       <c r="G71" t="n">
-        <v>49389.5513651239</v>
+        <v>34354.34598426957</v>
       </c>
       <c r="H71" t="n">
-        <v>0.61</v>
+        <v>1.13</v>
       </c>
       <c r="I71" t="n">
-        <v>13508230</v>
+        <v>10574882</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>155469</v>
+        <v>142818</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>44169</v>
+        <v>55113</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>304321548</v>
+        <v>303867902</v>
       </c>
       <c r="E73" t="n">
-        <v>563064264</v>
+        <v>562224915</v>
       </c>
       <c r="F73" t="n">
-        <v>36723.78819639803</v>
+        <v>52817.52374004044</v>
       </c>
       <c r="G73" t="n">
-        <v>38680.0130411002</v>
+        <v>59913.04852642915</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>27183678</v>
+        <v>25671749</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9716502</v>
+        <v>10240649</v>
       </c>
       <c r="E74" t="n">
-        <v>28804944</v>
+        <v>30353330</v>
       </c>
       <c r="F74" t="n">
-        <v>5455.958541594808</v>
+        <v>5843.34622287495</v>
       </c>
       <c r="G74" t="n">
-        <v>6792.465543810479</v>
+        <v>6658.753660502663</v>
       </c>
       <c r="H74" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
-        <v>6591524</v>
+        <v>6006634</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8282321</v>
+        <v>8681160</v>
       </c>
       <c r="E75" t="n">
-        <v>11800409</v>
+        <v>12367366</v>
       </c>
       <c r="F75" t="n">
-        <v>483.734573823803</v>
+        <v>431.753085150207</v>
       </c>
       <c r="G75" t="n">
-        <v>4361.377763258266</v>
+        <v>3261.718416890788</v>
       </c>
       <c r="H75" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="I75" t="n">
-        <v>196152</v>
+        <v>253610</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15916947</v>
+        <v>16047884</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2867605558979349</v>
+        <v>51.24407070996821</v>
       </c>
       <c r="G76" t="n">
-        <v>1130.333693837893</v>
+        <v>915.2802173036714</v>
       </c>
       <c r="H76" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="I76" t="n">
-        <v>1180544</v>
+        <v>1192360</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73105985</v>
+        <v>73239794</v>
       </c>
       <c r="E77" t="n">
-        <v>101222320</v>
+        <v>101399281</v>
       </c>
       <c r="F77" t="n">
-        <v>7508.472898377903</v>
+        <v>8465.938716550692</v>
       </c>
       <c r="G77" t="n">
-        <v>19774.86723961698</v>
+        <v>17740.23582240161</v>
       </c>
       <c r="H77" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I77" t="n">
-        <v>6885309</v>
+        <v>5693424</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5865638</v>
+        <v>6112269</v>
       </c>
       <c r="E78" t="n">
-        <v>5865638</v>
+        <v>6112269</v>
       </c>
       <c r="F78" t="n">
-        <v>557.9385935056489</v>
+        <v>3291.508292373916</v>
       </c>
       <c r="G78" t="n">
-        <v>133.0164143520112</v>
+        <v>286.6492575435521</v>
       </c>
       <c r="H78" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="I78" t="n">
-        <v>1427160</v>
+        <v>1162994</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53431</v>
+        <v>58947</v>
       </c>
       <c r="E79" t="n">
-        <v>278780</v>
+        <v>307563</v>
       </c>
       <c r="F79" t="n">
-        <v>294.4362285562038</v>
+        <v>579.4674983548315</v>
       </c>
       <c r="G79" t="n">
-        <v>97.4494783300816</v>
+        <v>50.91036736657612</v>
       </c>
       <c r="H79" t="n">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="I79" t="n">
-        <v>182578</v>
+        <v>148349</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25720074</v>
+        <v>26530633</v>
       </c>
       <c r="F80" t="n">
-        <v>775.1080631281728</v>
+        <v>912.3467191642073</v>
       </c>
       <c r="G80" t="n">
-        <v>5387.285588871056</v>
+        <v>458.8120806126169</v>
       </c>
       <c r="H80" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="I80" t="n">
-        <v>52087</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>582783872</v>
+        <v>603652203</v>
       </c>
       <c r="E81" t="n">
-        <v>2257035953</v>
+        <v>2337855921</v>
       </c>
       <c r="F81" t="n">
-        <v>171659.8012793033</v>
+        <v>188380.696648788</v>
       </c>
       <c r="G81" t="n">
-        <v>290871.1287967298</v>
+        <v>299894.6268843798</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>61958497</v>
+        <v>41188766</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6951432</v>
+        <v>7141732</v>
       </c>
       <c r="E82" t="n">
-        <v>9959014</v>
+        <v>10231368</v>
       </c>
       <c r="F82" t="n">
-        <v>923.7749880932006</v>
+        <v>2112.176744658082</v>
       </c>
       <c r="G82" t="n">
-        <v>815.0191578547042</v>
+        <v>1032.524741567641</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I82" t="n">
-        <v>154592</v>
+        <v>148282</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>107762078</v>
+        <v>110273106</v>
       </c>
       <c r="E83" t="n">
-        <v>1019619216</v>
+        <v>1043377967</v>
       </c>
       <c r="F83" t="n">
-        <v>28742.65465143552</v>
+        <v>33851.87960681118</v>
       </c>
       <c r="G83" t="n">
-        <v>21606.73743537614</v>
+        <v>24132.47671869062</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I83" t="n">
-        <v>17991148</v>
+        <v>16637501</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1062210</v>
+        <v>1068225</v>
       </c>
       <c r="E84" t="n">
-        <v>4113107</v>
+        <v>4136402</v>
       </c>
       <c r="F84" t="n">
-        <v>760.5587949641639</v>
+        <v>801.1309932898137</v>
       </c>
       <c r="G84" t="n">
-        <v>354.3371554759549</v>
+        <v>316.928893475007</v>
       </c>
       <c r="H84" t="n">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="I84" t="n">
-        <v>270924</v>
+        <v>144453</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123143156</v>
+        <v>128546775</v>
       </c>
       <c r="E85" t="n">
-        <v>472396969</v>
+        <v>493126118</v>
       </c>
       <c r="F85" t="n">
-        <v>78799.04539629754</v>
+        <v>67026.54177323791</v>
       </c>
       <c r="G85" t="n">
-        <v>86496.29364857577</v>
+        <v>78315.00667239282</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="I85" t="n">
-        <v>30862725</v>
+        <v>22561241</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5193328</v>
+        <v>5233511</v>
       </c>
       <c r="E86" t="n">
-        <v>19298503</v>
+        <v>19407297</v>
       </c>
       <c r="F86" t="n">
-        <v>538.4776229671695</v>
+        <v>2671.087161934754</v>
       </c>
       <c r="G86" t="n">
-        <v>1177.747376741895</v>
+        <v>5411.737821713995</v>
       </c>
       <c r="H86" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>132651</v>
+        <v>126371</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>42266064</v>
+        <v>35983652</v>
       </c>
       <c r="F87" t="n">
-        <v>4343.598705422428</v>
+        <v>2085.30126675524</v>
       </c>
       <c r="G87" t="n">
-        <v>2189.872335445884</v>
+        <v>2045.759758228117</v>
       </c>
       <c r="H87" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I87" t="n">
-        <v>12018781</v>
+        <v>15547094</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>31730136</v>
+        <v>29388682</v>
       </c>
       <c r="F88" t="n">
-        <v>1004.361535177244</v>
+        <v>930.6044996494749</v>
       </c>
       <c r="G88" t="n">
-        <v>988.4360902921718</v>
+        <v>842.2963386615579</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I88" t="n">
-        <v>94953</v>
+        <v>115636</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>92050397</v>
+        <v>98130126</v>
       </c>
       <c r="E89" t="n">
-        <v>340243039</v>
+        <v>362692557</v>
       </c>
       <c r="F89" t="n">
-        <v>1126.684089685947</v>
+        <v>1157.698633749606</v>
       </c>
       <c r="G89" t="n">
-        <v>1384.450340536059</v>
+        <v>1118.504623563332</v>
       </c>
       <c r="H89" t="n">
-        <v>0.43</v>
+        <v>1.97</v>
       </c>
       <c r="I89" t="n">
-        <v>333844</v>
+        <v>838255</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19454285</v>
+        <v>19639394</v>
       </c>
       <c r="E90" t="n">
-        <v>19454285</v>
+        <v>19639394</v>
       </c>
       <c r="F90" t="n">
-        <v>3423.976599007607</v>
+        <v>3133.888895964517</v>
       </c>
       <c r="G90" t="n">
-        <v>2453.095887196033</v>
+        <v>4395.07128522391</v>
       </c>
       <c r="H90" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="I90" t="n">
-        <v>7441278</v>
+        <v>7404411</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3802005</v>
+        <v>3800398</v>
       </c>
       <c r="E91" t="n">
-        <v>8287838</v>
+        <v>8276265</v>
       </c>
       <c r="F91" t="n">
-        <v>1931.152441034042</v>
+        <v>1860.709661489519</v>
       </c>
       <c r="G91" t="n">
-        <v>1131.810643579094</v>
+        <v>1042.336441323444</v>
       </c>
       <c r="H91" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>2262788</v>
+        <v>2436480</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>467838418</v>
+        <v>479100467</v>
       </c>
       <c r="E92" t="n">
-        <v>1627681230</v>
+        <v>1666863618</v>
       </c>
       <c r="F92" t="n">
-        <v>164274.7028940763</v>
+        <v>161992.1832733575</v>
       </c>
       <c r="G92" t="n">
-        <v>166483.995440304</v>
+        <v>115419.8360505312</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>49233636</v>
+        <v>39039043</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2267246</v>
+        <v>2308913</v>
       </c>
       <c r="E93" t="n">
-        <v>9068984</v>
+        <v>9235652</v>
       </c>
       <c r="F93" t="n">
-        <v>1157.723989498106</v>
+        <v>1689.673450533667</v>
       </c>
       <c r="G93" t="n">
-        <v>844.1747466662457</v>
+        <v>2201.100022577667</v>
       </c>
       <c r="H93" t="n">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="I93" t="n">
-        <v>8275330</v>
+        <v>8330090</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>211563778</v>
+        <v>216688827</v>
       </c>
       <c r="E94" t="n">
-        <v>650479001</v>
+        <v>666236600</v>
       </c>
       <c r="F94" t="n">
-        <v>94808.89162755906</v>
+        <v>92488.32570101311</v>
       </c>
       <c r="G94" t="n">
-        <v>95780.94115757479</v>
+        <v>102384.1630412149</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>19995371</v>
+        <v>15889332</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>139354684</v>
+        <v>140416091</v>
       </c>
       <c r="E95" t="n">
-        <v>364060246</v>
+        <v>366833142</v>
       </c>
       <c r="F95" t="n">
-        <v>31303.93718218932</v>
+        <v>25876.25404795321</v>
       </c>
       <c r="G95" t="n">
-        <v>32669.94968054275</v>
+        <v>31411.10303180317</v>
       </c>
       <c r="H95" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I95" t="n">
-        <v>7162265</v>
+        <v>4854818</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>381616952</v>
+        <v>395034991</v>
       </c>
       <c r="E96" t="n">
-        <v>2180668295</v>
+        <v>2257342805</v>
       </c>
       <c r="F96" t="n">
-        <v>20511.73726520463</v>
+        <v>27800.22908372399</v>
       </c>
       <c r="G96" t="n">
-        <v>38877.2624858097</v>
+        <v>37940.53659554756</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>64021911</v>
+        <v>55318213</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>632702572</v>
+        <v>618968955</v>
       </c>
       <c r="E2" t="n">
-        <v>1227969346</v>
+        <v>1201326317</v>
       </c>
       <c r="F2" t="n">
-        <v>14862.56402591824</v>
+        <v>16656.32149155774</v>
       </c>
       <c r="G2" t="n">
-        <v>36893.70162510276</v>
+        <v>36958.21363367097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>34757851</v>
+        <v>18228029</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1427322</v>
+        <v>1394266</v>
       </c>
       <c r="E3" t="n">
-        <v>4613691</v>
+        <v>4506839</v>
       </c>
       <c r="F3" t="n">
-        <v>485.1384889327261</v>
+        <v>4711.835587140964</v>
       </c>
       <c r="G3" t="n">
-        <v>3873.861305574213</v>
+        <v>10195.61417089737</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>575284</v>
+        <v>564729</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>265935519</v>
+        <v>261443719</v>
       </c>
       <c r="E4" t="n">
-        <v>1667644259</v>
+        <v>1639476811</v>
       </c>
       <c r="F4" t="n">
-        <v>155548.0934114645</v>
+        <v>146896.4160215654</v>
       </c>
       <c r="G4" t="n">
-        <v>160057.7783624107</v>
+        <v>147938.4108231318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>28076632</v>
+        <v>22388544</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148758722</v>
+        <v>148483211</v>
       </c>
       <c r="E5" t="n">
-        <v>164847912</v>
+        <v>164542603</v>
       </c>
       <c r="F5" t="n">
-        <v>7387.66293197546</v>
+        <v>7042.143748837651</v>
       </c>
       <c r="G5" t="n">
-        <v>8781.591132027012</v>
+        <v>9116.062088574336</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>39724056</v>
+        <v>32459831</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>706821</v>
+        <v>703240</v>
       </c>
       <c r="E6" t="n">
-        <v>13718860</v>
+        <v>13649368</v>
       </c>
       <c r="F6" t="n">
-        <v>706.883952651636</v>
+        <v>583.0825531499407</v>
       </c>
       <c r="G6" t="n">
-        <v>171.2193265850622</v>
+        <v>194.6147846680975</v>
       </c>
       <c r="H6" t="n">
         <v>0.58</v>
       </c>
       <c r="I6" t="n">
-        <v>25963</v>
+        <v>19452.42</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>516257464</v>
+        <v>498288373</v>
       </c>
       <c r="E7" t="n">
-        <v>516257468</v>
+        <v>498288378</v>
       </c>
       <c r="F7" t="n">
-        <v>41713.90216915659</v>
+        <v>55667.82963992307</v>
       </c>
       <c r="G7" t="n">
-        <v>55650.52482555038</v>
+        <v>44177.44410644691</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>52222291</v>
+        <v>34033502</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4690374</v>
+        <v>4648065</v>
       </c>
       <c r="E8" t="n">
-        <v>4690374</v>
+        <v>4648065</v>
       </c>
       <c r="F8" t="n">
-        <v>956.1074831954429</v>
+        <v>1152.105944489166</v>
       </c>
       <c r="G8" t="n">
-        <v>1869.057799007995</v>
+        <v>1905.424968685372</v>
       </c>
       <c r="H8" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>2046825</v>
+        <v>1871870</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1961425</v>
+        <v>1996380</v>
       </c>
       <c r="F9" t="n">
-        <v>951.006312623955</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8109.449457835502</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.54</v>
+        <v>4.14</v>
       </c>
       <c r="I9" t="n">
-        <v>342911</v>
+        <v>158152</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1768589</v>
+        <v>1789506</v>
       </c>
       <c r="F10" t="n">
-        <v>58.71455126494853</v>
+        <v>453.1375750642626</v>
       </c>
       <c r="G10" t="n">
-        <v>83.23645914690097</v>
+        <v>431.5243916710944</v>
       </c>
       <c r="H10" t="n">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1077639</v>
+        <v>933876</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108053064</v>
+        <v>107463953</v>
       </c>
       <c r="E11" t="n">
-        <v>203559163</v>
+        <v>202449348</v>
       </c>
       <c r="F11" t="n">
-        <v>1516.173102504815</v>
+        <v>1676.538647385263</v>
       </c>
       <c r="G11" t="n">
-        <v>1525.078157669124</v>
+        <v>2535.062531094702</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I11" t="n">
-        <v>4127679</v>
+        <v>4104960</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12015294</v>
+        <v>12013433</v>
       </c>
       <c r="E12" t="n">
-        <v>29903895</v>
+        <v>29899262</v>
       </c>
       <c r="F12" t="n">
-        <v>560.7077045456015</v>
+        <v>502.5386788975796</v>
       </c>
       <c r="G12" t="n">
-        <v>90.57479081298418</v>
+        <v>1076.885852785744</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="I12" t="n">
-        <v>1527236</v>
+        <v>1520576</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118015963</v>
+        <v>115636571</v>
       </c>
       <c r="E13" t="n">
-        <v>458245860</v>
+        <v>448737538</v>
       </c>
       <c r="F13" t="n">
-        <v>12293.19621441001</v>
+        <v>21147.98716609612</v>
       </c>
       <c r="G13" t="n">
-        <v>26249.37619734241</v>
+        <v>24330.78136898971</v>
       </c>
       <c r="H13" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9761695</v>
+        <v>7239719</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4813336</v>
+        <v>4999017</v>
       </c>
       <c r="E14" t="n">
-        <v>7085491</v>
+        <v>7358824</v>
       </c>
       <c r="F14" t="n">
-        <v>112.1764104822431</v>
+        <v>274.0788640183138</v>
       </c>
       <c r="G14" t="n">
-        <v>247.8403913267195</v>
+        <v>95.74436921617286</v>
       </c>
       <c r="H14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I14" t="n">
-        <v>715248</v>
+        <v>753248</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>154051203</v>
+        <v>150582867</v>
       </c>
       <c r="E15" t="n">
-        <v>154051203</v>
+        <v>150582867</v>
       </c>
       <c r="F15" t="n">
-        <v>43486.51303403116</v>
+        <v>53935.46979111058</v>
       </c>
       <c r="G15" t="n">
-        <v>84498.50091749417</v>
+        <v>75486.56472287404</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>101655640</v>
+        <v>97958448</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69003001</v>
+        <v>73022019</v>
       </c>
       <c r="E16" t="n">
-        <v>353861546</v>
+        <v>374471891</v>
       </c>
       <c r="F16" t="n">
-        <v>12338.3734186322</v>
+        <v>15344.95782873</v>
       </c>
       <c r="G16" t="n">
-        <v>20345.22422797347</v>
+        <v>14889.64241108989</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>17741539</v>
+        <v>40396793</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>265361137</v>
+        <v>260433158</v>
       </c>
       <c r="E17" t="n">
-        <v>265361137</v>
+        <v>260433158</v>
       </c>
       <c r="F17" t="n">
-        <v>58989.44208384475</v>
+        <v>68067.8921045928</v>
       </c>
       <c r="G17" t="n">
-        <v>47838.95367629098</v>
+        <v>54523.84425962543</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>22723464</v>
+        <v>14788558</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2695600</v>
+        <v>2749449</v>
       </c>
       <c r="E18" t="n">
-        <v>6891520</v>
+        <v>7029188</v>
       </c>
       <c r="F18" t="n">
-        <v>446.9043625484745</v>
+        <v>230.8638700809867</v>
       </c>
       <c r="G18" t="n">
-        <v>1087.514838502174</v>
+        <v>1059.454667209001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>86817</v>
+        <v>96877</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>86311582</v>
+        <v>80029551</v>
       </c>
       <c r="E19" t="n">
-        <v>241497106</v>
+        <v>223939300</v>
       </c>
       <c r="F19" t="n">
-        <v>14675.76761579677</v>
+        <v>14937.32120475628</v>
       </c>
       <c r="G19" t="n">
-        <v>23605.28521295348</v>
+        <v>25895.80073041691</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>44869386</v>
+        <v>27297646</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1651695</v>
+        <v>1646419</v>
       </c>
       <c r="E20" t="n">
-        <v>9483416</v>
+        <v>9453122</v>
       </c>
       <c r="F20" t="n">
-        <v>492.4788432981238</v>
+        <v>459.1957655109793</v>
       </c>
       <c r="G20" t="n">
-        <v>742.2831720798076</v>
+        <v>396.5982563447653</v>
       </c>
       <c r="H20" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="I20" t="n">
-        <v>289178</v>
+        <v>236251</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>182483</v>
+        <v>169967</v>
       </c>
       <c r="E21" t="n">
-        <v>1232330</v>
+        <v>1147805</v>
       </c>
       <c r="F21" t="n">
-        <v>2200.376641739986</v>
+        <v>6.655816079295254</v>
       </c>
       <c r="G21" t="n">
-        <v>7.449226769242667</v>
+        <v>6.62962760154611</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>1.27</v>
       </c>
       <c r="I21" t="n">
-        <v>3496350</v>
+        <v>2838254</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>235978</v>
+        <v>244694</v>
       </c>
       <c r="F22" t="n">
-        <v>33.09767827190273</v>
+        <v>5.237786564625677</v>
       </c>
       <c r="G22" t="n">
-        <v>64.51790265242077</v>
+        <v>90.08237968420062</v>
       </c>
       <c r="H22" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5610.44</v>
+        <v>5177.48</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92849220</v>
+        <v>87897111</v>
       </c>
       <c r="E23" t="n">
-        <v>193583167</v>
+        <v>186622970</v>
       </c>
       <c r="F23" t="n">
-        <v>10181.33269230142</v>
+        <v>8389.988165743203</v>
       </c>
       <c r="G23" t="n">
-        <v>44459.16596288218</v>
+        <v>50010.92804215235</v>
       </c>
       <c r="H23" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>50365836</v>
+        <v>37323196</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197590394</v>
+        <v>202468777</v>
       </c>
       <c r="E24" t="n">
-        <v>686446887</v>
+        <v>703394829</v>
       </c>
       <c r="F24" t="n">
-        <v>63638.42734016638</v>
+        <v>53236.59397917576</v>
       </c>
       <c r="G24" t="n">
-        <v>62637.21118285623</v>
+        <v>62954.74808847846</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>31744659</v>
+        <v>29138641</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>120353468</v>
+        <v>121135348</v>
       </c>
       <c r="E25" t="n">
-        <v>509481892</v>
+        <v>512236234</v>
       </c>
       <c r="F25" t="n">
-        <v>17653.01398927943</v>
+        <v>15991.53922837649</v>
       </c>
       <c r="G25" t="n">
-        <v>17731.85833056849</v>
+        <v>18069.91463522764</v>
       </c>
       <c r="H25" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I25" t="n">
-        <v>12966882</v>
+        <v>16495357</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5559414</v>
+        <v>5536338</v>
       </c>
       <c r="E26" t="n">
-        <v>7542722</v>
+        <v>7510226</v>
       </c>
       <c r="F26" t="n">
-        <v>784.2808890287661</v>
+        <v>1099.141634756238</v>
       </c>
       <c r="G26" t="n">
-        <v>805.2446296325677</v>
+        <v>545.7094536937141</v>
       </c>
       <c r="H26" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>5617620</v>
+        <v>5104326</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>567415</v>
+        <v>555926</v>
       </c>
       <c r="E27" t="n">
-        <v>6882196</v>
+        <v>6742837</v>
       </c>
       <c r="F27" t="n">
-        <v>906.9243023045241</v>
+        <v>1276.511368506553</v>
       </c>
       <c r="G27" t="n">
-        <v>616.7320638295919</v>
+        <v>35.05988307117232</v>
       </c>
       <c r="H27" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3230414</v>
+        <v>2785205</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25332876</v>
+        <v>24678562</v>
       </c>
       <c r="E28" t="n">
-        <v>35791906</v>
+        <v>34867450</v>
       </c>
       <c r="F28" t="n">
-        <v>521.1480448967126</v>
+        <v>138.3392663375338</v>
       </c>
       <c r="G28" t="n">
-        <v>570.3560682786348</v>
+        <v>800.9206364853726</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>0.96</v>
       </c>
       <c r="I28" t="n">
-        <v>177106</v>
+        <v>67785</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1439906155</v>
+        <v>1373856789</v>
       </c>
       <c r="E29" t="n">
-        <v>6904644897</v>
+        <v>6587924661</v>
       </c>
       <c r="F29" t="n">
-        <v>110907.416163927</v>
+        <v>136586.1847537607</v>
       </c>
       <c r="G29" t="n">
-        <v>176653.7240472994</v>
+        <v>211639.5728043342</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>400634545</v>
+        <v>202640253</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>273872879</v>
+        <v>268062489</v>
       </c>
       <c r="E30" t="n">
-        <v>1182187382</v>
+        <v>1157106516</v>
       </c>
       <c r="F30" t="n">
-        <v>134888.1385779337</v>
+        <v>152235.7199169811</v>
       </c>
       <c r="G30" t="n">
-        <v>164775.6143755415</v>
+        <v>160689.3304035054</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>91561938</v>
+        <v>70140999</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5343428</v>
+        <v>5339754</v>
       </c>
       <c r="E31" t="n">
-        <v>5349476</v>
+        <v>5345797</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0162922881607</v>
+        <v>172.6990123182113</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3437796888701</v>
+        <v>72.68659160661907</v>
       </c>
       <c r="H31" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>141248</v>
+        <v>143167</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16160464</v>
+        <v>16179007</v>
       </c>
       <c r="E32" t="n">
-        <v>40401159</v>
+        <v>40447518</v>
       </c>
       <c r="F32" t="n">
-        <v>2059.262241440944</v>
+        <v>3142.324254248505</v>
       </c>
       <c r="G32" t="n">
-        <v>4720.516003000437</v>
+        <v>3588.366647670974</v>
       </c>
       <c r="H32" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="I32" t="n">
-        <v>4610913</v>
+        <v>2368482</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18781807</v>
+        <v>18580932</v>
       </c>
       <c r="F33" t="n">
-        <v>1277.865838132134</v>
+        <v>1390.925677100312</v>
       </c>
       <c r="G33" t="n">
-        <v>3400.513646375799</v>
+        <v>1761.107286599973</v>
       </c>
       <c r="H33" t="n">
         <v>1.06</v>
       </c>
       <c r="I33" t="n">
-        <v>66083</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4081982</v>
+        <v>4434829</v>
       </c>
       <c r="E34" t="n">
-        <v>11755163</v>
+        <v>12771427</v>
       </c>
       <c r="F34" t="n">
-        <v>1387.775583187607</v>
+        <v>1765.090268157134</v>
       </c>
       <c r="G34" t="n">
-        <v>1256.615105283284</v>
+        <v>328.5814441027882</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="I34" t="n">
-        <v>375300</v>
+        <v>453666</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1632471</v>
+        <v>1584771</v>
       </c>
       <c r="F35" t="n">
-        <v>58.26978826739143</v>
+        <v>42.67849471274173</v>
       </c>
       <c r="G35" t="n">
-        <v>235.2637274868611</v>
+        <v>75.01736439881184</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>6598.22</v>
+        <v>5567.06</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15337856</v>
+        <v>14501669</v>
       </c>
       <c r="E36" t="n">
-        <v>74283686</v>
+        <v>70233898</v>
       </c>
       <c r="F36" t="n">
-        <v>1943.71906795781</v>
+        <v>6360.774230503717</v>
       </c>
       <c r="G36" t="n">
-        <v>9134.132445823416</v>
+        <v>5958.902237459519</v>
       </c>
       <c r="H36" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I36" t="n">
-        <v>4203413</v>
+        <v>3451876</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1229671</v>
+        <v>1360532</v>
       </c>
       <c r="E37" t="n">
-        <v>8048164</v>
+        <v>8904643</v>
       </c>
       <c r="F37" t="n">
-        <v>52.03553537739634</v>
+        <v>8.019313788128803</v>
       </c>
       <c r="G37" t="n">
-        <v>348.2204895413755</v>
+        <v>851.9560338717848</v>
       </c>
       <c r="H37" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="I37" t="n">
-        <v>209370</v>
+        <v>739197</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1842514531</v>
+        <v>1873571315</v>
       </c>
       <c r="F38" t="n">
-        <v>74093.42489625663</v>
+        <v>70130.952069267</v>
       </c>
       <c r="G38" t="n">
-        <v>73453.291755816</v>
+        <v>73671.09806247233</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I38" t="n">
-        <v>30503791</v>
+        <v>26556843</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28815561</v>
+        <v>31459948</v>
       </c>
       <c r="E39" t="n">
-        <v>89722411</v>
+        <v>97956183</v>
       </c>
       <c r="F39" t="n">
-        <v>7172.752273302296</v>
+        <v>3550.909938539003</v>
       </c>
       <c r="G39" t="n">
-        <v>4683.675480318957</v>
+        <v>7662.649552037454</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="I39" t="n">
-        <v>11434279</v>
+        <v>10324430</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200824695</v>
+        <v>199755828</v>
       </c>
       <c r="E40" t="n">
-        <v>1137192818</v>
+        <v>1131140238</v>
       </c>
       <c r="F40" t="n">
-        <v>43052.95674522054</v>
+        <v>39206.12908003284</v>
       </c>
       <c r="G40" t="n">
-        <v>81205.3196340663</v>
+        <v>88970.78312471014</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>55259721</v>
+        <v>38251677</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>134083280</v>
+        <v>131748519</v>
       </c>
       <c r="E41" t="n">
-        <v>993209481</v>
+        <v>975914955</v>
       </c>
       <c r="F41" t="n">
-        <v>106463.0761215059</v>
+        <v>95643.43009038789</v>
       </c>
       <c r="G41" t="n">
-        <v>181163.7613874084</v>
+        <v>208775.7823903985</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>29419216</v>
+        <v>8027435</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30465339</v>
+        <v>30428073</v>
       </c>
       <c r="E42" t="n">
-        <v>144310434</v>
+        <v>144127174</v>
       </c>
       <c r="F42" t="n">
-        <v>8022.938940260541</v>
+        <v>7077.298129272301</v>
       </c>
       <c r="G42" t="n">
-        <v>4788.981175356247</v>
+        <v>8325.101903469198</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
       </c>
       <c r="I42" t="n">
-        <v>445111</v>
+        <v>371809</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3290882</v>
+        <v>3250883</v>
       </c>
       <c r="E43" t="n">
-        <v>7684757</v>
+        <v>7591353</v>
       </c>
       <c r="F43" t="n">
-        <v>1600.258800554465</v>
+        <v>1705.605216017325</v>
       </c>
       <c r="G43" t="n">
-        <v>1461.34443411954</v>
+        <v>2265.356640968897</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="I43" t="n">
-        <v>450624</v>
+        <v>269367</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>329577245</v>
+        <v>327089171</v>
       </c>
       <c r="E44" t="n">
-        <v>2965081263</v>
+        <v>2942697005</v>
       </c>
       <c r="F44" t="n">
-        <v>44395.74769417076</v>
+        <v>45195.9205163695</v>
       </c>
       <c r="G44" t="n">
-        <v>57218.8281812221</v>
+        <v>52318.67205250255</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>56986695</v>
+        <v>37346877</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>621243</v>
+        <v>620127</v>
       </c>
       <c r="F45" t="n">
-        <v>749.2504936355614</v>
+        <v>500.7729032799976</v>
       </c>
       <c r="G45" t="n">
-        <v>621.3697887181219</v>
+        <v>786.8865611132353</v>
       </c>
       <c r="H45" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>12266.37</v>
+        <v>16023.95</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1541288</v>
+        <v>1556300</v>
       </c>
       <c r="E46" t="n">
-        <v>12844063</v>
+        <v>12969164</v>
       </c>
       <c r="F46" t="n">
-        <v>214.6300731582191</v>
+        <v>180.6200873960915</v>
       </c>
       <c r="G46" t="n">
-        <v>1116.756677239944</v>
+        <v>1190.653191597503</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I46" t="n">
-        <v>50779</v>
+        <v>49311</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4857111</v>
+        <v>4943978</v>
       </c>
       <c r="E47" t="n">
-        <v>17159355</v>
+        <v>17465928</v>
       </c>
       <c r="F47" t="n">
-        <v>1279.052504902593</v>
+        <v>1336.416225898724</v>
       </c>
       <c r="G47" t="n">
-        <v>691.1569435769202</v>
+        <v>1267.241324373422</v>
       </c>
       <c r="H47" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>167853</v>
+        <v>148442</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50771477</v>
+        <v>52445174</v>
       </c>
       <c r="E48" t="n">
-        <v>293945875</v>
+        <v>303635890</v>
       </c>
       <c r="F48" t="n">
-        <v>15074.85818317244</v>
+        <v>18685.92391836857</v>
       </c>
       <c r="G48" t="n">
-        <v>12846.61238479872</v>
+        <v>16053.89474240889</v>
       </c>
       <c r="H48" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="n">
-        <v>17425192</v>
+        <v>11950925</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2215917</v>
+        <v>2348720</v>
       </c>
       <c r="E49" t="n">
-        <v>12174626</v>
+        <v>12904273</v>
       </c>
       <c r="F49" t="n">
-        <v>70.82823677082341</v>
+        <v>137.7791412718353</v>
       </c>
       <c r="G49" t="n">
-        <v>1005.183747773258</v>
+        <v>254.8410603167731</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="I49" t="n">
-        <v>57843</v>
+        <v>77749</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14006187</v>
+        <v>16056663</v>
       </c>
       <c r="E50" t="n">
-        <v>14053851</v>
+        <v>16111306</v>
       </c>
       <c r="F50" t="n">
-        <v>2881.153700339743</v>
+        <v>9624.747383142892</v>
       </c>
       <c r="G50" t="n">
-        <v>9010.108639274535</v>
+        <v>5506.872633910383</v>
       </c>
       <c r="H50" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="I50" t="n">
-        <v>6734894</v>
+        <v>7921992</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20390850</v>
+        <v>20634309</v>
       </c>
       <c r="E51" t="n">
-        <v>61137307</v>
+        <v>60707994</v>
       </c>
       <c r="F51" t="n">
-        <v>22223.65362994372</v>
+        <v>8691.110979594174</v>
       </c>
       <c r="G51" t="n">
-        <v>11052.86162603749</v>
+        <v>24172.87068971211</v>
       </c>
       <c r="H51" t="n">
-        <v>0.23</v>
+        <v>0.57</v>
       </c>
       <c r="I51" t="n">
-        <v>3854906</v>
+        <v>2544502</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15756375</v>
+        <v>15022751</v>
       </c>
       <c r="E52" t="n">
-        <v>96576002</v>
+        <v>92079383</v>
       </c>
       <c r="F52" t="n">
-        <v>7010.17523362053</v>
+        <v>5773.105184267104</v>
       </c>
       <c r="G52" t="n">
-        <v>7658.383313798173</v>
+        <v>7288.191450521303</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>12382986</v>
+        <v>11809610</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>54770443</v>
+        <v>49697394</v>
       </c>
       <c r="E53" t="n">
-        <v>235945082</v>
+        <v>214090937</v>
       </c>
       <c r="F53" t="n">
-        <v>20200.86961972321</v>
+        <v>19269.15348742051</v>
       </c>
       <c r="G53" t="n">
-        <v>23185.65012900193</v>
+        <v>23075.94169588927</v>
       </c>
       <c r="H53" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>14318735</v>
+        <v>13288843</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1020961</v>
+        <v>1008139</v>
       </c>
       <c r="E54" t="n">
-        <v>2984091</v>
+        <v>2946617</v>
       </c>
       <c r="F54" t="n">
-        <v>234.2009239351419</v>
+        <v>237.0117985574029</v>
       </c>
       <c r="G54" t="n">
-        <v>740.906097493789</v>
+        <v>1995.488253233066</v>
       </c>
       <c r="H54" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>9092.629999999999</v>
+        <v>6112.01</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>33196041</v>
+        <v>32500959</v>
       </c>
       <c r="E55" t="n">
-        <v>83704479</v>
+        <v>81951815</v>
       </c>
       <c r="F55" t="n">
-        <v>7840.364318662902</v>
+        <v>2891.694182785548</v>
       </c>
       <c r="G55" t="n">
-        <v>10429.54745313109</v>
+        <v>15875.87931352281</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>1.14</v>
       </c>
       <c r="I55" t="n">
-        <v>6201479</v>
+        <v>2899278</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29186697</v>
+        <v>28338380</v>
       </c>
       <c r="E56" t="n">
-        <v>69236256</v>
+        <v>67223891</v>
       </c>
       <c r="F56" t="n">
-        <v>10199.89516508193</v>
+        <v>7966.380936252325</v>
       </c>
       <c r="G56" t="n">
-        <v>9899.873868673549</v>
+        <v>11052.04902328399</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>627697</v>
+        <v>494327</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11745498</v>
+        <v>11874985</v>
       </c>
       <c r="E57" t="n">
-        <v>17857756</v>
+        <v>18032924</v>
       </c>
       <c r="F57" t="n">
-        <v>7075.459342770519</v>
+        <v>3613.399583647969</v>
       </c>
       <c r="G57" t="n">
-        <v>9297.277295589707</v>
+        <v>2339.18207187996</v>
       </c>
       <c r="H57" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I57" t="n">
-        <v>764427</v>
+        <v>723644</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>314868019</v>
+        <v>305454395</v>
       </c>
       <c r="E58" t="n">
-        <v>314868019</v>
+        <v>305454395</v>
       </c>
       <c r="F58" t="n">
-        <v>63766.43248651747</v>
+        <v>75243.42408932447</v>
       </c>
       <c r="G58" t="n">
-        <v>81169.51078506069</v>
+        <v>66135.82766800685</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>81716995</v>
+        <v>71639227</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11877233</v>
+        <v>11890435</v>
       </c>
       <c r="F59" t="n">
-        <v>65.05332614727159</v>
+        <v>26.6061616566132</v>
       </c>
       <c r="G59" t="n">
-        <v>445.5323905285727</v>
+        <v>461.8147963156507</v>
       </c>
       <c r="H59" t="n">
-        <v>1.28</v>
+        <v>3.17</v>
       </c>
       <c r="I59" t="n">
-        <v>53801</v>
+        <v>27577</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89627812</v>
+        <v>90371424</v>
       </c>
       <c r="E60" t="n">
-        <v>516474112</v>
+        <v>520759125</v>
       </c>
       <c r="F60" t="n">
-        <v>91990.39444641299</v>
+        <v>99492.73691957693</v>
       </c>
       <c r="G60" t="n">
-        <v>93143.85741646522</v>
+        <v>97290.80931796526</v>
       </c>
       <c r="H60" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>30300416</v>
+        <v>28585594</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9238501</v>
+        <v>9303702</v>
       </c>
       <c r="E61" t="n">
-        <v>9238501</v>
+        <v>9303702</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>61.79056097176212</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1722.937833971844</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>2.26</v>
       </c>
       <c r="I61" t="n">
-        <v>2289590</v>
+        <v>2396015</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31923996</v>
+        <v>35215828</v>
       </c>
       <c r="E62" t="n">
-        <v>142936824</v>
+        <v>157675708</v>
       </c>
       <c r="F62" t="n">
-        <v>27188.838817296</v>
+        <v>10947.0412510144</v>
       </c>
       <c r="G62" t="n">
-        <v>11078.8587039799</v>
+        <v>19531.35665767654</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="I62" t="n">
-        <v>17609979</v>
+        <v>24977889</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12317252</v>
+        <v>11992469</v>
       </c>
       <c r="E63" t="n">
-        <v>24617236</v>
+        <v>23968126</v>
       </c>
       <c r="F63" t="n">
-        <v>2369.995830507087</v>
+        <v>2117.32234240324</v>
       </c>
       <c r="G63" t="n">
-        <v>156.5796768985115</v>
+        <v>1692.611595501388</v>
       </c>
       <c r="H63" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>28927</v>
+        <v>35602</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1283068</v>
+        <v>1285799</v>
       </c>
       <c r="F64" t="n">
-        <v>72.43242133136486</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4445838040849944</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.7</v>
+        <v>4.88</v>
       </c>
       <c r="I64" t="n">
-        <v>20248</v>
+        <v>29451</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50679664</v>
+        <v>50528223</v>
       </c>
       <c r="E65" t="n">
-        <v>328644131</v>
+        <v>327662077</v>
       </c>
       <c r="F65" t="n">
-        <v>14517.57907556016</v>
+        <v>25059.68407849183</v>
       </c>
       <c r="G65" t="n">
-        <v>20690.33944169314</v>
+        <v>21830.59064893324</v>
       </c>
       <c r="H65" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I65" t="n">
-        <v>18944196</v>
+        <v>17904778</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4737201</v>
+        <v>4720702</v>
       </c>
       <c r="F66" t="n">
-        <v>10.28338538258457</v>
+        <v>213.1260512484998</v>
       </c>
       <c r="G66" t="n">
-        <v>72.61055484207044</v>
+        <v>267.0113119685689</v>
       </c>
       <c r="H66" t="n">
-        <v>3.29</v>
+        <v>0.76</v>
       </c>
       <c r="I66" t="n">
-        <v>286490</v>
+        <v>258614</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124004577</v>
+        <v>123581849</v>
       </c>
       <c r="E67" t="n">
-        <v>2053617358</v>
+        <v>2046616633</v>
       </c>
       <c r="F67" t="n">
-        <v>164851.5413495685</v>
+        <v>172635.2539938187</v>
       </c>
       <c r="G67" t="n">
-        <v>163032.5095457802</v>
+        <v>161658.6118402596</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>117259664</v>
+        <v>90760051</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24260647</v>
+        <v>24252528</v>
       </c>
       <c r="E68" t="n">
-        <v>145156326</v>
+        <v>145107751</v>
       </c>
       <c r="F68" t="n">
-        <v>43858.4993137994</v>
+        <v>6894.331056300925</v>
       </c>
       <c r="G68" t="n">
-        <v>47493.65053947224</v>
+        <v>43979.4696445591</v>
       </c>
       <c r="H68" t="n">
         <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>15879933</v>
+        <v>13604701</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23872956</v>
+        <v>24778080</v>
       </c>
       <c r="E70" t="n">
-        <v>23872956</v>
+        <v>24778080</v>
       </c>
       <c r="F70" t="n">
-        <v>4348.1496895766</v>
+        <v>4735.463076366008</v>
       </c>
       <c r="G70" t="n">
-        <v>14574.1352432017</v>
+        <v>4324.625511980171</v>
       </c>
       <c r="H70" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="I70" t="n">
-        <v>1782221</v>
+        <v>1804968</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35190678</v>
+        <v>35830368</v>
       </c>
       <c r="E71" t="n">
-        <v>175617704</v>
+        <v>178810055</v>
       </c>
       <c r="F71" t="n">
-        <v>19170.05559164533</v>
+        <v>15681.89862290436</v>
       </c>
       <c r="G71" t="n">
-        <v>34354.34598426957</v>
+        <v>51662.29901371148</v>
       </c>
       <c r="H71" t="n">
-        <v>1.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10574882</v>
+        <v>10332522</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>142818</v>
+        <v>151398</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.67</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>55113</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>303867902</v>
+        <v>297804317</v>
       </c>
       <c r="E73" t="n">
-        <v>562224915</v>
+        <v>551005899</v>
       </c>
       <c r="F73" t="n">
-        <v>52817.52374004044</v>
+        <v>57772.341732623</v>
       </c>
       <c r="G73" t="n">
-        <v>59913.04852642915</v>
+        <v>59027.20885618639</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>25671749</v>
+        <v>17132582</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10240649</v>
+        <v>10660178</v>
       </c>
       <c r="E74" t="n">
-        <v>30353330</v>
+        <v>31596814</v>
       </c>
       <c r="F74" t="n">
-        <v>5843.34622287495</v>
+        <v>1333.318106923414</v>
       </c>
       <c r="G74" t="n">
-        <v>6658.753660502663</v>
+        <v>2431.723552259233</v>
       </c>
       <c r="H74" t="n">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>6006634</v>
+        <v>4842118</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8681160</v>
+        <v>8578827</v>
       </c>
       <c r="E75" t="n">
-        <v>12367366</v>
+        <v>12221580</v>
       </c>
       <c r="F75" t="n">
-        <v>431.753085150207</v>
+        <v>4068.689332927888</v>
       </c>
       <c r="G75" t="n">
-        <v>3261.718416890788</v>
+        <v>357.2706251888025</v>
       </c>
       <c r="H75" t="n">
-        <v>0.96</v>
+        <v>0.65</v>
       </c>
       <c r="I75" t="n">
-        <v>253610</v>
+        <v>252490</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16047884</v>
+        <v>15977215</v>
       </c>
       <c r="F76" t="n">
-        <v>51.24407070996821</v>
+        <v>236.8055611871231</v>
       </c>
       <c r="G76" t="n">
-        <v>915.2802173036714</v>
+        <v>141.6178240687585</v>
       </c>
       <c r="H76" t="n">
-        <v>1.31</v>
+        <v>0.78</v>
       </c>
       <c r="I76" t="n">
-        <v>1192360</v>
+        <v>1031187</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73239794</v>
+        <v>73256462</v>
       </c>
       <c r="E77" t="n">
-        <v>101399281</v>
+        <v>101418127</v>
       </c>
       <c r="F77" t="n">
-        <v>8465.938716550692</v>
+        <v>10000.96559677974</v>
       </c>
       <c r="G77" t="n">
-        <v>17740.23582240161</v>
+        <v>18852.43055358536</v>
       </c>
       <c r="H77" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I77" t="n">
-        <v>5693424</v>
+        <v>4894490</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6112269</v>
+        <v>5937604</v>
       </c>
       <c r="E78" t="n">
-        <v>6112269</v>
+        <v>5937604</v>
       </c>
       <c r="F78" t="n">
-        <v>3291.508292373916</v>
+        <v>226.3424989919121</v>
       </c>
       <c r="G78" t="n">
-        <v>286.6492575435521</v>
+        <v>177.2472170314237</v>
       </c>
       <c r="H78" t="n">
-        <v>2.38</v>
+        <v>3.53</v>
       </c>
       <c r="I78" t="n">
-        <v>1162994</v>
+        <v>994360</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58947</v>
+        <v>59087</v>
       </c>
       <c r="E79" t="n">
-        <v>307563</v>
+        <v>308291</v>
       </c>
       <c r="F79" t="n">
-        <v>579.4674983548315</v>
+        <v>533.1234727522308</v>
       </c>
       <c r="G79" t="n">
-        <v>50.91036736657612</v>
+        <v>31.85547209480186</v>
       </c>
       <c r="H79" t="n">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="I79" t="n">
-        <v>148349</v>
+        <v>132877</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26530633</v>
+        <v>26616104</v>
       </c>
       <c r="F80" t="n">
-        <v>912.3467191642073</v>
+        <v>310.9747536542862</v>
       </c>
       <c r="G80" t="n">
-        <v>458.8120806126169</v>
+        <v>9996.687189322944</v>
       </c>
       <c r="H80" t="n">
-        <v>1.26</v>
+        <v>0.71</v>
       </c>
       <c r="I80" t="n">
-        <v>42194</v>
+        <v>26561</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>603652203</v>
+        <v>597851219</v>
       </c>
       <c r="E81" t="n">
-        <v>2337855921</v>
+        <v>2315389565</v>
       </c>
       <c r="F81" t="n">
-        <v>188380.696648788</v>
+        <v>158157.064282924</v>
       </c>
       <c r="G81" t="n">
-        <v>299894.6268843798</v>
+        <v>184613.1685704586</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>41188766</v>
+        <v>25160068</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7141732</v>
+        <v>7143038</v>
       </c>
       <c r="E82" t="n">
-        <v>10231368</v>
+        <v>10234267</v>
       </c>
       <c r="F82" t="n">
-        <v>2112.176744658082</v>
+        <v>1987.479457696006</v>
       </c>
       <c r="G82" t="n">
-        <v>1032.524741567641</v>
+        <v>1303.493742128087</v>
       </c>
       <c r="H82" t="n">
         <v>0.97</v>
       </c>
       <c r="I82" t="n">
-        <v>148282</v>
+        <v>177086</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>110273106</v>
+        <v>111795868</v>
       </c>
       <c r="E83" t="n">
-        <v>1043377967</v>
+        <v>1057785975</v>
       </c>
       <c r="F83" t="n">
-        <v>33851.87960681118</v>
+        <v>33316.62100986707</v>
       </c>
       <c r="G83" t="n">
-        <v>24132.47671869062</v>
+        <v>27923.40535542312</v>
       </c>
       <c r="H83" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>16637501</v>
+        <v>9469494</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1068225</v>
+        <v>1205070</v>
       </c>
       <c r="E84" t="n">
-        <v>4136402</v>
+        <v>4666293</v>
       </c>
       <c r="F84" t="n">
-        <v>801.1309932898137</v>
+        <v>2286.077982865575</v>
       </c>
       <c r="G84" t="n">
-        <v>316.928893475007</v>
+        <v>2167.759845583408</v>
       </c>
       <c r="H84" t="n">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="I84" t="n">
-        <v>144453</v>
+        <v>298352</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>128546775</v>
+        <v>127411624</v>
       </c>
       <c r="E85" t="n">
-        <v>493126118</v>
+        <v>488771496</v>
       </c>
       <c r="F85" t="n">
-        <v>67026.54177323791</v>
+        <v>66239.55730007512</v>
       </c>
       <c r="G85" t="n">
-        <v>78315.00667239282</v>
+        <v>85129.39534100752</v>
       </c>
       <c r="H85" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="I85" t="n">
-        <v>22561241</v>
+        <v>19318677</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5233511</v>
+        <v>5284432</v>
       </c>
       <c r="E86" t="n">
-        <v>19407297</v>
+        <v>19596126</v>
       </c>
       <c r="F86" t="n">
-        <v>2671.087161934754</v>
+        <v>2781.587424290632</v>
       </c>
       <c r="G86" t="n">
-        <v>5411.737821713995</v>
+        <v>5272.654135430525</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I86" t="n">
-        <v>126371</v>
+        <v>138764</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35983652</v>
+        <v>37821571</v>
       </c>
       <c r="F87" t="n">
-        <v>2085.30126675524</v>
+        <v>6755.079999723614</v>
       </c>
       <c r="G87" t="n">
-        <v>2045.759758228117</v>
+        <v>422.7224986504442</v>
       </c>
       <c r="H87" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>15547094</v>
+        <v>14227411</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>29388682</v>
+        <v>28659232</v>
       </c>
       <c r="F88" t="n">
-        <v>930.6044996494749</v>
+        <v>1036.619620664089</v>
       </c>
       <c r="G88" t="n">
-        <v>842.2963386615579</v>
+        <v>846.3737893048296</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="I88" t="n">
-        <v>115636</v>
+        <v>116358</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>98130126</v>
+        <v>99613726</v>
       </c>
       <c r="E89" t="n">
-        <v>362692557</v>
+        <v>366898764</v>
       </c>
       <c r="F89" t="n">
-        <v>1157.698633749606</v>
+        <v>1321.919223961519</v>
       </c>
       <c r="G89" t="n">
-        <v>1118.504623563332</v>
+        <v>1894.406544527853</v>
       </c>
       <c r="H89" t="n">
-        <v>1.97</v>
+        <v>0.79</v>
       </c>
       <c r="I89" t="n">
-        <v>838255</v>
+        <v>839879</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19639394</v>
+        <v>20253632</v>
       </c>
       <c r="E90" t="n">
-        <v>19639394</v>
+        <v>20253632</v>
       </c>
       <c r="F90" t="n">
-        <v>3133.888895964517</v>
+        <v>2537.446391766936</v>
       </c>
       <c r="G90" t="n">
-        <v>4395.07128522391</v>
+        <v>4409.933271306435</v>
       </c>
       <c r="H90" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="I90" t="n">
-        <v>7404411</v>
+        <v>7059803</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3800398</v>
+        <v>3748490</v>
       </c>
       <c r="E91" t="n">
-        <v>8276265</v>
+        <v>8163224</v>
       </c>
       <c r="F91" t="n">
-        <v>1860.709661489519</v>
+        <v>1719.463774155693</v>
       </c>
       <c r="G91" t="n">
-        <v>1042.336441323444</v>
+        <v>1835.948136300847</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="I91" t="n">
-        <v>2436480</v>
+        <v>1973681</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>479100467</v>
+        <v>478405800</v>
       </c>
       <c r="E92" t="n">
-        <v>1666863618</v>
+        <v>1663603611</v>
       </c>
       <c r="F92" t="n">
-        <v>161992.1832733575</v>
+        <v>72572.89304741254</v>
       </c>
       <c r="G92" t="n">
-        <v>115419.8360505312</v>
+        <v>167637.5002744952</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>39039043</v>
+        <v>27958757</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2308913</v>
+        <v>2246281</v>
       </c>
       <c r="E93" t="n">
-        <v>9235652</v>
+        <v>8985125</v>
       </c>
       <c r="F93" t="n">
-        <v>1689.673450533667</v>
+        <v>2548.705005731997</v>
       </c>
       <c r="G93" t="n">
-        <v>2201.100022577667</v>
+        <v>2124.469208447934</v>
       </c>
       <c r="H93" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="I93" t="n">
-        <v>8330090</v>
+        <v>6758684</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216688827</v>
+        <v>228760843</v>
       </c>
       <c r="E94" t="n">
-        <v>666236600</v>
+        <v>703353505</v>
       </c>
       <c r="F94" t="n">
-        <v>92488.32570101311</v>
+        <v>63631.45758922202</v>
       </c>
       <c r="G94" t="n">
-        <v>102384.1630412149</v>
+        <v>74625.86155442429</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>15889332</v>
+        <v>21991906</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>140416091</v>
+        <v>133828484</v>
       </c>
       <c r="E95" t="n">
-        <v>366833142</v>
+        <v>349623201</v>
       </c>
       <c r="F95" t="n">
-        <v>25876.25404795321</v>
+        <v>32307.95916660665</v>
       </c>
       <c r="G95" t="n">
-        <v>31411.10303180317</v>
+        <v>23833.59922861557</v>
       </c>
       <c r="H95" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I95" t="n">
-        <v>4854818</v>
+        <v>3775500</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>395034991</v>
+        <v>387593685</v>
       </c>
       <c r="E96" t="n">
-        <v>2257342805</v>
+        <v>2214821055</v>
       </c>
       <c r="F96" t="n">
-        <v>27800.22908372399</v>
+        <v>38779.52349206583</v>
       </c>
       <c r="G96" t="n">
-        <v>37940.53659554756</v>
+        <v>40219.5198201221</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>55318213</v>
+        <v>42006841</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>618968955</v>
+        <v>631163029</v>
       </c>
       <c r="E2" t="n">
-        <v>1201326317</v>
+        <v>1224997347</v>
       </c>
       <c r="F2" t="n">
-        <v>16656.32149155774</v>
+        <v>14962.78163543609</v>
       </c>
       <c r="G2" t="n">
-        <v>36958.21363367097</v>
+        <v>39853.47936111577</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>18228029</v>
+        <v>15567914</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1394266</v>
+        <v>1407924</v>
       </c>
       <c r="E3" t="n">
-        <v>4506839</v>
+        <v>4550989</v>
       </c>
       <c r="F3" t="n">
-        <v>4711.835587140964</v>
+        <v>4221.720998416011</v>
       </c>
       <c r="G3" t="n">
-        <v>10195.61417089737</v>
+        <v>9762.914752339215</v>
       </c>
       <c r="H3" t="n">
         <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>564729</v>
+        <v>214495</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>261443719</v>
+        <v>258770325</v>
       </c>
       <c r="E4" t="n">
-        <v>1639476811</v>
+        <v>1622712338</v>
       </c>
       <c r="F4" t="n">
-        <v>146896.4160215654</v>
+        <v>144195.2922620511</v>
       </c>
       <c r="G4" t="n">
-        <v>147938.4108231318</v>
+        <v>154021.7708646404</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>22388544</v>
+        <v>20515944</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148483211</v>
+        <v>150138524</v>
       </c>
       <c r="E5" t="n">
-        <v>164542603</v>
+        <v>166376948</v>
       </c>
       <c r="F5" t="n">
-        <v>7042.143748837651</v>
+        <v>10837.0283256033</v>
       </c>
       <c r="G5" t="n">
-        <v>9116.062088574336</v>
+        <v>8738.85051037765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>32459831</v>
+        <v>30992736</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>703240</v>
+        <v>696790</v>
       </c>
       <c r="E6" t="n">
-        <v>13649368</v>
+        <v>13524168</v>
       </c>
       <c r="F6" t="n">
-        <v>583.0825531499407</v>
+        <v>582.1246862854556</v>
       </c>
       <c r="G6" t="n">
-        <v>194.6147846680975</v>
+        <v>440.9338812905223</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58</v>
+        <v>1.17</v>
       </c>
       <c r="I6" t="n">
-        <v>19452.42</v>
+        <v>14411.71</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>498288373</v>
+        <v>495880335</v>
       </c>
       <c r="E7" t="n">
-        <v>498288378</v>
+        <v>495880349</v>
       </c>
       <c r="F7" t="n">
-        <v>55667.82963992307</v>
+        <v>42490.48966592144</v>
       </c>
       <c r="G7" t="n">
-        <v>44177.44410644691</v>
+        <v>57889.10455145309</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>34033502</v>
+        <v>31692973</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4648065</v>
+        <v>4636640</v>
       </c>
       <c r="E8" t="n">
-        <v>4648065</v>
+        <v>4636640</v>
       </c>
       <c r="F8" t="n">
-        <v>1152.105944489166</v>
+        <v>733.1042929147496</v>
       </c>
       <c r="G8" t="n">
-        <v>1905.424968685372</v>
+        <v>1484.367112863586</v>
       </c>
       <c r="H8" t="n">
-        <v>0.27</v>
+        <v>0.88</v>
       </c>
       <c r="I8" t="n">
-        <v>1871870</v>
+        <v>1898428</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1996380</v>
+        <v>1974127</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>115.7470808151358</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>380.0730502131306</v>
       </c>
       <c r="H9" t="n">
-        <v>4.14</v>
+        <v>2.21</v>
       </c>
       <c r="I9" t="n">
-        <v>158152</v>
+        <v>155090</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1789506</v>
+        <v>1820029</v>
       </c>
       <c r="F10" t="n">
-        <v>453.1375750642626</v>
+        <v>1384.622494213451</v>
       </c>
       <c r="G10" t="n">
-        <v>431.5243916710944</v>
+        <v>378.4625126366381</v>
       </c>
       <c r="H10" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I10" t="n">
-        <v>933876</v>
+        <v>850563</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107463953</v>
+        <v>107484049</v>
       </c>
       <c r="E11" t="n">
-        <v>202449348</v>
+        <v>202487207</v>
       </c>
       <c r="F11" t="n">
-        <v>1676.538647385263</v>
+        <v>1536.983336285756</v>
       </c>
       <c r="G11" t="n">
-        <v>2535.062531094702</v>
+        <v>2536.008713219156</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>4104960</v>
+        <v>4115660</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12013433</v>
+        <v>12267463</v>
       </c>
       <c r="E12" t="n">
-        <v>29899262</v>
+        <v>30531496</v>
       </c>
       <c r="F12" t="n">
-        <v>502.5386788975796</v>
+        <v>547.0592536532477</v>
       </c>
       <c r="G12" t="n">
-        <v>1076.885852785744</v>
+        <v>167.7522838511573</v>
       </c>
       <c r="H12" t="n">
-        <v>0.87</v>
+        <v>0.29</v>
       </c>
       <c r="I12" t="n">
-        <v>1520576</v>
+        <v>962591</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115636571</v>
+        <v>115517071</v>
       </c>
       <c r="E13" t="n">
-        <v>448737538</v>
+        <v>448129726</v>
       </c>
       <c r="F13" t="n">
-        <v>21147.98716609612</v>
+        <v>9902.688358905139</v>
       </c>
       <c r="G13" t="n">
-        <v>24330.78136898971</v>
+        <v>23044.94615883943</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7239719</v>
+        <v>6143667</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4999017</v>
+        <v>4777065</v>
       </c>
       <c r="E14" t="n">
-        <v>7358824</v>
+        <v>7032098</v>
       </c>
       <c r="F14" t="n">
-        <v>274.0788640183138</v>
+        <v>80.23661178885338</v>
       </c>
       <c r="G14" t="n">
-        <v>95.74436921617286</v>
+        <v>192.5819165696743</v>
       </c>
       <c r="H14" t="n">
-        <v>1.39</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>753248</v>
+        <v>716083</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>150582867</v>
+        <v>149020758</v>
       </c>
       <c r="E15" t="n">
-        <v>150582867</v>
+        <v>149020758</v>
       </c>
       <c r="F15" t="n">
-        <v>53935.46979111058</v>
+        <v>45122.95101660836</v>
       </c>
       <c r="G15" t="n">
-        <v>75486.56472287404</v>
+        <v>82484.80675732273</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>97958448</v>
+        <v>98115842</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73022019</v>
+        <v>72614904</v>
       </c>
       <c r="E16" t="n">
-        <v>374471891</v>
+        <v>372384121</v>
       </c>
       <c r="F16" t="n">
-        <v>15344.95782873</v>
+        <v>10999.9422580581</v>
       </c>
       <c r="G16" t="n">
-        <v>14889.64241108989</v>
+        <v>18743.53169444487</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="n">
-        <v>40396793</v>
+        <v>48538294</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>260433158</v>
+        <v>262366680</v>
       </c>
       <c r="E17" t="n">
-        <v>260433158</v>
+        <v>262366680</v>
       </c>
       <c r="F17" t="n">
-        <v>68067.8921045928</v>
+        <v>54272.72779174949</v>
       </c>
       <c r="G17" t="n">
-        <v>54523.84425962543</v>
+        <v>52452.08282580549</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14788558</v>
+        <v>13026099</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2749449</v>
+        <v>2752402</v>
       </c>
       <c r="E18" t="n">
-        <v>7029188</v>
+        <v>7036739</v>
       </c>
       <c r="F18" t="n">
-        <v>230.8638700809867</v>
+        <v>892.7540312244241</v>
       </c>
       <c r="G18" t="n">
-        <v>1059.454667209001</v>
+        <v>836.0664163498818</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I18" t="n">
-        <v>96877</v>
+        <v>96928</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80029551</v>
+        <v>79641087</v>
       </c>
       <c r="E19" t="n">
-        <v>223939300</v>
+        <v>222890339</v>
       </c>
       <c r="F19" t="n">
-        <v>14937.32120475628</v>
+        <v>17377.04456272524</v>
       </c>
       <c r="G19" t="n">
-        <v>25895.80073041691</v>
+        <v>24331.89658213136</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>27297646</v>
+        <v>26063701</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1646419</v>
+        <v>1643868</v>
       </c>
       <c r="E20" t="n">
-        <v>9453122</v>
+        <v>9438479</v>
       </c>
       <c r="F20" t="n">
-        <v>459.1957655109793</v>
+        <v>316.5003389065351</v>
       </c>
       <c r="G20" t="n">
-        <v>396.5982563447653</v>
+        <v>597.4924499261355</v>
       </c>
       <c r="H20" t="n">
-        <v>0.79</v>
+        <v>1.43</v>
       </c>
       <c r="I20" t="n">
-        <v>236251</v>
+        <v>216730</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>169967</v>
+        <v>192561</v>
       </c>
       <c r="E21" t="n">
-        <v>1147805</v>
+        <v>1300383</v>
       </c>
       <c r="F21" t="n">
-        <v>6.655816079295254</v>
+        <v>299.6521912582962</v>
       </c>
       <c r="G21" t="n">
-        <v>6.62962760154611</v>
+        <v>173.8459548164564</v>
       </c>
       <c r="H21" t="n">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="I21" t="n">
-        <v>2838254</v>
+        <v>2534259</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244694</v>
+        <v>244125</v>
       </c>
       <c r="F22" t="n">
-        <v>5.237786564625677</v>
+        <v>1.332990001824616</v>
       </c>
       <c r="G22" t="n">
-        <v>90.08237968420062</v>
+        <v>75.20588359408993</v>
       </c>
       <c r="H22" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>5177.48</v>
+        <v>6403.83</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87897111</v>
+        <v>88136435</v>
       </c>
       <c r="E23" t="n">
-        <v>186622970</v>
+        <v>183757389</v>
       </c>
       <c r="F23" t="n">
-        <v>8389.988165743203</v>
+        <v>8427.379304619672</v>
       </c>
       <c r="G23" t="n">
-        <v>50010.92804215235</v>
+        <v>48948.12114601248</v>
       </c>
       <c r="H23" t="n">
         <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37323196</v>
+        <v>29724649</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>202468777</v>
+        <v>201720019</v>
       </c>
       <c r="E24" t="n">
-        <v>703394829</v>
+        <v>700793577</v>
       </c>
       <c r="F24" t="n">
-        <v>53236.59397917576</v>
+        <v>63045.02868781208</v>
       </c>
       <c r="G24" t="n">
-        <v>62954.74808847846</v>
+        <v>63316.40625485478</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>29138641</v>
+        <v>27405878</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>121135348</v>
+        <v>122087602</v>
       </c>
       <c r="E25" t="n">
-        <v>512236234</v>
+        <v>515962832</v>
       </c>
       <c r="F25" t="n">
-        <v>15991.53922837649</v>
+        <v>10306.6462013227</v>
       </c>
       <c r="G25" t="n">
-        <v>18069.91463522764</v>
+        <v>15361.73049281343</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>16495357</v>
+        <v>16676174</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5536338</v>
+        <v>5498416</v>
       </c>
       <c r="E26" t="n">
-        <v>7510226</v>
+        <v>7458300</v>
       </c>
       <c r="F26" t="n">
-        <v>1099.141634756238</v>
+        <v>247.4518124573899</v>
       </c>
       <c r="G26" t="n">
-        <v>545.7094536937141</v>
+        <v>2349.544397844509</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5104326</v>
+        <v>5034426</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>555926</v>
+        <v>569552</v>
       </c>
       <c r="E27" t="n">
-        <v>6742837</v>
+        <v>6908112</v>
       </c>
       <c r="F27" t="n">
-        <v>1276.511368506553</v>
+        <v>1173.50810467152</v>
       </c>
       <c r="G27" t="n">
-        <v>35.05988307117232</v>
+        <v>572.9329112060149</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I27" t="n">
-        <v>2785205</v>
+        <v>2449918</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24678562</v>
+        <v>26458032</v>
       </c>
       <c r="E28" t="n">
-        <v>34867450</v>
+        <v>37381599</v>
       </c>
       <c r="F28" t="n">
-        <v>138.3392663375338</v>
+        <v>127.5483583306615</v>
       </c>
       <c r="G28" t="n">
-        <v>800.9206364853726</v>
+        <v>152.2939921897434</v>
       </c>
       <c r="H28" t="n">
-        <v>0.96</v>
+        <v>2.87</v>
       </c>
       <c r="I28" t="n">
-        <v>67785</v>
+        <v>77583</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1373856789</v>
+        <v>1456202934</v>
       </c>
       <c r="E29" t="n">
-        <v>6587924661</v>
+        <v>6982791290</v>
       </c>
       <c r="F29" t="n">
-        <v>136586.1847537607</v>
+        <v>88495.2559021005</v>
       </c>
       <c r="G29" t="n">
-        <v>211639.5728043342</v>
+        <v>198610.8321138044</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>202640253</v>
+        <v>192228198</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>268062489</v>
+        <v>272515072</v>
       </c>
       <c r="E30" t="n">
-        <v>1157106516</v>
+        <v>1176326337</v>
       </c>
       <c r="F30" t="n">
-        <v>152235.7199169811</v>
+        <v>143078.1644685025</v>
       </c>
       <c r="G30" t="n">
-        <v>160689.3304035054</v>
+        <v>178859.5135890335</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>70140999</v>
+        <v>69975960</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5339754</v>
+        <v>5319600</v>
       </c>
       <c r="E31" t="n">
-        <v>5345797</v>
+        <v>5325621</v>
       </c>
       <c r="F31" t="n">
-        <v>172.6990123182113</v>
+        <v>136.5540715641006</v>
       </c>
       <c r="G31" t="n">
-        <v>72.68659160661907</v>
+        <v>110.3938123368467</v>
       </c>
       <c r="H31" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>143167</v>
+        <v>144291</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16179007</v>
+        <v>15870081</v>
       </c>
       <c r="E32" t="n">
-        <v>40447518</v>
+        <v>39675203</v>
       </c>
       <c r="F32" t="n">
-        <v>3142.324254248505</v>
+        <v>4056.434795846295</v>
       </c>
       <c r="G32" t="n">
-        <v>3588.366647670974</v>
+        <v>4736.27623225631</v>
       </c>
       <c r="H32" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="I32" t="n">
-        <v>2368482</v>
+        <v>2354811</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18580932</v>
+        <v>18693628</v>
       </c>
       <c r="F33" t="n">
-        <v>1390.925677100312</v>
+        <v>1385.662970115386</v>
       </c>
       <c r="G33" t="n">
-        <v>1761.107286599973</v>
+        <v>3323.746286132996</v>
       </c>
       <c r="H33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I33" t="n">
-        <v>43806</v>
+        <v>43670</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4434829</v>
+        <v>4510312</v>
       </c>
       <c r="E34" t="n">
-        <v>12771427</v>
+        <v>12988940</v>
       </c>
       <c r="F34" t="n">
-        <v>1765.090268157134</v>
+        <v>1118.308117107718</v>
       </c>
       <c r="G34" t="n">
-        <v>328.5814441027882</v>
+        <v>470.4753062744377</v>
       </c>
       <c r="H34" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>453666</v>
+        <v>482229</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1584771</v>
+        <v>1557518</v>
       </c>
       <c r="F35" t="n">
-        <v>42.67849471274173</v>
+        <v>393.9832692680691</v>
       </c>
       <c r="G35" t="n">
-        <v>75.01736439881184</v>
+        <v>136.8900620892449</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>0.65</v>
       </c>
       <c r="I35" t="n">
-        <v>5567.06</v>
+        <v>3111.84</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14501669</v>
+        <v>14986721</v>
       </c>
       <c r="E36" t="n">
-        <v>70233898</v>
+        <v>72583082</v>
       </c>
       <c r="F36" t="n">
-        <v>6360.774230503717</v>
+        <v>2615.254407446661</v>
       </c>
       <c r="G36" t="n">
-        <v>5958.902237459519</v>
+        <v>7054.493192935963</v>
       </c>
       <c r="H36" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>3451876</v>
+        <v>3422513</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1360532</v>
+        <v>1380482</v>
       </c>
       <c r="E37" t="n">
-        <v>8904643</v>
+        <v>9035220</v>
       </c>
       <c r="F37" t="n">
-        <v>8.019313788128803</v>
+        <v>9.834948692114493</v>
       </c>
       <c r="G37" t="n">
-        <v>851.9560338717848</v>
+        <v>857.2467994989111</v>
       </c>
       <c r="H37" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I37" t="n">
-        <v>739197</v>
+        <v>1274908</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1873571315</v>
+        <v>1887779725</v>
       </c>
       <c r="F38" t="n">
-        <v>70130.952069267</v>
+        <v>71026.423112941</v>
       </c>
       <c r="G38" t="n">
-        <v>73671.09806247233</v>
+        <v>60457.97781614408</v>
       </c>
       <c r="H38" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I38" t="n">
-        <v>26556843</v>
+        <v>26384195</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31459948</v>
+        <v>29794868</v>
       </c>
       <c r="E39" t="n">
-        <v>97956183</v>
+        <v>92771659</v>
       </c>
       <c r="F39" t="n">
-        <v>3550.909938539003</v>
+        <v>7632.767085467483</v>
       </c>
       <c r="G39" t="n">
-        <v>7662.649552037454</v>
+        <v>10903.04008722021</v>
       </c>
       <c r="H39" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>10324430</v>
+        <v>10331091</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>199755828</v>
+        <v>198807793</v>
       </c>
       <c r="E40" t="n">
-        <v>1131140238</v>
+        <v>1125771883</v>
       </c>
       <c r="F40" t="n">
-        <v>39206.12908003284</v>
+        <v>46499.91969005803</v>
       </c>
       <c r="G40" t="n">
-        <v>88970.78312471014</v>
+        <v>78716.27469351683</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>38251677</v>
+        <v>35217998</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>131748519</v>
+        <v>132145087</v>
       </c>
       <c r="E41" t="n">
-        <v>975914955</v>
+        <v>978852494</v>
       </c>
       <c r="F41" t="n">
-        <v>95643.43009038789</v>
+        <v>117345.0957989333</v>
       </c>
       <c r="G41" t="n">
-        <v>208775.7823903985</v>
+        <v>210618.975500653</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>8027435</v>
+        <v>5656391</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30428073</v>
+        <v>30704553</v>
       </c>
       <c r="E42" t="n">
-        <v>144127174</v>
+        <v>145429215</v>
       </c>
       <c r="F42" t="n">
-        <v>7077.298129272301</v>
+        <v>7850.067581241618</v>
       </c>
       <c r="G42" t="n">
-        <v>8325.101903469198</v>
+        <v>6215.53272715606</v>
       </c>
       <c r="H42" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I42" t="n">
-        <v>371809</v>
+        <v>407843</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3250883</v>
+        <v>3220286</v>
       </c>
       <c r="E43" t="n">
-        <v>7591353</v>
+        <v>7519904</v>
       </c>
       <c r="F43" t="n">
-        <v>1705.605216017325</v>
+        <v>1868.148274779993</v>
       </c>
       <c r="G43" t="n">
-        <v>2265.356640968897</v>
+        <v>4087.522651559916</v>
       </c>
       <c r="H43" t="n">
-        <v>0.33</v>
+        <v>1.35</v>
       </c>
       <c r="I43" t="n">
-        <v>269367</v>
+        <v>197539</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>327089171</v>
+        <v>332907947</v>
       </c>
       <c r="E44" t="n">
-        <v>2942697005</v>
+        <v>2995046320</v>
       </c>
       <c r="F44" t="n">
-        <v>45195.9205163695</v>
+        <v>55133.29575882073</v>
       </c>
       <c r="G44" t="n">
-        <v>52318.67205250255</v>
+        <v>45585.49011044612</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>37346877</v>
+        <v>32330042</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>620127</v>
+        <v>628604</v>
       </c>
       <c r="F45" t="n">
-        <v>500.7729032799976</v>
+        <v>760.0691584733491</v>
       </c>
       <c r="G45" t="n">
-        <v>786.8865611132353</v>
+        <v>745.3070747746276</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>16023.95</v>
+        <v>11752.79</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1556300</v>
+        <v>1578527</v>
       </c>
       <c r="E46" t="n">
-        <v>12969164</v>
+        <v>13154389</v>
       </c>
       <c r="F46" t="n">
-        <v>180.6200873960915</v>
+        <v>236.359641606216</v>
       </c>
       <c r="G46" t="n">
-        <v>1190.653191597503</v>
+        <v>401.4411390335883</v>
       </c>
       <c r="H46" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="I46" t="n">
-        <v>49311</v>
+        <v>61548</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4943978</v>
+        <v>5015300</v>
       </c>
       <c r="E47" t="n">
-        <v>17465928</v>
+        <v>17717890</v>
       </c>
       <c r="F47" t="n">
-        <v>1336.416225898724</v>
+        <v>1300.917367675735</v>
       </c>
       <c r="G47" t="n">
-        <v>1267.241324373422</v>
+        <v>1132.70159547149</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>148442</v>
+        <v>162634</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>52445174</v>
+        <v>51890627</v>
       </c>
       <c r="E48" t="n">
-        <v>303635890</v>
+        <v>300425289</v>
       </c>
       <c r="F48" t="n">
-        <v>18685.92391836857</v>
+        <v>18367.18707614598</v>
       </c>
       <c r="G48" t="n">
-        <v>16053.89474240889</v>
+        <v>6214.477965406923</v>
       </c>
       <c r="H48" t="n">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="I48" t="n">
-        <v>11950925</v>
+        <v>12402480</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2348720</v>
+        <v>2269240</v>
       </c>
       <c r="E49" t="n">
-        <v>12904273</v>
+        <v>12467593</v>
       </c>
       <c r="F49" t="n">
-        <v>137.7791412718353</v>
+        <v>222.2755472174665</v>
       </c>
       <c r="G49" t="n">
-        <v>254.8410603167731</v>
+        <v>553.1943923311032</v>
       </c>
       <c r="H49" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>77749</v>
+        <v>50177</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16056663</v>
+        <v>16759085</v>
       </c>
       <c r="E50" t="n">
-        <v>16111306</v>
+        <v>16816126</v>
       </c>
       <c r="F50" t="n">
-        <v>9624.747383142892</v>
+        <v>6027.838573332305</v>
       </c>
       <c r="G50" t="n">
-        <v>5506.872633910383</v>
+        <v>12387.13057738863</v>
       </c>
       <c r="H50" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I50" t="n">
-        <v>7921992</v>
+        <v>7904401</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20634309</v>
+        <v>20095765</v>
       </c>
       <c r="E51" t="n">
-        <v>60707994</v>
+        <v>59123548</v>
       </c>
       <c r="F51" t="n">
-        <v>8691.110979594174</v>
+        <v>21965.5615875685</v>
       </c>
       <c r="G51" t="n">
-        <v>24172.87068971211</v>
+        <v>26460.35121518815</v>
       </c>
       <c r="H51" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I51" t="n">
-        <v>2544502</v>
+        <v>2449544</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15022751</v>
+        <v>15012486</v>
       </c>
       <c r="E52" t="n">
-        <v>92079383</v>
+        <v>92016462</v>
       </c>
       <c r="F52" t="n">
-        <v>5773.105184267104</v>
+        <v>4376.724451908484</v>
       </c>
       <c r="G52" t="n">
-        <v>7288.191450521303</v>
+        <v>8810.699885981665</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>11809610</v>
+        <v>11292653</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49697394</v>
+        <v>50139979</v>
       </c>
       <c r="E53" t="n">
-        <v>214090937</v>
+        <v>215997547</v>
       </c>
       <c r="F53" t="n">
-        <v>19269.15348742051</v>
+        <v>20256.74116101892</v>
       </c>
       <c r="G53" t="n">
-        <v>23075.94169588927</v>
+        <v>23359.6458132902</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I53" t="n">
-        <v>13288843</v>
+        <v>11577876</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1008139</v>
+        <v>1016536</v>
       </c>
       <c r="E54" t="n">
-        <v>2946617</v>
+        <v>2971159</v>
       </c>
       <c r="F54" t="n">
-        <v>237.0117985574029</v>
+        <v>236.8028073656532</v>
       </c>
       <c r="G54" t="n">
-        <v>1995.488253233066</v>
+        <v>2027.184304082424</v>
       </c>
       <c r="H54" t="n">
         <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>6112.01</v>
+        <v>2773.83</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32500959</v>
+        <v>32541672</v>
       </c>
       <c r="E55" t="n">
-        <v>81951815</v>
+        <v>82054473</v>
       </c>
       <c r="F55" t="n">
-        <v>2891.694182785548</v>
+        <v>11089.66187300405</v>
       </c>
       <c r="G55" t="n">
-        <v>15875.87931352281</v>
+        <v>14944.01465929521</v>
       </c>
       <c r="H55" t="n">
-        <v>1.14</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2899278</v>
+        <v>2481130</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28338380</v>
+        <v>28240627</v>
       </c>
       <c r="E56" t="n">
-        <v>67223891</v>
+        <v>66992003</v>
       </c>
       <c r="F56" t="n">
-        <v>7966.380936252325</v>
+        <v>13764.37300982515</v>
       </c>
       <c r="G56" t="n">
-        <v>11052.04902328399</v>
+        <v>13628.25748115241</v>
       </c>
       <c r="H56" t="n">
         <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>494327</v>
+        <v>359099</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11874985</v>
+        <v>11939834</v>
       </c>
       <c r="E57" t="n">
-        <v>18032924</v>
+        <v>18131401</v>
       </c>
       <c r="F57" t="n">
-        <v>3613.399583647969</v>
+        <v>1920.344020886336</v>
       </c>
       <c r="G57" t="n">
-        <v>2339.18207187996</v>
+        <v>2255.0094213864</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29</v>
+        <v>0.68</v>
       </c>
       <c r="I57" t="n">
-        <v>723644</v>
+        <v>718706</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>305454395</v>
+        <v>310159987</v>
       </c>
       <c r="E58" t="n">
-        <v>305454395</v>
+        <v>310159987</v>
       </c>
       <c r="F58" t="n">
-        <v>75243.42408932447</v>
+        <v>32853.85049702875</v>
       </c>
       <c r="G58" t="n">
-        <v>66135.82766800685</v>
+        <v>57290.90020616872</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>71639227</v>
+        <v>62955285</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11890435</v>
+        <v>11881441</v>
       </c>
       <c r="F59" t="n">
-        <v>26.6061616566132</v>
+        <v>38.07038406836881</v>
       </c>
       <c r="G59" t="n">
-        <v>461.8147963156507</v>
+        <v>289.1108696138099</v>
       </c>
       <c r="H59" t="n">
-        <v>3.17</v>
+        <v>2.82</v>
       </c>
       <c r="I59" t="n">
-        <v>27577</v>
+        <v>27727</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90371424</v>
+        <v>90463355</v>
       </c>
       <c r="E60" t="n">
-        <v>520759125</v>
+        <v>521288870</v>
       </c>
       <c r="F60" t="n">
-        <v>99492.73691957693</v>
+        <v>99569.56890104651</v>
       </c>
       <c r="G60" t="n">
-        <v>97290.80931796526</v>
+        <v>96525.07633204997</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I60" t="n">
-        <v>28585594</v>
+        <v>27907920</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9303702</v>
+        <v>9294409</v>
       </c>
       <c r="E61" t="n">
-        <v>9303702</v>
+        <v>9294409</v>
       </c>
       <c r="F61" t="n">
-        <v>61.79056097176212</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1722.937833971844</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>2396015</v>
+        <v>2269464</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35215828</v>
+        <v>33576540</v>
       </c>
       <c r="E62" t="n">
-        <v>157675708</v>
+        <v>150335942</v>
       </c>
       <c r="F62" t="n">
-        <v>10947.0412510144</v>
+        <v>17176.20027464145</v>
       </c>
       <c r="G62" t="n">
-        <v>19531.35665767654</v>
+        <v>19648.07988566245</v>
       </c>
       <c r="H62" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="I62" t="n">
-        <v>24977889</v>
+        <v>26061691</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11992469</v>
+        <v>11659370</v>
       </c>
       <c r="E63" t="n">
-        <v>23968126</v>
+        <v>23302395</v>
       </c>
       <c r="F63" t="n">
-        <v>2117.32234240324</v>
+        <v>1687.588087995745</v>
       </c>
       <c r="G63" t="n">
-        <v>1692.611595501388</v>
+        <v>1575.665470708514</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="I63" t="n">
-        <v>35602</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1285799</v>
+        <v>1293912</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1.912549915506383</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>61.78946255570995</v>
       </c>
       <c r="H64" t="n">
-        <v>4.88</v>
+        <v>3.05</v>
       </c>
       <c r="I64" t="n">
-        <v>29451</v>
+        <v>25575</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50528223</v>
+        <v>50788502</v>
       </c>
       <c r="E65" t="n">
-        <v>327662077</v>
+        <v>329349920</v>
       </c>
       <c r="F65" t="n">
-        <v>25059.68407849183</v>
+        <v>22424.2762603925</v>
       </c>
       <c r="G65" t="n">
-        <v>21830.59064893324</v>
+        <v>21988.17195178688</v>
       </c>
       <c r="H65" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I65" t="n">
-        <v>17904778</v>
+        <v>19222799</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4720702</v>
+        <v>4737763</v>
       </c>
       <c r="F66" t="n">
-        <v>213.1260512484998</v>
+        <v>1183.691963108444</v>
       </c>
       <c r="G66" t="n">
-        <v>267.0113119685689</v>
+        <v>134.2507684099303</v>
       </c>
       <c r="H66" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="I66" t="n">
-        <v>258614</v>
+        <v>280238</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123581849</v>
+        <v>123761473</v>
       </c>
       <c r="E67" t="n">
-        <v>2046616633</v>
+        <v>2049591352</v>
       </c>
       <c r="F67" t="n">
-        <v>172635.2539938187</v>
+        <v>172898.8068136173</v>
       </c>
       <c r="G67" t="n">
-        <v>161658.6118402596</v>
+        <v>97968.40729956828</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I67" t="n">
-        <v>90760051</v>
+        <v>57912116</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24252528</v>
+        <v>24133870</v>
       </c>
       <c r="E68" t="n">
-        <v>145107751</v>
+        <v>144397795</v>
       </c>
       <c r="F68" t="n">
-        <v>6894.331056300925</v>
+        <v>42909.01131196793</v>
       </c>
       <c r="G68" t="n">
-        <v>43979.4696445591</v>
+        <v>48240.49291274392</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13604701</v>
+        <v>13382431</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24778080</v>
+        <v>25715786</v>
       </c>
       <c r="E70" t="n">
-        <v>24778080</v>
+        <v>25715786</v>
       </c>
       <c r="F70" t="n">
-        <v>4735.463076366008</v>
+        <v>3632.707935234648</v>
       </c>
       <c r="G70" t="n">
-        <v>4324.625511980171</v>
+        <v>4565.975324770292</v>
       </c>
       <c r="H70" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>1804968</v>
+        <v>2208276</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35830368</v>
+        <v>35252822</v>
       </c>
       <c r="E71" t="n">
-        <v>178810055</v>
+        <v>175927834</v>
       </c>
       <c r="F71" t="n">
-        <v>15681.89862290436</v>
+        <v>19615.86529359167</v>
       </c>
       <c r="G71" t="n">
-        <v>51662.29901371148</v>
+        <v>34054.54883087405</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10332522</v>
+        <v>10420319</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>151398</v>
+        <v>154811</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>44354</v>
+        <v>31295</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>297804317</v>
+        <v>305476882</v>
       </c>
       <c r="E73" t="n">
-        <v>551005899</v>
+        <v>565201894</v>
       </c>
       <c r="F73" t="n">
-        <v>57772.341732623</v>
+        <v>56021.73942400639</v>
       </c>
       <c r="G73" t="n">
-        <v>59027.20885618639</v>
+        <v>58118.14476201436</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>17132582</v>
+        <v>12820696</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10660178</v>
+        <v>10473933</v>
       </c>
       <c r="E74" t="n">
-        <v>31596814</v>
+        <v>31044783</v>
       </c>
       <c r="F74" t="n">
-        <v>1333.318106923414</v>
+        <v>371.2930517950187</v>
       </c>
       <c r="G74" t="n">
-        <v>2431.723552259233</v>
+        <v>1318.240848896236</v>
       </c>
       <c r="H74" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
-        <v>4842118</v>
+        <v>4291721</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8578827</v>
+        <v>8629479</v>
       </c>
       <c r="E75" t="n">
-        <v>12221580</v>
+        <v>12293739</v>
       </c>
       <c r="F75" t="n">
-        <v>4068.689332927888</v>
+        <v>4129.375784959874</v>
       </c>
       <c r="G75" t="n">
-        <v>357.2706251888025</v>
+        <v>188.9295710723083</v>
       </c>
       <c r="H75" t="n">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>252490</v>
+        <v>268139</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15977215</v>
+        <v>16026365</v>
       </c>
       <c r="F76" t="n">
-        <v>236.8055611871231</v>
+        <v>1.87900688008913</v>
       </c>
       <c r="G76" t="n">
-        <v>141.6178240687585</v>
+        <v>558.0335747872025</v>
       </c>
       <c r="H76" t="n">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="I76" t="n">
-        <v>1031187</v>
+        <v>948051</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73256462</v>
+        <v>73319993</v>
       </c>
       <c r="E77" t="n">
-        <v>101418127</v>
+        <v>101498180</v>
       </c>
       <c r="F77" t="n">
-        <v>10000.96559677974</v>
+        <v>8272.097359052717</v>
       </c>
       <c r="G77" t="n">
-        <v>18852.43055358536</v>
+        <v>23083.81386882841</v>
       </c>
       <c r="H77" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4894490</v>
+        <v>4628591</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5937604</v>
+        <v>6023918</v>
       </c>
       <c r="E78" t="n">
-        <v>5937604</v>
+        <v>6023918</v>
       </c>
       <c r="F78" t="n">
-        <v>226.3424989919121</v>
+        <v>226.7155878474353</v>
       </c>
       <c r="G78" t="n">
-        <v>177.2472170314237</v>
+        <v>181.6467147175498</v>
       </c>
       <c r="H78" t="n">
-        <v>3.53</v>
+        <v>2.35</v>
       </c>
       <c r="I78" t="n">
-        <v>994360</v>
+        <v>966350</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59087</v>
+        <v>61104</v>
       </c>
       <c r="E79" t="n">
-        <v>308291</v>
+        <v>318818</v>
       </c>
       <c r="F79" t="n">
-        <v>533.1234727522308</v>
+        <v>6.844815159619084</v>
       </c>
       <c r="G79" t="n">
-        <v>31.85547209480186</v>
+        <v>710.0309770927832</v>
       </c>
       <c r="H79" t="n">
-        <v>0.95</v>
+        <v>0.03</v>
       </c>
       <c r="I79" t="n">
-        <v>132877</v>
+        <v>158418</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26616104</v>
+        <v>27524890</v>
       </c>
       <c r="F80" t="n">
-        <v>310.9747536542862</v>
+        <v>415.7416283168972</v>
       </c>
       <c r="G80" t="n">
-        <v>9996.687189322944</v>
+        <v>860.9986594069902</v>
       </c>
       <c r="H80" t="n">
-        <v>0.71</v>
+        <v>0.32</v>
       </c>
       <c r="I80" t="n">
-        <v>26561</v>
+        <v>18450.08</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>597851219</v>
+        <v>604319382</v>
       </c>
       <c r="E81" t="n">
-        <v>2315389565</v>
+        <v>2340439806</v>
       </c>
       <c r="F81" t="n">
-        <v>158157.064282924</v>
+        <v>182813.3058168605</v>
       </c>
       <c r="G81" t="n">
-        <v>184613.1685704586</v>
+        <v>179817.3934124442</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>25160068</v>
+        <v>24908675</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7143038</v>
+        <v>7017392</v>
       </c>
       <c r="E82" t="n">
-        <v>10234267</v>
+        <v>10054148</v>
       </c>
       <c r="F82" t="n">
-        <v>1987.479457696006</v>
+        <v>1398.806365621864</v>
       </c>
       <c r="G82" t="n">
-        <v>1303.493742128087</v>
+        <v>2855.228461444932</v>
       </c>
       <c r="H82" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="I82" t="n">
-        <v>177086</v>
+        <v>176848</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>111795868</v>
+        <v>112384768</v>
       </c>
       <c r="E83" t="n">
-        <v>1057785975</v>
+        <v>1063358009</v>
       </c>
       <c r="F83" t="n">
-        <v>33316.62100986707</v>
+        <v>39680.87487836313</v>
       </c>
       <c r="G83" t="n">
-        <v>27923.40535542312</v>
+        <v>26528.20614040125</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9469494</v>
+        <v>9039152</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1205070</v>
+        <v>1183852</v>
       </c>
       <c r="E84" t="n">
-        <v>4666293</v>
+        <v>4584132</v>
       </c>
       <c r="F84" t="n">
-        <v>2286.077982865575</v>
+        <v>1056.717802531248</v>
       </c>
       <c r="G84" t="n">
-        <v>2167.759845583408</v>
+        <v>1301.906839885993</v>
       </c>
       <c r="H84" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="I84" t="n">
-        <v>298352</v>
+        <v>331090</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127411624</v>
+        <v>128082188</v>
       </c>
       <c r="E85" t="n">
-        <v>488771496</v>
+        <v>491343888</v>
       </c>
       <c r="F85" t="n">
-        <v>66239.55730007512</v>
+        <v>69027.89149713375</v>
       </c>
       <c r="G85" t="n">
-        <v>85129.39534100752</v>
+        <v>86871.9604332797</v>
       </c>
       <c r="H85" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I85" t="n">
-        <v>19318677</v>
+        <v>19107260</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5284432</v>
+        <v>5323518</v>
       </c>
       <c r="E86" t="n">
-        <v>19596126</v>
+        <v>19741066</v>
       </c>
       <c r="F86" t="n">
-        <v>2781.587424290632</v>
+        <v>2669.401040004549</v>
       </c>
       <c r="G86" t="n">
-        <v>5272.654135430525</v>
+        <v>5681.360971311836</v>
       </c>
       <c r="H86" t="n">
         <v>0.2</v>
       </c>
       <c r="I86" t="n">
-        <v>138764</v>
+        <v>142931</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>37821571</v>
+        <v>37840717</v>
       </c>
       <c r="F87" t="n">
-        <v>6755.079999723614</v>
+        <v>2939.441755208964</v>
       </c>
       <c r="G87" t="n">
-        <v>422.7224986504442</v>
+        <v>2007.999064728532</v>
       </c>
       <c r="H87" t="n">
         <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>14227411</v>
+        <v>12307026</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>28659232</v>
+        <v>28751902</v>
       </c>
       <c r="F88" t="n">
-        <v>1036.619620664089</v>
+        <v>713.5532178499368</v>
       </c>
       <c r="G88" t="n">
-        <v>846.3737893048296</v>
+        <v>1007.123444074681</v>
       </c>
       <c r="H88" t="n">
-        <v>0.92</v>
+        <v>0.14</v>
       </c>
       <c r="I88" t="n">
-        <v>116358</v>
+        <v>32965</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>99613726</v>
+        <v>101865977</v>
       </c>
       <c r="E89" t="n">
-        <v>366898764</v>
+        <v>375182657</v>
       </c>
       <c r="F89" t="n">
-        <v>1321.919223961519</v>
+        <v>1086.375973724396</v>
       </c>
       <c r="G89" t="n">
-        <v>1894.406544527853</v>
+        <v>1997.283773042853</v>
       </c>
       <c r="H89" t="n">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="I89" t="n">
-        <v>839879</v>
+        <v>936616</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20253632</v>
+        <v>20744876</v>
       </c>
       <c r="E90" t="n">
-        <v>20253632</v>
+        <v>20744876</v>
       </c>
       <c r="F90" t="n">
-        <v>2537.446391766936</v>
+        <v>5294.25840724994</v>
       </c>
       <c r="G90" t="n">
-        <v>4409.933271306435</v>
+        <v>2624.173728795721</v>
       </c>
       <c r="H90" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>7059803</v>
+        <v>7088169</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3748490</v>
+        <v>3752213</v>
       </c>
       <c r="E91" t="n">
-        <v>8163224</v>
+        <v>8171332</v>
       </c>
       <c r="F91" t="n">
-        <v>1719.463774155693</v>
+        <v>1752.633034255506</v>
       </c>
       <c r="G91" t="n">
-        <v>1835.948136300847</v>
+        <v>1734.498520670648</v>
       </c>
       <c r="H91" t="n">
         <v>0.37</v>
       </c>
       <c r="I91" t="n">
-        <v>1973681</v>
+        <v>1716247</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>478405800</v>
+        <v>478127015</v>
       </c>
       <c r="E92" t="n">
-        <v>1663603611</v>
+        <v>1662634165</v>
       </c>
       <c r="F92" t="n">
-        <v>72572.89304741254</v>
+        <v>174169.8740015134</v>
       </c>
       <c r="G92" t="n">
-        <v>167637.5002744952</v>
+        <v>168760.4455538293</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>27958757</v>
+        <v>24580561</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2246281</v>
+        <v>2237031</v>
       </c>
       <c r="E93" t="n">
-        <v>8985125</v>
+        <v>8948125</v>
       </c>
       <c r="F93" t="n">
-        <v>2548.705005731997</v>
+        <v>1817.183747596128</v>
       </c>
       <c r="G93" t="n">
-        <v>2124.469208447934</v>
+        <v>2822.270104073465</v>
       </c>
       <c r="H93" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
       <c r="I93" t="n">
-        <v>6758684</v>
+        <v>6055585</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>228760843</v>
+        <v>226524677</v>
       </c>
       <c r="E94" t="n">
-        <v>703353505</v>
+        <v>696478135</v>
       </c>
       <c r="F94" t="n">
-        <v>63631.45758922202</v>
+        <v>92890.9628157906</v>
       </c>
       <c r="G94" t="n">
-        <v>74625.86155442429</v>
+        <v>112221.7162246989</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>21991906</v>
+        <v>33594027</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>133828484</v>
+        <v>136494143</v>
       </c>
       <c r="E95" t="n">
-        <v>349623201</v>
+        <v>356587162</v>
       </c>
       <c r="F95" t="n">
-        <v>32307.95916660665</v>
+        <v>29649.16872804521</v>
       </c>
       <c r="G95" t="n">
-        <v>23833.59922861557</v>
+        <v>49541.90614477105</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>3775500</v>
+        <v>3243805</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>387593685</v>
+        <v>396453173</v>
       </c>
       <c r="E96" t="n">
-        <v>2214821055</v>
+        <v>2265446703</v>
       </c>
       <c r="F96" t="n">
-        <v>38779.52349206583</v>
+        <v>42117.7290431406</v>
       </c>
       <c r="G96" t="n">
-        <v>40219.5198201221</v>
+        <v>37632.74523348604</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>42006841</v>
+        <v>41518173</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>631163029</v>
+        <v>612192910</v>
       </c>
       <c r="E2" t="n">
-        <v>1224997347</v>
+        <v>1188202623</v>
       </c>
       <c r="F2" t="n">
-        <v>14962.78163543609</v>
+        <v>19506.48236227029</v>
       </c>
       <c r="G2" t="n">
-        <v>39853.47936111577</v>
+        <v>35602.52172957</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>15567914</v>
+        <v>15711552</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1407924</v>
+        <v>1444627</v>
       </c>
       <c r="E3" t="n">
-        <v>4550989</v>
+        <v>4669627</v>
       </c>
       <c r="F3" t="n">
-        <v>4221.720998416011</v>
+        <v>2813.13492759992</v>
       </c>
       <c r="G3" t="n">
-        <v>9762.914752339215</v>
+        <v>4312.582419043918</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="I3" t="n">
-        <v>214495</v>
+        <v>143182</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>258770325</v>
+        <v>250450367</v>
       </c>
       <c r="E4" t="n">
-        <v>1622712338</v>
+        <v>1570539048</v>
       </c>
       <c r="F4" t="n">
-        <v>144195.2922620511</v>
+        <v>146826.4638944826</v>
       </c>
       <c r="G4" t="n">
-        <v>154021.7708646404</v>
+        <v>143505.8424185135</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>20515944</v>
+        <v>16402169</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150138524</v>
+        <v>142690521</v>
       </c>
       <c r="E5" t="n">
-        <v>166376948</v>
+        <v>158123396</v>
       </c>
       <c r="F5" t="n">
-        <v>10837.0283256033</v>
+        <v>5937.387550505414</v>
       </c>
       <c r="G5" t="n">
-        <v>8738.85051037765</v>
+        <v>10181.97421802138</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>30992736</v>
+        <v>30284062</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>696790</v>
+        <v>668521</v>
       </c>
       <c r="E6" t="n">
-        <v>13524168</v>
+        <v>12975491</v>
       </c>
       <c r="F6" t="n">
-        <v>582.1246862854556</v>
+        <v>265.5493220791934</v>
       </c>
       <c r="G6" t="n">
-        <v>440.9338812905223</v>
+        <v>206.8233957143104</v>
       </c>
       <c r="H6" t="n">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>14411.71</v>
+        <v>5530.23</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>495880335</v>
+        <v>464306613</v>
       </c>
       <c r="E7" t="n">
-        <v>495880349</v>
+        <v>464306613</v>
       </c>
       <c r="F7" t="n">
-        <v>42490.48966592144</v>
+        <v>46499.88870732307</v>
       </c>
       <c r="G7" t="n">
-        <v>57889.10455145309</v>
+        <v>52103.42013002301</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>31692973</v>
+        <v>30472218</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4636640</v>
+        <v>4491288</v>
       </c>
       <c r="E8" t="n">
-        <v>4636640</v>
+        <v>4491288</v>
       </c>
       <c r="F8" t="n">
-        <v>733.1042929147496</v>
+        <v>900.0778594167047</v>
       </c>
       <c r="G8" t="n">
-        <v>1484.367112863586</v>
+        <v>1347.381039542107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1898428</v>
+        <v>1820489</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1974127</v>
+        <v>1915349</v>
       </c>
       <c r="F9" t="n">
-        <v>115.7470808151358</v>
+        <v>913.0930156931585</v>
       </c>
       <c r="G9" t="n">
-        <v>380.0730502131306</v>
+        <v>58.90645371783255</v>
       </c>
       <c r="H9" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="I9" t="n">
-        <v>155090</v>
+        <v>149792</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1820029</v>
+        <v>1695975</v>
       </c>
       <c r="F10" t="n">
-        <v>1384.622494213451</v>
+        <v>65.63123198146722</v>
       </c>
       <c r="G10" t="n">
-        <v>378.4625126366381</v>
+        <v>24.81690062572693</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>850563</v>
+        <v>515043</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107484049</v>
+        <v>104669346</v>
       </c>
       <c r="E11" t="n">
-        <v>202487207</v>
+        <v>197184640</v>
       </c>
       <c r="F11" t="n">
-        <v>1536.983336285756</v>
+        <v>485.5324606377824</v>
       </c>
       <c r="G11" t="n">
-        <v>2536.008713219156</v>
+        <v>44.78395736446153</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4115660</v>
+        <v>4038286</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12267463</v>
+        <v>12229249</v>
       </c>
       <c r="E12" t="n">
-        <v>30531496</v>
+        <v>30436388</v>
       </c>
       <c r="F12" t="n">
-        <v>547.0592536532477</v>
+        <v>129.8085070849663</v>
       </c>
       <c r="G12" t="n">
-        <v>167.7522838511573</v>
+        <v>2113.713696949956</v>
       </c>
       <c r="H12" t="n">
-        <v>0.29</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>962591</v>
+        <v>1391857</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115517071</v>
+        <v>113073321</v>
       </c>
       <c r="E13" t="n">
-        <v>448129726</v>
+        <v>438447604</v>
       </c>
       <c r="F13" t="n">
-        <v>9902.688358905139</v>
+        <v>21727.80857946923</v>
       </c>
       <c r="G13" t="n">
-        <v>23044.94615883943</v>
+        <v>12748.18297698951</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>6143667</v>
+        <v>5701303</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4777065</v>
+        <v>4912183</v>
       </c>
       <c r="E14" t="n">
-        <v>7032098</v>
+        <v>7231000</v>
       </c>
       <c r="F14" t="n">
-        <v>80.23661178885338</v>
+        <v>2358.383276284884</v>
       </c>
       <c r="G14" t="n">
-        <v>192.5819165696743</v>
+        <v>332.8229508121265</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>716083</v>
+        <v>805856</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>149020758</v>
+        <v>143160373</v>
       </c>
       <c r="E15" t="n">
-        <v>149020758</v>
+        <v>143160373</v>
       </c>
       <c r="F15" t="n">
-        <v>45122.95101660836</v>
+        <v>59585.3611710612</v>
       </c>
       <c r="G15" t="n">
-        <v>82484.80675732273</v>
+        <v>71130.68015448842</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>98115842</v>
+        <v>76932627</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72614904</v>
+        <v>70295929</v>
       </c>
       <c r="E16" t="n">
-        <v>372384121</v>
+        <v>360491943</v>
       </c>
       <c r="F16" t="n">
-        <v>10999.9422580581</v>
+        <v>12480.41767886133</v>
       </c>
       <c r="G16" t="n">
-        <v>18743.53169444487</v>
+        <v>12418.25419357854</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>48538294</v>
+        <v>52044321</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>262366680</v>
+        <v>251104483</v>
       </c>
       <c r="E17" t="n">
-        <v>262366680</v>
+        <v>251104483</v>
       </c>
       <c r="F17" t="n">
-        <v>54272.72779174949</v>
+        <v>70428.25219228078</v>
       </c>
       <c r="G17" t="n">
-        <v>52452.08282580549</v>
+        <v>47504.6455449755</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>13026099</v>
+        <v>11571373</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2752402</v>
+        <v>2727606</v>
       </c>
       <c r="E18" t="n">
-        <v>7036739</v>
+        <v>6973253</v>
       </c>
       <c r="F18" t="n">
-        <v>892.7540312244241</v>
+        <v>781.5365453496607</v>
       </c>
       <c r="G18" t="n">
-        <v>836.0664163498818</v>
+        <v>1499.769038607049</v>
       </c>
       <c r="H18" t="n">
         <v>0.28</v>
       </c>
       <c r="I18" t="n">
-        <v>96928</v>
+        <v>92527</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79641087</v>
+        <v>75156837</v>
       </c>
       <c r="E19" t="n">
-        <v>222890339</v>
+        <v>210406227</v>
       </c>
       <c r="F19" t="n">
-        <v>17377.04456272524</v>
+        <v>21952.31823732025</v>
       </c>
       <c r="G19" t="n">
-        <v>24331.89658213136</v>
+        <v>18808.548512901</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I19" t="n">
-        <v>26063701</v>
+        <v>25449342</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1643868</v>
+        <v>1639086</v>
       </c>
       <c r="E20" t="n">
-        <v>9438479</v>
+        <v>9411019</v>
       </c>
       <c r="F20" t="n">
-        <v>316.5003389065351</v>
+        <v>393.2322074631476</v>
       </c>
       <c r="G20" t="n">
-        <v>597.4924499261355</v>
+        <v>140.721814150634</v>
       </c>
       <c r="H20" t="n">
-        <v>1.43</v>
+        <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>216730</v>
+        <v>211754</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>192561</v>
+        <v>196511</v>
       </c>
       <c r="E21" t="n">
-        <v>1300383</v>
+        <v>1327058</v>
       </c>
       <c r="F21" t="n">
-        <v>299.6521912582962</v>
+        <v>7.311458767356434</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8459548164564</v>
+        <v>18.34793836857517</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I21" t="n">
-        <v>2534259</v>
+        <v>2136820</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244125</v>
+        <v>249149</v>
       </c>
       <c r="F22" t="n">
-        <v>1.332990001824616</v>
+        <v>79.50231768109916</v>
       </c>
       <c r="G22" t="n">
-        <v>75.20588359408993</v>
+        <v>143.9800037164338</v>
       </c>
       <c r="H22" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="I22" t="n">
-        <v>6403.83</v>
+        <v>3422.43</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>88136435</v>
+        <v>83046583</v>
       </c>
       <c r="E23" t="n">
-        <v>183757389</v>
+        <v>173145455</v>
       </c>
       <c r="F23" t="n">
-        <v>8427.379304619672</v>
+        <v>7761.481764987812</v>
       </c>
       <c r="G23" t="n">
-        <v>48948.12114601248</v>
+        <v>49417.78018846733</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>29724649</v>
+        <v>23283680</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>201720019</v>
+        <v>194593281</v>
       </c>
       <c r="E24" t="n">
-        <v>700793577</v>
+        <v>676034645</v>
       </c>
       <c r="F24" t="n">
-        <v>63045.02868781208</v>
+        <v>64784.09119639449</v>
       </c>
       <c r="G24" t="n">
-        <v>63316.40625485478</v>
+        <v>61385.02387073786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>27405878</v>
+        <v>27566676</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>122087602</v>
+        <v>113558203</v>
       </c>
       <c r="E25" t="n">
-        <v>515962832</v>
+        <v>479515139</v>
       </c>
       <c r="F25" t="n">
-        <v>10306.6462013227</v>
+        <v>12819.32520594844</v>
       </c>
       <c r="G25" t="n">
-        <v>15361.73049281343</v>
+        <v>15022.53096120456</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>16676174</v>
+        <v>16572425</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5498416</v>
+        <v>5444917</v>
       </c>
       <c r="E26" t="n">
-        <v>7458300</v>
+        <v>7384510</v>
       </c>
       <c r="F26" t="n">
-        <v>247.4518124573899</v>
+        <v>360.4121440928784</v>
       </c>
       <c r="G26" t="n">
-        <v>2349.544397844509</v>
+        <v>1742.203715904158</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
       <c r="I26" t="n">
-        <v>5034426</v>
+        <v>4845652</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>569552</v>
+        <v>567204</v>
       </c>
       <c r="E27" t="n">
-        <v>6908112</v>
+        <v>6879632</v>
       </c>
       <c r="F27" t="n">
-        <v>1173.50810467152</v>
+        <v>608.9994692325241</v>
       </c>
       <c r="G27" t="n">
-        <v>572.9329112060149</v>
+        <v>718.0219728185565</v>
       </c>
       <c r="H27" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="I27" t="n">
-        <v>2449918</v>
+        <v>2210514</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26458032</v>
+        <v>25971255</v>
       </c>
       <c r="E28" t="n">
-        <v>37381599</v>
+        <v>36686851</v>
       </c>
       <c r="F28" t="n">
-        <v>127.5483583306615</v>
+        <v>203.8037085312849</v>
       </c>
       <c r="G28" t="n">
-        <v>152.2939921897434</v>
+        <v>2550.338526368732</v>
       </c>
       <c r="H28" t="n">
-        <v>2.87</v>
+        <v>2.04</v>
       </c>
       <c r="I28" t="n">
-        <v>77583</v>
+        <v>54350</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1456202934</v>
+        <v>1424280865</v>
       </c>
       <c r="E29" t="n">
-        <v>6982791290</v>
+        <v>6829718434</v>
       </c>
       <c r="F29" t="n">
-        <v>88495.2559021005</v>
+        <v>73098.38833183763</v>
       </c>
       <c r="G29" t="n">
-        <v>198610.8321138044</v>
+        <v>210048.2017807119</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>192228198</v>
+        <v>197102547</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>272515072</v>
+        <v>266626282</v>
       </c>
       <c r="E30" t="n">
-        <v>1176326337</v>
+        <v>1150907049</v>
       </c>
       <c r="F30" t="n">
-        <v>143078.1644685025</v>
+        <v>137178.5463420587</v>
       </c>
       <c r="G30" t="n">
-        <v>178859.5135890335</v>
+        <v>150813.5596068931</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>69975960</v>
+        <v>67396743</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5319600</v>
+        <v>5361791</v>
       </c>
       <c r="E31" t="n">
-        <v>5325621</v>
+        <v>5367859</v>
       </c>
       <c r="F31" t="n">
-        <v>136.5540715641006</v>
+        <v>132.8083515663421</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3938123368467</v>
+        <v>147.108019932403</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>144291</v>
+        <v>154746</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15870081</v>
+        <v>14346406</v>
       </c>
       <c r="E32" t="n">
-        <v>39675203</v>
+        <v>35866016</v>
       </c>
       <c r="F32" t="n">
-        <v>4056.434795846295</v>
+        <v>1892.053869800102</v>
       </c>
       <c r="G32" t="n">
-        <v>4736.27623225631</v>
+        <v>5536.034373204494</v>
       </c>
       <c r="H32" t="n">
-        <v>0.38</v>
+        <v>0.79</v>
       </c>
       <c r="I32" t="n">
-        <v>2354811</v>
+        <v>2308836</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18693628</v>
+        <v>18395018</v>
       </c>
       <c r="F33" t="n">
-        <v>1385.662970115386</v>
+        <v>1297.625049128772</v>
       </c>
       <c r="G33" t="n">
-        <v>3323.746286132996</v>
+        <v>964.6194960734571</v>
       </c>
       <c r="H33" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
-        <v>43670</v>
+        <v>12389</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4510312</v>
+        <v>4021936</v>
       </c>
       <c r="E34" t="n">
-        <v>12988940</v>
+        <v>11582420</v>
       </c>
       <c r="F34" t="n">
-        <v>1118.308117107718</v>
+        <v>1932.074254648401</v>
       </c>
       <c r="G34" t="n">
-        <v>470.4753062744377</v>
+        <v>1126.363660296559</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="I34" t="n">
-        <v>482229</v>
+        <v>454787</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1557518</v>
+        <v>1664668</v>
       </c>
       <c r="F35" t="n">
-        <v>393.9832692680691</v>
+        <v>124.8889857205843</v>
       </c>
       <c r="G35" t="n">
-        <v>136.8900620892449</v>
+        <v>56.81349945159025</v>
       </c>
       <c r="H35" t="n">
-        <v>0.65</v>
+        <v>2.41</v>
       </c>
       <c r="I35" t="n">
-        <v>3111.84</v>
+        <v>2537.83</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14986721</v>
+        <v>14459914</v>
       </c>
       <c r="E36" t="n">
-        <v>72583082</v>
+        <v>70031672</v>
       </c>
       <c r="F36" t="n">
-        <v>2615.254407446661</v>
+        <v>5977.482449485282</v>
       </c>
       <c r="G36" t="n">
-        <v>7054.493192935963</v>
+        <v>7443.353171138986</v>
       </c>
       <c r="H36" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I36" t="n">
-        <v>3422513</v>
+        <v>3087432</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1380482</v>
+        <v>1439309</v>
       </c>
       <c r="E37" t="n">
-        <v>9035220</v>
+        <v>9420237</v>
       </c>
       <c r="F37" t="n">
-        <v>9.834948692114493</v>
+        <v>174.9752877633852</v>
       </c>
       <c r="G37" t="n">
-        <v>857.2467994989111</v>
+        <v>69.27389818476328</v>
       </c>
       <c r="H37" t="n">
-        <v>2.15</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>1274908</v>
+        <v>1196598</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1887779725</v>
+        <v>1891339728</v>
       </c>
       <c r="F38" t="n">
-        <v>71026.423112941</v>
+        <v>77946.52963888823</v>
       </c>
       <c r="G38" t="n">
-        <v>60457.97781614408</v>
+        <v>75279.83780949052</v>
       </c>
       <c r="H38" t="n">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="I38" t="n">
-        <v>26384195</v>
+        <v>26621179</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29794868</v>
+        <v>28966140</v>
       </c>
       <c r="E39" t="n">
-        <v>92771659</v>
+        <v>90191266</v>
       </c>
       <c r="F39" t="n">
-        <v>7632.767085467483</v>
+        <v>5949.45940698135</v>
       </c>
       <c r="G39" t="n">
-        <v>10903.04008722021</v>
+        <v>11183.8655997605</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>10331091</v>
+        <v>9665667</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>198807793</v>
+        <v>194423735</v>
       </c>
       <c r="E40" t="n">
-        <v>1125771883</v>
+        <v>1100946649</v>
       </c>
       <c r="F40" t="n">
-        <v>46499.91969005803</v>
+        <v>43660.24864088716</v>
       </c>
       <c r="G40" t="n">
-        <v>78716.27469351683</v>
+        <v>77638.17288804334</v>
       </c>
       <c r="H40" t="n">
         <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>35217998</v>
+        <v>32806261</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>132145087</v>
+        <v>127490026</v>
       </c>
       <c r="E41" t="n">
-        <v>978852494</v>
+        <v>944370562</v>
       </c>
       <c r="F41" t="n">
-        <v>117345.0957989333</v>
+        <v>81289.13875759876</v>
       </c>
       <c r="G41" t="n">
-        <v>210618.975500653</v>
+        <v>211845.0336722229</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="n">
-        <v>5656391</v>
+        <v>3864557</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30704553</v>
+        <v>30320194</v>
       </c>
       <c r="E42" t="n">
-        <v>145429215</v>
+        <v>143262954</v>
       </c>
       <c r="F42" t="n">
-        <v>7850.067581241618</v>
+        <v>6543.532983391029</v>
       </c>
       <c r="G42" t="n">
-        <v>6215.53272715606</v>
+        <v>6093.646229789434</v>
       </c>
       <c r="H42" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>407843</v>
+        <v>356212</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3220286</v>
+        <v>3569989</v>
       </c>
       <c r="E43" t="n">
-        <v>7519904</v>
+        <v>8336520</v>
       </c>
       <c r="F43" t="n">
-        <v>1868.148274779993</v>
+        <v>253.0850030771185</v>
       </c>
       <c r="G43" t="n">
-        <v>4087.522651559916</v>
+        <v>2523.872493840335</v>
       </c>
       <c r="H43" t="n">
-        <v>1.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>197539</v>
+        <v>302858</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>332907947</v>
+        <v>325886672</v>
       </c>
       <c r="E44" t="n">
-        <v>2995046320</v>
+        <v>2931878573</v>
       </c>
       <c r="F44" t="n">
-        <v>55133.29575882073</v>
+        <v>52339.70481436203</v>
       </c>
       <c r="G44" t="n">
-        <v>45585.49011044612</v>
+        <v>50365.73587120014</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>32330042</v>
+        <v>26272011</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628604</v>
+        <v>628215</v>
       </c>
       <c r="F45" t="n">
-        <v>760.0691584733491</v>
+        <v>783.6221226246731</v>
       </c>
       <c r="G45" t="n">
-        <v>745.3070747746276</v>
+        <v>485.0936132714329</v>
       </c>
       <c r="H45" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>11752.79</v>
+        <v>11074.14</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1578527</v>
+        <v>1560672</v>
       </c>
       <c r="E46" t="n">
-        <v>13154389</v>
+        <v>13005602</v>
       </c>
       <c r="F46" t="n">
-        <v>236.359641606216</v>
+        <v>246.3450183962028</v>
       </c>
       <c r="G46" t="n">
-        <v>401.4411390335883</v>
+        <v>814.8802661574396</v>
       </c>
       <c r="H46" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="I46" t="n">
-        <v>61548</v>
+        <v>32178</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5015300</v>
+        <v>4943435</v>
       </c>
       <c r="E47" t="n">
-        <v>17717890</v>
+        <v>17464009</v>
       </c>
       <c r="F47" t="n">
-        <v>1300.917367675735</v>
+        <v>1014.266717995518</v>
       </c>
       <c r="G47" t="n">
-        <v>1132.70159547149</v>
+        <v>1149.287960836435</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I47" t="n">
-        <v>162634</v>
+        <v>130046</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>51890627</v>
+        <v>42767938</v>
       </c>
       <c r="E48" t="n">
-        <v>300425289</v>
+        <v>247608689</v>
       </c>
       <c r="F48" t="n">
-        <v>18367.18707614598</v>
+        <v>9073.786094928793</v>
       </c>
       <c r="G48" t="n">
-        <v>6214.477965406923</v>
+        <v>23861.51761702659</v>
       </c>
       <c r="H48" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="I48" t="n">
-        <v>12402480</v>
+        <v>27932125</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2269240</v>
+        <v>2202519</v>
       </c>
       <c r="E49" t="n">
-        <v>12467593</v>
+        <v>12101015</v>
       </c>
       <c r="F49" t="n">
-        <v>222.2755472174665</v>
+        <v>1439.600530779181</v>
       </c>
       <c r="G49" t="n">
-        <v>553.1943923311032</v>
+        <v>511.174959452857</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6</v>
+        <v>0.83</v>
       </c>
       <c r="I49" t="n">
-        <v>50177</v>
+        <v>84631</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16759085</v>
+        <v>14512651</v>
       </c>
       <c r="E50" t="n">
-        <v>16816126</v>
+        <v>14562046</v>
       </c>
       <c r="F50" t="n">
-        <v>6027.838573332305</v>
+        <v>4343.903694795312</v>
       </c>
       <c r="G50" t="n">
-        <v>12387.13057738863</v>
+        <v>4159.070334209335</v>
       </c>
       <c r="H50" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="I50" t="n">
-        <v>7904401</v>
+        <v>7740376</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20095765</v>
+        <v>18848531</v>
       </c>
       <c r="E51" t="n">
-        <v>59123548</v>
+        <v>55453707</v>
       </c>
       <c r="F51" t="n">
-        <v>21965.5615875685</v>
+        <v>19382.00873890364</v>
       </c>
       <c r="G51" t="n">
-        <v>26460.35121518815</v>
+        <v>24018.21079912208</v>
       </c>
       <c r="H51" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="I51" t="n">
-        <v>2449544</v>
+        <v>2223300</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15012486</v>
+        <v>14967965</v>
       </c>
       <c r="E52" t="n">
-        <v>92016462</v>
+        <v>91743582</v>
       </c>
       <c r="F52" t="n">
-        <v>4376.724451908484</v>
+        <v>5203.341077347075</v>
       </c>
       <c r="G52" t="n">
-        <v>8810.699885981665</v>
+        <v>7412.309876589692</v>
       </c>
       <c r="H52" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>11292653</v>
+        <v>10826429</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50139979</v>
+        <v>48885692</v>
       </c>
       <c r="E53" t="n">
-        <v>215997547</v>
+        <v>210594214</v>
       </c>
       <c r="F53" t="n">
-        <v>20256.74116101892</v>
+        <v>17436.23503176671</v>
       </c>
       <c r="G53" t="n">
-        <v>23359.6458132902</v>
+        <v>22922.79133643462</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I53" t="n">
-        <v>11577876</v>
+        <v>10203123</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1016536</v>
+        <v>1005660</v>
       </c>
       <c r="E54" t="n">
-        <v>2971159</v>
+        <v>2939372</v>
       </c>
       <c r="F54" t="n">
-        <v>236.8028073656532</v>
+        <v>373.8023796382122</v>
       </c>
       <c r="G54" t="n">
-        <v>2027.184304082424</v>
+        <v>1886.545779436336</v>
       </c>
       <c r="H54" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="I54" t="n">
-        <v>2773.83</v>
+        <v>5514.19</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32541672</v>
+        <v>31556699</v>
       </c>
       <c r="E55" t="n">
-        <v>82054473</v>
+        <v>79570845</v>
       </c>
       <c r="F55" t="n">
-        <v>11089.66187300405</v>
+        <v>12943.9009725258</v>
       </c>
       <c r="G55" t="n">
-        <v>14944.01465929521</v>
+        <v>19703.48911932413</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2481130</v>
+        <v>2125362</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28240627</v>
+        <v>27878247</v>
       </c>
       <c r="E56" t="n">
-        <v>66992003</v>
+        <v>66132372</v>
       </c>
       <c r="F56" t="n">
-        <v>13764.37300982515</v>
+        <v>13224.82558258888</v>
       </c>
       <c r="G56" t="n">
-        <v>13628.25748115241</v>
+        <v>13840.66377101572</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>359099</v>
+        <v>319374</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11939834</v>
+        <v>11962708</v>
       </c>
       <c r="E57" t="n">
-        <v>18131401</v>
+        <v>18166136</v>
       </c>
       <c r="F57" t="n">
-        <v>1920.344020886336</v>
+        <v>3984.296044318743</v>
       </c>
       <c r="G57" t="n">
-        <v>2255.0094213864</v>
+        <v>10065.55505196418</v>
       </c>
       <c r="H57" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
       <c r="I57" t="n">
-        <v>718706</v>
+        <v>743061</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>310159987</v>
+        <v>299106489</v>
       </c>
       <c r="E58" t="n">
-        <v>310159987</v>
+        <v>299106489</v>
       </c>
       <c r="F58" t="n">
-        <v>32853.85049702875</v>
+        <v>44872.61462898867</v>
       </c>
       <c r="G58" t="n">
-        <v>57290.90020616872</v>
+        <v>58436.09777198145</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>62955285</v>
+        <v>73748841</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11881441</v>
+        <v>11961672</v>
       </c>
       <c r="F59" t="n">
-        <v>38.07038406836881</v>
+        <v>15.45711528694329</v>
       </c>
       <c r="G59" t="n">
-        <v>289.1108696138099</v>
+        <v>96.83775260871046</v>
       </c>
       <c r="H59" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I59" t="n">
-        <v>27727</v>
+        <v>30408</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90463355</v>
+        <v>88817353</v>
       </c>
       <c r="E60" t="n">
-        <v>521288870</v>
+        <v>511803899</v>
       </c>
       <c r="F60" t="n">
-        <v>99569.56890104651</v>
+        <v>103859.2472814775</v>
       </c>
       <c r="G60" t="n">
-        <v>96525.07633204997</v>
+        <v>97086.57188194424</v>
       </c>
       <c r="H60" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>27907920</v>
+        <v>16452672</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9294409</v>
+        <v>9265782</v>
       </c>
       <c r="E61" t="n">
-        <v>9294409</v>
+        <v>9265782</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>635.0662037909709</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2617.135487963394</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>1.99</v>
       </c>
       <c r="I61" t="n">
-        <v>2269464</v>
+        <v>2266644</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33576540</v>
+        <v>30755713</v>
       </c>
       <c r="E62" t="n">
-        <v>150335942</v>
+        <v>137705944</v>
       </c>
       <c r="F62" t="n">
-        <v>17176.20027464145</v>
+        <v>26389.96949384558</v>
       </c>
       <c r="G62" t="n">
-        <v>19648.07988566245</v>
+        <v>19815.08143149343</v>
       </c>
       <c r="H62" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>26061691</v>
+        <v>25175914</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11659370</v>
+        <v>11017792</v>
       </c>
       <c r="E63" t="n">
-        <v>23302395</v>
+        <v>22020138</v>
       </c>
       <c r="F63" t="n">
-        <v>1687.588087995745</v>
+        <v>5.181518633430684</v>
       </c>
       <c r="G63" t="n">
-        <v>1575.665470708514</v>
+        <v>5.275643675893908</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>43325</v>
+        <v>72624</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1293912</v>
+        <v>1286556</v>
       </c>
       <c r="F64" t="n">
-        <v>1.912549915506383</v>
+        <v>207.9338485478469</v>
       </c>
       <c r="G64" t="n">
-        <v>61.78946255570995</v>
+        <v>128.5456221311442</v>
       </c>
       <c r="H64" t="n">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
       <c r="I64" t="n">
-        <v>25575</v>
+        <v>8574.74</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50788502</v>
+        <v>48466876</v>
       </c>
       <c r="E65" t="n">
-        <v>329349920</v>
+        <v>314294793</v>
       </c>
       <c r="F65" t="n">
-        <v>22424.2762603925</v>
+        <v>16383.47619554127</v>
       </c>
       <c r="G65" t="n">
-        <v>21988.17195178688</v>
+        <v>21332.78424784288</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>19222799</v>
+        <v>19641061</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4737763</v>
+        <v>4674907</v>
       </c>
       <c r="F66" t="n">
-        <v>1183.691963108444</v>
+        <v>123.444296645803</v>
       </c>
       <c r="G66" t="n">
-        <v>134.2507684099303</v>
+        <v>117.6021936054115</v>
       </c>
       <c r="H66" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="I66" t="n">
-        <v>280238</v>
+        <v>276717</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123761473</v>
+        <v>123477487</v>
       </c>
       <c r="E67" t="n">
-        <v>2049591352</v>
+        <v>2044888318</v>
       </c>
       <c r="F67" t="n">
-        <v>172898.8068136173</v>
+        <v>168115.1607622901</v>
       </c>
       <c r="G67" t="n">
-        <v>97968.40729956828</v>
+        <v>161799.0537426787</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>57912116</v>
+        <v>12964218</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24133870</v>
+        <v>23013000</v>
       </c>
       <c r="E68" t="n">
-        <v>144397795</v>
+        <v>137691408</v>
       </c>
       <c r="F68" t="n">
-        <v>42909.01131196793</v>
+        <v>43913.1014900609</v>
       </c>
       <c r="G68" t="n">
-        <v>48240.49291274392</v>
+        <v>43376.74040575635</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>13382431</v>
+        <v>12369667</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>25715786</v>
+        <v>25412744</v>
       </c>
       <c r="E70" t="n">
-        <v>25715786</v>
+        <v>25412744</v>
       </c>
       <c r="F70" t="n">
-        <v>3632.707935234648</v>
+        <v>3030.37710847514</v>
       </c>
       <c r="G70" t="n">
-        <v>4565.975324770292</v>
+        <v>15441.0580661319</v>
       </c>
       <c r="H70" t="n">
         <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>2208276</v>
+        <v>1988558</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35252822</v>
+        <v>33830854</v>
       </c>
       <c r="E71" t="n">
-        <v>175927834</v>
+        <v>168831554</v>
       </c>
       <c r="F71" t="n">
-        <v>19615.86529359167</v>
+        <v>20113.73801708966</v>
       </c>
       <c r="G71" t="n">
-        <v>34054.54883087405</v>
+        <v>36686.93545718512</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>10420319</v>
+        <v>9642818</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>154811</v>
+        <v>175596</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>31295</v>
+        <v>36515</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>305476882</v>
+        <v>293836755</v>
       </c>
       <c r="E73" t="n">
-        <v>565201894</v>
+        <v>543665005</v>
       </c>
       <c r="F73" t="n">
-        <v>56021.73942400639</v>
+        <v>53541.35793483892</v>
       </c>
       <c r="G73" t="n">
-        <v>58118.14476201436</v>
+        <v>56710.99716240283</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>12820696</v>
+        <v>11887986</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10473933</v>
+        <v>11013246</v>
       </c>
       <c r="E74" t="n">
-        <v>31044783</v>
+        <v>32642258</v>
       </c>
       <c r="F74" t="n">
-        <v>371.2930517950187</v>
+        <v>980.209682845748</v>
       </c>
       <c r="G74" t="n">
-        <v>1318.240848896236</v>
+        <v>1829.155711523221</v>
       </c>
       <c r="H74" t="n">
-        <v>0.16</v>
+        <v>0.84</v>
       </c>
       <c r="I74" t="n">
-        <v>4291721</v>
+        <v>4564453</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8629479</v>
+        <v>8431752</v>
       </c>
       <c r="E75" t="n">
-        <v>12293739</v>
+        <v>12012054</v>
       </c>
       <c r="F75" t="n">
-        <v>4129.375784959874</v>
+        <v>17.81782589542244</v>
       </c>
       <c r="G75" t="n">
-        <v>188.9295710723083</v>
+        <v>1446.576160127572</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="I75" t="n">
-        <v>268139</v>
+        <v>261846</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16026365</v>
+        <v>15802610</v>
       </c>
       <c r="F76" t="n">
-        <v>1.87900688008913</v>
+        <v>0.5608996075827067</v>
       </c>
       <c r="G76" t="n">
-        <v>558.0335747872025</v>
+        <v>646.7253619637753</v>
       </c>
       <c r="H76" t="n">
-        <v>1.56</v>
+        <v>1.07</v>
       </c>
       <c r="I76" t="n">
-        <v>948051</v>
+        <v>849604</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>73319993</v>
+        <v>72938562</v>
       </c>
       <c r="E77" t="n">
-        <v>101498180</v>
+        <v>100952178</v>
       </c>
       <c r="F77" t="n">
-        <v>8272.097359052717</v>
+        <v>8674.746274017585</v>
       </c>
       <c r="G77" t="n">
-        <v>23083.81386882841</v>
+        <v>13495.01305087804</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I77" t="n">
-        <v>4628591</v>
+        <v>4759659</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6023918</v>
+        <v>5834400</v>
       </c>
       <c r="E78" t="n">
-        <v>6023918</v>
+        <v>5834400</v>
       </c>
       <c r="F78" t="n">
-        <v>226.7155878474353</v>
+        <v>84.24073041371933</v>
       </c>
       <c r="G78" t="n">
-        <v>181.6467147175498</v>
+        <v>49.62638728583303</v>
       </c>
       <c r="H78" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="I78" t="n">
-        <v>966350</v>
+        <v>961323</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>61104</v>
+        <v>58901</v>
       </c>
       <c r="E79" t="n">
-        <v>318818</v>
+        <v>307321</v>
       </c>
       <c r="F79" t="n">
-        <v>6.844815159619084</v>
+        <v>11.66544022021093</v>
       </c>
       <c r="G79" t="n">
-        <v>710.0309770927832</v>
+        <v>69.00610296022091</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03</v>
+        <v>1.37</v>
       </c>
       <c r="I79" t="n">
-        <v>158418</v>
+        <v>168552</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27524890</v>
+        <v>27090795</v>
       </c>
       <c r="F80" t="n">
-        <v>415.7416283168972</v>
+        <v>650.8814574850131</v>
       </c>
       <c r="G80" t="n">
-        <v>860.9986594069902</v>
+        <v>2731.161910130126</v>
       </c>
       <c r="H80" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I80" t="n">
-        <v>18450.08</v>
+        <v>10445.87</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>604319382</v>
+        <v>595987667</v>
       </c>
       <c r="E81" t="n">
-        <v>2340439806</v>
+        <v>2308172304</v>
       </c>
       <c r="F81" t="n">
-        <v>182813.3058168605</v>
+        <v>175693.6446718092</v>
       </c>
       <c r="G81" t="n">
-        <v>179817.3934124442</v>
+        <v>179159.7237802655</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>24908675</v>
+        <v>26140930</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7017392</v>
+        <v>6713065</v>
       </c>
       <c r="E82" t="n">
-        <v>10054148</v>
+        <v>9617870</v>
       </c>
       <c r="F82" t="n">
-        <v>1398.806365621864</v>
+        <v>1385.315083513689</v>
       </c>
       <c r="G82" t="n">
-        <v>2855.228461444932</v>
+        <v>563.4396657546049</v>
       </c>
       <c r="H82" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="I82" t="n">
-        <v>176848</v>
+        <v>177322</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>112384768</v>
+        <v>108253316</v>
       </c>
       <c r="E83" t="n">
-        <v>1063358009</v>
+        <v>1024267189</v>
       </c>
       <c r="F83" t="n">
-        <v>39680.87487836313</v>
+        <v>33021.65721663523</v>
       </c>
       <c r="G83" t="n">
-        <v>26528.20614040125</v>
+        <v>26297.87826771726</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9039152</v>
+        <v>8930098</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1183852</v>
+        <v>1149569</v>
       </c>
       <c r="E84" t="n">
-        <v>4584132</v>
+        <v>4451383</v>
       </c>
       <c r="F84" t="n">
-        <v>1056.717802531248</v>
+        <v>1048.179961094394</v>
       </c>
       <c r="G84" t="n">
-        <v>1301.906839885993</v>
+        <v>2028.025499383472</v>
       </c>
       <c r="H84" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="I84" t="n">
-        <v>331090</v>
+        <v>414904</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>128082188</v>
+        <v>125768732</v>
       </c>
       <c r="E85" t="n">
-        <v>491343888</v>
+        <v>482469099</v>
       </c>
       <c r="F85" t="n">
-        <v>69027.89149713375</v>
+        <v>70324.98980300978</v>
       </c>
       <c r="G85" t="n">
-        <v>86871.9604332797</v>
+        <v>85446.02116966687</v>
       </c>
       <c r="H85" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>19107260</v>
+        <v>16547797</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5323518</v>
+        <v>5283015</v>
       </c>
       <c r="E86" t="n">
-        <v>19741066</v>
+        <v>19550131</v>
       </c>
       <c r="F86" t="n">
-        <v>2669.401040004549</v>
+        <v>5639.400594679435</v>
       </c>
       <c r="G86" t="n">
-        <v>5681.360971311836</v>
+        <v>5433.781238713049</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="I86" t="n">
-        <v>142931</v>
+        <v>86982</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>37840717</v>
+        <v>37851519</v>
       </c>
       <c r="F87" t="n">
-        <v>2939.441755208964</v>
+        <v>2614.349646123136</v>
       </c>
       <c r="G87" t="n">
-        <v>2007.999064728532</v>
+        <v>2697.5724537051</v>
       </c>
       <c r="H87" t="n">
         <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>12307026</v>
+        <v>5190101</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>28751902</v>
+        <v>28463754</v>
       </c>
       <c r="F88" t="n">
-        <v>713.5532178499368</v>
+        <v>1109.530540564015</v>
       </c>
       <c r="G88" t="n">
-        <v>1007.123444074681</v>
+        <v>1201.287979036231</v>
       </c>
       <c r="H88" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I88" t="n">
-        <v>32965</v>
+        <v>9182.66</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>101865977</v>
+        <v>101891110</v>
       </c>
       <c r="E89" t="n">
-        <v>375182657</v>
+        <v>375266935</v>
       </c>
       <c r="F89" t="n">
-        <v>1086.375973724396</v>
+        <v>1344.681723359321</v>
       </c>
       <c r="G89" t="n">
-        <v>1997.283773042853</v>
+        <v>1664.429511929114</v>
       </c>
       <c r="H89" t="n">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="I89" t="n">
-        <v>936616</v>
+        <v>373850</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20744876</v>
+        <v>20420471</v>
       </c>
       <c r="E90" t="n">
-        <v>20744876</v>
+        <v>20420471</v>
       </c>
       <c r="F90" t="n">
-        <v>5294.25840724994</v>
+        <v>2829.9125026426</v>
       </c>
       <c r="G90" t="n">
-        <v>2624.173728795721</v>
+        <v>3428.94884011288</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="n">
-        <v>7088169</v>
+        <v>6961839</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3752213</v>
+        <v>3813233</v>
       </c>
       <c r="E91" t="n">
-        <v>8171332</v>
+        <v>8296136</v>
       </c>
       <c r="F91" t="n">
-        <v>1752.633034255506</v>
+        <v>1657.269433279792</v>
       </c>
       <c r="G91" t="n">
-        <v>1734.498520670648</v>
+        <v>1688.426746458641</v>
       </c>
       <c r="H91" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1716247</v>
+        <v>1492957</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>478127015</v>
+        <v>463539996</v>
       </c>
       <c r="E92" t="n">
-        <v>1662634165</v>
+        <v>1611909409</v>
       </c>
       <c r="F92" t="n">
-        <v>174169.8740015134</v>
+        <v>165962.0075059292</v>
       </c>
       <c r="G92" t="n">
-        <v>168760.4455538293</v>
+        <v>161700.7763610314</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>24580561</v>
+        <v>24682585</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2237031</v>
+        <v>2230007</v>
       </c>
       <c r="E93" t="n">
-        <v>8948125</v>
+        <v>8920027</v>
       </c>
       <c r="F93" t="n">
-        <v>1817.183747596128</v>
+        <v>1857.282020613345</v>
       </c>
       <c r="G93" t="n">
-        <v>2822.270104073465</v>
+        <v>2151.573155464551</v>
       </c>
       <c r="H93" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="I93" t="n">
-        <v>6055585</v>
+        <v>5219783</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>226524677</v>
+        <v>221965829</v>
       </c>
       <c r="E94" t="n">
-        <v>696478135</v>
+        <v>682461394</v>
       </c>
       <c r="F94" t="n">
-        <v>92890.9628157906</v>
+        <v>96561.66573048204</v>
       </c>
       <c r="G94" t="n">
-        <v>112221.7162246989</v>
+        <v>89217.17592135805</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>33594027</v>
+        <v>39444183</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>136494143</v>
+        <v>134974951</v>
       </c>
       <c r="E95" t="n">
-        <v>356587162</v>
+        <v>352618314</v>
       </c>
       <c r="F95" t="n">
-        <v>29649.16872804521</v>
+        <v>12362.90386055214</v>
       </c>
       <c r="G95" t="n">
-        <v>49541.90614477105</v>
+        <v>29904.50661851883</v>
       </c>
       <c r="H95" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3243805</v>
+        <v>3639878</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>396453173</v>
+        <v>389428839</v>
       </c>
       <c r="E96" t="n">
-        <v>2265446703</v>
+        <v>2225307651</v>
       </c>
       <c r="F96" t="n">
-        <v>42117.7290431406</v>
+        <v>35429.8931479368</v>
       </c>
       <c r="G96" t="n">
-        <v>37632.74523348604</v>
+        <v>42499.64029832607</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>41518173</v>
+        <v>34518924</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>612192910</v>
+        <v>607450928</v>
       </c>
       <c r="E2" t="n">
-        <v>1188202623</v>
+        <v>1178997748</v>
       </c>
       <c r="F2" t="n">
-        <v>19506.48236227029</v>
+        <v>22396.60463101947</v>
       </c>
       <c r="G2" t="n">
-        <v>35602.52172957</v>
+        <v>31598.62273823639</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>15711552</v>
+        <v>16133493</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1444627</v>
+        <v>1397681</v>
       </c>
       <c r="E3" t="n">
-        <v>4669627</v>
+        <v>4517878</v>
       </c>
       <c r="F3" t="n">
-        <v>2813.13492759992</v>
+        <v>4065.469507423805</v>
       </c>
       <c r="G3" t="n">
-        <v>4312.582419043918</v>
+        <v>4288.695370355646</v>
       </c>
       <c r="H3" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>143182</v>
+        <v>141756</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250450367</v>
+        <v>247322285</v>
       </c>
       <c r="E4" t="n">
-        <v>1570539048</v>
+        <v>1550923283</v>
       </c>
       <c r="F4" t="n">
-        <v>146826.4638944826</v>
+        <v>137777.1883113136</v>
       </c>
       <c r="G4" t="n">
-        <v>143505.8424185135</v>
+        <v>141955.675818073</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>16402169</v>
+        <v>14783317</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142690521</v>
+        <v>140285380</v>
       </c>
       <c r="E5" t="n">
-        <v>158123396</v>
+        <v>155458124</v>
       </c>
       <c r="F5" t="n">
-        <v>5937.387550505414</v>
+        <v>5113.887554669815</v>
       </c>
       <c r="G5" t="n">
-        <v>10181.97421802138</v>
+        <v>6697.464318828091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>30284062</v>
+        <v>30195757</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>668521</v>
+        <v>670481</v>
       </c>
       <c r="E6" t="n">
-        <v>12975491</v>
+        <v>13013552</v>
       </c>
       <c r="F6" t="n">
-        <v>265.5493220791934</v>
+        <v>383.4141948155237</v>
       </c>
       <c r="G6" t="n">
-        <v>206.8233957143104</v>
+        <v>384.0592548369011</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
       <c r="I6" t="n">
-        <v>5530.23</v>
+        <v>7746.9</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>464306613</v>
+        <v>474713570</v>
       </c>
       <c r="E7" t="n">
-        <v>464306613</v>
+        <v>474713572</v>
       </c>
       <c r="F7" t="n">
-        <v>46499.88870732307</v>
+        <v>41228.52620252725</v>
       </c>
       <c r="G7" t="n">
-        <v>52103.42013002301</v>
+        <v>52790.50188344911</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>30472218</v>
+        <v>31977606</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4491288</v>
+        <v>4424981</v>
       </c>
       <c r="E8" t="n">
-        <v>4491288</v>
+        <v>4424981</v>
       </c>
       <c r="F8" t="n">
-        <v>900.0778594167047</v>
+        <v>859.7913928696769</v>
       </c>
       <c r="G8" t="n">
-        <v>1347.381039542107</v>
+        <v>1153.200486873603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>1.24</v>
       </c>
       <c r="I8" t="n">
-        <v>1820489</v>
+        <v>1781530</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1915349</v>
+        <v>1928242</v>
       </c>
       <c r="F9" t="n">
-        <v>913.0930156931585</v>
+        <v>359.3568695669775</v>
       </c>
       <c r="G9" t="n">
-        <v>58.90645371783255</v>
+        <v>19.76588342571016</v>
       </c>
       <c r="H9" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="I9" t="n">
-        <v>149792</v>
+        <v>126219</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1695975</v>
+        <v>1669616</v>
       </c>
       <c r="F10" t="n">
-        <v>65.63123198146722</v>
+        <v>176.2336587779992</v>
       </c>
       <c r="G10" t="n">
-        <v>24.81690062572693</v>
+        <v>218.5276245787433</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I10" t="n">
-        <v>515043</v>
+        <v>412595</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>104669346</v>
+        <v>101701670</v>
       </c>
       <c r="E11" t="n">
-        <v>197184640</v>
+        <v>191593890</v>
       </c>
       <c r="F11" t="n">
-        <v>485.5324606377824</v>
+        <v>1801.199466373085</v>
       </c>
       <c r="G11" t="n">
-        <v>44.78395736446153</v>
+        <v>2480.424360404383</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>4038286</v>
+        <v>3809943</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12229249</v>
+        <v>12242403</v>
       </c>
       <c r="E12" t="n">
-        <v>30436388</v>
+        <v>30469127</v>
       </c>
       <c r="F12" t="n">
-        <v>129.8085070849663</v>
+        <v>154.1477693534332</v>
       </c>
       <c r="G12" t="n">
-        <v>2113.713696949956</v>
+        <v>1677.196933999949</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1391857</v>
+        <v>1421884</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113073321</v>
+        <v>109324109</v>
       </c>
       <c r="E13" t="n">
-        <v>438447604</v>
+        <v>423655953</v>
       </c>
       <c r="F13" t="n">
-        <v>21727.80857946923</v>
+        <v>22047.67214512916</v>
       </c>
       <c r="G13" t="n">
-        <v>12748.18297698951</v>
+        <v>13252.94310125399</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>5701303</v>
+        <v>7586051</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4912183</v>
+        <v>4698525</v>
       </c>
       <c r="E14" t="n">
-        <v>7231000</v>
+        <v>6916484</v>
       </c>
       <c r="F14" t="n">
-        <v>2358.383276284884</v>
+        <v>5.502972136825826</v>
       </c>
       <c r="G14" t="n">
-        <v>332.8229508121265</v>
+        <v>238.9889509984763</v>
       </c>
       <c r="H14" t="n">
         <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>805856</v>
+        <v>721488</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>143160373</v>
+        <v>142030387</v>
       </c>
       <c r="E15" t="n">
-        <v>143160373</v>
+        <v>142030387</v>
       </c>
       <c r="F15" t="n">
-        <v>59585.3611710612</v>
+        <v>74676.97867676779</v>
       </c>
       <c r="G15" t="n">
-        <v>71130.68015448842</v>
+        <v>108321.2977911761</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>76932627</v>
+        <v>63947009</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70295929</v>
+        <v>68825640</v>
       </c>
       <c r="E16" t="n">
-        <v>360491943</v>
+        <v>352952002</v>
       </c>
       <c r="F16" t="n">
-        <v>12480.41767886133</v>
+        <v>22809.98850079821</v>
       </c>
       <c r="G16" t="n">
-        <v>12418.25419357854</v>
+        <v>24780.58971999192</v>
       </c>
       <c r="H16" t="n">
         <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>52044321</v>
+        <v>28129496</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251104483</v>
+        <v>244069883</v>
       </c>
       <c r="E17" t="n">
-        <v>251104483</v>
+        <v>244069883</v>
       </c>
       <c r="F17" t="n">
-        <v>70428.25219228078</v>
+        <v>60564.47844403375</v>
       </c>
       <c r="G17" t="n">
-        <v>47504.6455449755</v>
+        <v>57810.1282238397</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>11571373</v>
+        <v>15022493</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2727606</v>
+        <v>2701404</v>
       </c>
       <c r="E18" t="n">
-        <v>6973253</v>
+        <v>6906265</v>
       </c>
       <c r="F18" t="n">
-        <v>781.5365453496607</v>
+        <v>382.8909850852701</v>
       </c>
       <c r="G18" t="n">
-        <v>1499.769038607049</v>
+        <v>1315.279703070333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I18" t="n">
-        <v>92527</v>
+        <v>84921</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75156837</v>
+        <v>74885789</v>
       </c>
       <c r="E19" t="n">
-        <v>210406227</v>
+        <v>209650884</v>
       </c>
       <c r="F19" t="n">
-        <v>21952.31823732025</v>
+        <v>23512.80532438604</v>
       </c>
       <c r="G19" t="n">
-        <v>18808.548512901</v>
+        <v>21623.06099535104</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>25449342</v>
+        <v>22909375</v>
       </c>
     </row>
     <row r="20">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Card Games, Gaming Utility Token, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, Animoca Brands Portfolio, Card Games, Gaming Utility Token, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1639086</v>
+        <v>1657961</v>
       </c>
       <c r="E20" t="n">
-        <v>9411019</v>
+        <v>9519393</v>
       </c>
       <c r="F20" t="n">
-        <v>393.2322074631476</v>
+        <v>356.5985314412621</v>
       </c>
       <c r="G20" t="n">
-        <v>140.721814150634</v>
+        <v>181.399619609566</v>
       </c>
       <c r="H20" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="I20" t="n">
-        <v>211754</v>
+        <v>187658</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>196511</v>
+        <v>192748</v>
       </c>
       <c r="E21" t="n">
-        <v>1327058</v>
+        <v>1301648</v>
       </c>
       <c r="F21" t="n">
-        <v>7.311458767356434</v>
+        <v>211.0656901341888</v>
       </c>
       <c r="G21" t="n">
-        <v>18.34793836857517</v>
+        <v>5.262761996809292</v>
       </c>
       <c r="H21" t="n">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2136820</v>
+        <v>2138031</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>249149</v>
+        <v>267478</v>
       </c>
       <c r="F22" t="n">
-        <v>79.50231768109916</v>
+        <v>16.14802910374993</v>
       </c>
       <c r="G22" t="n">
-        <v>143.9800037164338</v>
+        <v>40.94483065610854</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>3422.43</v>
+        <v>14211.62</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83046583</v>
+        <v>84389165</v>
       </c>
       <c r="E23" t="n">
-        <v>173145455</v>
+        <v>175944630</v>
       </c>
       <c r="F23" t="n">
-        <v>7761.481764987812</v>
+        <v>40809.17646365358</v>
       </c>
       <c r="G23" t="n">
-        <v>49417.78018846733</v>
+        <v>47522.83795916801</v>
       </c>
       <c r="H23" t="n">
         <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>23283680</v>
+        <v>16629153</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194593281</v>
+        <v>194997849</v>
       </c>
       <c r="E24" t="n">
-        <v>676034645</v>
+        <v>677440152</v>
       </c>
       <c r="F24" t="n">
-        <v>64784.09119639449</v>
+        <v>61792.16401427882</v>
       </c>
       <c r="G24" t="n">
-        <v>61385.02387073786</v>
+        <v>62907.119502911</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27566676</v>
+        <v>24408807</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113558203</v>
+        <v>112395461</v>
       </c>
       <c r="E25" t="n">
-        <v>479515139</v>
+        <v>474089000</v>
       </c>
       <c r="F25" t="n">
-        <v>12819.32520594844</v>
+        <v>17162.05167800648</v>
       </c>
       <c r="G25" t="n">
-        <v>15022.53096120456</v>
+        <v>12690.71849245557</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>16572425</v>
+        <v>10528550</v>
       </c>
     </row>
     <row r="26">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SocialFi, NFT, BNB Chain Ecosystem, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, NFTFi, Blast Ecosystem</t>
+          <t>SocialFi, NFT, BNB Chain Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, NFTFi, Blast Ecosystem</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5444917</v>
+        <v>5448690</v>
       </c>
       <c r="E26" t="n">
-        <v>7384510</v>
+        <v>7388388</v>
       </c>
       <c r="F26" t="n">
-        <v>360.4121440928784</v>
+        <v>274.0479233074307</v>
       </c>
       <c r="G26" t="n">
-        <v>1742.203715904158</v>
+        <v>2111.863005160316</v>
       </c>
       <c r="H26" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="I26" t="n">
-        <v>4845652</v>
+        <v>4596915</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>567204</v>
+        <v>551326</v>
       </c>
       <c r="E27" t="n">
-        <v>6879632</v>
+        <v>6687050</v>
       </c>
       <c r="F27" t="n">
-        <v>608.9994692325241</v>
+        <v>768.889861608654</v>
       </c>
       <c r="G27" t="n">
-        <v>718.0219728185565</v>
+        <v>471.7307288673521</v>
       </c>
       <c r="H27" t="n">
-        <v>1.13</v>
+        <v>0.39</v>
       </c>
       <c r="I27" t="n">
-        <v>2210514</v>
+        <v>2129090</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25971255</v>
+        <v>26204336</v>
       </c>
       <c r="E28" t="n">
-        <v>36686851</v>
+        <v>37016099</v>
       </c>
       <c r="F28" t="n">
-        <v>203.8037085312849</v>
+        <v>1.128682274816922</v>
       </c>
       <c r="G28" t="n">
-        <v>2550.338526368732</v>
+        <v>1.71221881146589</v>
       </c>
       <c r="H28" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="I28" t="n">
-        <v>54350</v>
+        <v>63302</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1424280865</v>
+        <v>1316797194</v>
       </c>
       <c r="E29" t="n">
-        <v>6829718434</v>
+        <v>6314312221</v>
       </c>
       <c r="F29" t="n">
-        <v>73098.38833183763</v>
+        <v>80528.81661901894</v>
       </c>
       <c r="G29" t="n">
-        <v>210048.2017807119</v>
+        <v>218775.1449816383</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>197102547</v>
+        <v>209113207</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266626282</v>
+        <v>261416708</v>
       </c>
       <c r="E30" t="n">
-        <v>1150907049</v>
+        <v>1128419634</v>
       </c>
       <c r="F30" t="n">
-        <v>137178.5463420587</v>
+        <v>138568.7040870615</v>
       </c>
       <c r="G30" t="n">
-        <v>150813.5596068931</v>
+        <v>158391.0492285246</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>67396743</v>
+        <v>70727066</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5361791</v>
+        <v>5353035</v>
       </c>
       <c r="E31" t="n">
-        <v>5367859</v>
+        <v>5359093</v>
       </c>
       <c r="F31" t="n">
-        <v>132.8083515663421</v>
+        <v>453.176541285156</v>
       </c>
       <c r="G31" t="n">
-        <v>147.108019932403</v>
+        <v>702.4690180207821</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>154746</v>
+        <v>154736</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14346406</v>
+        <v>14601954</v>
       </c>
       <c r="E32" t="n">
-        <v>35866016</v>
+        <v>36504885</v>
       </c>
       <c r="F32" t="n">
-        <v>1892.053869800102</v>
+        <v>1526.10655429164</v>
       </c>
       <c r="G32" t="n">
-        <v>5536.034373204494</v>
+        <v>5164.507300874799</v>
       </c>
       <c r="H32" t="n">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="I32" t="n">
-        <v>2308836</v>
+        <v>2629793</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18395018</v>
+        <v>18142672</v>
       </c>
       <c r="F33" t="n">
-        <v>1297.625049128772</v>
+        <v>1808.490374140723</v>
       </c>
       <c r="G33" t="n">
-        <v>964.6194960734571</v>
+        <v>2199.24615711821</v>
       </c>
       <c r="H33" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I33" t="n">
-        <v>12389</v>
+        <v>21557</v>
       </c>
     </row>
     <row r="34">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4021936</v>
+        <v>3959297</v>
       </c>
       <c r="E34" t="n">
-        <v>11582420</v>
+        <v>11402011</v>
       </c>
       <c r="F34" t="n">
-        <v>1932.074254648401</v>
+        <v>568.7315454453975</v>
       </c>
       <c r="G34" t="n">
-        <v>1126.363660296559</v>
+        <v>637.7532987569048</v>
       </c>
       <c r="H34" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I34" t="n">
-        <v>454787</v>
+        <v>399397</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1664668</v>
+        <v>1612029</v>
       </c>
       <c r="F35" t="n">
-        <v>124.8889857205843</v>
+        <v>77.1530270372655</v>
       </c>
       <c r="G35" t="n">
-        <v>56.81349945159025</v>
+        <v>52.71541666799622</v>
       </c>
       <c r="H35" t="n">
-        <v>2.41</v>
+        <v>1.84</v>
       </c>
       <c r="I35" t="n">
-        <v>2537.83</v>
+        <v>3065.82</v>
       </c>
     </row>
     <row r="36">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14459914</v>
+        <v>14259543</v>
       </c>
       <c r="E36" t="n">
-        <v>70031672</v>
+        <v>69061244</v>
       </c>
       <c r="F36" t="n">
-        <v>5977.482449485282</v>
+        <v>2000.507438973429</v>
       </c>
       <c r="G36" t="n">
-        <v>7443.353171138986</v>
+        <v>4909.558150204321</v>
       </c>
       <c r="H36" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="I36" t="n">
-        <v>3087432</v>
+        <v>2728516</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1439309</v>
+        <v>1407936</v>
       </c>
       <c r="E37" t="n">
-        <v>9420237</v>
+        <v>9214903</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9752877633852</v>
+        <v>74.79527851525059</v>
       </c>
       <c r="G37" t="n">
-        <v>69.27389818476328</v>
+        <v>831.0196763298528</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I37" t="n">
-        <v>1196598</v>
+        <v>976669</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1891339728</v>
+        <v>1888207738</v>
       </c>
       <c r="F38" t="n">
-        <v>77946.52963888823</v>
+        <v>71861.27436100561</v>
       </c>
       <c r="G38" t="n">
-        <v>75279.83780949052</v>
+        <v>73748.87014413674</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="I38" t="n">
-        <v>26621179</v>
+        <v>26309522</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28966140</v>
+        <v>29145579</v>
       </c>
       <c r="E39" t="n">
-        <v>90191266</v>
+        <v>90749981</v>
       </c>
       <c r="F39" t="n">
-        <v>5949.45940698135</v>
+        <v>5758.427703723</v>
       </c>
       <c r="G39" t="n">
-        <v>11183.8655997605</v>
+        <v>11362.50989382789</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I39" t="n">
-        <v>9665667</v>
+        <v>9518951</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194423735</v>
+        <v>192625132</v>
       </c>
       <c r="E40" t="n">
-        <v>1100946649</v>
+        <v>1090761857</v>
       </c>
       <c r="F40" t="n">
-        <v>43660.24864088716</v>
+        <v>52855.19312079318</v>
       </c>
       <c r="G40" t="n">
-        <v>77638.17288804334</v>
+        <v>92639.85854795134</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>32806261</v>
+        <v>35082764</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>127490026</v>
+        <v>127588541</v>
       </c>
       <c r="E41" t="n">
-        <v>944370562</v>
+        <v>945100307</v>
       </c>
       <c r="F41" t="n">
-        <v>81289.13875759876</v>
+        <v>84625.68898379672</v>
       </c>
       <c r="G41" t="n">
-        <v>211845.0336722229</v>
+        <v>189329.5795886063</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>3864557</v>
+        <v>4986600</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30320194</v>
+        <v>30280466</v>
       </c>
       <c r="E42" t="n">
-        <v>143262954</v>
+        <v>143066346</v>
       </c>
       <c r="F42" t="n">
-        <v>6543.532983391029</v>
+        <v>6768.750279188013</v>
       </c>
       <c r="G42" t="n">
-        <v>6093.646229789434</v>
+        <v>5386.347913552409</v>
       </c>
       <c r="H42" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>356212</v>
+        <v>486118</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3569989</v>
+        <v>3459999</v>
       </c>
       <c r="E43" t="n">
-        <v>8336520</v>
+        <v>8079673</v>
       </c>
       <c r="F43" t="n">
-        <v>253.0850030771185</v>
+        <v>297.1653731959756</v>
       </c>
       <c r="G43" t="n">
-        <v>2523.872493840335</v>
+        <v>3427.139061202221</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="I43" t="n">
-        <v>302858</v>
+        <v>380894</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>325886672</v>
+        <v>319459681</v>
       </c>
       <c r="E44" t="n">
-        <v>2931878573</v>
+        <v>2874057380</v>
       </c>
       <c r="F44" t="n">
-        <v>52339.70481436203</v>
+        <v>47982.81622989098</v>
       </c>
       <c r="G44" t="n">
-        <v>50365.73587120014</v>
+        <v>48506.28960868026</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>26272011</v>
+        <v>28099699</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>628215</v>
+        <v>627152</v>
       </c>
       <c r="F45" t="n">
-        <v>783.6221226246731</v>
+        <v>3052.029158435312</v>
       </c>
       <c r="G45" t="n">
-        <v>485.0936132714329</v>
+        <v>394.8136854795731</v>
       </c>
       <c r="H45" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>11074.14</v>
+        <v>7629.42</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1560672</v>
+        <v>1569590</v>
       </c>
       <c r="E46" t="n">
-        <v>13005602</v>
+        <v>13079916</v>
       </c>
       <c r="F46" t="n">
-        <v>246.3450183962028</v>
+        <v>256.783632019427</v>
       </c>
       <c r="G46" t="n">
-        <v>814.8802661574396</v>
+        <v>273.5636585967414</v>
       </c>
       <c r="H46" t="n">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="I46" t="n">
-        <v>32178</v>
+        <v>31162</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4943435</v>
+        <v>4920687</v>
       </c>
       <c r="E47" t="n">
-        <v>17464009</v>
+        <v>17383645</v>
       </c>
       <c r="F47" t="n">
-        <v>1014.266717995518</v>
+        <v>1259.66824398373</v>
       </c>
       <c r="G47" t="n">
-        <v>1149.287960836435</v>
+        <v>1200.633443666936</v>
       </c>
       <c r="H47" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="I47" t="n">
-        <v>130046</v>
+        <v>108017</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42767938</v>
+        <v>40212341</v>
       </c>
       <c r="E48" t="n">
-        <v>247608689</v>
+        <v>232812839</v>
       </c>
       <c r="F48" t="n">
-        <v>9073.786094928793</v>
+        <v>37166.25650929091</v>
       </c>
       <c r="G48" t="n">
-        <v>23861.51761702659</v>
+        <v>59048.02218162694</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="n">
-        <v>27932125</v>
+        <v>36688577</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2202519</v>
+        <v>2214243</v>
       </c>
       <c r="E49" t="n">
-        <v>12101015</v>
+        <v>12165432</v>
       </c>
       <c r="F49" t="n">
-        <v>1439.600530779181</v>
+        <v>2984.246375377017</v>
       </c>
       <c r="G49" t="n">
-        <v>511.174959452857</v>
+        <v>987.0643066350445</v>
       </c>
       <c r="H49" t="n">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="I49" t="n">
-        <v>84631</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14512651</v>
+        <v>14178773</v>
       </c>
       <c r="E50" t="n">
-        <v>14562046</v>
+        <v>14227032</v>
       </c>
       <c r="F50" t="n">
-        <v>4343.903694795312</v>
+        <v>5135.648996960945</v>
       </c>
       <c r="G50" t="n">
-        <v>4159.070334209335</v>
+        <v>3871.303303016479</v>
       </c>
       <c r="H50" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>7740376</v>
+        <v>6036198</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18848531</v>
+        <v>19410609</v>
       </c>
       <c r="E51" t="n">
-        <v>55453707</v>
+        <v>57108904</v>
       </c>
       <c r="F51" t="n">
-        <v>19382.00873890364</v>
+        <v>22121.37668639488</v>
       </c>
       <c r="G51" t="n">
-        <v>24018.21079912208</v>
+        <v>24513.18886753194</v>
       </c>
       <c r="H51" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>2223300</v>
+        <v>2253443</v>
       </c>
     </row>
     <row r="52">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Gaming Platform, Action Games</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14967965</v>
+        <v>14975370</v>
       </c>
       <c r="E52" t="n">
-        <v>91743582</v>
+        <v>91788970</v>
       </c>
       <c r="F52" t="n">
-        <v>5203.341077347075</v>
+        <v>8163.647462851189</v>
       </c>
       <c r="G52" t="n">
-        <v>7412.309876589692</v>
+        <v>9321.166362614382</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>10826429</v>
+        <v>10164818</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48885692</v>
+        <v>49912762</v>
       </c>
       <c r="E53" t="n">
-        <v>210594214</v>
+        <v>215018720</v>
       </c>
       <c r="F53" t="n">
-        <v>17436.23503176671</v>
+        <v>19134.19133878273</v>
       </c>
       <c r="G53" t="n">
-        <v>22922.79133643462</v>
+        <v>23507.84345930373</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>10203123</v>
+        <v>7844898</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1005660</v>
+        <v>998179</v>
       </c>
       <c r="E54" t="n">
-        <v>2939372</v>
+        <v>2917506</v>
       </c>
       <c r="F54" t="n">
-        <v>373.8023796382122</v>
+        <v>253.4695071784929</v>
       </c>
       <c r="G54" t="n">
-        <v>1886.545779436336</v>
+        <v>873.8897259278635</v>
       </c>
       <c r="H54" t="n">
         <v>0.34</v>
       </c>
       <c r="I54" t="n">
-        <v>5514.19</v>
+        <v>12057.87</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31556699</v>
+        <v>31574916</v>
       </c>
       <c r="E55" t="n">
-        <v>79570845</v>
+        <v>79616779</v>
       </c>
       <c r="F55" t="n">
-        <v>12943.9009725258</v>
+        <v>6506.080737327883</v>
       </c>
       <c r="G55" t="n">
-        <v>19703.48911932413</v>
+        <v>14613.98144261367</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2125362</v>
+        <v>2103020</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, NFT Marketplace, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
+          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27878247</v>
+        <v>28200020</v>
       </c>
       <c r="E56" t="n">
-        <v>66132372</v>
+        <v>66895676</v>
       </c>
       <c r="F56" t="n">
-        <v>13224.82558258888</v>
+        <v>14408.85099664088</v>
       </c>
       <c r="G56" t="n">
-        <v>13840.66377101572</v>
+        <v>13041.30969283836</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>319374</v>
+        <v>219493</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11962708</v>
+        <v>11886635</v>
       </c>
       <c r="E57" t="n">
-        <v>18166136</v>
+        <v>18028967</v>
       </c>
       <c r="F57" t="n">
-        <v>3984.296044318743</v>
+        <v>4436.593333391092</v>
       </c>
       <c r="G57" t="n">
-        <v>10065.55505196418</v>
+        <v>3677.608228412961</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="I57" t="n">
-        <v>743061</v>
+        <v>744840</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>299106489</v>
+        <v>306033221</v>
       </c>
       <c r="E58" t="n">
-        <v>299106489</v>
+        <v>306033221</v>
       </c>
       <c r="F58" t="n">
-        <v>44872.61462898867</v>
+        <v>48528.68055756421</v>
       </c>
       <c r="G58" t="n">
-        <v>58436.09777198145</v>
+        <v>74747.83477364325</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
-        <v>73748841</v>
+        <v>48118846</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11961672</v>
+        <v>11926238</v>
       </c>
       <c r="F59" t="n">
-        <v>15.45711528694329</v>
+        <v>16.18713537980668</v>
       </c>
       <c r="G59" t="n">
-        <v>96.83775260871046</v>
+        <v>417.4681393449506</v>
       </c>
       <c r="H59" t="n">
-        <v>3.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>30408</v>
+        <v>33584</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88817353</v>
+        <v>86041889</v>
       </c>
       <c r="E60" t="n">
-        <v>511803899</v>
+        <v>495810479</v>
       </c>
       <c r="F60" t="n">
-        <v>103859.2472814775</v>
+        <v>99933.66668235484</v>
       </c>
       <c r="G60" t="n">
-        <v>97086.57188194424</v>
+        <v>96213.66999477008</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>16452672</v>
+        <v>16535156</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9265782</v>
+        <v>9360103</v>
       </c>
       <c r="E61" t="n">
-        <v>9265782</v>
+        <v>9360103</v>
       </c>
       <c r="F61" t="n">
-        <v>635.0662037909709</v>
+        <v>909.2373004683556</v>
       </c>
       <c r="G61" t="n">
-        <v>2617.135487963394</v>
+        <v>1590.588074244758</v>
       </c>
       <c r="H61" t="n">
-        <v>1.99</v>
+        <v>3.17</v>
       </c>
       <c r="I61" t="n">
-        <v>2266644</v>
+        <v>2137276</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30755713</v>
+        <v>30479701</v>
       </c>
       <c r="E62" t="n">
-        <v>137705944</v>
+        <v>136470125</v>
       </c>
       <c r="F62" t="n">
-        <v>26389.96949384558</v>
+        <v>26478.00320284168</v>
       </c>
       <c r="G62" t="n">
-        <v>19815.08143149343</v>
+        <v>18833.59154668805</v>
       </c>
       <c r="H62" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>25175914</v>
+        <v>14156671</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11017792</v>
+        <v>11292302</v>
       </c>
       <c r="E63" t="n">
-        <v>22020138</v>
+        <v>22568772</v>
       </c>
       <c r="F63" t="n">
-        <v>5.181518633430684</v>
+        <v>39.6861289035768</v>
       </c>
       <c r="G63" t="n">
-        <v>5.275643675893908</v>
+        <v>15.65791537711717</v>
       </c>
       <c r="H63" t="n">
         <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>72624</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1286556</v>
+        <v>1278995</v>
       </c>
       <c r="F64" t="n">
-        <v>207.9338485478469</v>
+        <v>228.0617744665659</v>
       </c>
       <c r="G64" t="n">
-        <v>128.5456221311442</v>
+        <v>79.93737700127816</v>
       </c>
       <c r="H64" t="n">
-        <v>2.47</v>
+        <v>1.86</v>
       </c>
       <c r="I64" t="n">
-        <v>8574.74</v>
+        <v>5924.93</v>
       </c>
     </row>
     <row r="65">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48466876</v>
+        <v>47406601</v>
       </c>
       <c r="E65" t="n">
-        <v>314294793</v>
+        <v>307419193</v>
       </c>
       <c r="F65" t="n">
-        <v>16383.47619554127</v>
+        <v>16454.4174223658</v>
       </c>
       <c r="G65" t="n">
-        <v>21332.78424784288</v>
+        <v>14393.74402778049</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>19641061</v>
+        <v>17611518</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4674907</v>
+        <v>4654434</v>
       </c>
       <c r="F66" t="n">
-        <v>123.444296645803</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>117.6021936054115</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.85</v>
+        <v>4.38</v>
       </c>
       <c r="I66" t="n">
-        <v>276717</v>
+        <v>219293</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123477487</v>
+        <v>123659921</v>
       </c>
       <c r="E67" t="n">
-        <v>2044888318</v>
+        <v>2047909570</v>
       </c>
       <c r="F67" t="n">
-        <v>168115.1607622901</v>
+        <v>174291.3201353993</v>
       </c>
       <c r="G67" t="n">
-        <v>161799.0537426787</v>
+        <v>167874.4190458835</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>12964218</v>
+        <v>10691686</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23013000</v>
+        <v>22637331</v>
       </c>
       <c r="E68" t="n">
-        <v>137691408</v>
+        <v>135443702</v>
       </c>
       <c r="F68" t="n">
-        <v>43913.1014900609</v>
+        <v>41554.56274527124</v>
       </c>
       <c r="G68" t="n">
-        <v>43376.74040575635</v>
+        <v>43494.94306047342</v>
       </c>
       <c r="H68" t="n">
         <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>12369667</v>
+        <v>11589777</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>25412744</v>
+        <v>23943465</v>
       </c>
       <c r="E70" t="n">
-        <v>25412744</v>
+        <v>23943465</v>
       </c>
       <c r="F70" t="n">
-        <v>3030.37710847514</v>
+        <v>6151.057698748682</v>
       </c>
       <c r="G70" t="n">
-        <v>15441.0580661319</v>
+        <v>13327.54629584888</v>
       </c>
       <c r="H70" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1988558</v>
+        <v>1777070</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33830854</v>
+        <v>33342997</v>
       </c>
       <c r="E71" t="n">
-        <v>168831554</v>
+        <v>166396928</v>
       </c>
       <c r="F71" t="n">
-        <v>20113.73801708966</v>
+        <v>20827.39055082296</v>
       </c>
       <c r="G71" t="n">
-        <v>36686.93545718512</v>
+        <v>37329.51583426411</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>9642818</v>
+        <v>7742849</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>175596</v>
+        <v>186487</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.26</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>36515</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>293836755</v>
+        <v>287712294</v>
       </c>
       <c r="E73" t="n">
-        <v>543665005</v>
+        <v>532333355</v>
       </c>
       <c r="F73" t="n">
-        <v>53541.35793483892</v>
+        <v>54548.54309297143</v>
       </c>
       <c r="G73" t="n">
-        <v>56710.99716240283</v>
+        <v>56522.42385617462</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I73" t="n">
-        <v>11887986</v>
+        <v>12240590</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11013246</v>
+        <v>11009606</v>
       </c>
       <c r="E74" t="n">
-        <v>32642258</v>
+        <v>32626456</v>
       </c>
       <c r="F74" t="n">
-        <v>980.209682845748</v>
+        <v>601.2484522915655</v>
       </c>
       <c r="G74" t="n">
-        <v>1829.155711523221</v>
+        <v>2901.897587776984</v>
       </c>
       <c r="H74" t="n">
-        <v>0.84</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>4564453</v>
+        <v>4517003</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8431752</v>
+        <v>7670623</v>
       </c>
       <c r="E75" t="n">
-        <v>12012054</v>
+        <v>10927733</v>
       </c>
       <c r="F75" t="n">
-        <v>17.81782589542244</v>
+        <v>3815.667165793793</v>
       </c>
       <c r="G75" t="n">
-        <v>1446.576160127572</v>
+        <v>1.886606603390206</v>
       </c>
       <c r="H75" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="I75" t="n">
-        <v>261846</v>
+        <v>294528</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15802610</v>
+        <v>15429774</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5608996075827067</v>
+        <v>196.9074467850297</v>
       </c>
       <c r="G76" t="n">
-        <v>646.7253619637753</v>
+        <v>463.8059580390934</v>
       </c>
       <c r="H76" t="n">
-        <v>1.07</v>
+        <v>2.13</v>
       </c>
       <c r="I76" t="n">
-        <v>849604</v>
+        <v>781210</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>72938562</v>
+        <v>71466216</v>
       </c>
       <c r="E77" t="n">
-        <v>100952178</v>
+        <v>98909151</v>
       </c>
       <c r="F77" t="n">
-        <v>8674.746274017585</v>
+        <v>9022.275900684814</v>
       </c>
       <c r="G77" t="n">
-        <v>13495.01305087804</v>
+        <v>11718.04387765102</v>
       </c>
       <c r="H77" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4759659</v>
+        <v>4421795</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5834400</v>
+        <v>5981328</v>
       </c>
       <c r="E78" t="n">
-        <v>5834400</v>
+        <v>5981328</v>
       </c>
       <c r="F78" t="n">
-        <v>84.24073041371933</v>
+        <v>233.7035274242185</v>
       </c>
       <c r="G78" t="n">
-        <v>49.62638728583303</v>
+        <v>818.9156654427442</v>
       </c>
       <c r="H78" t="n">
-        <v>2.44</v>
+        <v>3.61</v>
       </c>
       <c r="I78" t="n">
-        <v>961323</v>
+        <v>972017</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58901</v>
+        <v>59110</v>
       </c>
       <c r="E79" t="n">
-        <v>307321</v>
+        <v>308412</v>
       </c>
       <c r="F79" t="n">
-        <v>11.66544022021093</v>
+        <v>12.19617260192665</v>
       </c>
       <c r="G79" t="n">
-        <v>69.00610296022091</v>
+        <v>344.8241895735351</v>
       </c>
       <c r="H79" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="I79" t="n">
-        <v>168552</v>
+        <v>193884</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27090795</v>
+        <v>25994067</v>
       </c>
       <c r="F80" t="n">
-        <v>650.8814574850131</v>
+        <v>262.0391447485981</v>
       </c>
       <c r="G80" t="n">
-        <v>2731.161910130126</v>
+        <v>58.82061769004184</v>
       </c>
       <c r="H80" t="n">
-        <v>0.22</v>
+        <v>1.85</v>
       </c>
       <c r="I80" t="n">
-        <v>10445.87</v>
+        <v>10717.02</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>595987667</v>
+        <v>582905619</v>
       </c>
       <c r="E81" t="n">
-        <v>2308172304</v>
+        <v>2257507460</v>
       </c>
       <c r="F81" t="n">
-        <v>175693.6446718092</v>
+        <v>171024.1663604533</v>
       </c>
       <c r="G81" t="n">
-        <v>179159.7237802655</v>
+        <v>181281.9400767287</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>26140930</v>
+        <v>26334985</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6713065</v>
+        <v>6717645</v>
       </c>
       <c r="E82" t="n">
-        <v>9617870</v>
+        <v>9624631</v>
       </c>
       <c r="F82" t="n">
-        <v>1385.315083513689</v>
+        <v>1416.204575703406</v>
       </c>
       <c r="G82" t="n">
-        <v>563.4396657546049</v>
+        <v>428.2007971059503</v>
       </c>
       <c r="H82" t="n">
         <v>1.03</v>
       </c>
       <c r="I82" t="n">
-        <v>177322</v>
+        <v>161272</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>108253316</v>
+        <v>106314901</v>
       </c>
       <c r="E83" t="n">
-        <v>1024267189</v>
+        <v>1005926362</v>
       </c>
       <c r="F83" t="n">
-        <v>33021.65721663523</v>
+        <v>33771.57963625388</v>
       </c>
       <c r="G83" t="n">
-        <v>26297.87826771726</v>
+        <v>20575.69908652495</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8930098</v>
+        <v>9181050</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1149569</v>
+        <v>1114097</v>
       </c>
       <c r="E84" t="n">
-        <v>4451383</v>
+        <v>4314027</v>
       </c>
       <c r="F84" t="n">
-        <v>1048.179961094394</v>
+        <v>2164.178330044098</v>
       </c>
       <c r="G84" t="n">
-        <v>2028.025499383472</v>
+        <v>1231.184392963328</v>
       </c>
       <c r="H84" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>414904</v>
+        <v>280117</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>125768732</v>
+        <v>128816868</v>
       </c>
       <c r="E85" t="n">
-        <v>482469099</v>
+        <v>494162240</v>
       </c>
       <c r="F85" t="n">
-        <v>70324.98980300978</v>
+        <v>80916.25162192952</v>
       </c>
       <c r="G85" t="n">
-        <v>85446.02116966687</v>
+        <v>82520.32519419398</v>
       </c>
       <c r="H85" t="n">
         <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>16547797</v>
+        <v>15196935</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5283015</v>
+        <v>5393176</v>
       </c>
       <c r="E86" t="n">
-        <v>19550131</v>
+        <v>19957787</v>
       </c>
       <c r="F86" t="n">
-        <v>5639.400594679435</v>
+        <v>5925.683582197803</v>
       </c>
       <c r="G86" t="n">
-        <v>5433.781238713049</v>
+        <v>5449.339567302361</v>
       </c>
       <c r="H86" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="I86" t="n">
-        <v>86982</v>
+        <v>119648</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>37851519</v>
+        <v>37096220</v>
       </c>
       <c r="F87" t="n">
-        <v>2614.349646123136</v>
+        <v>4092.900201947055</v>
       </c>
       <c r="G87" t="n">
-        <v>2697.5724537051</v>
+        <v>2057.022727785401</v>
       </c>
       <c r="H87" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I87" t="n">
-        <v>5190101</v>
+        <v>9589696</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>28463754</v>
+        <v>27997515</v>
       </c>
       <c r="F88" t="n">
-        <v>1109.530540564015</v>
+        <v>828.5375774864125</v>
       </c>
       <c r="G88" t="n">
-        <v>1201.287979036231</v>
+        <v>863.3389320811233</v>
       </c>
       <c r="H88" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="I88" t="n">
-        <v>9182.66</v>
+        <v>7192.57</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>101891110</v>
+        <v>102221986</v>
       </c>
       <c r="E89" t="n">
-        <v>375266935</v>
+        <v>376469454</v>
       </c>
       <c r="F89" t="n">
-        <v>1344.681723359321</v>
+        <v>1261.247849128379</v>
       </c>
       <c r="G89" t="n">
-        <v>1664.429511929114</v>
+        <v>1539.525353049299</v>
       </c>
       <c r="H89" t="n">
         <v>0.58</v>
       </c>
       <c r="I89" t="n">
-        <v>373850</v>
+        <v>232912</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20420471</v>
+        <v>20737608</v>
       </c>
       <c r="E90" t="n">
-        <v>20420471</v>
+        <v>20737608</v>
       </c>
       <c r="F90" t="n">
-        <v>2829.9125026426</v>
+        <v>4562.058653138316</v>
       </c>
       <c r="G90" t="n">
-        <v>3428.94884011288</v>
+        <v>2600.708721250199</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>6961839</v>
+        <v>6928472</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3813233</v>
+        <v>3756184</v>
       </c>
       <c r="E91" t="n">
-        <v>8296136</v>
+        <v>8172020</v>
       </c>
       <c r="F91" t="n">
-        <v>1657.269433279792</v>
+        <v>1634.017295998412</v>
       </c>
       <c r="G91" t="n">
-        <v>1688.426746458641</v>
+        <v>1243.756923986383</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="I91" t="n">
-        <v>1492957</v>
+        <v>1456585</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>463539996</v>
+        <v>454593553</v>
       </c>
       <c r="E92" t="n">
-        <v>1611909409</v>
+        <v>1579998762</v>
       </c>
       <c r="F92" t="n">
-        <v>165962.0075059292</v>
+        <v>165972.2686494769</v>
       </c>
       <c r="G92" t="n">
-        <v>161700.7763610314</v>
+        <v>163646.6435380583</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>24682585</v>
+        <v>26567853</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2230007</v>
+        <v>2132268</v>
       </c>
       <c r="E93" t="n">
-        <v>8920027</v>
+        <v>8529072</v>
       </c>
       <c r="F93" t="n">
-        <v>1857.282020613345</v>
+        <v>2391.222534076134</v>
       </c>
       <c r="G93" t="n">
-        <v>2151.573155464551</v>
+        <v>1550.240495597731</v>
       </c>
       <c r="H93" t="n">
-        <v>0.45</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>5219783</v>
+        <v>5033862</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>221965829</v>
+        <v>219761018</v>
       </c>
       <c r="E94" t="n">
-        <v>682461394</v>
+        <v>675682429</v>
       </c>
       <c r="F94" t="n">
-        <v>96561.66573048204</v>
+        <v>94237.62544476862</v>
       </c>
       <c r="G94" t="n">
-        <v>89217.17592135805</v>
+        <v>95851.30114970646</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>39444183</v>
+        <v>60965189</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>134974951</v>
+        <v>133566417</v>
       </c>
       <c r="E95" t="n">
-        <v>352618314</v>
+        <v>348938557</v>
       </c>
       <c r="F95" t="n">
-        <v>12362.90386055214</v>
+        <v>21510.871436873</v>
       </c>
       <c r="G95" t="n">
-        <v>29904.50661851883</v>
+        <v>32266.61094995448</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I95" t="n">
-        <v>3639878</v>
+        <v>3310978</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>389428839</v>
+        <v>382744658</v>
       </c>
       <c r="E96" t="n">
-        <v>2225307651</v>
+        <v>2187112331</v>
       </c>
       <c r="F96" t="n">
-        <v>35429.8931479368</v>
+        <v>36540.25622351869</v>
       </c>
       <c r="G96" t="n">
-        <v>42499.64029832607</v>
+        <v>33942.96046774338</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I96" t="n">
-        <v>34518924</v>
+        <v>37712425</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>607450928</v>
+        <v>585988942</v>
       </c>
       <c r="E2" t="n">
-        <v>1178997748</v>
+        <v>1137342664</v>
       </c>
       <c r="F2" t="n">
-        <v>22396.60463101947</v>
+        <v>24494.24423689028</v>
       </c>
       <c r="G2" t="n">
-        <v>31598.62273823639</v>
+        <v>28406.53485800543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>16133493</v>
+        <v>16589031</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1397681</v>
+        <v>1379969</v>
       </c>
       <c r="E3" t="n">
-        <v>4517878</v>
+        <v>4344383</v>
       </c>
       <c r="F3" t="n">
-        <v>4065.469507423805</v>
+        <v>6411.06481265787</v>
       </c>
       <c r="G3" t="n">
-        <v>4288.695370355646</v>
+        <v>3811.918727941042</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>141756</v>
+        <v>134929</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247322285</v>
+        <v>233061923</v>
       </c>
       <c r="E4" t="n">
-        <v>1550923283</v>
+        <v>1461498559</v>
       </c>
       <c r="F4" t="n">
-        <v>137777.1883113136</v>
+        <v>132281.9595080032</v>
       </c>
       <c r="G4" t="n">
-        <v>141955.675818073</v>
+        <v>142975.2702388065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>14783317</v>
+        <v>14989265</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140285380</v>
+        <v>135095845</v>
       </c>
       <c r="E5" t="n">
-        <v>155458124</v>
+        <v>149707309</v>
       </c>
       <c r="F5" t="n">
-        <v>5113.887554669815</v>
+        <v>5156.690167753309</v>
       </c>
       <c r="G5" t="n">
-        <v>6697.464318828091</v>
+        <v>7168.567343285204</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I5" t="n">
-        <v>30195757</v>
+        <v>32058576</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>670481</v>
+        <v>638178</v>
       </c>
       <c r="E6" t="n">
-        <v>13013552</v>
+        <v>12386576</v>
       </c>
       <c r="F6" t="n">
-        <v>383.4141948155237</v>
+        <v>459.5074359937914</v>
       </c>
       <c r="G6" t="n">
-        <v>384.0592548369011</v>
+        <v>395.0313366504632</v>
       </c>
       <c r="H6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="I6" t="n">
-        <v>7746.9</v>
+        <v>15413.38</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>474713570</v>
+        <v>444572919</v>
       </c>
       <c r="E7" t="n">
-        <v>474713572</v>
+        <v>444572919</v>
       </c>
       <c r="F7" t="n">
-        <v>41228.52620252725</v>
+        <v>45924.73639781617</v>
       </c>
       <c r="G7" t="n">
-        <v>52790.50188344911</v>
+        <v>49360.36983619539</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>31977606</v>
+        <v>31877063</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4424981</v>
+        <v>4261209</v>
       </c>
       <c r="E8" t="n">
-        <v>4424981</v>
+        <v>4261209</v>
       </c>
       <c r="F8" t="n">
-        <v>859.7913928696769</v>
+        <v>433.3495160885992</v>
       </c>
       <c r="G8" t="n">
-        <v>1153.200486873603</v>
+        <v>451.3708572356437</v>
       </c>
       <c r="H8" t="n">
-        <v>1.24</v>
+        <v>0.48</v>
       </c>
       <c r="I8" t="n">
-        <v>1781530</v>
+        <v>1769704</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1928242</v>
+        <v>1835263</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3568695669775</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>19.76588342571016</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.27</v>
+        <v>5.23</v>
       </c>
       <c r="I9" t="n">
-        <v>126219</v>
+        <v>192620</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1669616</v>
+        <v>1632499</v>
       </c>
       <c r="F10" t="n">
-        <v>176.2336587779992</v>
+        <v>69.52740127412171</v>
       </c>
       <c r="G10" t="n">
-        <v>218.5276245787433</v>
+        <v>428.485078552788</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="I10" t="n">
-        <v>412595</v>
+        <v>365467</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>101701670</v>
+        <v>102635718</v>
       </c>
       <c r="E11" t="n">
-        <v>191593890</v>
+        <v>193353527</v>
       </c>
       <c r="F11" t="n">
-        <v>1801.199466373085</v>
+        <v>637.751305785515</v>
       </c>
       <c r="G11" t="n">
-        <v>2480.424360404383</v>
+        <v>2361.872061136242</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>3809943</v>
+        <v>3856171</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12242403</v>
+        <v>11630227</v>
       </c>
       <c r="E12" t="n">
-        <v>30469127</v>
+        <v>28945532</v>
       </c>
       <c r="F12" t="n">
-        <v>154.1477693534332</v>
+        <v>130.0568807595113</v>
       </c>
       <c r="G12" t="n">
-        <v>1677.196933999949</v>
+        <v>2538.294804594701</v>
       </c>
       <c r="H12" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="I12" t="n">
-        <v>1421884</v>
+        <v>1418997</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109324109</v>
+        <v>105740668</v>
       </c>
       <c r="E13" t="n">
-        <v>423655953</v>
+        <v>409637799</v>
       </c>
       <c r="F13" t="n">
-        <v>22047.67214512916</v>
+        <v>10230.05271557284</v>
       </c>
       <c r="G13" t="n">
-        <v>13252.94310125399</v>
+        <v>23547.24350611972</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>7586051</v>
+        <v>4605509</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4698525</v>
+        <v>4826916</v>
       </c>
       <c r="E14" t="n">
-        <v>6916484</v>
+        <v>7105482</v>
       </c>
       <c r="F14" t="n">
-        <v>5.502972136825826</v>
+        <v>25.85758932360201</v>
       </c>
       <c r="G14" t="n">
-        <v>238.9889509984763</v>
+        <v>259.4539402795803</v>
       </c>
       <c r="H14" t="n">
         <v>1.41</v>
       </c>
       <c r="I14" t="n">
-        <v>721488</v>
+        <v>728755</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>142030387</v>
+        <v>134916070</v>
       </c>
       <c r="E15" t="n">
-        <v>142030387</v>
+        <v>134916070</v>
       </c>
       <c r="F15" t="n">
-        <v>74676.97867676779</v>
+        <v>52231.21964222898</v>
       </c>
       <c r="G15" t="n">
-        <v>108321.2977911761</v>
+        <v>73983.82430055158</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>63947009</v>
+        <v>65455694</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68825640</v>
+        <v>66338856</v>
       </c>
       <c r="E16" t="n">
-        <v>352952002</v>
+        <v>340199263</v>
       </c>
       <c r="F16" t="n">
-        <v>22809.98850079821</v>
+        <v>10250.65043166023</v>
       </c>
       <c r="G16" t="n">
-        <v>24780.58971999192</v>
+        <v>21390.46963574132</v>
       </c>
       <c r="H16" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>28129496</v>
+        <v>20974927</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>244069883</v>
+        <v>234561127</v>
       </c>
       <c r="E17" t="n">
-        <v>244069883</v>
+        <v>234561127</v>
       </c>
       <c r="F17" t="n">
-        <v>60564.47844403375</v>
+        <v>60910.51793836622</v>
       </c>
       <c r="G17" t="n">
-        <v>57810.1282238397</v>
+        <v>58311.28355741958</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>15022493</v>
+        <v>14397951</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2701404</v>
+        <v>2702254</v>
       </c>
       <c r="E18" t="n">
-        <v>6906265</v>
+        <v>6908439</v>
       </c>
       <c r="F18" t="n">
-        <v>382.8909850852701</v>
+        <v>536.5971320728381</v>
       </c>
       <c r="G18" t="n">
-        <v>1315.279703070333</v>
+        <v>679.7528293216752</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I18" t="n">
-        <v>84921</v>
+        <v>81073</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74885789</v>
+        <v>71136776</v>
       </c>
       <c r="E19" t="n">
-        <v>209650884</v>
+        <v>199190995</v>
       </c>
       <c r="F19" t="n">
-        <v>23512.80532438604</v>
+        <v>22290.8635506301</v>
       </c>
       <c r="G19" t="n">
-        <v>21623.06099535104</v>
+        <v>26892.32855465758</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>22909375</v>
+        <v>21050831</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1657961</v>
+        <v>1628371</v>
       </c>
       <c r="E20" t="n">
-        <v>9519393</v>
+        <v>9349501</v>
       </c>
       <c r="F20" t="n">
-        <v>356.5985314412621</v>
+        <v>156.6682225738049</v>
       </c>
       <c r="G20" t="n">
-        <v>181.399619609566</v>
+        <v>841.9572398174781</v>
       </c>
       <c r="H20" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="I20" t="n">
-        <v>187658</v>
+        <v>185449</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>192748</v>
+        <v>184649</v>
       </c>
       <c r="E21" t="n">
-        <v>1301648</v>
+        <v>1246954</v>
       </c>
       <c r="F21" t="n">
-        <v>211.0656901341888</v>
+        <v>24.4549997925623</v>
       </c>
       <c r="G21" t="n">
-        <v>5.262761996809292</v>
+        <v>4.765481034379611</v>
       </c>
       <c r="H21" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="I21" t="n">
-        <v>2138031</v>
+        <v>2198959</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>267478</v>
+        <v>265516</v>
       </c>
       <c r="F22" t="n">
-        <v>16.14802910374993</v>
+        <v>130.0091335386017</v>
       </c>
       <c r="G22" t="n">
-        <v>40.94483065610854</v>
+        <v>188.1475042433316</v>
       </c>
       <c r="H22" t="n">
-        <v>1.72</v>
+        <v>3.39</v>
       </c>
       <c r="I22" t="n">
-        <v>14211.62</v>
+        <v>14946.85</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84389165</v>
+        <v>77023067</v>
       </c>
       <c r="E23" t="n">
-        <v>175944630</v>
+        <v>160586909</v>
       </c>
       <c r="F23" t="n">
-        <v>40809.17646365358</v>
+        <v>42165.84652593402</v>
       </c>
       <c r="G23" t="n">
-        <v>47522.83795916801</v>
+        <v>49992.92137016173</v>
       </c>
       <c r="H23" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>16629153</v>
+        <v>17170614</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194997849</v>
+        <v>184157677</v>
       </c>
       <c r="E24" t="n">
-        <v>677440152</v>
+        <v>639780413</v>
       </c>
       <c r="F24" t="n">
-        <v>61792.16401427882</v>
+        <v>62870.3146075656</v>
       </c>
       <c r="G24" t="n">
-        <v>62907.119502911</v>
+        <v>63023.85855925654</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>24408807</v>
+        <v>24953997</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>112395461</v>
+        <v>107972350</v>
       </c>
       <c r="E25" t="n">
-        <v>474089000</v>
+        <v>455167847</v>
       </c>
       <c r="F25" t="n">
-        <v>17162.05167800648</v>
+        <v>15518.3904639977</v>
       </c>
       <c r="G25" t="n">
-        <v>12690.71849245557</v>
+        <v>15167.5113754703</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I25" t="n">
-        <v>10528550</v>
+        <v>10822528</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5448690</v>
+        <v>5375176</v>
       </c>
       <c r="E26" t="n">
-        <v>7388388</v>
+        <v>7288503</v>
       </c>
       <c r="F26" t="n">
-        <v>274.0479233074307</v>
+        <v>678.3240584388416</v>
       </c>
       <c r="G26" t="n">
-        <v>2111.863005160316</v>
+        <v>314.7219430549932</v>
       </c>
       <c r="H26" t="n">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="I26" t="n">
-        <v>4596915</v>
+        <v>4080151</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>551326</v>
+        <v>542500</v>
       </c>
       <c r="E27" t="n">
-        <v>6687050</v>
+        <v>6579999</v>
       </c>
       <c r="F27" t="n">
-        <v>768.889861608654</v>
+        <v>608.5850711917836</v>
       </c>
       <c r="G27" t="n">
-        <v>471.7307288673521</v>
+        <v>694.189223276357</v>
       </c>
       <c r="H27" t="n">
-        <v>0.39</v>
+        <v>1.18</v>
       </c>
       <c r="I27" t="n">
-        <v>2129090</v>
+        <v>2401050</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26204336</v>
+        <v>25169618</v>
       </c>
       <c r="E28" t="n">
-        <v>37016099</v>
+        <v>35554137</v>
       </c>
       <c r="F28" t="n">
-        <v>1.128682274816922</v>
+        <v>74.41845341486369</v>
       </c>
       <c r="G28" t="n">
-        <v>1.71221881146589</v>
+        <v>419.2403926739804</v>
       </c>
       <c r="H28" t="n">
-        <v>3.18</v>
+        <v>1.41</v>
       </c>
       <c r="I28" t="n">
-        <v>63302</v>
+        <v>64254</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1316797194</v>
+        <v>1265314879</v>
       </c>
       <c r="E29" t="n">
-        <v>6314312221</v>
+        <v>6067443977</v>
       </c>
       <c r="F29" t="n">
-        <v>80528.81661901894</v>
+        <v>99928.88789131827</v>
       </c>
       <c r="G29" t="n">
-        <v>218775.1449816383</v>
+        <v>174432.6538614131</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>209113207</v>
+        <v>205444451</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>261416708</v>
+        <v>251272504</v>
       </c>
       <c r="E30" t="n">
-        <v>1128419634</v>
+        <v>1084631618</v>
       </c>
       <c r="F30" t="n">
-        <v>138568.7040870615</v>
+        <v>129694.3933346189</v>
       </c>
       <c r="G30" t="n">
-        <v>158391.0492285246</v>
+        <v>176323.3332038746</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>70727066</v>
+        <v>72932881</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5353035</v>
+        <v>5329236</v>
       </c>
       <c r="E31" t="n">
-        <v>5359093</v>
+        <v>5335268</v>
       </c>
       <c r="F31" t="n">
-        <v>453.176541285156</v>
+        <v>605.4118556578237</v>
       </c>
       <c r="G31" t="n">
-        <v>702.4690180207821</v>
+        <v>588.2235382303024</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>1.08</v>
       </c>
       <c r="I31" t="n">
-        <v>154736</v>
+        <v>154452</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14601954</v>
+        <v>13662741</v>
       </c>
       <c r="E32" t="n">
-        <v>36504885</v>
+        <v>34156853</v>
       </c>
       <c r="F32" t="n">
-        <v>1526.10655429164</v>
+        <v>2450.526412933598</v>
       </c>
       <c r="G32" t="n">
-        <v>5164.507300874799</v>
+        <v>4703.567013681755</v>
       </c>
       <c r="H32" t="n">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2629793</v>
+        <v>3199047</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18142672</v>
+        <v>17841555</v>
       </c>
       <c r="F33" t="n">
-        <v>1808.490374140723</v>
+        <v>2059.49445031331</v>
       </c>
       <c r="G33" t="n">
-        <v>2199.24615711821</v>
+        <v>2304.018307846306</v>
       </c>
       <c r="H33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="I33" t="n">
-        <v>21557</v>
+        <v>27869</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3959297</v>
+        <v>4089238</v>
       </c>
       <c r="E34" t="n">
-        <v>11402011</v>
+        <v>11776215</v>
       </c>
       <c r="F34" t="n">
-        <v>568.7315454453975</v>
+        <v>845.2529687684088</v>
       </c>
       <c r="G34" t="n">
-        <v>637.7532987569048</v>
+        <v>448.1056738883985</v>
       </c>
       <c r="H34" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="I34" t="n">
-        <v>399397</v>
+        <v>388527</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1612029</v>
+        <v>1578810</v>
       </c>
       <c r="F35" t="n">
-        <v>77.1530270372655</v>
+        <v>296.3950868103092</v>
       </c>
       <c r="G35" t="n">
-        <v>52.71541666799622</v>
+        <v>11.3449830778064</v>
       </c>
       <c r="H35" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="I35" t="n">
-        <v>3065.82</v>
+        <v>3140.62</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14259543</v>
+        <v>14171880</v>
       </c>
       <c r="E36" t="n">
-        <v>69061244</v>
+        <v>68636675</v>
       </c>
       <c r="F36" t="n">
-        <v>2000.507438973429</v>
+        <v>1546.556783416005</v>
       </c>
       <c r="G36" t="n">
-        <v>4909.558150204321</v>
+        <v>5249.334711287064</v>
       </c>
       <c r="H36" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>2728516</v>
+        <v>2929626</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1407936</v>
+        <v>1364477</v>
       </c>
       <c r="E37" t="n">
-        <v>9214903</v>
+        <v>8930462</v>
       </c>
       <c r="F37" t="n">
-        <v>74.79527851525059</v>
+        <v>109.4839952992437</v>
       </c>
       <c r="G37" t="n">
-        <v>831.0196763298528</v>
+        <v>16.23115875618623</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="I37" t="n">
-        <v>976669</v>
+        <v>434275</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1888207738</v>
+        <v>1880377071</v>
       </c>
       <c r="F38" t="n">
-        <v>71861.27436100561</v>
+        <v>76349.31553120658</v>
       </c>
       <c r="G38" t="n">
-        <v>73748.87014413674</v>
+        <v>62907.26341206556</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I38" t="n">
-        <v>26309522</v>
+        <v>27236428</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29145579</v>
+        <v>28289950</v>
       </c>
       <c r="E39" t="n">
-        <v>90749981</v>
+        <v>88085828</v>
       </c>
       <c r="F39" t="n">
-        <v>5758.427703723</v>
+        <v>6411.354587737129</v>
       </c>
       <c r="G39" t="n">
-        <v>11362.50989382789</v>
+        <v>5429.567678697892</v>
       </c>
       <c r="H39" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>9518951</v>
+        <v>9413263</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>192625132</v>
+        <v>187831332</v>
       </c>
       <c r="E40" t="n">
-        <v>1090761857</v>
+        <v>1063616411</v>
       </c>
       <c r="F40" t="n">
-        <v>52855.19312079318</v>
+        <v>43382.43835981542</v>
       </c>
       <c r="G40" t="n">
-        <v>92639.85854795134</v>
+        <v>77834.19184224181</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>35082764</v>
+        <v>38164610</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>127588541</v>
+        <v>128936966</v>
       </c>
       <c r="E41" t="n">
-        <v>945100307</v>
+        <v>955088635</v>
       </c>
       <c r="F41" t="n">
-        <v>84625.68898379672</v>
+        <v>79418.20289855427</v>
       </c>
       <c r="G41" t="n">
-        <v>189329.5795886063</v>
+        <v>247714.0866937302</v>
       </c>
       <c r="H41" t="n">
         <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>4986600</v>
+        <v>6982559</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30280466</v>
+        <v>29669451</v>
       </c>
       <c r="E42" t="n">
-        <v>143066346</v>
+        <v>140161191</v>
       </c>
       <c r="F42" t="n">
-        <v>6768.750279188013</v>
+        <v>6743.721357060278</v>
       </c>
       <c r="G42" t="n">
-        <v>5386.347913552409</v>
+        <v>8169.763725543327</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I42" t="n">
-        <v>486118</v>
+        <v>469632</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3459999</v>
+        <v>3151661</v>
       </c>
       <c r="E43" t="n">
-        <v>8079673</v>
+        <v>7359655</v>
       </c>
       <c r="F43" t="n">
-        <v>297.1653731959756</v>
+        <v>495.1551058355323</v>
       </c>
       <c r="G43" t="n">
-        <v>3427.139061202221</v>
+        <v>6366.746215158995</v>
       </c>
       <c r="H43" t="n">
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>380894</v>
+        <v>499287</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>319459681</v>
+        <v>309494714</v>
       </c>
       <c r="E44" t="n">
-        <v>2874057380</v>
+        <v>2784406359</v>
       </c>
       <c r="F44" t="n">
-        <v>47982.81622989098</v>
+        <v>52671.49452559318</v>
       </c>
       <c r="G44" t="n">
-        <v>48506.28960868026</v>
+        <v>51755.6316088635</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>28099699</v>
+        <v>34815741</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>627152</v>
+        <v>694019</v>
       </c>
       <c r="F45" t="n">
-        <v>3052.029158435312</v>
+        <v>366.3135515296385</v>
       </c>
       <c r="G45" t="n">
-        <v>394.8136854795731</v>
+        <v>86.04019179359405</v>
       </c>
       <c r="H45" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>7629.42</v>
+        <v>46897</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1569590</v>
+        <v>1574191</v>
       </c>
       <c r="E46" t="n">
-        <v>13079916</v>
+        <v>13118255</v>
       </c>
       <c r="F46" t="n">
-        <v>256.783632019427</v>
+        <v>436.9467986047731</v>
       </c>
       <c r="G46" t="n">
-        <v>273.5636585967414</v>
+        <v>252.8211256667668</v>
       </c>
       <c r="H46" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I46" t="n">
-        <v>31162</v>
+        <v>17601.88</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4920687</v>
+        <v>4853882</v>
       </c>
       <c r="E47" t="n">
-        <v>17383645</v>
+        <v>17147640</v>
       </c>
       <c r="F47" t="n">
-        <v>1259.66824398373</v>
+        <v>1534.155687396454</v>
       </c>
       <c r="G47" t="n">
-        <v>1200.633443666936</v>
+        <v>667.059214830915</v>
       </c>
       <c r="H47" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="I47" t="n">
-        <v>108017</v>
+        <v>105214</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40212341</v>
+        <v>38791704</v>
       </c>
       <c r="E48" t="n">
-        <v>232812839</v>
+        <v>224587938</v>
       </c>
       <c r="F48" t="n">
-        <v>37166.25650929091</v>
+        <v>55963.99682471746</v>
       </c>
       <c r="G48" t="n">
-        <v>59048.02218162694</v>
+        <v>62271.96887166104</v>
       </c>
       <c r="H48" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="I48" t="n">
-        <v>36688577</v>
+        <v>40737619</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2214243</v>
+        <v>2183553</v>
       </c>
       <c r="E49" t="n">
-        <v>12165432</v>
+        <v>11996813</v>
       </c>
       <c r="F49" t="n">
-        <v>2984.246375377017</v>
+        <v>2844.877647772194</v>
       </c>
       <c r="G49" t="n">
-        <v>987.0643066350445</v>
+        <v>908.9952614872229</v>
       </c>
       <c r="H49" t="n">
         <v>1.67</v>
       </c>
       <c r="I49" t="n">
-        <v>54000</v>
+        <v>50662</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14178773</v>
+        <v>13543516</v>
       </c>
       <c r="E50" t="n">
-        <v>14227032</v>
+        <v>13589612</v>
       </c>
       <c r="F50" t="n">
-        <v>5135.648996960945</v>
+        <v>7318.21706488606</v>
       </c>
       <c r="G50" t="n">
-        <v>3871.303303016479</v>
+        <v>4338.406826351857</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>6036198</v>
+        <v>5846466</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19410609</v>
+        <v>17800161</v>
       </c>
       <c r="E51" t="n">
-        <v>57108904</v>
+        <v>52370725</v>
       </c>
       <c r="F51" t="n">
-        <v>22121.37668639488</v>
+        <v>21095.28873695384</v>
       </c>
       <c r="G51" t="n">
-        <v>24513.18886753194</v>
+        <v>8828.818615775061</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="I51" t="n">
-        <v>2253443</v>
+        <v>2241821</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14975370</v>
+        <v>15383351</v>
       </c>
       <c r="E52" t="n">
-        <v>91788970</v>
+        <v>94289615</v>
       </c>
       <c r="F52" t="n">
-        <v>8163.647462851189</v>
+        <v>6991.388474898088</v>
       </c>
       <c r="G52" t="n">
-        <v>9321.166362614382</v>
+        <v>8203.798074919352</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I52" t="n">
-        <v>10164818</v>
+        <v>11553545</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49912762</v>
+        <v>47189288</v>
       </c>
       <c r="E53" t="n">
-        <v>215018720</v>
+        <v>203286294</v>
       </c>
       <c r="F53" t="n">
-        <v>19134.19133878273</v>
+        <v>19494.48576452272</v>
       </c>
       <c r="G53" t="n">
-        <v>23507.84345930373</v>
+        <v>23079.88777633288</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>7844898</v>
+        <v>8052879</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>998179</v>
+        <v>986427</v>
       </c>
       <c r="E54" t="n">
-        <v>2917506</v>
+        <v>2883159</v>
       </c>
       <c r="F54" t="n">
-        <v>253.4695071784929</v>
+        <v>283.0384969985897</v>
       </c>
       <c r="G54" t="n">
-        <v>873.8897259278635</v>
+        <v>834.0845627918445</v>
       </c>
       <c r="H54" t="n">
-        <v>0.34</v>
+        <v>1.36</v>
       </c>
       <c r="I54" t="n">
-        <v>12057.87</v>
+        <v>13820.17</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31574916</v>
+        <v>30844066</v>
       </c>
       <c r="E55" t="n">
-        <v>79616779</v>
+        <v>77773928</v>
       </c>
       <c r="F55" t="n">
-        <v>6506.080737327883</v>
+        <v>15060.65808456176</v>
       </c>
       <c r="G55" t="n">
-        <v>14613.98144261367</v>
+        <v>9316.122143889199</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I55" t="n">
-        <v>2103020</v>
+        <v>2193038</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28200020</v>
+        <v>28208208</v>
       </c>
       <c r="E56" t="n">
-        <v>66895676</v>
+        <v>66915100</v>
       </c>
       <c r="F56" t="n">
-        <v>14408.85099664088</v>
+        <v>10023.25200929969</v>
       </c>
       <c r="G56" t="n">
-        <v>13041.30969283836</v>
+        <v>5793.746854255402</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>219493</v>
+        <v>247735</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11886635</v>
+        <v>11767877</v>
       </c>
       <c r="E57" t="n">
-        <v>18028967</v>
+        <v>17848842</v>
       </c>
       <c r="F57" t="n">
-        <v>4436.593333391092</v>
+        <v>4003.704765066419</v>
       </c>
       <c r="G57" t="n">
-        <v>3677.608228412961</v>
+        <v>4445.650403746597</v>
       </c>
       <c r="H57" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="I57" t="n">
-        <v>744840</v>
+        <v>715398</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>306033221</v>
+        <v>296106997</v>
       </c>
       <c r="E58" t="n">
-        <v>306033221</v>
+        <v>296106997</v>
       </c>
       <c r="F58" t="n">
-        <v>48528.68055756421</v>
+        <v>36521.616081168</v>
       </c>
       <c r="G58" t="n">
-        <v>74747.83477364325</v>
+        <v>62749.35451620445</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>48118846</v>
+        <v>79421783</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11926238</v>
+        <v>11994197</v>
       </c>
       <c r="F59" t="n">
-        <v>16.18713537980668</v>
+        <v>6.03848815790329</v>
       </c>
       <c r="G59" t="n">
-        <v>417.4681393449506</v>
+        <v>246.909618989298</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>33584</v>
+        <v>32745</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>86041889</v>
+        <v>83048144</v>
       </c>
       <c r="E60" t="n">
-        <v>495810479</v>
+        <v>478559229</v>
       </c>
       <c r="F60" t="n">
-        <v>99933.66668235484</v>
+        <v>100596.454190553</v>
       </c>
       <c r="G60" t="n">
-        <v>96213.66999477008</v>
+        <v>97476.60939727147</v>
       </c>
       <c r="H60" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>16535156</v>
+        <v>16845623</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9360103</v>
+        <v>9055855</v>
       </c>
       <c r="E61" t="n">
-        <v>9360103</v>
+        <v>9055855</v>
       </c>
       <c r="F61" t="n">
-        <v>909.2373004683556</v>
+        <v>153.1312173740967</v>
       </c>
       <c r="G61" t="n">
-        <v>1590.588074244758</v>
+        <v>2237.980434348776</v>
       </c>
       <c r="H61" t="n">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="I61" t="n">
-        <v>2137276</v>
+        <v>2302615</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30479701</v>
+        <v>31651280</v>
       </c>
       <c r="E62" t="n">
-        <v>136470125</v>
+        <v>141715765</v>
       </c>
       <c r="F62" t="n">
-        <v>26478.00320284168</v>
+        <v>16705.92804445551</v>
       </c>
       <c r="G62" t="n">
-        <v>18833.59154668805</v>
+        <v>18820.12988172109</v>
       </c>
       <c r="H62" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I62" t="n">
-        <v>14156671</v>
+        <v>16180152</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11292302</v>
+        <v>10948879</v>
       </c>
       <c r="E63" t="n">
-        <v>22568772</v>
+        <v>21882408</v>
       </c>
       <c r="F63" t="n">
-        <v>39.6861289035768</v>
+        <v>106.672102498686</v>
       </c>
       <c r="G63" t="n">
-        <v>15.65791537711717</v>
+        <v>791.0926268635565</v>
       </c>
       <c r="H63" t="n">
         <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>89925</v>
+        <v>115455</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1278995</v>
+        <v>1230163</v>
       </c>
       <c r="F64" t="n">
-        <v>228.0617744665659</v>
+        <v>42.59580289532883</v>
       </c>
       <c r="G64" t="n">
-        <v>79.93737700127816</v>
+        <v>167.6369067766533</v>
       </c>
       <c r="H64" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="I64" t="n">
-        <v>5924.93</v>
+        <v>13677.26</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47406601</v>
+        <v>45659480</v>
       </c>
       <c r="E65" t="n">
-        <v>307419193</v>
+        <v>296089576</v>
       </c>
       <c r="F65" t="n">
-        <v>16454.4174223658</v>
+        <v>19806.08313177367</v>
       </c>
       <c r="G65" t="n">
-        <v>14393.74402778049</v>
+        <v>21731.14752217035</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>17611518</v>
+        <v>18216141</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4654434</v>
+        <v>4609865</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>70.39622207118806</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>76.79781249523811</v>
       </c>
       <c r="H66" t="n">
-        <v>4.38</v>
+        <v>2.76</v>
       </c>
       <c r="I66" t="n">
-        <v>219293</v>
+        <v>235159</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123659921</v>
+        <v>122867116</v>
       </c>
       <c r="E67" t="n">
-        <v>2047909570</v>
+        <v>2034780072</v>
       </c>
       <c r="F67" t="n">
-        <v>174291.3201353993</v>
+        <v>174006.7743933453</v>
       </c>
       <c r="G67" t="n">
-        <v>167874.4190458835</v>
+        <v>161314.1545538443</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>10691686</v>
+        <v>10664337</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22637331</v>
+        <v>22056264</v>
       </c>
       <c r="E68" t="n">
-        <v>135443702</v>
+        <v>131967058</v>
       </c>
       <c r="F68" t="n">
-        <v>41554.56274527124</v>
+        <v>40028.83588390979</v>
       </c>
       <c r="G68" t="n">
-        <v>43494.94306047342</v>
+        <v>43459.43945809344</v>
       </c>
       <c r="H68" t="n">
         <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>11589777</v>
+        <v>12968784</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23943465</v>
+        <v>23380927</v>
       </c>
       <c r="E70" t="n">
-        <v>23943465</v>
+        <v>23380927</v>
       </c>
       <c r="F70" t="n">
-        <v>6151.057698748682</v>
+        <v>15180.89894800215</v>
       </c>
       <c r="G70" t="n">
-        <v>13327.54629584888</v>
+        <v>4058.192548159499</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I70" t="n">
-        <v>1777070</v>
+        <v>1833779</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33342997</v>
+        <v>31438192</v>
       </c>
       <c r="E71" t="n">
-        <v>166396928</v>
+        <v>156891072</v>
       </c>
       <c r="F71" t="n">
-        <v>20827.39055082296</v>
+        <v>20821.55367564905</v>
       </c>
       <c r="G71" t="n">
-        <v>37329.51583426411</v>
+        <v>47296.63095980265</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="I71" t="n">
-        <v>7742849</v>
+        <v>8358811</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>186487</v>
+        <v>187799</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>68825</v>
+        <v>73009</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>287712294</v>
+        <v>286005172</v>
       </c>
       <c r="E73" t="n">
-        <v>532333355</v>
+        <v>529174791</v>
       </c>
       <c r="F73" t="n">
-        <v>54548.54309297143</v>
+        <v>53209.4822962001</v>
       </c>
       <c r="G73" t="n">
-        <v>56522.42385617462</v>
+        <v>57276.23437386008</v>
       </c>
       <c r="H73" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>12240590</v>
+        <v>13053453</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11009606</v>
+        <v>10861530</v>
       </c>
       <c r="E74" t="n">
-        <v>32626456</v>
+        <v>31959725</v>
       </c>
       <c r="F74" t="n">
-        <v>601.2484522915655</v>
+        <v>1045.184482136193</v>
       </c>
       <c r="G74" t="n">
-        <v>2901.897587776984</v>
+        <v>2731.284948506896</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="I74" t="n">
-        <v>4517003</v>
+        <v>5356363</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7670623</v>
+        <v>7634201</v>
       </c>
       <c r="E75" t="n">
-        <v>10927733</v>
+        <v>10875845</v>
       </c>
       <c r="F75" t="n">
-        <v>3815.667165793793</v>
+        <v>41.41836434266162</v>
       </c>
       <c r="G75" t="n">
-        <v>1.886606603390206</v>
+        <v>3654.532242653138</v>
       </c>
       <c r="H75" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I75" t="n">
-        <v>294528</v>
+        <v>286013</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15429774</v>
+        <v>14880264</v>
       </c>
       <c r="F76" t="n">
-        <v>196.9074467850297</v>
+        <v>0.268782360255067</v>
       </c>
       <c r="G76" t="n">
-        <v>463.8059580390934</v>
+        <v>1.349009622617923</v>
       </c>
       <c r="H76" t="n">
-        <v>2.13</v>
+        <v>1.41</v>
       </c>
       <c r="I76" t="n">
-        <v>781210</v>
+        <v>843483</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>71466216</v>
+        <v>69669672</v>
       </c>
       <c r="E77" t="n">
-        <v>98909151</v>
+        <v>96422046</v>
       </c>
       <c r="F77" t="n">
-        <v>9022.275900684814</v>
+        <v>10012.41539501163</v>
       </c>
       <c r="G77" t="n">
-        <v>11718.04387765102</v>
+        <v>13863.98197705043</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I77" t="n">
-        <v>4421795</v>
+        <v>5008204</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5981328</v>
+        <v>5738015</v>
       </c>
       <c r="E78" t="n">
-        <v>5981328</v>
+        <v>5738015</v>
       </c>
       <c r="F78" t="n">
-        <v>233.7035274242185</v>
+        <v>109.5397440956332</v>
       </c>
       <c r="G78" t="n">
-        <v>818.9156654427442</v>
+        <v>133.5498011848022</v>
       </c>
       <c r="H78" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>972017</v>
+        <v>963583</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59110</v>
+        <v>54057</v>
       </c>
       <c r="E79" t="n">
-        <v>308412</v>
+        <v>282045</v>
       </c>
       <c r="F79" t="n">
-        <v>12.19617260192665</v>
+        <v>568.6145703495548</v>
       </c>
       <c r="G79" t="n">
-        <v>344.8241895735351</v>
+        <v>260.7708648271193</v>
       </c>
       <c r="H79" t="n">
-        <v>1.26</v>
+        <v>0.74</v>
       </c>
       <c r="I79" t="n">
-        <v>193884</v>
+        <v>166178</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25994067</v>
+        <v>25240915</v>
       </c>
       <c r="F80" t="n">
-        <v>262.0391447485981</v>
+        <v>474.4072531568425</v>
       </c>
       <c r="G80" t="n">
-        <v>58.82061769004184</v>
+        <v>1934.415256548773</v>
       </c>
       <c r="H80" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="I80" t="n">
-        <v>10717.02</v>
+        <v>12527.2</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>582905619</v>
+        <v>565292447</v>
       </c>
       <c r="E81" t="n">
-        <v>2257507460</v>
+        <v>2189294244</v>
       </c>
       <c r="F81" t="n">
-        <v>171024.1663604533</v>
+        <v>169892.6103538475</v>
       </c>
       <c r="G81" t="n">
-        <v>181281.9400767287</v>
+        <v>179311.1112416559</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>26334985</v>
+        <v>28197171</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6717645</v>
+        <v>6524711</v>
       </c>
       <c r="E82" t="n">
-        <v>9624631</v>
+        <v>9348196</v>
       </c>
       <c r="F82" t="n">
-        <v>1416.204575703406</v>
+        <v>1876.454411883414</v>
       </c>
       <c r="G82" t="n">
-        <v>428.2007971059503</v>
+        <v>954.163039024456</v>
       </c>
       <c r="H82" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I82" t="n">
-        <v>161272</v>
+        <v>157647</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106314901</v>
+        <v>102043390</v>
       </c>
       <c r="E83" t="n">
-        <v>1005926362</v>
+        <v>965510346</v>
       </c>
       <c r="F83" t="n">
-        <v>33771.57963625388</v>
+        <v>29136.53398290136</v>
       </c>
       <c r="G83" t="n">
-        <v>20575.69908652495</v>
+        <v>26911.03427008935</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9181050</v>
+        <v>7827174</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1114097</v>
+        <v>1096184</v>
       </c>
       <c r="E84" t="n">
-        <v>4314027</v>
+        <v>4244664</v>
       </c>
       <c r="F84" t="n">
-        <v>2164.178330044098</v>
+        <v>1533.44744105346</v>
       </c>
       <c r="G84" t="n">
-        <v>1231.184392963328</v>
+        <v>823.0040762190617</v>
       </c>
       <c r="H84" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="I84" t="n">
-        <v>280117</v>
+        <v>241389</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>128816868</v>
+        <v>123926421</v>
       </c>
       <c r="E85" t="n">
-        <v>494162240</v>
+        <v>475401696</v>
       </c>
       <c r="F85" t="n">
-        <v>80916.25162192952</v>
+        <v>64333.41364737776</v>
       </c>
       <c r="G85" t="n">
-        <v>82520.32519419398</v>
+        <v>84130.87099345757</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
-        <v>15196935</v>
+        <v>17012166</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5393176</v>
+        <v>4975730</v>
       </c>
       <c r="E86" t="n">
-        <v>19957787</v>
+        <v>18413002</v>
       </c>
       <c r="F86" t="n">
-        <v>5925.683582197803</v>
+        <v>5476.588894223234</v>
       </c>
       <c r="G86" t="n">
-        <v>5449.339567302361</v>
+        <v>5747.694698992829</v>
       </c>
       <c r="H86" t="n">
-        <v>0.66</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>119648</v>
+        <v>116308</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>37096220</v>
+        <v>35162664</v>
       </c>
       <c r="F87" t="n">
-        <v>4092.900201947055</v>
+        <v>2788.01175619662</v>
       </c>
       <c r="G87" t="n">
-        <v>2057.022727785401</v>
+        <v>2347.556604885192</v>
       </c>
       <c r="H87" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I87" t="n">
-        <v>9589696</v>
+        <v>9897347</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>27997515</v>
+        <v>26985623</v>
       </c>
       <c r="F88" t="n">
-        <v>828.5375774864125</v>
+        <v>1140.659755928714</v>
       </c>
       <c r="G88" t="n">
-        <v>863.3389320811233</v>
+        <v>883.8019071411466</v>
       </c>
       <c r="H88" t="n">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
       <c r="I88" t="n">
-        <v>7192.57</v>
+        <v>6991.29</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>102221986</v>
+        <v>103427824</v>
       </c>
       <c r="E89" t="n">
-        <v>376469454</v>
+        <v>380896839</v>
       </c>
       <c r="F89" t="n">
-        <v>1261.247849128379</v>
+        <v>1272.430166186256</v>
       </c>
       <c r="G89" t="n">
-        <v>1539.525353049299</v>
+        <v>6936.783268924871</v>
       </c>
       <c r="H89" t="n">
-        <v>0.58</v>
+        <v>0.38</v>
       </c>
       <c r="I89" t="n">
-        <v>232912</v>
+        <v>200054</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20737608</v>
+        <v>19394833</v>
       </c>
       <c r="E90" t="n">
-        <v>20737608</v>
+        <v>19394833</v>
       </c>
       <c r="F90" t="n">
-        <v>4562.058653138316</v>
+        <v>2992.438282965886</v>
       </c>
       <c r="G90" t="n">
-        <v>2600.708721250199</v>
+        <v>4571.618224789051</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I90" t="n">
-        <v>6928472</v>
+        <v>6811046</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3756184</v>
+        <v>3736043</v>
       </c>
       <c r="E91" t="n">
-        <v>8172020</v>
+        <v>8128200</v>
       </c>
       <c r="F91" t="n">
-        <v>1634.017295998412</v>
+        <v>1700.890692221372</v>
       </c>
       <c r="G91" t="n">
-        <v>1243.756923986383</v>
+        <v>935.0152906140178</v>
       </c>
       <c r="H91" t="n">
         <v>0.62</v>
       </c>
       <c r="I91" t="n">
-        <v>1456585</v>
+        <v>1499551</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>454593553</v>
+        <v>432393976</v>
       </c>
       <c r="E92" t="n">
-        <v>1579998762</v>
+        <v>1502841258</v>
       </c>
       <c r="F92" t="n">
-        <v>165972.2686494769</v>
+        <v>159325.4966579861</v>
       </c>
       <c r="G92" t="n">
-        <v>163646.6435380583</v>
+        <v>164482.3186914436</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>26567853</v>
+        <v>31862542</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2132268</v>
+        <v>2040470</v>
       </c>
       <c r="E93" t="n">
-        <v>8529072</v>
+        <v>8161881</v>
       </c>
       <c r="F93" t="n">
-        <v>2391.222534076134</v>
+        <v>2152.327359299957</v>
       </c>
       <c r="G93" t="n">
-        <v>1550.240495597731</v>
+        <v>1819.337492384783</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I93" t="n">
-        <v>5033862</v>
+        <v>5046106</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>219761018</v>
+        <v>210424433</v>
       </c>
       <c r="E94" t="n">
-        <v>675682429</v>
+        <v>646975943</v>
       </c>
       <c r="F94" t="n">
-        <v>94237.62544476862</v>
+        <v>89044.05190191101</v>
       </c>
       <c r="G94" t="n">
-        <v>95851.30114970646</v>
+        <v>112182.9541006389</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>60965189</v>
+        <v>22110515</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>133566417</v>
+        <v>124481544</v>
       </c>
       <c r="E95" t="n">
-        <v>348938557</v>
+        <v>325204580</v>
       </c>
       <c r="F95" t="n">
-        <v>21510.871436873</v>
+        <v>29715.97620526039</v>
       </c>
       <c r="G95" t="n">
-        <v>32266.61094995448</v>
+        <v>31961.27185541416</v>
       </c>
       <c r="H95" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>3310978</v>
+        <v>3938385</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>382744658</v>
+        <v>374592080</v>
       </c>
       <c r="E96" t="n">
-        <v>2187112331</v>
+        <v>2140526171</v>
       </c>
       <c r="F96" t="n">
-        <v>36540.25622351869</v>
+        <v>34540.22391816168</v>
       </c>
       <c r="G96" t="n">
-        <v>33942.96046774338</v>
+        <v>41874.65214643819</v>
       </c>
       <c r="H96" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>37712425</v>
+        <v>45202860</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>585988942</v>
+        <v>563590425</v>
       </c>
       <c r="E2" t="n">
-        <v>1137342664</v>
+        <v>1093891431</v>
       </c>
       <c r="F2" t="n">
-        <v>24494.24423689028</v>
+        <v>22345.5597116916</v>
       </c>
       <c r="G2" t="n">
-        <v>28406.53485800543</v>
+        <v>28220.80394854342</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I2" t="n">
-        <v>16589031</v>
+        <v>20177884</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1379969</v>
+        <v>1405900</v>
       </c>
       <c r="E3" t="n">
-        <v>4344383</v>
+        <v>4426018</v>
       </c>
       <c r="F3" t="n">
-        <v>6411.06481265787</v>
+        <v>2398.884230341246</v>
       </c>
       <c r="G3" t="n">
-        <v>3811.918727941042</v>
+        <v>4463.173986682181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>134929</v>
+        <v>102030</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>233061923</v>
+        <v>235628698</v>
       </c>
       <c r="E4" t="n">
-        <v>1461498559</v>
+        <v>1477594445</v>
       </c>
       <c r="F4" t="n">
-        <v>132281.9595080032</v>
+        <v>148185.5998194737</v>
       </c>
       <c r="G4" t="n">
-        <v>142975.2702388065</v>
+        <v>143158.4130065782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>14989265</v>
+        <v>17310488</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135095845</v>
+        <v>132248735</v>
       </c>
       <c r="E5" t="n">
-        <v>149707309</v>
+        <v>146552266</v>
       </c>
       <c r="F5" t="n">
-        <v>5156.690167753309</v>
+        <v>5840.644162529175</v>
       </c>
       <c r="G5" t="n">
-        <v>7168.567343285204</v>
+        <v>7833.795516502426</v>
       </c>
       <c r="H5" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I5" t="n">
-        <v>32058576</v>
+        <v>34704117</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>638178</v>
+        <v>604265</v>
       </c>
       <c r="E6" t="n">
-        <v>12386576</v>
+        <v>11728349</v>
       </c>
       <c r="F6" t="n">
-        <v>459.5074359937914</v>
+        <v>265.4222507768024</v>
       </c>
       <c r="G6" t="n">
-        <v>395.0313366504632</v>
+        <v>374.0582851090742</v>
       </c>
       <c r="H6" t="n">
-        <v>1.28</v>
+        <v>0.68</v>
       </c>
       <c r="I6" t="n">
-        <v>15413.38</v>
+        <v>19080.28</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>444572919</v>
+        <v>433881284</v>
       </c>
       <c r="E7" t="n">
-        <v>444572919</v>
+        <v>433881284</v>
       </c>
       <c r="F7" t="n">
-        <v>45924.73639781617</v>
+        <v>44792.09235403324</v>
       </c>
       <c r="G7" t="n">
-        <v>49360.36983619539</v>
+        <v>50268.11690579803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>31877063</v>
+        <v>31685320</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4261209</v>
+        <v>4120656</v>
       </c>
       <c r="E8" t="n">
-        <v>4261209</v>
+        <v>4120656</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3495160885992</v>
+        <v>771.078725577369</v>
       </c>
       <c r="G8" t="n">
-        <v>451.3708572356437</v>
+        <v>1176.462359580505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48</v>
+        <v>1.18</v>
       </c>
       <c r="I8" t="n">
-        <v>1769704</v>
+        <v>1884330</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1835263</v>
+        <v>1823160</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>95.4553941957614</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>260.0058619551829</v>
       </c>
       <c r="H9" t="n">
-        <v>5.23</v>
+        <v>2.39</v>
       </c>
       <c r="I9" t="n">
-        <v>192620</v>
+        <v>143451</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1632499</v>
+        <v>1596515</v>
       </c>
       <c r="F10" t="n">
-        <v>69.52740127412171</v>
+        <v>23.99585199164178</v>
       </c>
       <c r="G10" t="n">
-        <v>428.485078552788</v>
+        <v>135.5362288691166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>365467</v>
+        <v>221238</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>102635718</v>
+        <v>103954483</v>
       </c>
       <c r="E11" t="n">
-        <v>193353527</v>
+        <v>195837923</v>
       </c>
       <c r="F11" t="n">
-        <v>637.751305785515</v>
+        <v>629.5328703270183</v>
       </c>
       <c r="G11" t="n">
-        <v>2361.872061136242</v>
+        <v>1383.303238281353</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>3856171</v>
+        <v>3868399</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11630227</v>
+        <v>11044127</v>
       </c>
       <c r="E12" t="n">
-        <v>28945532</v>
+        <v>27486835</v>
       </c>
       <c r="F12" t="n">
-        <v>130.0568807595113</v>
+        <v>956.1791224703585</v>
       </c>
       <c r="G12" t="n">
-        <v>2538.294804594701</v>
+        <v>2390.398402933505</v>
       </c>
       <c r="H12" t="n">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1418997</v>
+        <v>1384075</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>105740668</v>
+        <v>106729246</v>
       </c>
       <c r="E13" t="n">
-        <v>409637799</v>
+        <v>413277405</v>
       </c>
       <c r="F13" t="n">
-        <v>10230.05271557284</v>
+        <v>8442.258528183938</v>
       </c>
       <c r="G13" t="n">
-        <v>23547.24350611972</v>
+        <v>21320.33129548862</v>
       </c>
       <c r="H13" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>4605509</v>
+        <v>5812165</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4826916</v>
+        <v>4757266</v>
       </c>
       <c r="E14" t="n">
-        <v>7105482</v>
+        <v>7002953</v>
       </c>
       <c r="F14" t="n">
-        <v>25.85758932360201</v>
+        <v>23.61830377806047</v>
       </c>
       <c r="G14" t="n">
-        <v>259.4539402795803</v>
+        <v>246.7079150646911</v>
       </c>
       <c r="H14" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>728755</v>
+        <v>626916</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134916070</v>
+        <v>131144603</v>
       </c>
       <c r="E15" t="n">
-        <v>134916070</v>
+        <v>131144603</v>
       </c>
       <c r="F15" t="n">
-        <v>52231.21964222898</v>
+        <v>79243.25308018623</v>
       </c>
       <c r="G15" t="n">
-        <v>73983.82430055158</v>
+        <v>105484.3494961652</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65455694</v>
+        <v>70893187</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66338856</v>
+        <v>66903570</v>
       </c>
       <c r="E16" t="n">
-        <v>340199263</v>
+        <v>343095231</v>
       </c>
       <c r="F16" t="n">
-        <v>10250.65043166023</v>
+        <v>31709.5269186143</v>
       </c>
       <c r="G16" t="n">
-        <v>21390.46963574132</v>
+        <v>24075.38646415933</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>20974927</v>
+        <v>19392982</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>234561127</v>
+        <v>230496942</v>
       </c>
       <c r="E17" t="n">
-        <v>234561127</v>
+        <v>230496942</v>
       </c>
       <c r="F17" t="n">
-        <v>60910.51793836622</v>
+        <v>62749.46898875465</v>
       </c>
       <c r="G17" t="n">
-        <v>58311.28355741958</v>
+        <v>58862.76306558284</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14397951</v>
+        <v>18264509</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2702254</v>
+        <v>2330471</v>
       </c>
       <c r="E18" t="n">
-        <v>6908439</v>
+        <v>5957693</v>
       </c>
       <c r="F18" t="n">
-        <v>536.5971320728381</v>
+        <v>960.2014537658221</v>
       </c>
       <c r="G18" t="n">
-        <v>679.7528293216752</v>
+        <v>256.2387611299944</v>
       </c>
       <c r="H18" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="I18" t="n">
-        <v>81073</v>
+        <v>99596</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71136776</v>
+        <v>70694055</v>
       </c>
       <c r="E19" t="n">
-        <v>199190995</v>
+        <v>197941720</v>
       </c>
       <c r="F19" t="n">
-        <v>22290.8635506301</v>
+        <v>21800.52283181799</v>
       </c>
       <c r="G19" t="n">
-        <v>26892.32855465758</v>
+        <v>19145.27161857916</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>21050831</v>
+        <v>19232566</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1628371</v>
+        <v>1559349</v>
       </c>
       <c r="E20" t="n">
-        <v>9349501</v>
+        <v>8953201</v>
       </c>
       <c r="F20" t="n">
-        <v>156.6682225738049</v>
+        <v>434.2014851307706</v>
       </c>
       <c r="G20" t="n">
-        <v>841.9572398174781</v>
+        <v>104.9044009276254</v>
       </c>
       <c r="H20" t="n">
-        <v>0.75</v>
+        <v>0.28</v>
       </c>
       <c r="I20" t="n">
-        <v>185449</v>
+        <v>177810</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>184649</v>
+        <v>167264</v>
       </c>
       <c r="E21" t="n">
-        <v>1246954</v>
+        <v>1129553</v>
       </c>
       <c r="F21" t="n">
-        <v>24.4549997925623</v>
+        <v>10.23752947792352</v>
       </c>
       <c r="G21" t="n">
-        <v>4.765481034379611</v>
+        <v>39.02020708429666</v>
       </c>
       <c r="H21" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="I21" t="n">
-        <v>2198959</v>
+        <v>2199763</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265516</v>
+        <v>273865</v>
       </c>
       <c r="F22" t="n">
-        <v>130.0091335386017</v>
+        <v>43.9102199736048</v>
       </c>
       <c r="G22" t="n">
-        <v>188.1475042433316</v>
+        <v>365.6493520635029</v>
       </c>
       <c r="H22" t="n">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>14946.85</v>
+        <v>23955</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77023067</v>
+        <v>76553211</v>
       </c>
       <c r="E23" t="n">
-        <v>160586909</v>
+        <v>159607296</v>
       </c>
       <c r="F23" t="n">
-        <v>42165.84652593402</v>
+        <v>43124.45721102102</v>
       </c>
       <c r="G23" t="n">
-        <v>49992.92137016173</v>
+        <v>50185.75020278122</v>
       </c>
       <c r="H23" t="n">
         <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>17170614</v>
+        <v>17967035</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>184157677</v>
+        <v>185708003</v>
       </c>
       <c r="E24" t="n">
-        <v>639780413</v>
+        <v>645166387</v>
       </c>
       <c r="F24" t="n">
-        <v>62870.3146075656</v>
+        <v>63703.33546767347</v>
       </c>
       <c r="G24" t="n">
-        <v>63023.85855925654</v>
+        <v>62192.27112781497</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>24953997</v>
+        <v>27343644</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>107972350</v>
+        <v>104618713</v>
       </c>
       <c r="E25" t="n">
-        <v>455167847</v>
+        <v>440643994</v>
       </c>
       <c r="F25" t="n">
-        <v>15518.3904639977</v>
+        <v>16106.92600042485</v>
       </c>
       <c r="G25" t="n">
-        <v>15167.5113754703</v>
+        <v>15086.6791897778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>10822528</v>
+        <v>10578882</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5375176</v>
+        <v>5278227</v>
       </c>
       <c r="E26" t="n">
-        <v>7288503</v>
+        <v>7153579</v>
       </c>
       <c r="F26" t="n">
-        <v>678.3240584388416</v>
+        <v>1988.849144153437</v>
       </c>
       <c r="G26" t="n">
-        <v>314.7219430549932</v>
+        <v>710.8689184861713</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="I26" t="n">
-        <v>4080151</v>
+        <v>4605946</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>542500</v>
+        <v>513648</v>
       </c>
       <c r="E27" t="n">
-        <v>6579999</v>
+        <v>6230047</v>
       </c>
       <c r="F27" t="n">
-        <v>608.5850711917836</v>
+        <v>737.8791292855469</v>
       </c>
       <c r="G27" t="n">
-        <v>694.189223276357</v>
+        <v>966.4807658400797</v>
       </c>
       <c r="H27" t="n">
-        <v>1.18</v>
+        <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2401050</v>
+        <v>2357864</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25169618</v>
+        <v>24197237</v>
       </c>
       <c r="E28" t="n">
-        <v>35554137</v>
+        <v>34173983</v>
       </c>
       <c r="F28" t="n">
-        <v>74.41845341486369</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>419.2403926739804</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.41</v>
+        <v>4.89</v>
       </c>
       <c r="I28" t="n">
-        <v>64254</v>
+        <v>95821</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1265314879</v>
+        <v>1275923018</v>
       </c>
       <c r="E29" t="n">
-        <v>6067443977</v>
+        <v>6118312176</v>
       </c>
       <c r="F29" t="n">
-        <v>99928.88789131827</v>
+        <v>114627.7566384766</v>
       </c>
       <c r="G29" t="n">
-        <v>174432.6538614131</v>
+        <v>201795.6237251236</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>205444451</v>
+        <v>232738956</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>251272504</v>
+        <v>247948422</v>
       </c>
       <c r="E30" t="n">
-        <v>1084631618</v>
+        <v>1070283034</v>
       </c>
       <c r="F30" t="n">
-        <v>129694.3933346189</v>
+        <v>72770.24578791401</v>
       </c>
       <c r="G30" t="n">
-        <v>176323.3332038746</v>
+        <v>118061.9543212407</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>72932881</v>
+        <v>76880015</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5329236</v>
+        <v>5353136</v>
       </c>
       <c r="E31" t="n">
-        <v>5335268</v>
+        <v>5359194</v>
       </c>
       <c r="F31" t="n">
-        <v>605.4118556578237</v>
+        <v>402.8239573222428</v>
       </c>
       <c r="G31" t="n">
-        <v>588.2235382303024</v>
+        <v>367.3714300381906</v>
       </c>
       <c r="H31" t="n">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
       <c r="I31" t="n">
-        <v>154452</v>
+        <v>144964</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13662741</v>
+        <v>13109407</v>
       </c>
       <c r="E32" t="n">
-        <v>34156853</v>
+        <v>32773518</v>
       </c>
       <c r="F32" t="n">
-        <v>2450.526412933598</v>
+        <v>2234.126883399325</v>
       </c>
       <c r="G32" t="n">
-        <v>4703.567013681755</v>
+        <v>4112.675708210123</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="I32" t="n">
-        <v>3199047</v>
+        <v>3826359</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17841555</v>
+        <v>17710173</v>
       </c>
       <c r="F33" t="n">
-        <v>2059.49445031331</v>
+        <v>1241.747731651917</v>
       </c>
       <c r="G33" t="n">
-        <v>2304.018307846306</v>
+        <v>1692.371743409517</v>
       </c>
       <c r="H33" t="n">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>27869</v>
+        <v>38615</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4089238</v>
+        <v>3852430</v>
       </c>
       <c r="E34" t="n">
-        <v>11776215</v>
+        <v>11094237</v>
       </c>
       <c r="F34" t="n">
-        <v>845.2529687684088</v>
+        <v>1116.716780115984</v>
       </c>
       <c r="G34" t="n">
-        <v>448.1056738883985</v>
+        <v>3377.291307171814</v>
       </c>
       <c r="H34" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>388527</v>
+        <v>371802</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1578810</v>
+        <v>1401563</v>
       </c>
       <c r="F35" t="n">
-        <v>296.3950868103092</v>
+        <v>13330.0244879671</v>
       </c>
       <c r="G35" t="n">
-        <v>11.3449830778064</v>
+        <v>0.6837616523757191</v>
       </c>
       <c r="H35" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="I35" t="n">
-        <v>3140.62</v>
+        <v>7027.18</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14171880</v>
+        <v>13639981</v>
       </c>
       <c r="E36" t="n">
-        <v>68636675</v>
+        <v>66060605</v>
       </c>
       <c r="F36" t="n">
-        <v>1546.556783416005</v>
+        <v>2193.645090953006</v>
       </c>
       <c r="G36" t="n">
-        <v>5249.334711287064</v>
+        <v>2937.713111241972</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>2929626</v>
+        <v>3383714</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1364477</v>
+        <v>1345612</v>
       </c>
       <c r="E37" t="n">
-        <v>8930462</v>
+        <v>8806993</v>
       </c>
       <c r="F37" t="n">
-        <v>109.4839952992437</v>
+        <v>633.3467246918414</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23115875618623</v>
+        <v>9.197942250990165</v>
       </c>
       <c r="H37" t="n">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="I37" t="n">
-        <v>434275</v>
+        <v>403271</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1880377071</v>
+        <v>1904495021</v>
       </c>
       <c r="F38" t="n">
-        <v>76349.31553120658</v>
+        <v>41116.0572736226</v>
       </c>
       <c r="G38" t="n">
-        <v>62907.26341206556</v>
+        <v>65283.0080098886</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26</v>
+        <v>1.06</v>
       </c>
       <c r="I38" t="n">
-        <v>27236428</v>
+        <v>28973061</v>
       </c>
     </row>
     <row r="39">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem</t>
+          <t>BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, Mobile Mining</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28289950</v>
+        <v>28200329</v>
       </c>
       <c r="E39" t="n">
-        <v>88085828</v>
+        <v>87806777</v>
       </c>
       <c r="F39" t="n">
-        <v>6411.354587737129</v>
+        <v>5013.055908077427</v>
       </c>
       <c r="G39" t="n">
-        <v>5429.567678697892</v>
+        <v>17701.8701128915</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>9413263</v>
+        <v>9487737</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>187831332</v>
+        <v>183616507</v>
       </c>
       <c r="E40" t="n">
-        <v>1063616411</v>
+        <v>1039749484</v>
       </c>
       <c r="F40" t="n">
-        <v>43382.43835981542</v>
+        <v>57296.1902314044</v>
       </c>
       <c r="G40" t="n">
-        <v>77834.19184224181</v>
+        <v>94358.16777871497</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>38164610</v>
+        <v>42599643</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>128936966</v>
+        <v>124473155</v>
       </c>
       <c r="E41" t="n">
-        <v>955088635</v>
+        <v>922023369</v>
       </c>
       <c r="F41" t="n">
-        <v>79418.20289855427</v>
+        <v>128975.6587002007</v>
       </c>
       <c r="G41" t="n">
-        <v>247714.0866937302</v>
+        <v>176478.8143474672</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>6982559</v>
+        <v>11548657</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29669451</v>
+        <v>28579007</v>
       </c>
       <c r="E42" t="n">
-        <v>140161191</v>
+        <v>134899108</v>
       </c>
       <c r="F42" t="n">
-        <v>6743.721357060278</v>
+        <v>4400.96026088792</v>
       </c>
       <c r="G42" t="n">
-        <v>8169.763725543327</v>
+        <v>8934.188847567426</v>
       </c>
       <c r="H42" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I42" t="n">
-        <v>469632</v>
+        <v>477271</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3151661</v>
+        <v>3109139</v>
       </c>
       <c r="E43" t="n">
-        <v>7359655</v>
+        <v>7260358</v>
       </c>
       <c r="F43" t="n">
-        <v>495.1551058355323</v>
+        <v>5124.64680788728</v>
       </c>
       <c r="G43" t="n">
-        <v>6366.746215158995</v>
+        <v>789.8582406736506</v>
       </c>
       <c r="H43" t="n">
-        <v>0.22</v>
+        <v>1.52</v>
       </c>
       <c r="I43" t="n">
-        <v>499287</v>
+        <v>436261</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>309494714</v>
+        <v>300723081</v>
       </c>
       <c r="E44" t="n">
-        <v>2784406359</v>
+        <v>2705491305</v>
       </c>
       <c r="F44" t="n">
-        <v>52671.49452559318</v>
+        <v>52064.18037416128</v>
       </c>
       <c r="G44" t="n">
-        <v>51755.6316088635</v>
+        <v>46812.16106789785</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I44" t="n">
-        <v>34815741</v>
+        <v>42791140</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>694019</v>
+        <v>715344</v>
       </c>
       <c r="F45" t="n">
-        <v>366.3135515296385</v>
+        <v>527.2220519544861</v>
       </c>
       <c r="G45" t="n">
-        <v>86.04019179359405</v>
+        <v>395.9698749902335</v>
       </c>
       <c r="H45" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="I45" t="n">
-        <v>46897</v>
+        <v>102720</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1574191</v>
+        <v>1597332</v>
       </c>
       <c r="E46" t="n">
-        <v>13118255</v>
+        <v>13311101</v>
       </c>
       <c r="F46" t="n">
-        <v>436.9467986047731</v>
+        <v>337.6765761291904</v>
       </c>
       <c r="G46" t="n">
-        <v>252.8211256667668</v>
+        <v>203.3914756596862</v>
       </c>
       <c r="H46" t="n">
-        <v>0.23</v>
+        <v>1.04</v>
       </c>
       <c r="I46" t="n">
-        <v>17601.88</v>
+        <v>39817</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4853882</v>
+        <v>4818965</v>
       </c>
       <c r="E47" t="n">
-        <v>17147640</v>
+        <v>17024283</v>
       </c>
       <c r="F47" t="n">
-        <v>1534.155687396454</v>
+        <v>1119.100602948086</v>
       </c>
       <c r="G47" t="n">
-        <v>667.059214830915</v>
+        <v>1177.585606850057</v>
       </c>
       <c r="H47" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="I47" t="n">
-        <v>105214</v>
+        <v>117173</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38791704</v>
+        <v>38931484</v>
       </c>
       <c r="E48" t="n">
-        <v>224587938</v>
+        <v>225397208</v>
       </c>
       <c r="F48" t="n">
-        <v>55963.99682471746</v>
+        <v>38988.61418447269</v>
       </c>
       <c r="G48" t="n">
-        <v>62271.96887166104</v>
+        <v>16868.7749779427</v>
       </c>
       <c r="H48" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>40737619</v>
+        <v>29784388</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2183553</v>
+        <v>2128543</v>
       </c>
       <c r="E49" t="n">
-        <v>11996813</v>
+        <v>11694580</v>
       </c>
       <c r="F49" t="n">
-        <v>2844.877647772194</v>
+        <v>374.2392921034243</v>
       </c>
       <c r="G49" t="n">
-        <v>908.9952614872229</v>
+        <v>762.064833005341</v>
       </c>
       <c r="H49" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="I49" t="n">
-        <v>50662</v>
+        <v>23243</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13543516</v>
+        <v>13171160</v>
       </c>
       <c r="E50" t="n">
-        <v>13589612</v>
+        <v>13215989</v>
       </c>
       <c r="F50" t="n">
-        <v>7318.21706488606</v>
+        <v>5589.20177130175</v>
       </c>
       <c r="G50" t="n">
-        <v>4338.406826351857</v>
+        <v>9392.712577783437</v>
       </c>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I50" t="n">
-        <v>5846466</v>
+        <v>5717302</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17800161</v>
+        <v>17035037</v>
       </c>
       <c r="E51" t="n">
-        <v>52370725</v>
+        <v>50122991</v>
       </c>
       <c r="F51" t="n">
-        <v>21095.28873695384</v>
+        <v>443.6779862048792</v>
       </c>
       <c r="G51" t="n">
-        <v>8828.818615775061</v>
+        <v>2563.637883041565</v>
       </c>
       <c r="H51" t="n">
-        <v>0.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>2241821</v>
+        <v>2314069</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15383351</v>
+        <v>15333151</v>
       </c>
       <c r="E52" t="n">
-        <v>94289615</v>
+        <v>93981927</v>
       </c>
       <c r="F52" t="n">
-        <v>6991.388474898088</v>
+        <v>8829.206853502465</v>
       </c>
       <c r="G52" t="n">
-        <v>8203.798074919352</v>
+        <v>7696.970707042172</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>11553545</v>
+        <v>14090809</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47189288</v>
+        <v>48347390</v>
       </c>
       <c r="E53" t="n">
-        <v>203286294</v>
+        <v>208275269</v>
       </c>
       <c r="F53" t="n">
-        <v>19494.48576452272</v>
+        <v>7825.399825261754</v>
       </c>
       <c r="G53" t="n">
-        <v>23079.88777633288</v>
+        <v>11447.31631575409</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="I53" t="n">
-        <v>8052879</v>
+        <v>8655272</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>986427</v>
+        <v>982452</v>
       </c>
       <c r="E54" t="n">
-        <v>2883159</v>
+        <v>2871539</v>
       </c>
       <c r="F54" t="n">
-        <v>283.0384969985897</v>
+        <v>371.2962826340631</v>
       </c>
       <c r="G54" t="n">
-        <v>834.0845627918445</v>
+        <v>1112.382934966379</v>
       </c>
       <c r="H54" t="n">
-        <v>1.36</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>13820.17</v>
+        <v>15568.69</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30844066</v>
+        <v>28602432</v>
       </c>
       <c r="E55" t="n">
-        <v>77773928</v>
+        <v>72121601</v>
       </c>
       <c r="F55" t="n">
-        <v>15060.65808456176</v>
+        <v>6352.499457932125</v>
       </c>
       <c r="G55" t="n">
-        <v>9316.122143889199</v>
+        <v>11210.25217614032</v>
       </c>
       <c r="H55" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2193038</v>
+        <v>2518860</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28208208</v>
+        <v>28480477</v>
       </c>
       <c r="E56" t="n">
-        <v>66915100</v>
+        <v>67560972</v>
       </c>
       <c r="F56" t="n">
-        <v>10023.25200929969</v>
+        <v>10599.20976194208</v>
       </c>
       <c r="G56" t="n">
-        <v>5793.746854255402</v>
+        <v>13395.44856757387</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>247735</v>
+        <v>299191</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11767877</v>
+        <v>11686107</v>
       </c>
       <c r="E57" t="n">
-        <v>17848842</v>
+        <v>17724817</v>
       </c>
       <c r="F57" t="n">
-        <v>4003.704765066419</v>
+        <v>4206.688753040099</v>
       </c>
       <c r="G57" t="n">
-        <v>4445.650403746597</v>
+        <v>10716.30007659167</v>
       </c>
       <c r="H57" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I57" t="n">
-        <v>715398</v>
+        <v>709434</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>296106997</v>
+        <v>292900810</v>
       </c>
       <c r="E58" t="n">
-        <v>296106997</v>
+        <v>292900810</v>
       </c>
       <c r="F58" t="n">
-        <v>36521.616081168</v>
+        <v>57025.36096345245</v>
       </c>
       <c r="G58" t="n">
-        <v>62749.35451620445</v>
+        <v>69964.21122363169</v>
       </c>
       <c r="H58" t="n">
         <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>79421783</v>
+        <v>67457423</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11994197</v>
+        <v>11941641</v>
       </c>
       <c r="F59" t="n">
-        <v>6.03848815790329</v>
+        <v>511.9428738890052</v>
       </c>
       <c r="G59" t="n">
-        <v>246.909618989298</v>
+        <v>139.064197235452</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>0.93</v>
       </c>
       <c r="I59" t="n">
-        <v>32745</v>
+        <v>34849</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83048144</v>
+        <v>82491487</v>
       </c>
       <c r="E60" t="n">
-        <v>478559229</v>
+        <v>475351526</v>
       </c>
       <c r="F60" t="n">
-        <v>100596.454190553</v>
+        <v>93325.92120991582</v>
       </c>
       <c r="G60" t="n">
-        <v>97476.60939727147</v>
+        <v>104995.6208160438</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I60" t="n">
-        <v>16845623</v>
+        <v>16632203</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9055855</v>
+        <v>9030174</v>
       </c>
       <c r="E61" t="n">
-        <v>9055855</v>
+        <v>9030174</v>
       </c>
       <c r="F61" t="n">
-        <v>153.1312173740967</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2237.980434348776</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.98</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>2302615</v>
+        <v>2297273</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31651280</v>
+        <v>31276627</v>
       </c>
       <c r="E62" t="n">
-        <v>141715765</v>
+        <v>140038288</v>
       </c>
       <c r="F62" t="n">
-        <v>16705.92804445551</v>
+        <v>26486.56298482242</v>
       </c>
       <c r="G62" t="n">
-        <v>18820.12988172109</v>
+        <v>18932.11754027261</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>16180152</v>
+        <v>22085353</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10948879</v>
+        <v>11697120</v>
       </c>
       <c r="E63" t="n">
-        <v>21882408</v>
+        <v>23377841</v>
       </c>
       <c r="F63" t="n">
-        <v>106.672102498686</v>
+        <v>1789.315829923761</v>
       </c>
       <c r="G63" t="n">
-        <v>791.0926268635565</v>
+        <v>1462.776114629737</v>
       </c>
       <c r="H63" t="n">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="I63" t="n">
-        <v>115455</v>
+        <v>103320</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1230163</v>
+        <v>1046617</v>
       </c>
       <c r="F64" t="n">
-        <v>42.59580289532883</v>
+        <v>21.72460869715463</v>
       </c>
       <c r="G64" t="n">
-        <v>167.6369067766533</v>
+        <v>0.6552513785427911</v>
       </c>
       <c r="H64" t="n">
-        <v>1.96</v>
+        <v>3.76</v>
       </c>
       <c r="I64" t="n">
-        <v>13677.26</v>
+        <v>35653</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>45659480</v>
+        <v>44862411</v>
       </c>
       <c r="E65" t="n">
-        <v>296089576</v>
+        <v>290920799</v>
       </c>
       <c r="F65" t="n">
-        <v>19806.08313177367</v>
+        <v>15401.5893096616</v>
       </c>
       <c r="G65" t="n">
-        <v>21731.14752217035</v>
+        <v>20201.7772388552</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I65" t="n">
-        <v>18216141</v>
+        <v>20611238</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4609865</v>
+        <v>4325523</v>
       </c>
       <c r="F66" t="n">
-        <v>70.39622207118806</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>76.79781249523811</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.76</v>
+        <v>4.06</v>
       </c>
       <c r="I66" t="n">
-        <v>235159</v>
+        <v>213640</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122867116</v>
+        <v>124335815</v>
       </c>
       <c r="E67" t="n">
-        <v>2034780072</v>
+        <v>2059102926</v>
       </c>
       <c r="F67" t="n">
-        <v>174006.7743933453</v>
+        <v>174801.9153901236</v>
       </c>
       <c r="G67" t="n">
-        <v>161314.1545538443</v>
+        <v>172715.2723543287</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>10664337</v>
+        <v>11030862</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22056264</v>
+        <v>21814453</v>
       </c>
       <c r="E68" t="n">
-        <v>131967058</v>
+        <v>130520258</v>
       </c>
       <c r="F68" t="n">
-        <v>40028.83588390979</v>
+        <v>8699.317288382137</v>
       </c>
       <c r="G68" t="n">
-        <v>43459.43945809344</v>
+        <v>39469.62958123017</v>
       </c>
       <c r="H68" t="n">
         <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>12968784</v>
+        <v>14565167</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23380927</v>
+        <v>22882742</v>
       </c>
       <c r="E70" t="n">
-        <v>23380927</v>
+        <v>22883053</v>
       </c>
       <c r="F70" t="n">
-        <v>15180.89894800215</v>
+        <v>13362.08822773961</v>
       </c>
       <c r="G70" t="n">
-        <v>4058.192548159499</v>
+        <v>3112.095435867936</v>
       </c>
       <c r="H70" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>1833779</v>
+        <v>1945696</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>31438192</v>
+        <v>30624235</v>
       </c>
       <c r="E71" t="n">
-        <v>156891072</v>
+        <v>152829048</v>
       </c>
       <c r="F71" t="n">
-        <v>20821.55367564905</v>
+        <v>16877.60283754254</v>
       </c>
       <c r="G71" t="n">
-        <v>47296.63095980265</v>
+        <v>50195.47130630742</v>
       </c>
       <c r="H71" t="n">
-        <v>1.27</v>
+        <v>0.65</v>
       </c>
       <c r="I71" t="n">
-        <v>8358811</v>
+        <v>9370086</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>187799</v>
+        <v>151337</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>73009</v>
+        <v>49146</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>286005172</v>
+        <v>282029934</v>
       </c>
       <c r="E73" t="n">
-        <v>529174791</v>
+        <v>521819693</v>
       </c>
       <c r="F73" t="n">
-        <v>53209.4822962001</v>
+        <v>70290.43185032123</v>
       </c>
       <c r="G73" t="n">
-        <v>57276.23437386008</v>
+        <v>73523.42079659147</v>
       </c>
       <c r="H73" t="n">
         <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>13053453</v>
+        <v>15697945</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10861530</v>
+        <v>10656495</v>
       </c>
       <c r="E74" t="n">
-        <v>31959725</v>
+        <v>31193076</v>
       </c>
       <c r="F74" t="n">
-        <v>1045.184482136193</v>
+        <v>1658.147325484059</v>
       </c>
       <c r="G74" t="n">
-        <v>2731.284948506896</v>
+        <v>2730.109521137301</v>
       </c>
       <c r="H74" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="I74" t="n">
-        <v>5356363</v>
+        <v>4880299</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7634201</v>
+        <v>7839584</v>
       </c>
       <c r="E75" t="n">
-        <v>10875845</v>
+        <v>11148221</v>
       </c>
       <c r="F75" t="n">
-        <v>41.41836434266162</v>
+        <v>79.3136146093087</v>
       </c>
       <c r="G75" t="n">
-        <v>3654.532242653138</v>
+        <v>3718.499841985861</v>
       </c>
       <c r="H75" t="n">
-        <v>0.37</v>
+        <v>0.99</v>
       </c>
       <c r="I75" t="n">
-        <v>286013</v>
+        <v>325091</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>14880264</v>
+        <v>14283700</v>
       </c>
       <c r="F76" t="n">
-        <v>0.268782360255067</v>
+        <v>0.1305891521493176</v>
       </c>
       <c r="G76" t="n">
-        <v>1.349009622617923</v>
+        <v>0.1275784512352123</v>
       </c>
       <c r="H76" t="n">
-        <v>1.41</v>
+        <v>2.31</v>
       </c>
       <c r="I76" t="n">
-        <v>843483</v>
+        <v>832865</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>69669672</v>
+        <v>66840396</v>
       </c>
       <c r="E77" t="n">
-        <v>96422046</v>
+        <v>92476900</v>
       </c>
       <c r="F77" t="n">
-        <v>10012.41539501163</v>
+        <v>8840.291972814859</v>
       </c>
       <c r="G77" t="n">
-        <v>13863.98197705043</v>
+        <v>22057.79272301687</v>
       </c>
       <c r="H77" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I77" t="n">
-        <v>5008204</v>
+        <v>5290044</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5738015</v>
+        <v>5741198</v>
       </c>
       <c r="E78" t="n">
-        <v>5738015</v>
+        <v>5741198</v>
       </c>
       <c r="F78" t="n">
-        <v>109.5397440956332</v>
+        <v>21.14849420003832</v>
       </c>
       <c r="G78" t="n">
-        <v>133.5498011848022</v>
+        <v>56.66228705495593</v>
       </c>
       <c r="H78" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>963583</v>
+        <v>1102591</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54057</v>
+        <v>53531</v>
       </c>
       <c r="E79" t="n">
-        <v>282045</v>
+        <v>279303</v>
       </c>
       <c r="F79" t="n">
-        <v>568.6145703495548</v>
+        <v>1070.783175560188</v>
       </c>
       <c r="G79" t="n">
-        <v>260.7708648271193</v>
+        <v>20.8766502637886</v>
       </c>
       <c r="H79" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="I79" t="n">
-        <v>166178</v>
+        <v>177190</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25240915</v>
+        <v>23535301</v>
       </c>
       <c r="F80" t="n">
-        <v>474.4072531568425</v>
+        <v>174.2689984761152</v>
       </c>
       <c r="G80" t="n">
-        <v>1934.415256548773</v>
+        <v>111.9932423306672</v>
       </c>
       <c r="H80" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="I80" t="n">
-        <v>12527.2</v>
+        <v>29703</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>565292447</v>
+        <v>558891123</v>
       </c>
       <c r="E81" t="n">
-        <v>2189294244</v>
+        <v>2164502863</v>
       </c>
       <c r="F81" t="n">
-        <v>169892.6103538475</v>
+        <v>165888.014222354</v>
       </c>
       <c r="G81" t="n">
-        <v>179311.1112416559</v>
+        <v>290634.7668641271</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>28197171</v>
+        <v>30332165</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6524711</v>
+        <v>6719371</v>
       </c>
       <c r="E82" t="n">
-        <v>9348196</v>
+        <v>9626946</v>
       </c>
       <c r="F82" t="n">
-        <v>1876.454411883414</v>
+        <v>1272.000462486588</v>
       </c>
       <c r="G82" t="n">
-        <v>954.163039024456</v>
+        <v>911.8664606398081</v>
       </c>
       <c r="H82" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I82" t="n">
-        <v>157647</v>
+        <v>181220</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>102043390</v>
+        <v>103502376</v>
       </c>
       <c r="E83" t="n">
-        <v>965510346</v>
+        <v>979314920</v>
       </c>
       <c r="F83" t="n">
-        <v>29136.53398290136</v>
+        <v>34170.35897684587</v>
       </c>
       <c r="G83" t="n">
-        <v>26911.03427008935</v>
+        <v>27272.06633140977</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>7827174</v>
+        <v>9105992</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1096184</v>
+        <v>1079182</v>
       </c>
       <c r="E84" t="n">
-        <v>4244664</v>
+        <v>4178829</v>
       </c>
       <c r="F84" t="n">
-        <v>1533.44744105346</v>
+        <v>1182.288406263868</v>
       </c>
       <c r="G84" t="n">
-        <v>823.0040762190617</v>
+        <v>1991.595635865677</v>
       </c>
       <c r="H84" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>241389</v>
+        <v>146469</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123926421</v>
+        <v>123222025</v>
       </c>
       <c r="E85" t="n">
-        <v>475401696</v>
+        <v>472699520</v>
       </c>
       <c r="F85" t="n">
-        <v>64333.41364737776</v>
+        <v>76257.94773524052</v>
       </c>
       <c r="G85" t="n">
-        <v>84130.87099345757</v>
+        <v>85857.7209374464</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="I85" t="n">
-        <v>17012166</v>
+        <v>21799203</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4975730</v>
+        <v>4980231</v>
       </c>
       <c r="E86" t="n">
-        <v>18413002</v>
+        <v>18391410</v>
       </c>
       <c r="F86" t="n">
-        <v>5476.588894223234</v>
+        <v>5480.584376879527</v>
       </c>
       <c r="G86" t="n">
-        <v>5747.694698992829</v>
+        <v>1127.096545455374</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="I86" t="n">
-        <v>116308</v>
+        <v>77357</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35162664</v>
+        <v>32526469</v>
       </c>
       <c r="F87" t="n">
-        <v>2788.01175619662</v>
+        <v>2905.231341866504</v>
       </c>
       <c r="G87" t="n">
-        <v>2347.556604885192</v>
+        <v>2491.682970055389</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="I87" t="n">
-        <v>9897347</v>
+        <v>12245323</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>26985623</v>
+        <v>25713951</v>
       </c>
       <c r="F88" t="n">
-        <v>1140.659755928714</v>
+        <v>240.9013526224125</v>
       </c>
       <c r="G88" t="n">
-        <v>883.8019071411466</v>
+        <v>1080.291022438082</v>
       </c>
       <c r="H88" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>6991.29</v>
+        <v>9005.950000000001</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>103427824</v>
+        <v>105891007</v>
       </c>
       <c r="E89" t="n">
-        <v>380896839</v>
+        <v>386046467</v>
       </c>
       <c r="F89" t="n">
-        <v>1272.430166186256</v>
+        <v>3785.044326682337</v>
       </c>
       <c r="G89" t="n">
-        <v>6936.783268924871</v>
+        <v>9165.264309034357</v>
       </c>
       <c r="H89" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="I89" t="n">
-        <v>200054</v>
+        <v>354218</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19394833</v>
+        <v>19783420</v>
       </c>
       <c r="E90" t="n">
-        <v>19394833</v>
+        <v>19783420</v>
       </c>
       <c r="F90" t="n">
-        <v>2992.438282965886</v>
+        <v>2339.394086336619</v>
       </c>
       <c r="G90" t="n">
-        <v>4571.618224789051</v>
+        <v>5030.340094649482</v>
       </c>
       <c r="H90" t="n">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="I90" t="n">
-        <v>6811046</v>
+        <v>6965166</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3736043</v>
+        <v>3660535</v>
       </c>
       <c r="E91" t="n">
-        <v>8128200</v>
+        <v>7956182</v>
       </c>
       <c r="F91" t="n">
-        <v>1700.890692221372</v>
+        <v>2466.534970855958</v>
       </c>
       <c r="G91" t="n">
-        <v>935.0152906140178</v>
+        <v>629.1967856300022</v>
       </c>
       <c r="H91" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I91" t="n">
-        <v>1499551</v>
+        <v>52560</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>432393976</v>
+        <v>424342451</v>
       </c>
       <c r="E92" t="n">
-        <v>1502841258</v>
+        <v>1474857138</v>
       </c>
       <c r="F92" t="n">
-        <v>159325.4966579861</v>
+        <v>129696.879781592</v>
       </c>
       <c r="G92" t="n">
-        <v>164482.3186914436</v>
+        <v>131670.7862123489</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>31862542</v>
+        <v>36408373</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2040470</v>
+        <v>2002675</v>
       </c>
       <c r="E93" t="n">
-        <v>8161881</v>
+        <v>8010700</v>
       </c>
       <c r="F93" t="n">
-        <v>2152.327359299957</v>
+        <v>1609.807024018012</v>
       </c>
       <c r="G93" t="n">
-        <v>1819.337492384783</v>
+        <v>2391.704355376899</v>
       </c>
       <c r="H93" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I93" t="n">
-        <v>5046106</v>
+        <v>5132373</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210424433</v>
+        <v>207328925</v>
       </c>
       <c r="E94" t="n">
-        <v>646975943</v>
+        <v>637458421</v>
       </c>
       <c r="F94" t="n">
-        <v>89044.05190191101</v>
+        <v>90056.49431834799</v>
       </c>
       <c r="G94" t="n">
-        <v>112182.9541006389</v>
+        <v>98881.34109878269</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>22110515</v>
+        <v>19907555</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>124481544</v>
+        <v>119011876</v>
       </c>
       <c r="E95" t="n">
-        <v>325204580</v>
+        <v>310915222</v>
       </c>
       <c r="F95" t="n">
-        <v>29715.97620526039</v>
+        <v>18348.44584891743</v>
       </c>
       <c r="G95" t="n">
-        <v>31961.27185541416</v>
+        <v>30578.5797764749</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I95" t="n">
-        <v>3938385</v>
+        <v>5751951</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>374592080</v>
+        <v>374151871</v>
       </c>
       <c r="E96" t="n">
-        <v>2140526171</v>
+        <v>2138010690</v>
       </c>
       <c r="F96" t="n">
-        <v>34540.22391816168</v>
+        <v>36436.26235653425</v>
       </c>
       <c r="G96" t="n">
-        <v>41874.65214643819</v>
+        <v>35236.66887894358</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>45202860</v>
+        <v>55063190</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>563590425</v>
+        <v>523334617</v>
       </c>
       <c r="E2" t="n">
-        <v>1093891431</v>
+        <v>1015816486</v>
       </c>
       <c r="F2" t="n">
-        <v>22345.5597116916</v>
+        <v>14990.85480142104</v>
       </c>
       <c r="G2" t="n">
-        <v>28220.80394854342</v>
+        <v>28445.2214098255</v>
       </c>
       <c r="H2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>20177884</v>
+        <v>35500673</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1405900</v>
+        <v>1336992</v>
       </c>
       <c r="E3" t="n">
-        <v>4426018</v>
+        <v>4209083</v>
       </c>
       <c r="F3" t="n">
-        <v>2398.884230341246</v>
+        <v>2822.655970073112</v>
       </c>
       <c r="G3" t="n">
-        <v>4463.173986682181</v>
+        <v>4637.322019073511</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>102030</v>
+        <v>95608</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>235628698</v>
+        <v>222875534</v>
       </c>
       <c r="E4" t="n">
-        <v>1477594445</v>
+        <v>1397621143</v>
       </c>
       <c r="F4" t="n">
-        <v>148185.5998194737</v>
+        <v>140070.9513412865</v>
       </c>
       <c r="G4" t="n">
-        <v>143158.4130065782</v>
+        <v>135849.8449883811</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>17310488</v>
+        <v>26808763</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>132248735</v>
+        <v>118478293</v>
       </c>
       <c r="E5" t="n">
-        <v>146552266</v>
+        <v>131292464</v>
       </c>
       <c r="F5" t="n">
-        <v>5840.644162529175</v>
+        <v>5710.753425404464</v>
       </c>
       <c r="G5" t="n">
-        <v>7833.795516502426</v>
+        <v>8752.950179999314</v>
       </c>
       <c r="H5" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="I5" t="n">
-        <v>34704117</v>
+        <v>40371293</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>604265</v>
+        <v>589279</v>
       </c>
       <c r="E6" t="n">
-        <v>11728349</v>
+        <v>11437482</v>
       </c>
       <c r="F6" t="n">
-        <v>265.4222507768024</v>
+        <v>388.6975792791886</v>
       </c>
       <c r="G6" t="n">
-        <v>374.0582851090742</v>
+        <v>306.4000813822605</v>
       </c>
       <c r="H6" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I6" t="n">
-        <v>19080.28</v>
+        <v>18689.27</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>433881284</v>
+        <v>395200459</v>
       </c>
       <c r="E7" t="n">
-        <v>433881284</v>
+        <v>395200459</v>
       </c>
       <c r="F7" t="n">
-        <v>44792.09235403324</v>
+        <v>36158.94369123197</v>
       </c>
       <c r="G7" t="n">
-        <v>50268.11690579803</v>
+        <v>39631.62072012809</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>31685320</v>
+        <v>38380452</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4120656</v>
+        <v>3829835</v>
       </c>
       <c r="E8" t="n">
-        <v>4120656</v>
+        <v>3829835</v>
       </c>
       <c r="F8" t="n">
-        <v>771.078725577369</v>
+        <v>334.8178013852682</v>
       </c>
       <c r="G8" t="n">
-        <v>1176.462359580505</v>
+        <v>854.2481494130782</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="I8" t="n">
-        <v>1884330</v>
+        <v>2350396</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1823160</v>
+        <v>1756969</v>
       </c>
       <c r="F9" t="n">
-        <v>95.4553941957614</v>
+        <v>184.8858591854598</v>
       </c>
       <c r="G9" t="n">
-        <v>260.0058619551829</v>
+        <v>1119.716139051333</v>
       </c>
       <c r="H9" t="n">
-        <v>2.39</v>
+        <v>1.76</v>
       </c>
       <c r="I9" t="n">
-        <v>143451</v>
+        <v>204197</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1596515</v>
+        <v>1630690</v>
       </c>
       <c r="F10" t="n">
-        <v>23.99585199164178</v>
+        <v>64.89660292641018</v>
       </c>
       <c r="G10" t="n">
-        <v>135.5362288691166</v>
+        <v>187.71201397373</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I10" t="n">
-        <v>221238</v>
+        <v>169963</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103954483</v>
+        <v>103990612</v>
       </c>
       <c r="E11" t="n">
-        <v>195837923</v>
+        <v>195905986</v>
       </c>
       <c r="F11" t="n">
-        <v>629.5328703270183</v>
+        <v>1878.265897046391</v>
       </c>
       <c r="G11" t="n">
-        <v>1383.303238281353</v>
+        <v>1392.757650917346</v>
       </c>
       <c r="H11" t="n">
         <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>3868399</v>
+        <v>4015234</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11044127</v>
+        <v>10805721</v>
       </c>
       <c r="E12" t="n">
-        <v>27486835</v>
+        <v>26893486</v>
       </c>
       <c r="F12" t="n">
-        <v>956.1791224703585</v>
+        <v>301.2026392474776</v>
       </c>
       <c r="G12" t="n">
-        <v>2390.398402933505</v>
+        <v>1006.649622729621</v>
       </c>
       <c r="H12" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="I12" t="n">
-        <v>1384075</v>
+        <v>1346584</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106729246</v>
+        <v>100163364</v>
       </c>
       <c r="E13" t="n">
-        <v>413277405</v>
+        <v>387621003</v>
       </c>
       <c r="F13" t="n">
-        <v>8442.258528183938</v>
+        <v>14316.70262617933</v>
       </c>
       <c r="G13" t="n">
-        <v>21320.33129548862</v>
+        <v>5468.269006511368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>5812165</v>
+        <v>7663781</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4757266</v>
+        <v>4541381</v>
       </c>
       <c r="E14" t="n">
-        <v>7002953</v>
+        <v>6685158</v>
       </c>
       <c r="F14" t="n">
-        <v>23.61830377806047</v>
+        <v>1.429489116115279</v>
       </c>
       <c r="G14" t="n">
-        <v>246.7079150646911</v>
+        <v>341.9827582220127</v>
       </c>
       <c r="H14" t="n">
-        <v>1.45</v>
+        <v>2.99</v>
       </c>
       <c r="I14" t="n">
-        <v>626916</v>
+        <v>663437</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>131144603</v>
+        <v>115326809</v>
       </c>
       <c r="E15" t="n">
-        <v>131144603</v>
+        <v>115326809</v>
       </c>
       <c r="F15" t="n">
-        <v>79243.25308018623</v>
+        <v>62404.04706926842</v>
       </c>
       <c r="G15" t="n">
-        <v>105484.3494961652</v>
+        <v>101412.398151451</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>70893187</v>
+        <v>119651776</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66903570</v>
+        <v>61376480</v>
       </c>
       <c r="E16" t="n">
-        <v>343095231</v>
+        <v>314751180</v>
       </c>
       <c r="F16" t="n">
-        <v>31709.5269186143</v>
+        <v>30185.53514622713</v>
       </c>
       <c r="G16" t="n">
-        <v>24075.38646415933</v>
+        <v>21214.77370578647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>19392982</v>
+        <v>27605477</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>230496942</v>
+        <v>217269927</v>
       </c>
       <c r="E17" t="n">
-        <v>230496942</v>
+        <v>217269927</v>
       </c>
       <c r="F17" t="n">
-        <v>62749.46898875465</v>
+        <v>29914.83150187193</v>
       </c>
       <c r="G17" t="n">
-        <v>58862.76306558284</v>
+        <v>57467.87367415669</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>18264509</v>
+        <v>45839129</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2330471</v>
+        <v>2366736</v>
       </c>
       <c r="E18" t="n">
-        <v>5957693</v>
+        <v>6050401</v>
       </c>
       <c r="F18" t="n">
-        <v>960.2014537658221</v>
+        <v>724.0503831078653</v>
       </c>
       <c r="G18" t="n">
-        <v>256.2387611299944</v>
+        <v>333.5692129614407</v>
       </c>
       <c r="H18" t="n">
         <v>0.33</v>
       </c>
       <c r="I18" t="n">
-        <v>99596</v>
+        <v>96575</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70694055</v>
+        <v>65545950</v>
       </c>
       <c r="E19" t="n">
-        <v>197941720</v>
+        <v>183553559</v>
       </c>
       <c r="F19" t="n">
-        <v>21800.52283181799</v>
+        <v>15476.5578879681</v>
       </c>
       <c r="G19" t="n">
-        <v>19145.27161857916</v>
+        <v>16991.89518661817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I19" t="n">
-        <v>19232566</v>
+        <v>21908738</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1559349</v>
+        <v>1560190</v>
       </c>
       <c r="E20" t="n">
-        <v>8953201</v>
+        <v>8958031</v>
       </c>
       <c r="F20" t="n">
-        <v>434.2014851307706</v>
+        <v>374.7869089169385</v>
       </c>
       <c r="G20" t="n">
-        <v>104.9044009276254</v>
+        <v>317.4340367841284</v>
       </c>
       <c r="H20" t="n">
-        <v>0.28</v>
+        <v>0.9</v>
       </c>
       <c r="I20" t="n">
-        <v>177810</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>167264</v>
+        <v>157638</v>
       </c>
       <c r="E21" t="n">
-        <v>1129553</v>
+        <v>1064548</v>
       </c>
       <c r="F21" t="n">
-        <v>10.23752947792352</v>
+        <v>35.53163730012159</v>
       </c>
       <c r="G21" t="n">
-        <v>39.02020708429666</v>
+        <v>284.4544933707919</v>
       </c>
       <c r="H21" t="n">
-        <v>0.44</v>
+        <v>0.93</v>
       </c>
       <c r="I21" t="n">
-        <v>2199763</v>
+        <v>2296374</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>273865</v>
+        <v>244857</v>
       </c>
       <c r="F22" t="n">
-        <v>43.9102199736048</v>
+        <v>85.43030973820149</v>
       </c>
       <c r="G22" t="n">
-        <v>365.6493520635029</v>
+        <v>196.372204724409</v>
       </c>
       <c r="H22" t="n">
-        <v>3.28</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>23955</v>
+        <v>13146.95</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76553211</v>
+        <v>73196979</v>
       </c>
       <c r="E23" t="n">
-        <v>159607296</v>
+        <v>152609822</v>
       </c>
       <c r="F23" t="n">
-        <v>43124.45721102102</v>
+        <v>27395.41449960887</v>
       </c>
       <c r="G23" t="n">
-        <v>50185.75020278122</v>
+        <v>53340.27699157907</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>17967035</v>
+        <v>24112997</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>185708003</v>
+        <v>174006004</v>
       </c>
       <c r="E24" t="n">
-        <v>645166387</v>
+        <v>604512585</v>
       </c>
       <c r="F24" t="n">
-        <v>63703.33546767347</v>
+        <v>62448.12628969934</v>
       </c>
       <c r="G24" t="n">
-        <v>62192.27112781497</v>
+        <v>61883.19234576459</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27343644</v>
+        <v>36408105</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>104618713</v>
+        <v>93856587</v>
       </c>
       <c r="E25" t="n">
-        <v>440643994</v>
+        <v>394889347</v>
       </c>
       <c r="F25" t="n">
-        <v>16106.92600042485</v>
+        <v>18168.32968309771</v>
       </c>
       <c r="G25" t="n">
-        <v>15086.6791897778</v>
+        <v>16029.2909145545</v>
       </c>
       <c r="H25" t="n">
         <v>0.23</v>
       </c>
       <c r="I25" t="n">
-        <v>10578882</v>
+        <v>14809488</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5278227</v>
+        <v>4885091</v>
       </c>
       <c r="E26" t="n">
-        <v>7153579</v>
+        <v>6616305</v>
       </c>
       <c r="F26" t="n">
-        <v>1988.849144153437</v>
+        <v>1331.055926494273</v>
       </c>
       <c r="G26" t="n">
-        <v>710.8689184861713</v>
+        <v>1653.603620957253</v>
       </c>
       <c r="H26" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>4605946</v>
+        <v>5616815</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>513648</v>
+        <v>459575</v>
       </c>
       <c r="E27" t="n">
-        <v>6230047</v>
+        <v>5574197</v>
       </c>
       <c r="F27" t="n">
-        <v>737.8791292855469</v>
+        <v>276.7060982591139</v>
       </c>
       <c r="G27" t="n">
-        <v>966.4807658400797</v>
+        <v>769.7154841709907</v>
       </c>
       <c r="H27" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="I27" t="n">
-        <v>2357864</v>
+        <v>2469152</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24197237</v>
+        <v>22582730</v>
       </c>
       <c r="E28" t="n">
-        <v>34173983</v>
+        <v>31893800</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.6854687976959</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>267.7057414152495</v>
       </c>
       <c r="H28" t="n">
-        <v>4.89</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>95821</v>
+        <v>95730</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1275923018</v>
+        <v>1171905098</v>
       </c>
       <c r="E29" t="n">
-        <v>6118312176</v>
+        <v>5619524944</v>
       </c>
       <c r="F29" t="n">
-        <v>114627.7566384766</v>
+        <v>107905.06079471</v>
       </c>
       <c r="G29" t="n">
-        <v>201795.6237251236</v>
+        <v>172988.7031787962</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>232738956</v>
+        <v>302917386</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>247948422</v>
+        <v>218470809</v>
       </c>
       <c r="E30" t="n">
-        <v>1070283034</v>
+        <v>943041293</v>
       </c>
       <c r="F30" t="n">
-        <v>72770.24578791401</v>
+        <v>56716.64164818835</v>
       </c>
       <c r="G30" t="n">
-        <v>118061.9543212407</v>
+        <v>136650.8049138359</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>76880015</v>
+        <v>120537750</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5353136</v>
+        <v>5361895</v>
       </c>
       <c r="E31" t="n">
-        <v>5359194</v>
+        <v>5367963</v>
       </c>
       <c r="F31" t="n">
-        <v>402.8239573222428</v>
+        <v>387.6202068915978</v>
       </c>
       <c r="G31" t="n">
-        <v>367.3714300381906</v>
+        <v>502.9192207712045</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>144964</v>
+        <v>144986</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13109407</v>
+        <v>12077882</v>
       </c>
       <c r="E32" t="n">
-        <v>32773518</v>
+        <v>30194705</v>
       </c>
       <c r="F32" t="n">
-        <v>2234.126883399325</v>
+        <v>6087.094666130799</v>
       </c>
       <c r="G32" t="n">
-        <v>4112.675708210123</v>
+        <v>3247.629324426999</v>
       </c>
       <c r="H32" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="I32" t="n">
-        <v>3826359</v>
+        <v>4905521</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17710173</v>
+        <v>17245830</v>
       </c>
       <c r="F33" t="n">
-        <v>1241.747731651917</v>
+        <v>2655.276755969298</v>
       </c>
       <c r="G33" t="n">
-        <v>1692.371743409517</v>
+        <v>2291.55855912358</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I33" t="n">
-        <v>38615</v>
+        <v>36025</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3852430</v>
+        <v>3694680</v>
       </c>
       <c r="E34" t="n">
-        <v>11094237</v>
+        <v>10639934</v>
       </c>
       <c r="F34" t="n">
-        <v>1116.716780115984</v>
+        <v>1131.584817550303</v>
       </c>
       <c r="G34" t="n">
-        <v>3377.291307171814</v>
+        <v>1504.810068635341</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>371802</v>
+        <v>347374</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1401563</v>
+        <v>1344452</v>
       </c>
       <c r="F35" t="n">
-        <v>13330.0244879671</v>
+        <v>64.47142830012292</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6837616523757191</v>
+        <v>1.224596016037728</v>
       </c>
       <c r="H35" t="n">
-        <v>1.43</v>
+        <v>2.22</v>
       </c>
       <c r="I35" t="n">
-        <v>7027.18</v>
+        <v>6283.83</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13639981</v>
+        <v>11660280</v>
       </c>
       <c r="E36" t="n">
-        <v>66060605</v>
+        <v>56472596</v>
       </c>
       <c r="F36" t="n">
-        <v>2193.645090953006</v>
+        <v>2754.312411780613</v>
       </c>
       <c r="G36" t="n">
-        <v>2937.713111241972</v>
+        <v>4764.938380176076</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3383714</v>
+        <v>5080170</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1345612</v>
+        <v>1254234</v>
       </c>
       <c r="E37" t="n">
-        <v>8806993</v>
+        <v>8208929</v>
       </c>
       <c r="F37" t="n">
-        <v>633.3467246918414</v>
+        <v>459.1619523096193</v>
       </c>
       <c r="G37" t="n">
-        <v>9.197942250990165</v>
+        <v>540.1420147849607</v>
       </c>
       <c r="H37" t="n">
-        <v>2.25</v>
+        <v>3.61</v>
       </c>
       <c r="I37" t="n">
-        <v>403271</v>
+        <v>82621</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1904495021</v>
+        <v>1834271407</v>
       </c>
       <c r="F38" t="n">
-        <v>41116.0572736226</v>
+        <v>60555.30137165113</v>
       </c>
       <c r="G38" t="n">
-        <v>65283.0080098886</v>
+        <v>72365.728011675</v>
       </c>
       <c r="H38" t="n">
-        <v>1.06</v>
+        <v>0.16</v>
       </c>
       <c r="I38" t="n">
-        <v>28973061</v>
+        <v>35580994</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28200329</v>
+        <v>27434930</v>
       </c>
       <c r="E39" t="n">
-        <v>87806777</v>
+        <v>85423568</v>
       </c>
       <c r="F39" t="n">
-        <v>5013.055908077427</v>
+        <v>2880.808258709325</v>
       </c>
       <c r="G39" t="n">
-        <v>17701.8701128915</v>
+        <v>10753.37716417707</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I39" t="n">
-        <v>9487737</v>
+        <v>10193647</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>183616507</v>
+        <v>165458731</v>
       </c>
       <c r="E40" t="n">
-        <v>1039749484</v>
+        <v>936928999</v>
       </c>
       <c r="F40" t="n">
-        <v>57296.1902314044</v>
+        <v>49577.72499757699</v>
       </c>
       <c r="G40" t="n">
-        <v>94358.16777871497</v>
+        <v>90849.49788690756</v>
       </c>
       <c r="H40" t="n">
         <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>42599643</v>
+        <v>63567719</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>124473155</v>
+        <v>110926621</v>
       </c>
       <c r="E41" t="n">
-        <v>922023369</v>
+        <v>821678675</v>
       </c>
       <c r="F41" t="n">
-        <v>128975.6587002007</v>
+        <v>170457.2158081821</v>
       </c>
       <c r="G41" t="n">
-        <v>176478.8143474672</v>
+        <v>209081.7617839065</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>11548657</v>
+        <v>15452041</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28579007</v>
+        <v>26736038</v>
       </c>
       <c r="E42" t="n">
-        <v>134899108</v>
+        <v>126018186</v>
       </c>
       <c r="F42" t="n">
-        <v>4400.96026088792</v>
+        <v>6143.181716700951</v>
       </c>
       <c r="G42" t="n">
-        <v>8934.188847567426</v>
+        <v>8293.61308074823</v>
       </c>
       <c r="H42" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="I42" t="n">
-        <v>477271</v>
+        <v>715494</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3109139</v>
+        <v>3002533</v>
       </c>
       <c r="E43" t="n">
-        <v>7260358</v>
+        <v>7011415</v>
       </c>
       <c r="F43" t="n">
-        <v>5124.64680788728</v>
+        <v>4546.181221621929</v>
       </c>
       <c r="G43" t="n">
-        <v>789.8582406736506</v>
+        <v>1039.263417035755</v>
       </c>
       <c r="H43" t="n">
-        <v>1.52</v>
+        <v>0.27</v>
       </c>
       <c r="I43" t="n">
-        <v>436261</v>
+        <v>426689</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>300723081</v>
+        <v>276322068</v>
       </c>
       <c r="E44" t="n">
-        <v>2705491305</v>
+        <v>2485964662</v>
       </c>
       <c r="F44" t="n">
-        <v>52064.18037416128</v>
+        <v>53269.60669475492</v>
       </c>
       <c r="G44" t="n">
-        <v>46812.16106789785</v>
+        <v>44052.20849861103</v>
       </c>
       <c r="H44" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>42791140</v>
+        <v>68210831</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>715344</v>
+        <v>710023</v>
       </c>
       <c r="F45" t="n">
-        <v>527.2220519544861</v>
+        <v>487.5768317279278</v>
       </c>
       <c r="G45" t="n">
-        <v>395.9698749902335</v>
+        <v>313.4182689829</v>
       </c>
       <c r="H45" t="n">
-        <v>0.87</v>
+        <v>1.74</v>
       </c>
       <c r="I45" t="n">
-        <v>102720</v>
+        <v>130024</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1597332</v>
+        <v>1486268</v>
       </c>
       <c r="E46" t="n">
-        <v>13311101</v>
+        <v>12385564</v>
       </c>
       <c r="F46" t="n">
-        <v>337.6765761291904</v>
+        <v>169.8946315948421</v>
       </c>
       <c r="G46" t="n">
-        <v>203.3914756596862</v>
+        <v>870.579090704559</v>
       </c>
       <c r="H46" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="I46" t="n">
-        <v>39817</v>
+        <v>74445</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4818965</v>
+        <v>4730892</v>
       </c>
       <c r="E47" t="n">
-        <v>17024283</v>
+        <v>16713143</v>
       </c>
       <c r="F47" t="n">
-        <v>1119.100602948086</v>
+        <v>899.910484599299</v>
       </c>
       <c r="G47" t="n">
-        <v>1177.585606850057</v>
+        <v>573.3630935572775</v>
       </c>
       <c r="H47" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I47" t="n">
-        <v>117173</v>
+        <v>144705</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38931484</v>
+        <v>37840202</v>
       </c>
       <c r="E48" t="n">
-        <v>225397208</v>
+        <v>219079137</v>
       </c>
       <c r="F48" t="n">
-        <v>38988.61418447269</v>
+        <v>37923.63178489738</v>
       </c>
       <c r="G48" t="n">
-        <v>16868.7749779427</v>
+        <v>56966.7319234096</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>29784388</v>
+        <v>19389081</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2128543</v>
+        <v>2011954</v>
       </c>
       <c r="E49" t="n">
-        <v>11694580</v>
+        <v>11054020</v>
       </c>
       <c r="F49" t="n">
-        <v>374.2392921034243</v>
+        <v>86.83976680839743</v>
       </c>
       <c r="G49" t="n">
-        <v>762.064833005341</v>
+        <v>289.0075299318164</v>
       </c>
       <c r="H49" t="n">
-        <v>1.72</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="n">
-        <v>23243</v>
+        <v>32450</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13171160</v>
+        <v>12052333</v>
       </c>
       <c r="E50" t="n">
-        <v>13215989</v>
+        <v>12093354</v>
       </c>
       <c r="F50" t="n">
-        <v>5589.20177130175</v>
+        <v>5021.694701803124</v>
       </c>
       <c r="G50" t="n">
-        <v>9392.712577783437</v>
+        <v>4480.970400090019</v>
       </c>
       <c r="H50" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I50" t="n">
-        <v>5717302</v>
+        <v>6755036</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17035037</v>
+        <v>16396074</v>
       </c>
       <c r="E51" t="n">
-        <v>50122991</v>
+        <v>48615207</v>
       </c>
       <c r="F51" t="n">
-        <v>443.6779862048792</v>
+        <v>2071.304308806701</v>
       </c>
       <c r="G51" t="n">
-        <v>2563.637883041565</v>
+        <v>1284.250524060399</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="I51" t="n">
-        <v>2314069</v>
+        <v>2915905</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15333151</v>
+        <v>15358654</v>
       </c>
       <c r="E52" t="n">
-        <v>93981927</v>
+        <v>94138241</v>
       </c>
       <c r="F52" t="n">
-        <v>8829.206853502465</v>
+        <v>4660.982403520832</v>
       </c>
       <c r="G52" t="n">
-        <v>7696.970707042172</v>
+        <v>8964.584186492179</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>14090809</v>
+        <v>15501613</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48347390</v>
+        <v>45111451</v>
       </c>
       <c r="E53" t="n">
-        <v>208275269</v>
+        <v>194335198</v>
       </c>
       <c r="F53" t="n">
-        <v>7825.399825261754</v>
+        <v>14564.43307580633</v>
       </c>
       <c r="G53" t="n">
-        <v>11447.31631575409</v>
+        <v>22544.74708974247</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8655272</v>
+        <v>12751457</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>982452</v>
+        <v>964277</v>
       </c>
       <c r="E54" t="n">
-        <v>2871539</v>
+        <v>2818419</v>
       </c>
       <c r="F54" t="n">
-        <v>371.2962826340631</v>
+        <v>329.903620868262</v>
       </c>
       <c r="G54" t="n">
-        <v>1112.382934966379</v>
+        <v>1217.977296786995</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I54" t="n">
-        <v>15568.69</v>
+        <v>9453.35</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>28602432</v>
+        <v>27445764</v>
       </c>
       <c r="E55" t="n">
-        <v>72121601</v>
+        <v>69205039</v>
       </c>
       <c r="F55" t="n">
-        <v>6352.499457932125</v>
+        <v>17650.6659828471</v>
       </c>
       <c r="G55" t="n">
-        <v>11210.25217614032</v>
+        <v>15256.70720624441</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2518860</v>
+        <v>2771054</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28480477</v>
+        <v>26795000</v>
       </c>
       <c r="E56" t="n">
-        <v>67560972</v>
+        <v>63562707</v>
       </c>
       <c r="F56" t="n">
-        <v>10599.20976194208</v>
+        <v>13693.64641179833</v>
       </c>
       <c r="G56" t="n">
-        <v>13395.44856757387</v>
+        <v>14210.36185960991</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I56" t="n">
-        <v>299191</v>
+        <v>438394</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11686107</v>
+        <v>11363886</v>
       </c>
       <c r="E57" t="n">
-        <v>17724817</v>
+        <v>17215467</v>
       </c>
       <c r="F57" t="n">
-        <v>4206.688753040099</v>
+        <v>2293.038145679344</v>
       </c>
       <c r="G57" t="n">
-        <v>10716.30007659167</v>
+        <v>1834.015188829412</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I57" t="n">
-        <v>709434</v>
+        <v>749961</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>292900810</v>
+        <v>257911089</v>
       </c>
       <c r="E58" t="n">
-        <v>292900810</v>
+        <v>257911089</v>
       </c>
       <c r="F58" t="n">
-        <v>57025.36096345245</v>
+        <v>49377.71712447426</v>
       </c>
       <c r="G58" t="n">
-        <v>69964.21122363169</v>
+        <v>58595.3852900757</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>67457423</v>
+        <v>94043746</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11941641</v>
+        <v>11893929</v>
       </c>
       <c r="F59" t="n">
-        <v>511.9428738890052</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>139.064197235452</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.93</v>
+        <v>4.36</v>
       </c>
       <c r="I59" t="n">
-        <v>34849</v>
+        <v>33213</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>82491487</v>
+        <v>75977212</v>
       </c>
       <c r="E60" t="n">
-        <v>475351526</v>
+        <v>437813469</v>
       </c>
       <c r="F60" t="n">
-        <v>93325.92120991582</v>
+        <v>96796.23512936461</v>
       </c>
       <c r="G60" t="n">
-        <v>104995.6208160438</v>
+        <v>103403.2996062199</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>16632203</v>
+        <v>20864740</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9030174</v>
+        <v>8281798</v>
       </c>
       <c r="E61" t="n">
-        <v>9030174</v>
+        <v>8281798</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>8.619999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="I61" t="n">
-        <v>2297273</v>
+        <v>3110390</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31276627</v>
+        <v>27941343</v>
       </c>
       <c r="E62" t="n">
-        <v>140038288</v>
+        <v>125104856</v>
       </c>
       <c r="F62" t="n">
-        <v>26486.56298482242</v>
+        <v>8965.930466340398</v>
       </c>
       <c r="G62" t="n">
-        <v>18932.11754027261</v>
+        <v>18328.55150522029</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="n">
-        <v>22085353</v>
+        <v>32394116</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11697120</v>
+        <v>11418425</v>
       </c>
       <c r="E63" t="n">
-        <v>23377841</v>
+        <v>22820842</v>
       </c>
       <c r="F63" t="n">
-        <v>1789.315829923761</v>
+        <v>621.4621121924723</v>
       </c>
       <c r="G63" t="n">
-        <v>1462.776114629737</v>
+        <v>116.9578598742848</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
-        <v>103320</v>
+        <v>82814</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1046617</v>
+        <v>1064950</v>
       </c>
       <c r="F64" t="n">
-        <v>21.72460869715463</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6552513785427911</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.76</v>
+        <v>4.35</v>
       </c>
       <c r="I64" t="n">
-        <v>35653</v>
+        <v>61733</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>44862411</v>
+        <v>39859437</v>
       </c>
       <c r="E65" t="n">
-        <v>290920799</v>
+        <v>258477837</v>
       </c>
       <c r="F65" t="n">
-        <v>15401.5893096616</v>
+        <v>15223.87472556338</v>
       </c>
       <c r="G65" t="n">
-        <v>20201.7772388552</v>
+        <v>17359.89805321838</v>
       </c>
       <c r="H65" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I65" t="n">
-        <v>20611238</v>
+        <v>30925134</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4325523</v>
+        <v>4135523</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>620.9831525525855</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>173.055945964372</v>
       </c>
       <c r="H66" t="n">
-        <v>4.06</v>
+        <v>1.35</v>
       </c>
       <c r="I66" t="n">
-        <v>213640</v>
+        <v>233281</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124335815</v>
+        <v>124426281</v>
       </c>
       <c r="E67" t="n">
-        <v>2059102926</v>
+        <v>2060601116</v>
       </c>
       <c r="F67" t="n">
-        <v>174801.9153901236</v>
+        <v>174106.5062886531</v>
       </c>
       <c r="G67" t="n">
-        <v>172715.2723543287</v>
+        <v>170390.9440169998</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>11030862</v>
+        <v>11167025</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21814453</v>
+        <v>19896747</v>
       </c>
       <c r="E68" t="n">
-        <v>130520258</v>
+        <v>119046237</v>
       </c>
       <c r="F68" t="n">
-        <v>8699.317288382137</v>
+        <v>6481.103044093056</v>
       </c>
       <c r="G68" t="n">
-        <v>39469.62958123017</v>
+        <v>37213.51471242245</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I68" t="n">
-        <v>14565167</v>
+        <v>19703092</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22882742</v>
+        <v>21901988</v>
       </c>
       <c r="E70" t="n">
-        <v>22883053</v>
+        <v>21901988</v>
       </c>
       <c r="F70" t="n">
-        <v>13362.08822773961</v>
+        <v>2116.124356428191</v>
       </c>
       <c r="G70" t="n">
-        <v>3112.095435867936</v>
+        <v>2272.533418202755</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="I70" t="n">
-        <v>1945696</v>
+        <v>2002237</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>30624235</v>
+        <v>32127579</v>
       </c>
       <c r="E71" t="n">
-        <v>152829048</v>
+        <v>160331430</v>
       </c>
       <c r="F71" t="n">
-        <v>16877.60283754254</v>
+        <v>12118.10741677382</v>
       </c>
       <c r="G71" t="n">
-        <v>50195.47130630742</v>
+        <v>47324.35227163545</v>
       </c>
       <c r="H71" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="I71" t="n">
-        <v>9370086</v>
+        <v>26755221</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>151337</v>
+        <v>154476</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>5.88</v>
       </c>
       <c r="I72" t="n">
-        <v>49146</v>
+        <v>32557</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>282029934</v>
+        <v>264966824</v>
       </c>
       <c r="E73" t="n">
-        <v>521819693</v>
+        <v>490249049</v>
       </c>
       <c r="F73" t="n">
-        <v>70290.43185032123</v>
+        <v>48149.03119058412</v>
       </c>
       <c r="G73" t="n">
-        <v>73523.42079659147</v>
+        <v>52502.20396787077</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>15697945</v>
+        <v>18204860</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10656495</v>
+        <v>10474965</v>
       </c>
       <c r="E74" t="n">
-        <v>31193076</v>
+        <v>30660115</v>
       </c>
       <c r="F74" t="n">
-        <v>1658.147325484059</v>
+        <v>3085.120038036504</v>
       </c>
       <c r="G74" t="n">
-        <v>2730.109521137301</v>
+        <v>3181.746088469353</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I74" t="n">
-        <v>4880299</v>
+        <v>5993030</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7839584</v>
+        <v>7250915</v>
       </c>
       <c r="E75" t="n">
-        <v>11148221</v>
+        <v>10310764</v>
       </c>
       <c r="F75" t="n">
-        <v>79.3136146093087</v>
+        <v>2645.779905761801</v>
       </c>
       <c r="G75" t="n">
-        <v>3718.499841985861</v>
+        <v>420.1341746612897</v>
       </c>
       <c r="H75" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="I75" t="n">
-        <v>325091</v>
+        <v>277380</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>14283700</v>
+        <v>13172828</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1305891521493176</v>
+        <v>8.195678366932423</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1275784512352123</v>
+        <v>0.6688124103233852</v>
       </c>
       <c r="H76" t="n">
-        <v>2.31</v>
+        <v>1.59</v>
       </c>
       <c r="I76" t="n">
-        <v>832865</v>
+        <v>1015736</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>66840396</v>
+        <v>64780686</v>
       </c>
       <c r="E77" t="n">
-        <v>92476900</v>
+        <v>89537860</v>
       </c>
       <c r="F77" t="n">
-        <v>8840.291972814859</v>
+        <v>7114.960070919176</v>
       </c>
       <c r="G77" t="n">
-        <v>22057.79272301687</v>
+        <v>13332.61740194903</v>
       </c>
       <c r="H77" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I77" t="n">
-        <v>5290044</v>
+        <v>6328566</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5741198</v>
+        <v>5298389</v>
       </c>
       <c r="E78" t="n">
-        <v>5741198</v>
+        <v>5298389</v>
       </c>
       <c r="F78" t="n">
-        <v>21.14849420003832</v>
+        <v>336.6274256173343</v>
       </c>
       <c r="G78" t="n">
-        <v>56.66228705495593</v>
+        <v>337.5085039997741</v>
       </c>
       <c r="H78" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1102591</v>
+        <v>1163727</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53531</v>
+        <v>51817</v>
       </c>
       <c r="E79" t="n">
-        <v>279303</v>
+        <v>270361</v>
       </c>
       <c r="F79" t="n">
-        <v>1070.783175560188</v>
+        <v>41.79777203706938</v>
       </c>
       <c r="G79" t="n">
-        <v>20.8766502637886</v>
+        <v>29.13390730342109</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9</v>
+        <v>1.47</v>
       </c>
       <c r="I79" t="n">
-        <v>177190</v>
+        <v>166002</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>23535301</v>
+        <v>22890646</v>
       </c>
       <c r="F80" t="n">
-        <v>174.2689984761152</v>
+        <v>31.12694380336311</v>
       </c>
       <c r="G80" t="n">
-        <v>111.9932423306672</v>
+        <v>31.12987434552866</v>
       </c>
       <c r="H80" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="I80" t="n">
-        <v>29703</v>
+        <v>49016</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>558891123</v>
+        <v>509560978</v>
       </c>
       <c r="E81" t="n">
-        <v>2164502863</v>
+        <v>1973454486</v>
       </c>
       <c r="F81" t="n">
-        <v>165888.014222354</v>
+        <v>127625.9834210101</v>
       </c>
       <c r="G81" t="n">
-        <v>290634.7668641271</v>
+        <v>287943.1020852689</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I81" t="n">
-        <v>30332165</v>
+        <v>61987564</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6719371</v>
+        <v>5973751</v>
       </c>
       <c r="E82" t="n">
-        <v>9626946</v>
+        <v>8558572</v>
       </c>
       <c r="F82" t="n">
-        <v>1272.000462486588</v>
+        <v>1443.498229575069</v>
       </c>
       <c r="G82" t="n">
-        <v>911.8664606398081</v>
+        <v>870.4266883367372</v>
       </c>
       <c r="H82" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="I82" t="n">
-        <v>181220</v>
+        <v>186429</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>103502376</v>
+        <v>96815867</v>
       </c>
       <c r="E83" t="n">
-        <v>979314920</v>
+        <v>916048763</v>
       </c>
       <c r="F83" t="n">
-        <v>34170.35897684587</v>
+        <v>31809.3040710286</v>
       </c>
       <c r="G83" t="n">
-        <v>27272.06633140977</v>
+        <v>34729.63669012392</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>9105992</v>
+        <v>12399430</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1079182</v>
+        <v>1050166</v>
       </c>
       <c r="E84" t="n">
-        <v>4178829</v>
+        <v>4066471</v>
       </c>
       <c r="F84" t="n">
-        <v>1182.288406263868</v>
+        <v>1921.619898680144</v>
       </c>
       <c r="G84" t="n">
-        <v>1991.595635865677</v>
+        <v>209.7623255212011</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="I84" t="n">
-        <v>146469</v>
+        <v>120107</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123222025</v>
+        <v>118933166</v>
       </c>
       <c r="E85" t="n">
-        <v>472699520</v>
+        <v>456246767</v>
       </c>
       <c r="F85" t="n">
-        <v>76257.94773524052</v>
+        <v>75850.48783051317</v>
       </c>
       <c r="G85" t="n">
-        <v>85857.7209374464</v>
+        <v>82546.48564481529</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>21799203</v>
+        <v>30510927</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4980231</v>
+        <v>4666499</v>
       </c>
       <c r="E86" t="n">
-        <v>18391410</v>
+        <v>17232834</v>
       </c>
       <c r="F86" t="n">
-        <v>5480.584376879527</v>
+        <v>5533.168848729227</v>
       </c>
       <c r="G86" t="n">
-        <v>1127.096545455374</v>
+        <v>407.8688069983648</v>
       </c>
       <c r="H86" t="n">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="I86" t="n">
-        <v>77357</v>
+        <v>92535</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32526469</v>
+        <v>34075102</v>
       </c>
       <c r="F87" t="n">
-        <v>2905.231341866504</v>
+        <v>3834.267310269266</v>
       </c>
       <c r="G87" t="n">
-        <v>2491.682970055389</v>
+        <v>3384.892934183063</v>
       </c>
       <c r="H87" t="n">
         <v>0.21</v>
       </c>
       <c r="I87" t="n">
-        <v>12245323</v>
+        <v>10260213</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25713951</v>
+        <v>23517424</v>
       </c>
       <c r="F88" t="n">
-        <v>240.9013526224125</v>
+        <v>859.1693678575119</v>
       </c>
       <c r="G88" t="n">
-        <v>1080.291022438082</v>
+        <v>1241.517398709702</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.87</v>
       </c>
       <c r="I88" t="n">
-        <v>9005.950000000001</v>
+        <v>11275.2</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>105891007</v>
+        <v>102307639</v>
       </c>
       <c r="E89" t="n">
-        <v>386046467</v>
+        <v>372970104</v>
       </c>
       <c r="F89" t="n">
-        <v>3785.044326682337</v>
+        <v>1587.931742309075</v>
       </c>
       <c r="G89" t="n">
-        <v>9165.264309034357</v>
+        <v>1057.620913875071</v>
       </c>
       <c r="H89" t="n">
-        <v>0.19</v>
+        <v>0.78</v>
       </c>
       <c r="I89" t="n">
-        <v>354218</v>
+        <v>511731</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19783420</v>
+        <v>18607346</v>
       </c>
       <c r="E90" t="n">
-        <v>19783420</v>
+        <v>18607346</v>
       </c>
       <c r="F90" t="n">
-        <v>2339.394086336619</v>
+        <v>2840.78435354816</v>
       </c>
       <c r="G90" t="n">
-        <v>5030.340094649482</v>
+        <v>6264.276761507734</v>
       </c>
       <c r="H90" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="I90" t="n">
-        <v>6965166</v>
+        <v>7084622</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3660535</v>
+        <v>3688760</v>
       </c>
       <c r="E91" t="n">
-        <v>7956182</v>
+        <v>8017528</v>
       </c>
       <c r="F91" t="n">
-        <v>2466.534970855958</v>
+        <v>2186.167615839914</v>
       </c>
       <c r="G91" t="n">
-        <v>629.1967856300022</v>
+        <v>1093.816411388877</v>
       </c>
       <c r="H91" t="n">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="I91" t="n">
-        <v>52560</v>
+        <v>1770432</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>424342451</v>
+        <v>390173503</v>
       </c>
       <c r="E92" t="n">
-        <v>1474857138</v>
+        <v>1355412274</v>
       </c>
       <c r="F92" t="n">
-        <v>129696.879781592</v>
+        <v>129234.610470745</v>
       </c>
       <c r="G92" t="n">
-        <v>131670.7862123489</v>
+        <v>178203.0857966824</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>36408373</v>
+        <v>66031643</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2002675</v>
+        <v>1892115</v>
       </c>
       <c r="E93" t="n">
-        <v>8010700</v>
+        <v>7568461</v>
       </c>
       <c r="F93" t="n">
-        <v>1609.807024018012</v>
+        <v>1375.279710524931</v>
       </c>
       <c r="G93" t="n">
-        <v>2391.704355376899</v>
+        <v>2735.740484419159</v>
       </c>
       <c r="H93" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="I93" t="n">
-        <v>5132373</v>
+        <v>5651399</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>207328925</v>
+        <v>190291799</v>
       </c>
       <c r="E94" t="n">
-        <v>637458421</v>
+        <v>585075670</v>
       </c>
       <c r="F94" t="n">
-        <v>90056.49431834799</v>
+        <v>88167.62843860313</v>
       </c>
       <c r="G94" t="n">
-        <v>98881.34109878269</v>
+        <v>90580.7796990198</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>19907555</v>
+        <v>25908618</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>119011876</v>
+        <v>108568026</v>
       </c>
       <c r="E95" t="n">
-        <v>310915222</v>
+        <v>283630955</v>
       </c>
       <c r="F95" t="n">
-        <v>18348.44584891743</v>
+        <v>28736.47641010539</v>
       </c>
       <c r="G95" t="n">
-        <v>30578.5797764749</v>
+        <v>32584.30711229375</v>
       </c>
       <c r="H95" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I95" t="n">
-        <v>5751951</v>
+        <v>10974784</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>374151871</v>
+        <v>346001668</v>
       </c>
       <c r="E96" t="n">
-        <v>2138010690</v>
+        <v>1977152391</v>
       </c>
       <c r="F96" t="n">
-        <v>36436.26235653425</v>
+        <v>30851.05915755547</v>
       </c>
       <c r="G96" t="n">
-        <v>35236.66887894358</v>
+        <v>38398.03773214868</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I96" t="n">
-        <v>55063190</v>
+        <v>76037212</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>523334617</v>
+        <v>488482502</v>
       </c>
       <c r="E2" t="n">
-        <v>1015816486</v>
+        <v>948186733</v>
       </c>
       <c r="F2" t="n">
-        <v>14990.85480142104</v>
+        <v>11309.07747198465</v>
       </c>
       <c r="G2" t="n">
-        <v>28445.2214098255</v>
+        <v>35322.2181561426</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I2" t="n">
-        <v>35500673</v>
+        <v>46269068</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1336992</v>
+        <v>1377094</v>
       </c>
       <c r="E3" t="n">
-        <v>4209083</v>
+        <v>4335332</v>
       </c>
       <c r="F3" t="n">
-        <v>2822.655970073112</v>
+        <v>3184.570119036322</v>
       </c>
       <c r="G3" t="n">
-        <v>4637.322019073511</v>
+        <v>3967.085504289476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>95608</v>
+        <v>99496</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>222875534</v>
+        <v>213699813</v>
       </c>
       <c r="E4" t="n">
-        <v>1397621143</v>
+        <v>1340081489</v>
       </c>
       <c r="F4" t="n">
-        <v>140070.9513412865</v>
+        <v>144404.6943050442</v>
       </c>
       <c r="G4" t="n">
-        <v>135849.8449883811</v>
+        <v>131575.655565168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>26808763</v>
+        <v>28197420</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>118478293</v>
+        <v>116451653</v>
       </c>
       <c r="E5" t="n">
-        <v>131292464</v>
+        <v>129046631</v>
       </c>
       <c r="F5" t="n">
-        <v>5710.753425404464</v>
+        <v>6847.324793682264</v>
       </c>
       <c r="G5" t="n">
-        <v>8752.950179999314</v>
+        <v>9344.484001262965</v>
       </c>
       <c r="H5" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I5" t="n">
-        <v>40371293</v>
+        <v>49983126</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>589279</v>
+        <v>581717</v>
       </c>
       <c r="E6" t="n">
-        <v>11437482</v>
+        <v>11290712</v>
       </c>
       <c r="F6" t="n">
-        <v>388.6975792791886</v>
+        <v>125.5326445768033</v>
       </c>
       <c r="G6" t="n">
-        <v>306.4000813822605</v>
+        <v>215.808236644355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>18689.27</v>
+        <v>12882.55</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>395200459</v>
+        <v>383780862</v>
       </c>
       <c r="E7" t="n">
-        <v>395200459</v>
+        <v>383780869</v>
       </c>
       <c r="F7" t="n">
-        <v>36158.94369123197</v>
+        <v>29382.02213672335</v>
       </c>
       <c r="G7" t="n">
-        <v>39631.62072012809</v>
+        <v>45778.51870638484</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>38380452</v>
+        <v>41742921</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3829835</v>
+        <v>3790722</v>
       </c>
       <c r="E8" t="n">
-        <v>3829835</v>
+        <v>3790722</v>
       </c>
       <c r="F8" t="n">
-        <v>334.8178013852682</v>
+        <v>379.3776376673603</v>
       </c>
       <c r="G8" t="n">
-        <v>854.2481494130782</v>
+        <v>526.6382966262192</v>
       </c>
       <c r="H8" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="I8" t="n">
-        <v>2350396</v>
+        <v>2742274</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1756969</v>
+        <v>1749343</v>
       </c>
       <c r="F9" t="n">
-        <v>184.8858591854598</v>
+        <v>2183.952762458171</v>
       </c>
       <c r="G9" t="n">
-        <v>1119.716139051333</v>
+        <v>7294.494081154277</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76</v>
+        <v>0.48</v>
       </c>
       <c r="I9" t="n">
-        <v>204197</v>
+        <v>241373</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1630690</v>
+        <v>1554805</v>
       </c>
       <c r="F10" t="n">
-        <v>64.89660292641018</v>
+        <v>49.50354707941629</v>
       </c>
       <c r="G10" t="n">
-        <v>187.71201397373</v>
+        <v>164.4980774265292</v>
       </c>
       <c r="H10" t="n">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="I10" t="n">
-        <v>169963</v>
+        <v>159991</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103990612</v>
+        <v>102730745</v>
       </c>
       <c r="E11" t="n">
-        <v>195905986</v>
+        <v>193532545</v>
       </c>
       <c r="F11" t="n">
-        <v>1878.265897046391</v>
+        <v>1838.473068944229</v>
       </c>
       <c r="G11" t="n">
-        <v>1392.757650917346</v>
+        <v>1408.734810819407</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I11" t="n">
-        <v>4015234</v>
+        <v>3999822</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10805721</v>
+        <v>10422916</v>
       </c>
       <c r="E12" t="n">
-        <v>26893486</v>
+        <v>25940753</v>
       </c>
       <c r="F12" t="n">
-        <v>301.2026392474776</v>
+        <v>648.5084300828056</v>
       </c>
       <c r="G12" t="n">
-        <v>1006.649622729621</v>
+        <v>726.7728842217077</v>
       </c>
       <c r="H12" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1346584</v>
+        <v>1336284</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100163364</v>
+        <v>97302140</v>
       </c>
       <c r="E13" t="n">
-        <v>387621003</v>
+        <v>376427668</v>
       </c>
       <c r="F13" t="n">
-        <v>14316.70262617933</v>
+        <v>18339.23432972447</v>
       </c>
       <c r="G13" t="n">
-        <v>5468.269006511368</v>
+        <v>12983.66102573584</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>7663781</v>
+        <v>13030519</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4541381</v>
+        <v>4288532</v>
       </c>
       <c r="E14" t="n">
-        <v>6685158</v>
+        <v>6312952</v>
       </c>
       <c r="F14" t="n">
-        <v>1.429489116115279</v>
+        <v>0.1038644422705027</v>
       </c>
       <c r="G14" t="n">
-        <v>341.9827582220127</v>
+        <v>286.735227619079</v>
       </c>
       <c r="H14" t="n">
-        <v>2.99</v>
+        <v>1.56</v>
       </c>
       <c r="I14" t="n">
-        <v>663437</v>
+        <v>718369</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115326809</v>
+        <v>116038000</v>
       </c>
       <c r="E15" t="n">
-        <v>115326809</v>
+        <v>116038000</v>
       </c>
       <c r="F15" t="n">
-        <v>62404.04706926842</v>
+        <v>68275.39324637182</v>
       </c>
       <c r="G15" t="n">
-        <v>101412.398151451</v>
+        <v>114470.2102070639</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>119651776</v>
+        <v>142749627</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61376480</v>
+        <v>59825301</v>
       </c>
       <c r="E16" t="n">
-        <v>314751180</v>
+        <v>306796417</v>
       </c>
       <c r="F16" t="n">
-        <v>30185.53514622713</v>
+        <v>16832.13835204727</v>
       </c>
       <c r="G16" t="n">
-        <v>21214.77370578647</v>
+        <v>19252.09919481939</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>27605477</v>
+        <v>33643295</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>217269927</v>
+        <v>207587664</v>
       </c>
       <c r="E17" t="n">
-        <v>217269927</v>
+        <v>207587664</v>
       </c>
       <c r="F17" t="n">
-        <v>29914.83150187193</v>
+        <v>41965.06617595281</v>
       </c>
       <c r="G17" t="n">
-        <v>57467.87367415669</v>
+        <v>49218.26759266456</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>45839129</v>
+        <v>52561001</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2366736</v>
+        <v>2390787</v>
       </c>
       <c r="E18" t="n">
-        <v>6050401</v>
+        <v>6111886</v>
       </c>
       <c r="F18" t="n">
-        <v>724.0503831078653</v>
+        <v>176.2057223340269</v>
       </c>
       <c r="G18" t="n">
-        <v>333.5692129614407</v>
+        <v>315.1240548969452</v>
       </c>
       <c r="H18" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I18" t="n">
-        <v>96575</v>
+        <v>102128</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65545950</v>
+        <v>63822467</v>
       </c>
       <c r="E19" t="n">
-        <v>183553559</v>
+        <v>178767905</v>
       </c>
       <c r="F19" t="n">
-        <v>15476.5578879681</v>
+        <v>19451.51263443641</v>
       </c>
       <c r="G19" t="n">
-        <v>16991.89518661817</v>
+        <v>19502.53419683604</v>
       </c>
       <c r="H19" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I19" t="n">
-        <v>21908738</v>
+        <v>26987682</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1560190</v>
+        <v>1564486</v>
       </c>
       <c r="E20" t="n">
-        <v>8958031</v>
+        <v>8982692</v>
       </c>
       <c r="F20" t="n">
-        <v>374.7869089169385</v>
+        <v>262.068470503582</v>
       </c>
       <c r="G20" t="n">
-        <v>317.4340367841284</v>
+        <v>43.49265824275555</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>224206</v>
+        <v>235378</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>157638</v>
+        <v>158779</v>
       </c>
       <c r="E21" t="n">
-        <v>1064548</v>
+        <v>1072253</v>
       </c>
       <c r="F21" t="n">
-        <v>35.53163730012159</v>
+        <v>5.489176241169486</v>
       </c>
       <c r="G21" t="n">
-        <v>284.4544933707919</v>
+        <v>1363.69588938927</v>
       </c>
       <c r="H21" t="n">
         <v>0.93</v>
       </c>
       <c r="I21" t="n">
-        <v>2296374</v>
+        <v>2384423</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>244857</v>
+        <v>232543</v>
       </c>
       <c r="F22" t="n">
-        <v>85.43030973820149</v>
+        <v>99.92107721072769</v>
       </c>
       <c r="G22" t="n">
-        <v>196.372204724409</v>
+        <v>101.8380897186969</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
-        <v>13146.95</v>
+        <v>13958.26</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73196979</v>
+        <v>70384453</v>
       </c>
       <c r="E23" t="n">
-        <v>152609822</v>
+        <v>146745931</v>
       </c>
       <c r="F23" t="n">
-        <v>27395.41449960887</v>
+        <v>30712.49130070737</v>
       </c>
       <c r="G23" t="n">
-        <v>53340.27699157907</v>
+        <v>48688.60591595447</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>24112997</v>
+        <v>24548862</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>174006004</v>
+        <v>173314927</v>
       </c>
       <c r="E24" t="n">
-        <v>604512585</v>
+        <v>602111721</v>
       </c>
       <c r="F24" t="n">
-        <v>62448.12628969934</v>
+        <v>57173.04528899876</v>
       </c>
       <c r="G24" t="n">
-        <v>61883.19234576459</v>
+        <v>58740.60345712524</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36408105</v>
+        <v>46515014</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>93856587</v>
+        <v>92623466</v>
       </c>
       <c r="E25" t="n">
-        <v>394889347</v>
+        <v>389470717</v>
       </c>
       <c r="F25" t="n">
-        <v>18168.32968309771</v>
+        <v>16620.20965426404</v>
       </c>
       <c r="G25" t="n">
-        <v>16029.2909145545</v>
+        <v>15962.77797229303</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I25" t="n">
-        <v>14809488</v>
+        <v>17875563</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4885091</v>
+        <v>4890941</v>
       </c>
       <c r="E26" t="n">
-        <v>6616305</v>
+        <v>6624044</v>
       </c>
       <c r="F26" t="n">
-        <v>1331.055926494273</v>
+        <v>307.006727395885</v>
       </c>
       <c r="G26" t="n">
-        <v>1653.603620957253</v>
+        <v>2103.532417422626</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I26" t="n">
-        <v>5616815</v>
+        <v>6010266</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>459575</v>
+        <v>453730</v>
       </c>
       <c r="E27" t="n">
-        <v>5574197</v>
+        <v>5503304</v>
       </c>
       <c r="F27" t="n">
-        <v>276.7060982591139</v>
+        <v>570.4576204680475</v>
       </c>
       <c r="G27" t="n">
-        <v>769.7154841709907</v>
+        <v>1809.502669957109</v>
       </c>
       <c r="H27" t="n">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
       <c r="I27" t="n">
-        <v>2469152</v>
+        <v>2275156</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22582730</v>
+        <v>21398099</v>
       </c>
       <c r="E28" t="n">
-        <v>31893800</v>
+        <v>30220734</v>
       </c>
       <c r="F28" t="n">
-        <v>103.6854687976959</v>
+        <v>232.9704741611472</v>
       </c>
       <c r="G28" t="n">
-        <v>267.7057414152495</v>
+        <v>299.0325688367887</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="I28" t="n">
-        <v>95730</v>
+        <v>126018</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1171905098</v>
+        <v>1240899387</v>
       </c>
       <c r="E29" t="n">
-        <v>5619524944</v>
+        <v>5950366690</v>
       </c>
       <c r="F29" t="n">
-        <v>107905.06079471</v>
+        <v>16980.74414920154</v>
       </c>
       <c r="G29" t="n">
-        <v>172988.7031787962</v>
+        <v>127628.6250089777</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>302917386</v>
+        <v>379750374</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>218470809</v>
+        <v>217091866</v>
       </c>
       <c r="E30" t="n">
-        <v>943041293</v>
+        <v>937089011</v>
       </c>
       <c r="F30" t="n">
-        <v>56716.64164818835</v>
+        <v>87413.04542136968</v>
       </c>
       <c r="G30" t="n">
-        <v>136650.8049138359</v>
+        <v>132356.5621140743</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>120537750</v>
+        <v>147013289</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5361895</v>
+        <v>5351121</v>
       </c>
       <c r="E31" t="n">
-        <v>5367963</v>
+        <v>5357177</v>
       </c>
       <c r="F31" t="n">
-        <v>387.6202068915978</v>
+        <v>431.0349695281079</v>
       </c>
       <c r="G31" t="n">
-        <v>502.9192207712045</v>
+        <v>504.3216794500918</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>144986</v>
+        <v>145108</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12077882</v>
+        <v>11967336</v>
       </c>
       <c r="E32" t="n">
-        <v>30194705</v>
+        <v>29918340</v>
       </c>
       <c r="F32" t="n">
-        <v>6087.094666130799</v>
+        <v>3477.223004329258</v>
       </c>
       <c r="G32" t="n">
-        <v>3247.629324426999</v>
+        <v>2906.016460061035</v>
       </c>
       <c r="H32" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="I32" t="n">
-        <v>4905521</v>
+        <v>4710308</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17245830</v>
+        <v>17418749</v>
       </c>
       <c r="F33" t="n">
-        <v>2655.276755969298</v>
+        <v>1887.635765386177</v>
       </c>
       <c r="G33" t="n">
-        <v>2291.55855912358</v>
+        <v>2304.56562372665</v>
       </c>
       <c r="H33" t="n">
         <v>0.57</v>
       </c>
       <c r="I33" t="n">
-        <v>36025</v>
+        <v>36834</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3694680</v>
+        <v>3610422</v>
       </c>
       <c r="E34" t="n">
-        <v>10639934</v>
+        <v>10397290</v>
       </c>
       <c r="F34" t="n">
-        <v>1131.584817550303</v>
+        <v>2008.093380022637</v>
       </c>
       <c r="G34" t="n">
-        <v>1504.810068635341</v>
+        <v>862.2916251206034</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>347374</v>
+        <v>371412</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1344452</v>
+        <v>1300167</v>
       </c>
       <c r="F35" t="n">
-        <v>64.47142830012292</v>
+        <v>113.6436535531018</v>
       </c>
       <c r="G35" t="n">
-        <v>1.224596016037728</v>
+        <v>28.66495320342133</v>
       </c>
       <c r="H35" t="n">
-        <v>2.22</v>
+        <v>1.53</v>
       </c>
       <c r="I35" t="n">
-        <v>6283.83</v>
+        <v>6783.26</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11660280</v>
+        <v>11244640</v>
       </c>
       <c r="E36" t="n">
-        <v>56472596</v>
+        <v>54459585</v>
       </c>
       <c r="F36" t="n">
-        <v>2754.312411780613</v>
+        <v>1070.551238998874</v>
       </c>
       <c r="G36" t="n">
-        <v>4764.938380176076</v>
+        <v>1442.952705480311</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="I36" t="n">
-        <v>5080170</v>
+        <v>5831231</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1254234</v>
+        <v>1166528</v>
       </c>
       <c r="E37" t="n">
-        <v>8208929</v>
+        <v>7634896</v>
       </c>
       <c r="F37" t="n">
-        <v>459.1619523096193</v>
+        <v>288.7818085148049</v>
       </c>
       <c r="G37" t="n">
-        <v>540.1420147849607</v>
+        <v>75.02397710336174</v>
       </c>
       <c r="H37" t="n">
-        <v>3.61</v>
+        <v>1.3</v>
       </c>
       <c r="I37" t="n">
-        <v>82621</v>
+        <v>79301</v>
       </c>
     </row>
     <row r="38">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem, Tron Ecosystem</t>
+          <t>BNB Chain Ecosystem, Centralized Exchange (CEX) Token, Ethereum Ecosystem, Tron Ecosystem</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1834271407</v>
+        <v>1765821671</v>
       </c>
       <c r="F38" t="n">
-        <v>60555.30137165113</v>
+        <v>44330.21056565338</v>
       </c>
       <c r="G38" t="n">
-        <v>72365.728011675</v>
+        <v>69469.53310767455</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I38" t="n">
-        <v>35580994</v>
+        <v>36542456</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27434930</v>
+        <v>27764079</v>
       </c>
       <c r="E39" t="n">
-        <v>85423568</v>
+        <v>86448433</v>
       </c>
       <c r="F39" t="n">
-        <v>2880.808258709325</v>
+        <v>4459.168353246394</v>
       </c>
       <c r="G39" t="n">
-        <v>10753.37716417707</v>
+        <v>9845.42030188559</v>
       </c>
       <c r="H39" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>10193647</v>
+        <v>11367687</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>165458731</v>
+        <v>161681746</v>
       </c>
       <c r="E40" t="n">
-        <v>936928999</v>
+        <v>915541389</v>
       </c>
       <c r="F40" t="n">
-        <v>49577.72499757699</v>
+        <v>72040.62391301671</v>
       </c>
       <c r="G40" t="n">
-        <v>90849.49788690756</v>
+        <v>73456.60505509911</v>
       </c>
       <c r="H40" t="n">
         <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>63567719</v>
+        <v>83116772</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>110926621</v>
+        <v>104672980</v>
       </c>
       <c r="E41" t="n">
-        <v>821678675</v>
+        <v>775355407</v>
       </c>
       <c r="F41" t="n">
-        <v>170457.2158081821</v>
+        <v>136913.731870952</v>
       </c>
       <c r="G41" t="n">
-        <v>209081.7617839065</v>
+        <v>192152.7216622332</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>15452041</v>
+        <v>18382742</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>26736038</v>
+        <v>25277948</v>
       </c>
       <c r="E42" t="n">
-        <v>126018186</v>
+        <v>119139439</v>
       </c>
       <c r="F42" t="n">
-        <v>6143.181716700951</v>
+        <v>13409.42710603614</v>
       </c>
       <c r="G42" t="n">
-        <v>8293.61308074823</v>
+        <v>8136.655228140061</v>
       </c>
       <c r="H42" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I42" t="n">
-        <v>715494</v>
+        <v>913523</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3002533</v>
+        <v>2903825</v>
       </c>
       <c r="E43" t="n">
-        <v>7011415</v>
+        <v>6780916</v>
       </c>
       <c r="F43" t="n">
-        <v>4546.181221621929</v>
+        <v>1960.204281005811</v>
       </c>
       <c r="G43" t="n">
-        <v>1039.263417035755</v>
+        <v>1454.121029126193</v>
       </c>
       <c r="H43" t="n">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
       <c r="I43" t="n">
-        <v>426689</v>
+        <v>409896</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>276322068</v>
+        <v>268568174</v>
       </c>
       <c r="E44" t="n">
-        <v>2485964662</v>
+        <v>2416205829</v>
       </c>
       <c r="F44" t="n">
-        <v>53269.60669475492</v>
+        <v>35182.51676539528</v>
       </c>
       <c r="G44" t="n">
-        <v>44052.20849861103</v>
+        <v>53667.99477244874</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>68210831</v>
+        <v>79780025</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>710023</v>
+        <v>693623</v>
       </c>
       <c r="F45" t="n">
-        <v>487.5768317279278</v>
+        <v>175.0811666393822</v>
       </c>
       <c r="G45" t="n">
-        <v>313.4182689829</v>
+        <v>427.0102291966754</v>
       </c>
       <c r="H45" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="I45" t="n">
-        <v>130024</v>
+        <v>106193</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1486268</v>
+        <v>1467481</v>
       </c>
       <c r="E46" t="n">
-        <v>12385564</v>
+        <v>12229012</v>
       </c>
       <c r="F46" t="n">
-        <v>169.8946315948421</v>
+        <v>301.3630134880567</v>
       </c>
       <c r="G46" t="n">
-        <v>870.579090704559</v>
+        <v>784.9037596771932</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="I46" t="n">
-        <v>74445</v>
+        <v>74517</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4730892</v>
+        <v>4677208</v>
       </c>
       <c r="E47" t="n">
-        <v>16713143</v>
+        <v>16523450</v>
       </c>
       <c r="F47" t="n">
-        <v>899.910484599299</v>
+        <v>1036.231009020722</v>
       </c>
       <c r="G47" t="n">
-        <v>573.3630935572775</v>
+        <v>2286.323835088328</v>
       </c>
       <c r="H47" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>144705</v>
+        <v>150191</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>37840202</v>
+        <v>40547587</v>
       </c>
       <c r="E48" t="n">
-        <v>219079137</v>
+        <v>234753776</v>
       </c>
       <c r="F48" t="n">
-        <v>37923.63178489738</v>
+        <v>46297.86103985472</v>
       </c>
       <c r="G48" t="n">
-        <v>56966.7319234096</v>
+        <v>33987.76359982906</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>19389081</v>
+        <v>25845211</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2011954</v>
+        <v>2029384</v>
       </c>
       <c r="E49" t="n">
-        <v>11054020</v>
+        <v>11149786</v>
       </c>
       <c r="F49" t="n">
-        <v>86.83976680839743</v>
+        <v>254.9322963550892</v>
       </c>
       <c r="G49" t="n">
-        <v>289.0075299318164</v>
+        <v>225.5281596112758</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9</v>
+        <v>1.79</v>
       </c>
       <c r="I49" t="n">
-        <v>32450</v>
+        <v>68054</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12052333</v>
+        <v>11619578</v>
       </c>
       <c r="E50" t="n">
-        <v>12093354</v>
+        <v>11659127</v>
       </c>
       <c r="F50" t="n">
-        <v>5021.694701803124</v>
+        <v>5046.640490396875</v>
       </c>
       <c r="G50" t="n">
-        <v>4480.970400090019</v>
+        <v>11667.43791628296</v>
       </c>
       <c r="H50" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="I50" t="n">
-        <v>6755036</v>
+        <v>7234473</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>16396074</v>
+        <v>15133761</v>
       </c>
       <c r="E51" t="n">
-        <v>48615207</v>
+        <v>44870971</v>
       </c>
       <c r="F51" t="n">
-        <v>2071.304308806701</v>
+        <v>2964.694469856074</v>
       </c>
       <c r="G51" t="n">
-        <v>1284.250524060399</v>
+        <v>3634.054689201547</v>
       </c>
       <c r="H51" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="I51" t="n">
-        <v>2915905</v>
+        <v>3001804</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15358654</v>
+        <v>15427458</v>
       </c>
       <c r="E52" t="n">
-        <v>94138241</v>
+        <v>94559962</v>
       </c>
       <c r="F52" t="n">
-        <v>4660.982403520832</v>
+        <v>3886.72949514136</v>
       </c>
       <c r="G52" t="n">
-        <v>8964.584186492179</v>
+        <v>8359.207824896925</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>15501613</v>
+        <v>15911330</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45111451</v>
+        <v>41915803</v>
       </c>
       <c r="E53" t="n">
-        <v>194335198</v>
+        <v>180568695</v>
       </c>
       <c r="F53" t="n">
-        <v>14564.43307580633</v>
+        <v>19113.56512643497</v>
       </c>
       <c r="G53" t="n">
-        <v>22544.74708974247</v>
+        <v>22584.86792593067</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>12751457</v>
+        <v>15311967</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>964277</v>
+        <v>971441</v>
       </c>
       <c r="E54" t="n">
-        <v>2818419</v>
+        <v>2839356</v>
       </c>
       <c r="F54" t="n">
-        <v>329.903620868262</v>
+        <v>416.0068115757151</v>
       </c>
       <c r="G54" t="n">
-        <v>1217.977296786995</v>
+        <v>283.5409067218923</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>9453.35</v>
+        <v>17930.58</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>27445764</v>
+        <v>26459538</v>
       </c>
       <c r="E55" t="n">
-        <v>69205039</v>
+        <v>66718252</v>
       </c>
       <c r="F55" t="n">
-        <v>17650.6659828471</v>
+        <v>7991.574869862722</v>
       </c>
       <c r="G55" t="n">
-        <v>15256.70720624441</v>
+        <v>6641.251815778399</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2771054</v>
+        <v>3116758</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>26795000</v>
+        <v>25026208</v>
       </c>
       <c r="E56" t="n">
-        <v>63562707</v>
+        <v>59366806</v>
       </c>
       <c r="F56" t="n">
-        <v>13693.64641179833</v>
+        <v>893.12978802175</v>
       </c>
       <c r="G56" t="n">
-        <v>14210.36185960991</v>
+        <v>1630.429261967332</v>
       </c>
       <c r="H56" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I56" t="n">
-        <v>438394</v>
+        <v>583398</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11363886</v>
+        <v>11207816</v>
       </c>
       <c r="E57" t="n">
-        <v>17215467</v>
+        <v>16979032</v>
       </c>
       <c r="F57" t="n">
-        <v>2293.038145679344</v>
+        <v>1956.258879309345</v>
       </c>
       <c r="G57" t="n">
-        <v>1834.015188829412</v>
+        <v>2002.383726549751</v>
       </c>
       <c r="H57" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="I57" t="n">
-        <v>749961</v>
+        <v>761990</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>257911089</v>
+        <v>248409621</v>
       </c>
       <c r="E58" t="n">
-        <v>257911089</v>
+        <v>248409621</v>
       </c>
       <c r="F58" t="n">
-        <v>49377.71712447426</v>
+        <v>46446.07661195749</v>
       </c>
       <c r="G58" t="n">
-        <v>58595.3852900757</v>
+        <v>57181.64180718369</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>94043746</v>
+        <v>104779561</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11893929</v>
+        <v>11948630</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>41.35168868784376</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>412.7207329207216</v>
       </c>
       <c r="H59" t="n">
-        <v>4.36</v>
+        <v>1.15</v>
       </c>
       <c r="I59" t="n">
-        <v>33213</v>
+        <v>36081</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>75977212</v>
+        <v>74442475</v>
       </c>
       <c r="E60" t="n">
-        <v>437813469</v>
+        <v>428969652</v>
       </c>
       <c r="F60" t="n">
-        <v>96796.23512936461</v>
+        <v>93519.36652379695</v>
       </c>
       <c r="G60" t="n">
-        <v>103403.2996062199</v>
+        <v>102389.7305165066</v>
       </c>
       <c r="H60" t="n">
         <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>20864740</v>
+        <v>22801376</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8281798</v>
+        <v>8036765</v>
       </c>
       <c r="E61" t="n">
-        <v>8281798</v>
+        <v>8036765</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.66</v>
+        <v>5.46</v>
       </c>
       <c r="I61" t="n">
-        <v>3110390</v>
+        <v>3602514</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>27941343</v>
+        <v>27557270</v>
       </c>
       <c r="E62" t="n">
-        <v>125104856</v>
+        <v>123385201</v>
       </c>
       <c r="F62" t="n">
-        <v>8965.930466340398</v>
+        <v>11349.8849558383</v>
       </c>
       <c r="G62" t="n">
-        <v>18328.55150522029</v>
+        <v>9078.26778537246</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>32394116</v>
+        <v>32444084</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11418425</v>
+        <v>11122871</v>
       </c>
       <c r="E63" t="n">
-        <v>22820842</v>
+        <v>22230149</v>
       </c>
       <c r="F63" t="n">
-        <v>621.4621121924723</v>
+        <v>690.7030551415862</v>
       </c>
       <c r="G63" t="n">
-        <v>116.9578598742848</v>
+        <v>972.3562020828799</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>82814</v>
+        <v>68804</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1064950</v>
+        <v>1085512</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.35</v>
+        <v>5.07</v>
       </c>
       <c r="I64" t="n">
-        <v>61733</v>
+        <v>75704</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>39859437</v>
+        <v>39350722</v>
       </c>
       <c r="E65" t="n">
-        <v>258477837</v>
+        <v>255178959</v>
       </c>
       <c r="F65" t="n">
-        <v>15223.87472556338</v>
+        <v>16156.8408672206</v>
       </c>
       <c r="G65" t="n">
-        <v>17359.89805321838</v>
+        <v>15475.14611559938</v>
       </c>
       <c r="H65" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I65" t="n">
-        <v>30925134</v>
+        <v>37979947</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4135523</v>
+        <v>4096241</v>
       </c>
       <c r="F66" t="n">
-        <v>620.9831525525855</v>
+        <v>569.9282038359991</v>
       </c>
       <c r="G66" t="n">
-        <v>173.055945964372</v>
+        <v>334.5662182484617</v>
       </c>
       <c r="H66" t="n">
-        <v>1.35</v>
+        <v>0.68</v>
       </c>
       <c r="I66" t="n">
-        <v>233281</v>
+        <v>256988</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124426281</v>
+        <v>123618085</v>
       </c>
       <c r="E67" t="n">
-        <v>2060601116</v>
+        <v>2047216738</v>
       </c>
       <c r="F67" t="n">
-        <v>174106.5062886531</v>
+        <v>173967.0046085369</v>
       </c>
       <c r="G67" t="n">
-        <v>170390.9440169998</v>
+        <v>167583.4577683151</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>11167025</v>
+        <v>12809111</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19896747</v>
+        <v>19731361</v>
       </c>
       <c r="E68" t="n">
-        <v>119046237</v>
+        <v>118056697</v>
       </c>
       <c r="F68" t="n">
-        <v>6481.103044093056</v>
+        <v>38854.54369485</v>
       </c>
       <c r="G68" t="n">
-        <v>37213.51471242245</v>
+        <v>37246.96345692914</v>
       </c>
       <c r="H68" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>19703092</v>
+        <v>22280836</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>21901988</v>
+        <v>19781369</v>
       </c>
       <c r="E70" t="n">
-        <v>21901988</v>
+        <v>19781369</v>
       </c>
       <c r="F70" t="n">
-        <v>2116.124356428191</v>
+        <v>10056.96892172025</v>
       </c>
       <c r="G70" t="n">
-        <v>2272.533418202755</v>
+        <v>1629.185229036809</v>
       </c>
       <c r="H70" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="I70" t="n">
-        <v>2002237</v>
+        <v>2745263</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32127579</v>
+        <v>33326164</v>
       </c>
       <c r="E71" t="n">
-        <v>160331430</v>
+        <v>166312919</v>
       </c>
       <c r="F71" t="n">
-        <v>12118.10741677382</v>
+        <v>5538.246993779951</v>
       </c>
       <c r="G71" t="n">
-        <v>47324.35227163545</v>
+        <v>56174.71096726987</v>
       </c>
       <c r="H71" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>26755221</v>
+        <v>35487156</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>154476</v>
+        <v>148761</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>32557</v>
+        <v>27112</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>264966824</v>
+        <v>260560878</v>
       </c>
       <c r="E73" t="n">
-        <v>490249049</v>
+        <v>482097044</v>
       </c>
       <c r="F73" t="n">
-        <v>48149.03119058412</v>
+        <v>32736.52667044174</v>
       </c>
       <c r="G73" t="n">
-        <v>52502.20396787077</v>
+        <v>36125.93117120958</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>18204860</v>
+        <v>20485892</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10474965</v>
+        <v>10323000</v>
       </c>
       <c r="E74" t="n">
-        <v>30660115</v>
+        <v>30214744</v>
       </c>
       <c r="F74" t="n">
-        <v>3085.120038036504</v>
+        <v>7583.688023444136</v>
       </c>
       <c r="G74" t="n">
-        <v>3181.746088469353</v>
+        <v>6320.940190104834</v>
       </c>
       <c r="H74" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="I74" t="n">
-        <v>5993030</v>
+        <v>6016205</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7250915</v>
+        <v>7167668</v>
       </c>
       <c r="E75" t="n">
-        <v>10310764</v>
+        <v>10190168</v>
       </c>
       <c r="F75" t="n">
-        <v>2645.779905761801</v>
+        <v>2726.787288048906</v>
       </c>
       <c r="G75" t="n">
-        <v>420.1341746612897</v>
+        <v>463.534555031803</v>
       </c>
       <c r="H75" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="I75" t="n">
-        <v>277380</v>
+        <v>275398</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>13172828</v>
+        <v>12746394</v>
       </c>
       <c r="F76" t="n">
-        <v>8.195678366932423</v>
+        <v>0.1327933181622689</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6688124103233852</v>
+        <v>0.5520267952006384</v>
       </c>
       <c r="H76" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="I76" t="n">
-        <v>1015736</v>
+        <v>1060966</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64780686</v>
+        <v>56959812</v>
       </c>
       <c r="E77" t="n">
-        <v>89537860</v>
+        <v>78720301</v>
       </c>
       <c r="F77" t="n">
-        <v>7114.960070919176</v>
+        <v>3183.792133807035</v>
       </c>
       <c r="G77" t="n">
-        <v>13332.61740194903</v>
+        <v>9901.157328347192</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I77" t="n">
-        <v>6328566</v>
+        <v>7403502</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5298389</v>
+        <v>5300532</v>
       </c>
       <c r="E78" t="n">
-        <v>5298389</v>
+        <v>5300532</v>
       </c>
       <c r="F78" t="n">
-        <v>336.6274256173343</v>
+        <v>316.3075363570272</v>
       </c>
       <c r="G78" t="n">
-        <v>337.5085039997741</v>
+        <v>564.4101190913597</v>
       </c>
       <c r="H78" t="n">
         <v>2.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1163727</v>
+        <v>1208219</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>51817</v>
+        <v>54718</v>
       </c>
       <c r="E79" t="n">
-        <v>270361</v>
+        <v>285498</v>
       </c>
       <c r="F79" t="n">
-        <v>41.79777203706938</v>
+        <v>11.05068408769721</v>
       </c>
       <c r="G79" t="n">
-        <v>29.13390730342109</v>
+        <v>21.55369323013284</v>
       </c>
       <c r="H79" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="I79" t="n">
-        <v>166002</v>
+        <v>197195</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>22890646</v>
+        <v>22971957</v>
       </c>
       <c r="F80" t="n">
-        <v>31.12694380336311</v>
+        <v>847.1127571419186</v>
       </c>
       <c r="G80" t="n">
-        <v>31.12987434552866</v>
+        <v>19.63308397526735</v>
       </c>
       <c r="H80" t="n">
-        <v>1.05</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>49016</v>
+        <v>52915</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>509560978</v>
+        <v>495760125</v>
       </c>
       <c r="E81" t="n">
-        <v>1973454486</v>
+        <v>1920005821</v>
       </c>
       <c r="F81" t="n">
-        <v>127625.9834210101</v>
+        <v>114802.6070391853</v>
       </c>
       <c r="G81" t="n">
-        <v>287943.1020852689</v>
+        <v>286943.3441271004</v>
       </c>
       <c r="H81" t="n">
         <v>0.09</v>
       </c>
       <c r="I81" t="n">
-        <v>61987564</v>
+        <v>82010934</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5973751</v>
+        <v>5862948</v>
       </c>
       <c r="E82" t="n">
-        <v>8558572</v>
+        <v>8401505</v>
       </c>
       <c r="F82" t="n">
-        <v>1443.498229575069</v>
+        <v>1779.541925180808</v>
       </c>
       <c r="G82" t="n">
-        <v>870.4266883367372</v>
+        <v>4520.163154147299</v>
       </c>
       <c r="H82" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="I82" t="n">
-        <v>186429</v>
+        <v>204667</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>96815867</v>
+        <v>94264348</v>
       </c>
       <c r="E83" t="n">
-        <v>916048763</v>
+        <v>891906896</v>
       </c>
       <c r="F83" t="n">
-        <v>31809.3040710286</v>
+        <v>31521.74224453242</v>
       </c>
       <c r="G83" t="n">
-        <v>34729.63669012392</v>
+        <v>35066.48506693549</v>
       </c>
       <c r="H83" t="n">
         <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>12399430</v>
+        <v>17389935</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1050166</v>
+        <v>995766</v>
       </c>
       <c r="E84" t="n">
-        <v>4066471</v>
+        <v>3855823</v>
       </c>
       <c r="F84" t="n">
-        <v>1921.619898680144</v>
+        <v>517.0285084478596</v>
       </c>
       <c r="G84" t="n">
-        <v>209.7623255212011</v>
+        <v>368.2249021463227</v>
       </c>
       <c r="H84" t="n">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="I84" t="n">
-        <v>120107</v>
+        <v>161683</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>118933166</v>
+        <v>123200346</v>
       </c>
       <c r="E85" t="n">
-        <v>456246767</v>
+        <v>472616357</v>
       </c>
       <c r="F85" t="n">
-        <v>75850.48783051317</v>
+        <v>78737.77835087052</v>
       </c>
       <c r="G85" t="n">
-        <v>82546.48564481529</v>
+        <v>77006.68615031139</v>
       </c>
       <c r="H85" t="n">
         <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>30510927</v>
+        <v>34776057</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4666499</v>
+        <v>4497891</v>
       </c>
       <c r="E86" t="n">
-        <v>17232834</v>
+        <v>16610187</v>
       </c>
       <c r="F86" t="n">
-        <v>5533.168848729227</v>
+        <v>216.4510207724426</v>
       </c>
       <c r="G86" t="n">
-        <v>407.8688069983648</v>
+        <v>638.1850006714312</v>
       </c>
       <c r="H86" t="n">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="I86" t="n">
-        <v>92535</v>
+        <v>106817</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>34075102</v>
+        <v>35756939</v>
       </c>
       <c r="F87" t="n">
-        <v>3834.267310269266</v>
+        <v>3555.339964973466</v>
       </c>
       <c r="G87" t="n">
-        <v>3384.892934183063</v>
+        <v>1557.90146807206</v>
       </c>
       <c r="H87" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="I87" t="n">
-        <v>10260213</v>
+        <v>11359612</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23517424</v>
+        <v>23011346</v>
       </c>
       <c r="F88" t="n">
-        <v>859.1693678575119</v>
+        <v>811.6229493969973</v>
       </c>
       <c r="G88" t="n">
-        <v>1241.517398709702</v>
+        <v>766.3156238988869</v>
       </c>
       <c r="H88" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>11275.2</v>
+        <v>13502.81</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>102307639</v>
+        <v>100768862</v>
       </c>
       <c r="E89" t="n">
-        <v>372970104</v>
+        <v>367352307</v>
       </c>
       <c r="F89" t="n">
-        <v>1587.931742309075</v>
+        <v>1504.005649428667</v>
       </c>
       <c r="G89" t="n">
-        <v>1057.620913875071</v>
+        <v>1331.184148116334</v>
       </c>
       <c r="H89" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I89" t="n">
-        <v>511731</v>
+        <v>539613</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18607346</v>
+        <v>18371102</v>
       </c>
       <c r="E90" t="n">
-        <v>18607346</v>
+        <v>18371102</v>
       </c>
       <c r="F90" t="n">
-        <v>2840.78435354816</v>
+        <v>2404.858015672043</v>
       </c>
       <c r="G90" t="n">
-        <v>6264.276761507734</v>
+        <v>4479.922349525112</v>
       </c>
       <c r="H90" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="I90" t="n">
-        <v>7084622</v>
+        <v>6234669</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3688760</v>
+        <v>3572280</v>
       </c>
       <c r="E91" t="n">
-        <v>8017528</v>
+        <v>7764361</v>
       </c>
       <c r="F91" t="n">
-        <v>2186.167615839914</v>
+        <v>1953.324022450867</v>
       </c>
       <c r="G91" t="n">
-        <v>1093.816411388877</v>
+        <v>1137.712165919854</v>
       </c>
       <c r="H91" t="n">
-        <v>0.37</v>
+        <v>0.65</v>
       </c>
       <c r="I91" t="n">
-        <v>1770432</v>
+        <v>1905728</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>390173503</v>
+        <v>381207251</v>
       </c>
       <c r="E92" t="n">
-        <v>1355412274</v>
+        <v>1324264676</v>
       </c>
       <c r="F92" t="n">
-        <v>129234.610470745</v>
+        <v>107722.0697278526</v>
       </c>
       <c r="G92" t="n">
-        <v>178203.0857966824</v>
+        <v>116827.8435875069</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I92" t="n">
-        <v>66031643</v>
+        <v>77114874</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1892115</v>
+        <v>1806194</v>
       </c>
       <c r="E93" t="n">
-        <v>7568461</v>
+        <v>7224777</v>
       </c>
       <c r="F93" t="n">
-        <v>1375.279710524931</v>
+        <v>15411.22118325779</v>
       </c>
       <c r="G93" t="n">
-        <v>2735.740484419159</v>
+        <v>2841.432725466549</v>
       </c>
       <c r="H93" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="I93" t="n">
-        <v>5651399</v>
+        <v>5958681</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>190291799</v>
+        <v>187008792</v>
       </c>
       <c r="E94" t="n">
-        <v>585075670</v>
+        <v>574981660</v>
       </c>
       <c r="F94" t="n">
-        <v>88167.62843860313</v>
+        <v>87424.82233304683</v>
       </c>
       <c r="G94" t="n">
-        <v>90580.7796990198</v>
+        <v>89196.07906960377</v>
       </c>
       <c r="H94" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>25908618</v>
+        <v>35458522</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>108568026</v>
+        <v>102419157</v>
       </c>
       <c r="E95" t="n">
-        <v>283630955</v>
+        <v>267567204</v>
       </c>
       <c r="F95" t="n">
-        <v>28736.47641010539</v>
+        <v>28596.79378713563</v>
       </c>
       <c r="G95" t="n">
-        <v>32584.30711229375</v>
+        <v>33486.38727832597</v>
       </c>
       <c r="H95" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I95" t="n">
-        <v>10974784</v>
+        <v>13636372</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>346001668</v>
+        <v>339616554</v>
       </c>
       <c r="E96" t="n">
-        <v>1977152391</v>
+        <v>1940666022</v>
       </c>
       <c r="F96" t="n">
-        <v>30851.05915755547</v>
+        <v>15513.98279085802</v>
       </c>
       <c r="G96" t="n">
-        <v>38398.03773214868</v>
+        <v>34642.3121122266</v>
       </c>
       <c r="H96" t="n">
         <v>0.11</v>
       </c>
       <c r="I96" t="n">
-        <v>76037212</v>
+        <v>90063477</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>488482502</v>
+        <v>493153434</v>
       </c>
       <c r="E2" t="n">
-        <v>948186733</v>
+        <v>957293860</v>
       </c>
       <c r="F2" t="n">
-        <v>11309.07747198465</v>
+        <v>12534.70520512149</v>
       </c>
       <c r="G2" t="n">
-        <v>35322.2181561426</v>
+        <v>33798.88000829979</v>
       </c>
       <c r="H2" t="n">
         <v>0.16</v>
       </c>
       <c r="I2" t="n">
-        <v>46269068</v>
+        <v>58158492</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1377094</v>
+        <v>1364562</v>
       </c>
       <c r="E3" t="n">
-        <v>4335332</v>
+        <v>4295878</v>
       </c>
       <c r="F3" t="n">
-        <v>3184.570119036322</v>
+        <v>788.5617830901114</v>
       </c>
       <c r="G3" t="n">
-        <v>3967.085504289476</v>
+        <v>4645.383814816662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>99496</v>
+        <v>86404</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>213699813</v>
+        <v>213090813</v>
       </c>
       <c r="E4" t="n">
-        <v>1340081489</v>
+        <v>1336262538</v>
       </c>
       <c r="F4" t="n">
-        <v>144404.6943050442</v>
+        <v>118608.3179601247</v>
       </c>
       <c r="G4" t="n">
-        <v>131575.655565168</v>
+        <v>115349.4979532809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>28197420</v>
+        <v>31198926</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>116451653</v>
+        <v>122888774</v>
       </c>
       <c r="E5" t="n">
-        <v>129046631</v>
+        <v>136179965</v>
       </c>
       <c r="F5" t="n">
-        <v>6847.324793682264</v>
+        <v>5243.807680510616</v>
       </c>
       <c r="G5" t="n">
-        <v>9344.484001262965</v>
+        <v>14602.1530126384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="I5" t="n">
-        <v>49983126</v>
+        <v>57808770</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>581717</v>
+        <v>614600</v>
       </c>
       <c r="E6" t="n">
-        <v>11290712</v>
+        <v>11924882</v>
       </c>
       <c r="F6" t="n">
-        <v>125.5326445768033</v>
+        <v>295.8036878864258</v>
       </c>
       <c r="G6" t="n">
-        <v>215.808236644355</v>
+        <v>79.31031197840458</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="I6" t="n">
-        <v>12882.55</v>
+        <v>13441.64</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>383780862</v>
+        <v>392136226</v>
       </c>
       <c r="E7" t="n">
-        <v>383780869</v>
+        <v>392136226</v>
       </c>
       <c r="F7" t="n">
-        <v>29382.02213672335</v>
+        <v>40848.9784246526</v>
       </c>
       <c r="G7" t="n">
-        <v>45778.51870638484</v>
+        <v>40038.11601960619</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>41742921</v>
+        <v>49069438</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3790722</v>
+        <v>3890950</v>
       </c>
       <c r="E8" t="n">
-        <v>3790722</v>
+        <v>3890950</v>
       </c>
       <c r="F8" t="n">
-        <v>379.3776376673603</v>
+        <v>9.977568657417422</v>
       </c>
       <c r="G8" t="n">
-        <v>526.6382966262192</v>
+        <v>595.2526335035119</v>
       </c>
       <c r="H8" t="n">
-        <v>1.44</v>
+        <v>0.82</v>
       </c>
       <c r="I8" t="n">
-        <v>2742274</v>
+        <v>2629660</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1749343</v>
+        <v>1678761</v>
       </c>
       <c r="F9" t="n">
-        <v>2183.952762458171</v>
+        <v>1555.750795765511</v>
       </c>
       <c r="G9" t="n">
-        <v>7294.494081154277</v>
+        <v>9912.835467861179</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48</v>
+        <v>0.13</v>
       </c>
       <c r="I9" t="n">
-        <v>241373</v>
+        <v>264641</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1554805</v>
+        <v>1500214</v>
       </c>
       <c r="F10" t="n">
-        <v>49.50354707941629</v>
+        <v>13.11716697851748</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4980774265292</v>
+        <v>1251.741126814311</v>
       </c>
       <c r="H10" t="n">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>159991</v>
+        <v>153985</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>102730745</v>
+        <v>101780594</v>
       </c>
       <c r="E11" t="n">
-        <v>193532545</v>
+        <v>191742574</v>
       </c>
       <c r="F11" t="n">
-        <v>1838.473068944229</v>
+        <v>1710.749238975164</v>
       </c>
       <c r="G11" t="n">
-        <v>1408.734810819407</v>
+        <v>2594.093130563248</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I11" t="n">
-        <v>3999822</v>
+        <v>3895191</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10422916</v>
+        <v>10386812</v>
       </c>
       <c r="E12" t="n">
-        <v>25940753</v>
+        <v>25850895</v>
       </c>
       <c r="F12" t="n">
-        <v>648.5084300828056</v>
+        <v>654.4948205998797</v>
       </c>
       <c r="G12" t="n">
-        <v>726.7728842217077</v>
+        <v>961.9743570195997</v>
       </c>
       <c r="H12" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="I12" t="n">
-        <v>1336284</v>
+        <v>823462</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>97302140</v>
+        <v>96655997</v>
       </c>
       <c r="E13" t="n">
-        <v>376427668</v>
+        <v>373756274</v>
       </c>
       <c r="F13" t="n">
-        <v>18339.23432972447</v>
+        <v>19403.96868019023</v>
       </c>
       <c r="G13" t="n">
-        <v>12983.66102573584</v>
+        <v>14165.88700323934</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>13030519</v>
+        <v>14160994</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4288532</v>
+        <v>4171664</v>
       </c>
       <c r="E14" t="n">
-        <v>6312952</v>
+        <v>6140916</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1038644422705027</v>
+        <v>34.86723592702193</v>
       </c>
       <c r="G14" t="n">
-        <v>286.735227619079</v>
+        <v>1882.308436269369</v>
       </c>
       <c r="H14" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>718369</v>
+        <v>732783</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116038000</v>
+        <v>125709889</v>
       </c>
       <c r="E15" t="n">
-        <v>116038000</v>
+        <v>125709889</v>
       </c>
       <c r="F15" t="n">
-        <v>68275.39324637182</v>
+        <v>78664.28204676356</v>
       </c>
       <c r="G15" t="n">
-        <v>114470.2102070639</v>
+        <v>96041.42781025819</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>142749627</v>
+        <v>165004675</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59825301</v>
+        <v>63425894</v>
       </c>
       <c r="E16" t="n">
-        <v>306796417</v>
+        <v>325260995</v>
       </c>
       <c r="F16" t="n">
-        <v>16832.13835204727</v>
+        <v>16946.52569919037</v>
       </c>
       <c r="G16" t="n">
-        <v>19252.09919481939</v>
+        <v>20450.4881576072</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>33643295</v>
+        <v>39599197</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>207587664</v>
+        <v>211355887</v>
       </c>
       <c r="E17" t="n">
-        <v>207587664</v>
+        <v>211355887</v>
       </c>
       <c r="F17" t="n">
-        <v>41965.06617595281</v>
+        <v>42945.44098773753</v>
       </c>
       <c r="G17" t="n">
-        <v>49218.26759266456</v>
+        <v>52943.29284704834</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I17" t="n">
-        <v>52561001</v>
+        <v>60244067</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2390787</v>
+        <v>2319430</v>
       </c>
       <c r="E18" t="n">
-        <v>6111886</v>
+        <v>5929467</v>
       </c>
       <c r="F18" t="n">
-        <v>176.2057223340269</v>
+        <v>334.1165794842568</v>
       </c>
       <c r="G18" t="n">
-        <v>315.1240548969452</v>
+        <v>291.706386391431</v>
       </c>
       <c r="H18" t="n">
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="I18" t="n">
-        <v>102128</v>
+        <v>73697</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63822467</v>
+        <v>68310895</v>
       </c>
       <c r="E19" t="n">
-        <v>178767905</v>
+        <v>191320592</v>
       </c>
       <c r="F19" t="n">
-        <v>19451.51263443641</v>
+        <v>19772.8787925941</v>
       </c>
       <c r="G19" t="n">
-        <v>19502.53419683604</v>
+        <v>18545.27969231368</v>
       </c>
       <c r="H19" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>26987682</v>
+        <v>32189313</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1564486</v>
+        <v>1528868</v>
       </c>
       <c r="E20" t="n">
-        <v>8982692</v>
+        <v>8778189</v>
       </c>
       <c r="F20" t="n">
-        <v>262.068470503582</v>
+        <v>220.9319363825495</v>
       </c>
       <c r="G20" t="n">
-        <v>43.49265824275555</v>
+        <v>161.3257817434956</v>
       </c>
       <c r="H20" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I20" t="n">
-        <v>235378</v>
+        <v>267891</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>158779</v>
+        <v>161386</v>
       </c>
       <c r="E21" t="n">
-        <v>1072253</v>
+        <v>1089857</v>
       </c>
       <c r="F21" t="n">
-        <v>5.489176241169486</v>
+        <v>5.394612091519726</v>
       </c>
       <c r="G21" t="n">
-        <v>1363.69588938927</v>
+        <v>34.36440174775451</v>
       </c>
       <c r="H21" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2384423</v>
+        <v>2658375</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>232543</v>
+        <v>216313</v>
       </c>
       <c r="F22" t="n">
-        <v>99.92107721072769</v>
+        <v>11.44924481849378</v>
       </c>
       <c r="G22" t="n">
-        <v>101.8380897186969</v>
+        <v>579.2307343812325</v>
       </c>
       <c r="H22" t="n">
-        <v>3.85</v>
+        <v>2.13</v>
       </c>
       <c r="I22" t="n">
-        <v>13958.26</v>
+        <v>10855.34</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70384453</v>
+        <v>74321137</v>
       </c>
       <c r="E23" t="n">
-        <v>146745931</v>
+        <v>154953601</v>
       </c>
       <c r="F23" t="n">
-        <v>30712.49130070737</v>
+        <v>27256.85929063497</v>
       </c>
       <c r="G23" t="n">
-        <v>48688.60591595447</v>
+        <v>45341.6377911243</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>24548862</v>
+        <v>26382702</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>173314927</v>
+        <v>183062058</v>
       </c>
       <c r="E24" t="n">
-        <v>602111721</v>
+        <v>635974136</v>
       </c>
       <c r="F24" t="n">
-        <v>57173.04528899876</v>
+        <v>55871.7238254496</v>
       </c>
       <c r="G24" t="n">
-        <v>58740.60345712524</v>
+        <v>51579.85045856152</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>46515014</v>
+        <v>53637662</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>92623466</v>
+        <v>96975015</v>
       </c>
       <c r="E25" t="n">
-        <v>389470717</v>
+        <v>407429033</v>
       </c>
       <c r="F25" t="n">
-        <v>16620.20965426404</v>
+        <v>12625.48461021142</v>
       </c>
       <c r="G25" t="n">
-        <v>15962.77797229303</v>
+        <v>12924.28554382356</v>
       </c>
       <c r="H25" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="I25" t="n">
-        <v>17875563</v>
+        <v>119143176</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4890941</v>
+        <v>4846470</v>
       </c>
       <c r="E26" t="n">
-        <v>6624044</v>
+        <v>6554663</v>
       </c>
       <c r="F26" t="n">
-        <v>307.006727395885</v>
+        <v>353.8116853501502</v>
       </c>
       <c r="G26" t="n">
-        <v>2103.532417422626</v>
+        <v>1181.341829717175</v>
       </c>
       <c r="H26" t="n">
         <v>0.42</v>
       </c>
       <c r="I26" t="n">
-        <v>6010266</v>
+        <v>5361828</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>453730</v>
+        <v>439585</v>
       </c>
       <c r="E27" t="n">
-        <v>5503304</v>
+        <v>5331736</v>
       </c>
       <c r="F27" t="n">
-        <v>570.4576204680475</v>
+        <v>734.0050456066649</v>
       </c>
       <c r="G27" t="n">
-        <v>1809.502669957109</v>
+        <v>439.9510318964504</v>
       </c>
       <c r="H27" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="I27" t="n">
-        <v>2275156</v>
+        <v>2470370</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21398099</v>
+        <v>21949772</v>
       </c>
       <c r="E28" t="n">
-        <v>30220734</v>
+        <v>30993785</v>
       </c>
       <c r="F28" t="n">
-        <v>232.9704741611472</v>
+        <v>687.4477473226987</v>
       </c>
       <c r="G28" t="n">
-        <v>299.0325688367887</v>
+        <v>260.4726952495985</v>
       </c>
       <c r="H28" t="n">
-        <v>3.88</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
-        <v>126018</v>
+        <v>118018</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1240899387</v>
+        <v>1301844596</v>
       </c>
       <c r="E29" t="n">
-        <v>5950366690</v>
+        <v>6242611448</v>
       </c>
       <c r="F29" t="n">
-        <v>16980.74414920154</v>
+        <v>156218.5394597585</v>
       </c>
       <c r="G29" t="n">
-        <v>127628.6250089777</v>
+        <v>123315.8635497034</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>379750374</v>
+        <v>469666554</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>217091866</v>
+        <v>220932024</v>
       </c>
       <c r="E30" t="n">
-        <v>937089011</v>
+        <v>953665263</v>
       </c>
       <c r="F30" t="n">
-        <v>87413.04542136968</v>
+        <v>78893.04040576152</v>
       </c>
       <c r="G30" t="n">
-        <v>132356.5621140743</v>
+        <v>134061.7843113969</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>147013289</v>
+        <v>172661920</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5351121</v>
+        <v>5322470</v>
       </c>
       <c r="E31" t="n">
-        <v>5357177</v>
+        <v>5328494</v>
       </c>
       <c r="F31" t="n">
-        <v>431.0349695281079</v>
+        <v>503.0672203133504</v>
       </c>
       <c r="G31" t="n">
-        <v>504.3216794500918</v>
+        <v>287.8733964413875</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="I31" t="n">
-        <v>145108</v>
+        <v>151522</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11967336</v>
+        <v>12407441</v>
       </c>
       <c r="E32" t="n">
-        <v>29918340</v>
+        <v>31018604</v>
       </c>
       <c r="F32" t="n">
-        <v>3477.223004329258</v>
+        <v>2067.063756788247</v>
       </c>
       <c r="G32" t="n">
-        <v>2906.016460061035</v>
+        <v>1328.219690484121</v>
       </c>
       <c r="H32" t="n">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="I32" t="n">
-        <v>4710308</v>
+        <v>4638001</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17418749</v>
+        <v>17991585</v>
       </c>
       <c r="F33" t="n">
-        <v>1887.635765386177</v>
+        <v>2043.173232800171</v>
       </c>
       <c r="G33" t="n">
-        <v>2304.56562372665</v>
+        <v>5533.587178064415</v>
       </c>
       <c r="H33" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>36834</v>
+        <v>47749</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3610422</v>
+        <v>3969133</v>
       </c>
       <c r="E34" t="n">
-        <v>10397290</v>
+        <v>11430304</v>
       </c>
       <c r="F34" t="n">
-        <v>2008.093380022637</v>
+        <v>676.0311755778538</v>
       </c>
       <c r="G34" t="n">
-        <v>862.2916251206034</v>
+        <v>696.6054158468854</v>
       </c>
       <c r="H34" t="n">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="I34" t="n">
-        <v>371412</v>
+        <v>419496</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1300167</v>
+        <v>1362714</v>
       </c>
       <c r="F35" t="n">
-        <v>113.6436535531018</v>
+        <v>84.03917812646148</v>
       </c>
       <c r="G35" t="n">
-        <v>28.66495320342133</v>
+        <v>17.08088988270567</v>
       </c>
       <c r="H35" t="n">
-        <v>1.53</v>
+        <v>0.74</v>
       </c>
       <c r="I35" t="n">
-        <v>6783.26</v>
+        <v>10886.77</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11244640</v>
+        <v>11248480</v>
       </c>
       <c r="E36" t="n">
-        <v>54459585</v>
+        <v>54478184</v>
       </c>
       <c r="F36" t="n">
-        <v>1070.551238998874</v>
+        <v>2152.459090018747</v>
       </c>
       <c r="G36" t="n">
-        <v>1442.952705480311</v>
+        <v>3064.717071771853</v>
       </c>
       <c r="H36" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I36" t="n">
-        <v>5831231</v>
+        <v>6693084</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1166528</v>
+        <v>1176954</v>
       </c>
       <c r="E37" t="n">
-        <v>7634896</v>
+        <v>7703131</v>
       </c>
       <c r="F37" t="n">
-        <v>288.7818085148049</v>
+        <v>116.0568620235358</v>
       </c>
       <c r="G37" t="n">
-        <v>75.02397710336174</v>
+        <v>32.13828243937939</v>
       </c>
       <c r="H37" t="n">
-        <v>1.3</v>
+        <v>2.53</v>
       </c>
       <c r="I37" t="n">
-        <v>79301</v>
+        <v>76507</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1765821671</v>
+        <v>1714110398</v>
       </c>
       <c r="F38" t="n">
-        <v>44330.21056565338</v>
+        <v>76762.05406366757</v>
       </c>
       <c r="G38" t="n">
-        <v>69469.53310767455</v>
+        <v>78378.04482023466</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>36542456</v>
+        <v>38085424</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27764079</v>
+        <v>27833674</v>
       </c>
       <c r="E39" t="n">
-        <v>86448433</v>
+        <v>86665131</v>
       </c>
       <c r="F39" t="n">
-        <v>4459.168353246394</v>
+        <v>6338.995379291663</v>
       </c>
       <c r="G39" t="n">
-        <v>9845.42030188559</v>
+        <v>12806.68122187007</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="I39" t="n">
-        <v>11367687</v>
+        <v>12737820</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>161681746</v>
+        <v>168221266</v>
       </c>
       <c r="E40" t="n">
-        <v>915541389</v>
+        <v>952572173</v>
       </c>
       <c r="F40" t="n">
-        <v>72040.62391301671</v>
+        <v>70423.65258288968</v>
       </c>
       <c r="G40" t="n">
-        <v>73456.60505509911</v>
+        <v>73018.79590702886</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>83116772</v>
+        <v>99161305</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>104672980</v>
+        <v>106066479</v>
       </c>
       <c r="E41" t="n">
-        <v>775355407</v>
+        <v>785677622</v>
       </c>
       <c r="F41" t="n">
-        <v>136913.731870952</v>
+        <v>96118.40766602327</v>
       </c>
       <c r="G41" t="n">
-        <v>192152.7216622332</v>
+        <v>189143.8409410146</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>18382742</v>
+        <v>18059967</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25277948</v>
+        <v>26115871</v>
       </c>
       <c r="E42" t="n">
-        <v>119139439</v>
+        <v>123045821</v>
       </c>
       <c r="F42" t="n">
-        <v>13409.42710603614</v>
+        <v>16790.64887349249</v>
       </c>
       <c r="G42" t="n">
-        <v>8136.655228140061</v>
+        <v>2177.116430312599</v>
       </c>
       <c r="H42" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>913523</v>
+        <v>1084010</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2903825</v>
+        <v>2984477</v>
       </c>
       <c r="E43" t="n">
-        <v>6780916</v>
+        <v>6969251</v>
       </c>
       <c r="F43" t="n">
-        <v>1960.204281005811</v>
+        <v>447.0880413337225</v>
       </c>
       <c r="G43" t="n">
-        <v>1454.121029126193</v>
+        <v>3036.607946821446</v>
       </c>
       <c r="H43" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="I43" t="n">
-        <v>409896</v>
+        <v>449331</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>268568174</v>
+        <v>280015469</v>
       </c>
       <c r="E44" t="n">
-        <v>2416205829</v>
+        <v>2519192794</v>
       </c>
       <c r="F44" t="n">
-        <v>35182.51676539528</v>
+        <v>39448.29281663246</v>
       </c>
       <c r="G44" t="n">
-        <v>53667.99477244874</v>
+        <v>48904.77485180763</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>79780025</v>
+        <v>87895646</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>693623</v>
+        <v>654119</v>
       </c>
       <c r="F45" t="n">
-        <v>175.0811666393822</v>
+        <v>280.824124975307</v>
       </c>
       <c r="G45" t="n">
-        <v>427.0102291966754</v>
+        <v>205.4233583742998</v>
       </c>
       <c r="H45" t="n">
-        <v>1.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>106193</v>
+        <v>61357</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1467481</v>
+        <v>1441343</v>
       </c>
       <c r="E46" t="n">
-        <v>12229012</v>
+        <v>12011195</v>
       </c>
       <c r="F46" t="n">
-        <v>301.3630134880567</v>
+        <v>251.0981766403864</v>
       </c>
       <c r="G46" t="n">
-        <v>784.9037596771932</v>
+        <v>775.2633612542342</v>
       </c>
       <c r="H46" t="n">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="I46" t="n">
-        <v>74517</v>
+        <v>54858</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4677208</v>
+        <v>4828670</v>
       </c>
       <c r="E47" t="n">
-        <v>16523450</v>
+        <v>17058418</v>
       </c>
       <c r="F47" t="n">
-        <v>1036.231009020722</v>
+        <v>1148.035006198025</v>
       </c>
       <c r="G47" t="n">
-        <v>2286.323835088328</v>
+        <v>1401.816158891888</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I47" t="n">
-        <v>150191</v>
+        <v>167684</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40547587</v>
+        <v>40114004</v>
       </c>
       <c r="E48" t="n">
-        <v>234753776</v>
+        <v>232243507</v>
       </c>
       <c r="F48" t="n">
-        <v>46297.86103985472</v>
+        <v>44460.57871894076</v>
       </c>
       <c r="G48" t="n">
-        <v>33987.76359982906</v>
+        <v>60014.0150259985</v>
       </c>
       <c r="H48" t="n">
         <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>25845211</v>
+        <v>32205682</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2029384</v>
+        <v>1944738</v>
       </c>
       <c r="E49" t="n">
-        <v>11149786</v>
+        <v>10684723</v>
       </c>
       <c r="F49" t="n">
-        <v>254.9322963550892</v>
+        <v>1788.10946822014</v>
       </c>
       <c r="G49" t="n">
-        <v>225.5281596112758</v>
+        <v>693.524788219499</v>
       </c>
       <c r="H49" t="n">
-        <v>1.79</v>
+        <v>0.93</v>
       </c>
       <c r="I49" t="n">
-        <v>68054</v>
+        <v>80896</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11619578</v>
+        <v>12220944</v>
       </c>
       <c r="E50" t="n">
-        <v>11659127</v>
+        <v>12262539</v>
       </c>
       <c r="F50" t="n">
-        <v>5046.640490396875</v>
+        <v>7941.209522412139</v>
       </c>
       <c r="G50" t="n">
-        <v>11667.43791628296</v>
+        <v>6289.034384725403</v>
       </c>
       <c r="H50" t="n">
-        <v>0.76</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>7234473</v>
+        <v>9056919</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>15133761</v>
+        <v>15912664</v>
       </c>
       <c r="E51" t="n">
-        <v>44870971</v>
+        <v>47178663</v>
       </c>
       <c r="F51" t="n">
-        <v>2964.694469856074</v>
+        <v>310.4732148522014</v>
       </c>
       <c r="G51" t="n">
-        <v>3634.054689201547</v>
+        <v>2588.749225262422</v>
       </c>
       <c r="H51" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I51" t="n">
-        <v>3001804</v>
+        <v>8027052</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15427458</v>
+        <v>15305953</v>
       </c>
       <c r="E52" t="n">
-        <v>94559962</v>
+        <v>93815222</v>
       </c>
       <c r="F52" t="n">
-        <v>3886.72949514136</v>
+        <v>5324.23410131847</v>
       </c>
       <c r="G52" t="n">
-        <v>8359.207824896925</v>
+        <v>8243.205712785151</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>15911330</v>
+        <v>17045335</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>41915803</v>
+        <v>43248592</v>
       </c>
       <c r="E53" t="n">
-        <v>180568695</v>
+        <v>186310206</v>
       </c>
       <c r="F53" t="n">
-        <v>19113.56512643497</v>
+        <v>17449.30933296547</v>
       </c>
       <c r="G53" t="n">
-        <v>22584.86792593067</v>
+        <v>15959.26623688484</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I53" t="n">
-        <v>15311967</v>
+        <v>18009545</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>971441</v>
+        <v>955771</v>
       </c>
       <c r="E54" t="n">
-        <v>2839356</v>
+        <v>2793557</v>
       </c>
       <c r="F54" t="n">
-        <v>416.0068115757151</v>
+        <v>601.7212756596051</v>
       </c>
       <c r="G54" t="n">
-        <v>283.5409067218923</v>
+        <v>836.9377647508844</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I54" t="n">
-        <v>17930.58</v>
+        <v>27025</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>26459538</v>
+        <v>27150229</v>
       </c>
       <c r="E55" t="n">
-        <v>66718252</v>
+        <v>68459843</v>
       </c>
       <c r="F55" t="n">
-        <v>7991.574869862722</v>
+        <v>16100.07576309847</v>
       </c>
       <c r="G55" t="n">
-        <v>6641.251815778399</v>
+        <v>15711.83963632155</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>3116758</v>
+        <v>3134916</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25026208</v>
+        <v>24488296</v>
       </c>
       <c r="E56" t="n">
-        <v>59366806</v>
+        <v>58090779</v>
       </c>
       <c r="F56" t="n">
-        <v>893.12978802175</v>
+        <v>7703.608236244155</v>
       </c>
       <c r="G56" t="n">
-        <v>1630.429261967332</v>
+        <v>1762.182226917592</v>
       </c>
       <c r="H56" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>583398</v>
+        <v>796278</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11207816</v>
+        <v>11295179</v>
       </c>
       <c r="E57" t="n">
-        <v>16979032</v>
+        <v>17111381</v>
       </c>
       <c r="F57" t="n">
-        <v>1956.258879309345</v>
+        <v>4286.969167761399</v>
       </c>
       <c r="G57" t="n">
-        <v>2002.383726549751</v>
+        <v>2925.271973140762</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I57" t="n">
-        <v>761990</v>
+        <v>731987</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>248409621</v>
+        <v>261635515</v>
       </c>
       <c r="E58" t="n">
-        <v>248409621</v>
+        <v>261635515</v>
       </c>
       <c r="F58" t="n">
-        <v>46446.07661195749</v>
+        <v>40517.87425378051</v>
       </c>
       <c r="G58" t="n">
-        <v>57181.64180718369</v>
+        <v>71201.9444377937</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>104779561</v>
+        <v>122067511</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11948630</v>
+        <v>12073368</v>
       </c>
       <c r="F59" t="n">
-        <v>41.35168868784376</v>
+        <v>55.67881330487741</v>
       </c>
       <c r="G59" t="n">
-        <v>412.7207329207216</v>
+        <v>815.2050696237799</v>
       </c>
       <c r="H59" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="I59" t="n">
-        <v>36081</v>
+        <v>46076</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>74442475</v>
+        <v>76895344</v>
       </c>
       <c r="E60" t="n">
-        <v>428969652</v>
+        <v>443104137</v>
       </c>
       <c r="F60" t="n">
-        <v>93519.36652379695</v>
+        <v>93444.7146281561</v>
       </c>
       <c r="G60" t="n">
-        <v>102389.7305165066</v>
+        <v>102009.1382359941</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I60" t="n">
-        <v>22801376</v>
+        <v>26360533</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8036765</v>
+        <v>7934475</v>
       </c>
       <c r="E61" t="n">
-        <v>8036765</v>
+        <v>7934475</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>5.46</v>
       </c>
       <c r="I61" t="n">
-        <v>3602514</v>
+        <v>3650228</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>27557270</v>
+        <v>28212286</v>
       </c>
       <c r="E62" t="n">
-        <v>123385201</v>
+        <v>126317978</v>
       </c>
       <c r="F62" t="n">
-        <v>11349.8849558383</v>
+        <v>29037.70664592289</v>
       </c>
       <c r="G62" t="n">
-        <v>9078.26778537246</v>
+        <v>18049.0881999164</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I62" t="n">
-        <v>32444084</v>
+        <v>34288002</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11122871</v>
+        <v>10909960</v>
       </c>
       <c r="E63" t="n">
-        <v>22230149</v>
+        <v>21804624</v>
       </c>
       <c r="F63" t="n">
-        <v>690.7030551415862</v>
+        <v>5.492240216293832</v>
       </c>
       <c r="G63" t="n">
-        <v>972.3562020828799</v>
+        <v>189.0032578181311</v>
       </c>
       <c r="H63" t="n">
-        <v>0.26</v>
+        <v>0.79</v>
       </c>
       <c r="I63" t="n">
-        <v>68804</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1085512</v>
+        <v>967236</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.07</v>
+        <v>4.84</v>
       </c>
       <c r="I64" t="n">
-        <v>75704</v>
+        <v>102792</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>39350722</v>
+        <v>40450466</v>
       </c>
       <c r="E65" t="n">
-        <v>255178959</v>
+        <v>262310504</v>
       </c>
       <c r="F65" t="n">
-        <v>16156.8408672206</v>
+        <v>13090.46419161562</v>
       </c>
       <c r="G65" t="n">
-        <v>15475.14611559938</v>
+        <v>15339.45124590407</v>
       </c>
       <c r="H65" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="I65" t="n">
-        <v>37979947</v>
+        <v>43350511</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4096241</v>
+        <v>4228469</v>
       </c>
       <c r="F66" t="n">
-        <v>569.9282038359991</v>
+        <v>683.1013027437177</v>
       </c>
       <c r="G66" t="n">
-        <v>334.5662182484617</v>
+        <v>387.4344880313594</v>
       </c>
       <c r="H66" t="n">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="I66" t="n">
-        <v>256988</v>
+        <v>249766</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123618085</v>
+        <v>123556924</v>
       </c>
       <c r="E67" t="n">
-        <v>2047216738</v>
+        <v>2046203849</v>
       </c>
       <c r="F67" t="n">
-        <v>173967.0046085369</v>
+        <v>173744.8500326878</v>
       </c>
       <c r="G67" t="n">
-        <v>167583.4577683151</v>
+        <v>167717.5402885581</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>12809111</v>
+        <v>22971124</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19731361</v>
+        <v>20626847</v>
       </c>
       <c r="E68" t="n">
-        <v>118056697</v>
+        <v>123414575</v>
       </c>
       <c r="F68" t="n">
-        <v>38854.54369485</v>
+        <v>7488.787522902338</v>
       </c>
       <c r="G68" t="n">
-        <v>37246.96345692914</v>
+        <v>38994.58691629292</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I68" t="n">
-        <v>22280836</v>
+        <v>25780876</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>19781369</v>
+        <v>17307948</v>
       </c>
       <c r="E70" t="n">
-        <v>19781369</v>
+        <v>17307948</v>
       </c>
       <c r="F70" t="n">
-        <v>10056.96892172025</v>
+        <v>3703.075266780103</v>
       </c>
       <c r="G70" t="n">
-        <v>1629.185229036809</v>
+        <v>3539.356582727523</v>
       </c>
       <c r="H70" t="n">
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="I70" t="n">
-        <v>2745263</v>
+        <v>6310802</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33326164</v>
+        <v>33917987</v>
       </c>
       <c r="E71" t="n">
-        <v>166312919</v>
+        <v>169266389</v>
       </c>
       <c r="F71" t="n">
-        <v>5538.246993779951</v>
+        <v>13304.97800670394</v>
       </c>
       <c r="G71" t="n">
-        <v>56174.71096726987</v>
+        <v>70318.92717628687</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>35487156</v>
+        <v>59409070</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>148761</v>
+        <v>141888</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>27112</v>
+        <v>35577</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>260560878</v>
+        <v>269350044</v>
       </c>
       <c r="E73" t="n">
-        <v>482097044</v>
+        <v>498359006</v>
       </c>
       <c r="F73" t="n">
-        <v>32736.52667044174</v>
+        <v>29660.34439255093</v>
       </c>
       <c r="G73" t="n">
-        <v>36125.93117120958</v>
+        <v>25180.15449308389</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>20485892</v>
+        <v>23172715</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10323000</v>
+        <v>10265562</v>
       </c>
       <c r="E74" t="n">
-        <v>30214744</v>
+        <v>30046343</v>
       </c>
       <c r="F74" t="n">
-        <v>7583.688023444136</v>
+        <v>1592.106903890956</v>
       </c>
       <c r="G74" t="n">
-        <v>6320.940190104834</v>
+        <v>2136.077177000245</v>
       </c>
       <c r="H74" t="n">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="I74" t="n">
-        <v>6016205</v>
+        <v>7490941</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7167668</v>
+        <v>6755404</v>
       </c>
       <c r="E75" t="n">
-        <v>10190168</v>
+        <v>9581971</v>
       </c>
       <c r="F75" t="n">
-        <v>2726.787288048906</v>
+        <v>23.26402049731811</v>
       </c>
       <c r="G75" t="n">
-        <v>463.534555031803</v>
+        <v>2708.60854960874</v>
       </c>
       <c r="H75" t="n">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="I75" t="n">
-        <v>275398</v>
+        <v>274712</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>12746394</v>
+        <v>13312636</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1327933181622689</v>
+        <v>0.1837151324328545</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5520267952006384</v>
+        <v>1.213300348658152</v>
       </c>
       <c r="H76" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="I76" t="n">
-        <v>1060966</v>
+        <v>1196030</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>56959812</v>
+        <v>57082024</v>
       </c>
       <c r="E77" t="n">
-        <v>78720301</v>
+        <v>78871571</v>
       </c>
       <c r="F77" t="n">
-        <v>3183.792133807035</v>
+        <v>11630.65772921843</v>
       </c>
       <c r="G77" t="n">
-        <v>9901.157328347192</v>
+        <v>9171.224554480294</v>
       </c>
       <c r="H77" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="I77" t="n">
-        <v>7403502</v>
+        <v>7975337</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5300532</v>
+        <v>5508391</v>
       </c>
       <c r="E78" t="n">
-        <v>5300532</v>
+        <v>5508391</v>
       </c>
       <c r="F78" t="n">
-        <v>316.3075363570272</v>
+        <v>1369.115224308571</v>
       </c>
       <c r="G78" t="n">
-        <v>564.4101190913597</v>
+        <v>320.059500929107</v>
       </c>
       <c r="H78" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1208219</v>
+        <v>1207831</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54718</v>
+        <v>52063</v>
       </c>
       <c r="E79" t="n">
-        <v>285498</v>
+        <v>271643</v>
       </c>
       <c r="F79" t="n">
-        <v>11.05068408769721</v>
+        <v>215.5407320071805</v>
       </c>
       <c r="G79" t="n">
-        <v>21.55369323013284</v>
+        <v>64.24863053568696</v>
       </c>
       <c r="H79" t="n">
-        <v>1.29</v>
+        <v>0.63</v>
       </c>
       <c r="I79" t="n">
-        <v>197195</v>
+        <v>163487</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>22971957</v>
+        <v>22995449</v>
       </c>
       <c r="F80" t="n">
-        <v>847.1127571419186</v>
+        <v>516.6519712308051</v>
       </c>
       <c r="G80" t="n">
-        <v>19.63308397526735</v>
+        <v>2596.44170564773</v>
       </c>
       <c r="H80" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="I80" t="n">
-        <v>52915</v>
+        <v>46458</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>495760125</v>
+        <v>523417813</v>
       </c>
       <c r="E81" t="n">
-        <v>1920005821</v>
+        <v>2027119965</v>
       </c>
       <c r="F81" t="n">
-        <v>114802.6070391853</v>
+        <v>29182.86153675237</v>
       </c>
       <c r="G81" t="n">
-        <v>286943.3441271004</v>
+        <v>53583.73675069278</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>82010934</v>
+        <v>99206198</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5862948</v>
+        <v>6432482</v>
       </c>
       <c r="E82" t="n">
-        <v>8401505</v>
+        <v>9216604</v>
       </c>
       <c r="F82" t="n">
-        <v>1779.541925180808</v>
+        <v>1171.107113503638</v>
       </c>
       <c r="G82" t="n">
-        <v>4520.163154147299</v>
+        <v>4887.87665450052</v>
       </c>
       <c r="H82" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="I82" t="n">
-        <v>204667</v>
+        <v>255243</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>94264348</v>
+        <v>93868169</v>
       </c>
       <c r="E83" t="n">
-        <v>891906896</v>
+        <v>888158342</v>
       </c>
       <c r="F83" t="n">
-        <v>31521.74224453242</v>
+        <v>28760.10114823643</v>
       </c>
       <c r="G83" t="n">
-        <v>35066.48506693549</v>
+        <v>34108.87192722366</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I83" t="n">
-        <v>17389935</v>
+        <v>20206034</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>995766</v>
+        <v>1031081</v>
       </c>
       <c r="E84" t="n">
-        <v>3855823</v>
+        <v>3992572</v>
       </c>
       <c r="F84" t="n">
-        <v>517.0285084478596</v>
+        <v>834.8575545895459</v>
       </c>
       <c r="G84" t="n">
-        <v>368.2249021463227</v>
+        <v>969.9241670092763</v>
       </c>
       <c r="H84" t="n">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>161683</v>
+        <v>140171</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>123200346</v>
+        <v>124391450</v>
       </c>
       <c r="E85" t="n">
-        <v>472616357</v>
+        <v>477185624</v>
       </c>
       <c r="F85" t="n">
-        <v>78737.77835087052</v>
+        <v>72250.33151965169</v>
       </c>
       <c r="G85" t="n">
-        <v>77006.68615031139</v>
+        <v>82525.04058500761</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>34776057</v>
+        <v>38379992</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4497891</v>
+        <v>4545403</v>
       </c>
       <c r="E86" t="n">
-        <v>16610187</v>
+        <v>16750876</v>
       </c>
       <c r="F86" t="n">
-        <v>216.4510207724426</v>
+        <v>5527.737822031985</v>
       </c>
       <c r="G86" t="n">
-        <v>638.1850006714312</v>
+        <v>625.1580524142828</v>
       </c>
       <c r="H86" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I86" t="n">
-        <v>106817</v>
+        <v>132633</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35756939</v>
+        <v>34341144</v>
       </c>
       <c r="F87" t="n">
-        <v>3555.339964973466</v>
+        <v>4518.495700029862</v>
       </c>
       <c r="G87" t="n">
-        <v>1557.90146807206</v>
+        <v>2927.581804713935</v>
       </c>
       <c r="H87" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I87" t="n">
-        <v>11359612</v>
+        <v>12037200</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>23011346</v>
+        <v>19166700</v>
       </c>
       <c r="F88" t="n">
-        <v>811.6229493969973</v>
+        <v>75.22636696707141</v>
       </c>
       <c r="G88" t="n">
-        <v>766.3156238988869</v>
+        <v>913.1494198469956</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="I88" t="n">
-        <v>13502.81</v>
+        <v>47056</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>100768862</v>
+        <v>101315425</v>
       </c>
       <c r="E89" t="n">
-        <v>367352307</v>
+        <v>369333080</v>
       </c>
       <c r="F89" t="n">
-        <v>1504.005649428667</v>
+        <v>1538.493869761578</v>
       </c>
       <c r="G89" t="n">
-        <v>1331.184148116334</v>
+        <v>1257.943867365108</v>
       </c>
       <c r="H89" t="n">
-        <v>0.79</v>
+        <v>0.39</v>
       </c>
       <c r="I89" t="n">
-        <v>539613</v>
+        <v>439331</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18371102</v>
+        <v>18783124</v>
       </c>
       <c r="E90" t="n">
-        <v>18371102</v>
+        <v>18783124</v>
       </c>
       <c r="F90" t="n">
-        <v>2404.858015672043</v>
+        <v>2583.454218780548</v>
       </c>
       <c r="G90" t="n">
-        <v>4479.922349525112</v>
+        <v>6151.286446991644</v>
       </c>
       <c r="H90" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I90" t="n">
-        <v>6234669</v>
+        <v>7780440</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3572280</v>
+        <v>3576230</v>
       </c>
       <c r="E91" t="n">
-        <v>7764361</v>
+        <v>7765396</v>
       </c>
       <c r="F91" t="n">
-        <v>1953.324022450867</v>
+        <v>1694.391515488522</v>
       </c>
       <c r="G91" t="n">
-        <v>1137.712165919854</v>
+        <v>1580.911010632318</v>
       </c>
       <c r="H91" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="I91" t="n">
-        <v>1905728</v>
+        <v>2206400</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>381207251</v>
+        <v>399679180</v>
       </c>
       <c r="E92" t="n">
-        <v>1324264676</v>
+        <v>1388433768</v>
       </c>
       <c r="F92" t="n">
-        <v>107722.0697278526</v>
+        <v>111587.7121752398</v>
       </c>
       <c r="G92" t="n">
-        <v>116827.8435875069</v>
+        <v>115810.7009317351</v>
       </c>
       <c r="H92" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>77114874</v>
+        <v>85383113</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1806194</v>
+        <v>1869499</v>
       </c>
       <c r="E93" t="n">
-        <v>7224777</v>
+        <v>7477995</v>
       </c>
       <c r="F93" t="n">
-        <v>15411.22118325779</v>
+        <v>17046.79625574213</v>
       </c>
       <c r="G93" t="n">
-        <v>2841.432725466549</v>
+        <v>1166.775947550872</v>
       </c>
       <c r="H93" t="n">
-        <v>0.97</v>
+        <v>0.13</v>
       </c>
       <c r="I93" t="n">
-        <v>5958681</v>
+        <v>6671554</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>187008792</v>
+        <v>191434806</v>
       </c>
       <c r="E94" t="n">
-        <v>574981660</v>
+        <v>588589986</v>
       </c>
       <c r="F94" t="n">
-        <v>87424.82233304683</v>
+        <v>85106.64967147642</v>
       </c>
       <c r="G94" t="n">
-        <v>89196.07906960377</v>
+        <v>77450.44651587549</v>
       </c>
       <c r="H94" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>35458522</v>
+        <v>35983740</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>102419157</v>
+        <v>99517658</v>
       </c>
       <c r="E95" t="n">
-        <v>267567204</v>
+        <v>259987118</v>
       </c>
       <c r="F95" t="n">
-        <v>28596.79378713563</v>
+        <v>30587.82333146295</v>
       </c>
       <c r="G95" t="n">
-        <v>33486.38727832597</v>
+        <v>36971.71863855253</v>
       </c>
       <c r="H95" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="I95" t="n">
-        <v>13636372</v>
+        <v>17207185</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>339616554</v>
+        <v>349593147</v>
       </c>
       <c r="E96" t="n">
-        <v>1940666022</v>
+        <v>1997675124</v>
       </c>
       <c r="F96" t="n">
-        <v>15513.98279085802</v>
+        <v>18499.37275762779</v>
       </c>
       <c r="G96" t="n">
-        <v>34642.3121122266</v>
+        <v>44535.78593081776</v>
       </c>
       <c r="H96" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>90063477</v>
+        <v>98846622</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>493153434</v>
+        <v>513615216</v>
       </c>
       <c r="E2" t="n">
-        <v>957293860</v>
+        <v>997433346</v>
       </c>
       <c r="F2" t="n">
-        <v>12534.70520512149</v>
+        <v>15162.96790851155</v>
       </c>
       <c r="G2" t="n">
-        <v>33798.88000829979</v>
+        <v>34574.69580923517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="I2" t="n">
-        <v>58158492</v>
+        <v>52170491</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1364562</v>
+        <v>1421558</v>
       </c>
       <c r="E3" t="n">
-        <v>4295878</v>
+        <v>4475311</v>
       </c>
       <c r="F3" t="n">
-        <v>788.5617830901114</v>
+        <v>3436.303235408453</v>
       </c>
       <c r="G3" t="n">
-        <v>4645.383814816662</v>
+        <v>4335.084767584015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>86404</v>
+        <v>93673</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>213090813</v>
+        <v>219438998</v>
       </c>
       <c r="E4" t="n">
-        <v>1336262538</v>
+        <v>1376071113</v>
       </c>
       <c r="F4" t="n">
-        <v>118608.3179601247</v>
+        <v>133359.7450667122</v>
       </c>
       <c r="G4" t="n">
-        <v>115349.4979532809</v>
+        <v>135059.2904006758</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>31198926</v>
+        <v>26404255</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122888774</v>
+        <v>128243401</v>
       </c>
       <c r="E5" t="n">
-        <v>136179965</v>
+        <v>142113729</v>
       </c>
       <c r="F5" t="n">
-        <v>5243.807680510616</v>
+        <v>4954.159519670618</v>
       </c>
       <c r="G5" t="n">
-        <v>14602.1530126384</v>
+        <v>8059.193115266664</v>
       </c>
       <c r="H5" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I5" t="n">
-        <v>57808770</v>
+        <v>46807395</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>614600</v>
+        <v>619538</v>
       </c>
       <c r="E6" t="n">
-        <v>11924882</v>
+        <v>12019529</v>
       </c>
       <c r="F6" t="n">
-        <v>295.8036878864258</v>
+        <v>118.670631444633</v>
       </c>
       <c r="G6" t="n">
-        <v>79.31031197840458</v>
+        <v>453.6082771745689</v>
       </c>
       <c r="H6" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I6" t="n">
-        <v>13441.64</v>
+        <v>13149.64</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>392136226</v>
+        <v>393001614</v>
       </c>
       <c r="E7" t="n">
-        <v>392136226</v>
+        <v>393001614</v>
       </c>
       <c r="F7" t="n">
-        <v>40848.9784246526</v>
+        <v>39989.65251011435</v>
       </c>
       <c r="G7" t="n">
-        <v>40038.11601960619</v>
+        <v>37687.82728078346</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>49069438</v>
+        <v>44603049</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3890950</v>
+        <v>3944267</v>
       </c>
       <c r="E8" t="n">
-        <v>3890950</v>
+        <v>3944267</v>
       </c>
       <c r="F8" t="n">
-        <v>9.977568657417422</v>
+        <v>4.12697954866906</v>
       </c>
       <c r="G8" t="n">
-        <v>595.2526335035119</v>
+        <v>576.1859877316341</v>
       </c>
       <c r="H8" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2629660</v>
+        <v>3351392</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1678761</v>
+        <v>1669727</v>
       </c>
       <c r="F9" t="n">
-        <v>1555.750795765511</v>
+        <v>860.7423713773134</v>
       </c>
       <c r="G9" t="n">
-        <v>9912.835467861179</v>
+        <v>451.7390679862204</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>264641</v>
+        <v>264329</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1500214</v>
+        <v>1789690</v>
       </c>
       <c r="F10" t="n">
-        <v>13.11716697851748</v>
+        <v>28.92826017975469</v>
       </c>
       <c r="G10" t="n">
-        <v>1251.741126814311</v>
+        <v>197.5795018803331</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="I10" t="n">
-        <v>153985</v>
+        <v>256597</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>101780594</v>
+        <v>101620656</v>
       </c>
       <c r="E11" t="n">
-        <v>191742574</v>
+        <v>191441270</v>
       </c>
       <c r="F11" t="n">
-        <v>1710.749238975164</v>
+        <v>1389.09991856388</v>
       </c>
       <c r="G11" t="n">
-        <v>2594.093130563248</v>
+        <v>2557.167296592685</v>
       </c>
       <c r="H11" t="n">
         <v>0.17</v>
       </c>
       <c r="I11" t="n">
-        <v>3895191</v>
+        <v>3705638</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10386812</v>
+        <v>10867492</v>
       </c>
       <c r="E12" t="n">
-        <v>25850895</v>
+        <v>27047223</v>
       </c>
       <c r="F12" t="n">
-        <v>654.4948205998797</v>
+        <v>621.9555088048699</v>
       </c>
       <c r="G12" t="n">
-        <v>961.9743570195997</v>
+        <v>815.6985290507471</v>
       </c>
       <c r="H12" t="n">
-        <v>0.43</v>
+        <v>1.15</v>
       </c>
       <c r="I12" t="n">
-        <v>823462</v>
+        <v>1242852</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96655997</v>
+        <v>100328198</v>
       </c>
       <c r="E13" t="n">
-        <v>373756274</v>
+        <v>387724463</v>
       </c>
       <c r="F13" t="n">
-        <v>19403.96868019023</v>
+        <v>18337.20687973326</v>
       </c>
       <c r="G13" t="n">
-        <v>14165.88700323934</v>
+        <v>21739.52222543194</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>14160994</v>
+        <v>10548329</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4171664</v>
+        <v>4280455</v>
       </c>
       <c r="E14" t="n">
-        <v>6140916</v>
+        <v>6301061</v>
       </c>
       <c r="F14" t="n">
-        <v>34.86723592702193</v>
+        <v>112.2433159738338</v>
       </c>
       <c r="G14" t="n">
-        <v>1882.308436269369</v>
+        <v>505.4261261544618</v>
       </c>
       <c r="H14" t="n">
         <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>732783</v>
+        <v>698165</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>125709889</v>
+        <v>128851486</v>
       </c>
       <c r="E15" t="n">
-        <v>125709889</v>
+        <v>128851486</v>
       </c>
       <c r="F15" t="n">
-        <v>78664.28204676356</v>
+        <v>75141.05595939445</v>
       </c>
       <c r="G15" t="n">
-        <v>96041.42781025819</v>
+        <v>109717.109114237</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>165004675</v>
+        <v>125023301</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63425894</v>
+        <v>63942885</v>
       </c>
       <c r="E16" t="n">
-        <v>325260995</v>
+        <v>327912230</v>
       </c>
       <c r="F16" t="n">
-        <v>16946.52569919037</v>
+        <v>27945.2585330572</v>
       </c>
       <c r="G16" t="n">
-        <v>20450.4881576072</v>
+        <v>25769.45904253507</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>39599197</v>
+        <v>33567903</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>211355887</v>
+        <v>215817769</v>
       </c>
       <c r="E17" t="n">
-        <v>211355887</v>
+        <v>215817769</v>
       </c>
       <c r="F17" t="n">
-        <v>42945.44098773753</v>
+        <v>38230.02818675296</v>
       </c>
       <c r="G17" t="n">
-        <v>52943.29284704834</v>
+        <v>62604.21241462829</v>
       </c>
       <c r="H17" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>60244067</v>
+        <v>41580273</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2319430</v>
+        <v>2322151</v>
       </c>
       <c r="E18" t="n">
-        <v>5929467</v>
+        <v>5936176</v>
       </c>
       <c r="F18" t="n">
-        <v>334.1165794842568</v>
+        <v>976.006106911656</v>
       </c>
       <c r="G18" t="n">
-        <v>291.706386391431</v>
+        <v>647.0899848888017</v>
       </c>
       <c r="H18" t="n">
-        <v>0.66</v>
+        <v>0.17</v>
       </c>
       <c r="I18" t="n">
-        <v>73697</v>
+        <v>74186</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68310895</v>
+        <v>68967491</v>
       </c>
       <c r="E19" t="n">
-        <v>191320592</v>
+        <v>193191591</v>
       </c>
       <c r="F19" t="n">
-        <v>19772.8787925941</v>
+        <v>12335.94540551942</v>
       </c>
       <c r="G19" t="n">
-        <v>18545.27969231368</v>
+        <v>22128.2161989218</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="I19" t="n">
-        <v>32189313</v>
+        <v>34294114</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1528868</v>
+        <v>1781931</v>
       </c>
       <c r="E20" t="n">
-        <v>8778189</v>
+        <v>10231186</v>
       </c>
       <c r="F20" t="n">
-        <v>220.9319363825495</v>
+        <v>777.5435208406999</v>
       </c>
       <c r="G20" t="n">
-        <v>161.3257817434956</v>
+        <v>559.5706022342067</v>
       </c>
       <c r="H20" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I20" t="n">
-        <v>267891</v>
+        <v>193709</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161386</v>
+        <v>158261</v>
       </c>
       <c r="E21" t="n">
-        <v>1089857</v>
+        <v>1068755</v>
       </c>
       <c r="F21" t="n">
-        <v>5.394612091519726</v>
+        <v>5.90480542108845</v>
       </c>
       <c r="G21" t="n">
-        <v>34.36440174775451</v>
+        <v>5.826153736467005</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>1.32</v>
       </c>
       <c r="I21" t="n">
-        <v>2658375</v>
+        <v>3013851</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>216313</v>
+        <v>223282</v>
       </c>
       <c r="F22" t="n">
-        <v>11.44924481849378</v>
+        <v>0.08573329921814248</v>
       </c>
       <c r="G22" t="n">
-        <v>579.2307343812325</v>
+        <v>118.4042294661834</v>
       </c>
       <c r="H22" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
-        <v>10855.34</v>
+        <v>14450.07</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74321137</v>
+        <v>75260070</v>
       </c>
       <c r="E23" t="n">
-        <v>154953601</v>
+        <v>156911201</v>
       </c>
       <c r="F23" t="n">
-        <v>27256.85929063497</v>
+        <v>28684.30063865858</v>
       </c>
       <c r="G23" t="n">
-        <v>45341.6377911243</v>
+        <v>49754.32498028296</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>26382702</v>
+        <v>21492901</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>183062058</v>
+        <v>184782344</v>
       </c>
       <c r="E24" t="n">
-        <v>635974136</v>
+        <v>641950563</v>
       </c>
       <c r="F24" t="n">
-        <v>55871.7238254496</v>
+        <v>63171.15513423175</v>
       </c>
       <c r="G24" t="n">
-        <v>51579.85045856152</v>
+        <v>62674.93096113937</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>53637662</v>
+        <v>47373033</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>96975015</v>
+        <v>102344665</v>
       </c>
       <c r="E25" t="n">
-        <v>407429033</v>
+        <v>429502198</v>
       </c>
       <c r="F25" t="n">
-        <v>12625.48461021142</v>
+        <v>10880.01748021212</v>
       </c>
       <c r="G25" t="n">
-        <v>12924.28554382356</v>
+        <v>16782.34656683947</v>
       </c>
       <c r="H25" t="n">
-        <v>0.39</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>119143176</v>
+        <v>118484909</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4846470</v>
+        <v>5024448</v>
       </c>
       <c r="E26" t="n">
-        <v>6554663</v>
+        <v>6794396</v>
       </c>
       <c r="F26" t="n">
-        <v>353.8116853501502</v>
+        <v>473.7118924447398</v>
       </c>
       <c r="G26" t="n">
-        <v>1181.341829717175</v>
+        <v>869.7943835602304</v>
       </c>
       <c r="H26" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="I26" t="n">
-        <v>5361828</v>
+        <v>4511197</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>439585</v>
+        <v>421471</v>
       </c>
       <c r="E27" t="n">
-        <v>5331736</v>
+        <v>5112029</v>
       </c>
       <c r="F27" t="n">
-        <v>734.0050456066649</v>
+        <v>601.1546797695399</v>
       </c>
       <c r="G27" t="n">
-        <v>439.9510318964504</v>
+        <v>336.2620610451954</v>
       </c>
       <c r="H27" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2470370</v>
+        <v>2504836</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21949772</v>
+        <v>23257066</v>
       </c>
       <c r="E28" t="n">
-        <v>30993785</v>
+        <v>32839442</v>
       </c>
       <c r="F28" t="n">
-        <v>687.4477473226987</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>260.4726952495985</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>118018</v>
+        <v>105856</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1301844596</v>
+        <v>1305615760</v>
       </c>
       <c r="E29" t="n">
-        <v>6242611448</v>
+        <v>6260694955</v>
       </c>
       <c r="F29" t="n">
-        <v>156218.5394597585</v>
+        <v>101368.8841699594</v>
       </c>
       <c r="G29" t="n">
-        <v>123315.8635497034</v>
+        <v>175390.1234211492</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>469666554</v>
+        <v>416567181</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>220932024</v>
+        <v>225703055</v>
       </c>
       <c r="E30" t="n">
-        <v>953665263</v>
+        <v>974259684</v>
       </c>
       <c r="F30" t="n">
-        <v>78893.04040576152</v>
+        <v>104240.6972044366</v>
       </c>
       <c r="G30" t="n">
-        <v>134061.7843113969</v>
+        <v>138516.4768812193</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>172661920</v>
+        <v>136706027</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5322470</v>
+        <v>5147209</v>
       </c>
       <c r="E31" t="n">
-        <v>5328494</v>
+        <v>5153035</v>
       </c>
       <c r="F31" t="n">
-        <v>503.0672203133504</v>
+        <v>424.1040954907297</v>
       </c>
       <c r="G31" t="n">
-        <v>287.8733964413875</v>
+        <v>458.6279116041357</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>1.03</v>
       </c>
       <c r="I31" t="n">
-        <v>151522</v>
+        <v>152058</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12407441</v>
+        <v>12190494</v>
       </c>
       <c r="E32" t="n">
-        <v>31018604</v>
+        <v>30476235</v>
       </c>
       <c r="F32" t="n">
-        <v>2067.063756788247</v>
+        <v>3394.006249499092</v>
       </c>
       <c r="G32" t="n">
-        <v>1328.219690484121</v>
+        <v>2449.38128014185</v>
       </c>
       <c r="H32" t="n">
-        <v>0.82</v>
+        <v>0.42</v>
       </c>
       <c r="I32" t="n">
-        <v>4638001</v>
+        <v>3928793</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17991585</v>
+        <v>18168185</v>
       </c>
       <c r="F33" t="n">
-        <v>2043.173232800171</v>
+        <v>1170.386303520703</v>
       </c>
       <c r="G33" t="n">
-        <v>5533.587178064415</v>
+        <v>3064.166072543148</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
-        <v>47749</v>
+        <v>50696</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3969133</v>
+        <v>4178743</v>
       </c>
       <c r="E34" t="n">
-        <v>11430304</v>
+        <v>12033934</v>
       </c>
       <c r="F34" t="n">
-        <v>676.0311755778538</v>
+        <v>1154.724718383234</v>
       </c>
       <c r="G34" t="n">
-        <v>696.6054158468854</v>
+        <v>1661.487646822098</v>
       </c>
       <c r="H34" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>419496</v>
+        <v>450779</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1362714</v>
+        <v>1378646</v>
       </c>
       <c r="F35" t="n">
-        <v>84.03917812646148</v>
+        <v>9824.605047082936</v>
       </c>
       <c r="G35" t="n">
-        <v>17.08088988270567</v>
+        <v>3.893910418966589</v>
       </c>
       <c r="H35" t="n">
-        <v>0.74</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
-        <v>10886.77</v>
+        <v>11671.26</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11248480</v>
+        <v>11586124</v>
       </c>
       <c r="E36" t="n">
-        <v>54478184</v>
+        <v>56113447</v>
       </c>
       <c r="F36" t="n">
-        <v>2152.459090018747</v>
+        <v>3174.985403776227</v>
       </c>
       <c r="G36" t="n">
-        <v>3064.717071771853</v>
+        <v>5365.745007147523</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I36" t="n">
-        <v>6693084</v>
+        <v>5408728</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1176954</v>
+        <v>1197175</v>
       </c>
       <c r="E37" t="n">
-        <v>7703131</v>
+        <v>7835479</v>
       </c>
       <c r="F37" t="n">
-        <v>116.0568620235358</v>
+        <v>104.7761671647431</v>
       </c>
       <c r="G37" t="n">
-        <v>32.13828243937939</v>
+        <v>617.3084789406264</v>
       </c>
       <c r="H37" t="n">
         <v>2.53</v>
       </c>
       <c r="I37" t="n">
-        <v>76507</v>
+        <v>88413</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1714110398</v>
+        <v>1737549496</v>
       </c>
       <c r="F38" t="n">
-        <v>76762.05406366757</v>
+        <v>67687.28806504262</v>
       </c>
       <c r="G38" t="n">
-        <v>78378.04482023466</v>
+        <v>77677.09905227557</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
-        <v>38085424</v>
+        <v>36276419</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27833674</v>
+        <v>28246409</v>
       </c>
       <c r="E39" t="n">
-        <v>86665131</v>
+        <v>87950256</v>
       </c>
       <c r="F39" t="n">
-        <v>6338.995379291663</v>
+        <v>2923.476273797451</v>
       </c>
       <c r="G39" t="n">
-        <v>12806.68122187007</v>
+        <v>10094.31080120123</v>
       </c>
       <c r="H39" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>12737820</v>
+        <v>12320705</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>168221266</v>
+        <v>174102647</v>
       </c>
       <c r="E40" t="n">
-        <v>952572173</v>
+        <v>985876166</v>
       </c>
       <c r="F40" t="n">
-        <v>70423.65258288968</v>
+        <v>82476.8576879273</v>
       </c>
       <c r="G40" t="n">
-        <v>73018.79590702886</v>
+        <v>75029.086113221</v>
       </c>
       <c r="H40" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>99161305</v>
+        <v>88015367</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>106066479</v>
+        <v>107433759</v>
       </c>
       <c r="E41" t="n">
-        <v>785677622</v>
+        <v>795805626</v>
       </c>
       <c r="F41" t="n">
-        <v>96118.40766602327</v>
+        <v>94525.52972146247</v>
       </c>
       <c r="G41" t="n">
-        <v>189143.8409410146</v>
+        <v>181876.9511608425</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>18059967</v>
+        <v>15244849</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>26115871</v>
+        <v>25786024</v>
       </c>
       <c r="E42" t="n">
-        <v>123045821</v>
+        <v>121227277</v>
       </c>
       <c r="F42" t="n">
-        <v>16790.64887349249</v>
+        <v>18747.97692091706</v>
       </c>
       <c r="G42" t="n">
-        <v>2177.116430312599</v>
+        <v>8268.981078618888</v>
       </c>
       <c r="H42" t="n">
         <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>1084010</v>
+        <v>979450</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2984477</v>
+        <v>3214685</v>
       </c>
       <c r="E43" t="n">
-        <v>6969251</v>
+        <v>7506825</v>
       </c>
       <c r="F43" t="n">
-        <v>447.0880413337225</v>
+        <v>667.4045584471519</v>
       </c>
       <c r="G43" t="n">
-        <v>3036.607946821446</v>
+        <v>1031.718665249019</v>
       </c>
       <c r="H43" t="n">
-        <v>0.42</v>
+        <v>1.33</v>
       </c>
       <c r="I43" t="n">
-        <v>449331</v>
+        <v>441885</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>280015469</v>
+        <v>293286455</v>
       </c>
       <c r="E44" t="n">
-        <v>2519192794</v>
+        <v>2638586810</v>
       </c>
       <c r="F44" t="n">
-        <v>39448.29281663246</v>
+        <v>51598.94268341966</v>
       </c>
       <c r="G44" t="n">
-        <v>48904.77485180763</v>
+        <v>47099.89407314004</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>87895646</v>
+        <v>72554271</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>654119</v>
+        <v>651749</v>
       </c>
       <c r="F45" t="n">
-        <v>280.824124975307</v>
+        <v>215.7261795609883</v>
       </c>
       <c r="G45" t="n">
-        <v>205.4233583742998</v>
+        <v>764.8080698326556</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>61357</v>
+        <v>36384</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1441343</v>
+        <v>1455181</v>
       </c>
       <c r="E46" t="n">
-        <v>12011195</v>
+        <v>12126512</v>
       </c>
       <c r="F46" t="n">
-        <v>251.0981766403864</v>
+        <v>214.170241128889</v>
       </c>
       <c r="G46" t="n">
-        <v>775.2633612542342</v>
+        <v>1427.897788514068</v>
       </c>
       <c r="H46" t="n">
         <v>0.82</v>
       </c>
       <c r="I46" t="n">
-        <v>54858</v>
+        <v>19618.22</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4828670</v>
+        <v>4941759</v>
       </c>
       <c r="E47" t="n">
-        <v>17058418</v>
+        <v>17457013</v>
       </c>
       <c r="F47" t="n">
-        <v>1148.035006198025</v>
+        <v>864.0208116880548</v>
       </c>
       <c r="G47" t="n">
-        <v>1401.816158891888</v>
+        <v>1759.959722820684</v>
       </c>
       <c r="H47" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="I47" t="n">
-        <v>167684</v>
+        <v>177523</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40114004</v>
+        <v>40029037</v>
       </c>
       <c r="E48" t="n">
-        <v>232243507</v>
+        <v>231751586</v>
       </c>
       <c r="F48" t="n">
-        <v>44460.57871894076</v>
+        <v>49785.51768966295</v>
       </c>
       <c r="G48" t="n">
-        <v>60014.0150259985</v>
+        <v>63741.58144484155</v>
       </c>
       <c r="H48" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="n">
-        <v>32205682</v>
+        <v>27510517</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1944738</v>
+        <v>1932080</v>
       </c>
       <c r="E49" t="n">
-        <v>10684723</v>
+        <v>10615181</v>
       </c>
       <c r="F49" t="n">
-        <v>1788.10946822014</v>
+        <v>1444.717708542059</v>
       </c>
       <c r="G49" t="n">
-        <v>693.524788219499</v>
+        <v>683.4011609470243</v>
       </c>
       <c r="H49" t="n">
         <v>0.93</v>
       </c>
       <c r="I49" t="n">
-        <v>80896</v>
+        <v>69316</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12220944</v>
+        <v>12463892</v>
       </c>
       <c r="E50" t="n">
-        <v>12262539</v>
+        <v>12506315</v>
       </c>
       <c r="F50" t="n">
-        <v>7941.209522412139</v>
+        <v>6012.091935367151</v>
       </c>
       <c r="G50" t="n">
-        <v>6289.034384725403</v>
+        <v>14033.16323839798</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>9056919</v>
+        <v>9082959</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>15912664</v>
+        <v>16330951</v>
       </c>
       <c r="E51" t="n">
-        <v>47178663</v>
+        <v>48420291</v>
       </c>
       <c r="F51" t="n">
-        <v>310.4732148522014</v>
+        <v>301.1596550126036</v>
       </c>
       <c r="G51" t="n">
-        <v>2588.749225262422</v>
+        <v>4090.369605679676</v>
       </c>
       <c r="H51" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="I51" t="n">
-        <v>8027052</v>
+        <v>7858034</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15305953</v>
+        <v>16050826</v>
       </c>
       <c r="E52" t="n">
-        <v>93815222</v>
+        <v>98380794</v>
       </c>
       <c r="F52" t="n">
-        <v>5324.23410131847</v>
+        <v>8395.813838856353</v>
       </c>
       <c r="G52" t="n">
-        <v>8243.205712785151</v>
+        <v>11932.80488775797</v>
       </c>
       <c r="H52" t="n">
         <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>17045335</v>
+        <v>17247108</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>43248592</v>
+        <v>44055111</v>
       </c>
       <c r="E53" t="n">
-        <v>186310206</v>
+        <v>189784599</v>
       </c>
       <c r="F53" t="n">
-        <v>17449.30933296547</v>
+        <v>19465.265117831</v>
       </c>
       <c r="G53" t="n">
-        <v>15959.26623688484</v>
+        <v>22957.2269694155</v>
       </c>
       <c r="H53" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>18009545</v>
+        <v>15843030</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>955771</v>
+        <v>948759</v>
       </c>
       <c r="E54" t="n">
-        <v>2793557</v>
+        <v>2773063</v>
       </c>
       <c r="F54" t="n">
-        <v>601.7212756596051</v>
+        <v>514.6349594944005</v>
       </c>
       <c r="G54" t="n">
-        <v>836.9377647508844</v>
+        <v>1171.964368442126</v>
       </c>
       <c r="H54" t="n">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="I54" t="n">
-        <v>27025</v>
+        <v>23005</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>27150229</v>
+        <v>28826976</v>
       </c>
       <c r="E55" t="n">
-        <v>68459843</v>
+        <v>72687795</v>
       </c>
       <c r="F55" t="n">
-        <v>16100.07576309847</v>
+        <v>17303.46155262254</v>
       </c>
       <c r="G55" t="n">
-        <v>15711.83963632155</v>
+        <v>15461.92544072512</v>
       </c>
       <c r="H55" t="n">
         <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>3134916</v>
+        <v>3629605</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24488296</v>
+        <v>25066883</v>
       </c>
       <c r="E56" t="n">
-        <v>58090779</v>
+        <v>59456242</v>
       </c>
       <c r="F56" t="n">
-        <v>7703.608236244155</v>
+        <v>9721.748935116635</v>
       </c>
       <c r="G56" t="n">
-        <v>1762.182226917592</v>
+        <v>10220.66960861772</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I56" t="n">
-        <v>796278</v>
+        <v>720404</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11295179</v>
+        <v>11398426</v>
       </c>
       <c r="E57" t="n">
-        <v>17111381</v>
+        <v>17247177</v>
       </c>
       <c r="F57" t="n">
-        <v>4286.969167761399</v>
+        <v>4470.967486460429</v>
       </c>
       <c r="G57" t="n">
-        <v>2925.271973140762</v>
+        <v>3613.741658785592</v>
       </c>
       <c r="H57" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>731987</v>
+        <v>644071</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>261635515</v>
+        <v>267968847</v>
       </c>
       <c r="E58" t="n">
-        <v>261635515</v>
+        <v>267968847</v>
       </c>
       <c r="F58" t="n">
-        <v>40517.87425378051</v>
+        <v>23761.76485605445</v>
       </c>
       <c r="G58" t="n">
-        <v>71201.9444377937</v>
+        <v>53130.96457208526</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
-        <v>122067511</v>
+        <v>92966598</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>12073368</v>
+        <v>12057681</v>
       </c>
       <c r="F59" t="n">
-        <v>55.67881330487741</v>
+        <v>50.06846944544681</v>
       </c>
       <c r="G59" t="n">
-        <v>815.2050696237799</v>
+        <v>750.3907279924335</v>
       </c>
       <c r="H59" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="I59" t="n">
-        <v>46076</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>76895344</v>
+        <v>78980196</v>
       </c>
       <c r="E60" t="n">
-        <v>443104137</v>
+        <v>455117955</v>
       </c>
       <c r="F60" t="n">
-        <v>93444.7146281561</v>
+        <v>94673.95041050135</v>
       </c>
       <c r="G60" t="n">
-        <v>102009.1382359941</v>
+        <v>95644.94542020212</v>
       </c>
       <c r="H60" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I60" t="n">
-        <v>26360533</v>
+        <v>23097714</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7934475</v>
+        <v>8437110</v>
       </c>
       <c r="E61" t="n">
-        <v>7934475</v>
+        <v>8437110</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.46</v>
+        <v>4.45</v>
       </c>
       <c r="I61" t="n">
-        <v>3650228</v>
+        <v>3048982</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28212286</v>
+        <v>30019119</v>
       </c>
       <c r="E62" t="n">
-        <v>126317978</v>
+        <v>134407911</v>
       </c>
       <c r="F62" t="n">
-        <v>29037.70664592289</v>
+        <v>16443.62749367889</v>
       </c>
       <c r="G62" t="n">
-        <v>18049.0881999164</v>
+        <v>20548.0001297834</v>
       </c>
       <c r="H62" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>34288002</v>
+        <v>28719091</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10909960</v>
+        <v>10972117</v>
       </c>
       <c r="E63" t="n">
-        <v>21804624</v>
+        <v>21928851</v>
       </c>
       <c r="F63" t="n">
-        <v>5.492240216293832</v>
+        <v>200.1706236006711</v>
       </c>
       <c r="G63" t="n">
-        <v>189.0032578181311</v>
+        <v>239.2778560581024</v>
       </c>
       <c r="H63" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>44103</v>
+        <v>56539</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>967236</v>
+        <v>987597</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>34.139816268127</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>100.757395779106</v>
       </c>
       <c r="H64" t="n">
-        <v>4.84</v>
+        <v>3.23</v>
       </c>
       <c r="I64" t="n">
-        <v>102792</v>
+        <v>84392</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>40450466</v>
+        <v>42266977</v>
       </c>
       <c r="E65" t="n">
-        <v>262310504</v>
+        <v>274090097</v>
       </c>
       <c r="F65" t="n">
-        <v>13090.46419161562</v>
+        <v>18292.8045348567</v>
       </c>
       <c r="G65" t="n">
-        <v>15339.45124590407</v>
+        <v>19563.58078789452</v>
       </c>
       <c r="H65" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I65" t="n">
-        <v>43350511</v>
+        <v>45737510</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4228469</v>
+        <v>4041025</v>
       </c>
       <c r="F66" t="n">
-        <v>683.1013027437177</v>
+        <v>604.4420627617452</v>
       </c>
       <c r="G66" t="n">
-        <v>387.4344880313594</v>
+        <v>100.1298056832528</v>
       </c>
       <c r="H66" t="n">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="I66" t="n">
-        <v>249766</v>
+        <v>266675</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>123556924</v>
+        <v>122480513</v>
       </c>
       <c r="E67" t="n">
-        <v>2046203849</v>
+        <v>2028377615</v>
       </c>
       <c r="F67" t="n">
-        <v>173744.8500326878</v>
+        <v>168482.9232227389</v>
       </c>
       <c r="G67" t="n">
-        <v>167717.5402885581</v>
+        <v>166930.1162605869</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>22971124</v>
+        <v>25443499</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>20626847</v>
+        <v>21125193</v>
       </c>
       <c r="E68" t="n">
-        <v>123414575</v>
+        <v>126396276</v>
       </c>
       <c r="F68" t="n">
-        <v>7488.787522902338</v>
+        <v>38180.9616650242</v>
       </c>
       <c r="G68" t="n">
-        <v>38994.58691629292</v>
+        <v>38302.04757275396</v>
       </c>
       <c r="H68" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I68" t="n">
-        <v>25780876</v>
+        <v>21109615</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17307948</v>
+        <v>19785624</v>
       </c>
       <c r="E70" t="n">
-        <v>17307948</v>
+        <v>19785624</v>
       </c>
       <c r="F70" t="n">
-        <v>3703.075266780103</v>
+        <v>4930.271233581389</v>
       </c>
       <c r="G70" t="n">
-        <v>3539.356582727523</v>
+        <v>1931.575895145203</v>
       </c>
       <c r="H70" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="I70" t="n">
-        <v>6310802</v>
+        <v>7431507</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33917987</v>
+        <v>34308463</v>
       </c>
       <c r="E71" t="n">
-        <v>169266389</v>
+        <v>171215044</v>
       </c>
       <c r="F71" t="n">
-        <v>13304.97800670394</v>
+        <v>4773.687807261462</v>
       </c>
       <c r="G71" t="n">
-        <v>70318.92717628687</v>
+        <v>72527.49266459844</v>
       </c>
       <c r="H71" t="n">
         <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>59409070</v>
+        <v>48481991</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>141888</v>
+        <v>143760</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.67</v>
+        <v>6.25</v>
       </c>
       <c r="I72" t="n">
-        <v>35577</v>
+        <v>35040</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>269350044</v>
+        <v>275436459</v>
       </c>
       <c r="E73" t="n">
-        <v>498359006</v>
+        <v>509620262</v>
       </c>
       <c r="F73" t="n">
-        <v>29660.34439255093</v>
+        <v>88915.77447823875</v>
       </c>
       <c r="G73" t="n">
-        <v>25180.15449308389</v>
+        <v>92820.13654948502</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>23172715</v>
+        <v>21642127</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10265562</v>
+        <v>10504632</v>
       </c>
       <c r="E74" t="n">
-        <v>30046343</v>
+        <v>30744985</v>
       </c>
       <c r="F74" t="n">
-        <v>1592.106903890956</v>
+        <v>2640.153810180842</v>
       </c>
       <c r="G74" t="n">
-        <v>2136.077177000245</v>
+        <v>3781.6048918191</v>
       </c>
       <c r="H74" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I74" t="n">
-        <v>7490941</v>
+        <v>7274097</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6755404</v>
+        <v>6840284</v>
       </c>
       <c r="E75" t="n">
-        <v>9581971</v>
+        <v>9698596</v>
       </c>
       <c r="F75" t="n">
-        <v>23.26402049731811</v>
+        <v>1409.12520943482</v>
       </c>
       <c r="G75" t="n">
-        <v>2708.60854960874</v>
+        <v>589.7266247375225</v>
       </c>
       <c r="H75" t="n">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
       <c r="I75" t="n">
-        <v>274712</v>
+        <v>276259</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>13312636</v>
+        <v>13332362</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1837151324328545</v>
+        <v>0.7167072882698912</v>
       </c>
       <c r="G76" t="n">
-        <v>1.213300348658152</v>
+        <v>913.9855081846433</v>
       </c>
       <c r="H76" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="I76" t="n">
-        <v>1196030</v>
+        <v>1152564</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>57082024</v>
+        <v>59523960</v>
       </c>
       <c r="E77" t="n">
-        <v>78871571</v>
+        <v>82230576</v>
       </c>
       <c r="F77" t="n">
-        <v>11630.65772921843</v>
+        <v>7281.364440836309</v>
       </c>
       <c r="G77" t="n">
-        <v>9171.224554480294</v>
+        <v>3485.149425612568</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>7975337</v>
+        <v>7905553</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5508391</v>
+        <v>5602794</v>
       </c>
       <c r="E78" t="n">
-        <v>5508391</v>
+        <v>5602794</v>
       </c>
       <c r="F78" t="n">
-        <v>1369.115224308571</v>
+        <v>1052.438267158375</v>
       </c>
       <c r="G78" t="n">
-        <v>320.059500929107</v>
+        <v>1263.176374172824</v>
       </c>
       <c r="H78" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I78" t="n">
-        <v>1207831</v>
+        <v>1117157</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>52063</v>
+        <v>54466</v>
       </c>
       <c r="E79" t="n">
-        <v>271643</v>
+        <v>284180</v>
       </c>
       <c r="F79" t="n">
-        <v>215.5407320071805</v>
+        <v>736.7098029356924</v>
       </c>
       <c r="G79" t="n">
-        <v>64.24863053568696</v>
+        <v>10.73204167913081</v>
       </c>
       <c r="H79" t="n">
-        <v>0.63</v>
+        <v>1.43</v>
       </c>
       <c r="I79" t="n">
-        <v>163487</v>
+        <v>203445</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>22995449</v>
+        <v>23964325</v>
       </c>
       <c r="F80" t="n">
-        <v>516.6519712308051</v>
+        <v>614.2854676145387</v>
       </c>
       <c r="G80" t="n">
-        <v>2596.44170564773</v>
+        <v>215.130620085502</v>
       </c>
       <c r="H80" t="n">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="I80" t="n">
-        <v>46458</v>
+        <v>40048</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>523417813</v>
+        <v>544605671</v>
       </c>
       <c r="E81" t="n">
-        <v>2027119965</v>
+        <v>2109177413</v>
       </c>
       <c r="F81" t="n">
-        <v>29182.86153675237</v>
+        <v>61869.69711937634</v>
       </c>
       <c r="G81" t="n">
-        <v>53583.73675069278</v>
+        <v>79458.88745687838</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I81" t="n">
-        <v>99206198</v>
+        <v>68548016</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6432482</v>
+        <v>6882952</v>
       </c>
       <c r="E82" t="n">
-        <v>9216604</v>
+        <v>9860492</v>
       </c>
       <c r="F82" t="n">
-        <v>1171.107113503638</v>
+        <v>1244.824619824089</v>
       </c>
       <c r="G82" t="n">
-        <v>4887.87665450052</v>
+        <v>959.9813859581742</v>
       </c>
       <c r="H82" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="I82" t="n">
-        <v>255243</v>
+        <v>226918</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>93868169</v>
+        <v>96717512</v>
       </c>
       <c r="E83" t="n">
-        <v>888158342</v>
+        <v>915118147</v>
       </c>
       <c r="F83" t="n">
-        <v>28760.10114823643</v>
+        <v>32408.35262179918</v>
       </c>
       <c r="G83" t="n">
-        <v>34108.87192722366</v>
+        <v>37540.77066950889</v>
       </c>
       <c r="H83" t="n">
         <v>0.22</v>
       </c>
       <c r="I83" t="n">
-        <v>20206034</v>
+        <v>18204304</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1031081</v>
+        <v>1007049</v>
       </c>
       <c r="E84" t="n">
-        <v>3992572</v>
+        <v>3899515</v>
       </c>
       <c r="F84" t="n">
-        <v>834.8575545895459</v>
+        <v>1140.874621422522</v>
       </c>
       <c r="G84" t="n">
-        <v>969.9241670092763</v>
+        <v>1182.420326145671</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="I84" t="n">
-        <v>140171</v>
+        <v>108537</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>124391450</v>
+        <v>127410954</v>
       </c>
       <c r="E85" t="n">
-        <v>477185624</v>
+        <v>488768927</v>
       </c>
       <c r="F85" t="n">
-        <v>72250.33151965169</v>
+        <v>76177.84695586098</v>
       </c>
       <c r="G85" t="n">
-        <v>82525.04058500761</v>
+        <v>88776.3065805467</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>38379992</v>
+        <v>33071027</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4545403</v>
+        <v>4762803</v>
       </c>
       <c r="E86" t="n">
-        <v>16750876</v>
+        <v>17552047</v>
       </c>
       <c r="F86" t="n">
-        <v>5527.737822031985</v>
+        <v>5509.026956336532</v>
       </c>
       <c r="G86" t="n">
-        <v>625.1580524142828</v>
+        <v>5925.737731107589</v>
       </c>
       <c r="H86" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="I86" t="n">
-        <v>132633</v>
+        <v>126690</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>34341144</v>
+        <v>35199921</v>
       </c>
       <c r="F87" t="n">
-        <v>4518.495700029862</v>
+        <v>5154.247589254531</v>
       </c>
       <c r="G87" t="n">
-        <v>2927.581804713935</v>
+        <v>1320.529623467558</v>
       </c>
       <c r="H87" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="I87" t="n">
-        <v>12037200</v>
+        <v>9783422</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>19166700</v>
+        <v>18368694</v>
       </c>
       <c r="F88" t="n">
-        <v>75.22636696707141</v>
+        <v>733.3271236705895</v>
       </c>
       <c r="G88" t="n">
-        <v>913.1494198469956</v>
+        <v>732.0244109186561</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
       <c r="I88" t="n">
-        <v>47056</v>
+        <v>73436</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>101315425</v>
+        <v>104188791</v>
       </c>
       <c r="E89" t="n">
-        <v>369333080</v>
+        <v>379795800</v>
       </c>
       <c r="F89" t="n">
-        <v>1538.493869761578</v>
+        <v>4370.763503603718</v>
       </c>
       <c r="G89" t="n">
-        <v>1257.943867365108</v>
+        <v>2341.119014891637</v>
       </c>
       <c r="H89" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I89" t="n">
-        <v>439331</v>
+        <v>351622</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18783124</v>
+        <v>20066561</v>
       </c>
       <c r="E90" t="n">
-        <v>18783124</v>
+        <v>20066561</v>
       </c>
       <c r="F90" t="n">
-        <v>2583.454218780548</v>
+        <v>2698.756939067985</v>
       </c>
       <c r="G90" t="n">
-        <v>6151.286446991644</v>
+        <v>4283.554535720519</v>
       </c>
       <c r="H90" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I90" t="n">
-        <v>7780440</v>
+        <v>8167881</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3576230</v>
+        <v>3500972</v>
       </c>
       <c r="E91" t="n">
-        <v>7765396</v>
+        <v>7601981</v>
       </c>
       <c r="F91" t="n">
-        <v>1694.391515488522</v>
+        <v>2927.301056037657</v>
       </c>
       <c r="G91" t="n">
-        <v>1580.911010632318</v>
+        <v>595.7917768168742</v>
       </c>
       <c r="H91" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="I91" t="n">
-        <v>2206400</v>
+        <v>2307364</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>399679180</v>
+        <v>402140596</v>
       </c>
       <c r="E92" t="n">
-        <v>1388433768</v>
+        <v>1396277813</v>
       </c>
       <c r="F92" t="n">
-        <v>111587.7121752398</v>
+        <v>123977.0019210064</v>
       </c>
       <c r="G92" t="n">
-        <v>115810.7009317351</v>
+        <v>128453.0330974265</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>85383113</v>
+        <v>63810903</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1869499</v>
+        <v>1902686</v>
       </c>
       <c r="E93" t="n">
-        <v>7477995</v>
+        <v>7610746</v>
       </c>
       <c r="F93" t="n">
-        <v>17046.79625574213</v>
+        <v>15959.73948268175</v>
       </c>
       <c r="G93" t="n">
-        <v>1166.775947550872</v>
+        <v>2569.208657897306</v>
       </c>
       <c r="H93" t="n">
-        <v>0.13</v>
+        <v>0.91</v>
       </c>
       <c r="I93" t="n">
-        <v>6671554</v>
+        <v>7109011</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>191434806</v>
+        <v>197582737</v>
       </c>
       <c r="E94" t="n">
-        <v>588589986</v>
+        <v>607492563</v>
       </c>
       <c r="F94" t="n">
-        <v>85106.64967147642</v>
+        <v>92634.27648974415</v>
       </c>
       <c r="G94" t="n">
-        <v>77450.44651587549</v>
+        <v>90744.39796848359</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>35983740</v>
+        <v>26678109</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>99517658</v>
+        <v>101645808</v>
       </c>
       <c r="E95" t="n">
-        <v>259987118</v>
+        <v>265546851</v>
       </c>
       <c r="F95" t="n">
-        <v>30587.82333146295</v>
+        <v>31563.55316936108</v>
       </c>
       <c r="G95" t="n">
-        <v>36971.71863855253</v>
+        <v>30638.01746900858</v>
       </c>
       <c r="H95" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>17207185</v>
+        <v>14092390</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>349593147</v>
+        <v>366260943</v>
       </c>
       <c r="E96" t="n">
-        <v>1997675124</v>
+        <v>2092919672</v>
       </c>
       <c r="F96" t="n">
-        <v>18499.37275762779</v>
+        <v>24861.52608962337</v>
       </c>
       <c r="G96" t="n">
-        <v>44535.78593081776</v>
+        <v>33486.41763197973</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>98846622</v>
+        <v>70975189</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>513615216</v>
+        <v>506811618</v>
       </c>
       <c r="E2" t="n">
-        <v>997433346</v>
+        <v>984546390</v>
       </c>
       <c r="F2" t="n">
-        <v>15162.96790851155</v>
+        <v>14682.1008493368</v>
       </c>
       <c r="G2" t="n">
-        <v>34574.69580923517</v>
+        <v>32551.24491591252</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>52170491</v>
+        <v>39435790</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1421558</v>
+        <v>1407269</v>
       </c>
       <c r="E3" t="n">
-        <v>4475311</v>
+        <v>4430328</v>
       </c>
       <c r="F3" t="n">
-        <v>3436.303235408453</v>
+        <v>1460.402729998168</v>
       </c>
       <c r="G3" t="n">
-        <v>4335.084767584015</v>
+        <v>4327.817424223554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>93673</v>
+        <v>89850</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>219438998</v>
+        <v>219261815</v>
       </c>
       <c r="E4" t="n">
-        <v>1376071113</v>
+        <v>1374960025</v>
       </c>
       <c r="F4" t="n">
-        <v>133359.7450667122</v>
+        <v>141120.6271962726</v>
       </c>
       <c r="G4" t="n">
-        <v>135059.2904006758</v>
+        <v>142947.7456073541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>26404255</v>
+        <v>21922854</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128243401</v>
+        <v>127994804</v>
       </c>
       <c r="E5" t="n">
-        <v>142113729</v>
+        <v>141838244</v>
       </c>
       <c r="F5" t="n">
-        <v>4954.159519670618</v>
+        <v>26098.0772651919</v>
       </c>
       <c r="G5" t="n">
-        <v>8059.193115266664</v>
+        <v>22838.7199084169</v>
       </c>
       <c r="H5" t="n">
         <v>0.7</v>
       </c>
       <c r="I5" t="n">
-        <v>46807395</v>
+        <v>32615556</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>619538</v>
+        <v>600821</v>
       </c>
       <c r="E6" t="n">
-        <v>12019529</v>
+        <v>11656408</v>
       </c>
       <c r="F6" t="n">
-        <v>118.670631444633</v>
+        <v>200.2641606164075</v>
       </c>
       <c r="G6" t="n">
-        <v>453.6082771745689</v>
+        <v>485.1531532825173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I6" t="n">
-        <v>13149.64</v>
+        <v>12962.42</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>393001614</v>
+        <v>377934290</v>
       </c>
       <c r="E7" t="n">
-        <v>393001614</v>
+        <v>377934290</v>
       </c>
       <c r="F7" t="n">
-        <v>39989.65251011435</v>
+        <v>43034.86540691592</v>
       </c>
       <c r="G7" t="n">
-        <v>37687.82728078346</v>
+        <v>51739.16717490451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>44603049</v>
+        <v>36793550</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3944267</v>
+        <v>3922552</v>
       </c>
       <c r="E8" t="n">
-        <v>3944267</v>
+        <v>3922552</v>
       </c>
       <c r="F8" t="n">
-        <v>4.12697954866906</v>
+        <v>40.05570584712746</v>
       </c>
       <c r="G8" t="n">
-        <v>576.1859877316341</v>
+        <v>609.0174716277282</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="I8" t="n">
-        <v>3351392</v>
+        <v>2931874</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1669727</v>
+        <v>1657250</v>
       </c>
       <c r="F9" t="n">
-        <v>860.7423713773134</v>
+        <v>1000.749650773634</v>
       </c>
       <c r="G9" t="n">
-        <v>451.7390679862204</v>
+        <v>5681.230754866526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="I9" t="n">
-        <v>264329</v>
+        <v>248706</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1789690</v>
+        <v>1638714</v>
       </c>
       <c r="F10" t="n">
-        <v>28.92826017975469</v>
+        <v>172.7516977077219</v>
       </c>
       <c r="G10" t="n">
-        <v>197.5795018803331</v>
+        <v>133.925589033307</v>
       </c>
       <c r="H10" t="n">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="I10" t="n">
-        <v>256597</v>
+        <v>271126</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>101620656</v>
+        <v>100115671</v>
       </c>
       <c r="E11" t="n">
-        <v>191441270</v>
+        <v>188606057</v>
       </c>
       <c r="F11" t="n">
-        <v>1389.09991856388</v>
+        <v>1331.72934347626</v>
       </c>
       <c r="G11" t="n">
-        <v>2557.167296592685</v>
+        <v>1826.433219574329</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>3705638</v>
+        <v>3574161</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10867492</v>
+        <v>10869785</v>
       </c>
       <c r="E12" t="n">
-        <v>27047223</v>
+        <v>27052930</v>
       </c>
       <c r="F12" t="n">
-        <v>621.9555088048699</v>
+        <v>610.6547064143409</v>
       </c>
       <c r="G12" t="n">
-        <v>815.6985290507471</v>
+        <v>756.4334987143585</v>
       </c>
       <c r="H12" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="I12" t="n">
-        <v>1242852</v>
+        <v>1158847</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100328198</v>
+        <v>98542662</v>
       </c>
       <c r="E13" t="n">
-        <v>387724463</v>
+        <v>380702247</v>
       </c>
       <c r="F13" t="n">
-        <v>18337.20687973326</v>
+        <v>19215.08441580964</v>
       </c>
       <c r="G13" t="n">
-        <v>21739.52222543194</v>
+        <v>20242.09463064218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I13" t="n">
-        <v>10548329</v>
+        <v>6316732</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4280455</v>
+        <v>4190244</v>
       </c>
       <c r="E14" t="n">
-        <v>6301061</v>
+        <v>6168267</v>
       </c>
       <c r="F14" t="n">
-        <v>112.2433159738338</v>
+        <v>108.01316955426</v>
       </c>
       <c r="G14" t="n">
-        <v>505.4261261544618</v>
+        <v>495.1228254563957</v>
       </c>
       <c r="H14" t="n">
         <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>698165</v>
+        <v>661146</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>128851486</v>
+        <v>125581701</v>
       </c>
       <c r="E15" t="n">
-        <v>128851486</v>
+        <v>125581701</v>
       </c>
       <c r="F15" t="n">
-        <v>75141.05595939445</v>
+        <v>82361.9248821114</v>
       </c>
       <c r="G15" t="n">
-        <v>109717.109114237</v>
+        <v>107639.1993436801</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>125023301</v>
+        <v>94860302</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63942885</v>
+        <v>64633154</v>
       </c>
       <c r="E16" t="n">
-        <v>327912230</v>
+        <v>331452073</v>
       </c>
       <c r="F16" t="n">
-        <v>27945.2585330572</v>
+        <v>27463.07506140439</v>
       </c>
       <c r="G16" t="n">
-        <v>25769.45904253507</v>
+        <v>30163.19124543517</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>33567903</v>
+        <v>27374229</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>215817769</v>
+        <v>211375627</v>
       </c>
       <c r="E17" t="n">
-        <v>215817769</v>
+        <v>211375627</v>
       </c>
       <c r="F17" t="n">
-        <v>38230.02818675296</v>
+        <v>36833.74018526463</v>
       </c>
       <c r="G17" t="n">
-        <v>62604.21241462829</v>
+        <v>64250.16160015354</v>
       </c>
       <c r="H17" t="n">
         <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>41580273</v>
+        <v>30973410</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2322151</v>
+        <v>2288956</v>
       </c>
       <c r="E18" t="n">
-        <v>5936176</v>
+        <v>5851319</v>
       </c>
       <c r="F18" t="n">
-        <v>976.006106911656</v>
+        <v>516.1899233361742</v>
       </c>
       <c r="G18" t="n">
-        <v>647.0899848888017</v>
+        <v>990.1272893410098</v>
       </c>
       <c r="H18" t="n">
         <v>0.17</v>
       </c>
       <c r="I18" t="n">
-        <v>74186</v>
+        <v>70589</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68967491</v>
+        <v>66122330</v>
       </c>
       <c r="E19" t="n">
-        <v>193191591</v>
+        <v>185222072</v>
       </c>
       <c r="F19" t="n">
-        <v>12335.94540551942</v>
+        <v>17812.99617544223</v>
       </c>
       <c r="G19" t="n">
-        <v>22128.2161989218</v>
+        <v>22085.12787781862</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>34294114</v>
+        <v>30765537</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1781931</v>
+        <v>1718031</v>
       </c>
       <c r="E20" t="n">
-        <v>10231186</v>
+        <v>9864293</v>
       </c>
       <c r="F20" t="n">
-        <v>777.5435208406999</v>
+        <v>684.790223870733</v>
       </c>
       <c r="G20" t="n">
-        <v>559.5706022342067</v>
+        <v>54.55135124234778</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>1.15</v>
       </c>
       <c r="I20" t="n">
-        <v>193709</v>
+        <v>354077</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>158261</v>
+        <v>157684</v>
       </c>
       <c r="E21" t="n">
-        <v>1068755</v>
+        <v>1064860</v>
       </c>
       <c r="F21" t="n">
-        <v>5.90480542108845</v>
+        <v>6.683336291822399</v>
       </c>
       <c r="G21" t="n">
-        <v>5.826153736467005</v>
+        <v>91.61145608875647</v>
       </c>
       <c r="H21" t="n">
-        <v>1.32</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>3013851</v>
+        <v>3113290</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>223282</v>
+        <v>221459</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08573329921814248</v>
+        <v>93.50784877870393</v>
       </c>
       <c r="G22" t="n">
-        <v>118.4042294661834</v>
+        <v>21.4481539005453</v>
       </c>
       <c r="H22" t="n">
         <v>2.04</v>
       </c>
       <c r="I22" t="n">
-        <v>14450.07</v>
+        <v>11603.14</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75260070</v>
+        <v>73263264</v>
       </c>
       <c r="E23" t="n">
-        <v>156911201</v>
+        <v>152748021</v>
       </c>
       <c r="F23" t="n">
-        <v>28684.30063865858</v>
+        <v>22714.90397683375</v>
       </c>
       <c r="G23" t="n">
-        <v>49754.32498028296</v>
+        <v>40351.56179850581</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>21492901</v>
+        <v>17844100</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>184782344</v>
+        <v>183368928</v>
       </c>
       <c r="E24" t="n">
-        <v>641950563</v>
+        <v>637040228</v>
       </c>
       <c r="F24" t="n">
-        <v>63171.15513423175</v>
+        <v>58923.11520279344</v>
       </c>
       <c r="G24" t="n">
-        <v>62674.93096113937</v>
+        <v>62968.31267073756</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>47373033</v>
+        <v>39017479</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>102344665</v>
+        <v>101541715</v>
       </c>
       <c r="E25" t="n">
-        <v>429502198</v>
+        <v>425887267</v>
       </c>
       <c r="F25" t="n">
-        <v>10880.01748021212</v>
+        <v>13143.05717466413</v>
       </c>
       <c r="G25" t="n">
-        <v>16782.34656683947</v>
+        <v>14335.70556918945</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I25" t="n">
-        <v>118484909</v>
+        <v>118274585</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5024448</v>
+        <v>5098861</v>
       </c>
       <c r="E26" t="n">
-        <v>6794396</v>
+        <v>6894795</v>
       </c>
       <c r="F26" t="n">
-        <v>473.7118924447398</v>
+        <v>898.3708849927906</v>
       </c>
       <c r="G26" t="n">
-        <v>869.7943835602304</v>
+        <v>1414.314231096228</v>
       </c>
       <c r="H26" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4511197</v>
+        <v>4012453</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>421471</v>
+        <v>407839</v>
       </c>
       <c r="E27" t="n">
-        <v>5112029</v>
+        <v>4946688</v>
       </c>
       <c r="F27" t="n">
-        <v>601.1546797695399</v>
+        <v>779.3104230245175</v>
       </c>
       <c r="G27" t="n">
-        <v>336.2620610451954</v>
+        <v>320.2362350878134</v>
       </c>
       <c r="H27" t="n">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2504836</v>
+        <v>2451578</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23257066</v>
+        <v>23297257</v>
       </c>
       <c r="E28" t="n">
-        <v>32839442</v>
+        <v>32896192</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.1986985966902</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>318.0704306386863</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
-        <v>105856</v>
+        <v>105578</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1305615760</v>
+        <v>1265209203</v>
       </c>
       <c r="E29" t="n">
-        <v>6260694955</v>
+        <v>6066937236</v>
       </c>
       <c r="F29" t="n">
-        <v>101368.8841699594</v>
+        <v>125525.6562976877</v>
       </c>
       <c r="G29" t="n">
-        <v>175390.1234211492</v>
+        <v>226027.7194737421</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>416567181</v>
+        <v>342167084</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>225703055</v>
+        <v>220223316</v>
       </c>
       <c r="E30" t="n">
-        <v>974259684</v>
+        <v>950606089</v>
       </c>
       <c r="F30" t="n">
-        <v>104240.6972044366</v>
+        <v>149115.6988177954</v>
       </c>
       <c r="G30" t="n">
-        <v>138516.4768812193</v>
+        <v>195066.3597550643</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>136706027</v>
+        <v>104957999</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5147209</v>
+        <v>5309816</v>
       </c>
       <c r="E31" t="n">
-        <v>5153035</v>
+        <v>5315826</v>
       </c>
       <c r="F31" t="n">
-        <v>424.1040954907297</v>
+        <v>433.7802788449202</v>
       </c>
       <c r="G31" t="n">
-        <v>458.6279116041357</v>
+        <v>320.9332463264611</v>
       </c>
       <c r="H31" t="n">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="I31" t="n">
-        <v>152058</v>
+        <v>7569.94</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12190494</v>
+        <v>11730401</v>
       </c>
       <c r="E32" t="n">
-        <v>30476235</v>
+        <v>29326004</v>
       </c>
       <c r="F32" t="n">
-        <v>3394.006249499092</v>
+        <v>3666.041466078553</v>
       </c>
       <c r="G32" t="n">
-        <v>2449.38128014185</v>
+        <v>2298.848761149201</v>
       </c>
       <c r="H32" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3928793</v>
+        <v>3249662</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18168185</v>
+        <v>18439781</v>
       </c>
       <c r="F33" t="n">
-        <v>1170.386303520703</v>
+        <v>357.7717743040959</v>
       </c>
       <c r="G33" t="n">
-        <v>3064.166072543148</v>
+        <v>4548.480992314488</v>
       </c>
       <c r="H33" t="n">
-        <v>1.09</v>
+        <v>0.54</v>
       </c>
       <c r="I33" t="n">
-        <v>50696</v>
+        <v>48507</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4178743</v>
+        <v>4177052</v>
       </c>
       <c r="E34" t="n">
-        <v>12033934</v>
+        <v>12029063</v>
       </c>
       <c r="F34" t="n">
-        <v>1154.724718383234</v>
+        <v>1136.201355037461</v>
       </c>
       <c r="G34" t="n">
-        <v>1661.487646822098</v>
+        <v>1559.859690506168</v>
       </c>
       <c r="H34" t="n">
         <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>450779</v>
+        <v>462835</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1378646</v>
+        <v>1328535</v>
       </c>
       <c r="F35" t="n">
-        <v>9824.605047082936</v>
+        <v>1.291113782483898</v>
       </c>
       <c r="G35" t="n">
-        <v>3.893910418966589</v>
+        <v>75.7963116999795</v>
       </c>
       <c r="H35" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="I35" t="n">
-        <v>11671.26</v>
+        <v>10568.16</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11586124</v>
+        <v>11323256</v>
       </c>
       <c r="E36" t="n">
-        <v>56113447</v>
+        <v>54840336</v>
       </c>
       <c r="F36" t="n">
-        <v>3174.985403776227</v>
+        <v>2417.126969546269</v>
       </c>
       <c r="G36" t="n">
-        <v>5365.745007147523</v>
+        <v>3113.02619150058</v>
       </c>
       <c r="H36" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>5408728</v>
+        <v>4493664</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1197175</v>
+        <v>1196808</v>
       </c>
       <c r="E37" t="n">
-        <v>7835479</v>
+        <v>7833079</v>
       </c>
       <c r="F37" t="n">
-        <v>104.7761671647431</v>
+        <v>0.4544029278367959</v>
       </c>
       <c r="G37" t="n">
-        <v>617.3084789406264</v>
+        <v>529.7294690376258</v>
       </c>
       <c r="H37" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="n">
-        <v>88413</v>
+        <v>84739</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1737549496</v>
+        <v>1737688579</v>
       </c>
       <c r="F38" t="n">
-        <v>67687.28806504262</v>
+        <v>77576.36891856535</v>
       </c>
       <c r="G38" t="n">
-        <v>77677.09905227557</v>
+        <v>78263.81405035456</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="I38" t="n">
-        <v>36276419</v>
+        <v>34795247</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28246409</v>
+        <v>28242209</v>
       </c>
       <c r="E39" t="n">
-        <v>87950256</v>
+        <v>87937178</v>
       </c>
       <c r="F39" t="n">
-        <v>2923.476273797451</v>
+        <v>3404.463253764479</v>
       </c>
       <c r="G39" t="n">
-        <v>10094.31080120123</v>
+        <v>10737.57929853934</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I39" t="n">
-        <v>12320705</v>
+        <v>11285120</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>174102647</v>
+        <v>170432211</v>
       </c>
       <c r="E40" t="n">
-        <v>985876166</v>
+        <v>965091899</v>
       </c>
       <c r="F40" t="n">
-        <v>82476.8576879273</v>
+        <v>87087.31641220294</v>
       </c>
       <c r="G40" t="n">
-        <v>75029.086113221</v>
+        <v>98505.03392662905</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>88015367</v>
+        <v>69112625</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>107433759</v>
+        <v>104486959</v>
       </c>
       <c r="E41" t="n">
-        <v>795805626</v>
+        <v>773977477</v>
       </c>
       <c r="F41" t="n">
-        <v>94525.52972146247</v>
+        <v>174157.5950635594</v>
       </c>
       <c r="G41" t="n">
-        <v>181876.9511608425</v>
+        <v>182331.1315536341</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I41" t="n">
-        <v>15244849</v>
+        <v>11746133</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25786024</v>
+        <v>25342403</v>
       </c>
       <c r="E42" t="n">
-        <v>121227277</v>
+        <v>119141691</v>
       </c>
       <c r="F42" t="n">
-        <v>18747.97692091706</v>
+        <v>7596.403168076627</v>
       </c>
       <c r="G42" t="n">
-        <v>8268.981078618888</v>
+        <v>8230.694050925753</v>
       </c>
       <c r="H42" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I42" t="n">
-        <v>979450</v>
+        <v>766683</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3214685</v>
+        <v>3014677</v>
       </c>
       <c r="E43" t="n">
-        <v>7506825</v>
+        <v>7039774</v>
       </c>
       <c r="F43" t="n">
-        <v>667.4045584471519</v>
+        <v>1288.283551632325</v>
       </c>
       <c r="G43" t="n">
-        <v>1031.718665249019</v>
+        <v>466.2642230484999</v>
       </c>
       <c r="H43" t="n">
-        <v>1.33</v>
+        <v>0.58</v>
       </c>
       <c r="I43" t="n">
-        <v>441885</v>
+        <v>450611</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>293286455</v>
+        <v>286802620</v>
       </c>
       <c r="E44" t="n">
-        <v>2638586810</v>
+        <v>2580254209</v>
       </c>
       <c r="F44" t="n">
-        <v>51598.94268341966</v>
+        <v>60156.99280712469</v>
       </c>
       <c r="G44" t="n">
-        <v>47099.89407314004</v>
+        <v>58752.83868299418</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>72554271</v>
+        <v>52559139</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>651749</v>
+        <v>646787</v>
       </c>
       <c r="F45" t="n">
-        <v>215.7261795609883</v>
+        <v>199.3301002389622</v>
       </c>
       <c r="G45" t="n">
-        <v>764.8080698326556</v>
+        <v>380.128894875789</v>
       </c>
       <c r="H45" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I45" t="n">
-        <v>36384</v>
+        <v>22982</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1455181</v>
+        <v>1448748</v>
       </c>
       <c r="E46" t="n">
-        <v>12126512</v>
+        <v>12072897</v>
       </c>
       <c r="F46" t="n">
-        <v>214.170241128889</v>
+        <v>1276.368814120254</v>
       </c>
       <c r="G46" t="n">
-        <v>1427.897788514068</v>
+        <v>284.0855067783984</v>
       </c>
       <c r="H46" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>19618.22</v>
+        <v>47407</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4941759</v>
+        <v>4950800</v>
       </c>
       <c r="E47" t="n">
-        <v>17457013</v>
+        <v>17488953</v>
       </c>
       <c r="F47" t="n">
-        <v>864.0208116880548</v>
+        <v>1071.314462329807</v>
       </c>
       <c r="G47" t="n">
-        <v>1759.959722820684</v>
+        <v>1280.226908790752</v>
       </c>
       <c r="H47" t="n">
-        <v>0.45</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>177523</v>
+        <v>147592</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40029037</v>
+        <v>39615182</v>
       </c>
       <c r="E48" t="n">
-        <v>231751586</v>
+        <v>229355532</v>
       </c>
       <c r="F48" t="n">
-        <v>49785.51768966295</v>
+        <v>51831.3515371891</v>
       </c>
       <c r="G48" t="n">
-        <v>63741.58144484155</v>
+        <v>74676.82901162344</v>
       </c>
       <c r="H48" t="n">
         <v>0.3</v>
       </c>
       <c r="I48" t="n">
-        <v>27510517</v>
+        <v>20415640</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1932080</v>
+        <v>1935823</v>
       </c>
       <c r="E49" t="n">
-        <v>10615181</v>
+        <v>10635744</v>
       </c>
       <c r="F49" t="n">
-        <v>1444.717708542059</v>
+        <v>1533.657168128537</v>
       </c>
       <c r="G49" t="n">
-        <v>683.4011609470243</v>
+        <v>637.6289919000878</v>
       </c>
       <c r="H49" t="n">
         <v>0.93</v>
       </c>
       <c r="I49" t="n">
-        <v>69316</v>
+        <v>63318</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12463892</v>
+        <v>12216797</v>
       </c>
       <c r="E50" t="n">
-        <v>12506315</v>
+        <v>12258378</v>
       </c>
       <c r="F50" t="n">
-        <v>6012.091935367151</v>
+        <v>7445.516970378751</v>
       </c>
       <c r="G50" t="n">
-        <v>14033.16323839798</v>
+        <v>6927.298946263473</v>
       </c>
       <c r="H50" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>9082959</v>
+        <v>8196123</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>16330951</v>
+        <v>15828899</v>
       </c>
       <c r="E51" t="n">
-        <v>48420291</v>
+        <v>46931737</v>
       </c>
       <c r="F51" t="n">
-        <v>301.1596550126036</v>
+        <v>123.526473521085</v>
       </c>
       <c r="G51" t="n">
-        <v>4090.369605679676</v>
+        <v>1907.410113561805</v>
       </c>
       <c r="H51" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="I51" t="n">
-        <v>7858034</v>
+        <v>7418045</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16050826</v>
+        <v>16222469</v>
       </c>
       <c r="E52" t="n">
-        <v>98380794</v>
+        <v>99432848</v>
       </c>
       <c r="F52" t="n">
-        <v>8395.813838856353</v>
+        <v>6598.195424701047</v>
       </c>
       <c r="G52" t="n">
-        <v>11932.80488775797</v>
+        <v>8331.13427796525</v>
       </c>
       <c r="H52" t="n">
         <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>17247108</v>
+        <v>16626588</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>44055111</v>
+        <v>43308801</v>
       </c>
       <c r="E53" t="n">
-        <v>189784599</v>
+        <v>186569578</v>
       </c>
       <c r="F53" t="n">
-        <v>19465.265117831</v>
+        <v>22536.05182370381</v>
       </c>
       <c r="G53" t="n">
-        <v>22957.2269694155</v>
+        <v>23613.26487565279</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>15843030</v>
+        <v>13308856</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>948759</v>
+        <v>944880</v>
       </c>
       <c r="E54" t="n">
-        <v>2773063</v>
+        <v>2761724</v>
       </c>
       <c r="F54" t="n">
-        <v>514.6349594944005</v>
+        <v>188.6971986326874</v>
       </c>
       <c r="G54" t="n">
-        <v>1171.964368442126</v>
+        <v>491.0673612458675</v>
       </c>
       <c r="H54" t="n">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="I54" t="n">
-        <v>23005</v>
+        <v>18162.25</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>28826976</v>
+        <v>28639874</v>
       </c>
       <c r="E55" t="n">
-        <v>72687795</v>
+        <v>72216012</v>
       </c>
       <c r="F55" t="n">
-        <v>17303.46155262254</v>
+        <v>12918.01510073502</v>
       </c>
       <c r="G55" t="n">
-        <v>15461.92544072512</v>
+        <v>16651.20683563504</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I55" t="n">
-        <v>3629605</v>
+        <v>3331169</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25066883</v>
+        <v>25036115</v>
       </c>
       <c r="E56" t="n">
-        <v>59456242</v>
+        <v>59383264</v>
       </c>
       <c r="F56" t="n">
-        <v>9721.748935116635</v>
+        <v>9589.164601858974</v>
       </c>
       <c r="G56" t="n">
-        <v>10220.66960861772</v>
+        <v>10124.50273586143</v>
       </c>
       <c r="H56" t="n">
         <v>0.34</v>
       </c>
       <c r="I56" t="n">
-        <v>720404</v>
+        <v>525890</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11398426</v>
+        <v>11441230</v>
       </c>
       <c r="E57" t="n">
-        <v>17247177</v>
+        <v>17311944</v>
       </c>
       <c r="F57" t="n">
-        <v>4470.967486460429</v>
+        <v>3907.410271543828</v>
       </c>
       <c r="G57" t="n">
-        <v>3613.741658785592</v>
+        <v>3208.961562289033</v>
       </c>
       <c r="H57" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I57" t="n">
-        <v>644071</v>
+        <v>605741</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>267968847</v>
+        <v>272950738</v>
       </c>
       <c r="E58" t="n">
-        <v>267968847</v>
+        <v>272950738</v>
       </c>
       <c r="F58" t="n">
-        <v>23761.76485605445</v>
+        <v>35853.66402072151</v>
       </c>
       <c r="G58" t="n">
-        <v>53130.96457208526</v>
+        <v>63921.45409793642</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>92966598</v>
+        <v>74835732</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>12057681</v>
+        <v>12011612</v>
       </c>
       <c r="F59" t="n">
-        <v>50.06846944544681</v>
+        <v>253.0573801718144</v>
       </c>
       <c r="G59" t="n">
-        <v>750.3907279924335</v>
+        <v>33.1265589276835</v>
       </c>
       <c r="H59" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="I59" t="n">
-        <v>45038</v>
+        <v>48155</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>78980196</v>
+        <v>77846731</v>
       </c>
       <c r="E60" t="n">
-        <v>455117955</v>
+        <v>448586439</v>
       </c>
       <c r="F60" t="n">
-        <v>94673.95041050135</v>
+        <v>94281.07514817377</v>
       </c>
       <c r="G60" t="n">
-        <v>95644.94542020212</v>
+        <v>99790.86861016256</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>23097714</v>
+        <v>19688688</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8437110</v>
+        <v>8484656</v>
       </c>
       <c r="E61" t="n">
-        <v>8437110</v>
+        <v>8484656</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.45</v>
+        <v>5.46</v>
       </c>
       <c r="I61" t="n">
-        <v>3048982</v>
+        <v>2451053</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30019119</v>
+        <v>29369814</v>
       </c>
       <c r="E62" t="n">
-        <v>134407911</v>
+        <v>131500708</v>
       </c>
       <c r="F62" t="n">
-        <v>16443.62749367889</v>
+        <v>27072.65242948922</v>
       </c>
       <c r="G62" t="n">
-        <v>20548.0001297834</v>
+        <v>20676.03790079806</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I62" t="n">
-        <v>28719091</v>
+        <v>24725470</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10972117</v>
+        <v>11415353</v>
       </c>
       <c r="E63" t="n">
-        <v>21928851</v>
+        <v>22814702</v>
       </c>
       <c r="F63" t="n">
-        <v>200.1706236006711</v>
+        <v>4.618098554208445</v>
       </c>
       <c r="G63" t="n">
-        <v>239.2778560581024</v>
+        <v>786.561560742854</v>
       </c>
       <c r="H63" t="n">
-        <v>0.26</v>
+        <v>1.22</v>
       </c>
       <c r="I63" t="n">
-        <v>56539</v>
+        <v>50293</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>987597</v>
+        <v>989917</v>
       </c>
       <c r="F64" t="n">
-        <v>34.139816268127</v>
+        <v>1.856877399702474</v>
       </c>
       <c r="G64" t="n">
-        <v>100.757395779106</v>
+        <v>16.27034244180733</v>
       </c>
       <c r="H64" t="n">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="I64" t="n">
-        <v>84392</v>
+        <v>40980</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>42266977</v>
+        <v>41864103</v>
       </c>
       <c r="E65" t="n">
-        <v>274090097</v>
+        <v>271477568</v>
       </c>
       <c r="F65" t="n">
-        <v>18292.8045348567</v>
+        <v>17761.16899794462</v>
       </c>
       <c r="G65" t="n">
-        <v>19563.58078789452</v>
+        <v>19920.43436952196</v>
       </c>
       <c r="H65" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>45737510</v>
+        <v>41555734</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4041025</v>
+        <v>4124385</v>
       </c>
       <c r="F66" t="n">
-        <v>604.4420627617452</v>
+        <v>82.06528866255695</v>
       </c>
       <c r="G66" t="n">
-        <v>100.1298056832528</v>
+        <v>99.26815323597907</v>
       </c>
       <c r="H66" t="n">
-        <v>1.18</v>
+        <v>2.21</v>
       </c>
       <c r="I66" t="n">
-        <v>266675</v>
+        <v>267641</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122480513</v>
+        <v>122205030</v>
       </c>
       <c r="E67" t="n">
-        <v>2028377615</v>
+        <v>2023815381</v>
       </c>
       <c r="F67" t="n">
-        <v>168482.9232227389</v>
+        <v>171030.6538522189</v>
       </c>
       <c r="G67" t="n">
-        <v>166930.1162605869</v>
+        <v>166990.7904172221</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I67" t="n">
-        <v>25443499</v>
+        <v>24130419</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21125193</v>
+        <v>20987510</v>
       </c>
       <c r="E68" t="n">
-        <v>126396276</v>
+        <v>125572491</v>
       </c>
       <c r="F68" t="n">
-        <v>38180.9616650242</v>
+        <v>39924.05811123147</v>
       </c>
       <c r="G68" t="n">
-        <v>38302.04757275396</v>
+        <v>38085.8663853751</v>
       </c>
       <c r="H68" t="n">
         <v>0.16</v>
       </c>
       <c r="I68" t="n">
-        <v>21109615</v>
+        <v>17273985</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>19785624</v>
+        <v>18954859</v>
       </c>
       <c r="E70" t="n">
-        <v>19785624</v>
+        <v>18955630</v>
       </c>
       <c r="F70" t="n">
-        <v>4930.271233581389</v>
+        <v>976.1160278402757</v>
       </c>
       <c r="G70" t="n">
-        <v>1931.575895145203</v>
+        <v>16584.74172941105</v>
       </c>
       <c r="H70" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I70" t="n">
-        <v>7431507</v>
+        <v>6826017</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34308463</v>
+        <v>34641365</v>
       </c>
       <c r="E71" t="n">
-        <v>171215044</v>
+        <v>172876382</v>
       </c>
       <c r="F71" t="n">
-        <v>4773.687807261462</v>
+        <v>10473.47294226387</v>
       </c>
       <c r="G71" t="n">
-        <v>72527.49266459844</v>
+        <v>59979.71157227489</v>
       </c>
       <c r="H71" t="n">
         <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>48481991</v>
+        <v>41701109</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>143760</v>
+        <v>142616</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>6.25</v>
+        <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>35040</v>
+        <v>41752</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>275436459</v>
+        <v>275795819</v>
       </c>
       <c r="E73" t="n">
-        <v>509620262</v>
+        <v>510285160</v>
       </c>
       <c r="F73" t="n">
-        <v>88915.77447823875</v>
+        <v>82527.6559039157</v>
       </c>
       <c r="G73" t="n">
-        <v>92820.13654948502</v>
+        <v>86494.11726305087</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>21642127</v>
+        <v>19126112</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10504632</v>
+        <v>10362276</v>
       </c>
       <c r="E74" t="n">
-        <v>30744985</v>
+        <v>30328269</v>
       </c>
       <c r="F74" t="n">
-        <v>2640.153810180842</v>
+        <v>6989.062544916778</v>
       </c>
       <c r="G74" t="n">
-        <v>3781.6048918191</v>
+        <v>7086.70810319596</v>
       </c>
       <c r="H74" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
-        <v>7274097</v>
+        <v>6602315</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6840284</v>
+        <v>6603821</v>
       </c>
       <c r="E75" t="n">
-        <v>9698596</v>
+        <v>9361028</v>
       </c>
       <c r="F75" t="n">
-        <v>1409.12520943482</v>
+        <v>132.8466233394938</v>
       </c>
       <c r="G75" t="n">
-        <v>589.7266247375225</v>
+        <v>43.20290228572246</v>
       </c>
       <c r="H75" t="n">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
       <c r="I75" t="n">
-        <v>276259</v>
+        <v>330542</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>13332362</v>
+        <v>13296851</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7167072882698912</v>
+        <v>0.8760793269102231</v>
       </c>
       <c r="G76" t="n">
-        <v>913.9855081846433</v>
+        <v>74.31899213509642</v>
       </c>
       <c r="H76" t="n">
-        <v>2.22</v>
+        <v>3.16</v>
       </c>
       <c r="I76" t="n">
-        <v>1152564</v>
+        <v>1149559</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>59523960</v>
+        <v>60562377</v>
       </c>
       <c r="E77" t="n">
-        <v>82230576</v>
+        <v>83666223</v>
       </c>
       <c r="F77" t="n">
-        <v>7281.364440836309</v>
+        <v>4537.937648810122</v>
       </c>
       <c r="G77" t="n">
-        <v>3485.149425612568</v>
+        <v>10845.14827180816</v>
       </c>
       <c r="H77" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I77" t="n">
-        <v>7905553</v>
+        <v>6254350</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5602794</v>
+        <v>5409450</v>
       </c>
       <c r="E78" t="n">
-        <v>5602794</v>
+        <v>5409450</v>
       </c>
       <c r="F78" t="n">
-        <v>1052.438267158375</v>
+        <v>1259.756473527634</v>
       </c>
       <c r="G78" t="n">
-        <v>1263.176374172824</v>
+        <v>1052.76855634996</v>
       </c>
       <c r="H78" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1117157</v>
+        <v>1063070</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>54466</v>
+        <v>53754</v>
       </c>
       <c r="E79" t="n">
-        <v>284180</v>
+        <v>280465</v>
       </c>
       <c r="F79" t="n">
-        <v>736.7098029356924</v>
+        <v>72.64624382174468</v>
       </c>
       <c r="G79" t="n">
-        <v>10.73204167913081</v>
+        <v>20.78819017712728</v>
       </c>
       <c r="H79" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I79" t="n">
-        <v>203445</v>
+        <v>180201</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>23964325</v>
+        <v>22682891</v>
       </c>
       <c r="F80" t="n">
-        <v>614.2854676145387</v>
+        <v>217.6388087754939</v>
       </c>
       <c r="G80" t="n">
-        <v>215.130620085502</v>
+        <v>6459.174981018893</v>
       </c>
       <c r="H80" t="n">
-        <v>0.04</v>
+        <v>1.86</v>
       </c>
       <c r="I80" t="n">
-        <v>40048</v>
+        <v>28198</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>544605671</v>
+        <v>543320799</v>
       </c>
       <c r="E81" t="n">
-        <v>2109177413</v>
+        <v>2104201293</v>
       </c>
       <c r="F81" t="n">
-        <v>61869.69711937634</v>
+        <v>82666.9062044786</v>
       </c>
       <c r="G81" t="n">
-        <v>79458.88745687838</v>
+        <v>75707.32562873971</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>68548016</v>
+        <v>47240789</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6882952</v>
+        <v>6654239</v>
       </c>
       <c r="E82" t="n">
-        <v>9860492</v>
+        <v>9532724</v>
       </c>
       <c r="F82" t="n">
-        <v>1244.824619824089</v>
+        <v>2009.38954674445</v>
       </c>
       <c r="G82" t="n">
-        <v>959.9813859581742</v>
+        <v>1173.155637188539</v>
       </c>
       <c r="H82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I82" t="n">
-        <v>226918</v>
+        <v>209343</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>96717512</v>
+        <v>94353851</v>
       </c>
       <c r="E83" t="n">
-        <v>915118147</v>
+        <v>892753746</v>
       </c>
       <c r="F83" t="n">
-        <v>32408.35262179918</v>
+        <v>34365.80653904039</v>
       </c>
       <c r="G83" t="n">
-        <v>37540.77066950889</v>
+        <v>28988.30464865608</v>
       </c>
       <c r="H83" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>18204304</v>
+        <v>13873949</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1007049</v>
+        <v>1014920</v>
       </c>
       <c r="E84" t="n">
-        <v>3899515</v>
+        <v>3929992</v>
       </c>
       <c r="F84" t="n">
-        <v>1140.874621422522</v>
+        <v>1370.265935761181</v>
       </c>
       <c r="G84" t="n">
-        <v>1182.420326145671</v>
+        <v>1424.377017399468</v>
       </c>
       <c r="H84" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I84" t="n">
-        <v>108537</v>
+        <v>86656</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127410954</v>
+        <v>125419797</v>
       </c>
       <c r="E85" t="n">
-        <v>488768927</v>
+        <v>481130530</v>
       </c>
       <c r="F85" t="n">
-        <v>76177.84695586098</v>
+        <v>76117.00719568746</v>
       </c>
       <c r="G85" t="n">
-        <v>88776.3065805467</v>
+        <v>78008.53956362371</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
-        <v>33071027</v>
+        <v>27529061</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4762803</v>
+        <v>4751691</v>
       </c>
       <c r="E86" t="n">
-        <v>17552047</v>
+        <v>17511098</v>
       </c>
       <c r="F86" t="n">
-        <v>5509.026956336532</v>
+        <v>5365.226753676337</v>
       </c>
       <c r="G86" t="n">
-        <v>5925.737731107589</v>
+        <v>5212.110800334382</v>
       </c>
       <c r="H86" t="n">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="I86" t="n">
-        <v>126690</v>
+        <v>103636</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>35199921</v>
+        <v>34781597</v>
       </c>
       <c r="F87" t="n">
-        <v>5154.247589254531</v>
+        <v>4641.330238601622</v>
       </c>
       <c r="G87" t="n">
-        <v>1320.529623467558</v>
+        <v>2531.296789947346</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I87" t="n">
-        <v>9783422</v>
+        <v>7960406</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>18368694</v>
+        <v>18254744</v>
       </c>
       <c r="F88" t="n">
-        <v>733.3271236705895</v>
+        <v>797.6972699953374</v>
       </c>
       <c r="G88" t="n">
-        <v>732.0244109186561</v>
+        <v>594.7758383893646</v>
       </c>
       <c r="H88" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="I88" t="n">
-        <v>73436</v>
+        <v>75293</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>104188791</v>
+        <v>108737930</v>
       </c>
       <c r="E89" t="n">
-        <v>379795800</v>
+        <v>396366119</v>
       </c>
       <c r="F89" t="n">
-        <v>4370.763503603718</v>
+        <v>4023.271109355564</v>
       </c>
       <c r="G89" t="n">
-        <v>2341.119014891637</v>
+        <v>2694.800587568444</v>
       </c>
       <c r="H89" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I89" t="n">
-        <v>351622</v>
+        <v>465346</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20066561</v>
+        <v>19814981</v>
       </c>
       <c r="E90" t="n">
-        <v>20066561</v>
+        <v>19814981</v>
       </c>
       <c r="F90" t="n">
-        <v>2698.756939067985</v>
+        <v>2416.045723517809</v>
       </c>
       <c r="G90" t="n">
-        <v>4283.554535720519</v>
+        <v>4896.870859380107</v>
       </c>
       <c r="H90" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>8167881</v>
+        <v>7873921</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3500972</v>
+        <v>3505085</v>
       </c>
       <c r="E91" t="n">
-        <v>7601981</v>
+        <v>7610912</v>
       </c>
       <c r="F91" t="n">
-        <v>2927.301056037657</v>
+        <v>1789.597434613669</v>
       </c>
       <c r="G91" t="n">
-        <v>595.7917768168742</v>
+        <v>999.7064657828273</v>
       </c>
       <c r="H91" t="n">
         <v>0.13</v>
       </c>
       <c r="I91" t="n">
-        <v>2307364</v>
+        <v>2298629</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>402140596</v>
+        <v>399310721</v>
       </c>
       <c r="E92" t="n">
-        <v>1396277813</v>
+        <v>1386452166</v>
       </c>
       <c r="F92" t="n">
-        <v>123977.0019210064</v>
+        <v>186085.6617358717</v>
       </c>
       <c r="G92" t="n">
-        <v>128453.0330974265</v>
+        <v>190768.604133639</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>63810903</v>
+        <v>44924855</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1902686</v>
+        <v>1885347</v>
       </c>
       <c r="E93" t="n">
-        <v>7610746</v>
+        <v>7541389</v>
       </c>
       <c r="F93" t="n">
-        <v>15959.73948268175</v>
+        <v>20549.72822203288</v>
       </c>
       <c r="G93" t="n">
-        <v>2569.208657897306</v>
+        <v>2082.42872156905</v>
       </c>
       <c r="H93" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>7109011</v>
+        <v>7152730</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>197582737</v>
+        <v>195635609</v>
       </c>
       <c r="E94" t="n">
-        <v>607492563</v>
+        <v>601505875</v>
       </c>
       <c r="F94" t="n">
-        <v>92634.27648974415</v>
+        <v>91962.60834675928</v>
       </c>
       <c r="G94" t="n">
-        <v>90744.39796848359</v>
+        <v>94680.2966012715</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>26678109</v>
+        <v>18096712</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>101645808</v>
+        <v>109320903</v>
       </c>
       <c r="E95" t="n">
-        <v>265546851</v>
+        <v>285597826</v>
       </c>
       <c r="F95" t="n">
-        <v>31563.55316936108</v>
+        <v>3894.299431462319</v>
       </c>
       <c r="G95" t="n">
-        <v>30638.01746900858</v>
+        <v>5378.660125954138</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>14092390</v>
+        <v>13769025</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>366260943</v>
+        <v>361990826</v>
       </c>
       <c r="E96" t="n">
-        <v>2092919672</v>
+        <v>2068519006</v>
       </c>
       <c r="F96" t="n">
-        <v>24861.52608962337</v>
+        <v>24427.68393391063</v>
       </c>
       <c r="G96" t="n">
-        <v>33486.41763197973</v>
+        <v>34796.13368087289</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>70975189</v>
+        <v>52269569</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>506811618</v>
+        <v>503076264</v>
       </c>
       <c r="E2" t="n">
-        <v>984546390</v>
+        <v>977576509</v>
       </c>
       <c r="F2" t="n">
-        <v>14682.1008493368</v>
+        <v>15253.83858166703</v>
       </c>
       <c r="G2" t="n">
-        <v>32551.24491591252</v>
+        <v>29167.07940499779</v>
       </c>
       <c r="H2" t="n">
         <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>39435790</v>
+        <v>26476137</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1407269</v>
+        <v>1295689</v>
       </c>
       <c r="E3" t="n">
-        <v>4430328</v>
+        <v>4079054</v>
       </c>
       <c r="F3" t="n">
-        <v>1460.402729998168</v>
+        <v>3739.163504053195</v>
       </c>
       <c r="G3" t="n">
-        <v>4327.817424223554</v>
+        <v>4518.798803362941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="I3" t="n">
-        <v>89850</v>
+        <v>204040</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>219261815</v>
+        <v>216629139</v>
       </c>
       <c r="E4" t="n">
-        <v>1374960025</v>
+        <v>1358450884</v>
       </c>
       <c r="F4" t="n">
-        <v>141120.6271962726</v>
+        <v>132819.3344859644</v>
       </c>
       <c r="G4" t="n">
-        <v>142947.7456073541</v>
+        <v>134079.5922076126</v>
       </c>
       <c r="H4" t="n">
         <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>21922854</v>
+        <v>19006397</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127994804</v>
+        <v>129099030</v>
       </c>
       <c r="E5" t="n">
-        <v>141838244</v>
+        <v>143061900</v>
       </c>
       <c r="F5" t="n">
-        <v>26098.0772651919</v>
+        <v>16234.07974651226</v>
       </c>
       <c r="G5" t="n">
-        <v>22838.7199084169</v>
+        <v>30394.33649911857</v>
       </c>
       <c r="H5" t="n">
         <v>0.7</v>
       </c>
       <c r="I5" t="n">
-        <v>32615556</v>
+        <v>25534734</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>600821</v>
+        <v>610721</v>
       </c>
       <c r="E6" t="n">
-        <v>11656408</v>
+        <v>11837372</v>
       </c>
       <c r="F6" t="n">
-        <v>200.2641606164075</v>
+        <v>325.0734899965743</v>
       </c>
       <c r="G6" t="n">
-        <v>485.1531532825173</v>
+        <v>237.5188852098655</v>
       </c>
       <c r="H6" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I6" t="n">
-        <v>12962.42</v>
+        <v>7245.9</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>377934290</v>
+        <v>387474082</v>
       </c>
       <c r="E7" t="n">
-        <v>377934290</v>
+        <v>387474082</v>
       </c>
       <c r="F7" t="n">
-        <v>43034.86540691592</v>
+        <v>40328.45313761885</v>
       </c>
       <c r="G7" t="n">
-        <v>51739.16717490451</v>
+        <v>43912.64019796418</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>36793550</v>
+        <v>35569203</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3922552</v>
+        <v>3920704</v>
       </c>
       <c r="E8" t="n">
-        <v>3922552</v>
+        <v>3920704</v>
       </c>
       <c r="F8" t="n">
-        <v>40.05570584712746</v>
+        <v>1312.055025936991</v>
       </c>
       <c r="G8" t="n">
-        <v>609.0174716277282</v>
+        <v>1022.091198994163</v>
       </c>
       <c r="H8" t="n">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2931874</v>
+        <v>2756774</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1657250</v>
+        <v>1647237</v>
       </c>
       <c r="F9" t="n">
-        <v>1000.749650773634</v>
+        <v>288.6175029477973</v>
       </c>
       <c r="G9" t="n">
-        <v>5681.230754866526</v>
+        <v>257.2610824801239</v>
       </c>
       <c r="H9" t="n">
-        <v>0.38</v>
+        <v>2.15</v>
       </c>
       <c r="I9" t="n">
-        <v>248706</v>
+        <v>269728</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1638714</v>
+        <v>1642500</v>
       </c>
       <c r="F10" t="n">
-        <v>172.7516977077219</v>
+        <v>324.80154968714</v>
       </c>
       <c r="G10" t="n">
-        <v>133.925589033307</v>
+        <v>290.0618886519479</v>
       </c>
       <c r="H10" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="I10" t="n">
-        <v>271126</v>
+        <v>189424</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100115671</v>
+        <v>96672196</v>
       </c>
       <c r="E11" t="n">
-        <v>188606057</v>
+        <v>182118958</v>
       </c>
       <c r="F11" t="n">
-        <v>1331.72934347626</v>
+        <v>1352.252430876524</v>
       </c>
       <c r="G11" t="n">
-        <v>1826.433219574329</v>
+        <v>2139.204882250523</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>3574161</v>
+        <v>3665360</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10869785</v>
+        <v>10812442</v>
       </c>
       <c r="E12" t="n">
-        <v>27052930</v>
+        <v>26910212</v>
       </c>
       <c r="F12" t="n">
-        <v>610.6547064143409</v>
+        <v>1016.87956406966</v>
       </c>
       <c r="G12" t="n">
-        <v>756.4334987143585</v>
+        <v>885.1871610288678</v>
       </c>
       <c r="H12" t="n">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1158847</v>
+        <v>1243856</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98542662</v>
+        <v>98643259</v>
       </c>
       <c r="E13" t="n">
-        <v>380702247</v>
+        <v>380916175</v>
       </c>
       <c r="F13" t="n">
-        <v>19215.08441580964</v>
+        <v>17353.17654234688</v>
       </c>
       <c r="G13" t="n">
-        <v>20242.09463064218</v>
+        <v>11966.28160725695</v>
       </c>
       <c r="H13" t="n">
-        <v>0.26</v>
+        <v>0.76</v>
       </c>
       <c r="I13" t="n">
-        <v>6316732</v>
+        <v>6002283</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4190244</v>
+        <v>4133579</v>
       </c>
       <c r="E14" t="n">
-        <v>6168267</v>
+        <v>6084852</v>
       </c>
       <c r="F14" t="n">
-        <v>108.01316955426</v>
+        <v>267.5967664309381</v>
       </c>
       <c r="G14" t="n">
-        <v>495.1228254563957</v>
+        <v>493.9180828733951</v>
       </c>
       <c r="H14" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I14" t="n">
-        <v>661146</v>
+        <v>518533</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>125581701</v>
+        <v>127513746</v>
       </c>
       <c r="E15" t="n">
-        <v>125581701</v>
+        <v>127513746</v>
       </c>
       <c r="F15" t="n">
-        <v>82361.9248821114</v>
+        <v>89327.06828357658</v>
       </c>
       <c r="G15" t="n">
-        <v>107639.1993436801</v>
+        <v>102138.3953328361</v>
       </c>
       <c r="H15" t="n">
         <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>94860302</v>
+        <v>75864499</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64633154</v>
+        <v>65217990</v>
       </c>
       <c r="E16" t="n">
-        <v>331452073</v>
+        <v>334451230</v>
       </c>
       <c r="F16" t="n">
-        <v>27463.07506140439</v>
+        <v>34600.78832826298</v>
       </c>
       <c r="G16" t="n">
-        <v>30163.19124543517</v>
+        <v>24442.17868841499</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>27374229</v>
+        <v>20493163</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>211375627</v>
+        <v>211781683</v>
       </c>
       <c r="E17" t="n">
-        <v>211375627</v>
+        <v>211781683</v>
       </c>
       <c r="F17" t="n">
-        <v>36833.74018526463</v>
+        <v>43483.85866560644</v>
       </c>
       <c r="G17" t="n">
-        <v>64250.16160015354</v>
+        <v>61817.53042846554</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>30973410</v>
+        <v>24045325</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2288956</v>
+        <v>2274965</v>
       </c>
       <c r="E18" t="n">
-        <v>5851319</v>
+        <v>5815556</v>
       </c>
       <c r="F18" t="n">
-        <v>516.1899233361742</v>
+        <v>618.262807514804</v>
       </c>
       <c r="G18" t="n">
-        <v>990.1272893410098</v>
+        <v>1321.11985690355</v>
       </c>
       <c r="H18" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I18" t="n">
-        <v>70589</v>
+        <v>69056</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66122330</v>
+        <v>68602812</v>
       </c>
       <c r="E19" t="n">
-        <v>185222072</v>
+        <v>192196346</v>
       </c>
       <c r="F19" t="n">
-        <v>17812.99617544223</v>
+        <v>23695.22590436313</v>
       </c>
       <c r="G19" t="n">
-        <v>22085.12787781862</v>
+        <v>15954.44888002819</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>30765537</v>
+        <v>28722621</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1718031</v>
+        <v>1736409</v>
       </c>
       <c r="E20" t="n">
-        <v>9864293</v>
+        <v>9969811</v>
       </c>
       <c r="F20" t="n">
-        <v>684.790223870733</v>
+        <v>243.0375279342181</v>
       </c>
       <c r="G20" t="n">
-        <v>54.55135124234778</v>
+        <v>1174.627923950213</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="I20" t="n">
-        <v>354077</v>
+        <v>323269</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>157684</v>
+        <v>151839</v>
       </c>
       <c r="E21" t="n">
-        <v>1064860</v>
+        <v>1025386</v>
       </c>
       <c r="F21" t="n">
-        <v>6.683336291822399</v>
+        <v>4.978553519441509</v>
       </c>
       <c r="G21" t="n">
-        <v>91.61145608875647</v>
+        <v>138.2395105256625</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.91</v>
       </c>
       <c r="I21" t="n">
-        <v>3113290</v>
+        <v>2976662</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>221459</v>
+        <v>235517</v>
       </c>
       <c r="F22" t="n">
-        <v>93.50784877870393</v>
+        <v>60.65796306596039</v>
       </c>
       <c r="G22" t="n">
-        <v>21.4481539005453</v>
+        <v>606.5954910985405</v>
       </c>
       <c r="H22" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>11603.14</v>
+        <v>9879.48</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73263264</v>
+        <v>75461524</v>
       </c>
       <c r="E23" t="n">
-        <v>152748021</v>
+        <v>157331216</v>
       </c>
       <c r="F23" t="n">
-        <v>22714.90397683375</v>
+        <v>36588.58825450044</v>
       </c>
       <c r="G23" t="n">
-        <v>40351.56179850581</v>
+        <v>46908.18303447856</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>17844100</v>
+        <v>15262420</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>183368928</v>
+        <v>195188083</v>
       </c>
       <c r="E24" t="n">
-        <v>637040228</v>
+        <v>678101039</v>
       </c>
       <c r="F24" t="n">
-        <v>58923.11520279344</v>
+        <v>58137.35041055823</v>
       </c>
       <c r="G24" t="n">
-        <v>62968.31267073756</v>
+        <v>56714.67668449957</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>39017479</v>
+        <v>37547064</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>101541715</v>
+        <v>104640194</v>
       </c>
       <c r="E25" t="n">
-        <v>425887267</v>
+        <v>438518858</v>
       </c>
       <c r="F25" t="n">
-        <v>13143.05717466413</v>
+        <v>13982.9035217187</v>
       </c>
       <c r="G25" t="n">
-        <v>14335.70556918945</v>
+        <v>14611.05183697753</v>
       </c>
       <c r="H25" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>118274585</v>
+        <v>17300664</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5098861</v>
+        <v>5000954</v>
       </c>
       <c r="E26" t="n">
-        <v>6894795</v>
+        <v>6761738</v>
       </c>
       <c r="F26" t="n">
-        <v>898.3708849927906</v>
+        <v>1138.277418907924</v>
       </c>
       <c r="G26" t="n">
-        <v>1414.314231096228</v>
+        <v>377.3743571711761</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I26" t="n">
-        <v>4012453</v>
+        <v>3710779</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>407839</v>
+        <v>391005</v>
       </c>
       <c r="E27" t="n">
-        <v>4946688</v>
+        <v>4742510</v>
       </c>
       <c r="F27" t="n">
-        <v>779.3104230245175</v>
+        <v>307.9599854958973</v>
       </c>
       <c r="G27" t="n">
-        <v>320.2362350878134</v>
+        <v>480.3811622852097</v>
       </c>
       <c r="H27" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>2451578</v>
+        <v>2238833</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23297257</v>
+        <v>23827443</v>
       </c>
       <c r="E28" t="n">
-        <v>32896192</v>
+        <v>33638080</v>
       </c>
       <c r="F28" t="n">
-        <v>103.1986985966902</v>
+        <v>76.4563605199894</v>
       </c>
       <c r="G28" t="n">
-        <v>318.0704306386863</v>
+        <v>279.797112448892</v>
       </c>
       <c r="H28" t="n">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="I28" t="n">
-        <v>105578</v>
+        <v>101957</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1265209203</v>
+        <v>1319871426</v>
       </c>
       <c r="E29" t="n">
-        <v>6066937236</v>
+        <v>6329053793</v>
       </c>
       <c r="F29" t="n">
-        <v>125525.6562976877</v>
+        <v>125763.2965992774</v>
       </c>
       <c r="G29" t="n">
-        <v>226027.7194737421</v>
+        <v>207485.6719916639</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>342167084</v>
+        <v>232299776</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>220223316</v>
+        <v>218151312</v>
       </c>
       <c r="E30" t="n">
-        <v>950606089</v>
+        <v>941662167</v>
       </c>
       <c r="F30" t="n">
-        <v>149115.6988177954</v>
+        <v>140901.3401167998</v>
       </c>
       <c r="G30" t="n">
-        <v>195066.3597550643</v>
+        <v>183746.079233016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>104957999</v>
+        <v>101604097</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5309816</v>
+        <v>5123384</v>
       </c>
       <c r="E31" t="n">
-        <v>5315826</v>
+        <v>5129183</v>
       </c>
       <c r="F31" t="n">
-        <v>433.7802788449202</v>
+        <v>302.3712388812694</v>
       </c>
       <c r="G31" t="n">
-        <v>320.9332463264611</v>
+        <v>1905.521862722966</v>
       </c>
       <c r="H31" t="n">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="I31" t="n">
-        <v>7569.94</v>
+        <v>156542</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11730401</v>
+        <v>11734797</v>
       </c>
       <c r="E32" t="n">
-        <v>29326004</v>
+        <v>29336993</v>
       </c>
       <c r="F32" t="n">
-        <v>3666.041466078553</v>
+        <v>2616.489852234639</v>
       </c>
       <c r="G32" t="n">
-        <v>2298.848761149201</v>
+        <v>3938.350293257869</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I32" t="n">
-        <v>3249662</v>
+        <v>2740155</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18439781</v>
+        <v>18290089</v>
       </c>
       <c r="F33" t="n">
-        <v>357.7717743040959</v>
+        <v>1419.736197983146</v>
       </c>
       <c r="G33" t="n">
-        <v>4548.480992314488</v>
+        <v>3048.329056990999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.54</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
-        <v>48507</v>
+        <v>33984</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4177052</v>
+        <v>4019025</v>
       </c>
       <c r="E34" t="n">
-        <v>12029063</v>
+        <v>11573979</v>
       </c>
       <c r="F34" t="n">
-        <v>1136.201355037461</v>
+        <v>1716.607633256425</v>
       </c>
       <c r="G34" t="n">
-        <v>1559.859690506168</v>
+        <v>859.8881451375145</v>
       </c>
       <c r="H34" t="n">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="I34" t="n">
-        <v>462835</v>
+        <v>480261</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1328535</v>
+        <v>1322063</v>
       </c>
       <c r="F35" t="n">
-        <v>1.291113782483898</v>
+        <v>44.51002470918715</v>
       </c>
       <c r="G35" t="n">
-        <v>75.7963116999795</v>
+        <v>100.9925224775637</v>
       </c>
       <c r="H35" t="n">
-        <v>2.21</v>
+        <v>1.52</v>
       </c>
       <c r="I35" t="n">
-        <v>10568.16</v>
+        <v>2298.05</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11323256</v>
+        <v>11295920</v>
       </c>
       <c r="E36" t="n">
-        <v>54840336</v>
+        <v>54707943</v>
       </c>
       <c r="F36" t="n">
-        <v>2417.126969546269</v>
+        <v>3306.824800164205</v>
       </c>
       <c r="G36" t="n">
-        <v>3113.02619150058</v>
+        <v>4624.073459559345</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I36" t="n">
-        <v>4493664</v>
+        <v>3227297</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1196808</v>
+        <v>1233083</v>
       </c>
       <c r="E37" t="n">
-        <v>7833079</v>
+        <v>8070495</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4544029278367959</v>
+        <v>152.9435060720536</v>
       </c>
       <c r="G37" t="n">
-        <v>529.7294690376258</v>
+        <v>774.4179046538598</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>1.23</v>
       </c>
       <c r="I37" t="n">
-        <v>84739</v>
+        <v>49305</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1737688579</v>
+        <v>1727655000</v>
       </c>
       <c r="F38" t="n">
-        <v>77576.36891856535</v>
+        <v>78058.59203606505</v>
       </c>
       <c r="G38" t="n">
-        <v>78263.81405035456</v>
+        <v>68439.68234180222</v>
       </c>
       <c r="H38" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
-        <v>34795247</v>
+        <v>31637637</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28242209</v>
+        <v>27171900</v>
       </c>
       <c r="E39" t="n">
-        <v>87937178</v>
+        <v>84604577</v>
       </c>
       <c r="F39" t="n">
-        <v>3404.463253764479</v>
+        <v>2470.407210728254</v>
       </c>
       <c r="G39" t="n">
-        <v>10737.57929853934</v>
+        <v>10613.56753654022</v>
       </c>
       <c r="H39" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I39" t="n">
-        <v>11285120</v>
+        <v>10612969</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>170432211</v>
+        <v>171948265</v>
       </c>
       <c r="E40" t="n">
-        <v>965091899</v>
+        <v>973676731</v>
       </c>
       <c r="F40" t="n">
-        <v>87087.31641220294</v>
+        <v>86150.78117334984</v>
       </c>
       <c r="G40" t="n">
-        <v>98505.03392662905</v>
+        <v>98918.29966975794</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>69112625</v>
+        <v>59647156</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>104486959</v>
+        <v>105271147</v>
       </c>
       <c r="E41" t="n">
-        <v>773977477</v>
+        <v>779786271</v>
       </c>
       <c r="F41" t="n">
-        <v>174157.5950635594</v>
+        <v>105632.1182587881</v>
       </c>
       <c r="G41" t="n">
-        <v>182331.1315536341</v>
+        <v>190722.7902114991</v>
       </c>
       <c r="H41" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>11746133</v>
+        <v>9251615</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25342403</v>
+        <v>25419651</v>
       </c>
       <c r="E42" t="n">
-        <v>119141691</v>
+        <v>119504855</v>
       </c>
       <c r="F42" t="n">
-        <v>7596.403168076627</v>
+        <v>684.3034889439215</v>
       </c>
       <c r="G42" t="n">
-        <v>8230.694050925753</v>
+        <v>3703.988665126429</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
-        <v>766683</v>
+        <v>719915</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3014677</v>
+        <v>3067935</v>
       </c>
       <c r="E43" t="n">
-        <v>7039774</v>
+        <v>7164139</v>
       </c>
       <c r="F43" t="n">
-        <v>1288.283551632325</v>
+        <v>3206.845607692219</v>
       </c>
       <c r="G43" t="n">
-        <v>466.2642230484999</v>
+        <v>949.637779740821</v>
       </c>
       <c r="H43" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="I43" t="n">
-        <v>450611</v>
+        <v>374085</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>286802620</v>
+        <v>288226705</v>
       </c>
       <c r="E44" t="n">
-        <v>2580254209</v>
+        <v>2593066164</v>
       </c>
       <c r="F44" t="n">
-        <v>60156.99280712469</v>
+        <v>55843.17342456429</v>
       </c>
       <c r="G44" t="n">
-        <v>58752.83868299418</v>
+        <v>47245.28538898538</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>52559139</v>
+        <v>41137692</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>646787</v>
+        <v>637408</v>
       </c>
       <c r="F45" t="n">
-        <v>199.3301002389622</v>
+        <v>449.3247559328661</v>
       </c>
       <c r="G45" t="n">
-        <v>380.128894875789</v>
+        <v>438.1948206444509</v>
       </c>
       <c r="H45" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>22982</v>
+        <v>17417.97</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1448748</v>
+        <v>1523113</v>
       </c>
       <c r="E46" t="n">
-        <v>12072897</v>
+        <v>12692610</v>
       </c>
       <c r="F46" t="n">
-        <v>1276.368814120254</v>
+        <v>506.4506831141738</v>
       </c>
       <c r="G46" t="n">
-        <v>284.0855067783984</v>
+        <v>160.4267947509972</v>
       </c>
       <c r="H46" t="n">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="I46" t="n">
-        <v>47407</v>
+        <v>69067</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4950800</v>
+        <v>4920787</v>
       </c>
       <c r="E47" t="n">
-        <v>17488953</v>
+        <v>17382454</v>
       </c>
       <c r="F47" t="n">
-        <v>1071.314462329807</v>
+        <v>1012.436604430323</v>
       </c>
       <c r="G47" t="n">
-        <v>1280.226908790752</v>
+        <v>1132.143736726621</v>
       </c>
       <c r="H47" t="n">
         <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>147592</v>
+        <v>117594</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>39615182</v>
+        <v>39648400</v>
       </c>
       <c r="E48" t="n">
-        <v>229355532</v>
+        <v>229547854</v>
       </c>
       <c r="F48" t="n">
-        <v>51831.3515371891</v>
+        <v>44326.14647766075</v>
       </c>
       <c r="G48" t="n">
-        <v>74676.82901162344</v>
+        <v>48291.0692304611</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>20415640</v>
+        <v>10949210</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1935823</v>
+        <v>1903385</v>
       </c>
       <c r="E49" t="n">
-        <v>10635744</v>
+        <v>10457527</v>
       </c>
       <c r="F49" t="n">
-        <v>1533.657168128537</v>
+        <v>2495.262381508525</v>
       </c>
       <c r="G49" t="n">
-        <v>637.6289919000878</v>
+        <v>1852.988465475032</v>
       </c>
       <c r="H49" t="n">
-        <v>0.93</v>
+        <v>1.89</v>
       </c>
       <c r="I49" t="n">
-        <v>63318</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12216797</v>
+        <v>12039677</v>
       </c>
       <c r="E50" t="n">
-        <v>12258378</v>
+        <v>12080656</v>
       </c>
       <c r="F50" t="n">
-        <v>7445.516970378751</v>
+        <v>7521.306983048985</v>
       </c>
       <c r="G50" t="n">
-        <v>6927.298946263473</v>
+        <v>6517.502004026126</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>8196123</v>
+        <v>6991670</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>15828899</v>
+        <v>16803591</v>
       </c>
       <c r="E51" t="n">
-        <v>46931737</v>
+        <v>49814703</v>
       </c>
       <c r="F51" t="n">
-        <v>123.526473521085</v>
+        <v>1602.178566394275</v>
       </c>
       <c r="G51" t="n">
-        <v>1907.410113561805</v>
+        <v>1582.987085711918</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="I51" t="n">
-        <v>7418045</v>
+        <v>5845844</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16222469</v>
+        <v>16360762</v>
       </c>
       <c r="E52" t="n">
-        <v>99432848</v>
+        <v>100280488</v>
       </c>
       <c r="F52" t="n">
-        <v>6598.195424701047</v>
+        <v>6114.7147622806</v>
       </c>
       <c r="G52" t="n">
-        <v>8331.13427796525</v>
+        <v>11116.09199768079</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I52" t="n">
-        <v>16626588</v>
+        <v>13752341</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>43308801</v>
+        <v>42116304</v>
       </c>
       <c r="E53" t="n">
-        <v>186569578</v>
+        <v>181432431</v>
       </c>
       <c r="F53" t="n">
-        <v>22536.05182370381</v>
+        <v>21882.14117963878</v>
       </c>
       <c r="G53" t="n">
-        <v>23613.26487565279</v>
+        <v>25149.16795943479</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>13308856</v>
+        <v>12010954</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>944880</v>
+        <v>946696</v>
       </c>
       <c r="E54" t="n">
-        <v>2761724</v>
+        <v>2767032</v>
       </c>
       <c r="F54" t="n">
-        <v>188.6971986326874</v>
+        <v>249.3038335558227</v>
       </c>
       <c r="G54" t="n">
-        <v>491.0673612458675</v>
+        <v>928.8479413776799</v>
       </c>
       <c r="H54" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="I54" t="n">
-        <v>18162.25</v>
+        <v>9895.299999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>28639874</v>
+        <v>28640033</v>
       </c>
       <c r="E55" t="n">
-        <v>72216012</v>
+        <v>72216414</v>
       </c>
       <c r="F55" t="n">
-        <v>12918.01510073502</v>
+        <v>10581.28972652837</v>
       </c>
       <c r="G55" t="n">
-        <v>16651.20683563504</v>
+        <v>7021.97276634554</v>
       </c>
       <c r="H55" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I55" t="n">
-        <v>3331169</v>
+        <v>3054842</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25036115</v>
+        <v>25697781</v>
       </c>
       <c r="E56" t="n">
-        <v>59383264</v>
+        <v>60952672</v>
       </c>
       <c r="F56" t="n">
-        <v>9589.164601858974</v>
+        <v>13671.02050750907</v>
       </c>
       <c r="G56" t="n">
-        <v>10124.50273586143</v>
+        <v>13482.99368254337</v>
       </c>
       <c r="H56" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I56" t="n">
-        <v>525890</v>
+        <v>297462</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11441230</v>
+        <v>11396767</v>
       </c>
       <c r="E57" t="n">
-        <v>17311944</v>
+        <v>17244667</v>
       </c>
       <c r="F57" t="n">
-        <v>3907.410271543828</v>
+        <v>4140.198461326574</v>
       </c>
       <c r="G57" t="n">
-        <v>3208.961562289033</v>
+        <v>8539.819075361051</v>
       </c>
       <c r="H57" t="n">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="I57" t="n">
-        <v>605741</v>
+        <v>597668</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>272950738</v>
+        <v>277887865</v>
       </c>
       <c r="E58" t="n">
-        <v>272950738</v>
+        <v>277887865</v>
       </c>
       <c r="F58" t="n">
-        <v>35853.66402072151</v>
+        <v>73646.3428174368</v>
       </c>
       <c r="G58" t="n">
-        <v>63921.45409793642</v>
+        <v>71719.69634246771</v>
       </c>
       <c r="H58" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>74835732</v>
+        <v>97832619</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>12011612</v>
+        <v>12105727</v>
       </c>
       <c r="F59" t="n">
-        <v>253.0573801718144</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>33.1265589276835</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.34</v>
+        <v>3.96</v>
       </c>
       <c r="I59" t="n">
-        <v>48155</v>
+        <v>34557</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>77846731</v>
+        <v>77851094</v>
       </c>
       <c r="E60" t="n">
-        <v>448586439</v>
+        <v>448611581</v>
       </c>
       <c r="F60" t="n">
-        <v>94281.07514817377</v>
+        <v>96643.79398966627</v>
       </c>
       <c r="G60" t="n">
-        <v>99790.86861016256</v>
+        <v>99315.49787260042</v>
       </c>
       <c r="H60" t="n">
         <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>19688688</v>
+        <v>18205558</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8484656</v>
+        <v>7976786</v>
       </c>
       <c r="E61" t="n">
-        <v>8484656</v>
+        <v>7976786</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.46</v>
+        <v>10.49</v>
       </c>
       <c r="I61" t="n">
-        <v>2451053</v>
+        <v>2328241</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29369814</v>
+        <v>33000061</v>
       </c>
       <c r="E62" t="n">
-        <v>131500708</v>
+        <v>147754810</v>
       </c>
       <c r="F62" t="n">
-        <v>27072.65242948922</v>
+        <v>11435.97363691257</v>
       </c>
       <c r="G62" t="n">
-        <v>20676.03790079806</v>
+        <v>21666.61025514475</v>
       </c>
       <c r="H62" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I62" t="n">
-        <v>24725470</v>
+        <v>26085390</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11415353</v>
+        <v>11531351</v>
       </c>
       <c r="E63" t="n">
-        <v>22814702</v>
+        <v>23046536</v>
       </c>
       <c r="F63" t="n">
-        <v>4.618098554208445</v>
+        <v>1977.749215022854</v>
       </c>
       <c r="G63" t="n">
-        <v>786.561560742854</v>
+        <v>1527.09275354467</v>
       </c>
       <c r="H63" t="n">
-        <v>1.22</v>
+        <v>0.49</v>
       </c>
       <c r="I63" t="n">
-        <v>50293</v>
+        <v>46907</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>989917</v>
+        <v>901477</v>
       </c>
       <c r="F64" t="n">
-        <v>1.856877399702474</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>16.27034244180733</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.17</v>
+        <v>4.27</v>
       </c>
       <c r="I64" t="n">
-        <v>40980</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>41864103</v>
+        <v>41865292</v>
       </c>
       <c r="E65" t="n">
-        <v>271477568</v>
+        <v>271485279</v>
       </c>
       <c r="F65" t="n">
-        <v>17761.16899794462</v>
+        <v>14835.53411489371</v>
       </c>
       <c r="G65" t="n">
-        <v>19920.43436952196</v>
+        <v>18952.71459801495</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I65" t="n">
-        <v>41555734</v>
+        <v>36294622</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4124385</v>
+        <v>4085475</v>
       </c>
       <c r="F66" t="n">
-        <v>82.06528866255695</v>
+        <v>554.7869867809098</v>
       </c>
       <c r="G66" t="n">
-        <v>99.26815323597907</v>
+        <v>216.1239461061141</v>
       </c>
       <c r="H66" t="n">
-        <v>2.21</v>
+        <v>0.88</v>
       </c>
       <c r="I66" t="n">
-        <v>267641</v>
+        <v>206392</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>122205030</v>
+        <v>121416360</v>
       </c>
       <c r="E67" t="n">
-        <v>2023815381</v>
+        <v>2010754361</v>
       </c>
       <c r="F67" t="n">
-        <v>171030.6538522189</v>
+        <v>171454.1378318653</v>
       </c>
       <c r="G67" t="n">
-        <v>166990.7904172221</v>
+        <v>151388.7267290499</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>24130419</v>
+        <v>19871364</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>20987510</v>
+        <v>21232300</v>
       </c>
       <c r="E68" t="n">
-        <v>125572491</v>
+        <v>127037121</v>
       </c>
       <c r="F68" t="n">
-        <v>39924.05811123147</v>
+        <v>37317.95504078901</v>
       </c>
       <c r="G68" t="n">
-        <v>38085.8663853751</v>
+        <v>39935.55021630169</v>
       </c>
       <c r="H68" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I68" t="n">
-        <v>17273985</v>
+        <v>14250339</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>18954859</v>
+        <v>17938976</v>
       </c>
       <c r="E70" t="n">
-        <v>18955630</v>
+        <v>17939228</v>
       </c>
       <c r="F70" t="n">
-        <v>976.1160278402757</v>
+        <v>2479.157754734528</v>
       </c>
       <c r="G70" t="n">
-        <v>16584.74172941105</v>
+        <v>3089.69873975991</v>
       </c>
       <c r="H70" t="n">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="I70" t="n">
-        <v>6826017</v>
+        <v>3156175</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34641365</v>
+        <v>34608341</v>
       </c>
       <c r="E71" t="n">
-        <v>172876382</v>
+        <v>172711573</v>
       </c>
       <c r="F71" t="n">
-        <v>10473.47294226387</v>
+        <v>11991.27431814168</v>
       </c>
       <c r="G71" t="n">
-        <v>59979.71157227489</v>
+        <v>65636.71843146025</v>
       </c>
       <c r="H71" t="n">
         <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>41701109</v>
+        <v>21913000</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>142616</v>
+        <v>141012</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>41752</v>
+        <v>24875</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>275795819</v>
+        <v>244620454</v>
       </c>
       <c r="E73" t="n">
-        <v>510285160</v>
+        <v>452603624</v>
       </c>
       <c r="F73" t="n">
-        <v>82527.6559039157</v>
+        <v>20672.57337289171</v>
       </c>
       <c r="G73" t="n">
-        <v>86494.11726305087</v>
+        <v>13268.75520004935</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="I73" t="n">
-        <v>19126112</v>
+        <v>33995014</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10362276</v>
+        <v>10085189</v>
       </c>
       <c r="E74" t="n">
-        <v>30328269</v>
+        <v>29517291</v>
       </c>
       <c r="F74" t="n">
-        <v>6989.062544916778</v>
+        <v>2275.091798897159</v>
       </c>
       <c r="G74" t="n">
-        <v>7086.70810319596</v>
+        <v>1289.102681870476</v>
       </c>
       <c r="H74" t="n">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="I74" t="n">
-        <v>6602315</v>
+        <v>5725059</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6603821</v>
+        <v>7049808</v>
       </c>
       <c r="E75" t="n">
-        <v>9361028</v>
+        <v>9990839</v>
       </c>
       <c r="F75" t="n">
-        <v>132.8466233394938</v>
+        <v>26.24125903008393</v>
       </c>
       <c r="G75" t="n">
-        <v>43.20290228572246</v>
+        <v>3702.392334769297</v>
       </c>
       <c r="H75" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I75" t="n">
-        <v>330542</v>
+        <v>338418</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>13296851</v>
+        <v>12749346</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8760793269102231</v>
+        <v>1.805885357877735</v>
       </c>
       <c r="G76" t="n">
-        <v>74.31899213509642</v>
+        <v>55.42073756293722</v>
       </c>
       <c r="H76" t="n">
-        <v>3.16</v>
+        <v>2.56</v>
       </c>
       <c r="I76" t="n">
-        <v>1149559</v>
+        <v>1084188</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>60562377</v>
+        <v>59018379</v>
       </c>
       <c r="E77" t="n">
-        <v>83666223</v>
+        <v>81500545</v>
       </c>
       <c r="F77" t="n">
-        <v>4537.937648810122</v>
+        <v>9260.073788561918</v>
       </c>
       <c r="G77" t="n">
-        <v>10845.14827180816</v>
+        <v>8822.962671282878</v>
       </c>
       <c r="H77" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I77" t="n">
-        <v>6254350</v>
+        <v>5345779</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5409450</v>
+        <v>5480251</v>
       </c>
       <c r="E78" t="n">
-        <v>5409450</v>
+        <v>5480251</v>
       </c>
       <c r="F78" t="n">
-        <v>1259.756473527634</v>
+        <v>2514.873036213413</v>
       </c>
       <c r="G78" t="n">
-        <v>1052.76855634996</v>
+        <v>493.177502249404</v>
       </c>
       <c r="H78" t="n">
         <v>2.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1063070</v>
+        <v>955572</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53754</v>
+        <v>55612</v>
       </c>
       <c r="E79" t="n">
-        <v>280465</v>
+        <v>290161</v>
       </c>
       <c r="F79" t="n">
-        <v>72.64624382174468</v>
+        <v>220.7056533756411</v>
       </c>
       <c r="G79" t="n">
-        <v>20.78819017712728</v>
+        <v>60.46527171686519</v>
       </c>
       <c r="H79" t="n">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="I79" t="n">
-        <v>180201</v>
+        <v>189396</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>22682891</v>
+        <v>23114509</v>
       </c>
       <c r="F80" t="n">
-        <v>217.6388087754939</v>
+        <v>390.4684376477898</v>
       </c>
       <c r="G80" t="n">
-        <v>6459.174981018893</v>
+        <v>252.5256536521157</v>
       </c>
       <c r="H80" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="I80" t="n">
-        <v>28198</v>
+        <v>29693</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>543320799</v>
+        <v>550007443</v>
       </c>
       <c r="E81" t="n">
-        <v>2104201293</v>
+        <v>2130097679</v>
       </c>
       <c r="F81" t="n">
-        <v>82666.9062044786</v>
+        <v>69010.25615752822</v>
       </c>
       <c r="G81" t="n">
-        <v>75707.32562873971</v>
+        <v>56928.2131855643</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>47240789</v>
+        <v>38827224</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6654239</v>
+        <v>6320621</v>
       </c>
       <c r="E82" t="n">
-        <v>9532724</v>
+        <v>9054238</v>
       </c>
       <c r="F82" t="n">
-        <v>2009.38954674445</v>
+        <v>2153.417892960397</v>
       </c>
       <c r="G82" t="n">
-        <v>1173.155637188539</v>
+        <v>587.1465157206251</v>
       </c>
       <c r="H82" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I82" t="n">
-        <v>209343</v>
+        <v>179699</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>94353851</v>
+        <v>94649709</v>
       </c>
       <c r="E83" t="n">
-        <v>892753746</v>
+        <v>895553086</v>
       </c>
       <c r="F83" t="n">
-        <v>34365.80653904039</v>
+        <v>34423.90618329372</v>
       </c>
       <c r="G83" t="n">
-        <v>28988.30464865608</v>
+        <v>30133.31470361684</v>
       </c>
       <c r="H83" t="n">
         <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>13873949</v>
+        <v>12246868</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1014920</v>
+        <v>1043939</v>
       </c>
       <c r="E84" t="n">
-        <v>3929992</v>
+        <v>4042360</v>
       </c>
       <c r="F84" t="n">
-        <v>1370.265935761181</v>
+        <v>603.8833090982483</v>
       </c>
       <c r="G84" t="n">
-        <v>1424.377017399468</v>
+        <v>378.7099198893493</v>
       </c>
       <c r="H84" t="n">
         <v>0.25</v>
       </c>
       <c r="I84" t="n">
-        <v>86656</v>
+        <v>102921</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>125419797</v>
+        <v>127498149</v>
       </c>
       <c r="E85" t="n">
-        <v>481130530</v>
+        <v>489103422</v>
       </c>
       <c r="F85" t="n">
-        <v>76117.00719568746</v>
+        <v>73414.83351086812</v>
       </c>
       <c r="G85" t="n">
-        <v>78008.53956362371</v>
+        <v>86580.66258519961</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>27529061</v>
+        <v>30277520</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4751691</v>
+        <v>4529599</v>
       </c>
       <c r="E86" t="n">
-        <v>17511098</v>
+        <v>16658137</v>
       </c>
       <c r="F86" t="n">
-        <v>5365.226753676337</v>
+        <v>5474.602577132083</v>
       </c>
       <c r="G86" t="n">
-        <v>5212.110800334382</v>
+        <v>5901.755412201608</v>
       </c>
       <c r="H86" t="n">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="I86" t="n">
-        <v>103636</v>
+        <v>90612</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>34781597</v>
+        <v>28754319</v>
       </c>
       <c r="F87" t="n">
-        <v>4641.330238601622</v>
+        <v>3330.905746320445</v>
       </c>
       <c r="G87" t="n">
-        <v>2531.296789947346</v>
+        <v>897.1730967042866</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I87" t="n">
-        <v>7960406</v>
+        <v>10077372</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>18254744</v>
+        <v>17968493</v>
       </c>
       <c r="F88" t="n">
-        <v>797.6972699953374</v>
+        <v>830.2780100338335</v>
       </c>
       <c r="G88" t="n">
-        <v>594.7758383893646</v>
+        <v>751.6017943149914</v>
       </c>
       <c r="H88" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I88" t="n">
-        <v>75293</v>
+        <v>39420</v>
       </c>
     </row>
     <row r="89">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Infrastructure, Smart Contract Platform, Venom Ecosystem</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>108737930</v>
+        <v>115563296</v>
       </c>
       <c r="E89" t="n">
-        <v>396366119</v>
+        <v>421231036</v>
       </c>
       <c r="F89" t="n">
-        <v>4023.271109355564</v>
+        <v>1926.846223568328</v>
       </c>
       <c r="G89" t="n">
-        <v>2694.800587568444</v>
+        <v>2353.628417748528</v>
       </c>
       <c r="H89" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="I89" t="n">
-        <v>465346</v>
+        <v>912761</v>
       </c>
     </row>
     <row r="90">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Meme, Dog-Themed, DWF Labs Portfolio</t>
+          <t>BNB Chain Ecosystem, Meme, Dog-Themed, DWF Labs Portfolio, Binance Alpha Spotlight</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19814981</v>
+        <v>23319815</v>
       </c>
       <c r="E90" t="n">
-        <v>19814981</v>
+        <v>23319815</v>
       </c>
       <c r="F90" t="n">
-        <v>2416.045723517809</v>
+        <v>3835.286807878049</v>
       </c>
       <c r="G90" t="n">
-        <v>4896.870859380107</v>
+        <v>1616.79129360151</v>
       </c>
       <c r="H90" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="I90" t="n">
-        <v>7873921</v>
+        <v>13829607</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3505085</v>
+        <v>3652632</v>
       </c>
       <c r="E91" t="n">
-        <v>7610912</v>
+        <v>7923599</v>
       </c>
       <c r="F91" t="n">
-        <v>1789.597434613669</v>
+        <v>2332.626154392397</v>
       </c>
       <c r="G91" t="n">
-        <v>999.7064657828273</v>
+        <v>704.7016429088102</v>
       </c>
       <c r="H91" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2298629</v>
+        <v>2098966</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>399310721</v>
+        <v>395498732</v>
       </c>
       <c r="E92" t="n">
-        <v>1386452166</v>
+        <v>1373216509</v>
       </c>
       <c r="F92" t="n">
-        <v>186085.6617358717</v>
+        <v>127096.4776611304</v>
       </c>
       <c r="G92" t="n">
-        <v>190768.604133639</v>
+        <v>126195.3412038081</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>44924855</v>
+        <v>40256033</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1885347</v>
+        <v>1852619</v>
       </c>
       <c r="E93" t="n">
-        <v>7541389</v>
+        <v>7410477</v>
       </c>
       <c r="F93" t="n">
-        <v>20549.72822203288</v>
+        <v>19494.86380888626</v>
       </c>
       <c r="G93" t="n">
-        <v>2082.42872156905</v>
+        <v>2378.383326376633</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>7152730</v>
+        <v>6675870</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>195635609</v>
+        <v>196425536</v>
       </c>
       <c r="E94" t="n">
-        <v>601505875</v>
+        <v>603934605</v>
       </c>
       <c r="F94" t="n">
-        <v>91962.60834675928</v>
+        <v>92088.63529538995</v>
       </c>
       <c r="G94" t="n">
-        <v>94680.2966012715</v>
+        <v>82306.53903936892</v>
       </c>
       <c r="H94" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>18096712</v>
+        <v>15880301</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>109320903</v>
+        <v>108201682</v>
       </c>
       <c r="E95" t="n">
-        <v>285597826</v>
+        <v>282673891</v>
       </c>
       <c r="F95" t="n">
-        <v>3894.299431462319</v>
+        <v>33464.92009630134</v>
       </c>
       <c r="G95" t="n">
-        <v>5378.660125954138</v>
+        <v>31979.91282946409</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>13769025</v>
+        <v>11989657</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>361990826</v>
+        <v>363108746</v>
       </c>
       <c r="E96" t="n">
-        <v>2068519006</v>
+        <v>2074907121</v>
       </c>
       <c r="F96" t="n">
-        <v>24427.68393391063</v>
+        <v>28218.27287800985</v>
       </c>
       <c r="G96" t="n">
-        <v>34796.13368087289</v>
+        <v>36911.025644421</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>52269569</v>
+        <v>42854387</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>503076264</v>
+        <v>489362168</v>
       </c>
       <c r="E2" t="n">
-        <v>977576509</v>
+        <v>945329198</v>
       </c>
       <c r="F2" t="n">
-        <v>15253.83858166703</v>
+        <v>20395.68844885589</v>
       </c>
       <c r="G2" t="n">
-        <v>29167.07940499779</v>
+        <v>33636.81757655426</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I2" t="n">
-        <v>26476137</v>
+        <v>30629806</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295689</v>
+        <v>1274626</v>
       </c>
       <c r="E3" t="n">
-        <v>4079054</v>
+        <v>4012744</v>
       </c>
       <c r="F3" t="n">
-        <v>3739.163504053195</v>
+        <v>4318.388244336808</v>
       </c>
       <c r="G3" t="n">
-        <v>4518.798803362941</v>
+        <v>4787.197873447345</v>
       </c>
       <c r="H3" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>204040</v>
+        <v>265200</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>216629139</v>
+        <v>238860897</v>
       </c>
       <c r="E4" t="n">
-        <v>1358450884</v>
+        <v>1497863109</v>
       </c>
       <c r="F4" t="n">
-        <v>132819.3344859644</v>
+        <v>80946.74862908044</v>
       </c>
       <c r="G4" t="n">
-        <v>134079.5922076126</v>
+        <v>82430.36079954251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I4" t="n">
-        <v>19006397</v>
+        <v>51855283</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129099030</v>
+        <v>137778994</v>
       </c>
       <c r="E5" t="n">
-        <v>143061900</v>
+        <v>152680655</v>
       </c>
       <c r="F5" t="n">
-        <v>16234.07974651226</v>
+        <v>13253.16165898341</v>
       </c>
       <c r="G5" t="n">
-        <v>30394.33649911857</v>
+        <v>23580.96407229644</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>25534734</v>
+        <v>36622599</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>610721</v>
+        <v>593128</v>
       </c>
       <c r="E6" t="n">
-        <v>11837372</v>
+        <v>11479374</v>
       </c>
       <c r="F6" t="n">
-        <v>325.0734899965743</v>
+        <v>585.9608898636053</v>
       </c>
       <c r="G6" t="n">
-        <v>237.5188852098655</v>
+        <v>286.7511947846925</v>
       </c>
       <c r="H6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7245.9</v>
+        <v>9159.15</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>387474082</v>
+        <v>375521845</v>
       </c>
       <c r="E7" t="n">
-        <v>387474082</v>
+        <v>375521846</v>
       </c>
       <c r="F7" t="n">
-        <v>40328.45313761885</v>
+        <v>38895.80497761829</v>
       </c>
       <c r="G7" t="n">
-        <v>43912.64019796418</v>
+        <v>53576.60023135056</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>35569203</v>
+        <v>35956610</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3920704</v>
+        <v>3846505</v>
       </c>
       <c r="E8" t="n">
-        <v>3920704</v>
+        <v>3846505</v>
       </c>
       <c r="F8" t="n">
-        <v>1312.055025936991</v>
+        <v>665.998627428438</v>
       </c>
       <c r="G8" t="n">
-        <v>1022.091198994163</v>
+        <v>1300.873917056989</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2756774</v>
+        <v>2903980</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1647237</v>
+        <v>1555299</v>
       </c>
       <c r="F9" t="n">
-        <v>288.6175029477973</v>
+        <v>418.0461970695079</v>
       </c>
       <c r="G9" t="n">
-        <v>257.2610824801239</v>
+        <v>4777.761313445792</v>
       </c>
       <c r="H9" t="n">
-        <v>2.15</v>
+        <v>1.21</v>
       </c>
       <c r="I9" t="n">
-        <v>269728</v>
+        <v>277733</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1642500</v>
+        <v>1645588</v>
       </c>
       <c r="F10" t="n">
-        <v>324.80154968714</v>
+        <v>192.1586449483232</v>
       </c>
       <c r="G10" t="n">
-        <v>290.0618886519479</v>
+        <v>55.95194838446795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I10" t="n">
-        <v>189424</v>
+        <v>213524</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96672196</v>
+        <v>93885500</v>
       </c>
       <c r="E11" t="n">
-        <v>182118958</v>
+        <v>176869152</v>
       </c>
       <c r="F11" t="n">
-        <v>1352.252430876524</v>
+        <v>1365.863001679504</v>
       </c>
       <c r="G11" t="n">
-        <v>2139.204882250523</v>
+        <v>1555.501720191545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3665360</v>
+        <v>4014483</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10812442</v>
+        <v>10598957</v>
       </c>
       <c r="E12" t="n">
-        <v>26910212</v>
+        <v>26378887</v>
       </c>
       <c r="F12" t="n">
-        <v>1016.87956406966</v>
+        <v>836.4187914604762</v>
       </c>
       <c r="G12" t="n">
-        <v>885.1871610288678</v>
+        <v>697.8894888427321</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>1243856</v>
+        <v>1121657</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98643259</v>
+        <v>102943210</v>
       </c>
       <c r="E13" t="n">
-        <v>380916175</v>
+        <v>397283501</v>
       </c>
       <c r="F13" t="n">
-        <v>17353.17654234688</v>
+        <v>8936.685156526835</v>
       </c>
       <c r="G13" t="n">
-        <v>11966.28160725695</v>
+        <v>23737.68856624723</v>
       </c>
       <c r="H13" t="n">
-        <v>0.76</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>6002283</v>
+        <v>10845996</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4133579</v>
+        <v>4063204</v>
       </c>
       <c r="E14" t="n">
-        <v>6084852</v>
+        <v>5981256</v>
       </c>
       <c r="F14" t="n">
-        <v>267.5967664309381</v>
+        <v>98.58060405395797</v>
       </c>
       <c r="G14" t="n">
-        <v>493.9180828733951</v>
+        <v>493.4835579390873</v>
       </c>
       <c r="H14" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>518533</v>
+        <v>554466</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>127513746</v>
+        <v>128893951</v>
       </c>
       <c r="E15" t="n">
-        <v>127513746</v>
+        <v>128893951</v>
       </c>
       <c r="F15" t="n">
-        <v>89327.06828357658</v>
+        <v>77340.72905186108</v>
       </c>
       <c r="G15" t="n">
-        <v>102138.3953328361</v>
+        <v>111684.1745734084</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>75864499</v>
+        <v>80367391</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65217990</v>
+        <v>69128710</v>
       </c>
       <c r="E16" t="n">
-        <v>334451230</v>
+        <v>354506203</v>
       </c>
       <c r="F16" t="n">
-        <v>34600.78832826298</v>
+        <v>23383.0299571557</v>
       </c>
       <c r="G16" t="n">
-        <v>24442.17868841499</v>
+        <v>24747.20889256061</v>
       </c>
       <c r="H16" t="n">
         <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>20493163</v>
+        <v>29028525</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>211781683</v>
+        <v>209690566</v>
       </c>
       <c r="E17" t="n">
-        <v>211781683</v>
+        <v>209690566</v>
       </c>
       <c r="F17" t="n">
-        <v>43483.85866560644</v>
+        <v>32774.92463688517</v>
       </c>
       <c r="G17" t="n">
-        <v>61817.53042846554</v>
+        <v>67194.07655351172</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>24045325</v>
+        <v>38112228</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2274965</v>
+        <v>2263778</v>
       </c>
       <c r="E18" t="n">
-        <v>5815556</v>
+        <v>5786957</v>
       </c>
       <c r="F18" t="n">
-        <v>618.262807514804</v>
+        <v>550.2432593610616</v>
       </c>
       <c r="G18" t="n">
-        <v>1321.11985690355</v>
+        <v>788.9269197521139</v>
       </c>
       <c r="H18" t="n">
         <v>0.34</v>
       </c>
       <c r="I18" t="n">
-        <v>69056</v>
+        <v>66153</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68602812</v>
+        <v>75359306</v>
       </c>
       <c r="E19" t="n">
-        <v>192196346</v>
+        <v>210894962</v>
       </c>
       <c r="F19" t="n">
-        <v>23695.22590436313</v>
+        <v>21316.65785622248</v>
       </c>
       <c r="G19" t="n">
-        <v>15954.44888002819</v>
+        <v>25998.68149590172</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>28722621</v>
+        <v>63353206</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1736409</v>
+        <v>1706929</v>
       </c>
       <c r="E20" t="n">
-        <v>9969811</v>
+        <v>9800548</v>
       </c>
       <c r="F20" t="n">
-        <v>243.0375279342181</v>
+        <v>35.98524046994975</v>
       </c>
       <c r="G20" t="n">
-        <v>1174.627923950213</v>
+        <v>696.5893372888802</v>
       </c>
       <c r="H20" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="I20" t="n">
-        <v>323269</v>
+        <v>261060</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151839</v>
+        <v>142293</v>
       </c>
       <c r="E21" t="n">
-        <v>1025386</v>
+        <v>960918</v>
       </c>
       <c r="F21" t="n">
-        <v>4.978553519441509</v>
+        <v>2.686654399770092</v>
       </c>
       <c r="G21" t="n">
-        <v>138.2395105256625</v>
+        <v>116.1854721865412</v>
       </c>
       <c r="H21" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I21" t="n">
-        <v>2976662</v>
+        <v>2660727</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>235517</v>
+        <v>235243</v>
       </c>
       <c r="F22" t="n">
-        <v>60.65796306596039</v>
+        <v>1.306568678969733</v>
       </c>
       <c r="G22" t="n">
-        <v>606.5954910985405</v>
+        <v>241.069837534329</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>1.89</v>
       </c>
       <c r="I22" t="n">
-        <v>9879.48</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75461524</v>
+        <v>73162130</v>
       </c>
       <c r="E23" t="n">
-        <v>157331216</v>
+        <v>152537165</v>
       </c>
       <c r="F23" t="n">
-        <v>36588.58825450044</v>
+        <v>33763.73702183261</v>
       </c>
       <c r="G23" t="n">
-        <v>46908.18303447856</v>
+        <v>45403.47751965259</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>15262420</v>
+        <v>16615568</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>195188083</v>
+        <v>201474256</v>
       </c>
       <c r="E24" t="n">
-        <v>678101039</v>
+        <v>699939774</v>
       </c>
       <c r="F24" t="n">
-        <v>58137.35041055823</v>
+        <v>55765.05080424961</v>
       </c>
       <c r="G24" t="n">
-        <v>56714.67668449957</v>
+        <v>50571.23287134981</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>37547064</v>
+        <v>44389419</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>104640194</v>
+        <v>104657928</v>
       </c>
       <c r="E25" t="n">
-        <v>438518858</v>
+        <v>438123053</v>
       </c>
       <c r="F25" t="n">
-        <v>13982.9035217187</v>
+        <v>16886.355315407</v>
       </c>
       <c r="G25" t="n">
-        <v>14611.05183697753</v>
+        <v>15807.87054006567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>17300664</v>
+        <v>17495505</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5000954</v>
+        <v>4994468</v>
       </c>
       <c r="E26" t="n">
-        <v>6761738</v>
+        <v>6751774</v>
       </c>
       <c r="F26" t="n">
-        <v>1138.277418907924</v>
+        <v>1092.858763518407</v>
       </c>
       <c r="G26" t="n">
-        <v>377.3743571711761</v>
+        <v>469.0322538086281</v>
       </c>
       <c r="H26" t="n">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3710779</v>
+        <v>4750954</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>391005</v>
+        <v>345744</v>
       </c>
       <c r="E27" t="n">
-        <v>4742510</v>
+        <v>4193532</v>
       </c>
       <c r="F27" t="n">
-        <v>307.9599854958973</v>
+        <v>474.7991559565239</v>
       </c>
       <c r="G27" t="n">
-        <v>480.3811622852097</v>
+        <v>303.1319112137253</v>
       </c>
       <c r="H27" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="I27" t="n">
-        <v>2238833</v>
+        <v>2079970</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23827443</v>
+        <v>22335188</v>
       </c>
       <c r="E28" t="n">
-        <v>33638080</v>
+        <v>31531408</v>
       </c>
       <c r="F28" t="n">
-        <v>76.4563605199894</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>279.797112448892</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.23</v>
+        <v>3.93</v>
       </c>
       <c r="I28" t="n">
-        <v>101957</v>
+        <v>101673</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1319871426</v>
+        <v>1357009164</v>
       </c>
       <c r="E29" t="n">
-        <v>6329053793</v>
+        <v>6507136850</v>
       </c>
       <c r="F29" t="n">
-        <v>125763.2965992774</v>
+        <v>109781.2526394753</v>
       </c>
       <c r="G29" t="n">
-        <v>207485.6719916639</v>
+        <v>220791.2890630726</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>232299776</v>
+        <v>318154211</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>218151312</v>
+        <v>225323051</v>
       </c>
       <c r="E30" t="n">
-        <v>941662167</v>
+        <v>972619372</v>
       </c>
       <c r="F30" t="n">
-        <v>140901.3401167998</v>
+        <v>140688.1326080761</v>
       </c>
       <c r="G30" t="n">
-        <v>183746.079233016</v>
+        <v>193634.2602736865</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>101604097</v>
+        <v>130060923</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5123384</v>
+        <v>5094066</v>
       </c>
       <c r="E31" t="n">
-        <v>5129183</v>
+        <v>5099831</v>
       </c>
       <c r="F31" t="n">
-        <v>302.3712388812694</v>
+        <v>405.1949396281254</v>
       </c>
       <c r="G31" t="n">
-        <v>1905.521862722966</v>
+        <v>708.8105900796215</v>
       </c>
       <c r="H31" t="n">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="I31" t="n">
-        <v>156542</v>
+        <v>156864</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11734797</v>
+        <v>12165159</v>
       </c>
       <c r="E32" t="n">
-        <v>29336993</v>
+        <v>30412898</v>
       </c>
       <c r="F32" t="n">
-        <v>2616.489852234639</v>
+        <v>2133.879256600962</v>
       </c>
       <c r="G32" t="n">
-        <v>3938.350293257869</v>
+        <v>3658.806537827021</v>
       </c>
       <c r="H32" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I32" t="n">
-        <v>2740155</v>
+        <v>3095101</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18290089</v>
+        <v>18022414</v>
       </c>
       <c r="F33" t="n">
-        <v>1419.736197983146</v>
+        <v>759.4937318945646</v>
       </c>
       <c r="G33" t="n">
-        <v>3048.329056990999</v>
+        <v>2574.900139815399</v>
       </c>
       <c r="H33" t="n">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="I33" t="n">
-        <v>33984</v>
+        <v>46960</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4019025</v>
+        <v>3803143</v>
       </c>
       <c r="E34" t="n">
-        <v>11573979</v>
+        <v>10952213</v>
       </c>
       <c r="F34" t="n">
-        <v>1716.607633256425</v>
+        <v>2383.064835815498</v>
       </c>
       <c r="G34" t="n">
-        <v>859.8881451375145</v>
+        <v>638.3745972199516</v>
       </c>
       <c r="H34" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="I34" t="n">
-        <v>480261</v>
+        <v>443219</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1322063</v>
+        <v>1290210</v>
       </c>
       <c r="F35" t="n">
-        <v>44.51002470918715</v>
+        <v>872.4741755352837</v>
       </c>
       <c r="G35" t="n">
-        <v>100.9925224775637</v>
+        <v>236.8496310791493</v>
       </c>
       <c r="H35" t="n">
-        <v>1.52</v>
+        <v>0.78</v>
       </c>
       <c r="I35" t="n">
-        <v>2298.05</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11295920</v>
+        <v>11377966</v>
       </c>
       <c r="E36" t="n">
-        <v>54707943</v>
+        <v>55105304</v>
       </c>
       <c r="F36" t="n">
-        <v>3306.824800164205</v>
+        <v>6336.72363634841</v>
       </c>
       <c r="G36" t="n">
-        <v>4624.073459559345</v>
+        <v>5458.477304771912</v>
       </c>
       <c r="H36" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="I36" t="n">
-        <v>3227297</v>
+        <v>3048642</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1233083</v>
+        <v>1165566</v>
       </c>
       <c r="E37" t="n">
-        <v>8070495</v>
+        <v>7628599</v>
       </c>
       <c r="F37" t="n">
-        <v>152.9435060720536</v>
+        <v>251.6988460983276</v>
       </c>
       <c r="G37" t="n">
-        <v>774.4179046538598</v>
+        <v>704.947509146562</v>
       </c>
       <c r="H37" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="I37" t="n">
-        <v>49305</v>
+        <v>53272</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1727655000</v>
+        <v>1714869395</v>
       </c>
       <c r="F38" t="n">
-        <v>78058.59203606505</v>
+        <v>73480.77328443999</v>
       </c>
       <c r="G38" t="n">
-        <v>68439.68234180222</v>
+        <v>75891.83738657911</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I38" t="n">
-        <v>31637637</v>
+        <v>31669737</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27171900</v>
+        <v>26622491</v>
       </c>
       <c r="E39" t="n">
-        <v>84604577</v>
+        <v>82893895</v>
       </c>
       <c r="F39" t="n">
-        <v>2470.407210728254</v>
+        <v>4340.302194735831</v>
       </c>
       <c r="G39" t="n">
-        <v>10613.56753654022</v>
+        <v>7463.581823803162</v>
       </c>
       <c r="H39" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="I39" t="n">
-        <v>10612969</v>
+        <v>11335020</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>171948265</v>
+        <v>177901288</v>
       </c>
       <c r="E40" t="n">
-        <v>973676731</v>
+        <v>1007386402</v>
       </c>
       <c r="F40" t="n">
-        <v>86150.78117334984</v>
+        <v>78462.4780374773</v>
       </c>
       <c r="G40" t="n">
-        <v>98918.29966975794</v>
+        <v>87879.56492566135</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>59647156</v>
+        <v>68236068</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>105271147</v>
+        <v>98951190</v>
       </c>
       <c r="E41" t="n">
-        <v>779786271</v>
+        <v>732971779</v>
       </c>
       <c r="F41" t="n">
-        <v>105632.1182587881</v>
+        <v>153328.874575338</v>
       </c>
       <c r="G41" t="n">
-        <v>190722.7902114991</v>
+        <v>185723.321091904</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>9251615</v>
+        <v>10077837</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25419651</v>
+        <v>25269326</v>
       </c>
       <c r="E42" t="n">
-        <v>119504855</v>
+        <v>118767540</v>
       </c>
       <c r="F42" t="n">
-        <v>684.3034889439215</v>
+        <v>7806.950983247667</v>
       </c>
       <c r="G42" t="n">
-        <v>3703.988665126429</v>
+        <v>8031.157510770646</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="I42" t="n">
-        <v>719915</v>
+        <v>669281</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3067935</v>
+        <v>2989737</v>
       </c>
       <c r="E43" t="n">
-        <v>7164139</v>
+        <v>6981534</v>
       </c>
       <c r="F43" t="n">
-        <v>3206.845607692219</v>
+        <v>1052.473458624678</v>
       </c>
       <c r="G43" t="n">
-        <v>949.637779740821</v>
+        <v>744.1641446781008</v>
       </c>
       <c r="H43" t="n">
-        <v>0.64</v>
+        <v>1.34</v>
       </c>
       <c r="I43" t="n">
-        <v>374085</v>
+        <v>386474</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>288226705</v>
+        <v>293276369</v>
       </c>
       <c r="E44" t="n">
-        <v>2593066164</v>
+        <v>2638496066</v>
       </c>
       <c r="F44" t="n">
-        <v>55843.17342456429</v>
+        <v>46560.6503343914</v>
       </c>
       <c r="G44" t="n">
-        <v>47245.28538898538</v>
+        <v>61986.36241068281</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>41137692</v>
+        <v>47908762</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>637408</v>
+        <v>623040</v>
       </c>
       <c r="F45" t="n">
-        <v>449.3247559328661</v>
+        <v>445.7523708030253</v>
       </c>
       <c r="G45" t="n">
-        <v>438.1948206444509</v>
+        <v>1370.781197821625</v>
       </c>
       <c r="H45" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="I45" t="n">
-        <v>17417.97</v>
+        <v>13624.74</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1523113</v>
+        <v>1531067</v>
       </c>
       <c r="E46" t="n">
-        <v>12692610</v>
+        <v>12758893</v>
       </c>
       <c r="F46" t="n">
-        <v>506.4506831141738</v>
+        <v>712.6470523996974</v>
       </c>
       <c r="G46" t="n">
-        <v>160.4267947509972</v>
+        <v>1373.712009551448</v>
       </c>
       <c r="H46" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="I46" t="n">
-        <v>69067</v>
+        <v>81609</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4920787</v>
+        <v>4893906</v>
       </c>
       <c r="E47" t="n">
-        <v>17382454</v>
+        <v>17287397</v>
       </c>
       <c r="F47" t="n">
-        <v>1012.436604430323</v>
+        <v>860.8572894881388</v>
       </c>
       <c r="G47" t="n">
-        <v>1132.143736726621</v>
+        <v>1724.743521231398</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>117594</v>
+        <v>110944</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>39648400</v>
+        <v>40134973</v>
       </c>
       <c r="E48" t="n">
-        <v>229547854</v>
+        <v>232364911</v>
       </c>
       <c r="F48" t="n">
-        <v>44326.14647766075</v>
+        <v>43718.12757915199</v>
       </c>
       <c r="G48" t="n">
-        <v>48291.0692304611</v>
+        <v>36304.31723993923</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="n">
-        <v>10949210</v>
+        <v>12861673</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1903385</v>
+        <v>1921960</v>
       </c>
       <c r="E49" t="n">
-        <v>10457527</v>
+        <v>10559577</v>
       </c>
       <c r="F49" t="n">
-        <v>2495.262381508525</v>
+        <v>3498.964299458346</v>
       </c>
       <c r="G49" t="n">
-        <v>1852.988465475032</v>
+        <v>2143.064906927355</v>
       </c>
       <c r="H49" t="n">
         <v>1.89</v>
       </c>
       <c r="I49" t="n">
-        <v>44918</v>
+        <v>51191</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12039677</v>
+        <v>12101221</v>
       </c>
       <c r="E50" t="n">
-        <v>12080656</v>
+        <v>12142410</v>
       </c>
       <c r="F50" t="n">
-        <v>7521.306983048985</v>
+        <v>6929.419970937185</v>
       </c>
       <c r="G50" t="n">
-        <v>6517.502004026126</v>
+        <v>8500.16583203341</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>6991670</v>
+        <v>7069393</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>16803591</v>
+        <v>16897805</v>
       </c>
       <c r="E51" t="n">
-        <v>49814703</v>
+        <v>50093393</v>
       </c>
       <c r="F51" t="n">
-        <v>1602.178566394275</v>
+        <v>3112.021720964608</v>
       </c>
       <c r="G51" t="n">
-        <v>1582.987085711918</v>
+        <v>24646.58969493671</v>
       </c>
       <c r="H51" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I51" t="n">
-        <v>5845844</v>
+        <v>5856893</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16360762</v>
+        <v>15890008</v>
       </c>
       <c r="E52" t="n">
-        <v>100280488</v>
+        <v>97395084</v>
       </c>
       <c r="F52" t="n">
-        <v>6114.7147622806</v>
+        <v>5936.373336431378</v>
       </c>
       <c r="G52" t="n">
-        <v>11116.09199768079</v>
+        <v>7222.511377003689</v>
       </c>
       <c r="H52" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I52" t="n">
-        <v>13752341</v>
+        <v>14807970</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>42116304</v>
+        <v>42084544</v>
       </c>
       <c r="E53" t="n">
-        <v>181432431</v>
+        <v>181295615</v>
       </c>
       <c r="F53" t="n">
-        <v>21882.14117963878</v>
+        <v>17725.38023150473</v>
       </c>
       <c r="G53" t="n">
-        <v>25149.16795943479</v>
+        <v>19773.33916242543</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I53" t="n">
-        <v>12010954</v>
+        <v>13722217</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>946696</v>
+        <v>937023</v>
       </c>
       <c r="E54" t="n">
-        <v>2767032</v>
+        <v>2738760</v>
       </c>
       <c r="F54" t="n">
-        <v>249.3038335558227</v>
+        <v>749.7133436687085</v>
       </c>
       <c r="G54" t="n">
-        <v>928.8479413776799</v>
+        <v>203.6008608270378</v>
       </c>
       <c r="H54" t="n">
-        <v>1.06</v>
+        <v>0.36</v>
       </c>
       <c r="I54" t="n">
-        <v>9895.299999999999</v>
+        <v>11982.93</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>28640033</v>
+        <v>27782238</v>
       </c>
       <c r="E55" t="n">
-        <v>72216414</v>
+        <v>70053466</v>
       </c>
       <c r="F55" t="n">
-        <v>10581.28972652837</v>
+        <v>8045.033783372412</v>
       </c>
       <c r="G55" t="n">
-        <v>7021.97276634554</v>
+        <v>7392.047327880547</v>
       </c>
       <c r="H55" t="n">
-        <v>0.26</v>
+        <v>0.88</v>
       </c>
       <c r="I55" t="n">
-        <v>3054842</v>
+        <v>2642218</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25697781</v>
+        <v>25299642</v>
       </c>
       <c r="E56" t="n">
-        <v>60952672</v>
+        <v>60008324</v>
       </c>
       <c r="F56" t="n">
-        <v>13671.02050750907</v>
+        <v>13235.97238335677</v>
       </c>
       <c r="G56" t="n">
-        <v>13482.99368254337</v>
+        <v>10351.30396476457</v>
       </c>
       <c r="H56" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>297462</v>
+        <v>319054</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11396767</v>
+        <v>11529112</v>
       </c>
       <c r="E57" t="n">
-        <v>17244667</v>
+        <v>17424141</v>
       </c>
       <c r="F57" t="n">
-        <v>4140.198461326574</v>
+        <v>4114.833655172234</v>
       </c>
       <c r="G57" t="n">
-        <v>8539.819075361051</v>
+        <v>3406.989042878472</v>
       </c>
       <c r="H57" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I57" t="n">
-        <v>597668</v>
+        <v>643788</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>277887865</v>
+        <v>283417699</v>
       </c>
       <c r="E58" t="n">
-        <v>277887865</v>
+        <v>283417699</v>
       </c>
       <c r="F58" t="n">
-        <v>73646.3428174368</v>
+        <v>53880.2826091571</v>
       </c>
       <c r="G58" t="n">
-        <v>71719.69634246771</v>
+        <v>75812.2092626657</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>97832619</v>
+        <v>109780916</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>12105727</v>
+        <v>11953948</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>29.09061515149355</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>468.4305799175702</v>
       </c>
       <c r="H59" t="n">
-        <v>3.96</v>
+        <v>2.19</v>
       </c>
       <c r="I59" t="n">
-        <v>34557</v>
+        <v>37054</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>77851094</v>
+        <v>79430750</v>
       </c>
       <c r="E60" t="n">
-        <v>448611581</v>
+        <v>457714242</v>
       </c>
       <c r="F60" t="n">
-        <v>96643.79398966627</v>
+        <v>94391.39702738171</v>
       </c>
       <c r="G60" t="n">
-        <v>99315.49787260042</v>
+        <v>94102.2283591358</v>
       </c>
       <c r="H60" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>18205558</v>
+        <v>20336845</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7976786</v>
+        <v>7823508</v>
       </c>
       <c r="E61" t="n">
-        <v>7976786</v>
+        <v>7823508</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>10.49</v>
+        <v>7.71</v>
       </c>
       <c r="I61" t="n">
-        <v>2328241</v>
+        <v>2233120</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33000061</v>
+        <v>33023753</v>
       </c>
       <c r="E62" t="n">
-        <v>147754810</v>
+        <v>147860891</v>
       </c>
       <c r="F62" t="n">
-        <v>11435.97363691257</v>
+        <v>17166.14644233151</v>
       </c>
       <c r="G62" t="n">
-        <v>21666.61025514475</v>
+        <v>23329.35277474021</v>
       </c>
       <c r="H62" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I62" t="n">
-        <v>26085390</v>
+        <v>27190216</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11531351</v>
+        <v>11051332</v>
       </c>
       <c r="E63" t="n">
-        <v>23046536</v>
+        <v>22087170</v>
       </c>
       <c r="F63" t="n">
-        <v>1977.749215022854</v>
+        <v>1024.84959325616</v>
       </c>
       <c r="G63" t="n">
-        <v>1527.09275354467</v>
+        <v>5.571735289405941</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I63" t="n">
-        <v>46907</v>
+        <v>31705</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>901477</v>
+        <v>935616</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>99.51029835174994</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>11.34278603149807</v>
       </c>
       <c r="H64" t="n">
-        <v>4.27</v>
+        <v>2.5</v>
       </c>
       <c r="I64" t="n">
-        <v>45638</v>
+        <v>18656.43</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>41865292</v>
+        <v>42611877</v>
       </c>
       <c r="E65" t="n">
-        <v>271485279</v>
+        <v>276326678</v>
       </c>
       <c r="F65" t="n">
-        <v>14835.53411489371</v>
+        <v>15528.44695193962</v>
       </c>
       <c r="G65" t="n">
-        <v>18952.71459801495</v>
+        <v>20739.85005644788</v>
       </c>
       <c r="H65" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="I65" t="n">
-        <v>36294622</v>
+        <v>44043615</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4085475</v>
+        <v>4124343</v>
       </c>
       <c r="F66" t="n">
-        <v>554.7869867809098</v>
+        <v>1040.338817513876</v>
       </c>
       <c r="G66" t="n">
-        <v>216.1239461061141</v>
+        <v>182.5588720911019</v>
       </c>
       <c r="H66" t="n">
-        <v>0.88</v>
+        <v>1.16</v>
       </c>
       <c r="I66" t="n">
-        <v>206392</v>
+        <v>212415</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>121416360</v>
+        <v>121743658</v>
       </c>
       <c r="E67" t="n">
-        <v>2010754361</v>
+        <v>2016174693</v>
       </c>
       <c r="F67" t="n">
-        <v>171454.1378318653</v>
+        <v>152229.924930607</v>
       </c>
       <c r="G67" t="n">
-        <v>151388.7267290499</v>
+        <v>164595.272457902</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I67" t="n">
-        <v>19871364</v>
+        <v>20969521</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21232300</v>
+        <v>22607839</v>
       </c>
       <c r="E68" t="n">
-        <v>127037121</v>
+        <v>135267244</v>
       </c>
       <c r="F68" t="n">
-        <v>37317.95504078901</v>
+        <v>37936.25253489803</v>
       </c>
       <c r="G68" t="n">
-        <v>39935.55021630169</v>
+        <v>38326.54441266389</v>
       </c>
       <c r="H68" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>14250339</v>
+        <v>21146766</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17938976</v>
+        <v>16900508</v>
       </c>
       <c r="E70" t="n">
-        <v>17939228</v>
+        <v>16900508</v>
       </c>
       <c r="F70" t="n">
-        <v>2479.157754734528</v>
+        <v>2959.151107640129</v>
       </c>
       <c r="G70" t="n">
-        <v>3089.69873975991</v>
+        <v>2007.113861133796</v>
       </c>
       <c r="H70" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="I70" t="n">
-        <v>3156175</v>
+        <v>4487782</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34608341</v>
+        <v>41903919</v>
       </c>
       <c r="E71" t="n">
-        <v>172711573</v>
+        <v>209119873</v>
       </c>
       <c r="F71" t="n">
-        <v>11991.27431814168</v>
+        <v>4790.016029309741</v>
       </c>
       <c r="G71" t="n">
-        <v>65636.71843146025</v>
+        <v>88153.89341366831</v>
       </c>
       <c r="H71" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I71" t="n">
-        <v>21913000</v>
+        <v>49499235</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>141012</v>
+        <v>136967</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>24875</v>
+        <v>17727.07</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>244620454</v>
+        <v>322723432</v>
       </c>
       <c r="E73" t="n">
-        <v>452603624</v>
+        <v>597111946</v>
       </c>
       <c r="F73" t="n">
-        <v>20672.57337289171</v>
+        <v>23067.50192799328</v>
       </c>
       <c r="G73" t="n">
-        <v>13268.75520004935</v>
+        <v>11600.584655322</v>
       </c>
       <c r="H73" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I73" t="n">
-        <v>33995014</v>
+        <v>111879226</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10085189</v>
+        <v>9716231</v>
       </c>
       <c r="E74" t="n">
-        <v>29517291</v>
+        <v>28437428</v>
       </c>
       <c r="F74" t="n">
-        <v>2275.091798897159</v>
+        <v>2254.50738940218</v>
       </c>
       <c r="G74" t="n">
-        <v>1289.102681870476</v>
+        <v>2987.153768458143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="I74" t="n">
-        <v>5725059</v>
+        <v>5529835</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7049808</v>
+        <v>6511209</v>
       </c>
       <c r="E75" t="n">
-        <v>9990839</v>
+        <v>9223536</v>
       </c>
       <c r="F75" t="n">
-        <v>26.24125903008393</v>
+        <v>15.73164400932424</v>
       </c>
       <c r="G75" t="n">
-        <v>3702.392334769297</v>
+        <v>1817.699052583577</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="I75" t="n">
-        <v>338418</v>
+        <v>367955</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>12749346</v>
+        <v>12711404</v>
       </c>
       <c r="F76" t="n">
-        <v>1.805885357877735</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>55.42073756293722</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>2.56</v>
+        <v>4.52</v>
       </c>
       <c r="I76" t="n">
-        <v>1084188</v>
+        <v>1068699</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>59018379</v>
+        <v>57440547</v>
       </c>
       <c r="E77" t="n">
-        <v>81500545</v>
+        <v>79578390</v>
       </c>
       <c r="F77" t="n">
-        <v>9260.073788561918</v>
+        <v>8496.963068762016</v>
       </c>
       <c r="G77" t="n">
-        <v>8822.962671282878</v>
+        <v>10659.10993699307</v>
       </c>
       <c r="H77" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I77" t="n">
-        <v>5345779</v>
+        <v>4917221</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5480251</v>
+        <v>5330766</v>
       </c>
       <c r="E78" t="n">
-        <v>5480251</v>
+        <v>5330766</v>
       </c>
       <c r="F78" t="n">
-        <v>2514.873036213413</v>
+        <v>1246.745911781685</v>
       </c>
       <c r="G78" t="n">
-        <v>493.177502249404</v>
+        <v>69.14854717631316</v>
       </c>
       <c r="H78" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I78" t="n">
-        <v>955572</v>
+        <v>1090566</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>55612</v>
+        <v>53683</v>
       </c>
       <c r="E79" t="n">
-        <v>290161</v>
+        <v>280097</v>
       </c>
       <c r="F79" t="n">
-        <v>220.7056533756411</v>
+        <v>12.57566148247795</v>
       </c>
       <c r="G79" t="n">
-        <v>60.46527171686519</v>
+        <v>47.93306941934587</v>
       </c>
       <c r="H79" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="I79" t="n">
-        <v>189396</v>
+        <v>151454</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>23114509</v>
+        <v>22958541</v>
       </c>
       <c r="F80" t="n">
-        <v>390.4684376477898</v>
+        <v>488.2590511957274</v>
       </c>
       <c r="G80" t="n">
-        <v>252.5256536521157</v>
+        <v>53.28304931002753</v>
       </c>
       <c r="H80" t="n">
-        <v>1.04</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>29693</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>550007443</v>
+        <v>558991790</v>
       </c>
       <c r="E81" t="n">
-        <v>2130097679</v>
+        <v>2164892731</v>
       </c>
       <c r="F81" t="n">
-        <v>69010.25615752822</v>
+        <v>56757.20219101159</v>
       </c>
       <c r="G81" t="n">
-        <v>56928.2131855643</v>
+        <v>70270.07264365976</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>38827224</v>
+        <v>51374679</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6320621</v>
+        <v>6905506</v>
       </c>
       <c r="E82" t="n">
-        <v>9054238</v>
+        <v>9891418</v>
       </c>
       <c r="F82" t="n">
-        <v>2153.417892960397</v>
+        <v>1984.063128708371</v>
       </c>
       <c r="G82" t="n">
-        <v>587.1465157206251</v>
+        <v>682.8820096700284</v>
       </c>
       <c r="H82" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I82" t="n">
-        <v>179699</v>
+        <v>385097</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>94649709</v>
+        <v>99471867</v>
       </c>
       <c r="E83" t="n">
-        <v>895553086</v>
+        <v>941179200</v>
       </c>
       <c r="F83" t="n">
-        <v>34423.90618329372</v>
+        <v>30528.64434078302</v>
       </c>
       <c r="G83" t="n">
-        <v>30133.31470361684</v>
+        <v>31873.06508926847</v>
       </c>
       <c r="H83" t="n">
         <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>12246868</v>
+        <v>18415080</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1043939</v>
+        <v>1088541</v>
       </c>
       <c r="E84" t="n">
-        <v>4042360</v>
+        <v>4215067</v>
       </c>
       <c r="F84" t="n">
-        <v>603.8833090982483</v>
+        <v>739.8136172631336</v>
       </c>
       <c r="G84" t="n">
-        <v>378.7099198893493</v>
+        <v>895.6284024317507</v>
       </c>
       <c r="H84" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>102921</v>
+        <v>141264</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127498149</v>
+        <v>125785683</v>
       </c>
       <c r="E85" t="n">
-        <v>489103422</v>
+        <v>482534126</v>
       </c>
       <c r="F85" t="n">
-        <v>73414.83351086812</v>
+        <v>94686.28818151791</v>
       </c>
       <c r="G85" t="n">
-        <v>86580.66258519961</v>
+        <v>88868.10602537307</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>30277520</v>
+        <v>36644892</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4529599</v>
+        <v>4457682</v>
       </c>
       <c r="E86" t="n">
-        <v>16658137</v>
+        <v>16393654</v>
       </c>
       <c r="F86" t="n">
-        <v>5474.602577132083</v>
+        <v>5430.335785958619</v>
       </c>
       <c r="G86" t="n">
-        <v>5901.755412201608</v>
+        <v>5257.118737836837</v>
       </c>
       <c r="H86" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I86" t="n">
-        <v>90612</v>
+        <v>85544</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>28754319</v>
+        <v>27991997</v>
       </c>
       <c r="F87" t="n">
-        <v>3330.905746320445</v>
+        <v>2485.907027439382</v>
       </c>
       <c r="G87" t="n">
-        <v>897.1730967042866</v>
+        <v>1588.846235119197</v>
       </c>
       <c r="H87" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I87" t="n">
-        <v>10077372</v>
+        <v>11362026</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>17968493</v>
+        <v>16929890</v>
       </c>
       <c r="F88" t="n">
-        <v>830.2780100338335</v>
+        <v>855.1483468814394</v>
       </c>
       <c r="G88" t="n">
-        <v>751.6017943149914</v>
+        <v>570.8963282577843</v>
       </c>
       <c r="H88" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="I88" t="n">
-        <v>39420</v>
+        <v>21924</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115563296</v>
+        <v>115815082</v>
       </c>
       <c r="E89" t="n">
-        <v>421231036</v>
+        <v>422133312</v>
       </c>
       <c r="F89" t="n">
-        <v>1926.846223568328</v>
+        <v>1974.37277129518</v>
       </c>
       <c r="G89" t="n">
-        <v>2353.628417748528</v>
+        <v>1862.418241735948</v>
       </c>
       <c r="H89" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I89" t="n">
-        <v>912761</v>
+        <v>988371</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>23319815</v>
+        <v>24395143</v>
       </c>
       <c r="E90" t="n">
-        <v>23319815</v>
+        <v>24395143</v>
       </c>
       <c r="F90" t="n">
-        <v>3835.286807878049</v>
+        <v>5792.533068234166</v>
       </c>
       <c r="G90" t="n">
-        <v>1616.79129360151</v>
+        <v>5321.068372099641</v>
       </c>
       <c r="H90" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I90" t="n">
-        <v>13829607</v>
+        <v>14189373</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3652632</v>
+        <v>3587073</v>
       </c>
       <c r="E91" t="n">
-        <v>7923599</v>
+        <v>7781384</v>
       </c>
       <c r="F91" t="n">
-        <v>2332.626154392397</v>
+        <v>2128.41485215533</v>
       </c>
       <c r="G91" t="n">
-        <v>704.7016429088102</v>
+        <v>1116.207701451709</v>
       </c>
       <c r="H91" t="n">
-        <v>0.25</v>
+        <v>0.64</v>
       </c>
       <c r="I91" t="n">
-        <v>2098966</v>
+        <v>2022118</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>395498732</v>
+        <v>408925023</v>
       </c>
       <c r="E92" t="n">
-        <v>1373216509</v>
+        <v>1419116328</v>
       </c>
       <c r="F92" t="n">
-        <v>127096.4776611304</v>
+        <v>123668.528765035</v>
       </c>
       <c r="G92" t="n">
-        <v>126195.3412038081</v>
+        <v>128951.8696686263</v>
       </c>
       <c r="H92" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>40256033</v>
+        <v>51896351</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1852619</v>
+        <v>1940392</v>
       </c>
       <c r="E93" t="n">
-        <v>7410477</v>
+        <v>7761570</v>
       </c>
       <c r="F93" t="n">
-        <v>19494.86380888626</v>
+        <v>16557.08714708448</v>
       </c>
       <c r="G93" t="n">
-        <v>2378.383326376633</v>
+        <v>1857.142316791557</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I93" t="n">
-        <v>6675870</v>
+        <v>6677164</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>196425536</v>
+        <v>205619831</v>
       </c>
       <c r="E94" t="n">
-        <v>603934605</v>
+        <v>632203602</v>
       </c>
       <c r="F94" t="n">
-        <v>92088.63529538995</v>
+        <v>78605.50581456299</v>
       </c>
       <c r="G94" t="n">
-        <v>82306.53903936892</v>
+        <v>90644.03466609014</v>
       </c>
       <c r="H94" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>15880301</v>
+        <v>26286161</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>108201682</v>
+        <v>105764196</v>
       </c>
       <c r="E95" t="n">
-        <v>282673891</v>
+        <v>276306027</v>
       </c>
       <c r="F95" t="n">
-        <v>33464.92009630134</v>
+        <v>29161.21616023509</v>
       </c>
       <c r="G95" t="n">
-        <v>31979.91282946409</v>
+        <v>32499.24245940293</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I95" t="n">
-        <v>11989657</v>
+        <v>13185313</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>363108746</v>
+        <v>364796419</v>
       </c>
       <c r="E96" t="n">
-        <v>2074907121</v>
+        <v>2084550967</v>
       </c>
       <c r="F96" t="n">
-        <v>28218.27287800985</v>
+        <v>19173.77835824715</v>
       </c>
       <c r="G96" t="n">
-        <v>36911.025644421</v>
+        <v>46368.45075069085</v>
       </c>
       <c r="H96" t="n">
         <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>42854387</v>
+        <v>52785868</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData.xlsx
+++ b/KuCoinData.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>489362168</v>
+        <v>502811038</v>
       </c>
       <c r="E2" t="n">
-        <v>945329198</v>
+        <v>971368107</v>
       </c>
       <c r="F2" t="n">
-        <v>20395.68844885589</v>
+        <v>23159.21581988276</v>
       </c>
       <c r="G2" t="n">
-        <v>33636.81757655426</v>
+        <v>30918.07371482373</v>
       </c>
       <c r="H2" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I2" t="n">
-        <v>30629806</v>
+        <v>32519729</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1274626</v>
+        <v>1263489</v>
       </c>
       <c r="E3" t="n">
-        <v>4012744</v>
+        <v>3977683</v>
       </c>
       <c r="F3" t="n">
-        <v>4318.388244336808</v>
+        <v>2953.413363972099</v>
       </c>
       <c r="G3" t="n">
-        <v>4787.197873447345</v>
+        <v>4981.880134391812</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>265200</v>
+        <v>251066</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>238860897</v>
+        <v>251837845</v>
       </c>
       <c r="E4" t="n">
-        <v>1497863109</v>
+        <v>1579239727</v>
       </c>
       <c r="F4" t="n">
-        <v>80946.74862908044</v>
+        <v>122195.8676783752</v>
       </c>
       <c r="G4" t="n">
-        <v>82430.36079954251</v>
+        <v>144958.8505831379</v>
       </c>
       <c r="H4" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>51855283</v>
+        <v>105924887</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137778994</v>
+        <v>137927885</v>
       </c>
       <c r="E5" t="n">
-        <v>152680655</v>
+        <v>152845650</v>
       </c>
       <c r="F5" t="n">
-        <v>13253.16165898341</v>
+        <v>18396.29647028524</v>
       </c>
       <c r="G5" t="n">
-        <v>23580.96407229644</v>
+        <v>23412.38217486683</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>36622599</v>
+        <v>43238692</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>593128</v>
+        <v>594104</v>
       </c>
       <c r="E6" t="n">
-        <v>11479374</v>
+        <v>11498264</v>
       </c>
       <c r="F6" t="n">
-        <v>585.9608898636053</v>
+        <v>264.2626735277283</v>
       </c>
       <c r="G6" t="n">
-        <v>286.7511947846925</v>
+        <v>269.0692454874431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="I6" t="n">
-        <v>9159.15</v>
+        <v>7516.96</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>375521845</v>
+        <v>377542980</v>
       </c>
       <c r="E7" t="n">
-        <v>375521846</v>
+        <v>377542987</v>
       </c>
       <c r="F7" t="n">
-        <v>38895.80497761829</v>
+        <v>38729.08859319946</v>
       </c>
       <c r="G7" t="n">
-        <v>53576.60023135056</v>
+        <v>45871.42021171672</v>
       </c>
       <c r="H7" t="n">
         <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>35956610</v>
+        <v>38315884</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3846505</v>
+        <v>3932435</v>
       </c>
       <c r="E8" t="n">
-        <v>3846505</v>
+        <v>3932435</v>
       </c>
       <c r="F8" t="n">
-        <v>665.998627428438</v>
+        <v>267.0410376787411</v>
       </c>
       <c r="G8" t="n">
-        <v>1300.873917056989</v>
+        <v>780.4199422490444</v>
       </c>
       <c r="H8" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I8" t="n">
-        <v>2903980</v>
+        <v>2955420</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1555299</v>
+        <v>1573878</v>
       </c>
       <c r="F9" t="n">
-        <v>418.0461970695079</v>
+        <v>643.8644448585341</v>
       </c>
       <c r="G9" t="n">
-        <v>4777.761313445792</v>
+        <v>10067.67312145092</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>277733</v>
+        <v>324467</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1645588</v>
+        <v>1648704</v>
       </c>
       <c r="F10" t="n">
-        <v>192.1586449483232</v>
+        <v>552.747403733665</v>
       </c>
       <c r="G10" t="n">
-        <v>55.95194838446795</v>
+        <v>210.749155746667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="I10" t="n">
-        <v>213524</v>
+        <v>185183</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93885500</v>
+        <v>93035292</v>
       </c>
       <c r="E11" t="n">
-        <v>176869152</v>
+        <v>175267461</v>
       </c>
       <c r="F11" t="n">
-        <v>1365.863001679504</v>
+        <v>1360.99771387596</v>
       </c>
       <c r="G11" t="n">
-        <v>1555.501720191545</v>
+        <v>2643.398976961812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>4014483</v>
+        <v>4123767</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10598957</v>
+        <v>10626027</v>
       </c>
       <c r="E12" t="n">
-        <v>26378887</v>
+        <v>26446260</v>
       </c>
       <c r="F12" t="n">
-        <v>836.4187914604762</v>
+        <v>629.8649093254595</v>
       </c>
       <c r="G12" t="n">
-        <v>697.8894888427321</v>
+        <v>841.2934625551824</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1121657</v>
+        <v>1051111</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>102943210</v>
+        <v>106184235</v>
       </c>
       <c r="E13" t="n">
-        <v>397283501</v>
+        <v>409660425</v>
       </c>
       <c r="F13" t="n">
-        <v>8936.685156526835</v>
+        <v>8565.008046372988</v>
       </c>
       <c r="G13" t="n">
-        <v>23737.68856624723</v>
+        <v>20977.86761899647</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>10845996</v>
+        <v>17712252</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4063204</v>
+        <v>4017655</v>
       </c>
       <c r="E14" t="n">
-        <v>5981256</v>
+        <v>5914205</v>
       </c>
       <c r="F14" t="n">
-        <v>98.58060405395797</v>
+        <v>84.51083172642296</v>
       </c>
       <c r="G14" t="n">
-        <v>493.4835579390873</v>
+        <v>684.1334413072753</v>
       </c>
       <c r="H14" t="n">
         <v>1.64</v>
       </c>
       <c r="I14" t="n">
-        <v>554466</v>
+        <v>540990</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>128893951</v>
+        <v>131058732</v>
       </c>
       <c r="E15" t="n">
-        <v>128893951</v>
+        <v>131058732</v>
       </c>
       <c r="F15" t="n">
-        <v>77340.72905186108</v>
+        <v>80131.72374268439</v>
       </c>
       <c r="G15" t="n">
-        <v>111684.1745734084</v>
+        <v>91516.15190903722</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>80367391</v>
+        <v>76601314</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69128710</v>
+        <v>70504543</v>
       </c>
       <c r="E16" t="n">
-        <v>354506203</v>
+        <v>361561760</v>
       </c>
       <c r="F16" t="n">
-        <v>23383.0299571557</v>
+        <v>25383.76356214393</v>
       </c>
       <c r="G16" t="n">
-        <v>24747.20889256061</v>
+        <v>34313.30571378068</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>29028525</v>
+        <v>32642716</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>209690566</v>
+        <v>215030960</v>
       </c>
       <c r="E17" t="n">
-        <v>209690566</v>
+        <v>215030960</v>
       </c>
       <c r="F17" t="n">
-        <v>32774.92463688517</v>
+        <v>39078.14127912851</v>
       </c>
       <c r="G17" t="n">
-        <v>67194.07655351172</v>
+        <v>60628.3562282842</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>38112228</v>
+        <v>43778195</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2263778</v>
+        <v>2278387</v>
       </c>
       <c r="E18" t="n">
-        <v>5786957</v>
+        <v>5824301</v>
       </c>
       <c r="F18" t="n">
-        <v>550.2432593610616</v>
+        <v>850.2584090533192</v>
       </c>
       <c r="G18" t="n">
-        <v>788.9269197521139</v>
+        <v>920.377626508777</v>
       </c>
       <c r="H18" t="n">
         <v>0.34</v>
       </c>
       <c r="I18" t="n">
-        <v>66153</v>
+        <v>68586</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75359306</v>
+        <v>78952395</v>
       </c>
       <c r="E19" t="n">
-        <v>210894962</v>
+        <v>220930840</v>
       </c>
       <c r="F19" t="n">
-        <v>21316.65785622248</v>
+        <v>15244.47667078911</v>
       </c>
       <c r="G19" t="n">
-        <v>25998.68149590172</v>
+        <v>31119.00712830363</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>63353206</v>
+        <v>72705150</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1706929</v>
+        <v>1700871</v>
       </c>
       <c r="E20" t="n">
-        <v>9800548</v>
+        <v>9765765</v>
       </c>
       <c r="F20" t="n">
-        <v>35.98524046994975</v>
+        <v>48.00882997657882</v>
       </c>
       <c r="G20" t="n">
-        <v>696.5893372888802</v>
+        <v>845.3049695726514</v>
       </c>
       <c r="H20" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="I20" t="n">
-        <v>261060</v>
+        <v>254466</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>142293</v>
+        <v>152338</v>
       </c>
       <c r="E21" t="n">
-        <v>960918</v>
+        <v>1028758</v>
       </c>
       <c r="F21" t="n">
-        <v>2.686654399770092</v>
+        <v>111.7807125339807</v>
       </c>
       <c r="G21" t="n">
-        <v>116.1854721865412</v>
+        <v>188.5753328388932</v>
       </c>
       <c r="H21" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2660727</v>
+        <v>2629158</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>235243</v>
+        <v>236614</v>
       </c>
       <c r="F22" t="n">
-        <v>1.306568678969733</v>
+        <v>24.74224406250424</v>
       </c>
       <c r="G22" t="n">
-        <v>241.069837534329</v>
+        <v>48.97492641776687</v>
       </c>
       <c r="H22" t="n">
         <v>1.89</v>
       </c>
       <c r="I22" t="n">
-        <v>4809</v>
+        <v>4736.7</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73162130</v>
+        <v>73585576</v>
       </c>
       <c r="E23" t="n">
-        <v>152537165</v>
+        <v>153420015</v>
       </c>
       <c r="F23" t="n">
-        <v>33763.73702183261</v>
+        <v>43914.27068937087</v>
       </c>
       <c r="G23" t="n">
-        <v>45403.47751965259</v>
+        <v>39843.76008722538</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>16615568</v>
+        <v>16473099</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>201474256</v>
+        <v>202726910</v>
       </c>
       <c r="E24" t="n">
-        <v>699939774</v>
+        <v>704291607</v>
       </c>
       <c r="F24" t="n">
-        <v>55765.05080424961</v>
+        <v>61749.86994435274</v>
       </c>
       <c r="G24" t="n">
-        <v>50571.23287134981</v>
+        <v>64854.70441348829</v>
       </c>
       <c r="H24" t="n">
         <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>44389419</v>
+        <v>64515349</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>104657928</v>
+        <v>106870420</v>
       </c>
       <c r="E25" t="n">
-        <v>438123053</v>
+        <v>447126471</v>
       </c>
       <c r="F25" t="n">
-        <v>16886.355315407</v>
+        <v>18722.73891572115</v>
       </c>
       <c r="G25" t="n">
-        <v>15807.87054006567</v>
+        <v>16725.94265740279</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="I25" t="n">
-        <v>17495505</v>
+        <v>17206950</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4994468</v>
+        <v>5012568</v>
       </c>
       <c r="E26" t="n">
-        <v>6751774</v>
+        <v>6775986</v>
       </c>
       <c r="F26" t="n">
-        <v>1092.858763518407</v>
+        <v>1619.818562515035</v>
       </c>
       <c r="G26" t="n">
-        <v>469.0322538086281</v>
+        <v>490.2249496889961</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4750954</v>
+        <v>5110735</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>345744</v>
+        <v>352705</v>
       </c>
       <c r="E27" t="n">
-        <v>4193532</v>
+        <v>4277972</v>
       </c>
       <c r="F27" t="n">
-        <v>474.7991559565239</v>
+        <v>556.4939187086891</v>
       </c>
       <c r="G27" t="n">
-        <v>303.1319112137253</v>
+        <v>191.9506753766369</v>
       </c>
       <c r="H27" t="n">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="I27" t="n">
-        <v>2079970</v>
+        <v>2060236</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22335188</v>
+        <v>22681561</v>
       </c>
       <c r="E28" t="n">
-        <v>31531408</v>
+        <v>32020396</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>744.2610773220194</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>89.95742615517999</v>
       </c>
       <c r="H28" t="n">
-        <v>3.93</v>
+        <v>2.59</v>
       </c>
       <c r="I28" t="n">
-        <v>101673</v>
+        <v>108118</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1357009164</v>
+        <v>1343868629</v>
       </c>
       <c r="E29" t="n">
-        <v>6507136850</v>
+        <v>6444125295</v>
       </c>
       <c r="F29" t="n">
-        <v>109781.2526394753</v>
+        <v>120733.1162011272</v>
       </c>
       <c r="G29" t="n">
-        <v>220791.2890630726</v>
+        <v>214838.0100227484</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>318154211</v>
+        <v>313271762</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>225323051</v>
+        <v>225061828</v>
       </c>
       <c r="E30" t="n">
-        <v>972619372</v>
+        <v>971491791</v>
       </c>
       <c r="F30" t="n">
-        <v>140688.1326080761</v>
+        <v>135313.8911191762</v>
       </c>
       <c r="G30" t="n">
-        <v>193634.2602736865</v>
+        <v>197170.6238010995</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>130060923</v>
+        <v>141870645</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5094066</v>
+        <v>5118508</v>
       </c>
       <c r="E31" t="n">
-        <v>5099831</v>
+        <v>5124301</v>
       </c>
       <c r="F31" t="n">
-        <v>405.1949396281254</v>
+        <v>373.5976207704267</v>
       </c>
       <c r="G31" t="n">
-        <v>708.8105900796215</v>
+        <v>688.2654665524321</v>
       </c>
       <c r="H31" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>156864</v>
+        <v>157828</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12165159</v>
+        <v>13322131</v>
       </c>
       <c r="E32" t="n">
-        <v>30412898</v>
+        <v>33305328</v>
       </c>
       <c r="F32" t="n">
-        <v>2133.879256600962</v>
+        <v>1750.716887916298</v>
       </c>
       <c r="G32" t="n">
-        <v>3658.806537827021</v>
+        <v>2722.339966357011</v>
       </c>
       <c r="H32" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>3095101</v>
+        <v>3372746</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18022414</v>
+        <v>18133732</v>
       </c>
       <c r="F33" t="n">
-        <v>759.4937318945646</v>
+        <v>2026.327519767716</v>
       </c>
       <c r="G33" t="n">
-        <v>2574.900139815399</v>
+        <v>4426.740178629363</v>
       </c>
       <c r="H33" t="n">
-        <v>0.55</v>
+        <v>1.1</v>
       </c>
       <c r="I33" t="n">
-        <v>46960</v>
+        <v>26270</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3803143</v>
+        <v>3903627</v>
       </c>
       <c r="E34" t="n">
-        <v>10952213</v>
+        <v>11241583</v>
       </c>
       <c r="F34" t="n">
-        <v>2383.064835815498</v>
+        <v>746.6179485892277</v>
       </c>
       <c r="G34" t="n">
-        <v>638.3745972199516</v>
+        <v>557.1093774986767</v>
       </c>
       <c r="H34" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I34" t="n">
-        <v>443219</v>
+        <v>403990</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1290210</v>
+        <v>1240629</v>
       </c>
       <c r="F35" t="n">
-        <v>872.4741755352837</v>
+        <v>4.1747553680805</v>
       </c>
       <c r="G35" t="n">
-        <v>236.8496310791493</v>
+        <v>127.9174113948215</v>
       </c>
       <c r="H35" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>3144</v>
+        <v>3502.74</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11377966</v>
+        <v>11404933</v>
       </c>
       <c r="E36" t="n">
-        <v>55105304</v>
+        <v>55235910</v>
       </c>
       <c r="F36" t="n">
-        <v>6336.72363634841</v>
+        <v>7245.341575390036</v>
       </c>
       <c r="G36" t="n">
-        <v>5458.477304771912</v>
+        <v>6629.437597819216</v>
       </c>
       <c r="H36" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I36" t="n">
-        <v>3048642</v>
+        <v>3095583</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1165566</v>
+        <v>1159957</v>
       </c>
       <c r="E37" t="n">
-        <v>7628599</v>
+        <v>7591890</v>
       </c>
       <c r="F37" t="n">
-        <v>251.6988460983276</v>
+        <v>251.9473071013556</v>
       </c>
       <c r="G37" t="n">
-        <v>704.947509146562</v>
+        <v>866.1358986043799</v>
       </c>
       <c r="H37" t="n">
         <v>1.32</v>
       </c>
       <c r="I37" t="n">
-        <v>53272</v>
+        <v>52534</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1714869395</v>
+        <v>1729008664</v>
       </c>
       <c r="F38" t="n">
-        <v>73480.77328443999</v>
+        <v>77520.26898132626</v>
       </c>
       <c r="G38" t="n">
-        <v>75891.83738657911</v>
+        <v>77342.48536566315</v>
       </c>
       <c r="H38" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>31669737</v>
+        <v>31789728</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>26622491</v>
+        <v>26479779</v>
       </c>
       <c r="E39" t="n">
-        <v>82893895</v>
+        <v>82449537</v>
       </c>
       <c r="F39" t="n">
-        <v>4340.302194735831</v>
+        <v>3016.473315170715</v>
       </c>
       <c r="G39" t="n">
-        <v>7463.581823803162</v>
+        <v>7363.943800449124</v>
       </c>
       <c r="H39" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I39" t="n">
-        <v>11335020</v>
+        <v>11611967</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>177901288</v>
+        <v>178784316</v>
       </c>
       <c r="E40" t="n">
-        <v>1007386402</v>
+        <v>1012386649</v>
       </c>
       <c r="F40" t="n">
-        <v>78462.4780374773</v>
+        <v>80503.24973308522</v>
       </c>
       <c r="G40" t="n">
-        <v>87879.56492566135</v>
+        <v>98849.51300052248</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>68236068</v>
+        <v>69389436</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>98951190</v>
+        <v>99548819</v>
       </c>
       <c r="E41" t="n">
-        <v>732971779</v>
+        <v>737398656</v>
       </c>
       <c r="F41" t="n">
-        <v>153328.874575338</v>
+        <v>216573.713985883</v>
       </c>
       <c r="G41" t="n">
-        <v>185723.321091904</v>
+        <v>224000.5315553931</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>10077837</v>
+        <v>10057567</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25269326</v>
+        <v>25771598</v>
       </c>
       <c r="E42" t="n">
-        <v>118767540</v>
+        <v>121120144</v>
       </c>
       <c r="F42" t="n">
-        <v>7806.950983247667</v>
+        <v>7674.763777512103</v>
       </c>
       <c r="G42" t="n">
-        <v>8031.157510770646</v>
+        <v>7118.418491791963</v>
       </c>
       <c r="H42" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>669281</v>
+        <v>750511</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2989737</v>
+        <v>2925036</v>
       </c>
       <c r="E43" t="n">
-        <v>6981534</v>
+        <v>6830446</v>
       </c>
       <c r="F43" t="n">
-        <v>1052.473458624678</v>
+        <v>721.3703291857719</v>
       </c>
       <c r="G43" t="n">
-        <v>744.1641446781008</v>
+        <v>1509.232444389057</v>
       </c>
       <c r="H43" t="n">
-        <v>1.34</v>
+        <v>0.48</v>
       </c>
       <c r="I43" t="n">
-        <v>386474</v>
+        <v>338921</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>293276369</v>
+        <v>299000367</v>
       </c>
       <c r="E44" t="n">
-        <v>2638496066</v>
+        <v>2689992708</v>
       </c>
       <c r="F44" t="n">
-        <v>46560.6503343914</v>
+        <v>51178.76762602309</v>
       </c>
       <c r="G44" t="n">
-        <v>61986.36241068281</v>
+        <v>60728.77635195764</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>47908762</v>
+        <v>47107642</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>623040</v>
+        <v>632277</v>
       </c>
       <c r="F45" t="n">
-        <v>445.7523708030253</v>
+        <v>1062.176615512577</v>
       </c>
       <c r="G45" t="n">
-        <v>1370.781197821625</v>
+        <v>249.3538515711288</v>
       </c>
       <c r="H45" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I45" t="n">
-        <v>13624.74</v>
+        <v>12250.5</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1531067</v>
+        <v>1526359</v>
       </c>
       <c r="E46" t="n">
-        <v>12758893</v>
+        <v>12719655</v>
       </c>
       <c r="F46" t="n">
-        <v>712.6470523996974</v>
+        <v>754.252010325568</v>
       </c>
       <c r="G46" t="n">
-        <v>1373.712009551448</v>
+        <v>807.064929416938</v>
       </c>
       <c r="H46" t="n">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="I46" t="n">
-        <v>81609</v>
+        <v>51841</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4893906</v>
+        <v>4924358</v>
       </c>
       <c r="E47" t="n">
-        <v>17287397</v>
+        <v>17394965</v>
       </c>
       <c r="F47" t="n">
-        <v>860.8572894881388</v>
+        <v>922.0041007508511</v>
       </c>
       <c r="G47" t="n">
-        <v>1724.743521231398</v>
+        <v>1672.708098703787</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="I47" t="n">
-        <v>110944</v>
+        <v>106998</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40134973</v>
+        <v>41478738</v>
       </c>
       <c r="E48" t="n">
-        <v>232364911</v>
+        <v>240144755</v>
       </c>
       <c r="F48" t="n">
-        <v>43718.12757915199</v>
+        <v>45818.2215384548</v>
       </c>
       <c r="G48" t="n">
-        <v>36304.31723993923</v>
+        <v>39008.59362756149</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>12861673</v>
+        <v>14598551</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1921960</v>
+        <v>1915609</v>
       </c>
       <c r="E49" t="n">
-        <v>10559577</v>
+        <v>10524684</v>
       </c>
       <c r="F49" t="n">
-        <v>3498.964299458346</v>
+        <v>1218.547235269438</v>
       </c>
       <c r="G49" t="n">
-        <v>2143.064906927355</v>
+        <v>828.9247773607883</v>
       </c>
       <c r="H49" t="n">
-        <v>1.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>51191</v>
+        <v>50899</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12101221</v>
+        <v>12504682</v>
       </c>
       <c r="E50" t="n">
-        <v>12142410</v>
+        <v>12547248</v>
       </c>
       <c r="F50" t="n">
-        <v>6929.419970937185</v>
+        <v>4728.626845033619</v>
       </c>
       <c r="G50" t="n">
-        <v>8500.16583203341</v>
+        <v>6328.530258232357</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>7069393</v>
+        <v>7228941</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>16897805</v>
+        <v>16766171</v>
       </c>
       <c r="E51" t="n">
-        <v>50093393</v>
+        <v>49703164</v>
       </c>
       <c r="F51" t="n">
-        <v>3112.021720964608</v>
+        <v>1696.584579237475</v>
       </c>
       <c r="G51" t="n">
-        <v>24646.58969493671</v>
+        <v>2282.015047407582</v>
       </c>
       <c r="H51" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="I51" t="n">
-        <v>5856893</v>
+        <v>6227752</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15890008</v>
+        <v>17447565</v>
       </c>
       <c r="E52" t="n">
-        <v>97395084</v>
+        <v>106941863</v>
       </c>
       <c r="F52" t="n">
-        <v>5936.373336431378</v>
+        <v>5830.182706253699</v>
       </c>
       <c r="G52" t="n">
-        <v>7222.511377003689</v>
+        <v>8141.036157311954</v>
       </c>
       <c r="H52" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I52" t="n">
-        <v>14807970</v>
+        <v>16343639</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>42084544</v>
+        <v>42083614</v>
       </c>
       <c r="E53" t="n">
-        <v>181295615</v>
+        <v>181291609</v>
       </c>
       <c r="F53" t="n">
-        <v>17725.38023150473</v>
+        <v>24527.24699708646</v>
       </c>
       <c r="G53" t="n">
-        <v>19773.33916242543</v>
+        <v>22967.41997911175</v>
       </c>
       <c r="H53" t="n">
         <v>0.12</v>
       </c>
       <c r="I53" t="n">
-        <v>13722217</v>
+        <v>12600289</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>937023</v>
+        <v>940063</v>
       </c>
       <c r="E54" t="n">
-        <v>2738760</v>
+        <v>2747643</v>
       </c>
       <c r="F54" t="n">
-        <v>749.7133436687085</v>
+        <v>440.9258017661668</v>
       </c>
       <c r="G54" t="n">
-        <v>203.6008608270378</v>
+        <v>725.1058803802108</v>
       </c>
       <c r="H54" t="n">
-        <v>0.36</v>
+        <v>1.07</v>
       </c>
       <c r="I54" t="n">
-        <v>11982.93</v>
+        <v>13372.2</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>27782238</v>
+        <v>28258063</v>
       </c>
       <c r="E55" t="n">
-        <v>70053466</v>
+        <v>71253269</v>
       </c>
       <c r="F55" t="n">
-        <v>8045.033783372412</v>
+        <v>16598.5168922466</v>
       </c>
       <c r="G55" t="n">
-        <v>7392.047327880547</v>
+        <v>15595.79616709802</v>
       </c>
       <c r="H55" t="n">
-        <v>0.88</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2642218</v>
+        <v>2641189</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25299642</v>
+        <v>25460516</v>
       </c>
       <c r="E56" t="n">
-        <v>60008324</v>
+        <v>60389902</v>
       </c>
       <c r="F56" t="n">
-        <v>13235.97238335677</v>
+        <v>14199.5370843984</v>
       </c>
       <c r="G56" t="n">
-        <v>10351.30396476457</v>
+        <v>13696.91555817233</v>
       </c>
       <c r="H56" t="n">
         <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>319054</v>
+        <v>455684</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11529112</v>
+        <v>11343458</v>
       </c>
       <c r="E57" t="n">
-        <v>17424141</v>
+        <v>17143560</v>
       </c>
       <c r="F57" t="n">
-        <v>4114.833655172234</v>
+        <v>3299.077535091765</v>
       </c>
       <c r="G57" t="n">
-        <v>3406.989042878472</v>
+        <v>3766.51512070353</v>
       </c>
       <c r="H57" t="n">
         <v>0.31</v>
       </c>
       <c r="I57" t="n">
-        <v>643788</v>
+        <v>636524</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>283417699</v>
+        <v>275887808</v>
       </c>
       <c r="E58" t="n">
-        <v>283417699</v>
+        <v>275887808</v>
       </c>
       <c r="F58" t="n">
-        <v>53880.2826091571</v>
+        <v>45138.52115331397</v>
       </c>
       <c r="G58" t="n">
-        <v>75812.2092626657</v>
+        <v>65539.18884773838</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>109780916</v>
+        <v>128454898</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11953948</v>
+        <v>11979027</v>
       </c>
       <c r="F59" t="n">
-        <v>29.09061515149355</v>
+        <v>29.04645806222098</v>
       </c>
       <c r="G59" t="n">
-        <v>468.4305799175702</v>
+        <v>519.8921705374069</v>
       </c>
       <c r="H59" t="n">
-        <v>2.19</v>
+        <v>2.61</v>
       </c>
       <c r="I59" t="n">
-        <v>37054</v>
+        <v>30547</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>79430750</v>
+        <v>80358470</v>
       </c>
       <c r="E60" t="n">
-        <v>457714242</v>
+        <v>463060162</v>
       </c>
       <c r="F60" t="n">
-        <v>94391.39702738171</v>
+        <v>91862.95128480942</v>
       </c>
       <c r="G60" t="n">
-        <v>94102.2283591358</v>
+        <v>99169.81387563946</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I60" t="n">
-        <v>20336845</v>
+        <v>21340033</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7823508</v>
+        <v>7896457</v>
       </c>
       <c r="E61" t="n">
-        <v>7823508</v>
+        <v>7896457</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>7.71</v>
+        <v>12.98</v>
       </c>
       <c r="I61" t="n">
-        <v>2233120</v>
+        <v>2216204</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33023753</v>
+        <v>32141588</v>
       </c>
       <c r="E62" t="n">
-        <v>147860891</v>
+        <v>143911073</v>
       </c>
       <c r="F62" t="n">
-        <v>17166.14644233151</v>
+        <v>18094.51291438244</v>
       </c>
       <c r="G62" t="n">
-        <v>23329.35277474021</v>
+        <v>19244.76584020064</v>
       </c>
       <c r="H62" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>27190216</v>
+        <v>27617515</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11051332</v>
+        <v>10872785</v>
       </c>
       <c r="E63" t="n">
-        <v>22087170</v>
+        <v>21730327</v>
       </c>
       <c r="F63" t="n">
-        <v>1024.84959325616</v>
+        <v>795.2063864738811</v>
       </c>
       <c r="G63" t="n">
-        <v>5.571735289405941</v>
+        <v>5.382434119049199</v>
       </c>
       <c r="H63" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="I63" t="n">
-        <v>31705</v>
+        <v>32773</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>935616</v>
+        <v>931516</v>
       </c>
       <c r="F64" t="n">
-        <v>99.51029835174994</v>
+        <v>36.98096101959292</v>
       </c>
       <c r="G64" t="n">
-        <v>11.34278603149807</v>
+        <v>49.59027630228307</v>
       </c>
       <c r="H64" t="n">
-        <v>2.5</v>
+        <v>3.39</v>
       </c>
       <c r="I64" t="n">
-        <v>18656.43</v>
+        <v>33757</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>42611877</v>
+        <v>43059887</v>
       </c>
       <c r="E65" t="n">
-        <v>276326678</v>
+        <v>279231908</v>
       </c>
       <c r="F65" t="n">
-        <v>15528.44695193962</v>
+        <v>18767.42750496636</v>
       </c>
       <c r="G65" t="n">
-        <v>20739.85005644788</v>
+        <v>23005.68217148463</v>
       </c>
       <c r="H65" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I65" t="n">
-        <v>44043615</v>
+        <v>42419081</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4124343</v>
+        <v>4046710</v>
       </c>
       <c r="F66" t="n">
-        <v>1040.338817513876</v>
+        <v>940.1238550460521</v>
       </c>
       <c r="G66" t="n">
-        <v>182.5588720911019</v>
+        <v>345.7026197417745</v>
       </c>
       <c r="H66" t="n">
-        <v>1.16</v>
+        <v>0.4</v>
       </c>
       <c r="I66" t="n">
-        <v>212415</v>
+        <v>205723</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>121743658</v>
+        <v>122038039</v>
       </c>
       <c r="E67" t="n">
-        <v>2016174693</v>
+        <v>2021049884</v>
       </c>
       <c r="F67" t="n">
-        <v>152229.924930607</v>
+        <v>171372.175729573</v>
       </c>
       <c r="G67" t="n">
-        <v>164595.272457902</v>
+        <v>168671.376177524</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>20969521</v>
+        <v>18950988</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>22607839</v>
+        <v>22593903</v>
       </c>
       <c r="E68" t="n">
-        <v>135267244</v>
+        <v>135183862</v>
       </c>
       <c r="F68" t="n">
-        <v>37936.25253489803</v>
+        <v>38390.64022886085</v>
       </c>
       <c r="G68" t="n">
-        <v>38326.54441266389</v>
+        <v>6574.004608773584</v>
       </c>
       <c r="H68" t="n">
         <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>21146766</v>
+        <v>21251666</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16900508</v>
+        <v>17401896</v>
       </c>
       <c r="E70" t="n">
-        <v>16900508</v>
+        <v>17401896</v>
       </c>
       <c r="F70" t="n">
-        <v>2959.151107640129</v>
+        <v>2658.090672785996</v>
       </c>
       <c r="G70" t="n">
-        <v>2007.113861133796</v>
+        <v>2236.27341453419</v>
       </c>
       <c r="H70" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="I70" t="n">
-        <v>4487782</v>
+        <v>4669333</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>41903919</v>
+        <v>44880326</v>
       </c>
       <c r="E71" t="n">
-        <v>209119873</v>
+        <v>223973517</v>
       </c>
       <c r="F71" t="n">
-        <v>4790.016029309741</v>
+        <v>4136.118635248732</v>
       </c>
       <c r="G71" t="n">
-        <v>88153.89341366831</v>
+        <v>32724.46955735083</v>
       </c>
       <c r="H71" t="n">
-        <v>0.47</v>
+        <v>0.89</v>
       </c>
       <c r="I71" t="n">
-        <v>49499235</v>
+        <v>62990639</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>136967</v>
+        <v>134936</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>6.67</v>
       </c>
       <c r="I72" t="n">
-        <v>17727.07</v>
+        <v>11292.88</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>322723432</v>
+        <v>335356844</v>
       </c>
       <c r="E73" t="n">
-        <v>597111946</v>
+        <v>620486639</v>
       </c>
       <c r="F73" t="n">
-        <v>23067.50192799328</v>
+        <v>47897.06040207718</v>
       </c>
       <c r="G73" t="n">
-        <v>11600.584655322</v>
+        <v>48121.53648083795</v>
       </c>
       <c r="H73" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>111879226</v>
+        <v>206885025</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9716231</v>
+        <v>10759230</v>
       </c>
       <c r="E74" t="n">
-        <v>28437428</v>
+        <v>31427566</v>
       </c>
       <c r="F74" t="n">
-        <v>2254.50738940218</v>
+        <v>3191.432572917691</v>
       </c>
       <c r="G74" t="n">
-        <v>2987.153768458143</v>
+        <v>6097.817241750259</v>
       </c>
       <c r="H74" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I74" t="n">
-        <v>5529835</v>
+        <v>5999140</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6511209</v>
+        <v>6977811</v>
       </c>
       <c r="E75" t="n">
-        <v>9223536</v>
+        <v>9884507</v>
       </c>
       <c r="F75" t="n">
-        <v>15.73164400932424</v>
+        <v>1535.240190083042</v>
       </c>
       <c r="G75" t="n">
-        <v>1817.699052583577</v>
+        <v>74.90638740585774</v>
       </c>
       <c r="H75" t="n">
-        <v>0.11</v>
+        <v>0.6</v>
       </c>
       <c r="I75" t="n">
-        <v>367955</v>
+        <v>391469</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>12711404</v>
+        <v>13087557</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1.806544543456682</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>504.1553555826746</v>
       </c>
       <c r="H76" t="n">
-        <v>4.52</v>
+        <v>2.24</v>
       </c>
       <c r="I76" t="n">
-        <v>1068699</v>
+        <v>1085061</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>57440547</v>
+        <v>57573186</v>
       </c>
       <c r="E77" t="n">
-        <v>79578390</v>
+        <v>79747866</v>
       </c>
       <c r="F77" t="n">
-        <v>8496.963068762016</v>
+        <v>11518.82727502096</v>
       </c>
       <c r="G77" t="n">
-        <v>10659.10993699307</v>
+        <v>9607.066272146241</v>
       </c>
       <c r="H77" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4917221</v>
+        <v>4944114</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5330766</v>
+        <v>5377424</v>
       </c>
       <c r="E78" t="n">
-        <v>5330766</v>
+        <v>5377424</v>
       </c>
       <c r="F78" t="n">
-        <v>1246.745911781685</v>
+        <v>1199.588023612019</v>
       </c>
       <c r="G78" t="n">
-        <v>69.14854717631316</v>
+        <v>124.6816779682333</v>
       </c>
       <c r="H78" t="n">
-        <v>2.63</v>
+        <v>1.33</v>
       </c>
       <c r="I78" t="n">
-        <v>1090566</v>
+        <v>1102056</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53683</v>
+        <v>56479</v>
       </c>
       <c r="E79" t="n">
-        <v>280097</v>
+        <v>294683</v>
       </c>
       <c r="F79" t="n">
-        <v>12.57566148247795</v>
+        <v>37.07227076395395</v>
       </c>
       <c r="G79" t="n">
-        <v>47.93306941934587</v>
+        <v>154.4274150655883</v>
       </c>
       <c r="H79" t="n">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="I79" t="n">
-        <v>151454</v>
+        <v>161241</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>22958541</v>
+        <v>22119088</v>
       </c>
       <c r="F80" t="n">
-        <v>488.2590511957274</v>
+        <v>301.6836926707456</v>
       </c>
       <c r="G80" t="n">
-        <v>53.28304931002753</v>
+        <v>768.8103136946218</v>
       </c>
       <c r="H80" t="n">
-        <v>0.39</v>
+        <v>1.47</v>
       </c>
       <c r="I80" t="n">
-        <v>31270</v>
+        <v>32723</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>558991790</v>
+        <v>566535071</v>
       </c>
       <c r="E81" t="n">
-        <v>2164892731</v>
+        <v>2194106743</v>
       </c>
       <c r="F81" t="n">
-        <v>56757.20219101159</v>
+        <v>46468.26330408135</v>
       </c>
       <c r="G81" t="n">
-        <v>70270.07264365976</v>
+        <v>59864.41419966514</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>51374679</v>
+        <v>51694247</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t